--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -7404,7 +7404,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>2683620</v>
+        <v>2683623</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7416,46 +7416,46 @@
         <v>44248.5</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K78">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="L78">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="O78">
         <v>3.1</v>
       </c>
       <c r="P78">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S78">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T78">
         <v>2.25</v>
@@ -7464,28 +7464,28 @@
         <v>2.05</v>
       </c>
       <c r="V78">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA78">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7493,7 +7493,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>2683623</v>
+        <v>2683620</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7505,46 +7505,46 @@
         <v>44248.5</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K79">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="L79">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N79">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="O79">
         <v>3.1</v>
       </c>
       <c r="P79">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S79">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T79">
         <v>2.25</v>
@@ -7553,28 +7553,28 @@
         <v>2.05</v>
       </c>
       <c r="V79">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W79">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z79">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB79">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>2683681</v>
+        <v>2683685</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13023,76 +13023,76 @@
         <v>44303.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K141">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L141">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M141">
-        <v>9.5</v>
+        <v>3.4</v>
       </c>
       <c r="N141">
-        <v>1.181</v>
+        <v>2.1</v>
       </c>
       <c r="O141">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P141">
-        <v>15</v>
+        <v>3.8</v>
       </c>
       <c r="Q141">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S141">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U141">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V141">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>2683685</v>
+        <v>2683681</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13112,76 +13112,76 @@
         <v>44303.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K142">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M142">
-        <v>3.4</v>
+        <v>9.5</v>
       </c>
       <c r="N142">
-        <v>2.1</v>
+        <v>1.181</v>
       </c>
       <c r="O142">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="P142">
-        <v>3.8</v>
+        <v>15</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R142">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S142">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T142">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V142">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W142">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="Z142">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB142">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC142">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -15592,7 +15592,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>2683709</v>
+        <v>2683712</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15604,76 +15604,76 @@
         <v>44317.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G170" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
         <v>54</v>
       </c>
       <c r="K170">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L170">
         <v>3.1</v>
       </c>
       <c r="M170">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N170">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="O170">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P170">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q170">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="S170">
-        <v>2.02</v>
+        <v>1.775</v>
       </c>
       <c r="T170">
         <v>2.25</v>
       </c>
       <c r="U170">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V170">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA170">
-        <v>1.02</v>
+        <v>0.3875</v>
       </c>
       <c r="AB170">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15681,7 +15681,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>2683712</v>
+        <v>2683709</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15693,76 +15693,76 @@
         <v>44317.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J171" t="s">
         <v>54</v>
       </c>
       <c r="K171">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L171">
         <v>3.1</v>
       </c>
       <c r="M171">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N171">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="O171">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P171">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="S171">
-        <v>1.775</v>
+        <v>2.02</v>
       </c>
       <c r="T171">
         <v>2.25</v>
       </c>
       <c r="U171">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V171">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W171">
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.3875</v>
+        <v>1.02</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC171">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -17016,7 +17016,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>2789412</v>
+        <v>2786402</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17028,19 +17028,19 @@
         <v>44327.5</v>
       </c>
       <c r="F186" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G186" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H186">
         <v>1</v>
       </c>
       <c r="I186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K186">
         <v>2.3</v>
@@ -17052,52 +17052,52 @@
         <v>3.4</v>
       </c>
       <c r="N186">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O186">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P186">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R186">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S186">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U186">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V186">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA186">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17105,7 +17105,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>2786402</v>
+        <v>2789412</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17117,19 +17117,19 @@
         <v>44327.5</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G187" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H187">
         <v>1</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J187" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K187">
         <v>2.3</v>
@@ -17141,52 +17141,52 @@
         <v>3.4</v>
       </c>
       <c r="N187">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O187">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P187">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q187">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R187">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S187">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T187">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U187">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V187">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W187">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z187">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC187">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -18618,7 +18618,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>2855947</v>
+        <v>2854333</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18630,76 +18630,76 @@
         <v>44335.66666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G204" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K204">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="L204">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M204">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="N204">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="O204">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P204">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="Q204">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S204">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T204">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U204">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V204">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y204">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA204">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB204">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18796,7 +18796,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>2860510</v>
+        <v>2855947</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18808,73 +18808,73 @@
         <v>44335.66666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G206" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K206">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="L206">
         <v>3.5</v>
       </c>
       <c r="M206">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="N206">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="O206">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P206">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="Q206">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R206">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S206">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T206">
         <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V206">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W206">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z206">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB206">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="AC206">
         <v>-0.5</v>
@@ -18885,7 +18885,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>2854333</v>
+        <v>2860510</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18897,40 +18897,40 @@
         <v>44335.66666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G207" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I207">
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K207">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="L207">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M207">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N207">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O207">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P207">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="Q207">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R207">
         <v>1.875</v>
@@ -18939,34 +18939,34 @@
         <v>1.975</v>
       </c>
       <c r="T207">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U207">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V207">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W207">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X207">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
+        <v>0.875</v>
+      </c>
+      <c r="AA207">
+        <v>-1</v>
+      </c>
+      <c r="AB207">
+        <v>0.45</v>
+      </c>
+      <c r="AC207">
         <v>-0.5</v>
-      </c>
-      <c r="AA207">
-        <v>0.4875</v>
-      </c>
-      <c r="AB207">
-        <v>-1</v>
-      </c>
-      <c r="AC207">
-        <v>0.825</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -33748,7 +33748,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>3762655</v>
+        <v>3762657</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33760,22 +33760,22 @@
         <v>44584.52083333334</v>
       </c>
       <c r="F374" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G374" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I374">
         <v>1</v>
       </c>
       <c r="J374" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K374">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="L374">
         <v>3.3</v>
@@ -33784,25 +33784,25 @@
         <v>4.5</v>
       </c>
       <c r="N374">
+        <v>2.05</v>
+      </c>
+      <c r="O374">
+        <v>3.2</v>
+      </c>
+      <c r="P374">
+        <v>3.6</v>
+      </c>
+      <c r="Q374">
+        <v>-0.25</v>
+      </c>
+      <c r="R374">
         <v>1.8</v>
       </c>
-      <c r="O374">
-        <v>3.4</v>
-      </c>
-      <c r="P374">
-        <v>4.5</v>
-      </c>
-      <c r="Q374">
-        <v>-0.5</v>
-      </c>
-      <c r="R374">
-        <v>1.825</v>
-      </c>
       <c r="S374">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T374">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U374">
         <v>2</v>
@@ -33811,25 +33811,25 @@
         <v>1.85</v>
       </c>
       <c r="W374">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X374">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y374">
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA374">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB374">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC374">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -33837,7 +33837,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>3762657</v>
+        <v>3762655</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33849,22 +33849,22 @@
         <v>44584.52083333334</v>
       </c>
       <c r="F375" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G375" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H375">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I375">
         <v>1</v>
       </c>
       <c r="J375" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K375">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="L375">
         <v>3.3</v>
@@ -33873,25 +33873,25 @@
         <v>4.5</v>
       </c>
       <c r="N375">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O375">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P375">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q375">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R375">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S375">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T375">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U375">
         <v>2</v>
@@ -33900,25 +33900,25 @@
         <v>1.85</v>
       </c>
       <c r="W375">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X375">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y375">
         <v>-1</v>
       </c>
       <c r="Z375">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA375">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB375">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC375">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="376" spans="1:29">
@@ -38732,7 +38732,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>4740926</v>
+        <v>3762699</v>
       </c>
       <c r="C430" t="s">
         <v>28</v>
@@ -38744,13 +38744,13 @@
         <v>44626.72916666666</v>
       </c>
       <c r="F430" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G430" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H430">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I430">
         <v>1</v>
@@ -38768,34 +38768,34 @@
         <v>3.25</v>
       </c>
       <c r="N430">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="O430">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P430">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q430">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R430">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S430">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T430">
         <v>2.5</v>
       </c>
       <c r="U430">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V430">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W430">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="X430">
         <v>-1</v>
@@ -38804,13 +38804,13 @@
         <v>-1</v>
       </c>
       <c r="Z430">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA430">
         <v>-1</v>
       </c>
       <c r="AB430">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AC430">
         <v>-1</v>
@@ -38821,7 +38821,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>3762699</v>
+        <v>4740926</v>
       </c>
       <c r="C431" t="s">
         <v>28</v>
@@ -38833,13 +38833,13 @@
         <v>44626.72916666666</v>
       </c>
       <c r="F431" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G431" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I431">
         <v>1</v>
@@ -38857,34 +38857,34 @@
         <v>3.25</v>
       </c>
       <c r="N431">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O431">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P431">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q431">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R431">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S431">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T431">
         <v>2.5</v>
       </c>
       <c r="U431">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V431">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W431">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="X431">
         <v>-1</v>
@@ -38893,13 +38893,13 @@
         <v>-1</v>
       </c>
       <c r="Z431">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA431">
         <v>-1</v>
       </c>
       <c r="AB431">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AC431">
         <v>-1</v>
@@ -40156,7 +40156,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>3762714</v>
+        <v>3762717</v>
       </c>
       <c r="C446" t="s">
         <v>28</v>
@@ -40168,19 +40168,19 @@
         <v>44640.52083333334</v>
       </c>
       <c r="F446" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G446" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I446">
         <v>1</v>
       </c>
       <c r="J446" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K446">
         <v>2.2</v>
@@ -40189,55 +40189,55 @@
         <v>3.4</v>
       </c>
       <c r="M446">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N446">
+        <v>1.666</v>
+      </c>
+      <c r="O446">
+        <v>3.6</v>
+      </c>
+      <c r="P446">
+        <v>5</v>
+      </c>
+      <c r="Q446">
+        <v>-0.75</v>
+      </c>
+      <c r="R446">
+        <v>1.85</v>
+      </c>
+      <c r="S446">
+        <v>2</v>
+      </c>
+      <c r="T446">
         <v>2.5</v>
       </c>
-      <c r="O446">
-        <v>3.2</v>
-      </c>
-      <c r="P446">
-        <v>2.8</v>
-      </c>
-      <c r="Q446">
-        <v>-0.25</v>
-      </c>
-      <c r="R446">
-        <v>2.2</v>
-      </c>
-      <c r="S446">
-        <v>1.73</v>
-      </c>
-      <c r="T446">
-        <v>2</v>
-      </c>
       <c r="U446">
+        <v>2.025</v>
+      </c>
+      <c r="V446">
         <v>1.825</v>
       </c>
-      <c r="V446">
-        <v>2.025</v>
-      </c>
       <c r="W446">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X446">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y446">
         <v>-1</v>
       </c>
       <c r="Z446">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="AA446">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB446">
+        <v>-1</v>
+      </c>
+      <c r="AC446">
         <v>0.825</v>
-      </c>
-      <c r="AC446">
-        <v>-1</v>
       </c>
     </row>
     <row r="447" spans="1:29">
@@ -40245,7 +40245,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>3762717</v>
+        <v>3762714</v>
       </c>
       <c r="C447" t="s">
         <v>28</v>
@@ -40257,19 +40257,19 @@
         <v>44640.52083333334</v>
       </c>
       <c r="F447" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G447" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I447">
         <v>1</v>
       </c>
       <c r="J447" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K447">
         <v>2.2</v>
@@ -40278,55 +40278,55 @@
         <v>3.4</v>
       </c>
       <c r="M447">
+        <v>3.1</v>
+      </c>
+      <c r="N447">
+        <v>2.5</v>
+      </c>
+      <c r="O447">
         <v>3.2</v>
       </c>
-      <c r="N447">
-        <v>1.666</v>
-      </c>
-      <c r="O447">
-        <v>3.6</v>
-      </c>
       <c r="P447">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q447">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R447">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="S447">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="T447">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U447">
+        <v>1.825</v>
+      </c>
+      <c r="V447">
         <v>2.025</v>
       </c>
-      <c r="V447">
-        <v>1.825</v>
-      </c>
       <c r="W447">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X447">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y447">
         <v>-1</v>
       </c>
       <c r="Z447">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="AA447">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB447">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC447">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="448" spans="1:29">
@@ -45585,7 +45585,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>3981365</v>
+        <v>3981368</v>
       </c>
       <c r="C507" t="s">
         <v>28</v>
@@ -45597,76 +45597,76 @@
         <v>44695.47916666666</v>
       </c>
       <c r="F507" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G507" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I507">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J507" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K507">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L507">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M507">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N507">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O507">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P507">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q507">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R507">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="S507">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="T507">
         <v>2.5</v>
       </c>
       <c r="U507">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V507">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W507">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X507">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y507">
         <v>-1</v>
       </c>
       <c r="Z507">
-        <v>-0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA507">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB507">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC507">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="508" spans="1:29">
@@ -45674,7 +45674,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>3981368</v>
+        <v>3981365</v>
       </c>
       <c r="C508" t="s">
         <v>28</v>
@@ -45686,76 +45686,76 @@
         <v>44695.47916666666</v>
       </c>
       <c r="F508" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G508" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H508">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I508">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J508" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K508">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L508">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M508">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N508">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O508">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P508">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q508">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R508">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="S508">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="T508">
         <v>2.5</v>
       </c>
       <c r="U508">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V508">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W508">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X508">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y508">
         <v>-1</v>
       </c>
       <c r="Z508">
-        <v>0.9399999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA508">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB508">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC508">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="509" spans="1:29">
@@ -51103,7 +51103,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>5265550</v>
+        <v>5265554</v>
       </c>
       <c r="C569" t="s">
         <v>28</v>
@@ -51115,61 +51115,61 @@
         <v>44821.47916666666</v>
       </c>
       <c r="F569" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G569" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H569">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I569">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J569" t="s">
         <v>54</v>
       </c>
       <c r="K569">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L569">
+        <v>3.25</v>
+      </c>
+      <c r="M569">
         <v>3.3</v>
       </c>
-      <c r="M569">
-        <v>3.75</v>
-      </c>
       <c r="N569">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="O569">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P569">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q569">
         <v>-0.5</v>
       </c>
       <c r="R569">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S569">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T569">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U569">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V569">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W569">
         <v>-1</v>
       </c>
       <c r="X569">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y569">
         <v>-1</v>
@@ -51178,13 +51178,13 @@
         <v>-1</v>
       </c>
       <c r="AA569">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB569">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC569">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="570" spans="1:29">
@@ -51192,7 +51192,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>5265554</v>
+        <v>5265550</v>
       </c>
       <c r="C570" t="s">
         <v>28</v>
@@ -51204,61 +51204,61 @@
         <v>44821.47916666666</v>
       </c>
       <c r="F570" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G570" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I570">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J570" t="s">
         <v>54</v>
       </c>
       <c r="K570">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L570">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M570">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N570">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="O570">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P570">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q570">
         <v>-0.5</v>
       </c>
       <c r="R570">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S570">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T570">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U570">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V570">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W570">
         <v>-1</v>
       </c>
       <c r="X570">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y570">
         <v>-1</v>
@@ -51267,13 +51267,13 @@
         <v>-1</v>
       </c>
       <c r="AA570">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB570">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC570">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="571" spans="1:29">
@@ -54574,7 +54574,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>5265574</v>
+        <v>5265577</v>
       </c>
       <c r="C608" t="s">
         <v>28</v>
@@ -54586,55 +54586,55 @@
         <v>44864.52083333334</v>
       </c>
       <c r="F608" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G608" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I608">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J608" t="s">
         <v>54</v>
       </c>
       <c r="K608">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L608">
         <v>3.3</v>
       </c>
       <c r="M608">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N608">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="O608">
         <v>3.25</v>
       </c>
       <c r="P608">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q608">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R608">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S608">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T608">
         <v>2.25</v>
       </c>
       <c r="U608">
+        <v>1.95</v>
+      </c>
+      <c r="V608">
         <v>1.9</v>
-      </c>
-      <c r="V608">
-        <v>1.95</v>
       </c>
       <c r="W608">
         <v>-1</v>
@@ -54646,16 +54646,16 @@
         <v>-1</v>
       </c>
       <c r="Z608">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA608">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB608">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC608">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="609" spans="1:29">
@@ -54663,7 +54663,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>5265577</v>
+        <v>5265574</v>
       </c>
       <c r="C609" t="s">
         <v>28</v>
@@ -54675,55 +54675,55 @@
         <v>44864.52083333334</v>
       </c>
       <c r="F609" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G609" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I609">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J609" t="s">
         <v>54</v>
       </c>
       <c r="K609">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L609">
         <v>3.3</v>
       </c>
       <c r="M609">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N609">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="O609">
         <v>3.25</v>
       </c>
       <c r="P609">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q609">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R609">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S609">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T609">
         <v>2.25</v>
       </c>
       <c r="U609">
+        <v>1.9</v>
+      </c>
+      <c r="V609">
         <v>1.95</v>
-      </c>
-      <c r="V609">
-        <v>1.9</v>
       </c>
       <c r="W609">
         <v>-1</v>
@@ -54735,16 +54735,16 @@
         <v>-1</v>
       </c>
       <c r="Z609">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA609">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB609">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC609">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="610" spans="1:29">
@@ -59825,7 +59825,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>5265726</v>
+        <v>5265613</v>
       </c>
       <c r="C667" t="s">
         <v>28</v>
@@ -59837,13 +59837,13 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F667" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G667" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H667">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I667">
         <v>1</v>
@@ -59852,43 +59852,43 @@
         <v>53</v>
       </c>
       <c r="K667">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L667">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M667">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N667">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O667">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P667">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q667">
         <v>-0.5</v>
       </c>
       <c r="R667">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S667">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T667">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U667">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V667">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W667">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="X667">
         <v>-1</v>
@@ -59897,13 +59897,13 @@
         <v>-1</v>
       </c>
       <c r="Z667">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA667">
         <v>-1</v>
       </c>
       <c r="AB667">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC667">
         <v>-1</v>
@@ -59914,7 +59914,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>5265613</v>
+        <v>5265726</v>
       </c>
       <c r="C668" t="s">
         <v>28</v>
@@ -59926,13 +59926,13 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F668" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G668" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I668">
         <v>1</v>
@@ -59941,43 +59941,43 @@
         <v>53</v>
       </c>
       <c r="K668">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L668">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M668">
+        <v>3.5</v>
+      </c>
+      <c r="N668">
+        <v>2</v>
+      </c>
+      <c r="O668">
+        <v>3.3</v>
+      </c>
+      <c r="P668">
         <v>3.8</v>
-      </c>
-      <c r="N668">
-        <v>1.95</v>
-      </c>
-      <c r="O668">
-        <v>3</v>
-      </c>
-      <c r="P668">
-        <v>4.5</v>
       </c>
       <c r="Q668">
         <v>-0.5</v>
       </c>
       <c r="R668">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S668">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T668">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U668">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V668">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W668">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="X668">
         <v>-1</v>
@@ -59986,13 +59986,13 @@
         <v>-1</v>
       </c>
       <c r="Z668">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA668">
         <v>-1</v>
       </c>
       <c r="AB668">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC668">
         <v>-1</v>
@@ -60893,7 +60893,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>5265728</v>
+        <v>5265729</v>
       </c>
       <c r="C679" t="s">
         <v>28</v>
@@ -60905,13 +60905,13 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F679" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G679" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H679">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I679">
         <v>1</v>
@@ -60920,43 +60920,43 @@
         <v>53</v>
       </c>
       <c r="K679">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="L679">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M679">
-        <v>9.5</v>
+        <v>4.333</v>
       </c>
       <c r="N679">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="O679">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P679">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q679">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R679">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="S679">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="T679">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U679">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V679">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W679">
-        <v>0.55</v>
+        <v>1.2</v>
       </c>
       <c r="X679">
         <v>-1</v>
@@ -60965,13 +60965,13 @@
         <v>-1</v>
       </c>
       <c r="Z679">
-        <v>1.01</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA679">
         <v>-1</v>
       </c>
       <c r="AB679">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC679">
         <v>-1</v>
@@ -60982,7 +60982,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>5265729</v>
+        <v>5265728</v>
       </c>
       <c r="C680" t="s">
         <v>28</v>
@@ -60994,13 +60994,13 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F680" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G680" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I680">
         <v>1</v>
@@ -61009,43 +61009,43 @@
         <v>53</v>
       </c>
       <c r="K680">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="L680">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M680">
-        <v>4.333</v>
+        <v>9.5</v>
       </c>
       <c r="N680">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="O680">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P680">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q680">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R680">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="S680">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T680">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U680">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V680">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W680">
-        <v>1.2</v>
+        <v>0.55</v>
       </c>
       <c r="X680">
         <v>-1</v>
@@ -61054,13 +61054,13 @@
         <v>-1</v>
       </c>
       <c r="Z680">
-        <v>0.8999999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AA680">
         <v>-1</v>
       </c>
       <c r="AB680">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC680">
         <v>-1</v>
@@ -62317,7 +62317,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>5265630</v>
+        <v>5265735</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62329,73 +62329,73 @@
         <v>44975.625</v>
       </c>
       <c r="F695" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G695" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H695">
+        <v>2</v>
+      </c>
+      <c r="I695">
         <v>1</v>
       </c>
-      <c r="I695">
+      <c r="J695" t="s">
+        <v>53</v>
+      </c>
+      <c r="K695">
+        <v>2.05</v>
+      </c>
+      <c r="L695">
+        <v>3.25</v>
+      </c>
+      <c r="M695">
+        <v>3.75</v>
+      </c>
+      <c r="N695">
+        <v>2.45</v>
+      </c>
+      <c r="O695">
+        <v>3.1</v>
+      </c>
+      <c r="P695">
         <v>3</v>
       </c>
-      <c r="J695" t="s">
-        <v>55</v>
-      </c>
-      <c r="K695">
-        <v>1.95</v>
-      </c>
-      <c r="L695">
-        <v>3.3</v>
-      </c>
-      <c r="M695">
-        <v>4</v>
-      </c>
-      <c r="N695">
-        <v>2</v>
-      </c>
-      <c r="O695">
-        <v>3.2</v>
-      </c>
-      <c r="P695">
-        <v>3.8</v>
-      </c>
       <c r="Q695">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R695">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S695">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="T695">
         <v>2.25</v>
       </c>
       <c r="U695">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V695">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W695">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X695">
         <v>-1</v>
       </c>
       <c r="Y695">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z695">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA695">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB695">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC695">
         <v>-1</v>
@@ -62406,7 +62406,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>5265735</v>
+        <v>5265630</v>
       </c>
       <c r="C696" t="s">
         <v>28</v>
@@ -62418,73 +62418,73 @@
         <v>44975.625</v>
       </c>
       <c r="F696" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G696" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I696">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J696" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K696">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L696">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M696">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N696">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="O696">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P696">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q696">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R696">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S696">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="T696">
         <v>2.25</v>
       </c>
       <c r="U696">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V696">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W696">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X696">
         <v>-1</v>
       </c>
       <c r="Y696">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z696">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA696">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB696">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC696">
         <v>-1</v>
@@ -71128,7 +71128,7 @@
         <v>792</v>
       </c>
       <c r="B794">
-        <v>5462477</v>
+        <v>5473931</v>
       </c>
       <c r="C794" t="s">
         <v>28</v>
@@ -71140,76 +71140,76 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F794" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G794" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794">
         <v>0</v>
       </c>
       <c r="J794" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K794">
+        <v>2.05</v>
+      </c>
+      <c r="L794">
+        <v>3.3</v>
+      </c>
+      <c r="M794">
+        <v>3.4</v>
+      </c>
+      <c r="N794">
+        <v>2.1</v>
+      </c>
+      <c r="O794">
+        <v>3.4</v>
+      </c>
+      <c r="P794">
+        <v>3.1</v>
+      </c>
+      <c r="Q794">
+        <v>-0.25</v>
+      </c>
+      <c r="R794">
+        <v>1.875</v>
+      </c>
+      <c r="S794">
+        <v>1.975</v>
+      </c>
+      <c r="T794">
         <v>2.5</v>
       </c>
-      <c r="L794">
-        <v>3.2</v>
-      </c>
-      <c r="M794">
-        <v>2.6</v>
-      </c>
-      <c r="N794">
-        <v>2.55</v>
-      </c>
-      <c r="O794">
-        <v>3.2</v>
-      </c>
-      <c r="P794">
-        <v>2.55</v>
-      </c>
-      <c r="Q794">
-        <v>0</v>
-      </c>
-      <c r="R794">
+      <c r="U794">
         <v>1.9</v>
       </c>
-      <c r="S794">
+      <c r="V794">
         <v>1.95</v>
       </c>
-      <c r="T794">
-        <v>2.25</v>
-      </c>
-      <c r="U794">
-        <v>1.875</v>
-      </c>
-      <c r="V794">
-        <v>1.975</v>
-      </c>
       <c r="W794">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X794">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y794">
         <v>-1</v>
       </c>
       <c r="Z794">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA794">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB794">
         <v>-1</v>
       </c>
       <c r="AC794">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="795" spans="1:29">
@@ -71217,7 +71217,7 @@
         <v>793</v>
       </c>
       <c r="B795">
-        <v>5473931</v>
+        <v>5462477</v>
       </c>
       <c r="C795" t="s">
         <v>28</v>
@@ -71229,76 +71229,76 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F795" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G795" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795">
         <v>0</v>
       </c>
       <c r="J795" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K795">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L795">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M795">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N795">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O795">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P795">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q795">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R795">
+        <v>1.9</v>
+      </c>
+      <c r="S795">
+        <v>1.95</v>
+      </c>
+      <c r="T795">
+        <v>2.25</v>
+      </c>
+      <c r="U795">
         <v>1.875</v>
       </c>
-      <c r="S795">
+      <c r="V795">
         <v>1.975</v>
       </c>
-      <c r="T795">
-        <v>2.5</v>
-      </c>
-      <c r="U795">
-        <v>1.9</v>
-      </c>
-      <c r="V795">
-        <v>1.95</v>
-      </c>
       <c r="W795">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X795">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y795">
         <v>-1</v>
       </c>
       <c r="Z795">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA795">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB795">
         <v>-1</v>
       </c>
       <c r="AC795">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="796" spans="1:29">
@@ -74510,7 +74510,7 @@
         <v>830</v>
       </c>
       <c r="B832">
-        <v>6876465</v>
+        <v>6876471</v>
       </c>
       <c r="C832" t="s">
         <v>28</v>
@@ -74522,76 +74522,76 @@
         <v>45157.6875</v>
       </c>
       <c r="F832" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G832" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I832">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J832" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K832">
-        <v>1.125</v>
+        <v>2.45</v>
       </c>
       <c r="L832">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M832">
-        <v>19</v>
+        <v>2.875</v>
       </c>
       <c r="N832">
-        <v>1.142</v>
+        <v>3</v>
       </c>
       <c r="O832">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="P832">
-        <v>17</v>
+        <v>2.3</v>
       </c>
       <c r="Q832">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R832">
+        <v>1.85</v>
+      </c>
+      <c r="S832">
+        <v>2</v>
+      </c>
+      <c r="T832">
+        <v>2.25</v>
+      </c>
+      <c r="U832">
         <v>1.925</v>
       </c>
-      <c r="S832">
+      <c r="V832">
         <v>1.925</v>
       </c>
-      <c r="T832">
-        <v>3.5</v>
-      </c>
-      <c r="U832">
-        <v>1.875</v>
-      </c>
-      <c r="V832">
-        <v>1.975</v>
-      </c>
       <c r="W832">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X832">
         <v>-1</v>
       </c>
       <c r="Y832">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z832">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA832">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB832">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC832">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="833" spans="1:29">
@@ -74599,7 +74599,7 @@
         <v>831</v>
       </c>
       <c r="B833">
-        <v>6876471</v>
+        <v>6876465</v>
       </c>
       <c r="C833" t="s">
         <v>28</v>
@@ -74611,76 +74611,76 @@
         <v>45157.6875</v>
       </c>
       <c r="F833" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G833" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H833">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I833">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J833" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K833">
-        <v>2.45</v>
+        <v>1.125</v>
       </c>
       <c r="L833">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M833">
-        <v>2.875</v>
+        <v>19</v>
       </c>
       <c r="N833">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="O833">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P833">
-        <v>2.3</v>
+        <v>17</v>
       </c>
       <c r="Q833">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R833">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S833">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T833">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U833">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V833">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W833">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X833">
         <v>-1</v>
       </c>
       <c r="Y833">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z833">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA833">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB833">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC833">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="834" spans="1:29">
@@ -84211,7 +84211,7 @@
         <v>939</v>
       </c>
       <c r="B941">
-        <v>6875467</v>
+        <v>6876563</v>
       </c>
       <c r="C941" t="s">
         <v>28</v>
@@ -84223,40 +84223,40 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F941" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G941" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H941">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I941">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J941" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K941">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="L941">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M941">
-        <v>3.9</v>
+        <v>2.55</v>
       </c>
       <c r="N941">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O941">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P941">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q941">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R941">
         <v>1.875</v>
@@ -84265,31 +84265,31 @@
         <v>1.975</v>
       </c>
       <c r="T941">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U941">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V941">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W941">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X941">
         <v>-1</v>
       </c>
       <c r="Y941">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z941">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA941">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB941">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC941">
         <v>-1</v>
@@ -84300,7 +84300,7 @@
         <v>940</v>
       </c>
       <c r="B942">
-        <v>6876563</v>
+        <v>6875467</v>
       </c>
       <c r="C942" t="s">
         <v>28</v>
@@ -84312,40 +84312,40 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F942" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G942" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H942">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I942">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J942" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K942">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="L942">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M942">
-        <v>2.55</v>
+        <v>3.9</v>
       </c>
       <c r="N942">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O942">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P942">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q942">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R942">
         <v>1.875</v>
@@ -84354,31 +84354,31 @@
         <v>1.975</v>
       </c>
       <c r="T942">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U942">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V942">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W942">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X942">
         <v>-1</v>
       </c>
       <c r="Y942">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z942">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA942">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB942">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC942">
         <v>-1</v>
@@ -84656,7 +84656,7 @@
         <v>944</v>
       </c>
       <c r="B946">
-        <v>6875468</v>
+        <v>6876571</v>
       </c>
       <c r="C946" t="s">
         <v>28</v>
@@ -84668,67 +84668,67 @@
         <v>45283.52083333334</v>
       </c>
       <c r="F946" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G946" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I946">
         <v>0</v>
       </c>
       <c r="J946" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K946">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L946">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M946">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N946">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="O946">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P946">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q946">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R946">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S946">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T946">
         <v>2.25</v>
       </c>
       <c r="U946">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V946">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W946">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X946">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y946">
         <v>-1</v>
       </c>
       <c r="Z946">
-        <v>0.4</v>
+        <v>0.4875</v>
       </c>
       <c r="AA946">
         <v>-0.5</v>
@@ -84737,7 +84737,7 @@
         <v>-1</v>
       </c>
       <c r="AC946">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="947" spans="1:29">
@@ -84745,7 +84745,7 @@
         <v>945</v>
       </c>
       <c r="B947">
-        <v>6876571</v>
+        <v>6875468</v>
       </c>
       <c r="C947" t="s">
         <v>28</v>
@@ -84757,67 +84757,67 @@
         <v>45283.52083333334</v>
       </c>
       <c r="F947" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G947" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H947">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I947">
         <v>0</v>
       </c>
       <c r="J947" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K947">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L947">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M947">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N947">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="O947">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P947">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q947">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R947">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S947">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T947">
         <v>2.25</v>
       </c>
       <c r="U947">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V947">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W947">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X947">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y947">
         <v>-1</v>
       </c>
       <c r="Z947">
-        <v>0.4875</v>
+        <v>0.4</v>
       </c>
       <c r="AA947">
         <v>-0.5</v>
@@ -84826,7 +84826,7 @@
         <v>-1</v>
       </c>
       <c r="AC947">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="948" spans="1:29">
@@ -85101,7 +85101,7 @@
         <v>949</v>
       </c>
       <c r="B951">
-        <v>7513577</v>
+        <v>7515550</v>
       </c>
       <c r="C951" t="s">
         <v>28</v>
@@ -85113,13 +85113,13 @@
         <v>45290.52083333334</v>
       </c>
       <c r="F951" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G951" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H951">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I951">
         <v>0</v>
@@ -85128,43 +85128,43 @@
         <v>53</v>
       </c>
       <c r="K951">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L951">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M951">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N951">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O951">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P951">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q951">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R951">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S951">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T951">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U951">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V951">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W951">
-        <v>0.833</v>
+        <v>1.3</v>
       </c>
       <c r="X951">
         <v>-1</v>
@@ -85173,16 +85173,16 @@
         <v>-1</v>
       </c>
       <c r="Z951">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA951">
         <v>-1</v>
       </c>
       <c r="AB951">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC951">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="952" spans="1:29">
@@ -85190,7 +85190,7 @@
         <v>950</v>
       </c>
       <c r="B952">
-        <v>7515550</v>
+        <v>7513577</v>
       </c>
       <c r="C952" t="s">
         <v>28</v>
@@ -85202,13 +85202,13 @@
         <v>45290.52083333334</v>
       </c>
       <c r="F952" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G952" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H952">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I952">
         <v>0</v>
@@ -85217,43 +85217,43 @@
         <v>53</v>
       </c>
       <c r="K952">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L952">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M952">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N952">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O952">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P952">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q952">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R952">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S952">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T952">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U952">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V952">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W952">
-        <v>1.3</v>
+        <v>0.833</v>
       </c>
       <c r="X952">
         <v>-1</v>
@@ -85262,16 +85262,16 @@
         <v>-1</v>
       </c>
       <c r="Z952">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA952">
         <v>-1</v>
       </c>
       <c r="AB952">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC952">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="953" spans="1:29">
@@ -85635,7 +85635,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>6876581</v>
+        <v>6876582</v>
       </c>
       <c r="C957" t="s">
         <v>28</v>
@@ -85647,76 +85647,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F957" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G957" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H957">
         <v>1</v>
       </c>
       <c r="I957">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J957" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K957">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L957">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M957">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N957">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O957">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P957">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q957">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R957">
+        <v>1.95</v>
+      </c>
+      <c r="S957">
+        <v>1.9</v>
+      </c>
+      <c r="T957">
+        <v>2.5</v>
+      </c>
+      <c r="U957">
         <v>2.025</v>
       </c>
-      <c r="S957">
+      <c r="V957">
         <v>1.825</v>
       </c>
-      <c r="T957">
-        <v>2.25</v>
-      </c>
-      <c r="U957">
-        <v>1.975</v>
-      </c>
-      <c r="V957">
-        <v>1.875</v>
-      </c>
       <c r="W957">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X957">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y957">
         <v>-1</v>
       </c>
       <c r="Z957">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA957">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB957">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC957">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="958" spans="1:29">
@@ -85724,7 +85724,7 @@
         <v>956</v>
       </c>
       <c r="B958">
-        <v>6876582</v>
+        <v>6876581</v>
       </c>
       <c r="C958" t="s">
         <v>28</v>
@@ -85736,76 +85736,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F958" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G958" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H958">
         <v>1</v>
       </c>
       <c r="I958">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J958" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K958">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L958">
+        <v>3.4</v>
+      </c>
+      <c r="M958">
         <v>3.6</v>
       </c>
-      <c r="M958">
-        <v>4.2</v>
-      </c>
       <c r="N958">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O958">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P958">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q958">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R958">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S958">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T958">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U958">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V958">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W958">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X958">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y958">
         <v>-1</v>
       </c>
       <c r="Z958">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA958">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB958">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC958">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="959" spans="1:29">
@@ -86703,7 +86703,7 @@
         <v>967</v>
       </c>
       <c r="B969">
-        <v>6876586</v>
+        <v>6876591</v>
       </c>
       <c r="C969" t="s">
         <v>28</v>
@@ -86715,40 +86715,40 @@
         <v>45305.625</v>
       </c>
       <c r="F969" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G969" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H969">
+        <v>1</v>
+      </c>
+      <c r="I969">
         <v>4</v>
       </c>
-      <c r="I969">
-        <v>1</v>
-      </c>
       <c r="J969" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K969">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="L969">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="M969">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="N969">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="O969">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="P969">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q969">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R969">
         <v>2.025</v>
@@ -86757,31 +86757,31 @@
         <v>1.825</v>
       </c>
       <c r="T969">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U969">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V969">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W969">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X969">
         <v>-1</v>
       </c>
       <c r="Y969">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z969">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA969">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB969">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC969">
         <v>-1</v>
@@ -86792,7 +86792,7 @@
         <v>968</v>
       </c>
       <c r="B970">
-        <v>6876591</v>
+        <v>6876586</v>
       </c>
       <c r="C970" t="s">
         <v>28</v>
@@ -86804,40 +86804,40 @@
         <v>45305.625</v>
       </c>
       <c r="F970" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G970" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H970">
+        <v>4</v>
+      </c>
+      <c r="I970">
         <v>1</v>
       </c>
-      <c r="I970">
-        <v>4</v>
-      </c>
       <c r="J970" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K970">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="L970">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="M970">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="N970">
-        <v>1.95</v>
+        <v>1.2</v>
       </c>
       <c r="O970">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="P970">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q970">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R970">
         <v>2.025</v>
@@ -86846,31 +86846,31 @@
         <v>1.825</v>
       </c>
       <c r="T970">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U970">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V970">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W970">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X970">
         <v>-1</v>
       </c>
       <c r="Y970">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z970">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA970">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB970">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC970">
         <v>-1</v>
@@ -87860,7 +87860,7 @@
         <v>980</v>
       </c>
       <c r="B982">
-        <v>6875472</v>
+        <v>6876608</v>
       </c>
       <c r="C982" t="s">
         <v>28</v>
@@ -87872,46 +87872,46 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F982" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G982" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K982">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L982">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M982">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N982">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="O982">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P982">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q982">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R982">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="S982">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="T982">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U982">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V982">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W982">
         <v>0</v>
@@ -87934,7 +87934,7 @@
         <v>981</v>
       </c>
       <c r="B983">
-        <v>6876608</v>
+        <v>6875472</v>
       </c>
       <c r="C983" t="s">
         <v>28</v>
@@ -87946,46 +87946,46 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F983" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G983" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K983">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L983">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M983">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N983">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O983">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P983">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q983">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R983">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="S983">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="T983">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U983">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V983">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W983">
         <v>0</v>
@@ -88035,31 +88035,31 @@
         <v>1.444</v>
       </c>
       <c r="N984">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O984">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P984">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="Q984">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R984">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S984">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="T984">
         <v>2.75</v>
       </c>
       <c r="U984">
+        <v>1.9</v>
+      </c>
+      <c r="V984">
         <v>1.95</v>
-      </c>
-      <c r="V984">
-        <v>1.9</v>
       </c>
       <c r="W984">
         <v>0</v>
@@ -88082,7 +88082,7 @@
         <v>983</v>
       </c>
       <c r="B985">
-        <v>6876603</v>
+        <v>6876607</v>
       </c>
       <c r="C985" t="s">
         <v>28</v>
@@ -88094,37 +88094,37 @@
         <v>45319.72916666666</v>
       </c>
       <c r="F985" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G985" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K985">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L985">
         <v>3.4</v>
       </c>
       <c r="M985">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N985">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="O985">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P985">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q985">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R985">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S985">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="T985">
         <v>2.25</v>
@@ -88156,7 +88156,7 @@
         <v>984</v>
       </c>
       <c r="B986">
-        <v>6876607</v>
+        <v>6876603</v>
       </c>
       <c r="C986" t="s">
         <v>28</v>
@@ -88168,37 +88168,37 @@
         <v>45319.72916666666</v>
       </c>
       <c r="F986" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G986" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K986">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L986">
         <v>3.4</v>
       </c>
       <c r="M986">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N986">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="O986">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P986">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q986">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R986">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S986">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T986">
         <v>2.25</v>
@@ -88417,19 +88417,19 @@
         <v>-0.25</v>
       </c>
       <c r="R989">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S989">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="T989">
         <v>2.5</v>
       </c>
       <c r="U989">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V989">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W989">
         <v>0</v>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5001" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5005" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC998"/>
+  <dimension ref="A1:AC999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30455,7 +30455,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>3762625</v>
+        <v>3762620</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30467,40 +30467,40 @@
         <v>44549.58333333334</v>
       </c>
       <c r="F337" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G337" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H337">
+        <v>7</v>
+      </c>
+      <c r="I337">
         <v>1</v>
-      </c>
-      <c r="I337">
-        <v>0</v>
       </c>
       <c r="J337" t="s">
         <v>53</v>
       </c>
       <c r="K337">
-        <v>2.3</v>
+        <v>1.142</v>
       </c>
       <c r="L337">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="M337">
-        <v>3.2</v>
+        <v>17</v>
       </c>
       <c r="N337">
-        <v>2.75</v>
+        <v>1.166</v>
       </c>
       <c r="O337">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="P337">
-        <v>2.7</v>
+        <v>17</v>
       </c>
       <c r="Q337">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R337">
         <v>1.975</v>
@@ -30509,16 +30509,16 @@
         <v>1.875</v>
       </c>
       <c r="T337">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U337">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V337">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W337">
-        <v>1.75</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X337">
         <v>-1</v>
@@ -30533,10 +30533,10 @@
         <v>-1</v>
       </c>
       <c r="AB337">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC337">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -30544,7 +30544,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>3762620</v>
+        <v>3762625</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30556,40 +30556,40 @@
         <v>44549.58333333334</v>
       </c>
       <c r="F338" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G338" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H338">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J338" t="s">
         <v>53</v>
       </c>
       <c r="K338">
-        <v>1.142</v>
+        <v>2.3</v>
       </c>
       <c r="L338">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="M338">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="N338">
-        <v>1.166</v>
+        <v>2.75</v>
       </c>
       <c r="O338">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P338">
-        <v>17</v>
+        <v>2.7</v>
       </c>
       <c r="Q338">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R338">
         <v>1.975</v>
@@ -30598,16 +30598,16 @@
         <v>1.875</v>
       </c>
       <c r="T338">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U338">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V338">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W338">
-        <v>0.1659999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="X338">
         <v>-1</v>
@@ -30622,10 +30622,10 @@
         <v>-1</v>
       </c>
       <c r="AB338">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC338">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="339" spans="1:29">
@@ -32146,7 +32146,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>3762635</v>
+        <v>3762636</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32158,76 +32158,76 @@
         <v>44570.625</v>
       </c>
       <c r="F356" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G356" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H356">
         <v>2</v>
       </c>
       <c r="I356">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J356" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K356">
-        <v>1.181</v>
+        <v>1.5</v>
       </c>
       <c r="L356">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M356">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="N356">
-        <v>1.181</v>
+        <v>1.55</v>
       </c>
       <c r="O356">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="P356">
-        <v>17</v>
+        <v>5.75</v>
       </c>
       <c r="Q356">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R356">
+        <v>2</v>
+      </c>
+      <c r="S356">
+        <v>1.85</v>
+      </c>
+      <c r="T356">
+        <v>2.75</v>
+      </c>
+      <c r="U356">
         <v>1.925</v>
       </c>
-      <c r="S356">
+      <c r="V356">
         <v>1.925</v>
       </c>
-      <c r="T356">
-        <v>3.25</v>
-      </c>
-      <c r="U356">
-        <v>1.975</v>
-      </c>
-      <c r="V356">
-        <v>1.875</v>
-      </c>
       <c r="W356">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X356">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y356">
         <v>-1</v>
       </c>
       <c r="Z356">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA356">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB356">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC356">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -32235,7 +32235,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>3762636</v>
+        <v>3762635</v>
       </c>
       <c r="C357" t="s">
         <v>28</v>
@@ -32247,76 +32247,76 @@
         <v>44570.625</v>
       </c>
       <c r="F357" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G357" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H357">
         <v>2</v>
       </c>
       <c r="I357">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J357" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K357">
-        <v>1.5</v>
+        <v>1.181</v>
       </c>
       <c r="L357">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M357">
+        <v>15</v>
+      </c>
+      <c r="N357">
+        <v>1.181</v>
+      </c>
+      <c r="O357">
         <v>6.5</v>
       </c>
-      <c r="N357">
-        <v>1.55</v>
-      </c>
-      <c r="O357">
-        <v>4.333</v>
-      </c>
       <c r="P357">
-        <v>5.75</v>
+        <v>17</v>
       </c>
       <c r="Q357">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R357">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S357">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T357">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U357">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V357">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W357">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X357">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y357">
         <v>-1</v>
       </c>
       <c r="Z357">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA357">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB357">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC357">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="358" spans="1:29">
@@ -37842,7 +37842,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>3762692</v>
+        <v>3762696</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37854,76 +37854,76 @@
         <v>44619.625</v>
       </c>
       <c r="F420" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G420" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H420">
+        <v>2</v>
+      </c>
+      <c r="I420">
         <v>3</v>
       </c>
-      <c r="I420">
-        <v>0</v>
-      </c>
       <c r="J420" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K420">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="L420">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M420">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="N420">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="O420">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="P420">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q420">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R420">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="S420">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="T420">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U420">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V420">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W420">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X420">
         <v>-1</v>
       </c>
       <c r="Y420">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z420">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA420">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB420">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC420">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="421" spans="1:29">
@@ -37931,7 +37931,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>3762696</v>
+        <v>3762692</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37943,76 +37943,76 @@
         <v>44619.625</v>
       </c>
       <c r="F421" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G421" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I421">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J421" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K421">
-        <v>2.05</v>
+        <v>1.333</v>
       </c>
       <c r="L421">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M421">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="N421">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="O421">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P421">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="Q421">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R421">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="S421">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="T421">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U421">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V421">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W421">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X421">
         <v>-1</v>
       </c>
       <c r="Y421">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z421">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA421">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB421">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC421">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -43182,7 +43182,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>3889235</v>
+        <v>3884731</v>
       </c>
       <c r="C480" t="s">
         <v>28</v>
@@ -43194,61 +43194,61 @@
         <v>44674.58333333334</v>
       </c>
       <c r="F480" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G480" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J480" t="s">
         <v>54</v>
       </c>
       <c r="K480">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L480">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M480">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="N480">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O480">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P480">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q480">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R480">
+        <v>1.925</v>
+      </c>
+      <c r="S480">
+        <v>1.925</v>
+      </c>
+      <c r="T480">
+        <v>2</v>
+      </c>
+      <c r="U480">
         <v>1.825</v>
       </c>
-      <c r="S480">
+      <c r="V480">
         <v>2.025</v>
       </c>
-      <c r="T480">
-        <v>3</v>
-      </c>
-      <c r="U480">
-        <v>1.9</v>
-      </c>
-      <c r="V480">
-        <v>1.95</v>
-      </c>
       <c r="W480">
         <v>-1</v>
       </c>
       <c r="X480">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y480">
         <v>-1</v>
@@ -43257,13 +43257,13 @@
         <v>-1</v>
       </c>
       <c r="AA480">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB480">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC480">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="481" spans="1:29">
@@ -43271,7 +43271,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>3884731</v>
+        <v>3889235</v>
       </c>
       <c r="C481" t="s">
         <v>28</v>
@@ -43283,61 +43283,61 @@
         <v>44674.58333333334</v>
       </c>
       <c r="F481" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G481" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J481" t="s">
         <v>54</v>
       </c>
       <c r="K481">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L481">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M481">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N481">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O481">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P481">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q481">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R481">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S481">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T481">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U481">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V481">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W481">
         <v>-1</v>
       </c>
       <c r="X481">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y481">
         <v>-1</v>
@@ -43346,13 +43346,13 @@
         <v>-1</v>
       </c>
       <c r="AA481">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB481">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC481">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="482" spans="1:29">
@@ -62317,7 +62317,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>5265735</v>
+        <v>5265630</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62329,73 +62329,73 @@
         <v>44975.625</v>
       </c>
       <c r="F695" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G695" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I695">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J695" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K695">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L695">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M695">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N695">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="O695">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P695">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q695">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R695">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S695">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="T695">
         <v>2.25</v>
       </c>
       <c r="U695">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V695">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W695">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X695">
         <v>-1</v>
       </c>
       <c r="Y695">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z695">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA695">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB695">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC695">
         <v>-1</v>
@@ -62406,7 +62406,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>5265630</v>
+        <v>5265735</v>
       </c>
       <c r="C696" t="s">
         <v>28</v>
@@ -62418,73 +62418,73 @@
         <v>44975.625</v>
       </c>
       <c r="F696" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G696" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H696">
+        <v>2</v>
+      </c>
+      <c r="I696">
         <v>1</v>
       </c>
-      <c r="I696">
+      <c r="J696" t="s">
+        <v>53</v>
+      </c>
+      <c r="K696">
+        <v>2.05</v>
+      </c>
+      <c r="L696">
+        <v>3.25</v>
+      </c>
+      <c r="M696">
+        <v>3.75</v>
+      </c>
+      <c r="N696">
+        <v>2.45</v>
+      </c>
+      <c r="O696">
+        <v>3.1</v>
+      </c>
+      <c r="P696">
         <v>3</v>
       </c>
-      <c r="J696" t="s">
-        <v>55</v>
-      </c>
-      <c r="K696">
-        <v>1.95</v>
-      </c>
-      <c r="L696">
-        <v>3.3</v>
-      </c>
-      <c r="M696">
-        <v>4</v>
-      </c>
-      <c r="N696">
-        <v>2</v>
-      </c>
-      <c r="O696">
-        <v>3.2</v>
-      </c>
-      <c r="P696">
-        <v>3.8</v>
-      </c>
       <c r="Q696">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R696">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S696">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="T696">
         <v>2.25</v>
       </c>
       <c r="U696">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V696">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W696">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X696">
         <v>-1</v>
       </c>
       <c r="Y696">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z696">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA696">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB696">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC696">
         <v>-1</v>
@@ -66500,7 +66500,7 @@
         <v>740</v>
       </c>
       <c r="B742">
-        <v>5265654</v>
+        <v>5265751</v>
       </c>
       <c r="C742" t="s">
         <v>28</v>
@@ -66512,73 +66512,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F742" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G742" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H742">
+        <v>1</v>
+      </c>
+      <c r="I742">
+        <v>2</v>
+      </c>
+      <c r="J742" t="s">
+        <v>55</v>
+      </c>
+      <c r="K742">
         <v>4</v>
       </c>
-      <c r="I742">
-        <v>2</v>
-      </c>
-      <c r="J742" t="s">
-        <v>53</v>
-      </c>
-      <c r="K742">
-        <v>2.625</v>
-      </c>
       <c r="L742">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M742">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N742">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O742">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P742">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q742">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R742">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="S742">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T742">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U742">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V742">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W742">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X742">
         <v>-1</v>
       </c>
       <c r="Y742">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z742">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AA742">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB742">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC742">
         <v>-1</v>
@@ -66589,7 +66589,7 @@
         <v>741</v>
       </c>
       <c r="B743">
-        <v>5265751</v>
+        <v>5265654</v>
       </c>
       <c r="C743" t="s">
         <v>28</v>
@@ -66601,73 +66601,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F743" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G743" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I743">
         <v>2</v>
       </c>
       <c r="J743" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K743">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L743">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M743">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N743">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="O743">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P743">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="Q743">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R743">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="S743">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T743">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U743">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V743">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W743">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X743">
         <v>-1</v>
       </c>
       <c r="Y743">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z743">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AA743">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB743">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC743">
         <v>-1</v>
@@ -67390,7 +67390,7 @@
         <v>750</v>
       </c>
       <c r="B752">
-        <v>5265754</v>
+        <v>5265660</v>
       </c>
       <c r="C752" t="s">
         <v>28</v>
@@ -67402,73 +67402,73 @@
         <v>45024.58333333334</v>
       </c>
       <c r="F752" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G752" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I752">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J752" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K752">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L752">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M752">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N752">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O752">
         <v>3</v>
       </c>
       <c r="P752">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q752">
         <v>0</v>
       </c>
       <c r="R752">
-        <v>1.775</v>
+        <v>2.01</v>
       </c>
       <c r="S752">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="T752">
         <v>2</v>
       </c>
       <c r="U752">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V752">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W752">
         <v>-1</v>
       </c>
       <c r="X752">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y752">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z752">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA752">
-        <v>-0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB752">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC752">
         <v>-1</v>
@@ -67479,7 +67479,7 @@
         <v>751</v>
       </c>
       <c r="B753">
-        <v>5265660</v>
+        <v>5265754</v>
       </c>
       <c r="C753" t="s">
         <v>28</v>
@@ -67491,73 +67491,73 @@
         <v>45024.58333333334</v>
       </c>
       <c r="F753" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G753" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I753">
+        <v>2</v>
+      </c>
+      <c r="J753" t="s">
+        <v>54</v>
+      </c>
+      <c r="K753">
+        <v>2.6</v>
+      </c>
+      <c r="L753">
         <v>3</v>
       </c>
-      <c r="J753" t="s">
-        <v>55</v>
-      </c>
-      <c r="K753">
-        <v>2.7</v>
-      </c>
-      <c r="L753">
-        <v>3.1</v>
-      </c>
       <c r="M753">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N753">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="O753">
         <v>3</v>
       </c>
       <c r="P753">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q753">
         <v>0</v>
       </c>
       <c r="R753">
-        <v>2.01</v>
+        <v>1.775</v>
       </c>
       <c r="S753">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="T753">
         <v>2</v>
       </c>
       <c r="U753">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V753">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W753">
         <v>-1</v>
       </c>
       <c r="X753">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y753">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z753">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA753">
-        <v>0.8899999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB753">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC753">
         <v>-1</v>
@@ -69526,7 +69526,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>5265760</v>
+        <v>5265759</v>
       </c>
       <c r="C776" t="s">
         <v>28</v>
@@ -69538,73 +69538,73 @@
         <v>45045.47916666666</v>
       </c>
       <c r="F776" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G776" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H776">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I776">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J776" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K776">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="L776">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M776">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="N776">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="O776">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P776">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q776">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R776">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="S776">
-        <v>2.01</v>
+        <v>1.775</v>
       </c>
       <c r="T776">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U776">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V776">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W776">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X776">
         <v>-1</v>
       </c>
       <c r="Y776">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z776">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA776">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB776">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC776">
         <v>-1</v>
@@ -69615,7 +69615,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>5265759</v>
+        <v>5265760</v>
       </c>
       <c r="C777" t="s">
         <v>28</v>
@@ -69627,73 +69627,73 @@
         <v>45045.47916666666</v>
       </c>
       <c r="F777" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G777" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H777">
+        <v>4</v>
+      </c>
+      <c r="I777">
         <v>1</v>
       </c>
-      <c r="I777">
-        <v>2</v>
-      </c>
       <c r="J777" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K777">
-        <v>2.45</v>
+        <v>1.25</v>
       </c>
       <c r="L777">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M777">
-        <v>2.9</v>
+        <v>11</v>
       </c>
       <c r="N777">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="O777">
+        <v>6</v>
+      </c>
+      <c r="P777">
+        <v>10</v>
+      </c>
+      <c r="Q777">
+        <v>-1.75</v>
+      </c>
+      <c r="R777">
+        <v>1.89</v>
+      </c>
+      <c r="S777">
+        <v>2.01</v>
+      </c>
+      <c r="T777">
         <v>3.25</v>
       </c>
-      <c r="P777">
-        <v>3</v>
-      </c>
-      <c r="Q777">
-        <v>-0.25</v>
-      </c>
-      <c r="R777">
-        <v>2.1</v>
-      </c>
-      <c r="S777">
-        <v>1.775</v>
-      </c>
-      <c r="T777">
-        <v>2.25</v>
-      </c>
       <c r="U777">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V777">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W777">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X777">
         <v>-1</v>
       </c>
       <c r="Y777">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z777">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA777">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB777">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC777">
         <v>-1</v>
@@ -69704,7 +69704,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>5265761</v>
+        <v>5265682</v>
       </c>
       <c r="C778" t="s">
         <v>28</v>
@@ -69716,76 +69716,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F778" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G778" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H778">
         <v>1</v>
       </c>
       <c r="I778">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J778" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K778">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L778">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M778">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="N778">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O778">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P778">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q778">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R778">
-        <v>1.925</v>
+        <v>1.92</v>
       </c>
       <c r="S778">
-        <v>1.925</v>
+        <v>1.98</v>
       </c>
       <c r="T778">
         <v>2.25</v>
       </c>
       <c r="U778">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V778">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W778">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X778">
         <v>-1</v>
       </c>
       <c r="Y778">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z778">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA778">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB778">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC778">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="779" spans="1:29">
@@ -69793,7 +69793,7 @@
         <v>777</v>
       </c>
       <c r="B779">
-        <v>5265682</v>
+        <v>5265761</v>
       </c>
       <c r="C779" t="s">
         <v>28</v>
@@ -69805,76 +69805,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F779" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G779" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H779">
         <v>1</v>
       </c>
       <c r="I779">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J779" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K779">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L779">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M779">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="N779">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O779">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P779">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q779">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R779">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="S779">
-        <v>1.98</v>
+        <v>1.925</v>
       </c>
       <c r="T779">
         <v>2.25</v>
       </c>
       <c r="U779">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V779">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W779">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X779">
         <v>-1</v>
       </c>
       <c r="Y779">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z779">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA779">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB779">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC779">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="780" spans="1:29">
@@ -74510,7 +74510,7 @@
         <v>830</v>
       </c>
       <c r="B832">
-        <v>6876471</v>
+        <v>6876465</v>
       </c>
       <c r="C832" t="s">
         <v>28</v>
@@ -74522,76 +74522,76 @@
         <v>45157.6875</v>
       </c>
       <c r="F832" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G832" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H832">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I832">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J832" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K832">
-        <v>2.45</v>
+        <v>1.125</v>
       </c>
       <c r="L832">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M832">
-        <v>2.875</v>
+        <v>19</v>
       </c>
       <c r="N832">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="O832">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P832">
-        <v>2.3</v>
+        <v>17</v>
       </c>
       <c r="Q832">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R832">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S832">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T832">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U832">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V832">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W832">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X832">
         <v>-1</v>
       </c>
       <c r="Y832">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z832">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA832">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB832">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC832">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="833" spans="1:29">
@@ -74599,7 +74599,7 @@
         <v>831</v>
       </c>
       <c r="B833">
-        <v>6876465</v>
+        <v>6876471</v>
       </c>
       <c r="C833" t="s">
         <v>28</v>
@@ -74611,76 +74611,76 @@
         <v>45157.6875</v>
       </c>
       <c r="F833" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G833" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I833">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J833" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K833">
-        <v>1.125</v>
+        <v>2.45</v>
       </c>
       <c r="L833">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M833">
-        <v>19</v>
+        <v>2.875</v>
       </c>
       <c r="N833">
-        <v>1.142</v>
+        <v>3</v>
       </c>
       <c r="O833">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="P833">
-        <v>17</v>
+        <v>2.3</v>
       </c>
       <c r="Q833">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R833">
+        <v>1.85</v>
+      </c>
+      <c r="S833">
+        <v>2</v>
+      </c>
+      <c r="T833">
+        <v>2.25</v>
+      </c>
+      <c r="U833">
         <v>1.925</v>
       </c>
-      <c r="S833">
+      <c r="V833">
         <v>1.925</v>
       </c>
-      <c r="T833">
-        <v>3.5</v>
-      </c>
-      <c r="U833">
-        <v>1.875</v>
-      </c>
-      <c r="V833">
-        <v>1.975</v>
-      </c>
       <c r="W833">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X833">
         <v>-1</v>
       </c>
       <c r="Y833">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z833">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA833">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB833">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC833">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="834" spans="1:29">
@@ -77536,7 +77536,7 @@
         <v>864</v>
       </c>
       <c r="B866">
-        <v>6876499</v>
+        <v>6875459</v>
       </c>
       <c r="C866" t="s">
         <v>28</v>
@@ -77548,76 +77548,76 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F866" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G866" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I866">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J866" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K866">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L866">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M866">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N866">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O866">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P866">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q866">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R866">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S866">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T866">
         <v>2.5</v>
       </c>
       <c r="U866">
+        <v>1.95</v>
+      </c>
+      <c r="V866">
         <v>1.9</v>
       </c>
-      <c r="V866">
-        <v>1.95</v>
-      </c>
       <c r="W866">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X866">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y866">
         <v>-1</v>
       </c>
       <c r="Z866">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA866">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB866">
+        <v>-1</v>
+      </c>
+      <c r="AC866">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC866">
-        <v>-1</v>
       </c>
     </row>
     <row r="867" spans="1:29">
@@ -77625,7 +77625,7 @@
         <v>865</v>
       </c>
       <c r="B867">
-        <v>6875459</v>
+        <v>6876499</v>
       </c>
       <c r="C867" t="s">
         <v>28</v>
@@ -77637,76 +77637,76 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F867" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G867" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H867">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I867">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J867" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K867">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L867">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M867">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N867">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O867">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P867">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q867">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R867">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S867">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T867">
         <v>2.5</v>
       </c>
       <c r="U867">
+        <v>1.9</v>
+      </c>
+      <c r="V867">
         <v>1.95</v>
       </c>
-      <c r="V867">
-        <v>1.9</v>
-      </c>
       <c r="W867">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X867">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y867">
         <v>-1</v>
       </c>
       <c r="Z867">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA867">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB867">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC867">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="868" spans="1:29">
@@ -80028,7 +80028,7 @@
         <v>892</v>
       </c>
       <c r="B894">
-        <v>6876528</v>
+        <v>6876523</v>
       </c>
       <c r="C894" t="s">
         <v>28</v>
@@ -80040,76 +80040,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F894" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G894" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H894">
+        <v>1</v>
+      </c>
+      <c r="I894">
+        <v>1</v>
+      </c>
+      <c r="J894" t="s">
+        <v>54</v>
+      </c>
+      <c r="K894">
+        <v>1.166</v>
+      </c>
+      <c r="L894">
+        <v>7</v>
+      </c>
+      <c r="M894">
+        <v>15</v>
+      </c>
+      <c r="N894">
+        <v>1.222</v>
+      </c>
+      <c r="O894">
+        <v>6</v>
+      </c>
+      <c r="P894">
+        <v>11</v>
+      </c>
+      <c r="Q894">
+        <v>-1.75</v>
+      </c>
+      <c r="R894">
+        <v>1.875</v>
+      </c>
+      <c r="S894">
+        <v>1.975</v>
+      </c>
+      <c r="T894">
+        <v>3</v>
+      </c>
+      <c r="U894">
+        <v>1.95</v>
+      </c>
+      <c r="V894">
+        <v>1.9</v>
+      </c>
+      <c r="W894">
+        <v>-1</v>
+      </c>
+      <c r="X894">
         <v>5</v>
       </c>
-      <c r="I894">
-        <v>0</v>
-      </c>
-      <c r="J894" t="s">
-        <v>53</v>
-      </c>
-      <c r="K894">
-        <v>1.75</v>
-      </c>
-      <c r="L894">
-        <v>3.6</v>
-      </c>
-      <c r="M894">
-        <v>4.75</v>
-      </c>
-      <c r="N894">
-        <v>1.666</v>
-      </c>
-      <c r="O894">
-        <v>3.75</v>
-      </c>
-      <c r="P894">
-        <v>5</v>
-      </c>
-      <c r="Q894">
-        <v>-0.75</v>
-      </c>
-      <c r="R894">
-        <v>1.9</v>
-      </c>
-      <c r="S894">
-        <v>2</v>
-      </c>
-      <c r="T894">
-        <v>2.5</v>
-      </c>
-      <c r="U894">
-        <v>1.925</v>
-      </c>
-      <c r="V894">
-        <v>1.925</v>
-      </c>
-      <c r="W894">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X894">
-        <v>-1</v>
-      </c>
       <c r="Y894">
         <v>-1</v>
       </c>
       <c r="Z894">
+        <v>-1</v>
+      </c>
+      <c r="AA894">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB894">
+        <v>-1</v>
+      </c>
+      <c r="AC894">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA894">
-        <v>-1</v>
-      </c>
-      <c r="AB894">
-        <v>0.925</v>
-      </c>
-      <c r="AC894">
-        <v>-1</v>
       </c>
     </row>
     <row r="895" spans="1:29">
@@ -80117,7 +80117,7 @@
         <v>893</v>
       </c>
       <c r="B895">
-        <v>6876523</v>
+        <v>6876528</v>
       </c>
       <c r="C895" t="s">
         <v>28</v>
@@ -80129,76 +80129,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F895" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G895" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H895">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I895">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J895" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K895">
-        <v>1.166</v>
+        <v>1.75</v>
       </c>
       <c r="L895">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M895">
-        <v>15</v>
+        <v>4.75</v>
       </c>
       <c r="N895">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="O895">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P895">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q895">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R895">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S895">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T895">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U895">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V895">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W895">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X895">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y895">
         <v>-1</v>
       </c>
       <c r="Z895">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA895">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB895">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC895">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="896" spans="1:29">
@@ -81007,7 +81007,7 @@
         <v>903</v>
       </c>
       <c r="B905">
-        <v>6876531</v>
+        <v>6875463</v>
       </c>
       <c r="C905" t="s">
         <v>28</v>
@@ -81019,76 +81019,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F905" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G905" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I905">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J905" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K905">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L905">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M905">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N905">
+        <v>2.875</v>
+      </c>
+      <c r="O905">
+        <v>3.3</v>
+      </c>
+      <c r="P905">
+        <v>2.4</v>
+      </c>
+      <c r="Q905">
+        <v>0</v>
+      </c>
+      <c r="R905">
         <v>2.1</v>
       </c>
-      <c r="O905">
-        <v>3.4</v>
-      </c>
-      <c r="P905">
-        <v>3.4</v>
-      </c>
-      <c r="Q905">
-        <v>-0.25</v>
-      </c>
-      <c r="R905">
-        <v>1.875</v>
-      </c>
       <c r="S905">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T905">
         <v>2.25</v>
       </c>
       <c r="U905">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V905">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W905">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X905">
         <v>-1</v>
       </c>
       <c r="Y905">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z905">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA905">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB905">
         <v>-1</v>
       </c>
       <c r="AC905">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:29">
@@ -81096,7 +81096,7 @@
         <v>904</v>
       </c>
       <c r="B906">
-        <v>6875463</v>
+        <v>6876531</v>
       </c>
       <c r="C906" t="s">
         <v>28</v>
@@ -81108,76 +81108,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F906" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G906" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H906">
+        <v>0</v>
+      </c>
+      <c r="I906">
         <v>1</v>
       </c>
-      <c r="I906">
-        <v>0</v>
-      </c>
       <c r="J906" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K906">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="L906">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M906">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N906">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="O906">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P906">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q906">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R906">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S906">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T906">
         <v>2.25</v>
       </c>
       <c r="U906">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V906">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W906">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X906">
         <v>-1</v>
       </c>
       <c r="Y906">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z906">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA906">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB906">
         <v>-1</v>
       </c>
       <c r="AC906">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="907" spans="1:29">
@@ -85635,7 +85635,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>6876581</v>
+        <v>6876582</v>
       </c>
       <c r="C957" t="s">
         <v>28</v>
@@ -85647,76 +85647,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F957" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G957" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H957">
         <v>1</v>
       </c>
       <c r="I957">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J957" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K957">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L957">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M957">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N957">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O957">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P957">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q957">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R957">
+        <v>1.95</v>
+      </c>
+      <c r="S957">
+        <v>1.9</v>
+      </c>
+      <c r="T957">
+        <v>2.5</v>
+      </c>
+      <c r="U957">
         <v>2.025</v>
       </c>
-      <c r="S957">
+      <c r="V957">
         <v>1.825</v>
       </c>
-      <c r="T957">
-        <v>2.25</v>
-      </c>
-      <c r="U957">
-        <v>1.975</v>
-      </c>
-      <c r="V957">
-        <v>1.875</v>
-      </c>
       <c r="W957">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X957">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y957">
         <v>-1</v>
       </c>
       <c r="Z957">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA957">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB957">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC957">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="958" spans="1:29">
@@ -85724,7 +85724,7 @@
         <v>956</v>
       </c>
       <c r="B958">
-        <v>6876582</v>
+        <v>6876581</v>
       </c>
       <c r="C958" t="s">
         <v>28</v>
@@ -85736,76 +85736,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F958" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G958" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H958">
         <v>1</v>
       </c>
       <c r="I958">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J958" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K958">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L958">
+        <v>3.4</v>
+      </c>
+      <c r="M958">
         <v>3.6</v>
       </c>
-      <c r="M958">
-        <v>4.2</v>
-      </c>
       <c r="N958">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O958">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P958">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q958">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R958">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S958">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T958">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U958">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V958">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W958">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X958">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y958">
         <v>-1</v>
       </c>
       <c r="Z958">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA958">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB958">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC958">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="959" spans="1:29">
@@ -88127,7 +88127,7 @@
         <v>983</v>
       </c>
       <c r="B985">
-        <v>6876607</v>
+        <v>6876603</v>
       </c>
       <c r="C985" t="s">
         <v>28</v>
@@ -88139,13 +88139,13 @@
         <v>45319.72916666666</v>
       </c>
       <c r="F985" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G985" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H985">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I985">
         <v>0</v>
@@ -88154,43 +88154,43 @@
         <v>53</v>
       </c>
       <c r="K985">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L985">
         <v>3.4</v>
       </c>
       <c r="M985">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N985">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="O985">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P985">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q985">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R985">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S985">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T985">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U985">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V985">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W985">
-        <v>0.8</v>
+        <v>2.25</v>
       </c>
       <c r="X985">
         <v>-1</v>
@@ -88199,16 +88199,16 @@
         <v>-1</v>
       </c>
       <c r="Z985">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA985">
         <v>-1</v>
       </c>
       <c r="AB985">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC985">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="986" spans="1:29">
@@ -88216,7 +88216,7 @@
         <v>984</v>
       </c>
       <c r="B986">
-        <v>6876603</v>
+        <v>6876607</v>
       </c>
       <c r="C986" t="s">
         <v>28</v>
@@ -88228,13 +88228,13 @@
         <v>45319.72916666666</v>
       </c>
       <c r="F986" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G986" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H986">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I986">
         <v>0</v>
@@ -88243,43 +88243,43 @@
         <v>53</v>
       </c>
       <c r="K986">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L986">
         <v>3.4</v>
       </c>
       <c r="M986">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N986">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="O986">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P986">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q986">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R986">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S986">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T986">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U986">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V986">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W986">
-        <v>2.25</v>
+        <v>0.8</v>
       </c>
       <c r="X986">
         <v>-1</v>
@@ -88288,16 +88288,16 @@
         <v>-1</v>
       </c>
       <c r="Z986">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA986">
         <v>-1</v>
       </c>
       <c r="AB986">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC986">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="987" spans="1:29">
@@ -88332,31 +88332,31 @@
         <v>1.285</v>
       </c>
       <c r="N987">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O987">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="P987">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q987">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="R987">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="S987">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="T987">
         <v>3</v>
       </c>
       <c r="U987">
+        <v>1.95</v>
+      </c>
+      <c r="V987">
         <v>1.9</v>
-      </c>
-      <c r="V987">
-        <v>1.95</v>
       </c>
       <c r="W987">
         <v>0</v>
@@ -88415,22 +88415,22 @@
         <v>15</v>
       </c>
       <c r="Q988">
-        <v>-2</v>
+        <v>-2.25</v>
       </c>
       <c r="R988">
-        <v>1.84</v>
+        <v>2.07</v>
       </c>
       <c r="S988">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="T988">
         <v>3.25</v>
       </c>
       <c r="U988">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V988">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W988">
         <v>0</v>
@@ -88563,13 +88563,13 @@
         <v>9.5</v>
       </c>
       <c r="Q990">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R990">
+        <v>2.06</v>
+      </c>
+      <c r="S990">
         <v>1.84</v>
-      </c>
-      <c r="S990">
-        <v>2.06</v>
       </c>
       <c r="T990">
         <v>3</v>
@@ -88823,7 +88823,7 @@
         <v>992</v>
       </c>
       <c r="B994">
-        <v>6876616</v>
+        <v>6876611</v>
       </c>
       <c r="C994" t="s">
         <v>28</v>
@@ -88835,46 +88835,46 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F994" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G994" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K994">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L994">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M994">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N994">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="O994">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P994">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="Q994">
         <v>0.25</v>
       </c>
       <c r="R994">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S994">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T994">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U994">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V994">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W994">
         <v>0</v>
@@ -88897,7 +88897,7 @@
         <v>993</v>
       </c>
       <c r="B995">
-        <v>6876611</v>
+        <v>6876616</v>
       </c>
       <c r="C995" t="s">
         <v>28</v>
@@ -88909,46 +88909,46 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F995" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G995" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K995">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L995">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M995">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N995">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O995">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P995">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q995">
         <v>0.25</v>
       </c>
       <c r="R995">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S995">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T995">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U995">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V995">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W995">
         <v>0</v>
@@ -88971,7 +88971,7 @@
         <v>994</v>
       </c>
       <c r="B996">
-        <v>7758961</v>
+        <v>7758962</v>
       </c>
       <c r="C996" t="s">
         <v>28</v>
@@ -88983,46 +88983,46 @@
         <v>45326.625</v>
       </c>
       <c r="F996" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G996" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="K996">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="L996">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M996">
-        <v>14</v>
+        <v>3.2</v>
       </c>
       <c r="N996">
-        <v>1.166</v>
+        <v>2.2</v>
       </c>
       <c r="O996">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P996">
-        <v>17</v>
+        <v>3.1</v>
       </c>
       <c r="Q996">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R996">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="S996">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="T996">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U996">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V996">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W996">
         <v>0</v>
@@ -89045,7 +89045,7 @@
         <v>995</v>
       </c>
       <c r="B997">
-        <v>7758962</v>
+        <v>7758961</v>
       </c>
       <c r="C997" t="s">
         <v>28</v>
@@ -89057,46 +89057,46 @@
         <v>45326.625</v>
       </c>
       <c r="F997" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G997" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="K997">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="L997">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M997">
-        <v>3.2</v>
+        <v>14</v>
       </c>
       <c r="N997">
-        <v>2.2</v>
+        <v>1.166</v>
       </c>
       <c r="O997">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P997">
-        <v>3.1</v>
+        <v>17</v>
       </c>
       <c r="Q997">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R997">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="S997">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="T997">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U997">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V997">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W997">
         <v>0</v>
@@ -89185,6 +89185,80 @@
         <v>0</v>
       </c>
       <c r="AA998">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="999" spans="1:27">
+      <c r="A999" s="1">
+        <v>997</v>
+      </c>
+      <c r="B999">
+        <v>6876612</v>
+      </c>
+      <c r="C999" t="s">
+        <v>28</v>
+      </c>
+      <c r="D999" t="s">
+        <v>28</v>
+      </c>
+      <c r="E999" s="2">
+        <v>45327.71875</v>
+      </c>
+      <c r="F999" t="s">
+        <v>51</v>
+      </c>
+      <c r="G999" t="s">
+        <v>43</v>
+      </c>
+      <c r="K999">
+        <v>2.3</v>
+      </c>
+      <c r="L999">
+        <v>3.25</v>
+      </c>
+      <c r="M999">
+        <v>3.1</v>
+      </c>
+      <c r="N999">
+        <v>2.5</v>
+      </c>
+      <c r="O999">
+        <v>3.2</v>
+      </c>
+      <c r="P999">
+        <v>2.8</v>
+      </c>
+      <c r="Q999">
+        <v>0</v>
+      </c>
+      <c r="R999">
+        <v>1.83</v>
+      </c>
+      <c r="S999">
+        <v>2.07</v>
+      </c>
+      <c r="T999">
+        <v>2.25</v>
+      </c>
+      <c r="U999">
+        <v>1.925</v>
+      </c>
+      <c r="V999">
+        <v>1.925</v>
+      </c>
+      <c r="W999">
+        <v>0</v>
+      </c>
+      <c r="X999">
+        <v>0</v>
+      </c>
+      <c r="Y999">
+        <v>0</v>
+      </c>
+      <c r="Z999">
+        <v>0</v>
+      </c>
+      <c r="AA999">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -59825,7 +59825,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>5265613</v>
+        <v>5265726</v>
       </c>
       <c r="C667" t="s">
         <v>28</v>
@@ -59837,13 +59837,13 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F667" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G667" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I667">
         <v>1</v>
@@ -59852,43 +59852,43 @@
         <v>53</v>
       </c>
       <c r="K667">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L667">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M667">
+        <v>3.5</v>
+      </c>
+      <c r="N667">
+        <v>2</v>
+      </c>
+      <c r="O667">
+        <v>3.3</v>
+      </c>
+      <c r="P667">
         <v>3.8</v>
-      </c>
-      <c r="N667">
-        <v>1.95</v>
-      </c>
-      <c r="O667">
-        <v>3</v>
-      </c>
-      <c r="P667">
-        <v>4.5</v>
       </c>
       <c r="Q667">
         <v>-0.5</v>
       </c>
       <c r="R667">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S667">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T667">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U667">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V667">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W667">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="X667">
         <v>-1</v>
@@ -59897,13 +59897,13 @@
         <v>-1</v>
       </c>
       <c r="Z667">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA667">
         <v>-1</v>
       </c>
       <c r="AB667">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC667">
         <v>-1</v>
@@ -59914,7 +59914,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>5265726</v>
+        <v>5265613</v>
       </c>
       <c r="C668" t="s">
         <v>28</v>
@@ -59926,13 +59926,13 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F668" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G668" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H668">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I668">
         <v>1</v>
@@ -59941,43 +59941,43 @@
         <v>53</v>
       </c>
       <c r="K668">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L668">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M668">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N668">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O668">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P668">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q668">
         <v>-0.5</v>
       </c>
       <c r="R668">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S668">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T668">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U668">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V668">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W668">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="X668">
         <v>-1</v>
@@ -59986,13 +59986,13 @@
         <v>-1</v>
       </c>
       <c r="Z668">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA668">
         <v>-1</v>
       </c>
       <c r="AB668">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC668">
         <v>-1</v>
@@ -62317,7 +62317,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>5265630</v>
+        <v>5265735</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62329,73 +62329,73 @@
         <v>44975.625</v>
       </c>
       <c r="F695" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G695" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H695">
+        <v>2</v>
+      </c>
+      <c r="I695">
         <v>1</v>
       </c>
-      <c r="I695">
+      <c r="J695" t="s">
+        <v>53</v>
+      </c>
+      <c r="K695">
+        <v>2.05</v>
+      </c>
+      <c r="L695">
+        <v>3.25</v>
+      </c>
+      <c r="M695">
+        <v>3.75</v>
+      </c>
+      <c r="N695">
+        <v>2.45</v>
+      </c>
+      <c r="O695">
+        <v>3.1</v>
+      </c>
+      <c r="P695">
         <v>3</v>
       </c>
-      <c r="J695" t="s">
-        <v>55</v>
-      </c>
-      <c r="K695">
-        <v>1.95</v>
-      </c>
-      <c r="L695">
-        <v>3.3</v>
-      </c>
-      <c r="M695">
-        <v>4</v>
-      </c>
-      <c r="N695">
-        <v>2</v>
-      </c>
-      <c r="O695">
-        <v>3.2</v>
-      </c>
-      <c r="P695">
-        <v>3.8</v>
-      </c>
       <c r="Q695">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R695">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S695">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="T695">
         <v>2.25</v>
       </c>
       <c r="U695">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V695">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W695">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X695">
         <v>-1</v>
       </c>
       <c r="Y695">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z695">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA695">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB695">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC695">
         <v>-1</v>
@@ -62406,7 +62406,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>5265735</v>
+        <v>5265630</v>
       </c>
       <c r="C696" t="s">
         <v>28</v>
@@ -62418,73 +62418,73 @@
         <v>44975.625</v>
       </c>
       <c r="F696" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G696" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I696">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J696" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K696">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L696">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M696">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N696">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="O696">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P696">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q696">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R696">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S696">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="T696">
         <v>2.25</v>
       </c>
       <c r="U696">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V696">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W696">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X696">
         <v>-1</v>
       </c>
       <c r="Y696">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z696">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA696">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB696">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC696">
         <v>-1</v>
@@ -64720,7 +64720,7 @@
         <v>720</v>
       </c>
       <c r="B722">
-        <v>5265642</v>
+        <v>5265747</v>
       </c>
       <c r="C722" t="s">
         <v>28</v>
@@ -64732,13 +64732,13 @@
         <v>44996.52083333334</v>
       </c>
       <c r="F722" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G722" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H722">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I722">
         <v>0</v>
@@ -64747,61 +64747,61 @@
         <v>53</v>
       </c>
       <c r="K722">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L722">
+        <v>3.3</v>
+      </c>
+      <c r="M722">
         <v>3.25</v>
       </c>
-      <c r="M722">
+      <c r="N722">
+        <v>2.3</v>
+      </c>
+      <c r="O722">
+        <v>3.3</v>
+      </c>
+      <c r="P722">
         <v>3</v>
       </c>
-      <c r="N722">
-        <v>2</v>
-      </c>
-      <c r="O722">
-        <v>3.4</v>
-      </c>
-      <c r="P722">
-        <v>3.6</v>
-      </c>
       <c r="Q722">
+        <v>-0.25</v>
+      </c>
+      <c r="R722">
+        <v>2</v>
+      </c>
+      <c r="S722">
+        <v>1.85</v>
+      </c>
+      <c r="T722">
+        <v>2.25</v>
+      </c>
+      <c r="U722">
+        <v>1.85</v>
+      </c>
+      <c r="V722">
+        <v>2</v>
+      </c>
+      <c r="W722">
+        <v>1.3</v>
+      </c>
+      <c r="X722">
+        <v>-1</v>
+      </c>
+      <c r="Y722">
+        <v>-1</v>
+      </c>
+      <c r="Z722">
+        <v>1</v>
+      </c>
+      <c r="AA722">
+        <v>-1</v>
+      </c>
+      <c r="AB722">
         <v>-0.5</v>
       </c>
-      <c r="R722">
-        <v>2.05</v>
-      </c>
-      <c r="S722">
-        <v>1.8</v>
-      </c>
-      <c r="T722">
-        <v>2</v>
-      </c>
-      <c r="U722">
-        <v>1.75</v>
-      </c>
-      <c r="V722">
-        <v>2.05</v>
-      </c>
-      <c r="W722">
-        <v>1</v>
-      </c>
-      <c r="X722">
-        <v>-1</v>
-      </c>
-      <c r="Y722">
-        <v>-1</v>
-      </c>
-      <c r="Z722">
-        <v>1.05</v>
-      </c>
-      <c r="AA722">
-        <v>-1</v>
-      </c>
-      <c r="AB722">
-        <v>-1</v>
-      </c>
       <c r="AC722">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="723" spans="1:29">
@@ -64809,7 +64809,7 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>5265747</v>
+        <v>5265642</v>
       </c>
       <c r="C723" t="s">
         <v>28</v>
@@ -64821,13 +64821,13 @@
         <v>44996.52083333334</v>
       </c>
       <c r="F723" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G723" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I723">
         <v>0</v>
@@ -64836,43 +64836,43 @@
         <v>53</v>
       </c>
       <c r="K723">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L723">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M723">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N723">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O723">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P723">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q723">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R723">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S723">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T723">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U723">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V723">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W723">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X723">
         <v>-1</v>
@@ -64881,16 +64881,16 @@
         <v>-1</v>
       </c>
       <c r="Z723">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA723">
         <v>-1</v>
       </c>
       <c r="AB723">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC723">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="724" spans="1:29">
@@ -66500,7 +66500,7 @@
         <v>740</v>
       </c>
       <c r="B742">
-        <v>5265751</v>
+        <v>5265654</v>
       </c>
       <c r="C742" t="s">
         <v>28</v>
@@ -66512,73 +66512,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F742" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G742" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I742">
         <v>2</v>
       </c>
       <c r="J742" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K742">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L742">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M742">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N742">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="O742">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P742">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="Q742">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R742">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="S742">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T742">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U742">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V742">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W742">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X742">
         <v>-1</v>
       </c>
       <c r="Y742">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z742">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AA742">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB742">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC742">
         <v>-1</v>
@@ -66589,7 +66589,7 @@
         <v>741</v>
       </c>
       <c r="B743">
-        <v>5265654</v>
+        <v>5265751</v>
       </c>
       <c r="C743" t="s">
         <v>28</v>
@@ -66601,73 +66601,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F743" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G743" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H743">
+        <v>1</v>
+      </c>
+      <c r="I743">
+        <v>2</v>
+      </c>
+      <c r="J743" t="s">
+        <v>55</v>
+      </c>
+      <c r="K743">
         <v>4</v>
       </c>
-      <c r="I743">
-        <v>2</v>
-      </c>
-      <c r="J743" t="s">
-        <v>53</v>
-      </c>
-      <c r="K743">
-        <v>2.625</v>
-      </c>
       <c r="L743">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M743">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N743">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O743">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P743">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q743">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R743">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="S743">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T743">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U743">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V743">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W743">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X743">
         <v>-1</v>
       </c>
       <c r="Y743">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z743">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AA743">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB743">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC743">
         <v>-1</v>
@@ -67390,7 +67390,7 @@
         <v>750</v>
       </c>
       <c r="B752">
-        <v>5265660</v>
+        <v>5265754</v>
       </c>
       <c r="C752" t="s">
         <v>28</v>
@@ -67402,73 +67402,73 @@
         <v>45024.58333333334</v>
       </c>
       <c r="F752" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G752" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H752">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I752">
+        <v>2</v>
+      </c>
+      <c r="J752" t="s">
+        <v>54</v>
+      </c>
+      <c r="K752">
+        <v>2.6</v>
+      </c>
+      <c r="L752">
         <v>3</v>
       </c>
-      <c r="J752" t="s">
-        <v>55</v>
-      </c>
-      <c r="K752">
-        <v>2.7</v>
-      </c>
-      <c r="L752">
-        <v>3.1</v>
-      </c>
       <c r="M752">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N752">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="O752">
         <v>3</v>
       </c>
       <c r="P752">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q752">
         <v>0</v>
       </c>
       <c r="R752">
-        <v>2.01</v>
+        <v>1.775</v>
       </c>
       <c r="S752">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="T752">
         <v>2</v>
       </c>
       <c r="U752">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V752">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W752">
         <v>-1</v>
       </c>
       <c r="X752">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y752">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z752">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA752">
-        <v>0.8899999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB752">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC752">
         <v>-1</v>
@@ -67479,7 +67479,7 @@
         <v>751</v>
       </c>
       <c r="B753">
-        <v>5265754</v>
+        <v>5265660</v>
       </c>
       <c r="C753" t="s">
         <v>28</v>
@@ -67491,73 +67491,73 @@
         <v>45024.58333333334</v>
       </c>
       <c r="F753" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G753" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I753">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J753" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K753">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L753">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M753">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N753">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O753">
         <v>3</v>
       </c>
       <c r="P753">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q753">
         <v>0</v>
       </c>
       <c r="R753">
-        <v>1.775</v>
+        <v>2.01</v>
       </c>
       <c r="S753">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="T753">
         <v>2</v>
       </c>
       <c r="U753">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V753">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W753">
         <v>-1</v>
       </c>
       <c r="X753">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y753">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z753">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA753">
-        <v>-0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB753">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC753">
         <v>-1</v>
@@ -69526,7 +69526,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>5265759</v>
+        <v>5265760</v>
       </c>
       <c r="C776" t="s">
         <v>28</v>
@@ -69538,73 +69538,73 @@
         <v>45045.47916666666</v>
       </c>
       <c r="F776" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G776" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H776">
+        <v>4</v>
+      </c>
+      <c r="I776">
         <v>1</v>
       </c>
-      <c r="I776">
-        <v>2</v>
-      </c>
       <c r="J776" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K776">
-        <v>2.45</v>
+        <v>1.25</v>
       </c>
       <c r="L776">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M776">
-        <v>2.9</v>
+        <v>11</v>
       </c>
       <c r="N776">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="O776">
+        <v>6</v>
+      </c>
+      <c r="P776">
+        <v>10</v>
+      </c>
+      <c r="Q776">
+        <v>-1.75</v>
+      </c>
+      <c r="R776">
+        <v>1.89</v>
+      </c>
+      <c r="S776">
+        <v>2.01</v>
+      </c>
+      <c r="T776">
         <v>3.25</v>
       </c>
-      <c r="P776">
-        <v>3</v>
-      </c>
-      <c r="Q776">
-        <v>-0.25</v>
-      </c>
-      <c r="R776">
-        <v>2.1</v>
-      </c>
-      <c r="S776">
-        <v>1.775</v>
-      </c>
-      <c r="T776">
-        <v>2.25</v>
-      </c>
       <c r="U776">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V776">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W776">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X776">
         <v>-1</v>
       </c>
       <c r="Y776">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z776">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA776">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB776">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC776">
         <v>-1</v>
@@ -69615,7 +69615,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>5265760</v>
+        <v>5265759</v>
       </c>
       <c r="C777" t="s">
         <v>28</v>
@@ -69627,73 +69627,73 @@
         <v>45045.47916666666</v>
       </c>
       <c r="F777" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G777" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H777">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I777">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J777" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K777">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="L777">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M777">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="N777">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="O777">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P777">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q777">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R777">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="S777">
-        <v>2.01</v>
+        <v>1.775</v>
       </c>
       <c r="T777">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U777">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V777">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W777">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X777">
         <v>-1</v>
       </c>
       <c r="Y777">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z777">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA777">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB777">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC777">
         <v>-1</v>
@@ -69704,7 +69704,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>5265682</v>
+        <v>5265761</v>
       </c>
       <c r="C778" t="s">
         <v>28</v>
@@ -69716,76 +69716,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F778" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G778" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H778">
         <v>1</v>
       </c>
       <c r="I778">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J778" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K778">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L778">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M778">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="N778">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O778">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P778">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q778">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R778">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="S778">
-        <v>1.98</v>
+        <v>1.925</v>
       </c>
       <c r="T778">
         <v>2.25</v>
       </c>
       <c r="U778">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V778">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W778">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X778">
         <v>-1</v>
       </c>
       <c r="Y778">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z778">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA778">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB778">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC778">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="779" spans="1:29">
@@ -69793,7 +69793,7 @@
         <v>777</v>
       </c>
       <c r="B779">
-        <v>5265761</v>
+        <v>5265682</v>
       </c>
       <c r="C779" t="s">
         <v>28</v>
@@ -69805,76 +69805,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F779" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G779" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H779">
         <v>1</v>
       </c>
       <c r="I779">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J779" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K779">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L779">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M779">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="N779">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O779">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P779">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q779">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R779">
-        <v>1.925</v>
+        <v>1.92</v>
       </c>
       <c r="S779">
-        <v>1.925</v>
+        <v>1.98</v>
       </c>
       <c r="T779">
         <v>2.25</v>
       </c>
       <c r="U779">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V779">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W779">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X779">
         <v>-1</v>
       </c>
       <c r="Y779">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z779">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA779">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB779">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC779">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="780" spans="1:29">
@@ -77536,7 +77536,7 @@
         <v>864</v>
       </c>
       <c r="B866">
-        <v>6875459</v>
+        <v>6876499</v>
       </c>
       <c r="C866" t="s">
         <v>28</v>
@@ -77548,76 +77548,76 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F866" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G866" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H866">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I866">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J866" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K866">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L866">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M866">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N866">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O866">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P866">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q866">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R866">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S866">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T866">
         <v>2.5</v>
       </c>
       <c r="U866">
+        <v>1.9</v>
+      </c>
+      <c r="V866">
         <v>1.95</v>
       </c>
-      <c r="V866">
-        <v>1.9</v>
-      </c>
       <c r="W866">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X866">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y866">
         <v>-1</v>
       </c>
       <c r="Z866">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA866">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB866">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC866">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="867" spans="1:29">
@@ -77625,7 +77625,7 @@
         <v>865</v>
       </c>
       <c r="B867">
-        <v>6876499</v>
+        <v>6875459</v>
       </c>
       <c r="C867" t="s">
         <v>28</v>
@@ -77637,76 +77637,76 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F867" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G867" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I867">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J867" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K867">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L867">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M867">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N867">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O867">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P867">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q867">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R867">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S867">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T867">
         <v>2.5</v>
       </c>
       <c r="U867">
+        <v>1.95</v>
+      </c>
+      <c r="V867">
         <v>1.9</v>
       </c>
-      <c r="V867">
-        <v>1.95</v>
-      </c>
       <c r="W867">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X867">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y867">
         <v>-1</v>
       </c>
       <c r="Z867">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA867">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB867">
+        <v>-1</v>
+      </c>
+      <c r="AC867">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC867">
-        <v>-1</v>
       </c>
     </row>
     <row r="868" spans="1:29">
@@ -87860,7 +87860,7 @@
         <v>980</v>
       </c>
       <c r="B982">
-        <v>6875472</v>
+        <v>6876608</v>
       </c>
       <c r="C982" t="s">
         <v>28</v>
@@ -87872,49 +87872,49 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F982" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G982" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H982">
         <v>1</v>
       </c>
       <c r="I982">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J982" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K982">
+        <v>1.727</v>
+      </c>
+      <c r="L982">
+        <v>3.6</v>
+      </c>
+      <c r="M982">
+        <v>4.75</v>
+      </c>
+      <c r="N982">
+        <v>2</v>
+      </c>
+      <c r="O982">
+        <v>3.3</v>
+      </c>
+      <c r="P982">
+        <v>4</v>
+      </c>
+      <c r="Q982">
+        <v>-0.5</v>
+      </c>
+      <c r="R982">
+        <v>2.025</v>
+      </c>
+      <c r="S982">
+        <v>1.825</v>
+      </c>
+      <c r="T982">
         <v>2.25</v>
-      </c>
-      <c r="L982">
-        <v>3.3</v>
-      </c>
-      <c r="M982">
-        <v>3.2</v>
-      </c>
-      <c r="N982">
-        <v>2.375</v>
-      </c>
-      <c r="O982">
-        <v>3.2</v>
-      </c>
-      <c r="P982">
-        <v>3.2</v>
-      </c>
-      <c r="Q982">
-        <v>-0.25</v>
-      </c>
-      <c r="R982">
-        <v>2.1</v>
-      </c>
-      <c r="S982">
-        <v>1.775</v>
-      </c>
-      <c r="T982">
-        <v>2</v>
       </c>
       <c r="U982">
         <v>1.825</v>
@@ -87923,25 +87923,25 @@
         <v>2.025</v>
       </c>
       <c r="W982">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X982">
         <v>-1</v>
       </c>
       <c r="Y982">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z982">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA982">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB982">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC982">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="983" spans="1:29">
@@ -87949,7 +87949,7 @@
         <v>981</v>
       </c>
       <c r="B983">
-        <v>6876608</v>
+        <v>6875472</v>
       </c>
       <c r="C983" t="s">
         <v>28</v>
@@ -87961,49 +87961,49 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F983" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G983" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H983">
         <v>1</v>
       </c>
       <c r="I983">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J983" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K983">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L983">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M983">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N983">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O983">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P983">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q983">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R983">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S983">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T983">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U983">
         <v>1.825</v>
@@ -88012,25 +88012,25 @@
         <v>2.025</v>
       </c>
       <c r="W983">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X983">
         <v>-1</v>
       </c>
       <c r="Y983">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z983">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA983">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB983">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC983">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="984" spans="1:29">
@@ -88332,31 +88332,31 @@
         <v>1.285</v>
       </c>
       <c r="N987">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O987">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="P987">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q987">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="R987">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="S987">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="T987">
         <v>3</v>
       </c>
       <c r="U987">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V987">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W987">
         <v>0</v>
@@ -88406,31 +88406,31 @@
         <v>13</v>
       </c>
       <c r="N988">
-        <v>1.166</v>
+        <v>1.181</v>
       </c>
       <c r="O988">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="P988">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q988">
-        <v>-2.25</v>
+        <v>-2</v>
       </c>
       <c r="R988">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="S988">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="T988">
         <v>3.25</v>
       </c>
       <c r="U988">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V988">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W988">
         <v>0</v>
@@ -88492,19 +88492,19 @@
         <v>-0.25</v>
       </c>
       <c r="R989">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S989">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="T989">
         <v>2.5</v>
       </c>
       <c r="U989">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V989">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W989">
         <v>0</v>
@@ -88628,31 +88628,31 @@
         <v>2.625</v>
       </c>
       <c r="N991">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O991">
         <v>3.3</v>
       </c>
       <c r="P991">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q991">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R991">
-        <v>2.09</v>
+        <v>1.87</v>
       </c>
       <c r="S991">
-        <v>1.81</v>
+        <v>2.03</v>
       </c>
       <c r="T991">
         <v>2.25</v>
       </c>
       <c r="U991">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V991">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W991">
         <v>0</v>
@@ -88850,31 +88850,31 @@
         <v>2.3</v>
       </c>
       <c r="N994">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O994">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P994">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q994">
         <v>0.25</v>
       </c>
       <c r="R994">
+        <v>2.03</v>
+      </c>
+      <c r="S994">
         <v>1.87</v>
-      </c>
-      <c r="S994">
-        <v>2.03</v>
       </c>
       <c r="T994">
         <v>2.25</v>
       </c>
       <c r="U994">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V994">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W994">
         <v>0</v>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5005" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5001" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC999"/>
+  <dimension ref="A1:AC998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46742,7 +46742,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>5263100</v>
+        <v>5264289</v>
       </c>
       <c r="C520" t="s">
         <v>28</v>
@@ -46754,10 +46754,10 @@
         <v>44780.6875</v>
       </c>
       <c r="F520" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G520" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H520">
         <v>0</v>
@@ -46769,40 +46769,40 @@
         <v>55</v>
       </c>
       <c r="K520">
+        <v>2.3</v>
+      </c>
+      <c r="L520">
+        <v>3.1</v>
+      </c>
+      <c r="M520">
         <v>3</v>
       </c>
-      <c r="L520">
-        <v>3.2</v>
-      </c>
-      <c r="M520">
-        <v>2.25</v>
-      </c>
       <c r="N520">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O520">
         <v>3.2</v>
       </c>
       <c r="P520">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q520">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R520">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="S520">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="T520">
         <v>2.25</v>
       </c>
       <c r="U520">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V520">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W520">
         <v>-1</v>
@@ -46811,19 +46811,19 @@
         <v>-1</v>
       </c>
       <c r="Y520">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="Z520">
         <v>-1</v>
       </c>
       <c r="AA520">
-        <v>1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB520">
         <v>-1</v>
       </c>
       <c r="AC520">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="521" spans="1:29">
@@ -46831,7 +46831,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>5264289</v>
+        <v>5263100</v>
       </c>
       <c r="C521" t="s">
         <v>28</v>
@@ -46843,10 +46843,10 @@
         <v>44780.6875</v>
       </c>
       <c r="F521" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G521" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H521">
         <v>0</v>
@@ -46858,40 +46858,40 @@
         <v>55</v>
       </c>
       <c r="K521">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L521">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M521">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N521">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="O521">
         <v>3.2</v>
       </c>
       <c r="P521">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q521">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R521">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="S521">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="T521">
         <v>2.25</v>
       </c>
       <c r="U521">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V521">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W521">
         <v>-1</v>
@@ -46900,19 +46900,19 @@
         <v>-1</v>
       </c>
       <c r="Y521">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="Z521">
         <v>-1</v>
       </c>
       <c r="AA521">
-        <v>0.8700000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB521">
         <v>-1</v>
       </c>
       <c r="AC521">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="522" spans="1:29">
@@ -59825,7 +59825,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>5265726</v>
+        <v>5265613</v>
       </c>
       <c r="C667" t="s">
         <v>28</v>
@@ -59837,13 +59837,13 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F667" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G667" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H667">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I667">
         <v>1</v>
@@ -59852,43 +59852,43 @@
         <v>53</v>
       </c>
       <c r="K667">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L667">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M667">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N667">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O667">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P667">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q667">
         <v>-0.5</v>
       </c>
       <c r="R667">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S667">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T667">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U667">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V667">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W667">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="X667">
         <v>-1</v>
@@ -59897,13 +59897,13 @@
         <v>-1</v>
       </c>
       <c r="Z667">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA667">
         <v>-1</v>
       </c>
       <c r="AB667">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC667">
         <v>-1</v>
@@ -59914,7 +59914,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>5265613</v>
+        <v>5265726</v>
       </c>
       <c r="C668" t="s">
         <v>28</v>
@@ -59926,13 +59926,13 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F668" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G668" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I668">
         <v>1</v>
@@ -59941,43 +59941,43 @@
         <v>53</v>
       </c>
       <c r="K668">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L668">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M668">
+        <v>3.5</v>
+      </c>
+      <c r="N668">
+        <v>2</v>
+      </c>
+      <c r="O668">
+        <v>3.3</v>
+      </c>
+      <c r="P668">
         <v>3.8</v>
-      </c>
-      <c r="N668">
-        <v>1.95</v>
-      </c>
-      <c r="O668">
-        <v>3</v>
-      </c>
-      <c r="P668">
-        <v>4.5</v>
       </c>
       <c r="Q668">
         <v>-0.5</v>
       </c>
       <c r="R668">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S668">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T668">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U668">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V668">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W668">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="X668">
         <v>-1</v>
@@ -59986,13 +59986,13 @@
         <v>-1</v>
       </c>
       <c r="Z668">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA668">
         <v>-1</v>
       </c>
       <c r="AB668">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC668">
         <v>-1</v>
@@ -62317,7 +62317,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>5265735</v>
+        <v>5265630</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62329,73 +62329,73 @@
         <v>44975.625</v>
       </c>
       <c r="F695" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G695" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I695">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J695" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K695">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L695">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M695">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N695">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="O695">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P695">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q695">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R695">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S695">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="T695">
         <v>2.25</v>
       </c>
       <c r="U695">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V695">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W695">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X695">
         <v>-1</v>
       </c>
       <c r="Y695">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z695">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA695">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB695">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC695">
         <v>-1</v>
@@ -62406,7 +62406,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>5265630</v>
+        <v>5265735</v>
       </c>
       <c r="C696" t="s">
         <v>28</v>
@@ -62418,73 +62418,73 @@
         <v>44975.625</v>
       </c>
       <c r="F696" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G696" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H696">
+        <v>2</v>
+      </c>
+      <c r="I696">
         <v>1</v>
       </c>
-      <c r="I696">
+      <c r="J696" t="s">
+        <v>53</v>
+      </c>
+      <c r="K696">
+        <v>2.05</v>
+      </c>
+      <c r="L696">
+        <v>3.25</v>
+      </c>
+      <c r="M696">
+        <v>3.75</v>
+      </c>
+      <c r="N696">
+        <v>2.45</v>
+      </c>
+      <c r="O696">
+        <v>3.1</v>
+      </c>
+      <c r="P696">
         <v>3</v>
       </c>
-      <c r="J696" t="s">
-        <v>55</v>
-      </c>
-      <c r="K696">
-        <v>1.95</v>
-      </c>
-      <c r="L696">
-        <v>3.3</v>
-      </c>
-      <c r="M696">
-        <v>4</v>
-      </c>
-      <c r="N696">
-        <v>2</v>
-      </c>
-      <c r="O696">
-        <v>3.2</v>
-      </c>
-      <c r="P696">
-        <v>3.8</v>
-      </c>
       <c r="Q696">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R696">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S696">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="T696">
         <v>2.25</v>
       </c>
       <c r="U696">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V696">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W696">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X696">
         <v>-1</v>
       </c>
       <c r="Y696">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z696">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA696">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB696">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC696">
         <v>-1</v>
@@ -69526,7 +69526,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>5265760</v>
+        <v>5265759</v>
       </c>
       <c r="C776" t="s">
         <v>28</v>
@@ -69538,73 +69538,73 @@
         <v>45045.47916666666</v>
       </c>
       <c r="F776" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G776" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H776">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I776">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J776" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K776">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="L776">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M776">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="N776">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="O776">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P776">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q776">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R776">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="S776">
-        <v>2.01</v>
+        <v>1.775</v>
       </c>
       <c r="T776">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U776">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V776">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W776">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X776">
         <v>-1</v>
       </c>
       <c r="Y776">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z776">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA776">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB776">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC776">
         <v>-1</v>
@@ -69615,7 +69615,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>5265759</v>
+        <v>5265760</v>
       </c>
       <c r="C777" t="s">
         <v>28</v>
@@ -69627,73 +69627,73 @@
         <v>45045.47916666666</v>
       </c>
       <c r="F777" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G777" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H777">
+        <v>4</v>
+      </c>
+      <c r="I777">
         <v>1</v>
       </c>
-      <c r="I777">
-        <v>2</v>
-      </c>
       <c r="J777" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K777">
-        <v>2.45</v>
+        <v>1.25</v>
       </c>
       <c r="L777">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M777">
-        <v>2.9</v>
+        <v>11</v>
       </c>
       <c r="N777">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="O777">
+        <v>6</v>
+      </c>
+      <c r="P777">
+        <v>10</v>
+      </c>
+      <c r="Q777">
+        <v>-1.75</v>
+      </c>
+      <c r="R777">
+        <v>1.89</v>
+      </c>
+      <c r="S777">
+        <v>2.01</v>
+      </c>
+      <c r="T777">
         <v>3.25</v>
       </c>
-      <c r="P777">
-        <v>3</v>
-      </c>
-      <c r="Q777">
-        <v>-0.25</v>
-      </c>
-      <c r="R777">
-        <v>2.1</v>
-      </c>
-      <c r="S777">
-        <v>1.775</v>
-      </c>
-      <c r="T777">
-        <v>2.25</v>
-      </c>
       <c r="U777">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V777">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W777">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X777">
         <v>-1</v>
       </c>
       <c r="Y777">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z777">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA777">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB777">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC777">
         <v>-1</v>
@@ -69704,7 +69704,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>5265761</v>
+        <v>5265682</v>
       </c>
       <c r="C778" t="s">
         <v>28</v>
@@ -69716,76 +69716,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F778" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G778" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H778">
         <v>1</v>
       </c>
       <c r="I778">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J778" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K778">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L778">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M778">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="N778">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O778">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P778">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q778">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R778">
-        <v>1.925</v>
+        <v>1.92</v>
       </c>
       <c r="S778">
-        <v>1.925</v>
+        <v>1.98</v>
       </c>
       <c r="T778">
         <v>2.25</v>
       </c>
       <c r="U778">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V778">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W778">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X778">
         <v>-1</v>
       </c>
       <c r="Y778">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z778">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA778">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB778">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC778">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="779" spans="1:29">
@@ -69793,7 +69793,7 @@
         <v>777</v>
       </c>
       <c r="B779">
-        <v>5265682</v>
+        <v>5265761</v>
       </c>
       <c r="C779" t="s">
         <v>28</v>
@@ -69805,76 +69805,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F779" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G779" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H779">
         <v>1</v>
       </c>
       <c r="I779">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J779" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K779">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L779">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M779">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="N779">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O779">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P779">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q779">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R779">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="S779">
-        <v>1.98</v>
+        <v>1.925</v>
       </c>
       <c r="T779">
         <v>2.25</v>
       </c>
       <c r="U779">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V779">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W779">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X779">
         <v>-1</v>
       </c>
       <c r="Y779">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z779">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA779">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB779">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC779">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="780" spans="1:29">
@@ -77536,7 +77536,7 @@
         <v>864</v>
       </c>
       <c r="B866">
-        <v>6876499</v>
+        <v>6875459</v>
       </c>
       <c r="C866" t="s">
         <v>28</v>
@@ -77548,76 +77548,76 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F866" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G866" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I866">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J866" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K866">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L866">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M866">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N866">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O866">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P866">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q866">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R866">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S866">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T866">
         <v>2.5</v>
       </c>
       <c r="U866">
+        <v>1.95</v>
+      </c>
+      <c r="V866">
         <v>1.9</v>
       </c>
-      <c r="V866">
-        <v>1.95</v>
-      </c>
       <c r="W866">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X866">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y866">
         <v>-1</v>
       </c>
       <c r="Z866">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA866">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB866">
+        <v>-1</v>
+      </c>
+      <c r="AC866">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC866">
-        <v>-1</v>
       </c>
     </row>
     <row r="867" spans="1:29">
@@ -77625,7 +77625,7 @@
         <v>865</v>
       </c>
       <c r="B867">
-        <v>6875459</v>
+        <v>6876499</v>
       </c>
       <c r="C867" t="s">
         <v>28</v>
@@ -77637,76 +77637,76 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F867" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G867" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H867">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I867">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J867" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K867">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L867">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M867">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N867">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O867">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P867">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q867">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R867">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S867">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T867">
         <v>2.5</v>
       </c>
       <c r="U867">
+        <v>1.9</v>
+      </c>
+      <c r="V867">
         <v>1.95</v>
       </c>
-      <c r="V867">
-        <v>1.9</v>
-      </c>
       <c r="W867">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X867">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y867">
         <v>-1</v>
       </c>
       <c r="Z867">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA867">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB867">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC867">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="868" spans="1:29">
@@ -81007,7 +81007,7 @@
         <v>903</v>
       </c>
       <c r="B905">
-        <v>6875463</v>
+        <v>6876531</v>
       </c>
       <c r="C905" t="s">
         <v>28</v>
@@ -81019,76 +81019,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F905" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G905" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H905">
+        <v>0</v>
+      </c>
+      <c r="I905">
         <v>1</v>
       </c>
-      <c r="I905">
-        <v>0</v>
-      </c>
       <c r="J905" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K905">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="L905">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M905">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N905">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="O905">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P905">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q905">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R905">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S905">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T905">
         <v>2.25</v>
       </c>
       <c r="U905">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V905">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W905">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X905">
         <v>-1</v>
       </c>
       <c r="Y905">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z905">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA905">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB905">
         <v>-1</v>
       </c>
       <c r="AC905">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="906" spans="1:29">
@@ -81096,7 +81096,7 @@
         <v>904</v>
       </c>
       <c r="B906">
-        <v>6876531</v>
+        <v>6875463</v>
       </c>
       <c r="C906" t="s">
         <v>28</v>
@@ -81108,76 +81108,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F906" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G906" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I906">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J906" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K906">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L906">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M906">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N906">
+        <v>2.875</v>
+      </c>
+      <c r="O906">
+        <v>3.3</v>
+      </c>
+      <c r="P906">
+        <v>2.4</v>
+      </c>
+      <c r="Q906">
+        <v>0</v>
+      </c>
+      <c r="R906">
         <v>2.1</v>
       </c>
-      <c r="O906">
-        <v>3.4</v>
-      </c>
-      <c r="P906">
-        <v>3.4</v>
-      </c>
-      <c r="Q906">
-        <v>-0.25</v>
-      </c>
-      <c r="R906">
-        <v>1.875</v>
-      </c>
       <c r="S906">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T906">
         <v>2.25</v>
       </c>
       <c r="U906">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V906">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W906">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X906">
         <v>-1</v>
       </c>
       <c r="Y906">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z906">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA906">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB906">
         <v>-1</v>
       </c>
       <c r="AC906">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:29">
@@ -85101,7 +85101,7 @@
         <v>949</v>
       </c>
       <c r="B951">
-        <v>7515550</v>
+        <v>7513577</v>
       </c>
       <c r="C951" t="s">
         <v>28</v>
@@ -85113,13 +85113,13 @@
         <v>45290.52083333334</v>
       </c>
       <c r="F951" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G951" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H951">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I951">
         <v>0</v>
@@ -85128,43 +85128,43 @@
         <v>53</v>
       </c>
       <c r="K951">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L951">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M951">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N951">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O951">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P951">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q951">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R951">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S951">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T951">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U951">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V951">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W951">
-        <v>1.3</v>
+        <v>0.833</v>
       </c>
       <c r="X951">
         <v>-1</v>
@@ -85173,16 +85173,16 @@
         <v>-1</v>
       </c>
       <c r="Z951">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA951">
         <v>-1</v>
       </c>
       <c r="AB951">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC951">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="952" spans="1:29">
@@ -85190,7 +85190,7 @@
         <v>950</v>
       </c>
       <c r="B952">
-        <v>7513577</v>
+        <v>7515550</v>
       </c>
       <c r="C952" t="s">
         <v>28</v>
@@ -85202,13 +85202,13 @@
         <v>45290.52083333334</v>
       </c>
       <c r="F952" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G952" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H952">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I952">
         <v>0</v>
@@ -85217,43 +85217,43 @@
         <v>53</v>
       </c>
       <c r="K952">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L952">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M952">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N952">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O952">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P952">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q952">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R952">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S952">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T952">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U952">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V952">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W952">
-        <v>0.833</v>
+        <v>1.3</v>
       </c>
       <c r="X952">
         <v>-1</v>
@@ -85262,16 +85262,16 @@
         <v>-1</v>
       </c>
       <c r="Z952">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA952">
         <v>-1</v>
       </c>
       <c r="AB952">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC952">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="953" spans="1:29">
@@ -85635,7 +85635,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>6876582</v>
+        <v>6876581</v>
       </c>
       <c r="C957" t="s">
         <v>28</v>
@@ -85647,76 +85647,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F957" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G957" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H957">
         <v>1</v>
       </c>
       <c r="I957">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J957" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K957">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L957">
+        <v>3.4</v>
+      </c>
+      <c r="M957">
         <v>3.6</v>
       </c>
-      <c r="M957">
-        <v>4.2</v>
-      </c>
       <c r="N957">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O957">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P957">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q957">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R957">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S957">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T957">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U957">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V957">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W957">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X957">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y957">
         <v>-1</v>
       </c>
       <c r="Z957">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA957">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB957">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC957">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="958" spans="1:29">
@@ -85724,7 +85724,7 @@
         <v>956</v>
       </c>
       <c r="B958">
-        <v>6876581</v>
+        <v>6876582</v>
       </c>
       <c r="C958" t="s">
         <v>28</v>
@@ -85736,76 +85736,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F958" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G958" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H958">
         <v>1</v>
       </c>
       <c r="I958">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J958" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K958">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L958">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M958">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N958">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O958">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P958">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q958">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R958">
+        <v>1.95</v>
+      </c>
+      <c r="S958">
+        <v>1.9</v>
+      </c>
+      <c r="T958">
+        <v>2.5</v>
+      </c>
+      <c r="U958">
         <v>2.025</v>
       </c>
-      <c r="S958">
+      <c r="V958">
         <v>1.825</v>
       </c>
-      <c r="T958">
-        <v>2.25</v>
-      </c>
-      <c r="U958">
-        <v>1.975</v>
-      </c>
-      <c r="V958">
-        <v>1.875</v>
-      </c>
       <c r="W958">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X958">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y958">
         <v>-1</v>
       </c>
       <c r="Z958">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA958">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB958">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC958">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="959" spans="1:29">
@@ -87860,7 +87860,7 @@
         <v>980</v>
       </c>
       <c r="B982">
-        <v>6876608</v>
+        <v>6875472</v>
       </c>
       <c r="C982" t="s">
         <v>28</v>
@@ -87872,49 +87872,49 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F982" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G982" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H982">
         <v>1</v>
       </c>
       <c r="I982">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J982" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K982">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L982">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M982">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N982">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O982">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P982">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q982">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R982">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S982">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T982">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U982">
         <v>1.825</v>
@@ -87923,25 +87923,25 @@
         <v>2.025</v>
       </c>
       <c r="W982">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X982">
         <v>-1</v>
       </c>
       <c r="Y982">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z982">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA982">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB982">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC982">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="983" spans="1:29">
@@ -87949,7 +87949,7 @@
         <v>981</v>
       </c>
       <c r="B983">
-        <v>6875472</v>
+        <v>6876608</v>
       </c>
       <c r="C983" t="s">
         <v>28</v>
@@ -87961,49 +87961,49 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F983" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G983" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H983">
         <v>1</v>
       </c>
       <c r="I983">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J983" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K983">
+        <v>1.727</v>
+      </c>
+      <c r="L983">
+        <v>3.6</v>
+      </c>
+      <c r="M983">
+        <v>4.75</v>
+      </c>
+      <c r="N983">
+        <v>2</v>
+      </c>
+      <c r="O983">
+        <v>3.3</v>
+      </c>
+      <c r="P983">
+        <v>4</v>
+      </c>
+      <c r="Q983">
+        <v>-0.5</v>
+      </c>
+      <c r="R983">
+        <v>2.025</v>
+      </c>
+      <c r="S983">
+        <v>1.825</v>
+      </c>
+      <c r="T983">
         <v>2.25</v>
-      </c>
-      <c r="L983">
-        <v>3.3</v>
-      </c>
-      <c r="M983">
-        <v>3.2</v>
-      </c>
-      <c r="N983">
-        <v>2.375</v>
-      </c>
-      <c r="O983">
-        <v>3.2</v>
-      </c>
-      <c r="P983">
-        <v>3.2</v>
-      </c>
-      <c r="Q983">
-        <v>-0.25</v>
-      </c>
-      <c r="R983">
-        <v>2.1</v>
-      </c>
-      <c r="S983">
-        <v>1.775</v>
-      </c>
-      <c r="T983">
-        <v>2</v>
       </c>
       <c r="U983">
         <v>1.825</v>
@@ -88012,25 +88012,25 @@
         <v>2.025</v>
       </c>
       <c r="W983">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X983">
         <v>-1</v>
       </c>
       <c r="Y983">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z983">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA983">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB983">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC983">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="984" spans="1:29">
@@ -88127,7 +88127,7 @@
         <v>983</v>
       </c>
       <c r="B985">
-        <v>6876603</v>
+        <v>6876607</v>
       </c>
       <c r="C985" t="s">
         <v>28</v>
@@ -88139,13 +88139,13 @@
         <v>45319.72916666666</v>
       </c>
       <c r="F985" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G985" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H985">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I985">
         <v>0</v>
@@ -88154,43 +88154,43 @@
         <v>53</v>
       </c>
       <c r="K985">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L985">
         <v>3.4</v>
       </c>
       <c r="M985">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N985">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="O985">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P985">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q985">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R985">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S985">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T985">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U985">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V985">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W985">
-        <v>2.25</v>
+        <v>0.8</v>
       </c>
       <c r="X985">
         <v>-1</v>
@@ -88199,16 +88199,16 @@
         <v>-1</v>
       </c>
       <c r="Z985">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA985">
         <v>-1</v>
       </c>
       <c r="AB985">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC985">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="986" spans="1:29">
@@ -88216,7 +88216,7 @@
         <v>984</v>
       </c>
       <c r="B986">
-        <v>6876607</v>
+        <v>6876603</v>
       </c>
       <c r="C986" t="s">
         <v>28</v>
@@ -88228,13 +88228,13 @@
         <v>45319.72916666666</v>
       </c>
       <c r="F986" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G986" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H986">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I986">
         <v>0</v>
@@ -88243,43 +88243,43 @@
         <v>53</v>
       </c>
       <c r="K986">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L986">
         <v>3.4</v>
       </c>
       <c r="M986">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N986">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="O986">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P986">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q986">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R986">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S986">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T986">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U986">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V986">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W986">
-        <v>0.8</v>
+        <v>2.25</v>
       </c>
       <c r="X986">
         <v>-1</v>
@@ -88288,16 +88288,16 @@
         <v>-1</v>
       </c>
       <c r="Z986">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA986">
         <v>-1</v>
       </c>
       <c r="AB986">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC986">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="987" spans="1:29">
@@ -88305,7 +88305,7 @@
         <v>985</v>
       </c>
       <c r="B987">
-        <v>7728748</v>
+        <v>7728749</v>
       </c>
       <c r="C987" t="s">
         <v>28</v>
@@ -88314,40 +88314,40 @@
         <v>28</v>
       </c>
       <c r="E987" s="2">
-        <v>45320.65625</v>
+        <v>45320.73958333334</v>
       </c>
       <c r="F987" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G987" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="K987">
-        <v>10</v>
+        <v>1.2</v>
       </c>
       <c r="L987">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M987">
-        <v>1.285</v>
+        <v>13</v>
       </c>
       <c r="N987">
-        <v>10</v>
+        <v>1.2</v>
       </c>
       <c r="O987">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="P987">
-        <v>1.25</v>
+        <v>13</v>
       </c>
       <c r="Q987">
-        <v>1.75</v>
+        <v>-2</v>
       </c>
       <c r="R987">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="S987">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="T987">
         <v>3</v>
@@ -88379,7 +88379,7 @@
         <v>986</v>
       </c>
       <c r="B988">
-        <v>7728749</v>
+        <v>7728747</v>
       </c>
       <c r="C988" t="s">
         <v>28</v>
@@ -88388,49 +88388,49 @@
         <v>28</v>
       </c>
       <c r="E988" s="2">
-        <v>45320.73958333334</v>
+        <v>45322.65625</v>
       </c>
       <c r="F988" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G988" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K988">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="L988">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M988">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="N988">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="O988">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="P988">
-        <v>13</v>
+        <v>3.1</v>
       </c>
       <c r="Q988">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R988">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S988">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="T988">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U988">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V988">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W988">
         <v>0</v>
@@ -88453,7 +88453,7 @@
         <v>987</v>
       </c>
       <c r="B989">
-        <v>7728747</v>
+        <v>7728746</v>
       </c>
       <c r="C989" t="s">
         <v>28</v>
@@ -88462,49 +88462,49 @@
         <v>28</v>
       </c>
       <c r="E989" s="2">
-        <v>45322.65625</v>
+        <v>45322.73958333334</v>
       </c>
       <c r="F989" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G989" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K989">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="L989">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M989">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="N989">
-        <v>2.15</v>
+        <v>1.285</v>
       </c>
       <c r="O989">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P989">
-        <v>3.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q989">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R989">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="S989">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="T989">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U989">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V989">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W989">
         <v>0</v>
@@ -88527,7 +88527,7 @@
         <v>988</v>
       </c>
       <c r="B990">
-        <v>7728746</v>
+        <v>6876610</v>
       </c>
       <c r="C990" t="s">
         <v>28</v>
@@ -88536,49 +88536,49 @@
         <v>28</v>
       </c>
       <c r="E990" s="2">
-        <v>45322.73958333334</v>
+        <v>45325.52083333334</v>
       </c>
       <c r="F990" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G990" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K990">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="L990">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M990">
-        <v>10</v>
+        <v>2.625</v>
       </c>
       <c r="N990">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="O990">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P990">
-        <v>9.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q990">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R990">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="S990">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="T990">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U990">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V990">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W990">
         <v>0</v>
@@ -88601,7 +88601,7 @@
         <v>989</v>
       </c>
       <c r="B991">
-        <v>6876610</v>
+        <v>7758960</v>
       </c>
       <c r="C991" t="s">
         <v>28</v>
@@ -88610,43 +88610,43 @@
         <v>28</v>
       </c>
       <c r="E991" s="2">
-        <v>45325.52083333334</v>
+        <v>45325.625</v>
       </c>
       <c r="F991" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G991" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="K991">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="L991">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M991">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="N991">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O991">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P991">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="Q991">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R991">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S991">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="T991">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U991">
         <v>1.825</v>
@@ -88675,7 +88675,7 @@
         <v>990</v>
       </c>
       <c r="B992">
-        <v>7758960</v>
+        <v>6876615</v>
       </c>
       <c r="C992" t="s">
         <v>28</v>
@@ -88684,49 +88684,49 @@
         <v>28</v>
       </c>
       <c r="E992" s="2">
-        <v>45325.625</v>
+        <v>45325.72916666666</v>
       </c>
       <c r="F992" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G992" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K992">
-        <v>7.5</v>
+        <v>1.181</v>
       </c>
       <c r="L992">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M992">
-        <v>1.4</v>
+        <v>14</v>
       </c>
       <c r="N992">
+        <v>1.181</v>
+      </c>
+      <c r="O992">
         <v>7</v>
       </c>
-      <c r="O992">
-        <v>4.5</v>
-      </c>
       <c r="P992">
-        <v>1.444</v>
+        <v>13</v>
       </c>
       <c r="Q992">
-        <v>1.25</v>
+        <v>-2</v>
       </c>
       <c r="R992">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="S992">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="T992">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U992">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V992">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W992">
         <v>0</v>
@@ -88749,7 +88749,7 @@
         <v>991</v>
       </c>
       <c r="B993">
-        <v>6876615</v>
+        <v>6876611</v>
       </c>
       <c r="C993" t="s">
         <v>28</v>
@@ -88758,49 +88758,49 @@
         <v>28</v>
       </c>
       <c r="E993" s="2">
-        <v>45325.72916666666</v>
+        <v>45326.52083333334</v>
       </c>
       <c r="F993" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G993" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K993">
-        <v>1.181</v>
+        <v>3.1</v>
       </c>
       <c r="L993">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="M993">
-        <v>14</v>
+        <v>2.3</v>
       </c>
       <c r="N993">
-        <v>1.181</v>
+        <v>3.3</v>
       </c>
       <c r="O993">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P993">
-        <v>13</v>
+        <v>2.15</v>
       </c>
       <c r="Q993">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R993">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="S993">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="T993">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U993">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V993">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W993">
         <v>0</v>
@@ -88823,7 +88823,7 @@
         <v>992</v>
       </c>
       <c r="B994">
-        <v>6876611</v>
+        <v>6876616</v>
       </c>
       <c r="C994" t="s">
         <v>28</v>
@@ -88835,46 +88835,46 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F994" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G994" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K994">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L994">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M994">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N994">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="O994">
         <v>3.4</v>
       </c>
       <c r="P994">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q994">
         <v>0.25</v>
       </c>
       <c r="R994">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="S994">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="T994">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U994">
+        <v>1.975</v>
+      </c>
+      <c r="V994">
         <v>1.875</v>
-      </c>
-      <c r="V994">
-        <v>1.975</v>
       </c>
       <c r="W994">
         <v>0</v>
@@ -88897,7 +88897,7 @@
         <v>993</v>
       </c>
       <c r="B995">
-        <v>6876616</v>
+        <v>7758962</v>
       </c>
       <c r="C995" t="s">
         <v>28</v>
@@ -88906,49 +88906,49 @@
         <v>28</v>
       </c>
       <c r="E995" s="2">
-        <v>45326.52083333334</v>
+        <v>45326.625</v>
       </c>
       <c r="F995" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G995" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K995">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="L995">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M995">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N995">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O995">
         <v>3.4</v>
       </c>
       <c r="P995">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="Q995">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R995">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="S995">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="T995">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U995">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V995">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W995">
         <v>0</v>
@@ -88971,7 +88971,7 @@
         <v>994</v>
       </c>
       <c r="B996">
-        <v>7758962</v>
+        <v>7758961</v>
       </c>
       <c r="C996" t="s">
         <v>28</v>
@@ -88983,46 +88983,46 @@
         <v>45326.625</v>
       </c>
       <c r="F996" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G996" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="K996">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="L996">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M996">
-        <v>3.2</v>
+        <v>14</v>
       </c>
       <c r="N996">
-        <v>2.2</v>
+        <v>1.166</v>
       </c>
       <c r="O996">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P996">
-        <v>3.1</v>
+        <v>17</v>
       </c>
       <c r="Q996">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R996">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="S996">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="T996">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U996">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V996">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W996">
         <v>0</v>
@@ -89045,7 +89045,7 @@
         <v>995</v>
       </c>
       <c r="B997">
-        <v>7758961</v>
+        <v>7758959</v>
       </c>
       <c r="C997" t="s">
         <v>28</v>
@@ -89054,34 +89054,34 @@
         <v>28</v>
       </c>
       <c r="E997" s="2">
-        <v>45326.625</v>
+        <v>45326.72916666666</v>
       </c>
       <c r="F997" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G997" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K997">
-        <v>1.181</v>
+        <v>1.444</v>
       </c>
       <c r="L997">
+        <v>4.333</v>
+      </c>
+      <c r="M997">
         <v>7</v>
       </c>
-      <c r="M997">
-        <v>14</v>
-      </c>
       <c r="N997">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O997">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P997">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="Q997">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R997">
         <v>1.85</v>
@@ -89090,13 +89090,13 @@
         <v>2.05</v>
       </c>
       <c r="T997">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U997">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V997">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W997">
         <v>0</v>
@@ -89119,7 +89119,7 @@
         <v>996</v>
       </c>
       <c r="B998">
-        <v>7758959</v>
+        <v>6876612</v>
       </c>
       <c r="C998" t="s">
         <v>28</v>
@@ -89128,43 +89128,43 @@
         <v>28</v>
       </c>
       <c r="E998" s="2">
-        <v>45326.72916666666</v>
+        <v>45327.71875</v>
       </c>
       <c r="F998" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G998" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K998">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L998">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M998">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="N998">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O998">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P998">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q998">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R998">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S998">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="T998">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U998">
         <v>1.925</v>
@@ -89185,80 +89185,6 @@
         <v>0</v>
       </c>
       <c r="AA998">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="999" spans="1:27">
-      <c r="A999" s="1">
-        <v>997</v>
-      </c>
-      <c r="B999">
-        <v>6876612</v>
-      </c>
-      <c r="C999" t="s">
-        <v>28</v>
-      </c>
-      <c r="D999" t="s">
-        <v>28</v>
-      </c>
-      <c r="E999" s="2">
-        <v>45327.71875</v>
-      </c>
-      <c r="F999" t="s">
-        <v>51</v>
-      </c>
-      <c r="G999" t="s">
-        <v>43</v>
-      </c>
-      <c r="K999">
-        <v>2.3</v>
-      </c>
-      <c r="L999">
-        <v>3.25</v>
-      </c>
-      <c r="M999">
-        <v>3.1</v>
-      </c>
-      <c r="N999">
-        <v>2.5</v>
-      </c>
-      <c r="O999">
-        <v>3.2</v>
-      </c>
-      <c r="P999">
-        <v>2.8</v>
-      </c>
-      <c r="Q999">
-        <v>0</v>
-      </c>
-      <c r="R999">
-        <v>1.83</v>
-      </c>
-      <c r="S999">
-        <v>2.07</v>
-      </c>
-      <c r="T999">
-        <v>2.25</v>
-      </c>
-      <c r="U999">
-        <v>1.925</v>
-      </c>
-      <c r="V999">
-        <v>1.925</v>
-      </c>
-      <c r="W999">
-        <v>0</v>
-      </c>
-      <c r="X999">
-        <v>0</v>
-      </c>
-      <c r="Y999">
-        <v>0</v>
-      </c>
-      <c r="Z999">
-        <v>0</v>
-      </c>
-      <c r="AA999">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5001" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4997" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC998"/>
+  <dimension ref="A1:AC997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46742,7 +46742,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>5264289</v>
+        <v>5263100</v>
       </c>
       <c r="C520" t="s">
         <v>28</v>
@@ -46754,10 +46754,10 @@
         <v>44780.6875</v>
       </c>
       <c r="F520" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G520" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H520">
         <v>0</v>
@@ -46769,40 +46769,40 @@
         <v>55</v>
       </c>
       <c r="K520">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L520">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M520">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N520">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="O520">
         <v>3.2</v>
       </c>
       <c r="P520">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q520">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R520">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="S520">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="T520">
         <v>2.25</v>
       </c>
       <c r="U520">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V520">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W520">
         <v>-1</v>
@@ -46811,19 +46811,19 @@
         <v>-1</v>
       </c>
       <c r="Y520">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="Z520">
         <v>-1</v>
       </c>
       <c r="AA520">
-        <v>0.8700000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB520">
         <v>-1</v>
       </c>
       <c r="AC520">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="521" spans="1:29">
@@ -46831,7 +46831,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>5263100</v>
+        <v>5264289</v>
       </c>
       <c r="C521" t="s">
         <v>28</v>
@@ -46843,10 +46843,10 @@
         <v>44780.6875</v>
       </c>
       <c r="F521" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G521" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H521">
         <v>0</v>
@@ -46858,40 +46858,40 @@
         <v>55</v>
       </c>
       <c r="K521">
+        <v>2.3</v>
+      </c>
+      <c r="L521">
+        <v>3.1</v>
+      </c>
+      <c r="M521">
         <v>3</v>
       </c>
-      <c r="L521">
-        <v>3.2</v>
-      </c>
-      <c r="M521">
-        <v>2.25</v>
-      </c>
       <c r="N521">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O521">
         <v>3.2</v>
       </c>
       <c r="P521">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q521">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R521">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="S521">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="T521">
         <v>2.25</v>
       </c>
       <c r="U521">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V521">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W521">
         <v>-1</v>
@@ -46900,19 +46900,19 @@
         <v>-1</v>
       </c>
       <c r="Y521">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="Z521">
         <v>-1</v>
       </c>
       <c r="AA521">
-        <v>1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB521">
         <v>-1</v>
       </c>
       <c r="AC521">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="522" spans="1:29">
@@ -66500,7 +66500,7 @@
         <v>740</v>
       </c>
       <c r="B742">
-        <v>5265654</v>
+        <v>5265751</v>
       </c>
       <c r="C742" t="s">
         <v>28</v>
@@ -66512,73 +66512,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F742" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G742" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H742">
+        <v>1</v>
+      </c>
+      <c r="I742">
+        <v>2</v>
+      </c>
+      <c r="J742" t="s">
+        <v>55</v>
+      </c>
+      <c r="K742">
         <v>4</v>
       </c>
-      <c r="I742">
-        <v>2</v>
-      </c>
-      <c r="J742" t="s">
-        <v>53</v>
-      </c>
-      <c r="K742">
-        <v>2.625</v>
-      </c>
       <c r="L742">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M742">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N742">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O742">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P742">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q742">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R742">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="S742">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T742">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U742">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V742">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W742">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X742">
         <v>-1</v>
       </c>
       <c r="Y742">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z742">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AA742">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB742">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC742">
         <v>-1</v>
@@ -66589,7 +66589,7 @@
         <v>741</v>
       </c>
       <c r="B743">
-        <v>5265751</v>
+        <v>5265654</v>
       </c>
       <c r="C743" t="s">
         <v>28</v>
@@ -66601,73 +66601,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F743" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G743" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I743">
         <v>2</v>
       </c>
       <c r="J743" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K743">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L743">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M743">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N743">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="O743">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P743">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="Q743">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R743">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="S743">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T743">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U743">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V743">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W743">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X743">
         <v>-1</v>
       </c>
       <c r="Y743">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z743">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AA743">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB743">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC743">
         <v>-1</v>
@@ -88305,7 +88305,7 @@
         <v>985</v>
       </c>
       <c r="B987">
-        <v>7728749</v>
+        <v>7728747</v>
       </c>
       <c r="C987" t="s">
         <v>28</v>
@@ -88314,49 +88314,49 @@
         <v>28</v>
       </c>
       <c r="E987" s="2">
-        <v>45320.73958333334</v>
+        <v>45322.65625</v>
       </c>
       <c r="F987" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G987" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K987">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="L987">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M987">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="N987">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="O987">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P987">
-        <v>13</v>
+        <v>3.1</v>
       </c>
       <c r="Q987">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R987">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S987">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="T987">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U987">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V987">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W987">
         <v>0</v>
@@ -88379,7 +88379,7 @@
         <v>986</v>
       </c>
       <c r="B988">
-        <v>7728747</v>
+        <v>7728746</v>
       </c>
       <c r="C988" t="s">
         <v>28</v>
@@ -88388,49 +88388,49 @@
         <v>28</v>
       </c>
       <c r="E988" s="2">
-        <v>45322.65625</v>
+        <v>45322.73958333334</v>
       </c>
       <c r="F988" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G988" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K988">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="L988">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M988">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="N988">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="O988">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P988">
-        <v>3.1</v>
+        <v>9.5</v>
       </c>
       <c r="Q988">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R988">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="S988">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="T988">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U988">
+        <v>1.875</v>
+      </c>
+      <c r="V988">
         <v>1.975</v>
-      </c>
-      <c r="V988">
-        <v>1.875</v>
       </c>
       <c r="W988">
         <v>0</v>
@@ -88453,7 +88453,7 @@
         <v>987</v>
       </c>
       <c r="B989">
-        <v>7728746</v>
+        <v>6876610</v>
       </c>
       <c r="C989" t="s">
         <v>28</v>
@@ -88462,49 +88462,49 @@
         <v>28</v>
       </c>
       <c r="E989" s="2">
-        <v>45322.73958333334</v>
+        <v>45325.52083333334</v>
       </c>
       <c r="F989" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G989" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K989">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="L989">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M989">
-        <v>10</v>
+        <v>2.625</v>
       </c>
       <c r="N989">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="O989">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P989">
-        <v>9.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q989">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R989">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="S989">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="T989">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U989">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V989">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W989">
         <v>0</v>
@@ -88527,7 +88527,7 @@
         <v>988</v>
       </c>
       <c r="B990">
-        <v>6876610</v>
+        <v>7758960</v>
       </c>
       <c r="C990" t="s">
         <v>28</v>
@@ -88536,43 +88536,43 @@
         <v>28</v>
       </c>
       <c r="E990" s="2">
-        <v>45325.52083333334</v>
+        <v>45325.625</v>
       </c>
       <c r="F990" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G990" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="K990">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="L990">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M990">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="N990">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="O990">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P990">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="Q990">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R990">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S990">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T990">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U990">
         <v>1.825</v>
@@ -88601,7 +88601,7 @@
         <v>989</v>
       </c>
       <c r="B991">
-        <v>7758960</v>
+        <v>6876615</v>
       </c>
       <c r="C991" t="s">
         <v>28</v>
@@ -88610,49 +88610,49 @@
         <v>28</v>
       </c>
       <c r="E991" s="2">
-        <v>45325.625</v>
+        <v>45325.72916666666</v>
       </c>
       <c r="F991" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G991" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K991">
-        <v>7.5</v>
+        <v>1.181</v>
       </c>
       <c r="L991">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M991">
-        <v>1.4</v>
+        <v>14</v>
       </c>
       <c r="N991">
+        <v>1.181</v>
+      </c>
+      <c r="O991">
         <v>7</v>
       </c>
-      <c r="O991">
-        <v>4.5</v>
-      </c>
       <c r="P991">
-        <v>1.444</v>
+        <v>13</v>
       </c>
       <c r="Q991">
-        <v>1.25</v>
+        <v>-2</v>
       </c>
       <c r="R991">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="S991">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="T991">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U991">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V991">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W991">
         <v>0</v>
@@ -88675,7 +88675,7 @@
         <v>990</v>
       </c>
       <c r="B992">
-        <v>6876615</v>
+        <v>6876611</v>
       </c>
       <c r="C992" t="s">
         <v>28</v>
@@ -88684,49 +88684,49 @@
         <v>28</v>
       </c>
       <c r="E992" s="2">
-        <v>45325.72916666666</v>
+        <v>45326.52083333334</v>
       </c>
       <c r="F992" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G992" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K992">
-        <v>1.181</v>
+        <v>3.1</v>
       </c>
       <c r="L992">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="M992">
-        <v>14</v>
+        <v>2.3</v>
       </c>
       <c r="N992">
-        <v>1.181</v>
+        <v>3.3</v>
       </c>
       <c r="O992">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P992">
-        <v>13</v>
+        <v>2.15</v>
       </c>
       <c r="Q992">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R992">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="S992">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="T992">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U992">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V992">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W992">
         <v>0</v>
@@ -88749,7 +88749,7 @@
         <v>991</v>
       </c>
       <c r="B993">
-        <v>6876611</v>
+        <v>6876616</v>
       </c>
       <c r="C993" t="s">
         <v>28</v>
@@ -88761,46 +88761,46 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F993" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G993" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K993">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L993">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M993">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N993">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="O993">
         <v>3.4</v>
       </c>
       <c r="P993">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q993">
         <v>0.25</v>
       </c>
       <c r="R993">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="S993">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="T993">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U993">
+        <v>1.975</v>
+      </c>
+      <c r="V993">
         <v>1.875</v>
-      </c>
-      <c r="V993">
-        <v>1.975</v>
       </c>
       <c r="W993">
         <v>0</v>
@@ -88823,7 +88823,7 @@
         <v>992</v>
       </c>
       <c r="B994">
-        <v>6876616</v>
+        <v>7758962</v>
       </c>
       <c r="C994" t="s">
         <v>28</v>
@@ -88832,49 +88832,49 @@
         <v>28</v>
       </c>
       <c r="E994" s="2">
-        <v>45326.52083333334</v>
+        <v>45326.625</v>
       </c>
       <c r="F994" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G994" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K994">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="L994">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M994">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N994">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O994">
         <v>3.4</v>
       </c>
       <c r="P994">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="Q994">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R994">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="S994">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="T994">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U994">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V994">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W994">
         <v>0</v>
@@ -88897,7 +88897,7 @@
         <v>993</v>
       </c>
       <c r="B995">
-        <v>7758962</v>
+        <v>7758961</v>
       </c>
       <c r="C995" t="s">
         <v>28</v>
@@ -88909,46 +88909,46 @@
         <v>45326.625</v>
       </c>
       <c r="F995" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G995" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="K995">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="L995">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M995">
-        <v>3.2</v>
+        <v>14</v>
       </c>
       <c r="N995">
-        <v>2.2</v>
+        <v>1.166</v>
       </c>
       <c r="O995">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P995">
-        <v>3.1</v>
+        <v>17</v>
       </c>
       <c r="Q995">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R995">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="S995">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="T995">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U995">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V995">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W995">
         <v>0</v>
@@ -88971,7 +88971,7 @@
         <v>994</v>
       </c>
       <c r="B996">
-        <v>7758961</v>
+        <v>7758959</v>
       </c>
       <c r="C996" t="s">
         <v>28</v>
@@ -88980,34 +88980,34 @@
         <v>28</v>
       </c>
       <c r="E996" s="2">
-        <v>45326.625</v>
+        <v>45326.72916666666</v>
       </c>
       <c r="F996" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G996" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K996">
-        <v>1.181</v>
+        <v>1.444</v>
       </c>
       <c r="L996">
+        <v>4.333</v>
+      </c>
+      <c r="M996">
         <v>7</v>
       </c>
-      <c r="M996">
-        <v>14</v>
-      </c>
       <c r="N996">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O996">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P996">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="Q996">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R996">
         <v>1.85</v>
@@ -89016,13 +89016,13 @@
         <v>2.05</v>
       </c>
       <c r="T996">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U996">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V996">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W996">
         <v>0</v>
@@ -89045,7 +89045,7 @@
         <v>995</v>
       </c>
       <c r="B997">
-        <v>7758959</v>
+        <v>6876612</v>
       </c>
       <c r="C997" t="s">
         <v>28</v>
@@ -89054,43 +89054,43 @@
         <v>28</v>
       </c>
       <c r="E997" s="2">
-        <v>45326.72916666666</v>
+        <v>45327.71875</v>
       </c>
       <c r="F997" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G997" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K997">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L997">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M997">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="N997">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O997">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P997">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q997">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R997">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S997">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="T997">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U997">
         <v>1.925</v>
@@ -89111,80 +89111,6 @@
         <v>0</v>
       </c>
       <c r="AA997">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="998" spans="1:27">
-      <c r="A998" s="1">
-        <v>996</v>
-      </c>
-      <c r="B998">
-        <v>6876612</v>
-      </c>
-      <c r="C998" t="s">
-        <v>28</v>
-      </c>
-      <c r="D998" t="s">
-        <v>28</v>
-      </c>
-      <c r="E998" s="2">
-        <v>45327.71875</v>
-      </c>
-      <c r="F998" t="s">
-        <v>51</v>
-      </c>
-      <c r="G998" t="s">
-        <v>43</v>
-      </c>
-      <c r="K998">
-        <v>2.3</v>
-      </c>
-      <c r="L998">
-        <v>3.25</v>
-      </c>
-      <c r="M998">
-        <v>3.1</v>
-      </c>
-      <c r="N998">
-        <v>2.5</v>
-      </c>
-      <c r="O998">
-        <v>3.2</v>
-      </c>
-      <c r="P998">
-        <v>2.8</v>
-      </c>
-      <c r="Q998">
-        <v>0</v>
-      </c>
-      <c r="R998">
-        <v>1.83</v>
-      </c>
-      <c r="S998">
-        <v>2.07</v>
-      </c>
-      <c r="T998">
-        <v>2.25</v>
-      </c>
-      <c r="U998">
-        <v>1.925</v>
-      </c>
-      <c r="V998">
-        <v>1.925</v>
-      </c>
-      <c r="W998">
-        <v>0</v>
-      </c>
-      <c r="X998">
-        <v>0</v>
-      </c>
-      <c r="Y998">
-        <v>0</v>
-      </c>
-      <c r="Z998">
-        <v>0</v>
-      </c>
-      <c r="AA998">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -66500,7 +66500,7 @@
         <v>740</v>
       </c>
       <c r="B742">
-        <v>5265751</v>
+        <v>5265654</v>
       </c>
       <c r="C742" t="s">
         <v>28</v>
@@ -66512,73 +66512,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F742" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G742" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I742">
         <v>2</v>
       </c>
       <c r="J742" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K742">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L742">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M742">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N742">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="O742">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P742">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="Q742">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R742">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="S742">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T742">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U742">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V742">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W742">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X742">
         <v>-1</v>
       </c>
       <c r="Y742">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z742">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AA742">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB742">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC742">
         <v>-1</v>
@@ -66589,7 +66589,7 @@
         <v>741</v>
       </c>
       <c r="B743">
-        <v>5265654</v>
+        <v>5265751</v>
       </c>
       <c r="C743" t="s">
         <v>28</v>
@@ -66601,73 +66601,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F743" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G743" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H743">
+        <v>1</v>
+      </c>
+      <c r="I743">
+        <v>2</v>
+      </c>
+      <c r="J743" t="s">
+        <v>55</v>
+      </c>
+      <c r="K743">
         <v>4</v>
       </c>
-      <c r="I743">
-        <v>2</v>
-      </c>
-      <c r="J743" t="s">
-        <v>53</v>
-      </c>
-      <c r="K743">
-        <v>2.625</v>
-      </c>
       <c r="L743">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M743">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N743">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O743">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P743">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q743">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R743">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="S743">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T743">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U743">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V743">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W743">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X743">
         <v>-1</v>
       </c>
       <c r="Y743">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z743">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AA743">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB743">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC743">
         <v>-1</v>
@@ -69526,7 +69526,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>5265759</v>
+        <v>5265760</v>
       </c>
       <c r="C776" t="s">
         <v>28</v>
@@ -69538,73 +69538,73 @@
         <v>45045.47916666666</v>
       </c>
       <c r="F776" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G776" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H776">
+        <v>4</v>
+      </c>
+      <c r="I776">
         <v>1</v>
       </c>
-      <c r="I776">
-        <v>2</v>
-      </c>
       <c r="J776" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K776">
-        <v>2.45</v>
+        <v>1.25</v>
       </c>
       <c r="L776">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M776">
-        <v>2.9</v>
+        <v>11</v>
       </c>
       <c r="N776">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="O776">
+        <v>6</v>
+      </c>
+      <c r="P776">
+        <v>10</v>
+      </c>
+      <c r="Q776">
+        <v>-1.75</v>
+      </c>
+      <c r="R776">
+        <v>1.89</v>
+      </c>
+      <c r="S776">
+        <v>2.01</v>
+      </c>
+      <c r="T776">
         <v>3.25</v>
       </c>
-      <c r="P776">
-        <v>3</v>
-      </c>
-      <c r="Q776">
-        <v>-0.25</v>
-      </c>
-      <c r="R776">
-        <v>2.1</v>
-      </c>
-      <c r="S776">
-        <v>1.775</v>
-      </c>
-      <c r="T776">
-        <v>2.25</v>
-      </c>
       <c r="U776">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V776">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W776">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X776">
         <v>-1</v>
       </c>
       <c r="Y776">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z776">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA776">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB776">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC776">
         <v>-1</v>
@@ -69615,7 +69615,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>5265760</v>
+        <v>5265759</v>
       </c>
       <c r="C777" t="s">
         <v>28</v>
@@ -69627,73 +69627,73 @@
         <v>45045.47916666666</v>
       </c>
       <c r="F777" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G777" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H777">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I777">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J777" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K777">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="L777">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M777">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="N777">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="O777">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P777">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q777">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R777">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="S777">
-        <v>2.01</v>
+        <v>1.775</v>
       </c>
       <c r="T777">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U777">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V777">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W777">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X777">
         <v>-1</v>
       </c>
       <c r="Y777">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z777">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA777">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB777">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC777">
         <v>-1</v>
@@ -69704,7 +69704,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>5265682</v>
+        <v>5265761</v>
       </c>
       <c r="C778" t="s">
         <v>28</v>
@@ -69716,76 +69716,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F778" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G778" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H778">
         <v>1</v>
       </c>
       <c r="I778">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J778" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K778">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L778">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M778">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="N778">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O778">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P778">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q778">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R778">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="S778">
-        <v>1.98</v>
+        <v>1.925</v>
       </c>
       <c r="T778">
         <v>2.25</v>
       </c>
       <c r="U778">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V778">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W778">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X778">
         <v>-1</v>
       </c>
       <c r="Y778">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z778">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA778">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB778">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC778">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="779" spans="1:29">
@@ -69793,7 +69793,7 @@
         <v>777</v>
       </c>
       <c r="B779">
-        <v>5265761</v>
+        <v>5265682</v>
       </c>
       <c r="C779" t="s">
         <v>28</v>
@@ -69805,76 +69805,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F779" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G779" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H779">
         <v>1</v>
       </c>
       <c r="I779">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J779" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K779">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L779">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M779">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="N779">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O779">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P779">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q779">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R779">
-        <v>1.925</v>
+        <v>1.92</v>
       </c>
       <c r="S779">
-        <v>1.925</v>
+        <v>1.98</v>
       </c>
       <c r="T779">
         <v>2.25</v>
       </c>
       <c r="U779">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V779">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W779">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X779">
         <v>-1</v>
       </c>
       <c r="Y779">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z779">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA779">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB779">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC779">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="780" spans="1:29">
@@ -74510,7 +74510,7 @@
         <v>830</v>
       </c>
       <c r="B832">
-        <v>6876465</v>
+        <v>6876471</v>
       </c>
       <c r="C832" t="s">
         <v>28</v>
@@ -74522,76 +74522,76 @@
         <v>45157.6875</v>
       </c>
       <c r="F832" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G832" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I832">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J832" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K832">
-        <v>1.125</v>
+        <v>2.45</v>
       </c>
       <c r="L832">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M832">
-        <v>19</v>
+        <v>2.875</v>
       </c>
       <c r="N832">
-        <v>1.142</v>
+        <v>3</v>
       </c>
       <c r="O832">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="P832">
-        <v>17</v>
+        <v>2.3</v>
       </c>
       <c r="Q832">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R832">
+        <v>1.85</v>
+      </c>
+      <c r="S832">
+        <v>2</v>
+      </c>
+      <c r="T832">
+        <v>2.25</v>
+      </c>
+      <c r="U832">
         <v>1.925</v>
       </c>
-      <c r="S832">
+      <c r="V832">
         <v>1.925</v>
       </c>
-      <c r="T832">
-        <v>3.5</v>
-      </c>
-      <c r="U832">
-        <v>1.875</v>
-      </c>
-      <c r="V832">
-        <v>1.975</v>
-      </c>
       <c r="W832">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X832">
         <v>-1</v>
       </c>
       <c r="Y832">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z832">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA832">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB832">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC832">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="833" spans="1:29">
@@ -74599,7 +74599,7 @@
         <v>831</v>
       </c>
       <c r="B833">
-        <v>6876471</v>
+        <v>6876465</v>
       </c>
       <c r="C833" t="s">
         <v>28</v>
@@ -74611,76 +74611,76 @@
         <v>45157.6875</v>
       </c>
       <c r="F833" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G833" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H833">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I833">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J833" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K833">
-        <v>2.45</v>
+        <v>1.125</v>
       </c>
       <c r="L833">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M833">
-        <v>2.875</v>
+        <v>19</v>
       </c>
       <c r="N833">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="O833">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P833">
-        <v>2.3</v>
+        <v>17</v>
       </c>
       <c r="Q833">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R833">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S833">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T833">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U833">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V833">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W833">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X833">
         <v>-1</v>
       </c>
       <c r="Y833">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z833">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA833">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB833">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC833">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="834" spans="1:29">
@@ -77536,7 +77536,7 @@
         <v>864</v>
       </c>
       <c r="B866">
-        <v>6875459</v>
+        <v>6876499</v>
       </c>
       <c r="C866" t="s">
         <v>28</v>
@@ -77548,76 +77548,76 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F866" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G866" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H866">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I866">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J866" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K866">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L866">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M866">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N866">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O866">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P866">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q866">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R866">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S866">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T866">
         <v>2.5</v>
       </c>
       <c r="U866">
+        <v>1.9</v>
+      </c>
+      <c r="V866">
         <v>1.95</v>
       </c>
-      <c r="V866">
-        <v>1.9</v>
-      </c>
       <c r="W866">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X866">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y866">
         <v>-1</v>
       </c>
       <c r="Z866">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA866">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB866">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC866">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="867" spans="1:29">
@@ -77625,7 +77625,7 @@
         <v>865</v>
       </c>
       <c r="B867">
-        <v>6876499</v>
+        <v>6875459</v>
       </c>
       <c r="C867" t="s">
         <v>28</v>
@@ -77637,76 +77637,76 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F867" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G867" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I867">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J867" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K867">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L867">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M867">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N867">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O867">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P867">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q867">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R867">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S867">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T867">
         <v>2.5</v>
       </c>
       <c r="U867">
+        <v>1.95</v>
+      </c>
+      <c r="V867">
         <v>1.9</v>
       </c>
-      <c r="V867">
-        <v>1.95</v>
-      </c>
       <c r="W867">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X867">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y867">
         <v>-1</v>
       </c>
       <c r="Z867">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA867">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB867">
+        <v>-1</v>
+      </c>
+      <c r="AC867">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC867">
-        <v>-1</v>
       </c>
     </row>
     <row r="868" spans="1:29">
@@ -84656,7 +84656,7 @@
         <v>944</v>
       </c>
       <c r="B946">
-        <v>6876571</v>
+        <v>6875468</v>
       </c>
       <c r="C946" t="s">
         <v>28</v>
@@ -84668,67 +84668,67 @@
         <v>45283.52083333334</v>
       </c>
       <c r="F946" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G946" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H946">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I946">
         <v>0</v>
       </c>
       <c r="J946" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K946">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L946">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M946">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N946">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="O946">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P946">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q946">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R946">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S946">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T946">
         <v>2.25</v>
       </c>
       <c r="U946">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V946">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W946">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X946">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y946">
         <v>-1</v>
       </c>
       <c r="Z946">
-        <v>0.4875</v>
+        <v>0.4</v>
       </c>
       <c r="AA946">
         <v>-0.5</v>
@@ -84737,7 +84737,7 @@
         <v>-1</v>
       </c>
       <c r="AC946">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="947" spans="1:29">
@@ -84745,7 +84745,7 @@
         <v>945</v>
       </c>
       <c r="B947">
-        <v>6875468</v>
+        <v>6876571</v>
       </c>
       <c r="C947" t="s">
         <v>28</v>
@@ -84757,67 +84757,67 @@
         <v>45283.52083333334</v>
       </c>
       <c r="F947" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G947" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I947">
         <v>0</v>
       </c>
       <c r="J947" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K947">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L947">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M947">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N947">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="O947">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P947">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q947">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R947">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S947">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T947">
         <v>2.25</v>
       </c>
       <c r="U947">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V947">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W947">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X947">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y947">
         <v>-1</v>
       </c>
       <c r="Z947">
-        <v>0.4</v>
+        <v>0.4875</v>
       </c>
       <c r="AA947">
         <v>-0.5</v>
@@ -84826,7 +84826,7 @@
         <v>-1</v>
       </c>
       <c r="AC947">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="948" spans="1:29">
@@ -85635,7 +85635,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>6876581</v>
+        <v>6876582</v>
       </c>
       <c r="C957" t="s">
         <v>28</v>
@@ -85647,76 +85647,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F957" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G957" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H957">
         <v>1</v>
       </c>
       <c r="I957">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J957" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K957">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L957">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M957">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N957">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O957">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P957">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q957">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R957">
+        <v>1.95</v>
+      </c>
+      <c r="S957">
+        <v>1.9</v>
+      </c>
+      <c r="T957">
+        <v>2.5</v>
+      </c>
+      <c r="U957">
         <v>2.025</v>
       </c>
-      <c r="S957">
+      <c r="V957">
         <v>1.825</v>
       </c>
-      <c r="T957">
-        <v>2.25</v>
-      </c>
-      <c r="U957">
-        <v>1.975</v>
-      </c>
-      <c r="V957">
-        <v>1.875</v>
-      </c>
       <c r="W957">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X957">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y957">
         <v>-1</v>
       </c>
       <c r="Z957">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA957">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB957">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC957">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="958" spans="1:29">
@@ -85724,7 +85724,7 @@
         <v>956</v>
       </c>
       <c r="B958">
-        <v>6876582</v>
+        <v>6876581</v>
       </c>
       <c r="C958" t="s">
         <v>28</v>
@@ -85736,76 +85736,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F958" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G958" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H958">
         <v>1</v>
       </c>
       <c r="I958">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J958" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K958">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L958">
+        <v>3.4</v>
+      </c>
+      <c r="M958">
         <v>3.6</v>
       </c>
-      <c r="M958">
-        <v>4.2</v>
-      </c>
       <c r="N958">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O958">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P958">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q958">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R958">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S958">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T958">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U958">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V958">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W958">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X958">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y958">
         <v>-1</v>
       </c>
       <c r="Z958">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA958">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB958">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC958">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="959" spans="1:29">

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -30455,7 +30455,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>3762620</v>
+        <v>3762625</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30467,40 +30467,40 @@
         <v>44549.58333333334</v>
       </c>
       <c r="F337" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G337" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H337">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J337" t="s">
         <v>53</v>
       </c>
       <c r="K337">
-        <v>1.142</v>
+        <v>2.3</v>
       </c>
       <c r="L337">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="M337">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="N337">
-        <v>1.166</v>
+        <v>2.75</v>
       </c>
       <c r="O337">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P337">
-        <v>17</v>
+        <v>2.7</v>
       </c>
       <c r="Q337">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R337">
         <v>1.975</v>
@@ -30509,16 +30509,16 @@
         <v>1.875</v>
       </c>
       <c r="T337">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U337">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V337">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W337">
-        <v>0.1659999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="X337">
         <v>-1</v>
@@ -30533,10 +30533,10 @@
         <v>-1</v>
       </c>
       <c r="AB337">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC337">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -30544,7 +30544,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>3762625</v>
+        <v>3762620</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30556,40 +30556,40 @@
         <v>44549.58333333334</v>
       </c>
       <c r="F338" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G338" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H338">
+        <v>7</v>
+      </c>
+      <c r="I338">
         <v>1</v>
-      </c>
-      <c r="I338">
-        <v>0</v>
       </c>
       <c r="J338" t="s">
         <v>53</v>
       </c>
       <c r="K338">
-        <v>2.3</v>
+        <v>1.142</v>
       </c>
       <c r="L338">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="M338">
-        <v>3.2</v>
+        <v>17</v>
       </c>
       <c r="N338">
-        <v>2.75</v>
+        <v>1.166</v>
       </c>
       <c r="O338">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="P338">
-        <v>2.7</v>
+        <v>17</v>
       </c>
       <c r="Q338">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R338">
         <v>1.975</v>
@@ -30598,16 +30598,16 @@
         <v>1.875</v>
       </c>
       <c r="T338">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U338">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V338">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W338">
-        <v>1.75</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X338">
         <v>-1</v>
@@ -30622,10 +30622,10 @@
         <v>-1</v>
       </c>
       <c r="AB338">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC338">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="339" spans="1:29">
@@ -32680,7 +32680,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>3762646</v>
+        <v>3762649</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32692,76 +32692,76 @@
         <v>44576.625</v>
       </c>
       <c r="F362" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G362" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362">
         <v>1</v>
       </c>
       <c r="J362" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K362">
-        <v>1.181</v>
+        <v>1.4</v>
       </c>
       <c r="L362">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="M362">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N362">
-        <v>1.2</v>
+        <v>1.363</v>
       </c>
       <c r="O362">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="P362">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Q362">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R362">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S362">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T362">
         <v>3</v>
       </c>
       <c r="U362">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V362">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W362">
         <v>-1</v>
       </c>
       <c r="X362">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y362">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z362">
         <v>-1</v>
       </c>
       <c r="AA362">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB362">
         <v>-1</v>
       </c>
       <c r="AC362">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="363" spans="1:29">
@@ -32769,7 +32769,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>3762649</v>
+        <v>3762646</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32781,76 +32781,76 @@
         <v>44576.625</v>
       </c>
       <c r="F363" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G363" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I363">
         <v>1</v>
       </c>
       <c r="J363" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K363">
-        <v>1.4</v>
+        <v>1.181</v>
       </c>
       <c r="L363">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M363">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N363">
-        <v>1.363</v>
+        <v>1.2</v>
       </c>
       <c r="O363">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="P363">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Q363">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R363">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S363">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T363">
         <v>3</v>
       </c>
       <c r="U363">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V363">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W363">
         <v>-1</v>
       </c>
       <c r="X363">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y363">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z363">
         <v>-1</v>
       </c>
       <c r="AA363">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB363">
         <v>-1</v>
       </c>
       <c r="AC363">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:29">
@@ -43182,7 +43182,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>3884731</v>
+        <v>3889235</v>
       </c>
       <c r="C480" t="s">
         <v>28</v>
@@ -43194,61 +43194,61 @@
         <v>44674.58333333334</v>
       </c>
       <c r="F480" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G480" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J480" t="s">
         <v>54</v>
       </c>
       <c r="K480">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L480">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M480">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N480">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O480">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P480">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q480">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R480">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S480">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T480">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U480">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V480">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W480">
         <v>-1</v>
       </c>
       <c r="X480">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y480">
         <v>-1</v>
@@ -43257,13 +43257,13 @@
         <v>-1</v>
       </c>
       <c r="AA480">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB480">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC480">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="481" spans="1:29">
@@ -43271,7 +43271,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>3889235</v>
+        <v>3884731</v>
       </c>
       <c r="C481" t="s">
         <v>28</v>
@@ -43283,61 +43283,61 @@
         <v>44674.58333333334</v>
       </c>
       <c r="F481" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G481" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J481" t="s">
         <v>54</v>
       </c>
       <c r="K481">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L481">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M481">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="N481">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O481">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P481">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q481">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R481">
+        <v>1.925</v>
+      </c>
+      <c r="S481">
+        <v>1.925</v>
+      </c>
+      <c r="T481">
+        <v>2</v>
+      </c>
+      <c r="U481">
         <v>1.825</v>
       </c>
-      <c r="S481">
+      <c r="V481">
         <v>2.025</v>
       </c>
-      <c r="T481">
-        <v>3</v>
-      </c>
-      <c r="U481">
-        <v>1.9</v>
-      </c>
-      <c r="V481">
-        <v>1.95</v>
-      </c>
       <c r="W481">
         <v>-1</v>
       </c>
       <c r="X481">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y481">
         <v>-1</v>
@@ -43346,13 +43346,13 @@
         <v>-1</v>
       </c>
       <c r="AA481">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB481">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC481">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="482" spans="1:29">
@@ -59825,7 +59825,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>5265613</v>
+        <v>5265726</v>
       </c>
       <c r="C667" t="s">
         <v>28</v>
@@ -59837,13 +59837,13 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F667" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G667" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I667">
         <v>1</v>
@@ -59852,43 +59852,43 @@
         <v>53</v>
       </c>
       <c r="K667">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L667">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M667">
+        <v>3.5</v>
+      </c>
+      <c r="N667">
+        <v>2</v>
+      </c>
+      <c r="O667">
+        <v>3.3</v>
+      </c>
+      <c r="P667">
         <v>3.8</v>
-      </c>
-      <c r="N667">
-        <v>1.95</v>
-      </c>
-      <c r="O667">
-        <v>3</v>
-      </c>
-      <c r="P667">
-        <v>4.5</v>
       </c>
       <c r="Q667">
         <v>-0.5</v>
       </c>
       <c r="R667">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S667">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T667">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U667">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V667">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W667">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="X667">
         <v>-1</v>
@@ -59897,13 +59897,13 @@
         <v>-1</v>
       </c>
       <c r="Z667">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA667">
         <v>-1</v>
       </c>
       <c r="AB667">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC667">
         <v>-1</v>
@@ -59914,7 +59914,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>5265726</v>
+        <v>5265613</v>
       </c>
       <c r="C668" t="s">
         <v>28</v>
@@ -59926,13 +59926,13 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F668" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G668" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H668">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I668">
         <v>1</v>
@@ -59941,43 +59941,43 @@
         <v>53</v>
       </c>
       <c r="K668">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L668">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M668">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N668">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O668">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P668">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q668">
         <v>-0.5</v>
       </c>
       <c r="R668">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S668">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T668">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U668">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V668">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W668">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="X668">
         <v>-1</v>
@@ -59986,13 +59986,13 @@
         <v>-1</v>
       </c>
       <c r="Z668">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA668">
         <v>-1</v>
       </c>
       <c r="AB668">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC668">
         <v>-1</v>
@@ -62317,7 +62317,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>5265630</v>
+        <v>5265735</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62329,73 +62329,73 @@
         <v>44975.625</v>
       </c>
       <c r="F695" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G695" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H695">
+        <v>2</v>
+      </c>
+      <c r="I695">
         <v>1</v>
       </c>
-      <c r="I695">
+      <c r="J695" t="s">
+        <v>53</v>
+      </c>
+      <c r="K695">
+        <v>2.05</v>
+      </c>
+      <c r="L695">
+        <v>3.25</v>
+      </c>
+      <c r="M695">
+        <v>3.75</v>
+      </c>
+      <c r="N695">
+        <v>2.45</v>
+      </c>
+      <c r="O695">
+        <v>3.1</v>
+      </c>
+      <c r="P695">
         <v>3</v>
       </c>
-      <c r="J695" t="s">
-        <v>55</v>
-      </c>
-      <c r="K695">
-        <v>1.95</v>
-      </c>
-      <c r="L695">
-        <v>3.3</v>
-      </c>
-      <c r="M695">
-        <v>4</v>
-      </c>
-      <c r="N695">
-        <v>2</v>
-      </c>
-      <c r="O695">
-        <v>3.2</v>
-      </c>
-      <c r="P695">
-        <v>3.8</v>
-      </c>
       <c r="Q695">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R695">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S695">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="T695">
         <v>2.25</v>
       </c>
       <c r="U695">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V695">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W695">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X695">
         <v>-1</v>
       </c>
       <c r="Y695">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z695">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA695">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB695">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC695">
         <v>-1</v>
@@ -62406,7 +62406,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>5265735</v>
+        <v>5265630</v>
       </c>
       <c r="C696" t="s">
         <v>28</v>
@@ -62418,73 +62418,73 @@
         <v>44975.625</v>
       </c>
       <c r="F696" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G696" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I696">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J696" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K696">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L696">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M696">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N696">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="O696">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P696">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q696">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R696">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S696">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="T696">
         <v>2.25</v>
       </c>
       <c r="U696">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V696">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W696">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X696">
         <v>-1</v>
       </c>
       <c r="Y696">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z696">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA696">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB696">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC696">
         <v>-1</v>
@@ -69526,7 +69526,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>5265760</v>
+        <v>5265759</v>
       </c>
       <c r="C776" t="s">
         <v>28</v>
@@ -69538,73 +69538,73 @@
         <v>45045.47916666666</v>
       </c>
       <c r="F776" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G776" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H776">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I776">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J776" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K776">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="L776">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M776">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="N776">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="O776">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P776">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q776">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R776">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="S776">
-        <v>2.01</v>
+        <v>1.775</v>
       </c>
       <c r="T776">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U776">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V776">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W776">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X776">
         <v>-1</v>
       </c>
       <c r="Y776">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z776">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA776">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB776">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC776">
         <v>-1</v>
@@ -69615,7 +69615,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>5265759</v>
+        <v>5265760</v>
       </c>
       <c r="C777" t="s">
         <v>28</v>
@@ -69627,73 +69627,73 @@
         <v>45045.47916666666</v>
       </c>
       <c r="F777" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G777" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H777">
+        <v>4</v>
+      </c>
+      <c r="I777">
         <v>1</v>
       </c>
-      <c r="I777">
-        <v>2</v>
-      </c>
       <c r="J777" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K777">
-        <v>2.45</v>
+        <v>1.25</v>
       </c>
       <c r="L777">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M777">
-        <v>2.9</v>
+        <v>11</v>
       </c>
       <c r="N777">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="O777">
+        <v>6</v>
+      </c>
+      <c r="P777">
+        <v>10</v>
+      </c>
+      <c r="Q777">
+        <v>-1.75</v>
+      </c>
+      <c r="R777">
+        <v>1.89</v>
+      </c>
+      <c r="S777">
+        <v>2.01</v>
+      </c>
+      <c r="T777">
         <v>3.25</v>
       </c>
-      <c r="P777">
-        <v>3</v>
-      </c>
-      <c r="Q777">
-        <v>-0.25</v>
-      </c>
-      <c r="R777">
-        <v>2.1</v>
-      </c>
-      <c r="S777">
-        <v>1.775</v>
-      </c>
-      <c r="T777">
-        <v>2.25</v>
-      </c>
       <c r="U777">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V777">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W777">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X777">
         <v>-1</v>
       </c>
       <c r="Y777">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z777">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA777">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB777">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC777">
         <v>-1</v>
@@ -69704,7 +69704,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>5265761</v>
+        <v>5265682</v>
       </c>
       <c r="C778" t="s">
         <v>28</v>
@@ -69716,76 +69716,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F778" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G778" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H778">
         <v>1</v>
       </c>
       <c r="I778">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J778" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K778">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L778">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M778">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="N778">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O778">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P778">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q778">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R778">
-        <v>1.925</v>
+        <v>1.92</v>
       </c>
       <c r="S778">
-        <v>1.925</v>
+        <v>1.98</v>
       </c>
       <c r="T778">
         <v>2.25</v>
       </c>
       <c r="U778">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V778">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W778">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X778">
         <v>-1</v>
       </c>
       <c r="Y778">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z778">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA778">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB778">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC778">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="779" spans="1:29">
@@ -69793,7 +69793,7 @@
         <v>777</v>
       </c>
       <c r="B779">
-        <v>5265682</v>
+        <v>5265761</v>
       </c>
       <c r="C779" t="s">
         <v>28</v>
@@ -69805,76 +69805,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F779" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G779" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H779">
         <v>1</v>
       </c>
       <c r="I779">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J779" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K779">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L779">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M779">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="N779">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O779">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P779">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q779">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R779">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="S779">
-        <v>1.98</v>
+        <v>1.925</v>
       </c>
       <c r="T779">
         <v>2.25</v>
       </c>
       <c r="U779">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V779">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W779">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X779">
         <v>-1</v>
       </c>
       <c r="Y779">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z779">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA779">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB779">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC779">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="780" spans="1:29">
@@ -74510,7 +74510,7 @@
         <v>830</v>
       </c>
       <c r="B832">
-        <v>6876471</v>
+        <v>6876465</v>
       </c>
       <c r="C832" t="s">
         <v>28</v>
@@ -74522,76 +74522,76 @@
         <v>45157.6875</v>
       </c>
       <c r="F832" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G832" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H832">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I832">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J832" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K832">
-        <v>2.45</v>
+        <v>1.125</v>
       </c>
       <c r="L832">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M832">
-        <v>2.875</v>
+        <v>19</v>
       </c>
       <c r="N832">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="O832">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P832">
-        <v>2.3</v>
+        <v>17</v>
       </c>
       <c r="Q832">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R832">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S832">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T832">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U832">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V832">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W832">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X832">
         <v>-1</v>
       </c>
       <c r="Y832">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z832">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA832">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB832">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC832">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="833" spans="1:29">
@@ -74599,7 +74599,7 @@
         <v>831</v>
       </c>
       <c r="B833">
-        <v>6876465</v>
+        <v>6876471</v>
       </c>
       <c r="C833" t="s">
         <v>28</v>
@@ -74611,76 +74611,76 @@
         <v>45157.6875</v>
       </c>
       <c r="F833" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G833" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I833">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J833" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K833">
-        <v>1.125</v>
+        <v>2.45</v>
       </c>
       <c r="L833">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M833">
-        <v>19</v>
+        <v>2.875</v>
       </c>
       <c r="N833">
-        <v>1.142</v>
+        <v>3</v>
       </c>
       <c r="O833">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="P833">
-        <v>17</v>
+        <v>2.3</v>
       </c>
       <c r="Q833">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R833">
+        <v>1.85</v>
+      </c>
+      <c r="S833">
+        <v>2</v>
+      </c>
+      <c r="T833">
+        <v>2.25</v>
+      </c>
+      <c r="U833">
         <v>1.925</v>
       </c>
-      <c r="S833">
+      <c r="V833">
         <v>1.925</v>
       </c>
-      <c r="T833">
-        <v>3.5</v>
-      </c>
-      <c r="U833">
-        <v>1.875</v>
-      </c>
-      <c r="V833">
-        <v>1.975</v>
-      </c>
       <c r="W833">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X833">
         <v>-1</v>
       </c>
       <c r="Y833">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z833">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA833">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB833">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC833">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="834" spans="1:29">
@@ -81007,7 +81007,7 @@
         <v>903</v>
       </c>
       <c r="B905">
-        <v>6876531</v>
+        <v>6875463</v>
       </c>
       <c r="C905" t="s">
         <v>28</v>
@@ -81019,76 +81019,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F905" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G905" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I905">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J905" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K905">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L905">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M905">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N905">
+        <v>2.875</v>
+      </c>
+      <c r="O905">
+        <v>3.3</v>
+      </c>
+      <c r="P905">
+        <v>2.4</v>
+      </c>
+      <c r="Q905">
+        <v>0</v>
+      </c>
+      <c r="R905">
         <v>2.1</v>
       </c>
-      <c r="O905">
-        <v>3.4</v>
-      </c>
-      <c r="P905">
-        <v>3.4</v>
-      </c>
-      <c r="Q905">
-        <v>-0.25</v>
-      </c>
-      <c r="R905">
-        <v>1.875</v>
-      </c>
       <c r="S905">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T905">
         <v>2.25</v>
       </c>
       <c r="U905">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V905">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W905">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X905">
         <v>-1</v>
       </c>
       <c r="Y905">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z905">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA905">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB905">
         <v>-1</v>
       </c>
       <c r="AC905">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:29">
@@ -81096,7 +81096,7 @@
         <v>904</v>
       </c>
       <c r="B906">
-        <v>6875463</v>
+        <v>6876531</v>
       </c>
       <c r="C906" t="s">
         <v>28</v>
@@ -81108,76 +81108,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F906" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G906" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H906">
+        <v>0</v>
+      </c>
+      <c r="I906">
         <v>1</v>
       </c>
-      <c r="I906">
-        <v>0</v>
-      </c>
       <c r="J906" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K906">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="L906">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M906">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N906">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="O906">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P906">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q906">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R906">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S906">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T906">
         <v>2.25</v>
       </c>
       <c r="U906">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V906">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W906">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X906">
         <v>-1</v>
       </c>
       <c r="Y906">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z906">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA906">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB906">
         <v>-1</v>
       </c>
       <c r="AC906">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="907" spans="1:29">
@@ -84656,7 +84656,7 @@
         <v>944</v>
       </c>
       <c r="B946">
-        <v>6875468</v>
+        <v>6876571</v>
       </c>
       <c r="C946" t="s">
         <v>28</v>
@@ -84668,67 +84668,67 @@
         <v>45283.52083333334</v>
       </c>
       <c r="F946" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G946" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I946">
         <v>0</v>
       </c>
       <c r="J946" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K946">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L946">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M946">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N946">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="O946">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P946">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q946">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R946">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S946">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T946">
         <v>2.25</v>
       </c>
       <c r="U946">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V946">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W946">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X946">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y946">
         <v>-1</v>
       </c>
       <c r="Z946">
-        <v>0.4</v>
+        <v>0.4875</v>
       </c>
       <c r="AA946">
         <v>-0.5</v>
@@ -84737,7 +84737,7 @@
         <v>-1</v>
       </c>
       <c r="AC946">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="947" spans="1:29">
@@ -84745,7 +84745,7 @@
         <v>945</v>
       </c>
       <c r="B947">
-        <v>6876571</v>
+        <v>6875468</v>
       </c>
       <c r="C947" t="s">
         <v>28</v>
@@ -84757,67 +84757,67 @@
         <v>45283.52083333334</v>
       </c>
       <c r="F947" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G947" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H947">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I947">
         <v>0</v>
       </c>
       <c r="J947" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K947">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L947">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M947">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N947">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="O947">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P947">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q947">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R947">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S947">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T947">
         <v>2.25</v>
       </c>
       <c r="U947">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V947">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W947">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X947">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y947">
         <v>-1</v>
       </c>
       <c r="Z947">
-        <v>0.4875</v>
+        <v>0.4</v>
       </c>
       <c r="AA947">
         <v>-0.5</v>
@@ -84826,7 +84826,7 @@
         <v>-1</v>
       </c>
       <c r="AC947">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="948" spans="1:29">
@@ -85101,7 +85101,7 @@
         <v>949</v>
       </c>
       <c r="B951">
-        <v>7513577</v>
+        <v>7515550</v>
       </c>
       <c r="C951" t="s">
         <v>28</v>
@@ -85113,13 +85113,13 @@
         <v>45290.52083333334</v>
       </c>
       <c r="F951" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G951" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H951">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I951">
         <v>0</v>
@@ -85128,43 +85128,43 @@
         <v>53</v>
       </c>
       <c r="K951">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L951">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M951">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N951">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O951">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P951">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q951">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R951">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S951">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T951">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U951">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V951">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W951">
-        <v>0.833</v>
+        <v>1.3</v>
       </c>
       <c r="X951">
         <v>-1</v>
@@ -85173,16 +85173,16 @@
         <v>-1</v>
       </c>
       <c r="Z951">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA951">
         <v>-1</v>
       </c>
       <c r="AB951">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC951">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="952" spans="1:29">
@@ -85190,7 +85190,7 @@
         <v>950</v>
       </c>
       <c r="B952">
-        <v>7515550</v>
+        <v>7513577</v>
       </c>
       <c r="C952" t="s">
         <v>28</v>
@@ -85202,13 +85202,13 @@
         <v>45290.52083333334</v>
       </c>
       <c r="F952" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G952" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H952">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I952">
         <v>0</v>
@@ -85217,43 +85217,43 @@
         <v>53</v>
       </c>
       <c r="K952">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L952">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M952">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N952">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O952">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P952">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q952">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R952">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S952">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T952">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U952">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V952">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W952">
-        <v>1.3</v>
+        <v>0.833</v>
       </c>
       <c r="X952">
         <v>-1</v>
@@ -85262,16 +85262,16 @@
         <v>-1</v>
       </c>
       <c r="Z952">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA952">
         <v>-1</v>
       </c>
       <c r="AB952">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC952">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="953" spans="1:29">
@@ -88127,7 +88127,7 @@
         <v>983</v>
       </c>
       <c r="B985">
-        <v>6876607</v>
+        <v>6876603</v>
       </c>
       <c r="C985" t="s">
         <v>28</v>
@@ -88139,13 +88139,13 @@
         <v>45319.72916666666</v>
       </c>
       <c r="F985" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G985" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H985">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I985">
         <v>0</v>
@@ -88154,43 +88154,43 @@
         <v>53</v>
       </c>
       <c r="K985">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L985">
         <v>3.4</v>
       </c>
       <c r="M985">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N985">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="O985">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P985">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q985">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R985">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S985">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T985">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U985">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V985">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W985">
-        <v>0.8</v>
+        <v>2.25</v>
       </c>
       <c r="X985">
         <v>-1</v>
@@ -88199,16 +88199,16 @@
         <v>-1</v>
       </c>
       <c r="Z985">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA985">
         <v>-1</v>
       </c>
       <c r="AB985">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC985">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="986" spans="1:29">
@@ -88216,7 +88216,7 @@
         <v>984</v>
       </c>
       <c r="B986">
-        <v>6876603</v>
+        <v>6876607</v>
       </c>
       <c r="C986" t="s">
         <v>28</v>
@@ -88228,13 +88228,13 @@
         <v>45319.72916666666</v>
       </c>
       <c r="F986" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G986" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H986">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I986">
         <v>0</v>
@@ -88243,43 +88243,43 @@
         <v>53</v>
       </c>
       <c r="K986">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L986">
         <v>3.4</v>
       </c>
       <c r="M986">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N986">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="O986">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P986">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q986">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R986">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S986">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T986">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U986">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V986">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W986">
-        <v>2.25</v>
+        <v>0.8</v>
       </c>
       <c r="X986">
         <v>-1</v>
@@ -88288,16 +88288,16 @@
         <v>-1</v>
       </c>
       <c r="Z986">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA986">
         <v>-1</v>
       </c>
       <c r="AB986">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC986">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="987" spans="1:29">
@@ -88344,10 +88344,10 @@
         <v>-0.25</v>
       </c>
       <c r="R987">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S987">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="T987">
         <v>2.5</v>
@@ -88406,31 +88406,31 @@
         <v>10</v>
       </c>
       <c r="N988">
-        <v>1.285</v>
+        <v>1.222</v>
       </c>
       <c r="O988">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P988">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Q988">
         <v>-1.75</v>
       </c>
       <c r="R988">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="S988">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="T988">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U988">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V988">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W988">
         <v>0</v>
@@ -88480,31 +88480,31 @@
         <v>2.625</v>
       </c>
       <c r="N989">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O989">
         <v>3.4</v>
       </c>
       <c r="P989">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q989">
         <v>0.25</v>
       </c>
       <c r="R989">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="S989">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="T989">
         <v>2.25</v>
       </c>
       <c r="U989">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V989">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W989">
         <v>0</v>
@@ -88554,31 +88554,31 @@
         <v>1.4</v>
       </c>
       <c r="N990">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O990">
         <v>4.5</v>
       </c>
       <c r="P990">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="Q990">
         <v>1.25</v>
       </c>
       <c r="R990">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="S990">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="T990">
         <v>2.5</v>
       </c>
       <c r="U990">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V990">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W990">
         <v>0</v>
@@ -88628,31 +88628,31 @@
         <v>14</v>
       </c>
       <c r="N991">
-        <v>1.181</v>
+        <v>1.2</v>
       </c>
       <c r="O991">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="P991">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q991">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R991">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="S991">
-        <v>1.86</v>
+        <v>2.01</v>
       </c>
       <c r="T991">
         <v>3</v>
       </c>
       <c r="U991">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V991">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W991">
         <v>0</v>
@@ -88675,7 +88675,7 @@
         <v>990</v>
       </c>
       <c r="B992">
-        <v>6876611</v>
+        <v>6876616</v>
       </c>
       <c r="C992" t="s">
         <v>28</v>
@@ -88687,31 +88687,31 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F992" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G992" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K992">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L992">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M992">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N992">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="O992">
         <v>3.4</v>
       </c>
       <c r="P992">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="Q992">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R992">
         <v>2.03</v>
@@ -88720,13 +88720,13 @@
         <v>1.87</v>
       </c>
       <c r="T992">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U992">
+        <v>1.975</v>
+      </c>
+      <c r="V992">
         <v>1.875</v>
-      </c>
-      <c r="V992">
-        <v>1.975</v>
       </c>
       <c r="W992">
         <v>0</v>
@@ -88749,7 +88749,7 @@
         <v>991</v>
       </c>
       <c r="B993">
-        <v>6876616</v>
+        <v>6876611</v>
       </c>
       <c r="C993" t="s">
         <v>28</v>
@@ -88761,46 +88761,46 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F993" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G993" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K993">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L993">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M993">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N993">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="O993">
         <v>3.4</v>
       </c>
       <c r="P993">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="Q993">
         <v>0.25</v>
       </c>
       <c r="R993">
+        <v>2.05</v>
+      </c>
+      <c r="S993">
         <v>1.85</v>
       </c>
-      <c r="S993">
-        <v>2.05</v>
-      </c>
       <c r="T993">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U993">
+        <v>1.875</v>
+      </c>
+      <c r="V993">
         <v>1.975</v>
-      </c>
-      <c r="V993">
-        <v>1.875</v>
       </c>
       <c r="W993">
         <v>0</v>
@@ -88850,31 +88850,31 @@
         <v>3.2</v>
       </c>
       <c r="N994">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O994">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P994">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q994">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R994">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="S994">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="T994">
         <v>2.25</v>
       </c>
       <c r="U994">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V994">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W994">
         <v>0</v>
@@ -88998,7 +88998,7 @@
         <v>7</v>
       </c>
       <c r="N996">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="O996">
         <v>4.2</v>
@@ -89010,10 +89010,10 @@
         <v>-1</v>
       </c>
       <c r="R996">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="S996">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="T996">
         <v>2.75</v>
@@ -89072,22 +89072,22 @@
         <v>3.1</v>
       </c>
       <c r="N997">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="O997">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P997">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q997">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R997">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="S997">
-        <v>2.07</v>
+        <v>1.84</v>
       </c>
       <c r="T997">
         <v>2.25</v>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4997" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4989" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC997"/>
+  <dimension ref="A1:AC995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46742,7 +46742,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>5263100</v>
+        <v>5264289</v>
       </c>
       <c r="C520" t="s">
         <v>28</v>
@@ -46754,10 +46754,10 @@
         <v>44780.6875</v>
       </c>
       <c r="F520" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G520" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H520">
         <v>0</v>
@@ -46769,40 +46769,40 @@
         <v>55</v>
       </c>
       <c r="K520">
+        <v>2.3</v>
+      </c>
+      <c r="L520">
+        <v>3.1</v>
+      </c>
+      <c r="M520">
         <v>3</v>
       </c>
-      <c r="L520">
-        <v>3.2</v>
-      </c>
-      <c r="M520">
-        <v>2.25</v>
-      </c>
       <c r="N520">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O520">
         <v>3.2</v>
       </c>
       <c r="P520">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q520">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R520">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="S520">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="T520">
         <v>2.25</v>
       </c>
       <c r="U520">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V520">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W520">
         <v>-1</v>
@@ -46811,19 +46811,19 @@
         <v>-1</v>
       </c>
       <c r="Y520">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="Z520">
         <v>-1</v>
       </c>
       <c r="AA520">
-        <v>1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB520">
         <v>-1</v>
       </c>
       <c r="AC520">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="521" spans="1:29">
@@ -46831,7 +46831,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>5264289</v>
+        <v>5263100</v>
       </c>
       <c r="C521" t="s">
         <v>28</v>
@@ -46843,10 +46843,10 @@
         <v>44780.6875</v>
       </c>
       <c r="F521" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G521" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H521">
         <v>0</v>
@@ -46858,40 +46858,40 @@
         <v>55</v>
       </c>
       <c r="K521">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L521">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M521">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N521">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="O521">
         <v>3.2</v>
       </c>
       <c r="P521">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q521">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R521">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="S521">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="T521">
         <v>2.25</v>
       </c>
       <c r="U521">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V521">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W521">
         <v>-1</v>
@@ -46900,19 +46900,19 @@
         <v>-1</v>
       </c>
       <c r="Y521">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="Z521">
         <v>-1</v>
       </c>
       <c r="AA521">
-        <v>0.8700000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB521">
         <v>-1</v>
       </c>
       <c r="AC521">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="522" spans="1:29">
@@ -59825,7 +59825,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>5265726</v>
+        <v>5265613</v>
       </c>
       <c r="C667" t="s">
         <v>28</v>
@@ -59837,13 +59837,13 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F667" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G667" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H667">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I667">
         <v>1</v>
@@ -59852,43 +59852,43 @@
         <v>53</v>
       </c>
       <c r="K667">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L667">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M667">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N667">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O667">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P667">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q667">
         <v>-0.5</v>
       </c>
       <c r="R667">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S667">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T667">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U667">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V667">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W667">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="X667">
         <v>-1</v>
@@ -59897,13 +59897,13 @@
         <v>-1</v>
       </c>
       <c r="Z667">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA667">
         <v>-1</v>
       </c>
       <c r="AB667">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC667">
         <v>-1</v>
@@ -59914,7 +59914,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>5265613</v>
+        <v>5265726</v>
       </c>
       <c r="C668" t="s">
         <v>28</v>
@@ -59926,13 +59926,13 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F668" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G668" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I668">
         <v>1</v>
@@ -59941,43 +59941,43 @@
         <v>53</v>
       </c>
       <c r="K668">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L668">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M668">
+        <v>3.5</v>
+      </c>
+      <c r="N668">
+        <v>2</v>
+      </c>
+      <c r="O668">
+        <v>3.3</v>
+      </c>
+      <c r="P668">
         <v>3.8</v>
-      </c>
-      <c r="N668">
-        <v>1.95</v>
-      </c>
-      <c r="O668">
-        <v>3</v>
-      </c>
-      <c r="P668">
-        <v>4.5</v>
       </c>
       <c r="Q668">
         <v>-0.5</v>
       </c>
       <c r="R668">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S668">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T668">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U668">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V668">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W668">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="X668">
         <v>-1</v>
@@ -59986,13 +59986,13 @@
         <v>-1</v>
       </c>
       <c r="Z668">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA668">
         <v>-1</v>
       </c>
       <c r="AB668">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC668">
         <v>-1</v>
@@ -69526,7 +69526,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>5265759</v>
+        <v>5265760</v>
       </c>
       <c r="C776" t="s">
         <v>28</v>
@@ -69538,73 +69538,73 @@
         <v>45045.47916666666</v>
       </c>
       <c r="F776" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G776" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H776">
+        <v>4</v>
+      </c>
+      <c r="I776">
         <v>1</v>
       </c>
-      <c r="I776">
-        <v>2</v>
-      </c>
       <c r="J776" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K776">
-        <v>2.45</v>
+        <v>1.25</v>
       </c>
       <c r="L776">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M776">
-        <v>2.9</v>
+        <v>11</v>
       </c>
       <c r="N776">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="O776">
+        <v>6</v>
+      </c>
+      <c r="P776">
+        <v>10</v>
+      </c>
+      <c r="Q776">
+        <v>-1.75</v>
+      </c>
+      <c r="R776">
+        <v>1.89</v>
+      </c>
+      <c r="S776">
+        <v>2.01</v>
+      </c>
+      <c r="T776">
         <v>3.25</v>
       </c>
-      <c r="P776">
-        <v>3</v>
-      </c>
-      <c r="Q776">
-        <v>-0.25</v>
-      </c>
-      <c r="R776">
-        <v>2.1</v>
-      </c>
-      <c r="S776">
-        <v>1.775</v>
-      </c>
-      <c r="T776">
-        <v>2.25</v>
-      </c>
       <c r="U776">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V776">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W776">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X776">
         <v>-1</v>
       </c>
       <c r="Y776">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z776">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA776">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB776">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC776">
         <v>-1</v>
@@ -69615,7 +69615,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>5265760</v>
+        <v>5265759</v>
       </c>
       <c r="C777" t="s">
         <v>28</v>
@@ -69627,73 +69627,73 @@
         <v>45045.47916666666</v>
       </c>
       <c r="F777" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G777" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H777">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I777">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J777" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K777">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="L777">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M777">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="N777">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="O777">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P777">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q777">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R777">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="S777">
-        <v>2.01</v>
+        <v>1.775</v>
       </c>
       <c r="T777">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U777">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V777">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W777">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X777">
         <v>-1</v>
       </c>
       <c r="Y777">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z777">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA777">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB777">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC777">
         <v>-1</v>
@@ -69704,7 +69704,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>5265682</v>
+        <v>5265761</v>
       </c>
       <c r="C778" t="s">
         <v>28</v>
@@ -69716,76 +69716,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F778" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G778" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H778">
         <v>1</v>
       </c>
       <c r="I778">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J778" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K778">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L778">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M778">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="N778">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O778">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P778">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q778">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R778">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="S778">
-        <v>1.98</v>
+        <v>1.925</v>
       </c>
       <c r="T778">
         <v>2.25</v>
       </c>
       <c r="U778">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V778">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W778">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X778">
         <v>-1</v>
       </c>
       <c r="Y778">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z778">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA778">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB778">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC778">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="779" spans="1:29">
@@ -69793,7 +69793,7 @@
         <v>777</v>
       </c>
       <c r="B779">
-        <v>5265761</v>
+        <v>5265682</v>
       </c>
       <c r="C779" t="s">
         <v>28</v>
@@ -69805,76 +69805,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F779" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G779" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H779">
         <v>1</v>
       </c>
       <c r="I779">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J779" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K779">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L779">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M779">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="N779">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O779">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P779">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q779">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R779">
-        <v>1.925</v>
+        <v>1.92</v>
       </c>
       <c r="S779">
-        <v>1.925</v>
+        <v>1.98</v>
       </c>
       <c r="T779">
         <v>2.25</v>
       </c>
       <c r="U779">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V779">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W779">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X779">
         <v>-1</v>
       </c>
       <c r="Y779">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z779">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA779">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB779">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC779">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="780" spans="1:29">
@@ -77536,7 +77536,7 @@
         <v>864</v>
       </c>
       <c r="B866">
-        <v>6876499</v>
+        <v>6875459</v>
       </c>
       <c r="C866" t="s">
         <v>28</v>
@@ -77548,76 +77548,76 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F866" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G866" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I866">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J866" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K866">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L866">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M866">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N866">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O866">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P866">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q866">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R866">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S866">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T866">
         <v>2.5</v>
       </c>
       <c r="U866">
+        <v>1.95</v>
+      </c>
+      <c r="V866">
         <v>1.9</v>
       </c>
-      <c r="V866">
-        <v>1.95</v>
-      </c>
       <c r="W866">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X866">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y866">
         <v>-1</v>
       </c>
       <c r="Z866">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA866">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB866">
+        <v>-1</v>
+      </c>
+      <c r="AC866">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC866">
-        <v>-1</v>
       </c>
     </row>
     <row r="867" spans="1:29">
@@ -77625,7 +77625,7 @@
         <v>865</v>
       </c>
       <c r="B867">
-        <v>6875459</v>
+        <v>6876499</v>
       </c>
       <c r="C867" t="s">
         <v>28</v>
@@ -77637,76 +77637,76 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F867" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G867" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H867">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I867">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J867" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K867">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L867">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M867">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N867">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O867">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P867">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q867">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R867">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S867">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T867">
         <v>2.5</v>
       </c>
       <c r="U867">
+        <v>1.9</v>
+      </c>
+      <c r="V867">
         <v>1.95</v>
       </c>
-      <c r="V867">
-        <v>1.9</v>
-      </c>
       <c r="W867">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X867">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y867">
         <v>-1</v>
       </c>
       <c r="Z867">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA867">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB867">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC867">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="868" spans="1:29">
@@ -80028,7 +80028,7 @@
         <v>892</v>
       </c>
       <c r="B894">
-        <v>6876523</v>
+        <v>6876528</v>
       </c>
       <c r="C894" t="s">
         <v>28</v>
@@ -80040,76 +80040,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F894" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G894" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H894">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I894">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J894" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K894">
-        <v>1.166</v>
+        <v>1.75</v>
       </c>
       <c r="L894">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M894">
-        <v>15</v>
+        <v>4.75</v>
       </c>
       <c r="N894">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="O894">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P894">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q894">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R894">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S894">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T894">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U894">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V894">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W894">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X894">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y894">
         <v>-1</v>
       </c>
       <c r="Z894">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA894">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB894">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC894">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="895" spans="1:29">
@@ -80117,7 +80117,7 @@
         <v>893</v>
       </c>
       <c r="B895">
-        <v>6876528</v>
+        <v>6876523</v>
       </c>
       <c r="C895" t="s">
         <v>28</v>
@@ -80129,76 +80129,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F895" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G895" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H895">
+        <v>1</v>
+      </c>
+      <c r="I895">
+        <v>1</v>
+      </c>
+      <c r="J895" t="s">
+        <v>54</v>
+      </c>
+      <c r="K895">
+        <v>1.166</v>
+      </c>
+      <c r="L895">
+        <v>7</v>
+      </c>
+      <c r="M895">
+        <v>15</v>
+      </c>
+      <c r="N895">
+        <v>1.222</v>
+      </c>
+      <c r="O895">
+        <v>6</v>
+      </c>
+      <c r="P895">
+        <v>11</v>
+      </c>
+      <c r="Q895">
+        <v>-1.75</v>
+      </c>
+      <c r="R895">
+        <v>1.875</v>
+      </c>
+      <c r="S895">
+        <v>1.975</v>
+      </c>
+      <c r="T895">
+        <v>3</v>
+      </c>
+      <c r="U895">
+        <v>1.95</v>
+      </c>
+      <c r="V895">
+        <v>1.9</v>
+      </c>
+      <c r="W895">
+        <v>-1</v>
+      </c>
+      <c r="X895">
         <v>5</v>
       </c>
-      <c r="I895">
-        <v>0</v>
-      </c>
-      <c r="J895" t="s">
-        <v>53</v>
-      </c>
-      <c r="K895">
-        <v>1.75</v>
-      </c>
-      <c r="L895">
-        <v>3.6</v>
-      </c>
-      <c r="M895">
-        <v>4.75</v>
-      </c>
-      <c r="N895">
-        <v>1.666</v>
-      </c>
-      <c r="O895">
-        <v>3.75</v>
-      </c>
-      <c r="P895">
-        <v>5</v>
-      </c>
-      <c r="Q895">
-        <v>-0.75</v>
-      </c>
-      <c r="R895">
-        <v>1.9</v>
-      </c>
-      <c r="S895">
-        <v>2</v>
-      </c>
-      <c r="T895">
-        <v>2.5</v>
-      </c>
-      <c r="U895">
-        <v>1.925</v>
-      </c>
-      <c r="V895">
-        <v>1.925</v>
-      </c>
-      <c r="W895">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X895">
-        <v>-1</v>
-      </c>
       <c r="Y895">
         <v>-1</v>
       </c>
       <c r="Z895">
+        <v>-1</v>
+      </c>
+      <c r="AA895">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB895">
+        <v>-1</v>
+      </c>
+      <c r="AC895">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA895">
-        <v>-1</v>
-      </c>
-      <c r="AB895">
-        <v>0.925</v>
-      </c>
-      <c r="AC895">
-        <v>-1</v>
       </c>
     </row>
     <row r="896" spans="1:29">
@@ -88127,7 +88127,7 @@
         <v>983</v>
       </c>
       <c r="B985">
-        <v>6876603</v>
+        <v>6876607</v>
       </c>
       <c r="C985" t="s">
         <v>28</v>
@@ -88139,13 +88139,13 @@
         <v>45319.72916666666</v>
       </c>
       <c r="F985" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G985" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H985">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I985">
         <v>0</v>
@@ -88154,43 +88154,43 @@
         <v>53</v>
       </c>
       <c r="K985">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L985">
         <v>3.4</v>
       </c>
       <c r="M985">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N985">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="O985">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P985">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q985">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R985">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S985">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T985">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U985">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V985">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W985">
-        <v>2.25</v>
+        <v>0.8</v>
       </c>
       <c r="X985">
         <v>-1</v>
@@ -88199,16 +88199,16 @@
         <v>-1</v>
       </c>
       <c r="Z985">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA985">
         <v>-1</v>
       </c>
       <c r="AB985">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC985">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="986" spans="1:29">
@@ -88216,7 +88216,7 @@
         <v>984</v>
       </c>
       <c r="B986">
-        <v>6876607</v>
+        <v>6876603</v>
       </c>
       <c r="C986" t="s">
         <v>28</v>
@@ -88228,13 +88228,13 @@
         <v>45319.72916666666</v>
       </c>
       <c r="F986" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G986" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H986">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I986">
         <v>0</v>
@@ -88243,43 +88243,43 @@
         <v>53</v>
       </c>
       <c r="K986">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L986">
         <v>3.4</v>
       </c>
       <c r="M986">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N986">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="O986">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P986">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q986">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R986">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S986">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T986">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U986">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V986">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W986">
-        <v>0.8</v>
+        <v>2.25</v>
       </c>
       <c r="X986">
         <v>-1</v>
@@ -88288,16 +88288,16 @@
         <v>-1</v>
       </c>
       <c r="Z986">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA986">
         <v>-1</v>
       </c>
       <c r="AB986">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC986">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="987" spans="1:29">
@@ -88305,7 +88305,7 @@
         <v>985</v>
       </c>
       <c r="B987">
-        <v>7728747</v>
+        <v>6876610</v>
       </c>
       <c r="C987" t="s">
         <v>28</v>
@@ -88314,49 +88314,49 @@
         <v>28</v>
       </c>
       <c r="E987" s="2">
-        <v>45322.65625</v>
+        <v>45325.52083333334</v>
       </c>
       <c r="F987" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G987" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K987">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L987">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M987">
+        <v>2.625</v>
+      </c>
+      <c r="N987">
+        <v>2.875</v>
+      </c>
+      <c r="O987">
         <v>3.3</v>
       </c>
-      <c r="N987">
-        <v>2.2</v>
-      </c>
-      <c r="O987">
-        <v>3.6</v>
-      </c>
       <c r="P987">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q987">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R987">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="S987">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="T987">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U987">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V987">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W987">
         <v>0</v>
@@ -88379,7 +88379,7 @@
         <v>986</v>
       </c>
       <c r="B988">
-        <v>7728746</v>
+        <v>7758960</v>
       </c>
       <c r="C988" t="s">
         <v>28</v>
@@ -88388,49 +88388,49 @@
         <v>28</v>
       </c>
       <c r="E988" s="2">
-        <v>45322.73958333334</v>
+        <v>45325.625</v>
       </c>
       <c r="F988" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G988" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="K988">
+        <v>7.5</v>
+      </c>
+      <c r="L988">
+        <v>4.5</v>
+      </c>
+      <c r="M988">
+        <v>1.4</v>
+      </c>
+      <c r="N988">
+        <v>8</v>
+      </c>
+      <c r="O988">
+        <v>4.5</v>
+      </c>
+      <c r="P988">
+        <v>1.4</v>
+      </c>
+      <c r="Q988">
         <v>1.25</v>
       </c>
-      <c r="L988">
-        <v>6</v>
-      </c>
-      <c r="M988">
-        <v>10</v>
-      </c>
-      <c r="N988">
-        <v>1.222</v>
-      </c>
-      <c r="O988">
-        <v>6.5</v>
-      </c>
-      <c r="P988">
-        <v>11</v>
-      </c>
-      <c r="Q988">
-        <v>-1.75</v>
-      </c>
       <c r="R988">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S988">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T988">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U988">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V988">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W988">
         <v>0</v>
@@ -88453,7 +88453,7 @@
         <v>987</v>
       </c>
       <c r="B989">
-        <v>6876610</v>
+        <v>6876615</v>
       </c>
       <c r="C989" t="s">
         <v>28</v>
@@ -88462,49 +88462,49 @@
         <v>28</v>
       </c>
       <c r="E989" s="2">
-        <v>45325.52083333334</v>
+        <v>45325.72916666666</v>
       </c>
       <c r="F989" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G989" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K989">
-        <v>2.625</v>
+        <v>1.181</v>
       </c>
       <c r="L989">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="M989">
-        <v>2.625</v>
+        <v>14</v>
       </c>
       <c r="N989">
+        <v>1.2</v>
+      </c>
+      <c r="O989">
+        <v>6.5</v>
+      </c>
+      <c r="P989">
+        <v>12</v>
+      </c>
+      <c r="Q989">
+        <v>-1.75</v>
+      </c>
+      <c r="R989">
+        <v>1.9</v>
+      </c>
+      <c r="S989">
+        <v>2</v>
+      </c>
+      <c r="T989">
         <v>3</v>
       </c>
-      <c r="O989">
-        <v>3.4</v>
-      </c>
-      <c r="P989">
-        <v>2.3</v>
-      </c>
-      <c r="Q989">
-        <v>0.25</v>
-      </c>
-      <c r="R989">
-        <v>1.82</v>
-      </c>
-      <c r="S989">
-        <v>2.08</v>
-      </c>
-      <c r="T989">
-        <v>2.25</v>
-      </c>
       <c r="U989">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V989">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W989">
         <v>0</v>
@@ -88527,7 +88527,7 @@
         <v>988</v>
       </c>
       <c r="B990">
-        <v>7758960</v>
+        <v>6876611</v>
       </c>
       <c r="C990" t="s">
         <v>28</v>
@@ -88536,49 +88536,49 @@
         <v>28</v>
       </c>
       <c r="E990" s="2">
-        <v>45325.625</v>
+        <v>45326.52083333334</v>
       </c>
       <c r="F990" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G990" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="K990">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="L990">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M990">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="N990">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="O990">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P990">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q990">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R990">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S990">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T990">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U990">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V990">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W990">
         <v>0</v>
@@ -88601,7 +88601,7 @@
         <v>989</v>
       </c>
       <c r="B991">
-        <v>6876615</v>
+        <v>6876616</v>
       </c>
       <c r="C991" t="s">
         <v>28</v>
@@ -88610,43 +88610,43 @@
         <v>28</v>
       </c>
       <c r="E991" s="2">
-        <v>45325.72916666666</v>
+        <v>45326.52083333334</v>
       </c>
       <c r="F991" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G991" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K991">
-        <v>1.181</v>
+        <v>2.8</v>
       </c>
       <c r="L991">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="M991">
-        <v>14</v>
+        <v>2.5</v>
       </c>
       <c r="N991">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="O991">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P991">
-        <v>12</v>
+        <v>2.55</v>
       </c>
       <c r="Q991">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R991">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="S991">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="T991">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U991">
         <v>1.975</v>
@@ -88675,7 +88675,7 @@
         <v>990</v>
       </c>
       <c r="B992">
-        <v>6876616</v>
+        <v>7758962</v>
       </c>
       <c r="C992" t="s">
         <v>28</v>
@@ -88684,49 +88684,49 @@
         <v>28</v>
       </c>
       <c r="E992" s="2">
-        <v>45326.52083333334</v>
+        <v>45326.625</v>
       </c>
       <c r="F992" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G992" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K992">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="L992">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M992">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N992">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="O992">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P992">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q992">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R992">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S992">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T992">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U992">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V992">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W992">
         <v>0</v>
@@ -88749,7 +88749,7 @@
         <v>991</v>
       </c>
       <c r="B993">
-        <v>6876611</v>
+        <v>7758961</v>
       </c>
       <c r="C993" t="s">
         <v>28</v>
@@ -88758,43 +88758,43 @@
         <v>28</v>
       </c>
       <c r="E993" s="2">
-        <v>45326.52083333334</v>
+        <v>45326.625</v>
       </c>
       <c r="F993" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G993" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K993">
-        <v>3.1</v>
+        <v>1.181</v>
       </c>
       <c r="L993">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="M993">
-        <v>2.3</v>
+        <v>14</v>
       </c>
       <c r="N993">
-        <v>3.6</v>
+        <v>1.166</v>
       </c>
       <c r="O993">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P993">
-        <v>2.05</v>
+        <v>15</v>
       </c>
       <c r="Q993">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R993">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="S993">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="T993">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U993">
         <v>1.875</v>
@@ -88823,7 +88823,7 @@
         <v>992</v>
       </c>
       <c r="B994">
-        <v>7758962</v>
+        <v>7758959</v>
       </c>
       <c r="C994" t="s">
         <v>28</v>
@@ -88832,43 +88832,43 @@
         <v>28</v>
       </c>
       <c r="E994" s="2">
-        <v>45326.625</v>
+        <v>45326.72916666666</v>
       </c>
       <c r="F994" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G994" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="K994">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L994">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M994">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="N994">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="O994">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P994">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q994">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R994">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="S994">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="T994">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U994">
         <v>1.9</v>
@@ -88897,7 +88897,7 @@
         <v>993</v>
       </c>
       <c r="B995">
-        <v>7758961</v>
+        <v>6876612</v>
       </c>
       <c r="C995" t="s">
         <v>28</v>
@@ -88906,49 +88906,49 @@
         <v>28</v>
       </c>
       <c r="E995" s="2">
-        <v>45326.625</v>
+        <v>45327.71875</v>
       </c>
       <c r="F995" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G995" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K995">
-        <v>1.181</v>
+        <v>2.3</v>
       </c>
       <c r="L995">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="M995">
-        <v>14</v>
+        <v>3.1</v>
       </c>
       <c r="N995">
-        <v>1.166</v>
+        <v>2.4</v>
       </c>
       <c r="O995">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="P995">
-        <v>17</v>
+        <v>2.9</v>
       </c>
       <c r="Q995">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R995">
-        <v>1.85</v>
+        <v>2.11</v>
       </c>
       <c r="S995">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="T995">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U995">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V995">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W995">
         <v>0</v>
@@ -88963,154 +88963,6 @@
         <v>0</v>
       </c>
       <c r="AA995">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="996" spans="1:27">
-      <c r="A996" s="1">
-        <v>994</v>
-      </c>
-      <c r="B996">
-        <v>7758959</v>
-      </c>
-      <c r="C996" t="s">
-        <v>28</v>
-      </c>
-      <c r="D996" t="s">
-        <v>28</v>
-      </c>
-      <c r="E996" s="2">
-        <v>45326.72916666666</v>
-      </c>
-      <c r="F996" t="s">
-        <v>37</v>
-      </c>
-      <c r="G996" t="s">
-        <v>42</v>
-      </c>
-      <c r="K996">
-        <v>1.444</v>
-      </c>
-      <c r="L996">
-        <v>4.333</v>
-      </c>
-      <c r="M996">
-        <v>7</v>
-      </c>
-      <c r="N996">
-        <v>1.533</v>
-      </c>
-      <c r="O996">
-        <v>4.2</v>
-      </c>
-      <c r="P996">
-        <v>6</v>
-      </c>
-      <c r="Q996">
-        <v>-1</v>
-      </c>
-      <c r="R996">
-        <v>1.91</v>
-      </c>
-      <c r="S996">
-        <v>1.99</v>
-      </c>
-      <c r="T996">
-        <v>2.75</v>
-      </c>
-      <c r="U996">
-        <v>1.925</v>
-      </c>
-      <c r="V996">
-        <v>1.925</v>
-      </c>
-      <c r="W996">
-        <v>0</v>
-      </c>
-      <c r="X996">
-        <v>0</v>
-      </c>
-      <c r="Y996">
-        <v>0</v>
-      </c>
-      <c r="Z996">
-        <v>0</v>
-      </c>
-      <c r="AA996">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="997" spans="1:27">
-      <c r="A997" s="1">
-        <v>995</v>
-      </c>
-      <c r="B997">
-        <v>6876612</v>
-      </c>
-      <c r="C997" t="s">
-        <v>28</v>
-      </c>
-      <c r="D997" t="s">
-        <v>28</v>
-      </c>
-      <c r="E997" s="2">
-        <v>45327.71875</v>
-      </c>
-      <c r="F997" t="s">
-        <v>51</v>
-      </c>
-      <c r="G997" t="s">
-        <v>43</v>
-      </c>
-      <c r="K997">
-        <v>2.3</v>
-      </c>
-      <c r="L997">
-        <v>3.25</v>
-      </c>
-      <c r="M997">
-        <v>3.1</v>
-      </c>
-      <c r="N997">
-        <v>2.3</v>
-      </c>
-      <c r="O997">
-        <v>3.25</v>
-      </c>
-      <c r="P997">
-        <v>3.1</v>
-      </c>
-      <c r="Q997">
-        <v>-0.25</v>
-      </c>
-      <c r="R997">
-        <v>2.06</v>
-      </c>
-      <c r="S997">
-        <v>1.84</v>
-      </c>
-      <c r="T997">
-        <v>2.25</v>
-      </c>
-      <c r="U997">
-        <v>1.925</v>
-      </c>
-      <c r="V997">
-        <v>1.925</v>
-      </c>
-      <c r="W997">
-        <v>0</v>
-      </c>
-      <c r="X997">
-        <v>0</v>
-      </c>
-      <c r="Y997">
-        <v>0</v>
-      </c>
-      <c r="Z997">
-        <v>0</v>
-      </c>
-      <c r="AA997">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -4191,7 +4191,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5265728</v>
+        <v>5265729</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4203,13 +4203,13 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -4218,43 +4218,43 @@
         <v>51</v>
       </c>
       <c r="K42">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="L42">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M42">
-        <v>9.5</v>
+        <v>4.333</v>
       </c>
       <c r="N42">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P42">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="T42">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
-        <v>0.55</v>
+        <v>1.2</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4263,13 +4263,13 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>1.01</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4280,7 +4280,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5265729</v>
+        <v>5265728</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4292,13 +4292,13 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -4307,43 +4307,43 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="L43">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M43">
-        <v>4.333</v>
+        <v>9.5</v>
       </c>
       <c r="N43">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="O43">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P43">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="S43">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T43">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W43">
-        <v>1.2</v>
+        <v>0.55</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4352,13 +4352,13 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.8999999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -8908,7 +8908,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5265649</v>
+        <v>5263123</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8920,76 +8920,76 @@
         <v>45003.625</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K95">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L95">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M95">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="N95">
-        <v>2.15</v>
+        <v>1.166</v>
       </c>
       <c r="O95">
+        <v>8</v>
+      </c>
+      <c r="P95">
+        <v>15</v>
+      </c>
+      <c r="Q95">
+        <v>-2.25</v>
+      </c>
+      <c r="R95">
+        <v>2.025</v>
+      </c>
+      <c r="S95">
+        <v>1.825</v>
+      </c>
+      <c r="T95">
         <v>3.25</v>
       </c>
-      <c r="P95">
-        <v>3.4</v>
-      </c>
-      <c r="Q95">
-        <v>-0.25</v>
-      </c>
-      <c r="R95">
+      <c r="U95">
         <v>1.875</v>
       </c>
-      <c r="S95">
+      <c r="V95">
         <v>1.975</v>
       </c>
-      <c r="T95">
-        <v>2.25</v>
-      </c>
-      <c r="U95">
-        <v>1.925</v>
-      </c>
-      <c r="V95">
-        <v>1.925</v>
-      </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X95">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA95">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC95">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8997,7 +8997,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5263123</v>
+        <v>5265649</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9009,76 +9009,76 @@
         <v>45003.625</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H96">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K96">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L96">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M96">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="N96">
-        <v>1.166</v>
+        <v>2.15</v>
       </c>
       <c r="O96">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="P96">
-        <v>15</v>
+        <v>3.4</v>
       </c>
       <c r="Q96">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB96">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5265654</v>
+        <v>5265751</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,73 +9810,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K105">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L105">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N105">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O105">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R105">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z105">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9887,7 +9887,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5265751</v>
+        <v>5265654</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9899,73 +9899,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K106">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M106">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N106">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="O106">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P106">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="Q106">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V106">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AA106">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -12824,7 +12824,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5265760</v>
+        <v>5265759</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12836,73 +12836,73 @@
         <v>45045.47916666666</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K139">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="L139">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M139">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="N139">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="O139">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P139">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q139">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="S139">
-        <v>2.01</v>
+        <v>1.775</v>
       </c>
       <c r="T139">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U139">
+        <v>1.9</v>
+      </c>
+      <c r="V139">
+        <v>1.95</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
         <v>2</v>
       </c>
-      <c r="V139">
-        <v>1.85</v>
-      </c>
-      <c r="W139">
-        <v>0.25</v>
-      </c>
-      <c r="X139">
-        <v>-1</v>
-      </c>
-      <c r="Y139">
-        <v>-1</v>
-      </c>
       <c r="Z139">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB139">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12913,7 +12913,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5265759</v>
+        <v>5265760</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12925,73 +12925,73 @@
         <v>45045.47916666666</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H140">
+        <v>4</v>
+      </c>
+      <c r="I140">
         <v>1</v>
       </c>
-      <c r="I140">
+      <c r="J140" t="s">
+        <v>51</v>
+      </c>
+      <c r="K140">
+        <v>1.25</v>
+      </c>
+      <c r="L140">
+        <v>6</v>
+      </c>
+      <c r="M140">
+        <v>11</v>
+      </c>
+      <c r="N140">
+        <v>1.25</v>
+      </c>
+      <c r="O140">
+        <v>6</v>
+      </c>
+      <c r="P140">
+        <v>10</v>
+      </c>
+      <c r="Q140">
+        <v>-1.75</v>
+      </c>
+      <c r="R140">
+        <v>1.89</v>
+      </c>
+      <c r="S140">
+        <v>2.01</v>
+      </c>
+      <c r="T140">
+        <v>3.25</v>
+      </c>
+      <c r="U140">
         <v>2</v>
       </c>
-      <c r="J140" t="s">
-        <v>50</v>
-      </c>
-      <c r="K140">
-        <v>2.45</v>
-      </c>
-      <c r="L140">
-        <v>3.2</v>
-      </c>
-      <c r="M140">
-        <v>2.9</v>
-      </c>
-      <c r="N140">
-        <v>2.4</v>
-      </c>
-      <c r="O140">
-        <v>3.25</v>
-      </c>
-      <c r="P140">
-        <v>3</v>
-      </c>
-      <c r="Q140">
-        <v>-0.25</v>
-      </c>
-      <c r="R140">
-        <v>2.1</v>
-      </c>
-      <c r="S140">
-        <v>1.775</v>
-      </c>
-      <c r="T140">
-        <v>2.25</v>
-      </c>
-      <c r="U140">
-        <v>1.9</v>
-      </c>
       <c r="V140">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA140">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5265761</v>
+        <v>5265682</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,76 +13014,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K141">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L141">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="N141">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O141">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.92</v>
       </c>
       <c r="S141">
-        <v>1.925</v>
+        <v>1.98</v>
       </c>
       <c r="T141">
         <v>2.25</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W141">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC141">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5265682</v>
+        <v>5265761</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,76 +13103,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K142">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="N142">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P142">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="S142">
-        <v>1.98</v>
+        <v>1.925</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V142">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA142">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5498498</v>
+        <v>5498499</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,10 +15239,10 @@
         <v>45066.47916666666</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15254,43 +15254,43 @@
         <v>51</v>
       </c>
       <c r="K166">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L166">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M166">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="N166">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O166">
+        <v>3.4</v>
+      </c>
+      <c r="P166">
         <v>3.6</v>
       </c>
-      <c r="P166">
-        <v>4.333</v>
-      </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
+        <v>2</v>
+      </c>
+      <c r="V166">
         <v>1.85</v>
       </c>
-      <c r="V166">
-        <v>2</v>
-      </c>
       <c r="W166">
-        <v>0.7</v>
+        <v>0.909</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15299,16 +15299,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5498499</v>
+        <v>5498498</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,10 +15328,10 @@
         <v>45066.47916666666</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15343,43 +15343,43 @@
         <v>51</v>
       </c>
       <c r="K167">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L167">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M167">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="N167">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O167">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P167">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S167">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
+        <v>1.85</v>
+      </c>
+      <c r="V167">
         <v>2</v>
       </c>
-      <c r="V167">
-        <v>1.85</v>
-      </c>
       <c r="W167">
-        <v>0.909</v>
+        <v>0.7</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15388,16 +15388,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -16473,7 +16473,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5545146</v>
+        <v>5540441</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16485,76 +16485,76 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K180">
-        <v>1.083</v>
+        <v>2.8</v>
       </c>
       <c r="L180">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M180">
-        <v>34</v>
+        <v>2.375</v>
       </c>
       <c r="N180">
-        <v>1.062</v>
+        <v>3.1</v>
       </c>
       <c r="O180">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="P180">
-        <v>26</v>
+        <v>2.15</v>
       </c>
       <c r="Q180">
-        <v>-3</v>
+        <v>0.25</v>
       </c>
       <c r="R180">
+        <v>1.975</v>
+      </c>
+      <c r="S180">
+        <v>1.875</v>
+      </c>
+      <c r="T180">
+        <v>2.75</v>
+      </c>
+      <c r="U180">
         <v>2.025</v>
       </c>
-      <c r="S180">
+      <c r="V180">
         <v>1.825</v>
       </c>
-      <c r="T180">
-        <v>4</v>
-      </c>
-      <c r="U180">
-        <v>1.925</v>
-      </c>
-      <c r="V180">
-        <v>1.925</v>
-      </c>
       <c r="W180">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB180">
         <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16562,7 +16562,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>5540441</v>
+        <v>5545146</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16574,76 +16574,76 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K181">
-        <v>2.8</v>
+        <v>1.083</v>
       </c>
       <c r="L181">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M181">
-        <v>2.375</v>
+        <v>34</v>
       </c>
       <c r="N181">
-        <v>3.1</v>
+        <v>1.062</v>
       </c>
       <c r="O181">
-        <v>3.75</v>
+        <v>11</v>
       </c>
       <c r="P181">
-        <v>2.15</v>
+        <v>26</v>
       </c>
       <c r="Q181">
-        <v>0.25</v>
+        <v>-3</v>
       </c>
       <c r="R181">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S181">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T181">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U181">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V181">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA181">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -19232,7 +19232,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6876488</v>
+        <v>6876483</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19244,76 +19244,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G211" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K211">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L211">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M211">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N211">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O211">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P211">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q211">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R211">
+        <v>2.025</v>
+      </c>
+      <c r="S211">
         <v>1.825</v>
-      </c>
-      <c r="S211">
-        <v>2.025</v>
       </c>
       <c r="T211">
         <v>2.25</v>
       </c>
       <c r="U211">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V211">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X211">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA211">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19321,7 +19321,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6876483</v>
+        <v>6876488</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19333,76 +19333,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H212">
         <v>1</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K212">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L212">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M212">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N212">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O212">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P212">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q212">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R212">
+        <v>1.825</v>
+      </c>
+      <c r="S212">
         <v>2.025</v>
-      </c>
-      <c r="S212">
-        <v>1.825</v>
       </c>
       <c r="T212">
         <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V212">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W212">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC212">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -22792,7 +22792,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6876516</v>
+        <v>6876517</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22804,55 +22804,55 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F251" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G251" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
         <v>1</v>
-      </c>
-      <c r="I251">
-        <v>3</v>
       </c>
       <c r="J251" t="s">
         <v>50</v>
       </c>
       <c r="K251">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L251">
         <v>3.1</v>
       </c>
       <c r="M251">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N251">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O251">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P251">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R251">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S251">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T251">
         <v>2.25</v>
       </c>
       <c r="U251">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V251">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W251">
         <v>-1</v>
@@ -22861,19 +22861,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB251">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC251">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22881,7 +22881,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6876517</v>
+        <v>6876516</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22893,55 +22893,55 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F252" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G252" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J252" t="s">
         <v>50</v>
       </c>
       <c r="K252">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L252">
         <v>3.1</v>
       </c>
       <c r="M252">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N252">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O252">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P252">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q252">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S252">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T252">
         <v>2.25</v>
       </c>
       <c r="U252">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V252">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W252">
         <v>-1</v>
@@ -22950,19 +22950,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC252">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23326,7 +23326,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6876528</v>
+        <v>6876523</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23338,76 +23338,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F257" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G257" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H257">
+        <v>1</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257" t="s">
+        <v>52</v>
+      </c>
+      <c r="K257">
+        <v>1.166</v>
+      </c>
+      <c r="L257">
+        <v>7</v>
+      </c>
+      <c r="M257">
+        <v>15</v>
+      </c>
+      <c r="N257">
+        <v>1.222</v>
+      </c>
+      <c r="O257">
+        <v>6</v>
+      </c>
+      <c r="P257">
+        <v>11</v>
+      </c>
+      <c r="Q257">
+        <v>-1.75</v>
+      </c>
+      <c r="R257">
+        <v>1.875</v>
+      </c>
+      <c r="S257">
+        <v>1.975</v>
+      </c>
+      <c r="T257">
+        <v>3</v>
+      </c>
+      <c r="U257">
+        <v>1.95</v>
+      </c>
+      <c r="V257">
+        <v>1.9</v>
+      </c>
+      <c r="W257">
+        <v>-1</v>
+      </c>
+      <c r="X257">
         <v>5</v>
       </c>
-      <c r="I257">
-        <v>0</v>
-      </c>
-      <c r="J257" t="s">
-        <v>51</v>
-      </c>
-      <c r="K257">
-        <v>1.75</v>
-      </c>
-      <c r="L257">
-        <v>3.6</v>
-      </c>
-      <c r="M257">
-        <v>4.75</v>
-      </c>
-      <c r="N257">
-        <v>1.666</v>
-      </c>
-      <c r="O257">
-        <v>3.75</v>
-      </c>
-      <c r="P257">
-        <v>5</v>
-      </c>
-      <c r="Q257">
-        <v>-0.75</v>
-      </c>
-      <c r="R257">
-        <v>1.9</v>
-      </c>
-      <c r="S257">
-        <v>2</v>
-      </c>
-      <c r="T257">
-        <v>2.5</v>
-      </c>
-      <c r="U257">
-        <v>1.925</v>
-      </c>
-      <c r="V257">
-        <v>1.925</v>
-      </c>
-      <c r="W257">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X257">
-        <v>-1</v>
-      </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
+        <v>-1</v>
+      </c>
+      <c r="AA257">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB257">
+        <v>-1</v>
+      </c>
+      <c r="AC257">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA257">
-        <v>-1</v>
-      </c>
-      <c r="AB257">
-        <v>0.925</v>
-      </c>
-      <c r="AC257">
-        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23415,7 +23415,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6876523</v>
+        <v>6876528</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23427,76 +23427,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F258" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G258" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J258" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K258">
-        <v>1.166</v>
+        <v>1.75</v>
       </c>
       <c r="L258">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M258">
-        <v>15</v>
+        <v>4.75</v>
       </c>
       <c r="N258">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="O258">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P258">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q258">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R258">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S258">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T258">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U258">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V258">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W258">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X258">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y258">
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA258">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC258">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -24305,7 +24305,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6875463</v>
+        <v>6876531</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24317,76 +24317,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F268" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G268" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
         <v>1</v>
       </c>
-      <c r="I268">
-        <v>0</v>
-      </c>
       <c r="J268" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K268">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="L268">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M268">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N268">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="O268">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P268">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q268">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R268">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S268">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T268">
         <v>2.25</v>
       </c>
       <c r="U268">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V268">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W268">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X268">
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z268">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA268">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB268">
         <v>-1</v>
       </c>
       <c r="AC268">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24394,7 +24394,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6876531</v>
+        <v>6875463</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24406,76 +24406,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F269" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G269" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K269">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L269">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M269">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N269">
+        <v>2.875</v>
+      </c>
+      <c r="O269">
+        <v>3.3</v>
+      </c>
+      <c r="P269">
+        <v>2.4</v>
+      </c>
+      <c r="Q269">
+        <v>0</v>
+      </c>
+      <c r="R269">
         <v>2.1</v>
       </c>
-      <c r="O269">
-        <v>3.4</v>
-      </c>
-      <c r="P269">
-        <v>3.4</v>
-      </c>
-      <c r="Q269">
-        <v>-0.25</v>
-      </c>
-      <c r="R269">
-        <v>1.875</v>
-      </c>
       <c r="S269">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T269">
         <v>2.25</v>
       </c>
       <c r="U269">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V269">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W269">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X269">
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z269">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA269">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB269">
         <v>-1</v>
       </c>
       <c r="AC269">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24928,7 +24928,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6876543</v>
+        <v>6875464</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24940,49 +24940,49 @@
         <v>45241.625</v>
       </c>
       <c r="F275" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G275" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H275">
         <v>0</v>
       </c>
       <c r="I275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K275">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L275">
         <v>3.2</v>
       </c>
       <c r="M275">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N275">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O275">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P275">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q275">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R275">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S275">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T275">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U275">
         <v>2</v>
@@ -24994,16 +24994,16 @@
         <v>-1</v>
       </c>
       <c r="X275">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y275">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z275">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA275">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AB275">
         <v>-1</v>
@@ -25017,7 +25017,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6875464</v>
+        <v>6876543</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25029,49 +25029,49 @@
         <v>45241.625</v>
       </c>
       <c r="F276" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G276" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H276">
         <v>0</v>
       </c>
       <c r="I276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J276" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K276">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L276">
         <v>3.2</v>
       </c>
       <c r="M276">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N276">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O276">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P276">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q276">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R276">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S276">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T276">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U276">
         <v>2</v>
@@ -25083,16 +25083,16 @@
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y276">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA276">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AB276">
         <v>-1</v>
@@ -25195,7 +25195,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6876541</v>
+        <v>6876540</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25207,19 +25207,19 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F278" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G278" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H278">
         <v>1</v>
       </c>
       <c r="I278">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J278" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K278">
         <v>2</v>
@@ -25231,16 +25231,16 @@
         <v>3.6</v>
       </c>
       <c r="N278">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O278">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P278">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q278">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R278">
         <v>1.95</v>
@@ -25249,34 +25249,34 @@
         <v>1.9</v>
       </c>
       <c r="T278">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U278">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V278">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W278">
         <v>-1</v>
       </c>
       <c r="X278">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y278">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z278">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB278">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC278">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25284,7 +25284,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6876540</v>
+        <v>6876541</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25296,19 +25296,19 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F279" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G279" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H279">
         <v>1</v>
       </c>
       <c r="I279">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K279">
         <v>2</v>
@@ -25320,16 +25320,16 @@
         <v>3.6</v>
       </c>
       <c r="N279">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O279">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P279">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q279">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R279">
         <v>1.95</v>
@@ -25338,34 +25338,34 @@
         <v>1.9</v>
       </c>
       <c r="T279">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U279">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V279">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W279">
         <v>-1</v>
       </c>
       <c r="X279">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y279">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA279">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB279">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC279">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25640,7 +25640,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6876549</v>
+        <v>6876552</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25652,76 +25652,76 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F283" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G283" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H283">
         <v>1</v>
       </c>
       <c r="I283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K283">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L283">
         <v>3.4</v>
       </c>
       <c r="M283">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N283">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O283">
         <v>3.6</v>
       </c>
       <c r="P283">
+        <v>3.3</v>
+      </c>
+      <c r="Q283">
+        <v>-0.5</v>
+      </c>
+      <c r="R283">
         <v>2.05</v>
       </c>
-      <c r="Q283">
-        <v>0.25</v>
-      </c>
-      <c r="R283">
-        <v>2.025</v>
-      </c>
       <c r="S283">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T283">
         <v>2.5</v>
       </c>
       <c r="U283">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V283">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W283">
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y283">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z283">
         <v>-1</v>
       </c>
       <c r="AA283">
+        <v>0.8</v>
+      </c>
+      <c r="AB283">
+        <v>-1</v>
+      </c>
+      <c r="AC283">
         <v>0.825</v>
-      </c>
-      <c r="AB283">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC283">
-        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25729,7 +25729,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6876552</v>
+        <v>6876549</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25741,76 +25741,76 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F284" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G284" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H284">
         <v>1</v>
       </c>
       <c r="I284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J284" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K284">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="L284">
         <v>3.4</v>
       </c>
       <c r="M284">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N284">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O284">
         <v>3.6</v>
       </c>
       <c r="P284">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q284">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R284">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S284">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T284">
         <v>2.5</v>
       </c>
       <c r="U284">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V284">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W284">
         <v>-1</v>
       </c>
       <c r="X284">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y284">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z284">
         <v>-1</v>
       </c>
       <c r="AA284">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB284">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC284">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -27509,7 +27509,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6875467</v>
+        <v>6876563</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27521,40 +27521,40 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F304" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G304" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H304">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I304">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J304" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K304">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="L304">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M304">
-        <v>3.9</v>
+        <v>2.55</v>
       </c>
       <c r="N304">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O304">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P304">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q304">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R304">
         <v>1.875</v>
@@ -27563,31 +27563,31 @@
         <v>1.975</v>
       </c>
       <c r="T304">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U304">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V304">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W304">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X304">
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z304">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA304">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB304">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC304">
         <v>-1</v>
@@ -27598,7 +27598,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6876563</v>
+        <v>6875467</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27610,40 +27610,40 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F305" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G305" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I305">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J305" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K305">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="L305">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M305">
-        <v>2.55</v>
+        <v>3.9</v>
       </c>
       <c r="N305">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O305">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P305">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q305">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R305">
         <v>1.875</v>
@@ -27652,31 +27652,31 @@
         <v>1.975</v>
       </c>
       <c r="T305">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U305">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V305">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W305">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X305">
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z305">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA305">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB305">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC305">
         <v>-1</v>
@@ -28399,7 +28399,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7515550</v>
+        <v>7513577</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28411,13 +28411,13 @@
         <v>45290.52083333334</v>
       </c>
       <c r="F314" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G314" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I314">
         <v>0</v>
@@ -28426,43 +28426,43 @@
         <v>51</v>
       </c>
       <c r="K314">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L314">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M314">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N314">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O314">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P314">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q314">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R314">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S314">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T314">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U314">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V314">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W314">
-        <v>1.3</v>
+        <v>0.833</v>
       </c>
       <c r="X314">
         <v>-1</v>
@@ -28471,16 +28471,16 @@
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA314">
         <v>-1</v>
       </c>
       <c r="AB314">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC314">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28488,7 +28488,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7513577</v>
+        <v>7515550</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28500,13 +28500,13 @@
         <v>45290.52083333334</v>
       </c>
       <c r="F315" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G315" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H315">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I315">
         <v>0</v>
@@ -28515,43 +28515,43 @@
         <v>51</v>
       </c>
       <c r="K315">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L315">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M315">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N315">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O315">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P315">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q315">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R315">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S315">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T315">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U315">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V315">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W315">
-        <v>0.833</v>
+        <v>1.3</v>
       </c>
       <c r="X315">
         <v>-1</v>
@@ -28560,16 +28560,16 @@
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA315">
         <v>-1</v>
       </c>
       <c r="AB315">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC315">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28933,7 +28933,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6876582</v>
+        <v>6876581</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28945,76 +28945,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F320" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G320" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H320">
         <v>1</v>
       </c>
       <c r="I320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J320" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K320">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L320">
+        <v>3.4</v>
+      </c>
+      <c r="M320">
         <v>3.6</v>
       </c>
-      <c r="M320">
-        <v>4.2</v>
-      </c>
       <c r="N320">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O320">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P320">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q320">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R320">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S320">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T320">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U320">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V320">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W320">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X320">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y320">
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA320">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB320">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC320">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29022,7 +29022,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6876581</v>
+        <v>6876582</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29034,76 +29034,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F321" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G321" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H321">
         <v>1</v>
       </c>
       <c r="I321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J321" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K321">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L321">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M321">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N321">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O321">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P321">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q321">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R321">
+        <v>1.95</v>
+      </c>
+      <c r="S321">
+        <v>1.9</v>
+      </c>
+      <c r="T321">
+        <v>2.5</v>
+      </c>
+      <c r="U321">
         <v>2.025</v>
       </c>
-      <c r="S321">
+      <c r="V321">
         <v>1.825</v>
       </c>
-      <c r="T321">
-        <v>2.25</v>
-      </c>
-      <c r="U321">
-        <v>1.975</v>
-      </c>
-      <c r="V321">
-        <v>1.875</v>
-      </c>
       <c r="W321">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X321">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y321">
         <v>-1</v>
       </c>
       <c r="Z321">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA321">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB321">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC321">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -30001,7 +30001,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6876586</v>
+        <v>6876591</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30013,40 +30013,40 @@
         <v>45305.625</v>
       </c>
       <c r="F332" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G332" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H332">
+        <v>1</v>
+      </c>
+      <c r="I332">
         <v>4</v>
       </c>
-      <c r="I332">
-        <v>1</v>
-      </c>
       <c r="J332" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K332">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="L332">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="M332">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="N332">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="O332">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="P332">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q332">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R332">
         <v>2.025</v>
@@ -30055,31 +30055,31 @@
         <v>1.825</v>
       </c>
       <c r="T332">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U332">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V332">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W332">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X332">
         <v>-1</v>
       </c>
       <c r="Y332">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z332">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA332">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB332">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC332">
         <v>-1</v>
@@ -30090,7 +30090,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6876591</v>
+        <v>6876586</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30102,40 +30102,40 @@
         <v>45305.625</v>
       </c>
       <c r="F333" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G333" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H333">
+        <v>4</v>
+      </c>
+      <c r="I333">
         <v>1</v>
       </c>
-      <c r="I333">
-        <v>4</v>
-      </c>
       <c r="J333" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K333">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="L333">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="M333">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="N333">
-        <v>1.95</v>
+        <v>1.2</v>
       </c>
       <c r="O333">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="P333">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q333">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R333">
         <v>2.025</v>
@@ -30144,31 +30144,31 @@
         <v>1.825</v>
       </c>
       <c r="T333">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U333">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V333">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W333">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X333">
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z333">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA333">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB333">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC333">
         <v>-1</v>
@@ -31158,7 +31158,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6876608</v>
+        <v>6875472</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31170,49 +31170,49 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F345" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G345" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H345">
         <v>1</v>
       </c>
       <c r="I345">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J345" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K345">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L345">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M345">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N345">
+        <v>2.375</v>
+      </c>
+      <c r="O345">
+        <v>3.2</v>
+      </c>
+      <c r="P345">
+        <v>3.2</v>
+      </c>
+      <c r="Q345">
+        <v>-0.25</v>
+      </c>
+      <c r="R345">
+        <v>2.1</v>
+      </c>
+      <c r="S345">
+        <v>1.775</v>
+      </c>
+      <c r="T345">
         <v>2</v>
-      </c>
-      <c r="O345">
-        <v>3.3</v>
-      </c>
-      <c r="P345">
-        <v>4</v>
-      </c>
-      <c r="Q345">
-        <v>-0.5</v>
-      </c>
-      <c r="R345">
-        <v>2.025</v>
-      </c>
-      <c r="S345">
-        <v>1.825</v>
-      </c>
-      <c r="T345">
-        <v>2.25</v>
       </c>
       <c r="U345">
         <v>1.825</v>
@@ -31221,25 +31221,25 @@
         <v>2.025</v>
       </c>
       <c r="W345">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X345">
         <v>-1</v>
       </c>
       <c r="Y345">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z345">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA345">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB345">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC345">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31247,7 +31247,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6875472</v>
+        <v>6876608</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31259,49 +31259,49 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F346" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G346" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H346">
         <v>1</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J346" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K346">
+        <v>1.727</v>
+      </c>
+      <c r="L346">
+        <v>3.6</v>
+      </c>
+      <c r="M346">
+        <v>4.75</v>
+      </c>
+      <c r="N346">
+        <v>2</v>
+      </c>
+      <c r="O346">
+        <v>3.3</v>
+      </c>
+      <c r="P346">
+        <v>4</v>
+      </c>
+      <c r="Q346">
+        <v>-0.5</v>
+      </c>
+      <c r="R346">
+        <v>2.025</v>
+      </c>
+      <c r="S346">
+        <v>1.825</v>
+      </c>
+      <c r="T346">
         <v>2.25</v>
-      </c>
-      <c r="L346">
-        <v>3.3</v>
-      </c>
-      <c r="M346">
-        <v>3.2</v>
-      </c>
-      <c r="N346">
-        <v>2.375</v>
-      </c>
-      <c r="O346">
-        <v>3.2</v>
-      </c>
-      <c r="P346">
-        <v>3.2</v>
-      </c>
-      <c r="Q346">
-        <v>-0.25</v>
-      </c>
-      <c r="R346">
-        <v>2.1</v>
-      </c>
-      <c r="S346">
-        <v>1.775</v>
-      </c>
-      <c r="T346">
-        <v>2</v>
       </c>
       <c r="U346">
         <v>1.825</v>
@@ -31310,25 +31310,25 @@
         <v>2.025</v>
       </c>
       <c r="W346">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X346">
         <v>-1</v>
       </c>
       <c r="Y346">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z346">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA346">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB346">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC346">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -32007,10 +32007,10 @@
         <v>2.5</v>
       </c>
       <c r="U354">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V354">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W354">
         <v>0</v>
@@ -32081,10 +32081,10 @@
         <v>2.75</v>
       </c>
       <c r="U355">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V355">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W355">
         <v>0</v>
@@ -32134,31 +32134,31 @@
         <v>14</v>
       </c>
       <c r="N356">
-        <v>1.222</v>
+        <v>1.2</v>
       </c>
       <c r="O356">
         <v>6.5</v>
       </c>
       <c r="P356">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q356">
         <v>-1.75</v>
       </c>
       <c r="R356">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="S356">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="T356">
         <v>3</v>
       </c>
       <c r="U356">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V356">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W356">
         <v>0</v>
@@ -32220,10 +32220,10 @@
         <v>0.25</v>
       </c>
       <c r="R357">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S357">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="T357">
         <v>2.25</v>
@@ -32282,31 +32282,31 @@
         <v>2.5</v>
       </c>
       <c r="N358">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="O358">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P358">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q358">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R358">
-        <v>1.88</v>
+        <v>2.09</v>
       </c>
       <c r="S358">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="T358">
         <v>2.5</v>
       </c>
       <c r="U358">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V358">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W358">
         <v>0</v>
@@ -32436,25 +32436,25 @@
         <v>7</v>
       </c>
       <c r="P360">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q360">
-        <v>-2</v>
+        <v>-2.25</v>
       </c>
       <c r="R360">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="S360">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="T360">
         <v>3.25</v>
       </c>
       <c r="U360">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V360">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W360">
         <v>0</v>
@@ -32516,10 +32516,10 @@
         <v>-1</v>
       </c>
       <c r="R361">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="S361">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="T361">
         <v>2.75</v>
@@ -32578,22 +32578,22 @@
         <v>3.1</v>
       </c>
       <c r="N362">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O362">
         <v>3.25</v>
       </c>
       <c r="P362">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q362">
         <v>-0.25</v>
       </c>
       <c r="R362">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="S362">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="T362">
         <v>2.25</v>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5265751</v>
+        <v>5265654</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,73 +9810,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K105">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M105">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N105">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P105">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="Q105">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9887,7 +9887,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5265654</v>
+        <v>5265751</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9899,73 +9899,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K106">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L106">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N106">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O106">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P106">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R106">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="S106">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T106">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W106">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z106">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5498499</v>
+        <v>5498498</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,10 +15239,10 @@
         <v>45066.47916666666</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15254,43 +15254,43 @@
         <v>51</v>
       </c>
       <c r="K166">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L166">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M166">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="N166">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O166">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q166">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S166">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
+        <v>1.85</v>
+      </c>
+      <c r="V166">
         <v>2</v>
       </c>
-      <c r="V166">
-        <v>1.85</v>
-      </c>
       <c r="W166">
-        <v>0.909</v>
+        <v>0.7</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15299,16 +15299,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5498498</v>
+        <v>5498499</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,10 +15328,10 @@
         <v>45066.47916666666</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15343,43 +15343,43 @@
         <v>51</v>
       </c>
       <c r="K167">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L167">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M167">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="N167">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O167">
+        <v>3.4</v>
+      </c>
+      <c r="P167">
         <v>3.6</v>
       </c>
-      <c r="P167">
-        <v>4.333</v>
-      </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S167">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
+        <v>2</v>
+      </c>
+      <c r="V167">
         <v>1.85</v>
       </c>
-      <c r="V167">
-        <v>2</v>
-      </c>
       <c r="W167">
-        <v>0.7</v>
+        <v>0.909</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15388,16 +15388,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -16384,7 +16384,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5549224</v>
+        <v>5540441</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16396,76 +16396,76 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K179">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="L179">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M179">
-        <v>13</v>
+        <v>2.375</v>
       </c>
       <c r="N179">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="O179">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="P179">
-        <v>11</v>
+        <v>2.15</v>
       </c>
       <c r="Q179">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R179">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S179">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T179">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U179">
+        <v>2.025</v>
+      </c>
+      <c r="V179">
         <v>1.825</v>
       </c>
-      <c r="V179">
-        <v>2.025</v>
-      </c>
       <c r="W179">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16473,7 +16473,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5540441</v>
+        <v>5549224</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16485,76 +16485,76 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K180">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="L180">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M180">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="N180">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="O180">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="P180">
-        <v>2.15</v>
+        <v>11</v>
       </c>
       <c r="Q180">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R180">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T180">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U180">
+        <v>1.825</v>
+      </c>
+      <c r="V180">
         <v>2.025</v>
       </c>
-      <c r="V180">
-        <v>1.825</v>
-      </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA180">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC180">
-        <v>0.825</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -17808,7 +17808,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6876465</v>
+        <v>6876471</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17820,76 +17820,76 @@
         <v>45157.6875</v>
       </c>
       <c r="F195" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G195" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>4</v>
+      </c>
+      <c r="J195" t="s">
+        <v>50</v>
+      </c>
+      <c r="K195">
+        <v>2.45</v>
+      </c>
+      <c r="L195">
+        <v>3.25</v>
+      </c>
+      <c r="M195">
+        <v>2.875</v>
+      </c>
+      <c r="N195">
+        <v>3</v>
+      </c>
+      <c r="O195">
+        <v>3.3</v>
+      </c>
+      <c r="P195">
+        <v>2.3</v>
+      </c>
+      <c r="Q195">
+        <v>0.25</v>
+      </c>
+      <c r="R195">
+        <v>1.85</v>
+      </c>
+      <c r="S195">
         <v>2</v>
       </c>
-      <c r="I195">
-        <v>0</v>
-      </c>
-      <c r="J195" t="s">
-        <v>51</v>
-      </c>
-      <c r="K195">
-        <v>1.125</v>
-      </c>
-      <c r="L195">
-        <v>8</v>
-      </c>
-      <c r="M195">
-        <v>19</v>
-      </c>
-      <c r="N195">
-        <v>1.142</v>
-      </c>
-      <c r="O195">
-        <v>7.5</v>
-      </c>
-      <c r="P195">
-        <v>17</v>
-      </c>
-      <c r="Q195">
-        <v>-2.25</v>
-      </c>
-      <c r="R195">
+      <c r="T195">
+        <v>2.25</v>
+      </c>
+      <c r="U195">
         <v>1.925</v>
       </c>
-      <c r="S195">
+      <c r="V195">
         <v>1.925</v>
       </c>
-      <c r="T195">
-        <v>3.5</v>
-      </c>
-      <c r="U195">
-        <v>1.875</v>
-      </c>
-      <c r="V195">
-        <v>1.975</v>
-      </c>
       <c r="W195">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z195">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC195">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17897,7 +17897,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6876471</v>
+        <v>6876465</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17909,76 +17909,76 @@
         <v>45157.6875</v>
       </c>
       <c r="F196" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K196">
-        <v>2.45</v>
+        <v>1.125</v>
       </c>
       <c r="L196">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M196">
-        <v>2.875</v>
+        <v>19</v>
       </c>
       <c r="N196">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="O196">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P196">
-        <v>2.3</v>
+        <v>17</v>
       </c>
       <c r="Q196">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R196">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S196">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T196">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U196">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V196">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA196">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB196">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -20834,7 +20834,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6875459</v>
+        <v>6876499</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20846,76 +20846,76 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F229" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G229" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K229">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L229">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M229">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N229">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O229">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P229">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q229">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S229">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T229">
         <v>2.5</v>
       </c>
       <c r="U229">
+        <v>1.9</v>
+      </c>
+      <c r="V229">
         <v>1.95</v>
       </c>
-      <c r="V229">
-        <v>1.9</v>
-      </c>
       <c r="W229">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC229">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20923,7 +20923,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6876499</v>
+        <v>6875459</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20935,76 +20935,76 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F230" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G230" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K230">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L230">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M230">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N230">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O230">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P230">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R230">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S230">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T230">
         <v>2.5</v>
       </c>
       <c r="U230">
+        <v>1.95</v>
+      </c>
+      <c r="V230">
         <v>1.9</v>
       </c>
-      <c r="V230">
-        <v>1.95</v>
-      </c>
       <c r="W230">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X230">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA230">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
+        <v>-1</v>
+      </c>
+      <c r="AC230">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC230">
-        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -23326,7 +23326,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6876523</v>
+        <v>6876528</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23338,76 +23338,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F257" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G257" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K257">
-        <v>1.166</v>
+        <v>1.75</v>
       </c>
       <c r="L257">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M257">
-        <v>15</v>
+        <v>4.75</v>
       </c>
       <c r="N257">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="O257">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P257">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q257">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R257">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S257">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T257">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U257">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V257">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W257">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X257">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA257">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC257">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23415,7 +23415,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6876528</v>
+        <v>6876523</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23427,76 +23427,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F258" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G258" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H258">
+        <v>1</v>
+      </c>
+      <c r="I258">
+        <v>1</v>
+      </c>
+      <c r="J258" t="s">
+        <v>52</v>
+      </c>
+      <c r="K258">
+        <v>1.166</v>
+      </c>
+      <c r="L258">
+        <v>7</v>
+      </c>
+      <c r="M258">
+        <v>15</v>
+      </c>
+      <c r="N258">
+        <v>1.222</v>
+      </c>
+      <c r="O258">
+        <v>6</v>
+      </c>
+      <c r="P258">
+        <v>11</v>
+      </c>
+      <c r="Q258">
+        <v>-1.75</v>
+      </c>
+      <c r="R258">
+        <v>1.875</v>
+      </c>
+      <c r="S258">
+        <v>1.975</v>
+      </c>
+      <c r="T258">
+        <v>3</v>
+      </c>
+      <c r="U258">
+        <v>1.95</v>
+      </c>
+      <c r="V258">
+        <v>1.9</v>
+      </c>
+      <c r="W258">
+        <v>-1</v>
+      </c>
+      <c r="X258">
         <v>5</v>
       </c>
-      <c r="I258">
-        <v>0</v>
-      </c>
-      <c r="J258" t="s">
-        <v>51</v>
-      </c>
-      <c r="K258">
-        <v>1.75</v>
-      </c>
-      <c r="L258">
-        <v>3.6</v>
-      </c>
-      <c r="M258">
-        <v>4.75</v>
-      </c>
-      <c r="N258">
-        <v>1.666</v>
-      </c>
-      <c r="O258">
-        <v>3.75</v>
-      </c>
-      <c r="P258">
-        <v>5</v>
-      </c>
-      <c r="Q258">
-        <v>-0.75</v>
-      </c>
-      <c r="R258">
-        <v>1.9</v>
-      </c>
-      <c r="S258">
-        <v>2</v>
-      </c>
-      <c r="T258">
-        <v>2.5</v>
-      </c>
-      <c r="U258">
-        <v>1.925</v>
-      </c>
-      <c r="V258">
-        <v>1.925</v>
-      </c>
-      <c r="W258">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X258">
-        <v>-1</v>
-      </c>
       <c r="Y258">
         <v>-1</v>
       </c>
       <c r="Z258">
+        <v>-1</v>
+      </c>
+      <c r="AA258">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB258">
+        <v>-1</v>
+      </c>
+      <c r="AC258">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA258">
-        <v>-1</v>
-      </c>
-      <c r="AB258">
-        <v>0.925</v>
-      </c>
-      <c r="AC258">
-        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -25640,7 +25640,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6876552</v>
+        <v>6876549</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25652,76 +25652,76 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F283" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G283" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H283">
         <v>1</v>
       </c>
       <c r="I283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J283" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K283">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="L283">
         <v>3.4</v>
       </c>
       <c r="M283">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N283">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O283">
         <v>3.6</v>
       </c>
       <c r="P283">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q283">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R283">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S283">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T283">
         <v>2.5</v>
       </c>
       <c r="U283">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V283">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W283">
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y283">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z283">
         <v>-1</v>
       </c>
       <c r="AA283">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB283">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC283">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25729,7 +25729,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6876549</v>
+        <v>6876552</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25741,76 +25741,76 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F284" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G284" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H284">
         <v>1</v>
       </c>
       <c r="I284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J284" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K284">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L284">
         <v>3.4</v>
       </c>
       <c r="M284">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N284">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O284">
         <v>3.6</v>
       </c>
       <c r="P284">
+        <v>3.3</v>
+      </c>
+      <c r="Q284">
+        <v>-0.5</v>
+      </c>
+      <c r="R284">
         <v>2.05</v>
       </c>
-      <c r="Q284">
-        <v>0.25</v>
-      </c>
-      <c r="R284">
-        <v>2.025</v>
-      </c>
       <c r="S284">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T284">
         <v>2.5</v>
       </c>
       <c r="U284">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V284">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W284">
         <v>-1</v>
       </c>
       <c r="X284">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y284">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z284">
         <v>-1</v>
       </c>
       <c r="AA284">
+        <v>0.8</v>
+      </c>
+      <c r="AB284">
+        <v>-1</v>
+      </c>
+      <c r="AC284">
         <v>0.825</v>
-      </c>
-      <c r="AB284">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC284">
-        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -27509,7 +27509,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6876563</v>
+        <v>6875467</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27521,40 +27521,40 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F304" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G304" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I304">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J304" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K304">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="L304">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M304">
-        <v>2.55</v>
+        <v>3.9</v>
       </c>
       <c r="N304">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O304">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P304">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q304">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R304">
         <v>1.875</v>
@@ -27563,31 +27563,31 @@
         <v>1.975</v>
       </c>
       <c r="T304">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U304">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V304">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W304">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X304">
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z304">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA304">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB304">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC304">
         <v>-1</v>
@@ -27598,7 +27598,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6875467</v>
+        <v>6876563</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27610,40 +27610,40 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F305" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G305" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H305">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I305">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J305" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K305">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="L305">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M305">
-        <v>3.9</v>
+        <v>2.55</v>
       </c>
       <c r="N305">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O305">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P305">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q305">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R305">
         <v>1.875</v>
@@ -27652,31 +27652,31 @@
         <v>1.975</v>
       </c>
       <c r="T305">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U305">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V305">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W305">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X305">
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z305">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA305">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB305">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC305">
         <v>-1</v>
@@ -31158,7 +31158,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6875472</v>
+        <v>6876608</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31170,49 +31170,49 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F345" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G345" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H345">
         <v>1</v>
       </c>
       <c r="I345">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J345" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K345">
+        <v>1.727</v>
+      </c>
+      <c r="L345">
+        <v>3.6</v>
+      </c>
+      <c r="M345">
+        <v>4.75</v>
+      </c>
+      <c r="N345">
+        <v>2</v>
+      </c>
+      <c r="O345">
+        <v>3.3</v>
+      </c>
+      <c r="P345">
+        <v>4</v>
+      </c>
+      <c r="Q345">
+        <v>-0.5</v>
+      </c>
+      <c r="R345">
+        <v>2.025</v>
+      </c>
+      <c r="S345">
+        <v>1.825</v>
+      </c>
+      <c r="T345">
         <v>2.25</v>
-      </c>
-      <c r="L345">
-        <v>3.3</v>
-      </c>
-      <c r="M345">
-        <v>3.2</v>
-      </c>
-      <c r="N345">
-        <v>2.375</v>
-      </c>
-      <c r="O345">
-        <v>3.2</v>
-      </c>
-      <c r="P345">
-        <v>3.2</v>
-      </c>
-      <c r="Q345">
-        <v>-0.25</v>
-      </c>
-      <c r="R345">
-        <v>2.1</v>
-      </c>
-      <c r="S345">
-        <v>1.775</v>
-      </c>
-      <c r="T345">
-        <v>2</v>
       </c>
       <c r="U345">
         <v>1.825</v>
@@ -31221,25 +31221,25 @@
         <v>2.025</v>
       </c>
       <c r="W345">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X345">
         <v>-1</v>
       </c>
       <c r="Y345">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z345">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA345">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB345">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC345">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31247,7 +31247,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6876608</v>
+        <v>6875472</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31259,49 +31259,49 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F346" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G346" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H346">
         <v>1</v>
       </c>
       <c r="I346">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J346" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K346">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L346">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M346">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N346">
+        <v>2.375</v>
+      </c>
+      <c r="O346">
+        <v>3.2</v>
+      </c>
+      <c r="P346">
+        <v>3.2</v>
+      </c>
+      <c r="Q346">
+        <v>-0.25</v>
+      </c>
+      <c r="R346">
+        <v>2.1</v>
+      </c>
+      <c r="S346">
+        <v>1.775</v>
+      </c>
+      <c r="T346">
         <v>2</v>
-      </c>
-      <c r="O346">
-        <v>3.3</v>
-      </c>
-      <c r="P346">
-        <v>4</v>
-      </c>
-      <c r="Q346">
-        <v>-0.5</v>
-      </c>
-      <c r="R346">
-        <v>2.025</v>
-      </c>
-      <c r="S346">
-        <v>1.825</v>
-      </c>
-      <c r="T346">
-        <v>2.25</v>
       </c>
       <c r="U346">
         <v>1.825</v>
@@ -31310,25 +31310,25 @@
         <v>2.025</v>
       </c>
       <c r="W346">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X346">
         <v>-1</v>
       </c>
       <c r="Y346">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z346">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA346">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB346">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC346">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31425,7 +31425,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6876607</v>
+        <v>6876603</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31437,13 +31437,13 @@
         <v>45319.72916666666</v>
       </c>
       <c r="F348" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G348" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H348">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I348">
         <v>0</v>
@@ -31452,43 +31452,43 @@
         <v>51</v>
       </c>
       <c r="K348">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L348">
         <v>3.4</v>
       </c>
       <c r="M348">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N348">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="O348">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P348">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q348">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R348">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S348">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T348">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U348">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V348">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W348">
-        <v>0.8</v>
+        <v>2.25</v>
       </c>
       <c r="X348">
         <v>-1</v>
@@ -31497,16 +31497,16 @@
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA348">
         <v>-1</v>
       </c>
       <c r="AB348">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC348">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31514,7 +31514,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6876603</v>
+        <v>6876607</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31526,13 +31526,13 @@
         <v>45319.72916666666</v>
       </c>
       <c r="F349" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G349" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I349">
         <v>0</v>
@@ -31541,43 +31541,43 @@
         <v>51</v>
       </c>
       <c r="K349">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L349">
         <v>3.4</v>
       </c>
       <c r="M349">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N349">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="O349">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P349">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q349">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R349">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S349">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T349">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U349">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V349">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W349">
-        <v>2.25</v>
+        <v>0.8</v>
       </c>
       <c r="X349">
         <v>-1</v>
@@ -31586,16 +31586,16 @@
         <v>-1</v>
       </c>
       <c r="Z349">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA349">
         <v>-1</v>
       </c>
       <c r="AB349">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC349">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -31986,16 +31986,16 @@
         <v>2.625</v>
       </c>
       <c r="N354">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="O354">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P354">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="Q354">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R354">
         <v>1.83</v>
@@ -32007,10 +32007,10 @@
         <v>2.5</v>
       </c>
       <c r="U354">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V354">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W354">
         <v>0</v>
@@ -32063,7 +32063,7 @@
         <v>8</v>
       </c>
       <c r="O355">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P355">
         <v>1.4</v>
@@ -32072,19 +32072,19 @@
         <v>1.25</v>
       </c>
       <c r="R355">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="S355">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="T355">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U355">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V355">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W355">
         <v>0</v>
@@ -32134,10 +32134,10 @@
         <v>14</v>
       </c>
       <c r="N356">
-        <v>1.2</v>
+        <v>1.181</v>
       </c>
       <c r="O356">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="P356">
         <v>13</v>
@@ -32146,19 +32146,19 @@
         <v>-1.75</v>
       </c>
       <c r="R356">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="S356">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="T356">
         <v>3</v>
       </c>
       <c r="U356">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V356">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W356">
         <v>0</v>
@@ -32181,7 +32181,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>6876611</v>
+        <v>6876616</v>
       </c>
       <c r="C357" t="s">
         <v>28</v>
@@ -32193,46 +32193,46 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F357" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G357" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="K357">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L357">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M357">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N357">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O357">
         <v>3.4</v>
       </c>
       <c r="P357">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="Q357">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R357">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="S357">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="T357">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U357">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V357">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W357">
         <v>0</v>
@@ -32255,7 +32255,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>6876616</v>
+        <v>6876611</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32267,46 +32267,46 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F358" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G358" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="K358">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L358">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M358">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N358">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="O358">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P358">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="Q358">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R358">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="S358">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="T358">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U358">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V358">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W358">
         <v>0</v>
@@ -32359,7 +32359,7 @@
         <v>1.95</v>
       </c>
       <c r="O359">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P359">
         <v>3.6</v>
@@ -32433,7 +32433,7 @@
         <v>1.166</v>
       </c>
       <c r="O360">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="P360">
         <v>17</v>
@@ -32442,10 +32442,10 @@
         <v>-2.25</v>
       </c>
       <c r="R360">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="S360">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="T360">
         <v>3.25</v>
@@ -32507,28 +32507,28 @@
         <v>1.5</v>
       </c>
       <c r="O361">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P361">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q361">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R361">
-        <v>1.82</v>
+        <v>2.09</v>
       </c>
       <c r="S361">
-        <v>2.08</v>
+        <v>1.81</v>
       </c>
       <c r="T361">
         <v>2.75</v>
       </c>
       <c r="U361">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V361">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W361">
         <v>0</v>
@@ -32581,19 +32581,19 @@
         <v>2.3</v>
       </c>
       <c r="O362">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P362">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q362">
         <v>-0.25</v>
       </c>
       <c r="R362">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="S362">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="T362">
         <v>2.25</v>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC362"/>
+  <dimension ref="A1:AC370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3123,7 +3123,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5265613</v>
+        <v>5265726</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3135,13 +3135,13 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -3150,43 +3150,43 @@
         <v>51</v>
       </c>
       <c r="K30">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M30">
+        <v>3.5</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <v>3.3</v>
+      </c>
+      <c r="P30">
         <v>3.8</v>
-      </c>
-      <c r="N30">
-        <v>1.95</v>
-      </c>
-      <c r="O30">
-        <v>3</v>
-      </c>
-      <c r="P30">
-        <v>4.5</v>
       </c>
       <c r="Q30">
         <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V30">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W30">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3195,13 +3195,13 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3212,7 +3212,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5265726</v>
+        <v>5265613</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3224,13 +3224,13 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -3239,43 +3239,43 @@
         <v>51</v>
       </c>
       <c r="K31">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L31">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M31">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O31">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P31">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q31">
         <v>-0.5</v>
       </c>
       <c r="R31">
+        <v>1.975</v>
+      </c>
+      <c r="S31">
+        <v>1.875</v>
+      </c>
+      <c r="T31">
         <v>2</v>
       </c>
-      <c r="S31">
-        <v>1.85</v>
-      </c>
-      <c r="T31">
-        <v>2.25</v>
-      </c>
       <c r="U31">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V31">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3284,13 +3284,13 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -5615,7 +5615,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5265630</v>
+        <v>5265735</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5627,73 +5627,73 @@
         <v>44975.625</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
         <v>1</v>
       </c>
-      <c r="I58">
+      <c r="J58" t="s">
+        <v>51</v>
+      </c>
+      <c r="K58">
+        <v>2.05</v>
+      </c>
+      <c r="L58">
+        <v>3.25</v>
+      </c>
+      <c r="M58">
+        <v>3.75</v>
+      </c>
+      <c r="N58">
+        <v>2.45</v>
+      </c>
+      <c r="O58">
+        <v>3.1</v>
+      </c>
+      <c r="P58">
         <v>3</v>
       </c>
-      <c r="J58" t="s">
-        <v>50</v>
-      </c>
-      <c r="K58">
-        <v>1.95</v>
-      </c>
-      <c r="L58">
-        <v>3.3</v>
-      </c>
-      <c r="M58">
-        <v>4</v>
-      </c>
-      <c r="N58">
-        <v>2</v>
-      </c>
-      <c r="O58">
-        <v>3.2</v>
-      </c>
-      <c r="P58">
-        <v>3.8</v>
-      </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S58">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V58">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA58">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5704,7 +5704,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5265735</v>
+        <v>5265630</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5716,73 +5716,73 @@
         <v>44975.625</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+      <c r="J59" t="s">
+        <v>50</v>
+      </c>
+      <c r="K59">
+        <v>1.95</v>
+      </c>
+      <c r="L59">
+        <v>3.3</v>
+      </c>
+      <c r="M59">
+        <v>4</v>
+      </c>
+      <c r="N59">
         <v>2</v>
       </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>51</v>
-      </c>
-      <c r="K59">
-        <v>2.05</v>
-      </c>
-      <c r="L59">
-        <v>3.25</v>
-      </c>
-      <c r="M59">
-        <v>3.75</v>
-      </c>
-      <c r="N59">
-        <v>2.45</v>
-      </c>
       <c r="O59">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P59">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z59">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -8018,7 +8018,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5265642</v>
+        <v>5265747</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8030,13 +8030,13 @@
         <v>44996.52083333334</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -8045,61 +8045,61 @@
         <v>51</v>
       </c>
       <c r="K85">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L85">
+        <v>3.3</v>
+      </c>
+      <c r="M85">
         <v>3.25</v>
       </c>
-      <c r="M85">
+      <c r="N85">
+        <v>2.3</v>
+      </c>
+      <c r="O85">
+        <v>3.3</v>
+      </c>
+      <c r="P85">
         <v>3</v>
       </c>
-      <c r="N85">
+      <c r="Q85">
+        <v>-0.25</v>
+      </c>
+      <c r="R85">
         <v>2</v>
       </c>
-      <c r="O85">
-        <v>3.4</v>
-      </c>
-      <c r="P85">
-        <v>3.6</v>
-      </c>
-      <c r="Q85">
+      <c r="S85">
+        <v>1.85</v>
+      </c>
+      <c r="T85">
+        <v>2.25</v>
+      </c>
+      <c r="U85">
+        <v>1.85</v>
+      </c>
+      <c r="V85">
+        <v>2</v>
+      </c>
+      <c r="W85">
+        <v>1.3</v>
+      </c>
+      <c r="X85">
+        <v>-1</v>
+      </c>
+      <c r="Y85">
+        <v>-1</v>
+      </c>
+      <c r="Z85">
+        <v>1</v>
+      </c>
+      <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
         <v>-0.5</v>
       </c>
-      <c r="R85">
-        <v>2.05</v>
-      </c>
-      <c r="S85">
-        <v>1.8</v>
-      </c>
-      <c r="T85">
-        <v>2</v>
-      </c>
-      <c r="U85">
-        <v>1.75</v>
-      </c>
-      <c r="V85">
-        <v>2.05</v>
-      </c>
-      <c r="W85">
-        <v>1</v>
-      </c>
-      <c r="X85">
-        <v>-1</v>
-      </c>
-      <c r="Y85">
-        <v>-1</v>
-      </c>
-      <c r="Z85">
-        <v>1.05</v>
-      </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
-      <c r="AB85">
-        <v>-1</v>
-      </c>
       <c r="AC85">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8107,7 +8107,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5265747</v>
+        <v>5265642</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8119,13 +8119,13 @@
         <v>44996.52083333334</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -8134,43 +8134,43 @@
         <v>51</v>
       </c>
       <c r="K86">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L86">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M86">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N86">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O86">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
+        <v>2.05</v>
+      </c>
+      <c r="S86">
+        <v>1.8</v>
+      </c>
+      <c r="T86">
         <v>2</v>
       </c>
-      <c r="S86">
-        <v>1.85</v>
-      </c>
-      <c r="T86">
-        <v>2.25</v>
-      </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V86">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W86">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8179,16 +8179,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8908,7 +8908,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5263123</v>
+        <v>5265649</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8920,76 +8920,76 @@
         <v>45003.625</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K95">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L95">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M95">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="N95">
-        <v>1.166</v>
+        <v>2.15</v>
       </c>
       <c r="O95">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="P95">
-        <v>15</v>
+        <v>3.4</v>
       </c>
       <c r="Q95">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S95">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W95">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB95">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8997,7 +8997,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5265649</v>
+        <v>5263123</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9009,76 +9009,76 @@
         <v>45003.625</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K96">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L96">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M96">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="N96">
-        <v>2.15</v>
+        <v>1.166</v>
       </c>
       <c r="O96">
+        <v>8</v>
+      </c>
+      <c r="P96">
+        <v>15</v>
+      </c>
+      <c r="Q96">
+        <v>-2.25</v>
+      </c>
+      <c r="R96">
+        <v>2.025</v>
+      </c>
+      <c r="S96">
+        <v>1.825</v>
+      </c>
+      <c r="T96">
         <v>3.25</v>
       </c>
-      <c r="P96">
-        <v>3.4</v>
-      </c>
-      <c r="Q96">
-        <v>-0.25</v>
-      </c>
-      <c r="R96">
+      <c r="U96">
         <v>1.875</v>
       </c>
-      <c r="S96">
+      <c r="V96">
         <v>1.975</v>
       </c>
-      <c r="T96">
-        <v>2.25</v>
-      </c>
-      <c r="U96">
-        <v>1.925</v>
-      </c>
-      <c r="V96">
-        <v>1.925</v>
-      </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X96">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA96">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC96">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -11222,7 +11222,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5265670</v>
+        <v>5265669</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11234,76 +11234,76 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K121">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L121">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M121">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N121">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O121">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P121">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q121">
         <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="S121">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="T121">
         <v>2.25</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V121">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W121">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z121">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11311,7 +11311,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5265669</v>
+        <v>5265670</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11323,76 +11323,76 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K122">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L122">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M122">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N122">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P122">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q122">
         <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="S122">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="T122">
         <v>2.25</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5498498</v>
+        <v>5498499</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,10 +15239,10 @@
         <v>45066.47916666666</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15254,43 +15254,43 @@
         <v>51</v>
       </c>
       <c r="K166">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L166">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M166">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="N166">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O166">
+        <v>3.4</v>
+      </c>
+      <c r="P166">
         <v>3.6</v>
       </c>
-      <c r="P166">
-        <v>4.333</v>
-      </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
+        <v>2</v>
+      </c>
+      <c r="V166">
         <v>1.85</v>
       </c>
-      <c r="V166">
-        <v>2</v>
-      </c>
       <c r="W166">
-        <v>0.7</v>
+        <v>0.909</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15299,16 +15299,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5498499</v>
+        <v>5498498</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,10 +15328,10 @@
         <v>45066.47916666666</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15343,43 +15343,43 @@
         <v>51</v>
       </c>
       <c r="K167">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L167">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M167">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="N167">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O167">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P167">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S167">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
+        <v>1.85</v>
+      </c>
+      <c r="V167">
         <v>2</v>
       </c>
-      <c r="V167">
-        <v>1.85</v>
-      </c>
       <c r="W167">
-        <v>0.909</v>
+        <v>0.7</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15388,16 +15388,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15672,7 +15672,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>5495113</v>
+        <v>5495114</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15684,73 +15684,73 @@
         <v>45067.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G171" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K171">
         <v>2.25</v>
       </c>
       <c r="L171">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M171">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N171">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O171">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P171">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q171">
         <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="S171">
-        <v>1.93</v>
+        <v>1.775</v>
       </c>
       <c r="T171">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V171">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X171">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AA171">
-        <v>0.465</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC171">
         <v>-1</v>
@@ -15761,7 +15761,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5495114</v>
+        <v>5495113</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15773,73 +15773,73 @@
         <v>45067.58333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K172">
         <v>2.25</v>
       </c>
       <c r="L172">
+        <v>3.2</v>
+      </c>
+      <c r="M172">
+        <v>3</v>
+      </c>
+      <c r="N172">
+        <v>2.1</v>
+      </c>
+      <c r="O172">
+        <v>3.2</v>
+      </c>
+      <c r="P172">
         <v>3.25</v>
-      </c>
-      <c r="M172">
-        <v>2.875</v>
-      </c>
-      <c r="N172">
-        <v>2.3</v>
-      </c>
-      <c r="O172">
-        <v>3.25</v>
-      </c>
-      <c r="P172">
-        <v>2.8</v>
       </c>
       <c r="Q172">
         <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="S172">
-        <v>1.775</v>
+        <v>1.93</v>
       </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U172">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V172">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W172">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.465</v>
       </c>
       <c r="AB172">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -16384,7 +16384,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5540441</v>
+        <v>5549224</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16396,76 +16396,76 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K179">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="L179">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M179">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="N179">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="O179">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="P179">
-        <v>2.15</v>
+        <v>11</v>
       </c>
       <c r="Q179">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R179">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S179">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T179">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U179">
+        <v>1.825</v>
+      </c>
+      <c r="V179">
         <v>2.025</v>
       </c>
-      <c r="V179">
-        <v>1.825</v>
-      </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA179">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC179">
-        <v>0.825</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16473,7 +16473,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5549224</v>
+        <v>5540441</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16485,76 +16485,76 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K180">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="L180">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M180">
-        <v>13</v>
+        <v>2.375</v>
       </c>
       <c r="N180">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="O180">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="P180">
-        <v>11</v>
+        <v>2.15</v>
       </c>
       <c r="Q180">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S180">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T180">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U180">
+        <v>2.025</v>
+      </c>
+      <c r="V180">
         <v>1.825</v>
       </c>
-      <c r="V180">
-        <v>2.025</v>
-      </c>
       <c r="W180">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z180">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -19232,7 +19232,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6876483</v>
+        <v>6876488</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19244,76 +19244,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G211" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K211">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L211">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M211">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N211">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O211">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P211">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q211">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R211">
+        <v>1.825</v>
+      </c>
+      <c r="S211">
         <v>2.025</v>
-      </c>
-      <c r="S211">
-        <v>1.825</v>
       </c>
       <c r="T211">
         <v>2.25</v>
       </c>
       <c r="U211">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V211">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W211">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC211">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19321,7 +19321,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6876488</v>
+        <v>6876483</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19333,76 +19333,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G212" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H212">
         <v>1</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K212">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L212">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M212">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N212">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O212">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P212">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q212">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R212">
+        <v>2.025</v>
+      </c>
+      <c r="S212">
         <v>1.825</v>
-      </c>
-      <c r="S212">
-        <v>2.025</v>
       </c>
       <c r="T212">
         <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V212">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X212">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA212">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -20300,7 +20300,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7165059</v>
+        <v>7165060</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20312,40 +20312,40 @@
         <v>45186.47916666666</v>
       </c>
       <c r="F223" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G223" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H223">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I223">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K223">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L223">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M223">
         <v>3.2</v>
       </c>
       <c r="N223">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="O223">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P223">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q223">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R223">
         <v>2</v>
@@ -20354,34 +20354,34 @@
         <v>1.85</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V223">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W223">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z223">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB223">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20389,7 +20389,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7165060</v>
+        <v>7165059</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20401,40 +20401,40 @@
         <v>45186.47916666666</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G224" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J224" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K224">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L224">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M224">
         <v>3.2</v>
       </c>
       <c r="N224">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="O224">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P224">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q224">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R224">
         <v>2</v>
@@ -20443,34 +20443,34 @@
         <v>1.85</v>
       </c>
       <c r="T224">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U224">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V224">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA224">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC224">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20834,7 +20834,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6876499</v>
+        <v>6875459</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20846,76 +20846,76 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F229" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G229" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K229">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L229">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M229">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N229">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O229">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P229">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R229">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S229">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T229">
         <v>2.5</v>
       </c>
       <c r="U229">
+        <v>1.95</v>
+      </c>
+      <c r="V229">
         <v>1.9</v>
       </c>
-      <c r="V229">
-        <v>1.95</v>
-      </c>
       <c r="W229">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X229">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA229">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
+        <v>-1</v>
+      </c>
+      <c r="AC229">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC229">
-        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20923,7 +20923,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6875459</v>
+        <v>6876499</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20935,76 +20935,76 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F230" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G230" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K230">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L230">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M230">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N230">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O230">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P230">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q230">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S230">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T230">
         <v>2.5</v>
       </c>
       <c r="U230">
+        <v>1.9</v>
+      </c>
+      <c r="V230">
         <v>1.95</v>
       </c>
-      <c r="V230">
-        <v>1.9</v>
-      </c>
       <c r="W230">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC230">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -23326,7 +23326,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6876528</v>
+        <v>6876523</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23338,76 +23338,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F257" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G257" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H257">
+        <v>1</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257" t="s">
+        <v>52</v>
+      </c>
+      <c r="K257">
+        <v>1.166</v>
+      </c>
+      <c r="L257">
+        <v>7</v>
+      </c>
+      <c r="M257">
+        <v>15</v>
+      </c>
+      <c r="N257">
+        <v>1.222</v>
+      </c>
+      <c r="O257">
+        <v>6</v>
+      </c>
+      <c r="P257">
+        <v>11</v>
+      </c>
+      <c r="Q257">
+        <v>-1.75</v>
+      </c>
+      <c r="R257">
+        <v>1.875</v>
+      </c>
+      <c r="S257">
+        <v>1.975</v>
+      </c>
+      <c r="T257">
+        <v>3</v>
+      </c>
+      <c r="U257">
+        <v>1.95</v>
+      </c>
+      <c r="V257">
+        <v>1.9</v>
+      </c>
+      <c r="W257">
+        <v>-1</v>
+      </c>
+      <c r="X257">
         <v>5</v>
       </c>
-      <c r="I257">
-        <v>0</v>
-      </c>
-      <c r="J257" t="s">
-        <v>51</v>
-      </c>
-      <c r="K257">
-        <v>1.75</v>
-      </c>
-      <c r="L257">
-        <v>3.6</v>
-      </c>
-      <c r="M257">
-        <v>4.75</v>
-      </c>
-      <c r="N257">
-        <v>1.666</v>
-      </c>
-      <c r="O257">
-        <v>3.75</v>
-      </c>
-      <c r="P257">
-        <v>5</v>
-      </c>
-      <c r="Q257">
-        <v>-0.75</v>
-      </c>
-      <c r="R257">
-        <v>1.9</v>
-      </c>
-      <c r="S257">
-        <v>2</v>
-      </c>
-      <c r="T257">
-        <v>2.5</v>
-      </c>
-      <c r="U257">
-        <v>1.925</v>
-      </c>
-      <c r="V257">
-        <v>1.925</v>
-      </c>
-      <c r="W257">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X257">
-        <v>-1</v>
-      </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
+        <v>-1</v>
+      </c>
+      <c r="AA257">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB257">
+        <v>-1</v>
+      </c>
+      <c r="AC257">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA257">
-        <v>-1</v>
-      </c>
-      <c r="AB257">
-        <v>0.925</v>
-      </c>
-      <c r="AC257">
-        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23415,7 +23415,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6876523</v>
+        <v>6876528</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23427,76 +23427,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F258" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G258" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J258" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K258">
-        <v>1.166</v>
+        <v>1.75</v>
       </c>
       <c r="L258">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M258">
-        <v>15</v>
+        <v>4.75</v>
       </c>
       <c r="N258">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="O258">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P258">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q258">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R258">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S258">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T258">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U258">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V258">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W258">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X258">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y258">
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA258">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC258">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -24305,7 +24305,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6876531</v>
+        <v>6875463</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24317,76 +24317,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F268" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G268" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K268">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L268">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M268">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N268">
+        <v>2.875</v>
+      </c>
+      <c r="O268">
+        <v>3.3</v>
+      </c>
+      <c r="P268">
+        <v>2.4</v>
+      </c>
+      <c r="Q268">
+        <v>0</v>
+      </c>
+      <c r="R268">
         <v>2.1</v>
       </c>
-      <c r="O268">
-        <v>3.4</v>
-      </c>
-      <c r="P268">
-        <v>3.4</v>
-      </c>
-      <c r="Q268">
-        <v>-0.25</v>
-      </c>
-      <c r="R268">
-        <v>1.875</v>
-      </c>
       <c r="S268">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T268">
         <v>2.25</v>
       </c>
       <c r="U268">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V268">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W268">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X268">
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z268">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA268">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB268">
         <v>-1</v>
       </c>
       <c r="AC268">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24394,7 +24394,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6875463</v>
+        <v>6876531</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24406,76 +24406,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F269" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G269" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
         <v>1</v>
       </c>
-      <c r="I269">
-        <v>0</v>
-      </c>
       <c r="J269" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K269">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="L269">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M269">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N269">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="O269">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P269">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q269">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R269">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S269">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T269">
         <v>2.25</v>
       </c>
       <c r="U269">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V269">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W269">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X269">
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z269">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA269">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB269">
         <v>-1</v>
       </c>
       <c r="AC269">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -25195,7 +25195,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6876540</v>
+        <v>6876541</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25207,19 +25207,19 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F278" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G278" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H278">
         <v>1</v>
       </c>
       <c r="I278">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J278" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K278">
         <v>2</v>
@@ -25231,16 +25231,16 @@
         <v>3.6</v>
       </c>
       <c r="N278">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O278">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P278">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q278">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R278">
         <v>1.95</v>
@@ -25249,34 +25249,34 @@
         <v>1.9</v>
       </c>
       <c r="T278">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U278">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V278">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W278">
         <v>-1</v>
       </c>
       <c r="X278">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y278">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z278">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA278">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB278">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC278">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25284,7 +25284,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6876541</v>
+        <v>6876540</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25296,19 +25296,19 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F279" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G279" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H279">
         <v>1</v>
       </c>
       <c r="I279">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J279" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K279">
         <v>2</v>
@@ -25320,16 +25320,16 @@
         <v>3.6</v>
       </c>
       <c r="N279">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O279">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P279">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q279">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R279">
         <v>1.95</v>
@@ -25338,34 +25338,34 @@
         <v>1.9</v>
       </c>
       <c r="T279">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U279">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V279">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W279">
         <v>-1</v>
       </c>
       <c r="X279">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y279">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z279">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA279">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB279">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC279">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -31158,7 +31158,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6876608</v>
+        <v>6875472</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31170,49 +31170,49 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F345" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G345" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H345">
         <v>1</v>
       </c>
       <c r="I345">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J345" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K345">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L345">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M345">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N345">
+        <v>2.375</v>
+      </c>
+      <c r="O345">
+        <v>3.2</v>
+      </c>
+      <c r="P345">
+        <v>3.2</v>
+      </c>
+      <c r="Q345">
+        <v>-0.25</v>
+      </c>
+      <c r="R345">
+        <v>2.1</v>
+      </c>
+      <c r="S345">
+        <v>1.775</v>
+      </c>
+      <c r="T345">
         <v>2</v>
-      </c>
-      <c r="O345">
-        <v>3.3</v>
-      </c>
-      <c r="P345">
-        <v>4</v>
-      </c>
-      <c r="Q345">
-        <v>-0.5</v>
-      </c>
-      <c r="R345">
-        <v>2.025</v>
-      </c>
-      <c r="S345">
-        <v>1.825</v>
-      </c>
-      <c r="T345">
-        <v>2.25</v>
       </c>
       <c r="U345">
         <v>1.825</v>
@@ -31221,25 +31221,25 @@
         <v>2.025</v>
       </c>
       <c r="W345">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X345">
         <v>-1</v>
       </c>
       <c r="Y345">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z345">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA345">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB345">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC345">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31247,7 +31247,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6875472</v>
+        <v>6876608</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31259,49 +31259,49 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F346" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G346" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H346">
         <v>1</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J346" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K346">
+        <v>1.727</v>
+      </c>
+      <c r="L346">
+        <v>3.6</v>
+      </c>
+      <c r="M346">
+        <v>4.75</v>
+      </c>
+      <c r="N346">
+        <v>2</v>
+      </c>
+      <c r="O346">
+        <v>3.3</v>
+      </c>
+      <c r="P346">
+        <v>4</v>
+      </c>
+      <c r="Q346">
+        <v>-0.5</v>
+      </c>
+      <c r="R346">
+        <v>2.025</v>
+      </c>
+      <c r="S346">
+        <v>1.825</v>
+      </c>
+      <c r="T346">
         <v>2.25</v>
-      </c>
-      <c r="L346">
-        <v>3.3</v>
-      </c>
-      <c r="M346">
-        <v>3.2</v>
-      </c>
-      <c r="N346">
-        <v>2.375</v>
-      </c>
-      <c r="O346">
-        <v>3.2</v>
-      </c>
-      <c r="P346">
-        <v>3.2</v>
-      </c>
-      <c r="Q346">
-        <v>-0.25</v>
-      </c>
-      <c r="R346">
-        <v>2.1</v>
-      </c>
-      <c r="S346">
-        <v>1.775</v>
-      </c>
-      <c r="T346">
-        <v>2</v>
       </c>
       <c r="U346">
         <v>1.825</v>
@@ -31310,25 +31310,25 @@
         <v>2.025</v>
       </c>
       <c r="W346">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X346">
         <v>-1</v>
       </c>
       <c r="Y346">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z346">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA346">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB346">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC346">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31976,6 +31976,15 @@
       <c r="G354" t="s">
         <v>32</v>
       </c>
+      <c r="H354">
+        <v>1</v>
+      </c>
+      <c r="I354">
+        <v>2</v>
+      </c>
+      <c r="J354" t="s">
+        <v>50</v>
+      </c>
       <c r="K354">
         <v>2.625</v>
       </c>
@@ -31986,22 +31995,22 @@
         <v>2.625</v>
       </c>
       <c r="N354">
+        <v>3.75</v>
+      </c>
+      <c r="O354">
         <v>3.6</v>
       </c>
-      <c r="O354">
-        <v>3.5</v>
-      </c>
       <c r="P354">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Q354">
         <v>0.5</v>
       </c>
       <c r="R354">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S354">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="T354">
         <v>2.5</v>
@@ -32013,19 +32022,25 @@
         <v>1.9</v>
       </c>
       <c r="W354">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X354">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z354">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA354">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB354">
+        <v>0.95</v>
+      </c>
+      <c r="AC354">
+        <v>-1</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -32033,7 +32048,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>7758960</v>
+        <v>6876615</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32042,43 +32057,52 @@
         <v>28</v>
       </c>
       <c r="E355" s="2">
-        <v>45325.625</v>
+        <v>45325.72916666666</v>
       </c>
       <c r="F355" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G355" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="H355">
+        <v>0</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="J355" t="s">
+        <v>52</v>
       </c>
       <c r="K355">
-        <v>7.5</v>
+        <v>1.181</v>
       </c>
       <c r="L355">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M355">
-        <v>1.4</v>
+        <v>14</v>
       </c>
       <c r="N355">
-        <v>8</v>
+        <v>1.181</v>
       </c>
       <c r="O355">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="P355">
-        <v>1.4</v>
+        <v>17</v>
       </c>
       <c r="Q355">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R355">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S355">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="T355">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U355">
         <v>1.825</v>
@@ -32087,19 +32111,25 @@
         <v>2.025</v>
       </c>
       <c r="W355">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X355">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y355">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z355">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA355">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB355">
+        <v>-1</v>
+      </c>
+      <c r="AC355">
+        <v>1.025</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -32107,7 +32137,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>6876615</v>
+        <v>6876611</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32116,64 +32146,79 @@
         <v>28</v>
       </c>
       <c r="E356" s="2">
-        <v>45325.72916666666</v>
+        <v>45326.52083333334</v>
       </c>
       <c r="F356" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G356" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="H356">
+        <v>0</v>
+      </c>
+      <c r="I356">
+        <v>1</v>
+      </c>
+      <c r="J356" t="s">
+        <v>50</v>
       </c>
       <c r="K356">
-        <v>1.181</v>
+        <v>3.1</v>
       </c>
       <c r="L356">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="M356">
-        <v>14</v>
+        <v>2.3</v>
       </c>
       <c r="N356">
-        <v>1.181</v>
+        <v>4.2</v>
       </c>
       <c r="O356">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="P356">
-        <v>13</v>
+        <v>1.85</v>
       </c>
       <c r="Q356">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R356">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S356">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T356">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U356">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V356">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W356">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X356">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y356">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z356">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA356">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB356">
+        <v>-1</v>
+      </c>
+      <c r="AC356">
+        <v>0.8</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -32198,6 +32243,15 @@
       <c r="G357" t="s">
         <v>47</v>
       </c>
+      <c r="H357">
+        <v>1</v>
+      </c>
+      <c r="I357">
+        <v>1</v>
+      </c>
+      <c r="J357" t="s">
+        <v>52</v>
+      </c>
       <c r="K357">
         <v>2.8</v>
       </c>
@@ -32208,46 +32262,52 @@
         <v>2.5</v>
       </c>
       <c r="N357">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O357">
         <v>3.4</v>
       </c>
       <c r="P357">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q357">
         <v>-0.25</v>
       </c>
       <c r="R357">
-        <v>2.06</v>
+        <v>1.975</v>
       </c>
       <c r="S357">
-        <v>1.84</v>
+        <v>1.875</v>
       </c>
       <c r="T357">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U357">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V357">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W357">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X357">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y357">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z357">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA357">
-        <v>0</v>
+        <v>0.4375</v>
+      </c>
+      <c r="AB357">
+        <v>-0.5</v>
+      </c>
+      <c r="AC357">
+        <v>0.4625</v>
       </c>
     </row>
     <row r="358" spans="1:29">
@@ -32255,7 +32315,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>6876611</v>
+        <v>7758961</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32264,64 +32324,79 @@
         <v>28</v>
       </c>
       <c r="E358" s="2">
-        <v>45326.52083333334</v>
+        <v>45326.625</v>
       </c>
       <c r="F358" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G358" t="s">
-        <v>33</v>
+        <v>45</v>
+      </c>
+      <c r="H358">
+        <v>3</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358" t="s">
+        <v>51</v>
       </c>
       <c r="K358">
-        <v>3.1</v>
+        <v>1.181</v>
       </c>
       <c r="L358">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="M358">
-        <v>2.3</v>
+        <v>14</v>
       </c>
       <c r="N358">
-        <v>3.5</v>
+        <v>1.142</v>
       </c>
       <c r="O358">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="P358">
-        <v>2.1</v>
+        <v>15</v>
       </c>
       <c r="Q358">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R358">
-        <v>2.04</v>
+        <v>1.825</v>
       </c>
       <c r="S358">
-        <v>1.86</v>
+        <v>2.025</v>
       </c>
       <c r="T358">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U358">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V358">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W358">
-        <v>0</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X358">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y358">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z358">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA358">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB358">
+        <v>-0.5</v>
+      </c>
+      <c r="AC358">
+        <v>0.5125</v>
       </c>
     </row>
     <row r="359" spans="1:29">
@@ -32346,6 +32421,15 @@
       <c r="G359" t="s">
         <v>48</v>
       </c>
+      <c r="H359">
+        <v>1</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359" t="s">
+        <v>51</v>
+      </c>
       <c r="K359">
         <v>2.2</v>
       </c>
@@ -32356,22 +32440,22 @@
         <v>3.2</v>
       </c>
       <c r="N359">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O359">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P359">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q359">
         <v>-0.5</v>
       </c>
       <c r="R359">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="S359">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="T359">
         <v>2.5</v>
@@ -32383,19 +32467,25 @@
         <v>1.875</v>
       </c>
       <c r="W359">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X359">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y359">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z359">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AA359">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB359">
+        <v>-1</v>
+      </c>
+      <c r="AC359">
+        <v>0.875</v>
       </c>
     </row>
     <row r="360" spans="1:29">
@@ -32403,7 +32493,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7758961</v>
+        <v>7758959</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32412,64 +32502,79 @@
         <v>28</v>
       </c>
       <c r="E360" s="2">
-        <v>45326.625</v>
+        <v>45326.72916666666</v>
       </c>
       <c r="F360" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G360" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="H360">
+        <v>1</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360" t="s">
+        <v>51</v>
       </c>
       <c r="K360">
-        <v>1.181</v>
+        <v>1.444</v>
       </c>
       <c r="L360">
+        <v>4.333</v>
+      </c>
+      <c r="M360">
         <v>7</v>
       </c>
-      <c r="M360">
-        <v>14</v>
-      </c>
       <c r="N360">
-        <v>1.166</v>
+        <v>1.45</v>
       </c>
       <c r="O360">
+        <v>4.333</v>
+      </c>
+      <c r="P360">
         <v>7.5</v>
       </c>
-      <c r="P360">
-        <v>17</v>
-      </c>
       <c r="Q360">
-        <v>-2.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R360">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="S360">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="T360">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U360">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V360">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W360">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="X360">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y360">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z360">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA360">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="AB360">
+        <v>-1</v>
+      </c>
+      <c r="AC360">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32477,7 +32582,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7758959</v>
+        <v>6876612</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32486,64 +32591,79 @@
         <v>28</v>
       </c>
       <c r="E361" s="2">
-        <v>45326.72916666666</v>
+        <v>45327.71875</v>
       </c>
       <c r="F361" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G361" t="s">
-        <v>49</v>
+        <v>37</v>
+      </c>
+      <c r="H361">
+        <v>0</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361" t="s">
+        <v>52</v>
       </c>
       <c r="K361">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L361">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M361">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="N361">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="O361">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P361">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="Q361">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R361">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="S361">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="T361">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U361">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V361">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W361">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X361">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y361">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z361">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA361">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB361">
+        <v>-1</v>
+      </c>
+      <c r="AC361">
+        <v>1.025</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -32551,7 +32671,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>6876612</v>
+        <v>6876625</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32560,63 +32680,655 @@
         <v>28</v>
       </c>
       <c r="E362" s="2">
-        <v>45327.71875</v>
+        <v>45331.71875</v>
       </c>
       <c r="F362" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G362" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K362">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L362">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M362">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N362">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O362">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P362">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q362">
         <v>-0.25</v>
       </c>
       <c r="R362">
+        <v>1.82</v>
+      </c>
+      <c r="S362">
+        <v>2.08</v>
+      </c>
+      <c r="T362">
+        <v>2.5</v>
+      </c>
+      <c r="U362">
+        <v>1.975</v>
+      </c>
+      <c r="V362">
+        <v>1.875</v>
+      </c>
+      <c r="W362">
+        <v>0</v>
+      </c>
+      <c r="X362">
+        <v>0</v>
+      </c>
+      <c r="Y362">
+        <v>0</v>
+      </c>
+      <c r="Z362">
+        <v>0</v>
+      </c>
+      <c r="AA362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:29">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>6876620</v>
+      </c>
+      <c r="C363" t="s">
+        <v>28</v>
+      </c>
+      <c r="D363" t="s">
+        <v>28</v>
+      </c>
+      <c r="E363" s="2">
+        <v>45332.52083333334</v>
+      </c>
+      <c r="F363" t="s">
+        <v>47</v>
+      </c>
+      <c r="G363" t="s">
+        <v>31</v>
+      </c>
+      <c r="K363">
+        <v>2.7</v>
+      </c>
+      <c r="L363">
+        <v>3.2</v>
+      </c>
+      <c r="M363">
+        <v>2.625</v>
+      </c>
+      <c r="N363">
+        <v>2.7</v>
+      </c>
+      <c r="O363">
+        <v>3.2</v>
+      </c>
+      <c r="P363">
+        <v>2.75</v>
+      </c>
+      <c r="Q363">
+        <v>0</v>
+      </c>
+      <c r="R363">
+        <v>1.93</v>
+      </c>
+      <c r="S363">
+        <v>1.97</v>
+      </c>
+      <c r="T363">
+        <v>2.25</v>
+      </c>
+      <c r="U363">
+        <v>2</v>
+      </c>
+      <c r="V363">
+        <v>1.85</v>
+      </c>
+      <c r="W363">
+        <v>0</v>
+      </c>
+      <c r="X363">
+        <v>0</v>
+      </c>
+      <c r="Y363">
+        <v>0</v>
+      </c>
+      <c r="Z363">
+        <v>0</v>
+      </c>
+      <c r="AA363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:29">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>6875474</v>
+      </c>
+      <c r="C364" t="s">
+        <v>28</v>
+      </c>
+      <c r="D364" t="s">
+        <v>28</v>
+      </c>
+      <c r="E364" s="2">
+        <v>45332.625</v>
+      </c>
+      <c r="F364" t="s">
+        <v>49</v>
+      </c>
+      <c r="G364" t="s">
+        <v>42</v>
+      </c>
+      <c r="K364">
+        <v>1.727</v>
+      </c>
+      <c r="L364">
+        <v>3.75</v>
+      </c>
+      <c r="M364">
+        <v>4.5</v>
+      </c>
+      <c r="N364">
+        <v>1.833</v>
+      </c>
+      <c r="O364">
+        <v>3.5</v>
+      </c>
+      <c r="P364">
+        <v>4.5</v>
+      </c>
+      <c r="Q364">
+        <v>-0.5</v>
+      </c>
+      <c r="R364">
+        <v>1.84</v>
+      </c>
+      <c r="S364">
+        <v>2.06</v>
+      </c>
+      <c r="T364">
+        <v>2.25</v>
+      </c>
+      <c r="U364">
+        <v>1.8</v>
+      </c>
+      <c r="V364">
         <v>2.05</v>
       </c>
-      <c r="S362">
+      <c r="W364">
+        <v>0</v>
+      </c>
+      <c r="X364">
+        <v>0</v>
+      </c>
+      <c r="Y364">
+        <v>0</v>
+      </c>
+      <c r="Z364">
+        <v>0</v>
+      </c>
+      <c r="AA364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:29">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>6876623</v>
+      </c>
+      <c r="C365" t="s">
+        <v>28</v>
+      </c>
+      <c r="D365" t="s">
+        <v>28</v>
+      </c>
+      <c r="E365" s="2">
+        <v>45332.72916666666</v>
+      </c>
+      <c r="F365" t="s">
+        <v>37</v>
+      </c>
+      <c r="G365" t="s">
+        <v>44</v>
+      </c>
+      <c r="K365">
+        <v>2.2</v>
+      </c>
+      <c r="L365">
+        <v>3.25</v>
+      </c>
+      <c r="M365">
+        <v>3.3</v>
+      </c>
+      <c r="N365">
+        <v>2.6</v>
+      </c>
+      <c r="O365">
+        <v>3.2</v>
+      </c>
+      <c r="P365">
+        <v>2.8</v>
+      </c>
+      <c r="Q365">
+        <v>0</v>
+      </c>
+      <c r="R365">
+        <v>1.83</v>
+      </c>
+      <c r="S365">
+        <v>2.07</v>
+      </c>
+      <c r="T365">
+        <v>2.25</v>
+      </c>
+      <c r="U365">
+        <v>1.8</v>
+      </c>
+      <c r="V365">
+        <v>2.05</v>
+      </c>
+      <c r="W365">
+        <v>0</v>
+      </c>
+      <c r="X365">
+        <v>0</v>
+      </c>
+      <c r="Y365">
+        <v>0</v>
+      </c>
+      <c r="Z365">
+        <v>0</v>
+      </c>
+      <c r="AA365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:29">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>6876621</v>
+      </c>
+      <c r="C366" t="s">
+        <v>28</v>
+      </c>
+      <c r="D366" t="s">
+        <v>28</v>
+      </c>
+      <c r="E366" s="2">
+        <v>45333.52083333334</v>
+      </c>
+      <c r="F366" t="s">
+        <v>40</v>
+      </c>
+      <c r="G366" t="s">
+        <v>34</v>
+      </c>
+      <c r="K366">
+        <v>2.2</v>
+      </c>
+      <c r="L366">
+        <v>3.25</v>
+      </c>
+      <c r="M366">
+        <v>3.3</v>
+      </c>
+      <c r="N366">
+        <v>2</v>
+      </c>
+      <c r="O366">
+        <v>3.3</v>
+      </c>
+      <c r="P366">
+        <v>4</v>
+      </c>
+      <c r="Q366">
+        <v>-0.5</v>
+      </c>
+      <c r="R366">
+        <v>2.04</v>
+      </c>
+      <c r="S366">
+        <v>1.86</v>
+      </c>
+      <c r="T366">
+        <v>2.25</v>
+      </c>
+      <c r="U366">
+        <v>2.1</v>
+      </c>
+      <c r="V366">
+        <v>1.775</v>
+      </c>
+      <c r="W366">
+        <v>0</v>
+      </c>
+      <c r="X366">
+        <v>0</v>
+      </c>
+      <c r="Y366">
+        <v>0</v>
+      </c>
+      <c r="Z366">
+        <v>0</v>
+      </c>
+      <c r="AA366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:29">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>6876619</v>
+      </c>
+      <c r="C367" t="s">
+        <v>28</v>
+      </c>
+      <c r="D367" t="s">
+        <v>28</v>
+      </c>
+      <c r="E367" s="2">
+        <v>45333.625</v>
+      </c>
+      <c r="F367" t="s">
+        <v>46</v>
+      </c>
+      <c r="G367" t="s">
+        <v>41</v>
+      </c>
+      <c r="K367">
+        <v>1.5</v>
+      </c>
+      <c r="L367">
+        <v>4.5</v>
+      </c>
+      <c r="M367">
+        <v>6</v>
+      </c>
+      <c r="N367">
+        <v>1.5</v>
+      </c>
+      <c r="O367">
+        <v>4.5</v>
+      </c>
+      <c r="P367">
+        <v>6.25</v>
+      </c>
+      <c r="Q367">
+        <v>-1.25</v>
+      </c>
+      <c r="R367">
+        <v>2.06</v>
+      </c>
+      <c r="S367">
+        <v>1.84</v>
+      </c>
+      <c r="T367">
+        <v>3</v>
+      </c>
+      <c r="U367">
+        <v>1.9</v>
+      </c>
+      <c r="V367">
+        <v>1.95</v>
+      </c>
+      <c r="W367">
+        <v>0</v>
+      </c>
+      <c r="X367">
+        <v>0</v>
+      </c>
+      <c r="Y367">
+        <v>0</v>
+      </c>
+      <c r="Z367">
+        <v>0</v>
+      </c>
+      <c r="AA367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:29">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>6876618</v>
+      </c>
+      <c r="C368" t="s">
+        <v>28</v>
+      </c>
+      <c r="D368" t="s">
+        <v>28</v>
+      </c>
+      <c r="E368" s="2">
+        <v>45333.72916666666</v>
+      </c>
+      <c r="F368" t="s">
+        <v>33</v>
+      </c>
+      <c r="G368" t="s">
+        <v>30</v>
+      </c>
+      <c r="K368">
+        <v>5</v>
+      </c>
+      <c r="L368">
+        <v>4</v>
+      </c>
+      <c r="M368">
+        <v>1.615</v>
+      </c>
+      <c r="N368">
+        <v>6</v>
+      </c>
+      <c r="O368">
+        <v>4</v>
+      </c>
+      <c r="P368">
+        <v>1.571</v>
+      </c>
+      <c r="Q368">
+        <v>1</v>
+      </c>
+      <c r="R368">
         <v>1.85</v>
       </c>
-      <c r="T362">
-        <v>2.25</v>
-      </c>
-      <c r="U362">
-        <v>1.9</v>
-      </c>
-      <c r="V362">
-        <v>1.95</v>
-      </c>
-      <c r="W362">
-        <v>0</v>
-      </c>
-      <c r="X362">
-        <v>0</v>
-      </c>
-      <c r="Y362">
-        <v>0</v>
-      </c>
-      <c r="Z362">
-        <v>0</v>
-      </c>
-      <c r="AA362">
+      <c r="S368">
+        <v>2.05</v>
+      </c>
+      <c r="T368">
+        <v>2.75</v>
+      </c>
+      <c r="U368">
+        <v>2.025</v>
+      </c>
+      <c r="V368">
+        <v>1.825</v>
+      </c>
+      <c r="W368">
+        <v>0</v>
+      </c>
+      <c r="X368">
+        <v>0</v>
+      </c>
+      <c r="Y368">
+        <v>0</v>
+      </c>
+      <c r="Z368">
+        <v>0</v>
+      </c>
+      <c r="AA368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:27">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>6876622</v>
+      </c>
+      <c r="C369" t="s">
+        <v>28</v>
+      </c>
+      <c r="D369" t="s">
+        <v>28</v>
+      </c>
+      <c r="E369" s="2">
+        <v>45334.71875</v>
+      </c>
+      <c r="F369" t="s">
+        <v>32</v>
+      </c>
+      <c r="G369" t="s">
+        <v>43</v>
+      </c>
+      <c r="K369">
+        <v>7.5</v>
+      </c>
+      <c r="L369">
+        <v>4.5</v>
+      </c>
+      <c r="M369">
+        <v>1.4</v>
+      </c>
+      <c r="N369">
+        <v>7.5</v>
+      </c>
+      <c r="O369">
+        <v>4</v>
+      </c>
+      <c r="P369">
+        <v>1.5</v>
+      </c>
+      <c r="Q369">
+        <v>1</v>
+      </c>
+      <c r="R369">
+        <v>2.08</v>
+      </c>
+      <c r="S369">
+        <v>1.82</v>
+      </c>
+      <c r="T369">
+        <v>2.5</v>
+      </c>
+      <c r="U369">
+        <v>1.825</v>
+      </c>
+      <c r="V369">
+        <v>2.025</v>
+      </c>
+      <c r="W369">
+        <v>0</v>
+      </c>
+      <c r="X369">
+        <v>0</v>
+      </c>
+      <c r="Y369">
+        <v>0</v>
+      </c>
+      <c r="Z369">
+        <v>0</v>
+      </c>
+      <c r="AA369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:27">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>6876624</v>
+      </c>
+      <c r="C370" t="s">
+        <v>28</v>
+      </c>
+      <c r="D370" t="s">
+        <v>28</v>
+      </c>
+      <c r="E370" s="2">
+        <v>45335.52083333334</v>
+      </c>
+      <c r="F370" t="s">
+        <v>45</v>
+      </c>
+      <c r="G370" t="s">
+        <v>39</v>
+      </c>
+      <c r="K370">
+        <v>1.909</v>
+      </c>
+      <c r="L370">
+        <v>3.6</v>
+      </c>
+      <c r="M370">
+        <v>3.8</v>
+      </c>
+      <c r="N370">
+        <v>2.05</v>
+      </c>
+      <c r="O370">
+        <v>3.5</v>
+      </c>
+      <c r="P370">
+        <v>3.6</v>
+      </c>
+      <c r="Q370">
+        <v>-0.5</v>
+      </c>
+      <c r="R370">
+        <v>2.06</v>
+      </c>
+      <c r="S370">
+        <v>1.84</v>
+      </c>
+      <c r="T370">
+        <v>2.5</v>
+      </c>
+      <c r="U370">
+        <v>1.925</v>
+      </c>
+      <c r="V370">
+        <v>1.925</v>
+      </c>
+      <c r="W370">
+        <v>0</v>
+      </c>
+      <c r="X370">
+        <v>0</v>
+      </c>
+      <c r="Y370">
+        <v>0</v>
+      </c>
+      <c r="Z370">
+        <v>0</v>
+      </c>
+      <c r="AA370">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC370"/>
+  <dimension ref="A1:AC367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4191,7 +4191,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5265729</v>
+        <v>5265728</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4203,13 +4203,13 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -4218,43 +4218,43 @@
         <v>51</v>
       </c>
       <c r="K42">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="L42">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M42">
-        <v>4.333</v>
+        <v>9.5</v>
       </c>
       <c r="N42">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="O42">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P42">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
-        <v>1.2</v>
+        <v>0.55</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4263,13 +4263,13 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.8999999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4280,7 +4280,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5265728</v>
+        <v>5265729</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4292,13 +4292,13 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -4307,43 +4307,43 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="L43">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M43">
-        <v>9.5</v>
+        <v>4.333</v>
       </c>
       <c r="N43">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P43">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="S43">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
-        <v>0.55</v>
+        <v>1.2</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4352,13 +4352,13 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>1.01</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -8018,7 +8018,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5265747</v>
+        <v>5265642</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8030,13 +8030,13 @@
         <v>44996.52083333334</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -8045,43 +8045,43 @@
         <v>51</v>
       </c>
       <c r="K85">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L85">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M85">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O85">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
+        <v>2.05</v>
+      </c>
+      <c r="S85">
+        <v>1.8</v>
+      </c>
+      <c r="T85">
         <v>2</v>
       </c>
-      <c r="S85">
-        <v>1.85</v>
-      </c>
-      <c r="T85">
-        <v>2.25</v>
-      </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W85">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8090,16 +8090,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8107,7 +8107,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5265642</v>
+        <v>5265747</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8119,13 +8119,13 @@
         <v>44996.52083333334</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -8134,61 +8134,61 @@
         <v>51</v>
       </c>
       <c r="K86">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L86">
+        <v>3.3</v>
+      </c>
+      <c r="M86">
         <v>3.25</v>
       </c>
-      <c r="M86">
+      <c r="N86">
+        <v>2.3</v>
+      </c>
+      <c r="O86">
+        <v>3.3</v>
+      </c>
+      <c r="P86">
         <v>3</v>
       </c>
-      <c r="N86">
+      <c r="Q86">
+        <v>-0.25</v>
+      </c>
+      <c r="R86">
         <v>2</v>
       </c>
-      <c r="O86">
-        <v>3.4</v>
-      </c>
-      <c r="P86">
-        <v>3.6</v>
-      </c>
-      <c r="Q86">
+      <c r="S86">
+        <v>1.85</v>
+      </c>
+      <c r="T86">
+        <v>2.25</v>
+      </c>
+      <c r="U86">
+        <v>1.85</v>
+      </c>
+      <c r="V86">
+        <v>2</v>
+      </c>
+      <c r="W86">
+        <v>1.3</v>
+      </c>
+      <c r="X86">
+        <v>-1</v>
+      </c>
+      <c r="Y86">
+        <v>-1</v>
+      </c>
+      <c r="Z86">
+        <v>1</v>
+      </c>
+      <c r="AA86">
+        <v>-1</v>
+      </c>
+      <c r="AB86">
         <v>-0.5</v>
       </c>
-      <c r="R86">
-        <v>2.05</v>
-      </c>
-      <c r="S86">
-        <v>1.8</v>
-      </c>
-      <c r="T86">
-        <v>2</v>
-      </c>
-      <c r="U86">
-        <v>1.75</v>
-      </c>
-      <c r="V86">
-        <v>2.05</v>
-      </c>
-      <c r="W86">
-        <v>1</v>
-      </c>
-      <c r="X86">
-        <v>-1</v>
-      </c>
-      <c r="Y86">
-        <v>-1</v>
-      </c>
-      <c r="Z86">
-        <v>1.05</v>
-      </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
-      <c r="AB86">
-        <v>-1</v>
-      </c>
       <c r="AC86">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -11222,7 +11222,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5265669</v>
+        <v>5265670</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11234,76 +11234,76 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K121">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L121">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M121">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N121">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O121">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P121">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q121">
         <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="S121">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="T121">
         <v>2.25</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA121">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11311,7 +11311,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5265670</v>
+        <v>5265669</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11323,76 +11323,76 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K122">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L122">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M122">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N122">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O122">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P122">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q122">
         <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="S122">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
         <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W122">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z122">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5265682</v>
+        <v>5265761</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,76 +13014,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K141">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M141">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="N141">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O141">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P141">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="S141">
-        <v>1.98</v>
+        <v>1.925</v>
       </c>
       <c r="T141">
         <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA141">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5265761</v>
+        <v>5265682</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,76 +13103,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K142">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="N142">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O142">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.925</v>
+        <v>1.92</v>
       </c>
       <c r="S142">
-        <v>1.925</v>
+        <v>1.98</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W142">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z142">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC142">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -14426,7 +14426,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5462477</v>
+        <v>5473931</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14438,76 +14438,76 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F157" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K157">
+        <v>2.05</v>
+      </c>
+      <c r="L157">
+        <v>3.3</v>
+      </c>
+      <c r="M157">
+        <v>3.4</v>
+      </c>
+      <c r="N157">
+        <v>2.1</v>
+      </c>
+      <c r="O157">
+        <v>3.4</v>
+      </c>
+      <c r="P157">
+        <v>3.1</v>
+      </c>
+      <c r="Q157">
+        <v>-0.25</v>
+      </c>
+      <c r="R157">
+        <v>1.875</v>
+      </c>
+      <c r="S157">
+        <v>1.975</v>
+      </c>
+      <c r="T157">
         <v>2.5</v>
       </c>
-      <c r="L157">
-        <v>3.2</v>
-      </c>
-      <c r="M157">
-        <v>2.6</v>
-      </c>
-      <c r="N157">
-        <v>2.55</v>
-      </c>
-      <c r="O157">
-        <v>3.2</v>
-      </c>
-      <c r="P157">
-        <v>2.55</v>
-      </c>
-      <c r="Q157">
-        <v>0</v>
-      </c>
-      <c r="R157">
+      <c r="U157">
         <v>1.9</v>
       </c>
-      <c r="S157">
+      <c r="V157">
         <v>1.95</v>
       </c>
-      <c r="T157">
-        <v>2.25</v>
-      </c>
-      <c r="U157">
-        <v>1.875</v>
-      </c>
-      <c r="V157">
-        <v>1.975</v>
-      </c>
       <c r="W157">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X157">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA157">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14515,7 +14515,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>5473931</v>
+        <v>5462477</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14527,76 +14527,76 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K158">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L158">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M158">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N158">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O158">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P158">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q158">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R158">
+        <v>1.9</v>
+      </c>
+      <c r="S158">
+        <v>1.95</v>
+      </c>
+      <c r="T158">
+        <v>2.25</v>
+      </c>
+      <c r="U158">
         <v>1.875</v>
       </c>
-      <c r="S158">
+      <c r="V158">
         <v>1.975</v>
       </c>
-      <c r="T158">
-        <v>2.5</v>
-      </c>
-      <c r="U158">
-        <v>1.9</v>
-      </c>
-      <c r="V158">
-        <v>1.95</v>
-      </c>
       <c r="W158">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB158">
         <v>-1</v>
       </c>
       <c r="AC158">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5498499</v>
+        <v>5498498</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,10 +15239,10 @@
         <v>45066.47916666666</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15254,43 +15254,43 @@
         <v>51</v>
       </c>
       <c r="K166">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L166">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M166">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="N166">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O166">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q166">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S166">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
+        <v>1.85</v>
+      </c>
+      <c r="V166">
         <v>2</v>
       </c>
-      <c r="V166">
-        <v>1.85</v>
-      </c>
       <c r="W166">
-        <v>0.909</v>
+        <v>0.7</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15299,16 +15299,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5498498</v>
+        <v>5498499</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,10 +15328,10 @@
         <v>45066.47916666666</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15343,43 +15343,43 @@
         <v>51</v>
       </c>
       <c r="K167">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L167">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M167">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="N167">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O167">
+        <v>3.4</v>
+      </c>
+      <c r="P167">
         <v>3.6</v>
       </c>
-      <c r="P167">
-        <v>4.333</v>
-      </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S167">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
+        <v>2</v>
+      </c>
+      <c r="V167">
         <v>1.85</v>
       </c>
-      <c r="V167">
-        <v>2</v>
-      </c>
       <c r="W167">
-        <v>0.7</v>
+        <v>0.909</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15388,16 +15388,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15672,7 +15672,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>5495114</v>
+        <v>5495113</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15684,73 +15684,73 @@
         <v>45067.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K171">
         <v>2.25</v>
       </c>
       <c r="L171">
+        <v>3.2</v>
+      </c>
+      <c r="M171">
+        <v>3</v>
+      </c>
+      <c r="N171">
+        <v>2.1</v>
+      </c>
+      <c r="O171">
+        <v>3.2</v>
+      </c>
+      <c r="P171">
         <v>3.25</v>
-      </c>
-      <c r="M171">
-        <v>2.875</v>
-      </c>
-      <c r="N171">
-        <v>2.3</v>
-      </c>
-      <c r="O171">
-        <v>3.25</v>
-      </c>
-      <c r="P171">
-        <v>2.8</v>
       </c>
       <c r="Q171">
         <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="S171">
-        <v>1.775</v>
+        <v>1.93</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U171">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V171">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W171">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.465</v>
       </c>
       <c r="AB171">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC171">
         <v>-1</v>
@@ -15761,7 +15761,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5495113</v>
+        <v>5495114</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15773,73 +15773,73 @@
         <v>45067.58333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K172">
         <v>2.25</v>
       </c>
       <c r="L172">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M172">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N172">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O172">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P172">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q172">
         <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="S172">
-        <v>1.93</v>
+        <v>1.775</v>
       </c>
       <c r="T172">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V172">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X172">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AA172">
-        <v>0.465</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5540309</v>
+        <v>5534723</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,73 +16218,73 @@
         <v>45073.47916666666</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H177">
+        <v>3</v>
+      </c>
+      <c r="I177">
         <v>1</v>
       </c>
-      <c r="I177">
-        <v>4</v>
-      </c>
       <c r="J177" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K177">
         <v>2</v>
       </c>
       <c r="L177">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M177">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N177">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O177">
         <v>3.5</v>
       </c>
       <c r="P177">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q177">
         <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5534723</v>
+        <v>5540309</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,73 +16307,73 @@
         <v>45073.47916666666</v>
       </c>
       <c r="F178" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G178" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J178" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K178">
         <v>2</v>
       </c>
       <c r="L178">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M178">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N178">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O178">
         <v>3.5</v>
       </c>
       <c r="P178">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q178">
         <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S178">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T178">
         <v>2.75</v>
       </c>
       <c r="U178">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V178">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z178">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB178">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -17808,7 +17808,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6876471</v>
+        <v>6876465</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17820,76 +17820,76 @@
         <v>45157.6875</v>
       </c>
       <c r="F195" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G195" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K195">
-        <v>2.45</v>
+        <v>1.125</v>
       </c>
       <c r="L195">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M195">
-        <v>2.875</v>
+        <v>19</v>
       </c>
       <c r="N195">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="O195">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P195">
-        <v>2.3</v>
+        <v>17</v>
       </c>
       <c r="Q195">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R195">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S195">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T195">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U195">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V195">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA195">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB195">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17897,7 +17897,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6876465</v>
+        <v>6876471</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17909,76 +17909,76 @@
         <v>45157.6875</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G196" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196">
+        <v>4</v>
+      </c>
+      <c r="J196" t="s">
+        <v>50</v>
+      </c>
+      <c r="K196">
+        <v>2.45</v>
+      </c>
+      <c r="L196">
+        <v>3.25</v>
+      </c>
+      <c r="M196">
+        <v>2.875</v>
+      </c>
+      <c r="N196">
+        <v>3</v>
+      </c>
+      <c r="O196">
+        <v>3.3</v>
+      </c>
+      <c r="P196">
+        <v>2.3</v>
+      </c>
+      <c r="Q196">
+        <v>0.25</v>
+      </c>
+      <c r="R196">
+        <v>1.85</v>
+      </c>
+      <c r="S196">
         <v>2</v>
       </c>
-      <c r="I196">
-        <v>0</v>
-      </c>
-      <c r="J196" t="s">
-        <v>51</v>
-      </c>
-      <c r="K196">
-        <v>1.125</v>
-      </c>
-      <c r="L196">
-        <v>8</v>
-      </c>
-      <c r="M196">
-        <v>19</v>
-      </c>
-      <c r="N196">
-        <v>1.142</v>
-      </c>
-      <c r="O196">
-        <v>7.5</v>
-      </c>
-      <c r="P196">
-        <v>17</v>
-      </c>
-      <c r="Q196">
-        <v>-2.25</v>
-      </c>
-      <c r="R196">
+      <c r="T196">
+        <v>2.25</v>
+      </c>
+      <c r="U196">
         <v>1.925</v>
       </c>
-      <c r="S196">
+      <c r="V196">
         <v>1.925</v>
       </c>
-      <c r="T196">
-        <v>3.5</v>
-      </c>
-      <c r="U196">
-        <v>1.875</v>
-      </c>
-      <c r="V196">
-        <v>1.975</v>
-      </c>
       <c r="W196">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z196">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC196">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -19232,7 +19232,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6876488</v>
+        <v>6876483</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19244,76 +19244,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G211" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K211">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L211">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M211">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N211">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O211">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P211">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q211">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R211">
+        <v>2.025</v>
+      </c>
+      <c r="S211">
         <v>1.825</v>
-      </c>
-      <c r="S211">
-        <v>2.025</v>
       </c>
       <c r="T211">
         <v>2.25</v>
       </c>
       <c r="U211">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V211">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X211">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA211">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19321,7 +19321,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6876483</v>
+        <v>6876488</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19333,76 +19333,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H212">
         <v>1</v>
       </c>
       <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212" t="s">
+        <v>52</v>
+      </c>
+      <c r="K212">
+        <v>2.75</v>
+      </c>
+      <c r="L212">
+        <v>3.2</v>
+      </c>
+      <c r="M212">
+        <v>2.6</v>
+      </c>
+      <c r="N212">
+        <v>2.55</v>
+      </c>
+      <c r="O212">
+        <v>3.25</v>
+      </c>
+      <c r="P212">
+        <v>2.8</v>
+      </c>
+      <c r="Q212">
         <v>0</v>
       </c>
-      <c r="J212" t="s">
-        <v>51</v>
-      </c>
-      <c r="K212">
-        <v>1.65</v>
-      </c>
-      <c r="L212">
-        <v>3.8</v>
-      </c>
-      <c r="M212">
-        <v>5</v>
-      </c>
-      <c r="N212">
-        <v>2.375</v>
-      </c>
-      <c r="O212">
-        <v>3.3</v>
-      </c>
-      <c r="P212">
-        <v>3</v>
-      </c>
-      <c r="Q212">
-        <v>-0.25</v>
-      </c>
       <c r="R212">
+        <v>1.825</v>
+      </c>
+      <c r="S212">
         <v>2.025</v>
-      </c>
-      <c r="S212">
-        <v>1.825</v>
       </c>
       <c r="T212">
         <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V212">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W212">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC212">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19499,7 +19499,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6876486</v>
+        <v>6875457</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19511,10 +19511,10 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G214" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -19526,40 +19526,40 @@
         <v>50</v>
       </c>
       <c r="K214">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L214">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M214">
+        <v>3.1</v>
+      </c>
+      <c r="N214">
         <v>2.9</v>
       </c>
-      <c r="N214">
+      <c r="O214">
+        <v>3.5</v>
+      </c>
+      <c r="P214">
+        <v>2.25</v>
+      </c>
+      <c r="Q214">
+        <v>0.25</v>
+      </c>
+      <c r="R214">
+        <v>1.875</v>
+      </c>
+      <c r="S214">
+        <v>1.975</v>
+      </c>
+      <c r="T214">
         <v>2.5</v>
       </c>
-      <c r="O214">
-        <v>3.25</v>
-      </c>
-      <c r="P214">
-        <v>2.8</v>
-      </c>
-      <c r="Q214">
-        <v>0</v>
-      </c>
-      <c r="R214">
-        <v>1.82</v>
-      </c>
-      <c r="S214">
-        <v>2.08</v>
-      </c>
-      <c r="T214">
-        <v>2.25</v>
-      </c>
       <c r="U214">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V214">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -19568,16 +19568,16 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>1.08</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB214">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19588,7 +19588,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6875457</v>
+        <v>6876486</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19600,10 +19600,10 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F215" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -19615,40 +19615,40 @@
         <v>50</v>
       </c>
       <c r="K215">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L215">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M215">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N215">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="O215">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P215">
+        <v>2.8</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215">
+        <v>1.82</v>
+      </c>
+      <c r="S215">
+        <v>2.08</v>
+      </c>
+      <c r="T215">
         <v>2.25</v>
       </c>
-      <c r="Q215">
-        <v>0.25</v>
-      </c>
-      <c r="R215">
-        <v>1.875</v>
-      </c>
-      <c r="S215">
-        <v>1.975</v>
-      </c>
-      <c r="T215">
-        <v>2.5</v>
-      </c>
       <c r="U215">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19657,16 +19657,16 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.9750000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AB215">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -22792,7 +22792,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6876517</v>
+        <v>6876516</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22804,55 +22804,55 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F251" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G251" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J251" t="s">
         <v>50</v>
       </c>
       <c r="K251">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L251">
         <v>3.1</v>
       </c>
       <c r="M251">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N251">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O251">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P251">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q251">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R251">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S251">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T251">
         <v>2.25</v>
       </c>
       <c r="U251">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V251">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W251">
         <v>-1</v>
@@ -22861,19 +22861,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC251">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22881,7 +22881,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6876516</v>
+        <v>6876517</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22893,55 +22893,55 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F252" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G252" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252">
         <v>1</v>
-      </c>
-      <c r="I252">
-        <v>3</v>
       </c>
       <c r="J252" t="s">
         <v>50</v>
       </c>
       <c r="K252">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L252">
         <v>3.1</v>
       </c>
       <c r="M252">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N252">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O252">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P252">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R252">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S252">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T252">
         <v>2.25</v>
       </c>
       <c r="U252">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V252">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W252">
         <v>-1</v>
@@ -22950,19 +22950,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB252">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC252">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -24305,7 +24305,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6875463</v>
+        <v>6876531</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24317,76 +24317,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F268" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G268" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
         <v>1</v>
       </c>
-      <c r="I268">
-        <v>0</v>
-      </c>
       <c r="J268" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K268">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="L268">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M268">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N268">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="O268">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P268">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q268">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R268">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S268">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T268">
         <v>2.25</v>
       </c>
       <c r="U268">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V268">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W268">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X268">
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z268">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA268">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB268">
         <v>-1</v>
       </c>
       <c r="AC268">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24394,7 +24394,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6876531</v>
+        <v>6875463</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24406,76 +24406,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F269" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G269" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H269">
+        <v>1</v>
+      </c>
+      <c r="I269">
         <v>0</v>
       </c>
-      <c r="I269">
-        <v>1</v>
-      </c>
       <c r="J269" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K269">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L269">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M269">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N269">
+        <v>2.875</v>
+      </c>
+      <c r="O269">
+        <v>3.3</v>
+      </c>
+      <c r="P269">
+        <v>2.4</v>
+      </c>
+      <c r="Q269">
+        <v>0</v>
+      </c>
+      <c r="R269">
         <v>2.1</v>
       </c>
-      <c r="O269">
-        <v>3.4</v>
-      </c>
-      <c r="P269">
-        <v>3.4</v>
-      </c>
-      <c r="Q269">
-        <v>-0.25</v>
-      </c>
-      <c r="R269">
-        <v>1.875</v>
-      </c>
       <c r="S269">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T269">
         <v>2.25</v>
       </c>
       <c r="U269">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V269">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W269">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X269">
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z269">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA269">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB269">
         <v>-1</v>
       </c>
       <c r="AC269">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24928,7 +24928,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6875464</v>
+        <v>6876543</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24940,49 +24940,49 @@
         <v>45241.625</v>
       </c>
       <c r="F275" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G275" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H275">
         <v>0</v>
       </c>
       <c r="I275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J275" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K275">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L275">
         <v>3.2</v>
       </c>
       <c r="M275">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N275">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O275">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P275">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q275">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R275">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S275">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T275">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U275">
         <v>2</v>
@@ -24994,16 +24994,16 @@
         <v>-1</v>
       </c>
       <c r="X275">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y275">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z275">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA275">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AB275">
         <v>-1</v>
@@ -25017,7 +25017,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6876543</v>
+        <v>6875464</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25029,49 +25029,49 @@
         <v>45241.625</v>
       </c>
       <c r="F276" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G276" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H276">
         <v>0</v>
       </c>
       <c r="I276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J276" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K276">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L276">
         <v>3.2</v>
       </c>
       <c r="M276">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N276">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O276">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P276">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q276">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R276">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S276">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T276">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U276">
         <v>2</v>
@@ -25083,16 +25083,16 @@
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z276">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA276">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AB276">
         <v>-1</v>
@@ -25195,7 +25195,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6876541</v>
+        <v>6876540</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25207,19 +25207,19 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F278" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G278" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H278">
         <v>1</v>
       </c>
       <c r="I278">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J278" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K278">
         <v>2</v>
@@ -25231,16 +25231,16 @@
         <v>3.6</v>
       </c>
       <c r="N278">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O278">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P278">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q278">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R278">
         <v>1.95</v>
@@ -25249,34 +25249,34 @@
         <v>1.9</v>
       </c>
       <c r="T278">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U278">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V278">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W278">
         <v>-1</v>
       </c>
       <c r="X278">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y278">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z278">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB278">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC278">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25284,7 +25284,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6876540</v>
+        <v>6876541</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25296,19 +25296,19 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F279" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G279" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H279">
         <v>1</v>
       </c>
       <c r="I279">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K279">
         <v>2</v>
@@ -25320,16 +25320,16 @@
         <v>3.6</v>
       </c>
       <c r="N279">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O279">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P279">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q279">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R279">
         <v>1.95</v>
@@ -25338,34 +25338,34 @@
         <v>1.9</v>
       </c>
       <c r="T279">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U279">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V279">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W279">
         <v>-1</v>
       </c>
       <c r="X279">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y279">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA279">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB279">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC279">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -27509,7 +27509,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6875467</v>
+        <v>6876563</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27521,40 +27521,40 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F304" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G304" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H304">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I304">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J304" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K304">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="L304">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M304">
-        <v>3.9</v>
+        <v>2.55</v>
       </c>
       <c r="N304">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O304">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P304">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q304">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R304">
         <v>1.875</v>
@@ -27563,31 +27563,31 @@
         <v>1.975</v>
       </c>
       <c r="T304">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U304">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V304">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W304">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X304">
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z304">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA304">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB304">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC304">
         <v>-1</v>
@@ -27598,7 +27598,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6876563</v>
+        <v>6875467</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27610,40 +27610,40 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F305" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G305" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I305">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J305" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K305">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="L305">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M305">
-        <v>2.55</v>
+        <v>3.9</v>
       </c>
       <c r="N305">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O305">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P305">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q305">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R305">
         <v>1.875</v>
@@ -27652,31 +27652,31 @@
         <v>1.975</v>
       </c>
       <c r="T305">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U305">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V305">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W305">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X305">
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z305">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA305">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB305">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC305">
         <v>-1</v>
@@ -27954,7 +27954,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6875468</v>
+        <v>6876571</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27966,67 +27966,67 @@
         <v>45283.52083333334</v>
       </c>
       <c r="F309" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G309" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I309">
         <v>0</v>
       </c>
       <c r="J309" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K309">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L309">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M309">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N309">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="O309">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P309">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q309">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R309">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S309">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T309">
         <v>2.25</v>
       </c>
       <c r="U309">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V309">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W309">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X309">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y309">
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>0.4</v>
+        <v>0.4875</v>
       </c>
       <c r="AA309">
         <v>-0.5</v>
@@ -28035,7 +28035,7 @@
         <v>-1</v>
       </c>
       <c r="AC309">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28043,7 +28043,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6876571</v>
+        <v>6875468</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28055,67 +28055,67 @@
         <v>45283.52083333334</v>
       </c>
       <c r="F310" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G310" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310">
         <v>0</v>
       </c>
       <c r="J310" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K310">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L310">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M310">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N310">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="O310">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P310">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q310">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R310">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S310">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T310">
         <v>2.25</v>
       </c>
       <c r="U310">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V310">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W310">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X310">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0.4875</v>
+        <v>0.4</v>
       </c>
       <c r="AA310">
         <v>-0.5</v>
@@ -28124,7 +28124,7 @@
         <v>-1</v>
       </c>
       <c r="AC310">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28399,7 +28399,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7513577</v>
+        <v>7515550</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28411,13 +28411,13 @@
         <v>45290.52083333334</v>
       </c>
       <c r="F314" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G314" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H314">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I314">
         <v>0</v>
@@ -28426,43 +28426,43 @@
         <v>51</v>
       </c>
       <c r="K314">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L314">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M314">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N314">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O314">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P314">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q314">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R314">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S314">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T314">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U314">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V314">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W314">
-        <v>0.833</v>
+        <v>1.3</v>
       </c>
       <c r="X314">
         <v>-1</v>
@@ -28471,16 +28471,16 @@
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA314">
         <v>-1</v>
       </c>
       <c r="AB314">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC314">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28488,7 +28488,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7515550</v>
+        <v>7513577</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28500,13 +28500,13 @@
         <v>45290.52083333334</v>
       </c>
       <c r="F315" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G315" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I315">
         <v>0</v>
@@ -28515,43 +28515,43 @@
         <v>51</v>
       </c>
       <c r="K315">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L315">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M315">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N315">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O315">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P315">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q315">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R315">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S315">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T315">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U315">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V315">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W315">
-        <v>1.3</v>
+        <v>0.833</v>
       </c>
       <c r="X315">
         <v>-1</v>
@@ -28560,16 +28560,16 @@
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA315">
         <v>-1</v>
       </c>
       <c r="AB315">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC315">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -31158,7 +31158,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6875472</v>
+        <v>6876608</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31170,49 +31170,49 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F345" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G345" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H345">
         <v>1</v>
       </c>
       <c r="I345">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J345" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K345">
+        <v>1.727</v>
+      </c>
+      <c r="L345">
+        <v>3.6</v>
+      </c>
+      <c r="M345">
+        <v>4.75</v>
+      </c>
+      <c r="N345">
+        <v>2</v>
+      </c>
+      <c r="O345">
+        <v>3.3</v>
+      </c>
+      <c r="P345">
+        <v>4</v>
+      </c>
+      <c r="Q345">
+        <v>-0.5</v>
+      </c>
+      <c r="R345">
+        <v>2.025</v>
+      </c>
+      <c r="S345">
+        <v>1.825</v>
+      </c>
+      <c r="T345">
         <v>2.25</v>
-      </c>
-      <c r="L345">
-        <v>3.3</v>
-      </c>
-      <c r="M345">
-        <v>3.2</v>
-      </c>
-      <c r="N345">
-        <v>2.375</v>
-      </c>
-      <c r="O345">
-        <v>3.2</v>
-      </c>
-      <c r="P345">
-        <v>3.2</v>
-      </c>
-      <c r="Q345">
-        <v>-0.25</v>
-      </c>
-      <c r="R345">
-        <v>2.1</v>
-      </c>
-      <c r="S345">
-        <v>1.775</v>
-      </c>
-      <c r="T345">
-        <v>2</v>
       </c>
       <c r="U345">
         <v>1.825</v>
@@ -31221,25 +31221,25 @@
         <v>2.025</v>
       </c>
       <c r="W345">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X345">
         <v>-1</v>
       </c>
       <c r="Y345">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z345">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA345">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB345">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC345">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31247,7 +31247,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6876608</v>
+        <v>6875472</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31259,49 +31259,49 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F346" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G346" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H346">
         <v>1</v>
       </c>
       <c r="I346">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J346" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K346">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L346">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M346">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N346">
+        <v>2.375</v>
+      </c>
+      <c r="O346">
+        <v>3.2</v>
+      </c>
+      <c r="P346">
+        <v>3.2</v>
+      </c>
+      <c r="Q346">
+        <v>-0.25</v>
+      </c>
+      <c r="R346">
+        <v>2.1</v>
+      </c>
+      <c r="S346">
+        <v>1.775</v>
+      </c>
+      <c r="T346">
         <v>2</v>
-      </c>
-      <c r="O346">
-        <v>3.3</v>
-      </c>
-      <c r="P346">
-        <v>4</v>
-      </c>
-      <c r="Q346">
-        <v>-0.5</v>
-      </c>
-      <c r="R346">
-        <v>2.025</v>
-      </c>
-      <c r="S346">
-        <v>1.825</v>
-      </c>
-      <c r="T346">
-        <v>2.25</v>
       </c>
       <c r="U346">
         <v>1.825</v>
@@ -31310,25 +31310,25 @@
         <v>2.025</v>
       </c>
       <c r="W346">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X346">
         <v>-1</v>
       </c>
       <c r="Y346">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z346">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA346">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB346">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC346">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -32137,7 +32137,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>6876611</v>
+        <v>6876616</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32149,76 +32149,76 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F356" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G356" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I356">
         <v>1</v>
       </c>
       <c r="J356" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K356">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L356">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M356">
+        <v>2.5</v>
+      </c>
+      <c r="N356">
         <v>2.3</v>
       </c>
-      <c r="N356">
-        <v>4.2</v>
-      </c>
       <c r="O356">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P356">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="Q356">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R356">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S356">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T356">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U356">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V356">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W356">
         <v>-1</v>
       </c>
       <c r="X356">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y356">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z356">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA356">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AB356">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC356">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -32226,7 +32226,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>6876616</v>
+        <v>6876611</v>
       </c>
       <c r="C357" t="s">
         <v>28</v>
@@ -32238,76 +32238,76 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F357" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G357" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357">
         <v>1</v>
       </c>
       <c r="J357" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K357">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L357">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M357">
+        <v>2.3</v>
+      </c>
+      <c r="N357">
+        <v>4.2</v>
+      </c>
+      <c r="O357">
+        <v>3.6</v>
+      </c>
+      <c r="P357">
+        <v>1.85</v>
+      </c>
+      <c r="Q357">
+        <v>0.5</v>
+      </c>
+      <c r="R357">
+        <v>2.025</v>
+      </c>
+      <c r="S357">
+        <v>1.825</v>
+      </c>
+      <c r="T357">
         <v>2.5</v>
       </c>
-      <c r="N357">
-        <v>2.3</v>
-      </c>
-      <c r="O357">
-        <v>3.4</v>
-      </c>
-      <c r="P357">
-        <v>3.2</v>
-      </c>
-      <c r="Q357">
-        <v>-0.25</v>
-      </c>
-      <c r="R357">
-        <v>1.975</v>
-      </c>
-      <c r="S357">
-        <v>1.875</v>
-      </c>
-      <c r="T357">
-        <v>2.25</v>
-      </c>
       <c r="U357">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V357">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W357">
         <v>-1</v>
       </c>
       <c r="X357">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y357">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z357">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA357">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AB357">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC357">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="358" spans="1:29">
@@ -32315,7 +32315,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>7758961</v>
+        <v>7758962</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32327,13 +32327,13 @@
         <v>45326.625</v>
       </c>
       <c r="F358" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G358" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H358">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I358">
         <v>0</v>
@@ -32342,43 +32342,43 @@
         <v>51</v>
       </c>
       <c r="K358">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="L358">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M358">
-        <v>14</v>
+        <v>3.2</v>
       </c>
       <c r="N358">
-        <v>1.142</v>
+        <v>2.05</v>
       </c>
       <c r="O358">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="P358">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="Q358">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R358">
-        <v>1.825</v>
+        <v>2.06</v>
       </c>
       <c r="S358">
-        <v>2.025</v>
+        <v>1.84</v>
       </c>
       <c r="T358">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U358">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V358">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W358">
-        <v>0.1419999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X358">
         <v>-1</v>
@@ -32387,16 +32387,16 @@
         <v>-1</v>
       </c>
       <c r="Z358">
-        <v>0.825</v>
+        <v>1.06</v>
       </c>
       <c r="AA358">
         <v>-1</v>
       </c>
       <c r="AB358">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC358">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="359" spans="1:29">
@@ -32404,7 +32404,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>7758962</v>
+        <v>7758961</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32416,13 +32416,13 @@
         <v>45326.625</v>
       </c>
       <c r="F359" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G359" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I359">
         <v>0</v>
@@ -32431,61 +32431,61 @@
         <v>51</v>
       </c>
       <c r="K359">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="L359">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M359">
-        <v>3.2</v>
+        <v>14</v>
       </c>
       <c r="N359">
-        <v>2.05</v>
+        <v>1.142</v>
       </c>
       <c r="O359">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="P359">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="Q359">
+        <v>-2</v>
+      </c>
+      <c r="R359">
+        <v>1.825</v>
+      </c>
+      <c r="S359">
+        <v>2.025</v>
+      </c>
+      <c r="T359">
+        <v>3.25</v>
+      </c>
+      <c r="U359">
+        <v>1.825</v>
+      </c>
+      <c r="V359">
+        <v>2.025</v>
+      </c>
+      <c r="W359">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="X359">
+        <v>-1</v>
+      </c>
+      <c r="Y359">
+        <v>-1</v>
+      </c>
+      <c r="Z359">
+        <v>0.825</v>
+      </c>
+      <c r="AA359">
+        <v>-1</v>
+      </c>
+      <c r="AB359">
         <v>-0.5</v>
       </c>
-      <c r="R359">
-        <v>2.06</v>
-      </c>
-      <c r="S359">
-        <v>1.84</v>
-      </c>
-      <c r="T359">
-        <v>2.5</v>
-      </c>
-      <c r="U359">
-        <v>1.975</v>
-      </c>
-      <c r="V359">
-        <v>1.875</v>
-      </c>
-      <c r="W359">
-        <v>1.05</v>
-      </c>
-      <c r="X359">
-        <v>-1</v>
-      </c>
-      <c r="Y359">
-        <v>-1</v>
-      </c>
-      <c r="Z359">
-        <v>1.06</v>
-      </c>
-      <c r="AA359">
-        <v>-1</v>
-      </c>
-      <c r="AB359">
-        <v>-1</v>
-      </c>
       <c r="AC359">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="360" spans="1:29">
@@ -32688,6 +32688,15 @@
       <c r="G362" t="s">
         <v>38</v>
       </c>
+      <c r="H362">
+        <v>3</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362" t="s">
+        <v>51</v>
+      </c>
       <c r="K362">
         <v>2.1</v>
       </c>
@@ -32698,46 +32707,52 @@
         <v>3.4</v>
       </c>
       <c r="N362">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O362">
         <v>3.5</v>
       </c>
       <c r="P362">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q362">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R362">
-        <v>1.82</v>
+        <v>2.025</v>
       </c>
       <c r="S362">
-        <v>2.08</v>
+        <v>1.825</v>
       </c>
       <c r="T362">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U362">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V362">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W362">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="X362">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y362">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z362">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA362">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB362">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC362">
+        <v>-1</v>
       </c>
     </row>
     <row r="363" spans="1:29">
@@ -32745,7 +32760,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>6876620</v>
+        <v>6876621</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32754,49 +32769,49 @@
         <v>28</v>
       </c>
       <c r="E363" s="2">
-        <v>45332.52083333334</v>
+        <v>45333.52083333334</v>
       </c>
       <c r="F363" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G363" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K363">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="L363">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M363">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="N363">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O363">
         <v>3.2</v>
       </c>
       <c r="P363">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q363">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R363">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="S363">
-        <v>1.97</v>
+        <v>2.09</v>
       </c>
       <c r="T363">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U363">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V363">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W363">
         <v>0</v>
@@ -32819,7 +32834,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6875474</v>
+        <v>6876619</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32828,49 +32843,49 @@
         <v>28</v>
       </c>
       <c r="E364" s="2">
-        <v>45332.625</v>
+        <v>45333.625</v>
       </c>
       <c r="F364" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G364" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K364">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L364">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M364">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N364">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="O364">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P364">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q364">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R364">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="S364">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="T364">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U364">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V364">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W364">
         <v>0</v>
@@ -32893,7 +32908,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6876623</v>
+        <v>6876618</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32902,34 +32917,34 @@
         <v>28</v>
       </c>
       <c r="E365" s="2">
-        <v>45332.72916666666</v>
+        <v>45333.72916666666</v>
       </c>
       <c r="F365" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G365" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="K365">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="L365">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M365">
-        <v>3.3</v>
+        <v>1.615</v>
       </c>
       <c r="N365">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="O365">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P365">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="Q365">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R365">
         <v>1.83</v>
@@ -32938,13 +32953,13 @@
         <v>2.07</v>
       </c>
       <c r="T365">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U365">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V365">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W365">
         <v>0</v>
@@ -32967,7 +32982,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>6876621</v>
+        <v>6876622</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -32976,49 +32991,49 @@
         <v>28</v>
       </c>
       <c r="E366" s="2">
-        <v>45333.52083333334</v>
+        <v>45334.71875</v>
       </c>
       <c r="F366" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G366" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K366">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="L366">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M366">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="N366">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O366">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P366">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="Q366">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R366">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="S366">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="T366">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U366">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V366">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W366">
         <v>0</v>
@@ -33041,7 +33056,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6876619</v>
+        <v>6876624</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33050,49 +33065,49 @@
         <v>28</v>
       </c>
       <c r="E367" s="2">
-        <v>45333.625</v>
+        <v>45335.52083333334</v>
       </c>
       <c r="F367" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G367" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K367">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L367">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M367">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="N367">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O367">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P367">
-        <v>6.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q367">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R367">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="S367">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="T367">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U367">
+        <v>1.95</v>
+      </c>
+      <c r="V367">
         <v>1.9</v>
-      </c>
-      <c r="V367">
-        <v>1.95</v>
       </c>
       <c r="W367">
         <v>0</v>
@@ -33107,228 +33122,6 @@
         <v>0</v>
       </c>
       <c r="AA367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:29">
-      <c r="A368" s="1">
-        <v>366</v>
-      </c>
-      <c r="B368">
-        <v>6876618</v>
-      </c>
-      <c r="C368" t="s">
-        <v>28</v>
-      </c>
-      <c r="D368" t="s">
-        <v>28</v>
-      </c>
-      <c r="E368" s="2">
-        <v>45333.72916666666</v>
-      </c>
-      <c r="F368" t="s">
-        <v>33</v>
-      </c>
-      <c r="G368" t="s">
-        <v>30</v>
-      </c>
-      <c r="K368">
-        <v>5</v>
-      </c>
-      <c r="L368">
-        <v>4</v>
-      </c>
-      <c r="M368">
-        <v>1.615</v>
-      </c>
-      <c r="N368">
-        <v>6</v>
-      </c>
-      <c r="O368">
-        <v>4</v>
-      </c>
-      <c r="P368">
-        <v>1.571</v>
-      </c>
-      <c r="Q368">
-        <v>1</v>
-      </c>
-      <c r="R368">
-        <v>1.85</v>
-      </c>
-      <c r="S368">
-        <v>2.05</v>
-      </c>
-      <c r="T368">
-        <v>2.75</v>
-      </c>
-      <c r="U368">
-        <v>2.025</v>
-      </c>
-      <c r="V368">
-        <v>1.825</v>
-      </c>
-      <c r="W368">
-        <v>0</v>
-      </c>
-      <c r="X368">
-        <v>0</v>
-      </c>
-      <c r="Y368">
-        <v>0</v>
-      </c>
-      <c r="Z368">
-        <v>0</v>
-      </c>
-      <c r="AA368">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:27">
-      <c r="A369" s="1">
-        <v>367</v>
-      </c>
-      <c r="B369">
-        <v>6876622</v>
-      </c>
-      <c r="C369" t="s">
-        <v>28</v>
-      </c>
-      <c r="D369" t="s">
-        <v>28</v>
-      </c>
-      <c r="E369" s="2">
-        <v>45334.71875</v>
-      </c>
-      <c r="F369" t="s">
-        <v>32</v>
-      </c>
-      <c r="G369" t="s">
-        <v>43</v>
-      </c>
-      <c r="K369">
-        <v>7.5</v>
-      </c>
-      <c r="L369">
-        <v>4.5</v>
-      </c>
-      <c r="M369">
-        <v>1.4</v>
-      </c>
-      <c r="N369">
-        <v>7.5</v>
-      </c>
-      <c r="O369">
-        <v>4</v>
-      </c>
-      <c r="P369">
-        <v>1.5</v>
-      </c>
-      <c r="Q369">
-        <v>1</v>
-      </c>
-      <c r="R369">
-        <v>2.08</v>
-      </c>
-      <c r="S369">
-        <v>1.82</v>
-      </c>
-      <c r="T369">
-        <v>2.5</v>
-      </c>
-      <c r="U369">
-        <v>1.825</v>
-      </c>
-      <c r="V369">
-        <v>2.025</v>
-      </c>
-      <c r="W369">
-        <v>0</v>
-      </c>
-      <c r="X369">
-        <v>0</v>
-      </c>
-      <c r="Y369">
-        <v>0</v>
-      </c>
-      <c r="Z369">
-        <v>0</v>
-      </c>
-      <c r="AA369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:27">
-      <c r="A370" s="1">
-        <v>368</v>
-      </c>
-      <c r="B370">
-        <v>6876624</v>
-      </c>
-      <c r="C370" t="s">
-        <v>28</v>
-      </c>
-      <c r="D370" t="s">
-        <v>28</v>
-      </c>
-      <c r="E370" s="2">
-        <v>45335.52083333334</v>
-      </c>
-      <c r="F370" t="s">
-        <v>45</v>
-      </c>
-      <c r="G370" t="s">
-        <v>39</v>
-      </c>
-      <c r="K370">
-        <v>1.909</v>
-      </c>
-      <c r="L370">
-        <v>3.6</v>
-      </c>
-      <c r="M370">
-        <v>3.8</v>
-      </c>
-      <c r="N370">
-        <v>2.05</v>
-      </c>
-      <c r="O370">
-        <v>3.5</v>
-      </c>
-      <c r="P370">
-        <v>3.6</v>
-      </c>
-      <c r="Q370">
-        <v>-0.5</v>
-      </c>
-      <c r="R370">
-        <v>2.06</v>
-      </c>
-      <c r="S370">
-        <v>1.84</v>
-      </c>
-      <c r="T370">
-        <v>2.5</v>
-      </c>
-      <c r="U370">
-        <v>1.925</v>
-      </c>
-      <c r="V370">
-        <v>1.925</v>
-      </c>
-      <c r="W370">
-        <v>0</v>
-      </c>
-      <c r="X370">
-        <v>0</v>
-      </c>
-      <c r="Y370">
-        <v>0</v>
-      </c>
-      <c r="Z370">
-        <v>0</v>
-      </c>
-      <c r="AA370">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC367"/>
+  <dimension ref="A1:AC379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3123,7 +3123,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5265726</v>
+        <v>5265613</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3135,13 +3135,13 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -3150,43 +3150,43 @@
         <v>51</v>
       </c>
       <c r="K30">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L30">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M30">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O30">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P30">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q30">
         <v>-0.5</v>
       </c>
       <c r="R30">
+        <v>1.975</v>
+      </c>
+      <c r="S30">
+        <v>1.875</v>
+      </c>
+      <c r="T30">
         <v>2</v>
       </c>
-      <c r="S30">
-        <v>1.85</v>
-      </c>
-      <c r="T30">
-        <v>2.25</v>
-      </c>
       <c r="U30">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V30">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3195,13 +3195,13 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3212,7 +3212,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5265613</v>
+        <v>5265726</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3224,13 +3224,13 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -3239,43 +3239,43 @@
         <v>51</v>
       </c>
       <c r="K31">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L31">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M31">
+        <v>3.5</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31">
+        <v>3.3</v>
+      </c>
+      <c r="P31">
         <v>3.8</v>
-      </c>
-      <c r="N31">
-        <v>1.95</v>
-      </c>
-      <c r="O31">
-        <v>3</v>
-      </c>
-      <c r="P31">
-        <v>4.5</v>
       </c>
       <c r="Q31">
         <v>-0.5</v>
       </c>
       <c r="R31">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U31">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V31">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W31">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3284,13 +3284,13 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -4191,7 +4191,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5265728</v>
+        <v>5265729</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4203,13 +4203,13 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -4218,43 +4218,43 @@
         <v>51</v>
       </c>
       <c r="K42">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="L42">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M42">
-        <v>9.5</v>
+        <v>4.333</v>
       </c>
       <c r="N42">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P42">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="T42">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
-        <v>0.55</v>
+        <v>1.2</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4263,13 +4263,13 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>1.01</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4280,7 +4280,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5265729</v>
+        <v>5265728</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4292,13 +4292,13 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -4307,43 +4307,43 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="L43">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M43">
-        <v>4.333</v>
+        <v>9.5</v>
       </c>
       <c r="N43">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="O43">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P43">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="S43">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T43">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W43">
-        <v>1.2</v>
+        <v>0.55</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4352,13 +4352,13 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.8999999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -5615,7 +5615,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5265735</v>
+        <v>5265630</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5627,73 +5627,73 @@
         <v>44975.625</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
+      <c r="J58" t="s">
+        <v>50</v>
+      </c>
+      <c r="K58">
+        <v>1.95</v>
+      </c>
+      <c r="L58">
+        <v>3.3</v>
+      </c>
+      <c r="M58">
+        <v>4</v>
+      </c>
+      <c r="N58">
         <v>2</v>
       </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58" t="s">
-        <v>51</v>
-      </c>
-      <c r="K58">
-        <v>2.05</v>
-      </c>
-      <c r="L58">
-        <v>3.25</v>
-      </c>
-      <c r="M58">
-        <v>3.75</v>
-      </c>
-      <c r="N58">
-        <v>2.45</v>
-      </c>
       <c r="O58">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P58">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S58">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V58">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z58">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB58">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5704,7 +5704,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5265630</v>
+        <v>5265735</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5716,73 +5716,73 @@
         <v>44975.625</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
         <v>1</v>
       </c>
-      <c r="I59">
+      <c r="J59" t="s">
+        <v>51</v>
+      </c>
+      <c r="K59">
+        <v>2.05</v>
+      </c>
+      <c r="L59">
+        <v>3.25</v>
+      </c>
+      <c r="M59">
+        <v>3.75</v>
+      </c>
+      <c r="N59">
+        <v>2.45</v>
+      </c>
+      <c r="O59">
+        <v>3.1</v>
+      </c>
+      <c r="P59">
         <v>3</v>
       </c>
-      <c r="J59" t="s">
-        <v>50</v>
-      </c>
-      <c r="K59">
-        <v>1.95</v>
-      </c>
-      <c r="L59">
-        <v>3.3</v>
-      </c>
-      <c r="M59">
-        <v>4</v>
-      </c>
-      <c r="N59">
-        <v>2</v>
-      </c>
-      <c r="O59">
-        <v>3.2</v>
-      </c>
-      <c r="P59">
-        <v>3.8</v>
-      </c>
       <c r="Q59">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S59">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V59">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA59">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -8018,7 +8018,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5265642</v>
+        <v>5265747</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8030,13 +8030,13 @@
         <v>44996.52083333334</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -8045,61 +8045,61 @@
         <v>51</v>
       </c>
       <c r="K85">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L85">
+        <v>3.3</v>
+      </c>
+      <c r="M85">
         <v>3.25</v>
       </c>
-      <c r="M85">
+      <c r="N85">
+        <v>2.3</v>
+      </c>
+      <c r="O85">
+        <v>3.3</v>
+      </c>
+      <c r="P85">
         <v>3</v>
       </c>
-      <c r="N85">
+      <c r="Q85">
+        <v>-0.25</v>
+      </c>
+      <c r="R85">
         <v>2</v>
       </c>
-      <c r="O85">
-        <v>3.4</v>
-      </c>
-      <c r="P85">
-        <v>3.6</v>
-      </c>
-      <c r="Q85">
+      <c r="S85">
+        <v>1.85</v>
+      </c>
+      <c r="T85">
+        <v>2.25</v>
+      </c>
+      <c r="U85">
+        <v>1.85</v>
+      </c>
+      <c r="V85">
+        <v>2</v>
+      </c>
+      <c r="W85">
+        <v>1.3</v>
+      </c>
+      <c r="X85">
+        <v>-1</v>
+      </c>
+      <c r="Y85">
+        <v>-1</v>
+      </c>
+      <c r="Z85">
+        <v>1</v>
+      </c>
+      <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
         <v>-0.5</v>
       </c>
-      <c r="R85">
-        <v>2.05</v>
-      </c>
-      <c r="S85">
-        <v>1.8</v>
-      </c>
-      <c r="T85">
-        <v>2</v>
-      </c>
-      <c r="U85">
-        <v>1.75</v>
-      </c>
-      <c r="V85">
-        <v>2.05</v>
-      </c>
-      <c r="W85">
-        <v>1</v>
-      </c>
-      <c r="X85">
-        <v>-1</v>
-      </c>
-      <c r="Y85">
-        <v>-1</v>
-      </c>
-      <c r="Z85">
-        <v>1.05</v>
-      </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
-      <c r="AB85">
-        <v>-1</v>
-      </c>
       <c r="AC85">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8107,7 +8107,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5265747</v>
+        <v>5265642</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8119,13 +8119,13 @@
         <v>44996.52083333334</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -8134,43 +8134,43 @@
         <v>51</v>
       </c>
       <c r="K86">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L86">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M86">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N86">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O86">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
+        <v>2.05</v>
+      </c>
+      <c r="S86">
+        <v>1.8</v>
+      </c>
+      <c r="T86">
         <v>2</v>
       </c>
-      <c r="S86">
-        <v>1.85</v>
-      </c>
-      <c r="T86">
-        <v>2.25</v>
-      </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V86">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W86">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8179,16 +8179,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5265660</v>
+        <v>5265754</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,73 +10700,73 @@
         <v>45024.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115">
+        <v>2</v>
+      </c>
+      <c r="J115" t="s">
+        <v>52</v>
+      </c>
+      <c r="K115">
+        <v>2.6</v>
+      </c>
+      <c r="L115">
         <v>3</v>
       </c>
-      <c r="J115" t="s">
-        <v>50</v>
-      </c>
-      <c r="K115">
-        <v>2.7</v>
-      </c>
-      <c r="L115">
-        <v>3.1</v>
-      </c>
       <c r="M115">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N115">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="O115">
         <v>3</v>
       </c>
       <c r="P115">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q115">
         <v>0</v>
       </c>
       <c r="R115">
-        <v>2.01</v>
+        <v>1.775</v>
       </c>
       <c r="S115">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="T115">
         <v>2</v>
       </c>
       <c r="U115">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V115">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y115">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>0.8899999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB115">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10777,7 +10777,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5265754</v>
+        <v>5265660</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10789,73 +10789,73 @@
         <v>45024.58333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K116">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L116">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M116">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N116">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O116">
         <v>3</v>
       </c>
       <c r="P116">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q116">
         <v>0</v>
       </c>
       <c r="R116">
-        <v>1.775</v>
+        <v>2.01</v>
       </c>
       <c r="S116">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="T116">
         <v>2</v>
       </c>
       <c r="U116">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V116">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB116">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -11222,7 +11222,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5265670</v>
+        <v>5265669</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11234,76 +11234,76 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K121">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L121">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M121">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N121">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O121">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P121">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q121">
         <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="S121">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="T121">
         <v>2.25</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V121">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W121">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z121">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11311,7 +11311,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5265669</v>
+        <v>5265670</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11323,76 +11323,76 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K122">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L122">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M122">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N122">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P122">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q122">
         <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="S122">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="T122">
         <v>2.25</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -12824,7 +12824,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5265759</v>
+        <v>5265760</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12836,73 +12836,73 @@
         <v>45045.47916666666</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H139">
+        <v>4</v>
+      </c>
+      <c r="I139">
         <v>1</v>
       </c>
-      <c r="I139">
+      <c r="J139" t="s">
+        <v>51</v>
+      </c>
+      <c r="K139">
+        <v>1.25</v>
+      </c>
+      <c r="L139">
+        <v>6</v>
+      </c>
+      <c r="M139">
+        <v>11</v>
+      </c>
+      <c r="N139">
+        <v>1.25</v>
+      </c>
+      <c r="O139">
+        <v>6</v>
+      </c>
+      <c r="P139">
+        <v>10</v>
+      </c>
+      <c r="Q139">
+        <v>-1.75</v>
+      </c>
+      <c r="R139">
+        <v>1.89</v>
+      </c>
+      <c r="S139">
+        <v>2.01</v>
+      </c>
+      <c r="T139">
+        <v>3.25</v>
+      </c>
+      <c r="U139">
         <v>2</v>
       </c>
-      <c r="J139" t="s">
-        <v>50</v>
-      </c>
-      <c r="K139">
-        <v>2.45</v>
-      </c>
-      <c r="L139">
-        <v>3.2</v>
-      </c>
-      <c r="M139">
-        <v>2.9</v>
-      </c>
-      <c r="N139">
-        <v>2.4</v>
-      </c>
-      <c r="O139">
-        <v>3.25</v>
-      </c>
-      <c r="P139">
-        <v>3</v>
-      </c>
-      <c r="Q139">
-        <v>-0.25</v>
-      </c>
-      <c r="R139">
-        <v>2.1</v>
-      </c>
-      <c r="S139">
-        <v>1.775</v>
-      </c>
-      <c r="T139">
-        <v>2.25</v>
-      </c>
-      <c r="U139">
-        <v>1.9</v>
-      </c>
       <c r="V139">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA139">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12913,7 +12913,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5265760</v>
+        <v>5265759</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12925,73 +12925,73 @@
         <v>45045.47916666666</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K140">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="L140">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M140">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="N140">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="O140">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P140">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q140">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="S140">
-        <v>2.01</v>
+        <v>1.775</v>
       </c>
       <c r="T140">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
+        <v>1.9</v>
+      </c>
+      <c r="V140">
+        <v>1.95</v>
+      </c>
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
         <v>2</v>
       </c>
-      <c r="V140">
-        <v>1.85</v>
-      </c>
-      <c r="W140">
-        <v>0.25</v>
-      </c>
-      <c r="X140">
-        <v>-1</v>
-      </c>
-      <c r="Y140">
-        <v>-1</v>
-      </c>
       <c r="Z140">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5265761</v>
+        <v>5265682</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,76 +13014,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K141">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L141">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="N141">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O141">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.92</v>
       </c>
       <c r="S141">
-        <v>1.925</v>
+        <v>1.98</v>
       </c>
       <c r="T141">
         <v>2.25</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W141">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC141">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5265682</v>
+        <v>5265761</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,76 +13103,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K142">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="N142">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P142">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="S142">
-        <v>1.98</v>
+        <v>1.925</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V142">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA142">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -17808,7 +17808,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6876465</v>
+        <v>6876471</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17820,76 +17820,76 @@
         <v>45157.6875</v>
       </c>
       <c r="F195" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G195" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>4</v>
+      </c>
+      <c r="J195" t="s">
+        <v>50</v>
+      </c>
+      <c r="K195">
+        <v>2.45</v>
+      </c>
+      <c r="L195">
+        <v>3.25</v>
+      </c>
+      <c r="M195">
+        <v>2.875</v>
+      </c>
+      <c r="N195">
+        <v>3</v>
+      </c>
+      <c r="O195">
+        <v>3.3</v>
+      </c>
+      <c r="P195">
+        <v>2.3</v>
+      </c>
+      <c r="Q195">
+        <v>0.25</v>
+      </c>
+      <c r="R195">
+        <v>1.85</v>
+      </c>
+      <c r="S195">
         <v>2</v>
       </c>
-      <c r="I195">
-        <v>0</v>
-      </c>
-      <c r="J195" t="s">
-        <v>51</v>
-      </c>
-      <c r="K195">
-        <v>1.125</v>
-      </c>
-      <c r="L195">
-        <v>8</v>
-      </c>
-      <c r="M195">
-        <v>19</v>
-      </c>
-      <c r="N195">
-        <v>1.142</v>
-      </c>
-      <c r="O195">
-        <v>7.5</v>
-      </c>
-      <c r="P195">
-        <v>17</v>
-      </c>
-      <c r="Q195">
-        <v>-2.25</v>
-      </c>
-      <c r="R195">
+      <c r="T195">
+        <v>2.25</v>
+      </c>
+      <c r="U195">
         <v>1.925</v>
       </c>
-      <c r="S195">
+      <c r="V195">
         <v>1.925</v>
       </c>
-      <c r="T195">
-        <v>3.5</v>
-      </c>
-      <c r="U195">
-        <v>1.875</v>
-      </c>
-      <c r="V195">
-        <v>1.975</v>
-      </c>
       <c r="W195">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z195">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC195">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17897,7 +17897,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6876471</v>
+        <v>6876465</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17909,76 +17909,76 @@
         <v>45157.6875</v>
       </c>
       <c r="F196" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K196">
-        <v>2.45</v>
+        <v>1.125</v>
       </c>
       <c r="L196">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M196">
-        <v>2.875</v>
+        <v>19</v>
       </c>
       <c r="N196">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="O196">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P196">
-        <v>2.3</v>
+        <v>17</v>
       </c>
       <c r="Q196">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R196">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S196">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T196">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U196">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V196">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA196">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB196">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -19499,7 +19499,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6875457</v>
+        <v>6876486</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19511,10 +19511,10 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F214" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G214" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -19526,40 +19526,40 @@
         <v>50</v>
       </c>
       <c r="K214">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L214">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M214">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N214">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="O214">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P214">
+        <v>2.8</v>
+      </c>
+      <c r="Q214">
+        <v>0</v>
+      </c>
+      <c r="R214">
+        <v>1.82</v>
+      </c>
+      <c r="S214">
+        <v>2.08</v>
+      </c>
+      <c r="T214">
         <v>2.25</v>
       </c>
-      <c r="Q214">
-        <v>0.25</v>
-      </c>
-      <c r="R214">
-        <v>1.875</v>
-      </c>
-      <c r="S214">
-        <v>1.975</v>
-      </c>
-      <c r="T214">
-        <v>2.5</v>
-      </c>
       <c r="U214">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -19568,16 +19568,16 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.9750000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AB214">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19588,7 +19588,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6876486</v>
+        <v>6875457</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19600,10 +19600,10 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F215" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G215" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -19615,40 +19615,40 @@
         <v>50</v>
       </c>
       <c r="K215">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L215">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M215">
+        <v>3.1</v>
+      </c>
+      <c r="N215">
         <v>2.9</v>
       </c>
-      <c r="N215">
+      <c r="O215">
+        <v>3.5</v>
+      </c>
+      <c r="P215">
+        <v>2.25</v>
+      </c>
+      <c r="Q215">
+        <v>0.25</v>
+      </c>
+      <c r="R215">
+        <v>1.875</v>
+      </c>
+      <c r="S215">
+        <v>1.975</v>
+      </c>
+      <c r="T215">
         <v>2.5</v>
       </c>
-      <c r="O215">
-        <v>3.25</v>
-      </c>
-      <c r="P215">
-        <v>2.8</v>
-      </c>
-      <c r="Q215">
-        <v>0</v>
-      </c>
-      <c r="R215">
-        <v>1.82</v>
-      </c>
-      <c r="S215">
-        <v>2.08</v>
-      </c>
-      <c r="T215">
-        <v>2.25</v>
-      </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19657,16 +19657,16 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>1.08</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB215">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -20834,7 +20834,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6875459</v>
+        <v>6876499</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20846,76 +20846,76 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F229" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G229" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K229">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L229">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M229">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N229">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O229">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P229">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q229">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S229">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T229">
         <v>2.5</v>
       </c>
       <c r="U229">
+        <v>1.9</v>
+      </c>
+      <c r="V229">
         <v>1.95</v>
       </c>
-      <c r="V229">
-        <v>1.9</v>
-      </c>
       <c r="W229">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC229">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20923,7 +20923,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6876499</v>
+        <v>6875459</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20935,76 +20935,76 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F230" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G230" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K230">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L230">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M230">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N230">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O230">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P230">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R230">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S230">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T230">
         <v>2.5</v>
       </c>
       <c r="U230">
+        <v>1.95</v>
+      </c>
+      <c r="V230">
         <v>1.9</v>
       </c>
-      <c r="V230">
-        <v>1.95</v>
-      </c>
       <c r="W230">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X230">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA230">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
+        <v>-1</v>
+      </c>
+      <c r="AC230">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC230">
-        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -22436,7 +22436,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6876515</v>
+        <v>6876518</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22448,49 +22448,49 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F247" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G247" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H247">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I247">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J247" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K247">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L247">
         <v>3.2</v>
       </c>
       <c r="M247">
+        <v>2.875</v>
+      </c>
+      <c r="N247">
+        <v>2.2</v>
+      </c>
+      <c r="O247">
+        <v>3.2</v>
+      </c>
+      <c r="P247">
+        <v>3.1</v>
+      </c>
+      <c r="Q247">
+        <v>-0.25</v>
+      </c>
+      <c r="R247">
+        <v>2.01</v>
+      </c>
+      <c r="S247">
+        <v>1.89</v>
+      </c>
+      <c r="T247">
         <v>2.5</v>
-      </c>
-      <c r="N247">
-        <v>2.5</v>
-      </c>
-      <c r="O247">
-        <v>3.4</v>
-      </c>
-      <c r="P247">
-        <v>2.45</v>
-      </c>
-      <c r="Q247">
-        <v>0</v>
-      </c>
-      <c r="R247">
-        <v>2</v>
-      </c>
-      <c r="S247">
-        <v>1.9</v>
-      </c>
-      <c r="T247">
-        <v>2.75</v>
       </c>
       <c r="U247">
         <v>1.95</v>
@@ -22499,25 +22499,25 @@
         <v>1.9</v>
       </c>
       <c r="W247">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X247">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y247">
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA247">
-        <v>-1</v>
+        <v>0.445</v>
       </c>
       <c r="AB247">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22525,7 +22525,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6876518</v>
+        <v>6876515</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22537,49 +22537,49 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F248" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G248" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J248" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K248">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L248">
         <v>3.2</v>
       </c>
       <c r="M248">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N248">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O248">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P248">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q248">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R248">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S248">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T248">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U248">
         <v>1.95</v>
@@ -22588,25 +22588,25 @@
         <v>1.9</v>
       </c>
       <c r="W248">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X248">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA248">
-        <v>0.445</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC248">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22792,7 +22792,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6876516</v>
+        <v>6876517</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22804,55 +22804,55 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F251" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G251" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
         <v>1</v>
-      </c>
-      <c r="I251">
-        <v>3</v>
       </c>
       <c r="J251" t="s">
         <v>50</v>
       </c>
       <c r="K251">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L251">
         <v>3.1</v>
       </c>
       <c r="M251">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N251">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O251">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P251">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R251">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S251">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T251">
         <v>2.25</v>
       </c>
       <c r="U251">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V251">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W251">
         <v>-1</v>
@@ -22861,19 +22861,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB251">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC251">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22881,7 +22881,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6876517</v>
+        <v>6876516</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22893,55 +22893,55 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F252" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G252" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J252" t="s">
         <v>50</v>
       </c>
       <c r="K252">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L252">
         <v>3.1</v>
       </c>
       <c r="M252">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N252">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O252">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P252">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q252">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S252">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T252">
         <v>2.25</v>
       </c>
       <c r="U252">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V252">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W252">
         <v>-1</v>
@@ -22950,19 +22950,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC252">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23326,7 +23326,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6876523</v>
+        <v>6876528</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23338,76 +23338,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F257" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G257" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K257">
-        <v>1.166</v>
+        <v>1.75</v>
       </c>
       <c r="L257">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M257">
-        <v>15</v>
+        <v>4.75</v>
       </c>
       <c r="N257">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="O257">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P257">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q257">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R257">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S257">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T257">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U257">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V257">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W257">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X257">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA257">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC257">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23415,7 +23415,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6876528</v>
+        <v>6876523</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23427,76 +23427,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F258" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G258" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H258">
+        <v>1</v>
+      </c>
+      <c r="I258">
+        <v>1</v>
+      </c>
+      <c r="J258" t="s">
+        <v>52</v>
+      </c>
+      <c r="K258">
+        <v>1.166</v>
+      </c>
+      <c r="L258">
+        <v>7</v>
+      </c>
+      <c r="M258">
+        <v>15</v>
+      </c>
+      <c r="N258">
+        <v>1.222</v>
+      </c>
+      <c r="O258">
+        <v>6</v>
+      </c>
+      <c r="P258">
+        <v>11</v>
+      </c>
+      <c r="Q258">
+        <v>-1.75</v>
+      </c>
+      <c r="R258">
+        <v>1.875</v>
+      </c>
+      <c r="S258">
+        <v>1.975</v>
+      </c>
+      <c r="T258">
+        <v>3</v>
+      </c>
+      <c r="U258">
+        <v>1.95</v>
+      </c>
+      <c r="V258">
+        <v>1.9</v>
+      </c>
+      <c r="W258">
+        <v>-1</v>
+      </c>
+      <c r="X258">
         <v>5</v>
       </c>
-      <c r="I258">
-        <v>0</v>
-      </c>
-      <c r="J258" t="s">
-        <v>51</v>
-      </c>
-      <c r="K258">
-        <v>1.75</v>
-      </c>
-      <c r="L258">
-        <v>3.6</v>
-      </c>
-      <c r="M258">
-        <v>4.75</v>
-      </c>
-      <c r="N258">
-        <v>1.666</v>
-      </c>
-      <c r="O258">
-        <v>3.75</v>
-      </c>
-      <c r="P258">
-        <v>5</v>
-      </c>
-      <c r="Q258">
-        <v>-0.75</v>
-      </c>
-      <c r="R258">
-        <v>1.9</v>
-      </c>
-      <c r="S258">
-        <v>2</v>
-      </c>
-      <c r="T258">
-        <v>2.5</v>
-      </c>
-      <c r="U258">
-        <v>1.925</v>
-      </c>
-      <c r="V258">
-        <v>1.925</v>
-      </c>
-      <c r="W258">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X258">
-        <v>-1</v>
-      </c>
       <c r="Y258">
         <v>-1</v>
       </c>
       <c r="Z258">
+        <v>-1</v>
+      </c>
+      <c r="AA258">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB258">
+        <v>-1</v>
+      </c>
+      <c r="AC258">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA258">
-        <v>-1</v>
-      </c>
-      <c r="AB258">
-        <v>0.925</v>
-      </c>
-      <c r="AC258">
-        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -24928,7 +24928,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6876543</v>
+        <v>6875464</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24940,49 +24940,49 @@
         <v>45241.625</v>
       </c>
       <c r="F275" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G275" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H275">
         <v>0</v>
       </c>
       <c r="I275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K275">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L275">
         <v>3.2</v>
       </c>
       <c r="M275">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N275">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O275">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P275">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q275">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R275">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S275">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T275">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U275">
         <v>2</v>
@@ -24994,16 +24994,16 @@
         <v>-1</v>
       </c>
       <c r="X275">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y275">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z275">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA275">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AB275">
         <v>-1</v>
@@ -25017,7 +25017,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6875464</v>
+        <v>6876543</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25029,49 +25029,49 @@
         <v>45241.625</v>
       </c>
       <c r="F276" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G276" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H276">
         <v>0</v>
       </c>
       <c r="I276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J276" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K276">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L276">
         <v>3.2</v>
       </c>
       <c r="M276">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N276">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O276">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P276">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q276">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R276">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S276">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T276">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U276">
         <v>2</v>
@@ -25083,16 +25083,16 @@
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y276">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA276">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AB276">
         <v>-1</v>
@@ -25195,7 +25195,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6876540</v>
+        <v>6876541</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25207,19 +25207,19 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F278" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G278" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H278">
         <v>1</v>
       </c>
       <c r="I278">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J278" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K278">
         <v>2</v>
@@ -25231,16 +25231,16 @@
         <v>3.6</v>
       </c>
       <c r="N278">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O278">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P278">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q278">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R278">
         <v>1.95</v>
@@ -25249,34 +25249,34 @@
         <v>1.9</v>
       </c>
       <c r="T278">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U278">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V278">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W278">
         <v>-1</v>
       </c>
       <c r="X278">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y278">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z278">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA278">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB278">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC278">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25284,7 +25284,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6876541</v>
+        <v>6876540</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25296,19 +25296,19 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F279" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G279" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H279">
         <v>1</v>
       </c>
       <c r="I279">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J279" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K279">
         <v>2</v>
@@ -25320,16 +25320,16 @@
         <v>3.6</v>
       </c>
       <c r="N279">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O279">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P279">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q279">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R279">
         <v>1.95</v>
@@ -25338,34 +25338,34 @@
         <v>1.9</v>
       </c>
       <c r="T279">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U279">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V279">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W279">
         <v>-1</v>
       </c>
       <c r="X279">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y279">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z279">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA279">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB279">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC279">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25640,7 +25640,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6876549</v>
+        <v>6876552</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25652,76 +25652,76 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F283" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G283" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H283">
         <v>1</v>
       </c>
       <c r="I283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K283">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L283">
         <v>3.4</v>
       </c>
       <c r="M283">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N283">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O283">
         <v>3.6</v>
       </c>
       <c r="P283">
+        <v>3.3</v>
+      </c>
+      <c r="Q283">
+        <v>-0.5</v>
+      </c>
+      <c r="R283">
         <v>2.05</v>
       </c>
-      <c r="Q283">
-        <v>0.25</v>
-      </c>
-      <c r="R283">
-        <v>2.025</v>
-      </c>
       <c r="S283">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T283">
         <v>2.5</v>
       </c>
       <c r="U283">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V283">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W283">
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y283">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z283">
         <v>-1</v>
       </c>
       <c r="AA283">
+        <v>0.8</v>
+      </c>
+      <c r="AB283">
+        <v>-1</v>
+      </c>
+      <c r="AC283">
         <v>0.825</v>
-      </c>
-      <c r="AB283">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC283">
-        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25729,7 +25729,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6876552</v>
+        <v>6876549</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25741,76 +25741,76 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F284" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G284" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H284">
         <v>1</v>
       </c>
       <c r="I284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J284" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K284">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="L284">
         <v>3.4</v>
       </c>
       <c r="M284">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N284">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O284">
         <v>3.6</v>
       </c>
       <c r="P284">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q284">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R284">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S284">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T284">
         <v>2.5</v>
       </c>
       <c r="U284">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V284">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W284">
         <v>-1</v>
       </c>
       <c r="X284">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y284">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z284">
         <v>-1</v>
       </c>
       <c r="AA284">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB284">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC284">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -27509,7 +27509,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6876563</v>
+        <v>6875467</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27521,40 +27521,40 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F304" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G304" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I304">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J304" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K304">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="L304">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M304">
-        <v>2.55</v>
+        <v>3.9</v>
       </c>
       <c r="N304">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O304">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P304">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q304">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R304">
         <v>1.875</v>
@@ -27563,31 +27563,31 @@
         <v>1.975</v>
       </c>
       <c r="T304">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U304">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V304">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W304">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X304">
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z304">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA304">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB304">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC304">
         <v>-1</v>
@@ -27598,7 +27598,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6875467</v>
+        <v>6876563</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27610,40 +27610,40 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F305" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G305" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H305">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I305">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J305" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K305">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="L305">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M305">
-        <v>3.9</v>
+        <v>2.55</v>
       </c>
       <c r="N305">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O305">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P305">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q305">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R305">
         <v>1.875</v>
@@ -27652,31 +27652,31 @@
         <v>1.975</v>
       </c>
       <c r="T305">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U305">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V305">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W305">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X305">
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z305">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA305">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB305">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC305">
         <v>-1</v>
@@ -28399,7 +28399,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7515550</v>
+        <v>7513577</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28411,13 +28411,13 @@
         <v>45290.52083333334</v>
       </c>
       <c r="F314" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G314" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I314">
         <v>0</v>
@@ -28426,43 +28426,43 @@
         <v>51</v>
       </c>
       <c r="K314">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L314">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M314">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N314">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O314">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P314">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q314">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R314">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S314">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T314">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U314">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V314">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W314">
-        <v>1.3</v>
+        <v>0.833</v>
       </c>
       <c r="X314">
         <v>-1</v>
@@ -28471,16 +28471,16 @@
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA314">
         <v>-1</v>
       </c>
       <c r="AB314">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC314">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28488,7 +28488,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7513577</v>
+        <v>7515550</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28500,13 +28500,13 @@
         <v>45290.52083333334</v>
       </c>
       <c r="F315" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G315" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H315">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I315">
         <v>0</v>
@@ -28515,43 +28515,43 @@
         <v>51</v>
       </c>
       <c r="K315">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L315">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M315">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N315">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O315">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P315">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q315">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R315">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S315">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T315">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U315">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V315">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W315">
-        <v>0.833</v>
+        <v>1.3</v>
       </c>
       <c r="X315">
         <v>-1</v>
@@ -28560,16 +28560,16 @@
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA315">
         <v>-1</v>
       </c>
       <c r="AB315">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC315">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -30001,7 +30001,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6876591</v>
+        <v>6876586</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30013,40 +30013,40 @@
         <v>45305.625</v>
       </c>
       <c r="F332" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G332" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H332">
+        <v>4</v>
+      </c>
+      <c r="I332">
         <v>1</v>
       </c>
-      <c r="I332">
-        <v>4</v>
-      </c>
       <c r="J332" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K332">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="L332">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="M332">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="N332">
-        <v>1.95</v>
+        <v>1.2</v>
       </c>
       <c r="O332">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="P332">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q332">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R332">
         <v>2.025</v>
@@ -30055,31 +30055,31 @@
         <v>1.825</v>
       </c>
       <c r="T332">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U332">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V332">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W332">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X332">
         <v>-1</v>
       </c>
       <c r="Y332">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z332">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA332">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB332">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC332">
         <v>-1</v>
@@ -30090,7 +30090,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6876586</v>
+        <v>6876591</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30102,40 +30102,40 @@
         <v>45305.625</v>
       </c>
       <c r="F333" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G333" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H333">
+        <v>1</v>
+      </c>
+      <c r="I333">
         <v>4</v>
       </c>
-      <c r="I333">
-        <v>1</v>
-      </c>
       <c r="J333" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K333">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="L333">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="M333">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="N333">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="O333">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="P333">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q333">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R333">
         <v>2.025</v>
@@ -30144,31 +30144,31 @@
         <v>1.825</v>
       </c>
       <c r="T333">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U333">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V333">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W333">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X333">
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z333">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA333">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB333">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC333">
         <v>-1</v>
@@ -32315,7 +32315,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>7758962</v>
+        <v>7758961</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32327,13 +32327,13 @@
         <v>45326.625</v>
       </c>
       <c r="F358" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G358" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I358">
         <v>0</v>
@@ -32342,61 +32342,61 @@
         <v>51</v>
       </c>
       <c r="K358">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="L358">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M358">
-        <v>3.2</v>
+        <v>14</v>
       </c>
       <c r="N358">
-        <v>2.05</v>
+        <v>1.142</v>
       </c>
       <c r="O358">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="P358">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="Q358">
+        <v>-2</v>
+      </c>
+      <c r="R358">
+        <v>1.825</v>
+      </c>
+      <c r="S358">
+        <v>2.025</v>
+      </c>
+      <c r="T358">
+        <v>3.25</v>
+      </c>
+      <c r="U358">
+        <v>1.825</v>
+      </c>
+      <c r="V358">
+        <v>2.025</v>
+      </c>
+      <c r="W358">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="X358">
+        <v>-1</v>
+      </c>
+      <c r="Y358">
+        <v>-1</v>
+      </c>
+      <c r="Z358">
+        <v>0.825</v>
+      </c>
+      <c r="AA358">
+        <v>-1</v>
+      </c>
+      <c r="AB358">
         <v>-0.5</v>
       </c>
-      <c r="R358">
-        <v>2.06</v>
-      </c>
-      <c r="S358">
-        <v>1.84</v>
-      </c>
-      <c r="T358">
-        <v>2.5</v>
-      </c>
-      <c r="U358">
-        <v>1.975</v>
-      </c>
-      <c r="V358">
-        <v>1.875</v>
-      </c>
-      <c r="W358">
-        <v>1.05</v>
-      </c>
-      <c r="X358">
-        <v>-1</v>
-      </c>
-      <c r="Y358">
-        <v>-1</v>
-      </c>
-      <c r="Z358">
-        <v>1.06</v>
-      </c>
-      <c r="AA358">
-        <v>-1</v>
-      </c>
-      <c r="AB358">
-        <v>-1</v>
-      </c>
       <c r="AC358">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="359" spans="1:29">
@@ -32404,7 +32404,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>7758961</v>
+        <v>7758962</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32416,13 +32416,13 @@
         <v>45326.625</v>
       </c>
       <c r="F359" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G359" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H359">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I359">
         <v>0</v>
@@ -32431,43 +32431,43 @@
         <v>51</v>
       </c>
       <c r="K359">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="L359">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M359">
-        <v>14</v>
+        <v>3.2</v>
       </c>
       <c r="N359">
-        <v>1.142</v>
+        <v>2.05</v>
       </c>
       <c r="O359">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="P359">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="Q359">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R359">
-        <v>1.825</v>
+        <v>2.06</v>
       </c>
       <c r="S359">
-        <v>2.025</v>
+        <v>1.84</v>
       </c>
       <c r="T359">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U359">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V359">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W359">
-        <v>0.1419999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X359">
         <v>-1</v>
@@ -32476,16 +32476,16 @@
         <v>-1</v>
       </c>
       <c r="Z359">
-        <v>0.825</v>
+        <v>1.06</v>
       </c>
       <c r="AA359">
         <v>-1</v>
       </c>
       <c r="AB359">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC359">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="360" spans="1:29">
@@ -32760,7 +32760,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>6876621</v>
+        <v>6876620</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32769,64 +32769,79 @@
         <v>28</v>
       </c>
       <c r="E363" s="2">
-        <v>45333.52083333334</v>
+        <v>45332.52083333334</v>
       </c>
       <c r="F363" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G363" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="H363">
+        <v>1</v>
+      </c>
+      <c r="I363">
+        <v>1</v>
+      </c>
+      <c r="J363" t="s">
+        <v>52</v>
       </c>
       <c r="K363">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="L363">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M363">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="N363">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="O363">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P363">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q363">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R363">
-        <v>1.81</v>
+        <v>2.075</v>
       </c>
       <c r="S363">
-        <v>2.09</v>
+        <v>1.725</v>
       </c>
       <c r="T363">
         <v>2</v>
       </c>
       <c r="U363">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V363">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="W363">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X363">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y363">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z363">
         <v>0</v>
       </c>
       <c r="AA363">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB363">
+        <v>0</v>
+      </c>
+      <c r="AC363">
+        <v>-0</v>
       </c>
     </row>
     <row r="364" spans="1:29">
@@ -32834,7 +32849,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6876619</v>
+        <v>6875474</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32843,64 +32858,79 @@
         <v>28</v>
       </c>
       <c r="E364" s="2">
-        <v>45333.625</v>
+        <v>45332.625</v>
       </c>
       <c r="F364" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G364" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="H364">
+        <v>1</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364" t="s">
+        <v>51</v>
       </c>
       <c r="K364">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L364">
+        <v>3.75</v>
+      </c>
+      <c r="M364">
         <v>4.5</v>
       </c>
-      <c r="M364">
-        <v>6</v>
-      </c>
       <c r="N364">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="O364">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P364">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q364">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R364">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S364">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T364">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U364">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V364">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W364">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X364">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y364">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z364">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA364">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB364">
+        <v>-1</v>
+      </c>
+      <c r="AC364">
+        <v>0.75</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -32908,7 +32938,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6876618</v>
+        <v>6876623</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32917,64 +32947,79 @@
         <v>28</v>
       </c>
       <c r="E365" s="2">
-        <v>45333.72916666666</v>
+        <v>45332.72916666666</v>
       </c>
       <c r="F365" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G365" t="s">
-        <v>30</v>
+        <v>44</v>
+      </c>
+      <c r="H365">
+        <v>2</v>
+      </c>
+      <c r="I365">
+        <v>1</v>
+      </c>
+      <c r="J365" t="s">
+        <v>51</v>
       </c>
       <c r="K365">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="L365">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M365">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="N365">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="O365">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P365">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="Q365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R365">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S365">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="T365">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U365">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V365">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W365">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X365">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y365">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z365">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA365">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB365">
+        <v>0.875</v>
+      </c>
+      <c r="AC365">
+        <v>-1</v>
       </c>
     </row>
     <row r="366" spans="1:29">
@@ -32982,7 +33027,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>6876622</v>
+        <v>6876621</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -32991,64 +33036,79 @@
         <v>28</v>
       </c>
       <c r="E366" s="2">
-        <v>45334.71875</v>
+        <v>45333.52083333334</v>
       </c>
       <c r="F366" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G366" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="H366">
+        <v>1</v>
+      </c>
+      <c r="I366">
+        <v>0</v>
+      </c>
+      <c r="J366" t="s">
+        <v>51</v>
       </c>
       <c r="K366">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="L366">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M366">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="N366">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="O366">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P366">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q366">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R366">
-        <v>2.06</v>
+        <v>2.025</v>
       </c>
       <c r="S366">
-        <v>1.84</v>
+        <v>1.825</v>
       </c>
       <c r="T366">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U366">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V366">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W366">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X366">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y366">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z366">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA366">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB366">
+        <v>-1</v>
+      </c>
+      <c r="AC366">
+        <v>0.875</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33056,72 +33116,1020 @@
         <v>365</v>
       </c>
       <c r="B367">
+        <v>6876619</v>
+      </c>
+      <c r="C367" t="s">
+        <v>28</v>
+      </c>
+      <c r="D367" t="s">
+        <v>28</v>
+      </c>
+      <c r="E367" s="2">
+        <v>45333.625</v>
+      </c>
+      <c r="F367" t="s">
+        <v>46</v>
+      </c>
+      <c r="G367" t="s">
+        <v>41</v>
+      </c>
+      <c r="H367">
+        <v>5</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367" t="s">
+        <v>51</v>
+      </c>
+      <c r="K367">
+        <v>1.5</v>
+      </c>
+      <c r="L367">
+        <v>4.5</v>
+      </c>
+      <c r="M367">
+        <v>6</v>
+      </c>
+      <c r="N367">
+        <v>1.5</v>
+      </c>
+      <c r="O367">
+        <v>4.5</v>
+      </c>
+      <c r="P367">
+        <v>6.5</v>
+      </c>
+      <c r="Q367">
+        <v>-1.25</v>
+      </c>
+      <c r="R367">
+        <v>2.025</v>
+      </c>
+      <c r="S367">
+        <v>1.825</v>
+      </c>
+      <c r="T367">
+        <v>3</v>
+      </c>
+      <c r="U367">
+        <v>1.875</v>
+      </c>
+      <c r="V367">
+        <v>1.975</v>
+      </c>
+      <c r="W367">
+        <v>0.5</v>
+      </c>
+      <c r="X367">
+        <v>-1</v>
+      </c>
+      <c r="Y367">
+        <v>-1</v>
+      </c>
+      <c r="Z367">
+        <v>1.025</v>
+      </c>
+      <c r="AA367">
+        <v>-1</v>
+      </c>
+      <c r="AB367">
+        <v>0.875</v>
+      </c>
+      <c r="AC367">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:29">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>6876618</v>
+      </c>
+      <c r="C368" t="s">
+        <v>28</v>
+      </c>
+      <c r="D368" t="s">
+        <v>28</v>
+      </c>
+      <c r="E368" s="2">
+        <v>45333.72916666666</v>
+      </c>
+      <c r="F368" t="s">
+        <v>33</v>
+      </c>
+      <c r="G368" t="s">
+        <v>30</v>
+      </c>
+      <c r="H368">
+        <v>2</v>
+      </c>
+      <c r="I368">
+        <v>2</v>
+      </c>
+      <c r="J368" t="s">
+        <v>52</v>
+      </c>
+      <c r="K368">
+        <v>5</v>
+      </c>
+      <c r="L368">
+        <v>4</v>
+      </c>
+      <c r="M368">
+        <v>1.615</v>
+      </c>
+      <c r="N368">
+        <v>5.25</v>
+      </c>
+      <c r="O368">
+        <v>4</v>
+      </c>
+      <c r="P368">
+        <v>1.615</v>
+      </c>
+      <c r="Q368">
+        <v>0.75</v>
+      </c>
+      <c r="R368">
+        <v>2.025</v>
+      </c>
+      <c r="S368">
+        <v>1.825</v>
+      </c>
+      <c r="T368">
+        <v>2.75</v>
+      </c>
+      <c r="U368">
+        <v>1.925</v>
+      </c>
+      <c r="V368">
+        <v>1.925</v>
+      </c>
+      <c r="W368">
+        <v>-1</v>
+      </c>
+      <c r="X368">
+        <v>3</v>
+      </c>
+      <c r="Y368">
+        <v>-1</v>
+      </c>
+      <c r="Z368">
+        <v>1.025</v>
+      </c>
+      <c r="AA368">
+        <v>-1</v>
+      </c>
+      <c r="AB368">
+        <v>0.925</v>
+      </c>
+      <c r="AC368">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:29">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>6876622</v>
+      </c>
+      <c r="C369" t="s">
+        <v>28</v>
+      </c>
+      <c r="D369" t="s">
+        <v>28</v>
+      </c>
+      <c r="E369" s="2">
+        <v>45334.71875</v>
+      </c>
+      <c r="F369" t="s">
+        <v>32</v>
+      </c>
+      <c r="G369" t="s">
+        <v>43</v>
+      </c>
+      <c r="H369">
+        <v>3</v>
+      </c>
+      <c r="I369">
+        <v>2</v>
+      </c>
+      <c r="J369" t="s">
+        <v>51</v>
+      </c>
+      <c r="K369">
+        <v>7.5</v>
+      </c>
+      <c r="L369">
+        <v>4.5</v>
+      </c>
+      <c r="M369">
+        <v>1.4</v>
+      </c>
+      <c r="N369">
+        <v>8</v>
+      </c>
+      <c r="O369">
+        <v>4.333</v>
+      </c>
+      <c r="P369">
+        <v>1.444</v>
+      </c>
+      <c r="Q369">
+        <v>1.25</v>
+      </c>
+      <c r="R369">
+        <v>1.9</v>
+      </c>
+      <c r="S369">
+        <v>1.95</v>
+      </c>
+      <c r="T369">
+        <v>2.75</v>
+      </c>
+      <c r="U369">
+        <v>1.8</v>
+      </c>
+      <c r="V369">
+        <v>2.05</v>
+      </c>
+      <c r="W369">
+        <v>7</v>
+      </c>
+      <c r="X369">
+        <v>-1</v>
+      </c>
+      <c r="Y369">
+        <v>-1</v>
+      </c>
+      <c r="Z369">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA369">
+        <v>-1</v>
+      </c>
+      <c r="AB369">
+        <v>0.8</v>
+      </c>
+      <c r="AC369">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:29">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370">
         <v>6876624</v>
       </c>
-      <c r="C367" t="s">
-        <v>28</v>
-      </c>
-      <c r="D367" t="s">
-        <v>28</v>
-      </c>
-      <c r="E367" s="2">
+      <c r="C370" t="s">
+        <v>28</v>
+      </c>
+      <c r="D370" t="s">
+        <v>28</v>
+      </c>
+      <c r="E370" s="2">
         <v>45335.52083333334</v>
       </c>
-      <c r="F367" t="s">
+      <c r="F370" t="s">
         <v>45</v>
       </c>
-      <c r="G367" t="s">
+      <c r="G370" t="s">
         <v>39</v>
       </c>
-      <c r="K367">
+      <c r="H370">
+        <v>0</v>
+      </c>
+      <c r="I370">
+        <v>1</v>
+      </c>
+      <c r="J370" t="s">
+        <v>50</v>
+      </c>
+      <c r="K370">
         <v>1.909</v>
       </c>
-      <c r="L367">
+      <c r="L370">
         <v>3.6</v>
       </c>
-      <c r="M367">
+      <c r="M370">
         <v>3.8</v>
       </c>
-      <c r="N367">
+      <c r="N370">
         <v>2</v>
       </c>
-      <c r="O367">
+      <c r="O370">
         <v>3.6</v>
       </c>
-      <c r="P367">
+      <c r="P370">
+        <v>3.75</v>
+      </c>
+      <c r="Q370">
+        <v>-0.5</v>
+      </c>
+      <c r="R370">
+        <v>1.975</v>
+      </c>
+      <c r="S370">
+        <v>1.875</v>
+      </c>
+      <c r="T370">
+        <v>2.5</v>
+      </c>
+      <c r="U370">
+        <v>1.95</v>
+      </c>
+      <c r="V370">
+        <v>1.9</v>
+      </c>
+      <c r="W370">
+        <v>-1</v>
+      </c>
+      <c r="X370">
+        <v>-1</v>
+      </c>
+      <c r="Y370">
+        <v>2.75</v>
+      </c>
+      <c r="Z370">
+        <v>-1</v>
+      </c>
+      <c r="AA370">
+        <v>0.875</v>
+      </c>
+      <c r="AB370">
+        <v>-1</v>
+      </c>
+      <c r="AC370">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="371" spans="1:29">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>6876632</v>
+      </c>
+      <c r="C371" t="s">
+        <v>28</v>
+      </c>
+      <c r="D371" t="s">
+        <v>28</v>
+      </c>
+      <c r="E371" s="2">
+        <v>45338.71875</v>
+      </c>
+      <c r="F371" t="s">
+        <v>31</v>
+      </c>
+      <c r="G371" t="s">
+        <v>40</v>
+      </c>
+      <c r="K371">
+        <v>2.1</v>
+      </c>
+      <c r="L371">
+        <v>3.25</v>
+      </c>
+      <c r="M371">
         <v>3.6</v>
       </c>
-      <c r="Q367">
-        <v>-0.5</v>
-      </c>
-      <c r="R367">
-        <v>2.08</v>
-      </c>
-      <c r="S367">
-        <v>1.82</v>
-      </c>
-      <c r="T367">
+      <c r="N371">
+        <v>2.15</v>
+      </c>
+      <c r="O371">
+        <v>3.1</v>
+      </c>
+      <c r="P371">
+        <v>3.75</v>
+      </c>
+      <c r="Q371">
+        <v>-0.25</v>
+      </c>
+      <c r="R371">
+        <v>1.88</v>
+      </c>
+      <c r="S371">
+        <v>2.02</v>
+      </c>
+      <c r="T371">
+        <v>2</v>
+      </c>
+      <c r="U371">
+        <v>1.925</v>
+      </c>
+      <c r="V371">
+        <v>1.925</v>
+      </c>
+      <c r="W371">
+        <v>0</v>
+      </c>
+      <c r="X371">
+        <v>0</v>
+      </c>
+      <c r="Y371">
+        <v>0</v>
+      </c>
+      <c r="Z371">
+        <v>0</v>
+      </c>
+      <c r="AA371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:29">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>6876628</v>
+      </c>
+      <c r="C372" t="s">
+        <v>28</v>
+      </c>
+      <c r="D372" t="s">
+        <v>28</v>
+      </c>
+      <c r="E372" s="2">
+        <v>45339.52083333334</v>
+      </c>
+      <c r="F372" t="s">
+        <v>42</v>
+      </c>
+      <c r="G372" t="s">
+        <v>37</v>
+      </c>
+      <c r="K372">
+        <v>2.375</v>
+      </c>
+      <c r="L372">
+        <v>3.4</v>
+      </c>
+      <c r="M372">
+        <v>2.9</v>
+      </c>
+      <c r="N372">
+        <v>2.4</v>
+      </c>
+      <c r="O372">
+        <v>3.2</v>
+      </c>
+      <c r="P372">
+        <v>3</v>
+      </c>
+      <c r="Q372">
+        <v>-0.25</v>
+      </c>
+      <c r="R372">
+        <v>2.09</v>
+      </c>
+      <c r="S372">
+        <v>1.81</v>
+      </c>
+      <c r="T372">
         <v>2.5</v>
       </c>
-      <c r="U367">
+      <c r="U372">
+        <v>2.05</v>
+      </c>
+      <c r="V372">
+        <v>1.8</v>
+      </c>
+      <c r="W372">
+        <v>0</v>
+      </c>
+      <c r="X372">
+        <v>0</v>
+      </c>
+      <c r="Y372">
+        <v>0</v>
+      </c>
+      <c r="Z372">
+        <v>0</v>
+      </c>
+      <c r="AA372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:29">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>6876627</v>
+      </c>
+      <c r="C373" t="s">
+        <v>28</v>
+      </c>
+      <c r="D373" t="s">
+        <v>28</v>
+      </c>
+      <c r="E373" s="2">
+        <v>45339.625</v>
+      </c>
+      <c r="F373" t="s">
+        <v>38</v>
+      </c>
+      <c r="G373" t="s">
+        <v>33</v>
+      </c>
+      <c r="K373">
+        <v>4.333</v>
+      </c>
+      <c r="L373">
+        <v>3.5</v>
+      </c>
+      <c r="M373">
+        <v>1.833</v>
+      </c>
+      <c r="N373">
+        <v>4.5</v>
+      </c>
+      <c r="O373">
+        <v>3.6</v>
+      </c>
+      <c r="P373">
+        <v>1.8</v>
+      </c>
+      <c r="Q373">
+        <v>0.75</v>
+      </c>
+      <c r="R373">
+        <v>1.83</v>
+      </c>
+      <c r="S373">
+        <v>2.07</v>
+      </c>
+      <c r="T373">
+        <v>2.5</v>
+      </c>
+      <c r="U373">
+        <v>2.025</v>
+      </c>
+      <c r="V373">
+        <v>1.825</v>
+      </c>
+      <c r="W373">
+        <v>0</v>
+      </c>
+      <c r="X373">
+        <v>0</v>
+      </c>
+      <c r="Y373">
+        <v>0</v>
+      </c>
+      <c r="Z373">
+        <v>0</v>
+      </c>
+      <c r="AA373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:29">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>6876629</v>
+      </c>
+      <c r="C374" t="s">
+        <v>28</v>
+      </c>
+      <c r="D374" t="s">
+        <v>28</v>
+      </c>
+      <c r="E374" s="2">
+        <v>45339.72916666666</v>
+      </c>
+      <c r="F374" t="s">
+        <v>43</v>
+      </c>
+      <c r="G374" t="s">
+        <v>48</v>
+      </c>
+      <c r="K374">
+        <v>1.222</v>
+      </c>
+      <c r="L374">
+        <v>6.5</v>
+      </c>
+      <c r="M374">
+        <v>11</v>
+      </c>
+      <c r="N374">
+        <v>1.222</v>
+      </c>
+      <c r="O374">
+        <v>6</v>
+      </c>
+      <c r="P374">
+        <v>12</v>
+      </c>
+      <c r="Q374">
+        <v>-1.75</v>
+      </c>
+      <c r="R374">
+        <v>1.85</v>
+      </c>
+      <c r="S374">
+        <v>2.05</v>
+      </c>
+      <c r="T374">
+        <v>3</v>
+      </c>
+      <c r="U374">
+        <v>1.875</v>
+      </c>
+      <c r="V374">
+        <v>1.975</v>
+      </c>
+      <c r="W374">
+        <v>0</v>
+      </c>
+      <c r="X374">
+        <v>0</v>
+      </c>
+      <c r="Y374">
+        <v>0</v>
+      </c>
+      <c r="Z374">
+        <v>0</v>
+      </c>
+      <c r="AA374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:29">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>6876626</v>
+      </c>
+      <c r="C375" t="s">
+        <v>28</v>
+      </c>
+      <c r="D375" t="s">
+        <v>28</v>
+      </c>
+      <c r="E375" s="2">
+        <v>45340.52083333334</v>
+      </c>
+      <c r="F375" t="s">
+        <v>34</v>
+      </c>
+      <c r="G375" t="s">
+        <v>32</v>
+      </c>
+      <c r="K375">
+        <v>2.7</v>
+      </c>
+      <c r="L375">
+        <v>3</v>
+      </c>
+      <c r="M375">
+        <v>2.8</v>
+      </c>
+      <c r="N375">
+        <v>3.2</v>
+      </c>
+      <c r="O375">
+        <v>3</v>
+      </c>
+      <c r="P375">
+        <v>2.4</v>
+      </c>
+      <c r="Q375">
+        <v>0.25</v>
+      </c>
+      <c r="R375">
+        <v>1.85</v>
+      </c>
+      <c r="S375">
+        <v>2.05</v>
+      </c>
+      <c r="T375">
+        <v>2.25</v>
+      </c>
+      <c r="U375">
+        <v>2</v>
+      </c>
+      <c r="V375">
+        <v>1.85</v>
+      </c>
+      <c r="W375">
+        <v>0</v>
+      </c>
+      <c r="X375">
+        <v>0</v>
+      </c>
+      <c r="Y375">
+        <v>0</v>
+      </c>
+      <c r="Z375">
+        <v>0</v>
+      </c>
+      <c r="AA375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:29">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>6876633</v>
+      </c>
+      <c r="C376" t="s">
+        <v>28</v>
+      </c>
+      <c r="D376" t="s">
+        <v>28</v>
+      </c>
+      <c r="E376" s="2">
+        <v>45340.625</v>
+      </c>
+      <c r="F376" t="s">
+        <v>44</v>
+      </c>
+      <c r="G376" t="s">
+        <v>45</v>
+      </c>
+      <c r="K376">
+        <v>2.2</v>
+      </c>
+      <c r="L376">
+        <v>3.4</v>
+      </c>
+      <c r="M376">
+        <v>3.2</v>
+      </c>
+      <c r="N376">
+        <v>2.1</v>
+      </c>
+      <c r="O376">
+        <v>3.4</v>
+      </c>
+      <c r="P376">
+        <v>3.4</v>
+      </c>
+      <c r="Q376">
+        <v>-0.25</v>
+      </c>
+      <c r="R376">
+        <v>1.85</v>
+      </c>
+      <c r="S376">
+        <v>2.05</v>
+      </c>
+      <c r="T376">
+        <v>2.5</v>
+      </c>
+      <c r="U376">
+        <v>1.925</v>
+      </c>
+      <c r="V376">
+        <v>1.925</v>
+      </c>
+      <c r="W376">
+        <v>0</v>
+      </c>
+      <c r="X376">
+        <v>0</v>
+      </c>
+      <c r="Y376">
+        <v>0</v>
+      </c>
+      <c r="Z376">
+        <v>0</v>
+      </c>
+      <c r="AA376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:29">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>6876630</v>
+      </c>
+      <c r="C377" t="s">
+        <v>28</v>
+      </c>
+      <c r="D377" t="s">
+        <v>28</v>
+      </c>
+      <c r="E377" s="2">
+        <v>45340.625</v>
+      </c>
+      <c r="F377" t="s">
+        <v>30</v>
+      </c>
+      <c r="G377" t="s">
+        <v>39</v>
+      </c>
+      <c r="K377">
+        <v>1.111</v>
+      </c>
+      <c r="L377">
+        <v>8.5</v>
+      </c>
+      <c r="M377">
+        <v>21</v>
+      </c>
+      <c r="N377">
+        <v>1.142</v>
+      </c>
+      <c r="O377">
+        <v>7.5</v>
+      </c>
+      <c r="P377">
+        <v>19</v>
+      </c>
+      <c r="Q377">
+        <v>-2.25</v>
+      </c>
+      <c r="R377">
+        <v>1.99</v>
+      </c>
+      <c r="S377">
+        <v>1.91</v>
+      </c>
+      <c r="T377">
+        <v>3.25</v>
+      </c>
+      <c r="U377">
+        <v>1.875</v>
+      </c>
+      <c r="V377">
+        <v>1.975</v>
+      </c>
+      <c r="W377">
+        <v>0</v>
+      </c>
+      <c r="X377">
+        <v>0</v>
+      </c>
+      <c r="Y377">
+        <v>0</v>
+      </c>
+      <c r="Z377">
+        <v>0</v>
+      </c>
+      <c r="AA377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:29">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>6876631</v>
+      </c>
+      <c r="C378" t="s">
+        <v>28</v>
+      </c>
+      <c r="D378" t="s">
+        <v>28</v>
+      </c>
+      <c r="E378" s="2">
+        <v>45340.72916666666</v>
+      </c>
+      <c r="F378" t="s">
+        <v>41</v>
+      </c>
+      <c r="G378" t="s">
+        <v>47</v>
+      </c>
+      <c r="K378">
+        <v>1.363</v>
+      </c>
+      <c r="L378">
+        <v>5</v>
+      </c>
+      <c r="M378">
+        <v>7.5</v>
+      </c>
+      <c r="N378">
+        <v>1.333</v>
+      </c>
+      <c r="O378">
+        <v>5</v>
+      </c>
+      <c r="P378">
+        <v>8.5</v>
+      </c>
+      <c r="Q378">
+        <v>-1.5</v>
+      </c>
+      <c r="R378">
+        <v>1.99</v>
+      </c>
+      <c r="S378">
+        <v>1.91</v>
+      </c>
+      <c r="T378">
+        <v>3</v>
+      </c>
+      <c r="U378">
+        <v>1.875</v>
+      </c>
+      <c r="V378">
+        <v>1.975</v>
+      </c>
+      <c r="W378">
+        <v>0</v>
+      </c>
+      <c r="X378">
+        <v>0</v>
+      </c>
+      <c r="Y378">
+        <v>0</v>
+      </c>
+      <c r="Z378">
+        <v>0</v>
+      </c>
+      <c r="AA378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:29">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>6875475</v>
+      </c>
+      <c r="C379" t="s">
+        <v>28</v>
+      </c>
+      <c r="D379" t="s">
+        <v>28</v>
+      </c>
+      <c r="E379" s="2">
+        <v>45341.71875</v>
+      </c>
+      <c r="F379" t="s">
+        <v>49</v>
+      </c>
+      <c r="G379" t="s">
+        <v>46</v>
+      </c>
+      <c r="K379">
+        <v>6</v>
+      </c>
+      <c r="L379">
+        <v>4.333</v>
+      </c>
+      <c r="M379">
+        <v>1.45</v>
+      </c>
+      <c r="N379">
+        <v>7</v>
+      </c>
+      <c r="O379">
+        <v>4.75</v>
+      </c>
+      <c r="P379">
+        <v>1.4</v>
+      </c>
+      <c r="Q379">
+        <v>1.25</v>
+      </c>
+      <c r="R379">
         <v>1.95</v>
       </c>
-      <c r="V367">
-        <v>1.9</v>
-      </c>
-      <c r="W367">
-        <v>0</v>
-      </c>
-      <c r="X367">
-        <v>0</v>
-      </c>
-      <c r="Y367">
-        <v>0</v>
-      </c>
-      <c r="Z367">
-        <v>0</v>
-      </c>
-      <c r="AA367">
+      <c r="S379">
+        <v>1.95</v>
+      </c>
+      <c r="T379">
+        <v>2.75</v>
+      </c>
+      <c r="U379">
+        <v>2.025</v>
+      </c>
+      <c r="V379">
+        <v>1.825</v>
+      </c>
+      <c r="W379">
+        <v>0</v>
+      </c>
+      <c r="X379">
+        <v>0</v>
+      </c>
+      <c r="Y379">
+        <v>0</v>
+      </c>
+      <c r="Z379">
+        <v>0</v>
+      </c>
+      <c r="AA379">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC379"/>
+  <dimension ref="A1:AC378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3123,7 +3123,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5265613</v>
+        <v>5265726</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3135,13 +3135,13 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -3150,43 +3150,43 @@
         <v>51</v>
       </c>
       <c r="K30">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M30">
+        <v>3.5</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <v>3.3</v>
+      </c>
+      <c r="P30">
         <v>3.8</v>
-      </c>
-      <c r="N30">
-        <v>1.95</v>
-      </c>
-      <c r="O30">
-        <v>3</v>
-      </c>
-      <c r="P30">
-        <v>4.5</v>
       </c>
       <c r="Q30">
         <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V30">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W30">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3195,13 +3195,13 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3212,7 +3212,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5265726</v>
+        <v>5265613</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3224,13 +3224,13 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -3239,43 +3239,43 @@
         <v>51</v>
       </c>
       <c r="K31">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L31">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M31">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O31">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P31">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q31">
         <v>-0.5</v>
       </c>
       <c r="R31">
+        <v>1.975</v>
+      </c>
+      <c r="S31">
+        <v>1.875</v>
+      </c>
+      <c r="T31">
         <v>2</v>
       </c>
-      <c r="S31">
-        <v>1.85</v>
-      </c>
-      <c r="T31">
-        <v>2.25</v>
-      </c>
       <c r="U31">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V31">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3284,13 +3284,13 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5265654</v>
+        <v>5265751</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,73 +9810,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K105">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L105">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N105">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O105">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R105">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z105">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9887,7 +9887,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5265751</v>
+        <v>5265654</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9899,73 +9899,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K106">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M106">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N106">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="O106">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P106">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="Q106">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V106">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AA106">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -12379,7 +12379,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>5265675</v>
+        <v>5265671</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12391,76 +12391,76 @@
         <v>45039.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H134">
         <v>1</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K134">
-        <v>1.111</v>
+        <v>2.7</v>
       </c>
       <c r="L134">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="M134">
-        <v>17</v>
+        <v>2.7</v>
       </c>
       <c r="N134">
-        <v>1.142</v>
+        <v>2.6</v>
       </c>
       <c r="O134">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="P134">
-        <v>15</v>
+        <v>2.7</v>
       </c>
       <c r="Q134">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T134">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
+        <v>1.95</v>
+      </c>
+      <c r="V134">
         <v>1.9</v>
       </c>
-      <c r="V134">
-        <v>1.95</v>
-      </c>
       <c r="W134">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA134">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC134">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12468,7 +12468,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5265671</v>
+        <v>5265675</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12480,76 +12480,76 @@
         <v>45039.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G135" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K135">
-        <v>2.7</v>
+        <v>1.111</v>
       </c>
       <c r="L135">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="M135">
-        <v>2.7</v>
+        <v>17</v>
       </c>
       <c r="N135">
-        <v>2.6</v>
+        <v>1.142</v>
       </c>
       <c r="O135">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="P135">
-        <v>2.7</v>
+        <v>15</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R135">
+        <v>2</v>
+      </c>
+      <c r="S135">
+        <v>1.85</v>
+      </c>
+      <c r="T135">
+        <v>3.25</v>
+      </c>
+      <c r="U135">
         <v>1.9</v>
       </c>
-      <c r="S135">
+      <c r="V135">
         <v>1.95</v>
       </c>
-      <c r="T135">
-        <v>2.25</v>
-      </c>
-      <c r="U135">
-        <v>1.95</v>
-      </c>
-      <c r="V135">
-        <v>1.9</v>
-      </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X135">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5265682</v>
+        <v>5265761</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,76 +13014,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K141">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M141">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="N141">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O141">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P141">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="S141">
-        <v>1.98</v>
+        <v>1.925</v>
       </c>
       <c r="T141">
         <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA141">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5265761</v>
+        <v>5265682</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,76 +13103,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K142">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="N142">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O142">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.925</v>
+        <v>1.92</v>
       </c>
       <c r="S142">
-        <v>1.925</v>
+        <v>1.98</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W142">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z142">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC142">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -14426,7 +14426,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5473931</v>
+        <v>5462477</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14438,76 +14438,76 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K157">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L157">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M157">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N157">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O157">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P157">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R157">
+        <v>1.9</v>
+      </c>
+      <c r="S157">
+        <v>1.95</v>
+      </c>
+      <c r="T157">
+        <v>2.25</v>
+      </c>
+      <c r="U157">
         <v>1.875</v>
       </c>
-      <c r="S157">
+      <c r="V157">
         <v>1.975</v>
       </c>
-      <c r="T157">
-        <v>2.5</v>
-      </c>
-      <c r="U157">
-        <v>1.9</v>
-      </c>
-      <c r="V157">
-        <v>1.95</v>
-      </c>
       <c r="W157">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14515,7 +14515,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>5462477</v>
+        <v>5473931</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14527,76 +14527,76 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K158">
+        <v>2.05</v>
+      </c>
+      <c r="L158">
+        <v>3.3</v>
+      </c>
+      <c r="M158">
+        <v>3.4</v>
+      </c>
+      <c r="N158">
+        <v>2.1</v>
+      </c>
+      <c r="O158">
+        <v>3.4</v>
+      </c>
+      <c r="P158">
+        <v>3.1</v>
+      </c>
+      <c r="Q158">
+        <v>-0.25</v>
+      </c>
+      <c r="R158">
+        <v>1.875</v>
+      </c>
+      <c r="S158">
+        <v>1.975</v>
+      </c>
+      <c r="T158">
         <v>2.5</v>
       </c>
-      <c r="L158">
-        <v>3.2</v>
-      </c>
-      <c r="M158">
-        <v>2.6</v>
-      </c>
-      <c r="N158">
-        <v>2.55</v>
-      </c>
-      <c r="O158">
-        <v>3.2</v>
-      </c>
-      <c r="P158">
-        <v>2.55</v>
-      </c>
-      <c r="Q158">
-        <v>0</v>
-      </c>
-      <c r="R158">
+      <c r="U158">
         <v>1.9</v>
       </c>
-      <c r="S158">
+      <c r="V158">
         <v>1.95</v>
       </c>
-      <c r="T158">
-        <v>2.25</v>
-      </c>
-      <c r="U158">
-        <v>1.875</v>
-      </c>
-      <c r="V158">
-        <v>1.975</v>
-      </c>
       <c r="W158">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X158">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA158">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
         <v>-1</v>
       </c>
       <c r="AC158">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5534723</v>
+        <v>5540309</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,73 +16218,73 @@
         <v>45073.47916666666</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J177" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K177">
         <v>2</v>
       </c>
       <c r="L177">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M177">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N177">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O177">
         <v>3.5</v>
       </c>
       <c r="P177">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q177">
         <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z177">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB177">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5540309</v>
+        <v>5534723</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,73 +16307,73 @@
         <v>45073.47916666666</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G178" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H178">
+        <v>3</v>
+      </c>
+      <c r="I178">
         <v>1</v>
       </c>
-      <c r="I178">
-        <v>4</v>
-      </c>
       <c r="J178" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K178">
         <v>2</v>
       </c>
       <c r="L178">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M178">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N178">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O178">
         <v>3.5</v>
       </c>
       <c r="P178">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q178">
         <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S178">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T178">
         <v>2.75</v>
       </c>
       <c r="U178">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V178">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA178">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16384,7 +16384,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5549224</v>
+        <v>5540441</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16396,76 +16396,76 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K179">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="L179">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M179">
-        <v>13</v>
+        <v>2.375</v>
       </c>
       <c r="N179">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="O179">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="P179">
-        <v>11</v>
+        <v>2.15</v>
       </c>
       <c r="Q179">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R179">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S179">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T179">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U179">
+        <v>2.025</v>
+      </c>
+      <c r="V179">
         <v>1.825</v>
       </c>
-      <c r="V179">
-        <v>2.025</v>
-      </c>
       <c r="W179">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16473,7 +16473,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5540441</v>
+        <v>5545146</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16485,76 +16485,76 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K180">
-        <v>2.8</v>
+        <v>1.083</v>
       </c>
       <c r="L180">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M180">
-        <v>2.375</v>
+        <v>34</v>
       </c>
       <c r="N180">
-        <v>3.1</v>
+        <v>1.062</v>
       </c>
       <c r="O180">
-        <v>3.75</v>
+        <v>11</v>
       </c>
       <c r="P180">
-        <v>2.15</v>
+        <v>26</v>
       </c>
       <c r="Q180">
-        <v>0.25</v>
+        <v>-3</v>
       </c>
       <c r="R180">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S180">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T180">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U180">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V180">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA180">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB180">
         <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16562,7 +16562,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>5545146</v>
+        <v>5549224</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16574,10 +16574,10 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H181">
         <v>3</v>
@@ -16589,43 +16589,43 @@
         <v>51</v>
       </c>
       <c r="K181">
-        <v>1.083</v>
+        <v>1.2</v>
       </c>
       <c r="L181">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="M181">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="N181">
-        <v>1.062</v>
+        <v>1.2</v>
       </c>
       <c r="O181">
+        <v>7</v>
+      </c>
+      <c r="P181">
         <v>11</v>
       </c>
-      <c r="P181">
-        <v>26</v>
-      </c>
       <c r="Q181">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="R181">
+        <v>1.95</v>
+      </c>
+      <c r="S181">
+        <v>1.9</v>
+      </c>
+      <c r="T181">
+        <v>3.25</v>
+      </c>
+      <c r="U181">
+        <v>1.825</v>
+      </c>
+      <c r="V181">
         <v>2.025</v>
       </c>
-      <c r="S181">
-        <v>1.825</v>
-      </c>
-      <c r="T181">
-        <v>4</v>
-      </c>
-      <c r="U181">
-        <v>1.925</v>
-      </c>
-      <c r="V181">
-        <v>1.925</v>
-      </c>
       <c r="W181">
-        <v>0.06200000000000006</v>
+        <v>0.2</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16634,16 +16634,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA181">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC181">
-        <v>0.925</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -17808,7 +17808,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6876471</v>
+        <v>6876465</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17820,76 +17820,76 @@
         <v>45157.6875</v>
       </c>
       <c r="F195" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G195" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K195">
-        <v>2.45</v>
+        <v>1.125</v>
       </c>
       <c r="L195">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M195">
-        <v>2.875</v>
+        <v>19</v>
       </c>
       <c r="N195">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="O195">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P195">
-        <v>2.3</v>
+        <v>17</v>
       </c>
       <c r="Q195">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R195">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S195">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T195">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U195">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V195">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA195">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB195">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17897,7 +17897,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6876465</v>
+        <v>6876471</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17909,76 +17909,76 @@
         <v>45157.6875</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G196" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196">
+        <v>4</v>
+      </c>
+      <c r="J196" t="s">
+        <v>50</v>
+      </c>
+      <c r="K196">
+        <v>2.45</v>
+      </c>
+      <c r="L196">
+        <v>3.25</v>
+      </c>
+      <c r="M196">
+        <v>2.875</v>
+      </c>
+      <c r="N196">
+        <v>3</v>
+      </c>
+      <c r="O196">
+        <v>3.3</v>
+      </c>
+      <c r="P196">
+        <v>2.3</v>
+      </c>
+      <c r="Q196">
+        <v>0.25</v>
+      </c>
+      <c r="R196">
+        <v>1.85</v>
+      </c>
+      <c r="S196">
         <v>2</v>
       </c>
-      <c r="I196">
-        <v>0</v>
-      </c>
-      <c r="J196" t="s">
-        <v>51</v>
-      </c>
-      <c r="K196">
-        <v>1.125</v>
-      </c>
-      <c r="L196">
-        <v>8</v>
-      </c>
-      <c r="M196">
-        <v>19</v>
-      </c>
-      <c r="N196">
-        <v>1.142</v>
-      </c>
-      <c r="O196">
-        <v>7.5</v>
-      </c>
-      <c r="P196">
-        <v>17</v>
-      </c>
-      <c r="Q196">
-        <v>-2.25</v>
-      </c>
-      <c r="R196">
+      <c r="T196">
+        <v>2.25</v>
+      </c>
+      <c r="U196">
         <v>1.925</v>
       </c>
-      <c r="S196">
+      <c r="V196">
         <v>1.925</v>
       </c>
-      <c r="T196">
-        <v>3.5</v>
-      </c>
-      <c r="U196">
-        <v>1.875</v>
-      </c>
-      <c r="V196">
-        <v>1.975</v>
-      </c>
       <c r="W196">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z196">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC196">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -20300,7 +20300,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7165060</v>
+        <v>7165059</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20312,40 +20312,40 @@
         <v>45186.47916666666</v>
       </c>
       <c r="F223" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G223" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J223" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K223">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L223">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M223">
         <v>3.2</v>
       </c>
       <c r="N223">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="O223">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P223">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q223">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R223">
         <v>2</v>
@@ -20354,34 +20354,34 @@
         <v>1.85</v>
       </c>
       <c r="T223">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U223">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V223">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA223">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC223">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20389,7 +20389,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7165059</v>
+        <v>7165060</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20401,40 +20401,40 @@
         <v>45186.47916666666</v>
       </c>
       <c r="F224" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G224" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H224">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I224">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K224">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L224">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M224">
         <v>3.2</v>
       </c>
       <c r="N224">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="O224">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P224">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q224">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R224">
         <v>2</v>
@@ -20443,34 +20443,34 @@
         <v>1.85</v>
       </c>
       <c r="T224">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U224">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V224">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W224">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z224">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB224">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -22436,7 +22436,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6876518</v>
+        <v>6876515</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22448,49 +22448,49 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F247" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G247" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J247" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K247">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L247">
         <v>3.2</v>
       </c>
       <c r="M247">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N247">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O247">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P247">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q247">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R247">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S247">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T247">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U247">
         <v>1.95</v>
@@ -22499,25 +22499,25 @@
         <v>1.9</v>
       </c>
       <c r="W247">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X247">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA247">
-        <v>0.445</v>
+        <v>-1</v>
       </c>
       <c r="AB247">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC247">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22525,7 +22525,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6876515</v>
+        <v>6876518</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22537,49 +22537,49 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F248" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G248" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H248">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J248" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K248">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L248">
         <v>3.2</v>
       </c>
       <c r="M248">
+        <v>2.875</v>
+      </c>
+      <c r="N248">
+        <v>2.2</v>
+      </c>
+      <c r="O248">
+        <v>3.2</v>
+      </c>
+      <c r="P248">
+        <v>3.1</v>
+      </c>
+      <c r="Q248">
+        <v>-0.25</v>
+      </c>
+      <c r="R248">
+        <v>2.01</v>
+      </c>
+      <c r="S248">
+        <v>1.89</v>
+      </c>
+      <c r="T248">
         <v>2.5</v>
-      </c>
-      <c r="N248">
-        <v>2.5</v>
-      </c>
-      <c r="O248">
-        <v>3.4</v>
-      </c>
-      <c r="P248">
-        <v>2.45</v>
-      </c>
-      <c r="Q248">
-        <v>0</v>
-      </c>
-      <c r="R248">
-        <v>2</v>
-      </c>
-      <c r="S248">
-        <v>1.9</v>
-      </c>
-      <c r="T248">
-        <v>2.75</v>
       </c>
       <c r="U248">
         <v>1.95</v>
@@ -22588,25 +22588,25 @@
         <v>1.9</v>
       </c>
       <c r="W248">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X248">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA248">
-        <v>-1</v>
+        <v>0.445</v>
       </c>
       <c r="AB248">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -23326,7 +23326,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6876528</v>
+        <v>6876523</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23338,76 +23338,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F257" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G257" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H257">
+        <v>1</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257" t="s">
+        <v>52</v>
+      </c>
+      <c r="K257">
+        <v>1.166</v>
+      </c>
+      <c r="L257">
+        <v>7</v>
+      </c>
+      <c r="M257">
+        <v>15</v>
+      </c>
+      <c r="N257">
+        <v>1.222</v>
+      </c>
+      <c r="O257">
+        <v>6</v>
+      </c>
+      <c r="P257">
+        <v>11</v>
+      </c>
+      <c r="Q257">
+        <v>-1.75</v>
+      </c>
+      <c r="R257">
+        <v>1.875</v>
+      </c>
+      <c r="S257">
+        <v>1.975</v>
+      </c>
+      <c r="T257">
+        <v>3</v>
+      </c>
+      <c r="U257">
+        <v>1.95</v>
+      </c>
+      <c r="V257">
+        <v>1.9</v>
+      </c>
+      <c r="W257">
+        <v>-1</v>
+      </c>
+      <c r="X257">
         <v>5</v>
       </c>
-      <c r="I257">
-        <v>0</v>
-      </c>
-      <c r="J257" t="s">
-        <v>51</v>
-      </c>
-      <c r="K257">
-        <v>1.75</v>
-      </c>
-      <c r="L257">
-        <v>3.6</v>
-      </c>
-      <c r="M257">
-        <v>4.75</v>
-      </c>
-      <c r="N257">
-        <v>1.666</v>
-      </c>
-      <c r="O257">
-        <v>3.75</v>
-      </c>
-      <c r="P257">
-        <v>5</v>
-      </c>
-      <c r="Q257">
-        <v>-0.75</v>
-      </c>
-      <c r="R257">
-        <v>1.9</v>
-      </c>
-      <c r="S257">
-        <v>2</v>
-      </c>
-      <c r="T257">
-        <v>2.5</v>
-      </c>
-      <c r="U257">
-        <v>1.925</v>
-      </c>
-      <c r="V257">
-        <v>1.925</v>
-      </c>
-      <c r="W257">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X257">
-        <v>-1</v>
-      </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
+        <v>-1</v>
+      </c>
+      <c r="AA257">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB257">
+        <v>-1</v>
+      </c>
+      <c r="AC257">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA257">
-        <v>-1</v>
-      </c>
-      <c r="AB257">
-        <v>0.925</v>
-      </c>
-      <c r="AC257">
-        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23415,7 +23415,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6876523</v>
+        <v>6876528</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23427,76 +23427,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F258" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G258" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J258" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K258">
-        <v>1.166</v>
+        <v>1.75</v>
       </c>
       <c r="L258">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M258">
-        <v>15</v>
+        <v>4.75</v>
       </c>
       <c r="N258">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="O258">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P258">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q258">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R258">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S258">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T258">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U258">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V258">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W258">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X258">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y258">
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA258">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC258">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -25195,7 +25195,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6876541</v>
+        <v>6876540</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25207,19 +25207,19 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F278" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G278" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H278">
         <v>1</v>
       </c>
       <c r="I278">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J278" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K278">
         <v>2</v>
@@ -25231,16 +25231,16 @@
         <v>3.6</v>
       </c>
       <c r="N278">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O278">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P278">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q278">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R278">
         <v>1.95</v>
@@ -25249,34 +25249,34 @@
         <v>1.9</v>
       </c>
       <c r="T278">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U278">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V278">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W278">
         <v>-1</v>
       </c>
       <c r="X278">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y278">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z278">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB278">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC278">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25284,7 +25284,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6876540</v>
+        <v>6876541</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25296,19 +25296,19 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F279" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G279" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H279">
         <v>1</v>
       </c>
       <c r="I279">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K279">
         <v>2</v>
@@ -25320,16 +25320,16 @@
         <v>3.6</v>
       </c>
       <c r="N279">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O279">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P279">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q279">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R279">
         <v>1.95</v>
@@ -25338,34 +25338,34 @@
         <v>1.9</v>
       </c>
       <c r="T279">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U279">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V279">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W279">
         <v>-1</v>
       </c>
       <c r="X279">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y279">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA279">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB279">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC279">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -28399,7 +28399,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7513577</v>
+        <v>7515550</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28411,13 +28411,13 @@
         <v>45290.52083333334</v>
       </c>
       <c r="F314" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G314" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H314">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I314">
         <v>0</v>
@@ -28426,43 +28426,43 @@
         <v>51</v>
       </c>
       <c r="K314">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L314">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M314">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N314">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O314">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P314">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q314">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R314">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S314">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T314">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U314">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V314">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W314">
-        <v>0.833</v>
+        <v>1.3</v>
       </c>
       <c r="X314">
         <v>-1</v>
@@ -28471,16 +28471,16 @@
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA314">
         <v>-1</v>
       </c>
       <c r="AB314">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC314">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28488,7 +28488,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7515550</v>
+        <v>7513577</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28500,13 +28500,13 @@
         <v>45290.52083333334</v>
       </c>
       <c r="F315" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G315" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I315">
         <v>0</v>
@@ -28515,43 +28515,43 @@
         <v>51</v>
       </c>
       <c r="K315">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L315">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M315">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N315">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O315">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P315">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q315">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R315">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S315">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T315">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U315">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V315">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W315">
-        <v>1.3</v>
+        <v>0.833</v>
       </c>
       <c r="X315">
         <v>-1</v>
@@ -28560,16 +28560,16 @@
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA315">
         <v>-1</v>
       </c>
       <c r="AB315">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC315">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28933,7 +28933,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6876581</v>
+        <v>6876582</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28945,76 +28945,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F320" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G320" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H320">
         <v>1</v>
       </c>
       <c r="I320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J320" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K320">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L320">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M320">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N320">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O320">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P320">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q320">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R320">
+        <v>1.95</v>
+      </c>
+      <c r="S320">
+        <v>1.9</v>
+      </c>
+      <c r="T320">
+        <v>2.5</v>
+      </c>
+      <c r="U320">
         <v>2.025</v>
       </c>
-      <c r="S320">
+      <c r="V320">
         <v>1.825</v>
       </c>
-      <c r="T320">
-        <v>2.25</v>
-      </c>
-      <c r="U320">
-        <v>1.975</v>
-      </c>
-      <c r="V320">
-        <v>1.875</v>
-      </c>
       <c r="W320">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X320">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y320">
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA320">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB320">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC320">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29022,7 +29022,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6876582</v>
+        <v>6876581</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29034,76 +29034,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F321" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G321" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H321">
         <v>1</v>
       </c>
       <c r="I321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J321" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K321">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L321">
+        <v>3.4</v>
+      </c>
+      <c r="M321">
         <v>3.6</v>
       </c>
-      <c r="M321">
-        <v>4.2</v>
-      </c>
       <c r="N321">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O321">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P321">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q321">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R321">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S321">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T321">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U321">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V321">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W321">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X321">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y321">
         <v>-1</v>
       </c>
       <c r="Z321">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA321">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB321">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC321">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -33472,7 +33472,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>6876632</v>
+        <v>6876628</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33481,49 +33481,49 @@
         <v>28</v>
       </c>
       <c r="E371" s="2">
-        <v>45338.71875</v>
+        <v>45339.52083333334</v>
       </c>
       <c r="F371" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G371" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K371">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L371">
+        <v>3.4</v>
+      </c>
+      <c r="M371">
+        <v>2.9</v>
+      </c>
+      <c r="N371">
+        <v>2.4</v>
+      </c>
+      <c r="O371">
         <v>3.25</v>
       </c>
-      <c r="M371">
-        <v>3.6</v>
-      </c>
-      <c r="N371">
-        <v>2.15</v>
-      </c>
-      <c r="O371">
+      <c r="P371">
         <v>3.1</v>
-      </c>
-      <c r="P371">
-        <v>3.75</v>
       </c>
       <c r="Q371">
         <v>-0.25</v>
       </c>
       <c r="R371">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="S371">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="T371">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U371">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V371">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W371">
         <v>0</v>
@@ -33546,7 +33546,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6876628</v>
+        <v>6876627</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33555,49 +33555,49 @@
         <v>28</v>
       </c>
       <c r="E372" s="2">
-        <v>45339.52083333334</v>
+        <v>45339.625</v>
       </c>
       <c r="F372" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G372" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K372">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="L372">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M372">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="N372">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O372">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P372">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q372">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R372">
-        <v>2.09</v>
+        <v>1.98</v>
       </c>
       <c r="S372">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="T372">
         <v>2.5</v>
       </c>
       <c r="U372">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V372">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W372">
         <v>0</v>
@@ -33620,7 +33620,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6876627</v>
+        <v>6876629</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33629,49 +33629,49 @@
         <v>28</v>
       </c>
       <c r="E373" s="2">
-        <v>45339.625</v>
+        <v>45339.72916666666</v>
       </c>
       <c r="F373" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G373" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="K373">
-        <v>4.333</v>
+        <v>1.222</v>
       </c>
       <c r="L373">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M373">
-        <v>1.833</v>
+        <v>11</v>
       </c>
       <c r="N373">
-        <v>4.5</v>
+        <v>1.222</v>
       </c>
       <c r="O373">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P373">
-        <v>1.8</v>
+        <v>13</v>
       </c>
       <c r="Q373">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R373">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S373">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="T373">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U373">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V373">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W373">
         <v>0</v>
@@ -33694,7 +33694,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6876629</v>
+        <v>6876626</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33703,49 +33703,49 @@
         <v>28</v>
       </c>
       <c r="E374" s="2">
-        <v>45339.72916666666</v>
+        <v>45340.52083333334</v>
       </c>
       <c r="F374" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G374" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="K374">
-        <v>1.222</v>
+        <v>2.7</v>
       </c>
       <c r="L374">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="M374">
-        <v>11</v>
+        <v>2.8</v>
       </c>
       <c r="N374">
-        <v>1.222</v>
+        <v>3.6</v>
       </c>
       <c r="O374">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="P374">
-        <v>12</v>
+        <v>2.25</v>
       </c>
       <c r="Q374">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R374">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="S374">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T374">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U374">
+        <v>1.975</v>
+      </c>
+      <c r="V374">
         <v>1.875</v>
-      </c>
-      <c r="V374">
-        <v>1.975</v>
       </c>
       <c r="W374">
         <v>0</v>
@@ -33768,7 +33768,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6876626</v>
+        <v>6876633</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33777,34 +33777,34 @@
         <v>28</v>
       </c>
       <c r="E375" s="2">
-        <v>45340.52083333334</v>
+        <v>45340.625</v>
       </c>
       <c r="F375" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G375" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="K375">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="L375">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M375">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N375">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="O375">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P375">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q375">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R375">
         <v>1.85</v>
@@ -33813,13 +33813,13 @@
         <v>2.05</v>
       </c>
       <c r="T375">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U375">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V375">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W375">
         <v>0</v>
@@ -33842,7 +33842,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6876633</v>
+        <v>6876630</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33854,46 +33854,46 @@
         <v>45340.625</v>
       </c>
       <c r="F376" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G376" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K376">
-        <v>2.2</v>
+        <v>1.111</v>
       </c>
       <c r="L376">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="M376">
-        <v>3.2</v>
+        <v>21</v>
       </c>
       <c r="N376">
-        <v>2.1</v>
+        <v>1.125</v>
       </c>
       <c r="O376">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="P376">
-        <v>3.4</v>
+        <v>21</v>
       </c>
       <c r="Q376">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R376">
+        <v>1.93</v>
+      </c>
+      <c r="S376">
+        <v>1.97</v>
+      </c>
+      <c r="T376">
+        <v>3.25</v>
+      </c>
+      <c r="U376">
         <v>1.85</v>
       </c>
-      <c r="S376">
-        <v>2.05</v>
-      </c>
-      <c r="T376">
-        <v>2.5</v>
-      </c>
-      <c r="U376">
-        <v>1.925</v>
-      </c>
       <c r="V376">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W376">
         <v>0</v>
@@ -33916,7 +33916,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>6876630</v>
+        <v>6876631</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -33925,49 +33925,49 @@
         <v>28</v>
       </c>
       <c r="E377" s="2">
-        <v>45340.625</v>
+        <v>45340.72916666666</v>
       </c>
       <c r="F377" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G377" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K377">
-        <v>1.111</v>
+        <v>1.363</v>
       </c>
       <c r="L377">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="M377">
-        <v>21</v>
+        <v>7.5</v>
       </c>
       <c r="N377">
-        <v>1.142</v>
+        <v>1.3</v>
       </c>
       <c r="O377">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="P377">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="Q377">
-        <v>-2.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R377">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="S377">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="T377">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U377">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V377">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W377">
         <v>0</v>
@@ -33990,7 +33990,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>6876631</v>
+        <v>6875475</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -33999,49 +33999,49 @@
         <v>28</v>
       </c>
       <c r="E378" s="2">
-        <v>45340.72916666666</v>
+        <v>45341.71875</v>
       </c>
       <c r="F378" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G378" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K378">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="L378">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M378">
+        <v>1.45</v>
+      </c>
+      <c r="N378">
         <v>7.5</v>
-      </c>
-      <c r="N378">
-        <v>1.333</v>
       </c>
       <c r="O378">
         <v>5</v>
       </c>
       <c r="P378">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q378">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R378">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="S378">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="T378">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U378">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V378">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W378">
         <v>0</v>
@@ -34056,80 +34056,6 @@
         <v>0</v>
       </c>
       <c r="AA378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:29">
-      <c r="A379" s="1">
-        <v>377</v>
-      </c>
-      <c r="B379">
-        <v>6875475</v>
-      </c>
-      <c r="C379" t="s">
-        <v>28</v>
-      </c>
-      <c r="D379" t="s">
-        <v>28</v>
-      </c>
-      <c r="E379" s="2">
-        <v>45341.71875</v>
-      </c>
-      <c r="F379" t="s">
-        <v>49</v>
-      </c>
-      <c r="G379" t="s">
-        <v>46</v>
-      </c>
-      <c r="K379">
-        <v>6</v>
-      </c>
-      <c r="L379">
-        <v>4.333</v>
-      </c>
-      <c r="M379">
-        <v>1.45</v>
-      </c>
-      <c r="N379">
-        <v>7</v>
-      </c>
-      <c r="O379">
-        <v>4.75</v>
-      </c>
-      <c r="P379">
-        <v>1.4</v>
-      </c>
-      <c r="Q379">
-        <v>1.25</v>
-      </c>
-      <c r="R379">
-        <v>1.95</v>
-      </c>
-      <c r="S379">
-        <v>1.95</v>
-      </c>
-      <c r="T379">
-        <v>2.75</v>
-      </c>
-      <c r="U379">
-        <v>2.025</v>
-      </c>
-      <c r="V379">
-        <v>1.825</v>
-      </c>
-      <c r="W379">
-        <v>0</v>
-      </c>
-      <c r="X379">
-        <v>0</v>
-      </c>
-      <c r="Y379">
-        <v>0</v>
-      </c>
-      <c r="Z379">
-        <v>0</v>
-      </c>
-      <c r="AA379">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5265751</v>
+        <v>5265654</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,73 +9810,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K105">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M105">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N105">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P105">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="Q105">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9887,7 +9887,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5265654</v>
+        <v>5265751</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9899,73 +9899,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K106">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L106">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N106">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O106">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P106">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R106">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="S106">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T106">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W106">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z106">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5498498</v>
+        <v>5498499</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,10 +15239,10 @@
         <v>45066.47916666666</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15254,43 +15254,43 @@
         <v>51</v>
       </c>
       <c r="K166">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L166">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M166">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="N166">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O166">
+        <v>3.4</v>
+      </c>
+      <c r="P166">
         <v>3.6</v>
       </c>
-      <c r="P166">
-        <v>4.333</v>
-      </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
+        <v>2</v>
+      </c>
+      <c r="V166">
         <v>1.85</v>
       </c>
-      <c r="V166">
-        <v>2</v>
-      </c>
       <c r="W166">
-        <v>0.7</v>
+        <v>0.909</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15299,16 +15299,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5498499</v>
+        <v>5498498</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,10 +15328,10 @@
         <v>45066.47916666666</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15343,43 +15343,43 @@
         <v>51</v>
       </c>
       <c r="K167">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L167">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M167">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="N167">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O167">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P167">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S167">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
+        <v>1.85</v>
+      </c>
+      <c r="V167">
         <v>2</v>
       </c>
-      <c r="V167">
-        <v>1.85</v>
-      </c>
       <c r="W167">
-        <v>0.909</v>
+        <v>0.7</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15388,16 +15388,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -16384,7 +16384,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5540441</v>
+        <v>5549224</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16396,76 +16396,76 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K179">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="L179">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M179">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="N179">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="O179">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="P179">
-        <v>2.15</v>
+        <v>11</v>
       </c>
       <c r="Q179">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R179">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S179">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T179">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U179">
+        <v>1.825</v>
+      </c>
+      <c r="V179">
         <v>2.025</v>
       </c>
-      <c r="V179">
-        <v>1.825</v>
-      </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA179">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC179">
-        <v>0.825</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16562,7 +16562,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>5549224</v>
+        <v>5540441</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16574,76 +16574,76 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G181" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K181">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="L181">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M181">
-        <v>13</v>
+        <v>2.375</v>
       </c>
       <c r="N181">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="O181">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="P181">
-        <v>11</v>
+        <v>2.15</v>
       </c>
       <c r="Q181">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S181">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T181">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U181">
+        <v>2.025</v>
+      </c>
+      <c r="V181">
         <v>1.825</v>
       </c>
-      <c r="V181">
-        <v>2.025</v>
-      </c>
       <c r="W181">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z181">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -19499,7 +19499,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6876486</v>
+        <v>6875457</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19511,10 +19511,10 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G214" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -19526,40 +19526,40 @@
         <v>50</v>
       </c>
       <c r="K214">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L214">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M214">
+        <v>3.1</v>
+      </c>
+      <c r="N214">
         <v>2.9</v>
       </c>
-      <c r="N214">
+      <c r="O214">
+        <v>3.5</v>
+      </c>
+      <c r="P214">
+        <v>2.25</v>
+      </c>
+      <c r="Q214">
+        <v>0.25</v>
+      </c>
+      <c r="R214">
+        <v>1.875</v>
+      </c>
+      <c r="S214">
+        <v>1.975</v>
+      </c>
+      <c r="T214">
         <v>2.5</v>
       </c>
-      <c r="O214">
-        <v>3.25</v>
-      </c>
-      <c r="P214">
-        <v>2.8</v>
-      </c>
-      <c r="Q214">
-        <v>0</v>
-      </c>
-      <c r="R214">
-        <v>1.82</v>
-      </c>
-      <c r="S214">
-        <v>2.08</v>
-      </c>
-      <c r="T214">
-        <v>2.25</v>
-      </c>
       <c r="U214">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V214">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -19568,16 +19568,16 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>1.08</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB214">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19588,7 +19588,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6875457</v>
+        <v>6876486</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19600,10 +19600,10 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F215" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -19615,40 +19615,40 @@
         <v>50</v>
       </c>
       <c r="K215">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L215">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M215">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N215">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="O215">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P215">
+        <v>2.8</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215">
+        <v>1.82</v>
+      </c>
+      <c r="S215">
+        <v>2.08</v>
+      </c>
+      <c r="T215">
         <v>2.25</v>
       </c>
-      <c r="Q215">
-        <v>0.25</v>
-      </c>
-      <c r="R215">
-        <v>1.875</v>
-      </c>
-      <c r="S215">
-        <v>1.975</v>
-      </c>
-      <c r="T215">
-        <v>2.5</v>
-      </c>
       <c r="U215">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19657,16 +19657,16 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.9750000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AB215">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -22436,7 +22436,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6876515</v>
+        <v>6876518</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22448,49 +22448,49 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F247" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G247" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H247">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I247">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J247" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K247">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L247">
         <v>3.2</v>
       </c>
       <c r="M247">
+        <v>2.875</v>
+      </c>
+      <c r="N247">
+        <v>2.2</v>
+      </c>
+      <c r="O247">
+        <v>3.2</v>
+      </c>
+      <c r="P247">
+        <v>3.1</v>
+      </c>
+      <c r="Q247">
+        <v>-0.25</v>
+      </c>
+      <c r="R247">
+        <v>2.01</v>
+      </c>
+      <c r="S247">
+        <v>1.89</v>
+      </c>
+      <c r="T247">
         <v>2.5</v>
-      </c>
-      <c r="N247">
-        <v>2.5</v>
-      </c>
-      <c r="O247">
-        <v>3.4</v>
-      </c>
-      <c r="P247">
-        <v>2.45</v>
-      </c>
-      <c r="Q247">
-        <v>0</v>
-      </c>
-      <c r="R247">
-        <v>2</v>
-      </c>
-      <c r="S247">
-        <v>1.9</v>
-      </c>
-      <c r="T247">
-        <v>2.75</v>
       </c>
       <c r="U247">
         <v>1.95</v>
@@ -22499,25 +22499,25 @@
         <v>1.9</v>
       </c>
       <c r="W247">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X247">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y247">
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA247">
-        <v>-1</v>
+        <v>0.445</v>
       </c>
       <c r="AB247">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22525,7 +22525,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6876518</v>
+        <v>6876515</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22537,49 +22537,49 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F248" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G248" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J248" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K248">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L248">
         <v>3.2</v>
       </c>
       <c r="M248">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N248">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O248">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P248">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q248">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R248">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S248">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T248">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U248">
         <v>1.95</v>
@@ -22588,25 +22588,25 @@
         <v>1.9</v>
       </c>
       <c r="W248">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X248">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA248">
-        <v>0.445</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC248">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -27509,7 +27509,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6875467</v>
+        <v>6876563</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27521,40 +27521,40 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F304" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G304" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H304">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I304">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J304" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K304">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="L304">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M304">
-        <v>3.9</v>
+        <v>2.55</v>
       </c>
       <c r="N304">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O304">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P304">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q304">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R304">
         <v>1.875</v>
@@ -27563,31 +27563,31 @@
         <v>1.975</v>
       </c>
       <c r="T304">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U304">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V304">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W304">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X304">
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z304">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA304">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB304">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC304">
         <v>-1</v>
@@ -27598,7 +27598,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6876563</v>
+        <v>6875467</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27610,40 +27610,40 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F305" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G305" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I305">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J305" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K305">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="L305">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M305">
-        <v>2.55</v>
+        <v>3.9</v>
       </c>
       <c r="N305">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O305">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P305">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q305">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R305">
         <v>1.875</v>
@@ -27652,31 +27652,31 @@
         <v>1.975</v>
       </c>
       <c r="T305">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U305">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V305">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W305">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X305">
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z305">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA305">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB305">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC305">
         <v>-1</v>
@@ -27954,7 +27954,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6876571</v>
+        <v>6875468</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27966,67 +27966,67 @@
         <v>45283.52083333334</v>
       </c>
       <c r="F309" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G309" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309">
         <v>0</v>
       </c>
       <c r="J309" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K309">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L309">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M309">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N309">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="O309">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P309">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q309">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R309">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S309">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T309">
         <v>2.25</v>
       </c>
       <c r="U309">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V309">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W309">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X309">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y309">
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>0.4875</v>
+        <v>0.4</v>
       </c>
       <c r="AA309">
         <v>-0.5</v>
@@ -28035,7 +28035,7 @@
         <v>-1</v>
       </c>
       <c r="AC309">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28043,7 +28043,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6875468</v>
+        <v>6876571</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28055,67 +28055,67 @@
         <v>45283.52083333334</v>
       </c>
       <c r="F310" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G310" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I310">
         <v>0</v>
       </c>
       <c r="J310" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K310">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L310">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M310">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N310">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="O310">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P310">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q310">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R310">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S310">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T310">
         <v>2.25</v>
       </c>
       <c r="U310">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V310">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W310">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X310">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0.4</v>
+        <v>0.4875</v>
       </c>
       <c r="AA310">
         <v>-0.5</v>
@@ -28124,7 +28124,7 @@
         <v>-1</v>
       </c>
       <c r="AC310">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -33499,31 +33499,31 @@
         <v>2.9</v>
       </c>
       <c r="N371">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O371">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P371">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q371">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R371">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="S371">
-        <v>1.82</v>
+        <v>2.03</v>
       </c>
       <c r="T371">
         <v>2.25</v>
       </c>
       <c r="U371">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V371">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W371">
         <v>0</v>
@@ -33573,22 +33573,22 @@
         <v>1.833</v>
       </c>
       <c r="N372">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O372">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P372">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="Q372">
         <v>0.5</v>
       </c>
       <c r="R372">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="S372">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="T372">
         <v>2.5</v>
@@ -33647,10 +33647,10 @@
         <v>11</v>
       </c>
       <c r="N373">
-        <v>1.222</v>
+        <v>1.2</v>
       </c>
       <c r="O373">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="P373">
         <v>13</v>
@@ -33659,19 +33659,19 @@
         <v>-1.75</v>
       </c>
       <c r="R373">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S373">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T373">
         <v>3</v>
       </c>
       <c r="U373">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V373">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W373">
         <v>0</v>
@@ -33721,7 +33721,7 @@
         <v>2.8</v>
       </c>
       <c r="N374">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O374">
         <v>3.1</v>
@@ -33955,10 +33955,10 @@
         <v>-1.5</v>
       </c>
       <c r="R377">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="S377">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="T377">
         <v>3</v>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC378"/>
+  <dimension ref="A1:AC375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5265654</v>
+        <v>5265751</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,73 +9810,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K105">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L105">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N105">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O105">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R105">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z105">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9887,7 +9887,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5265751</v>
+        <v>5265654</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9899,73 +9899,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K106">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M106">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N106">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="O106">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P106">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="Q106">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V106">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AA106">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -11222,7 +11222,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5265669</v>
+        <v>5265670</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11234,76 +11234,76 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K121">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L121">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M121">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N121">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O121">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P121">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q121">
         <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="S121">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="T121">
         <v>2.25</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA121">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11311,7 +11311,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5265670</v>
+        <v>5265669</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11323,76 +11323,76 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K122">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L122">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M122">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N122">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O122">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P122">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q122">
         <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="S122">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
         <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W122">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z122">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -16384,7 +16384,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5549224</v>
+        <v>5540441</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16396,76 +16396,76 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K179">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="L179">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M179">
-        <v>13</v>
+        <v>2.375</v>
       </c>
       <c r="N179">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="O179">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="P179">
-        <v>11</v>
+        <v>2.15</v>
       </c>
       <c r="Q179">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R179">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S179">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T179">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U179">
+        <v>2.025</v>
+      </c>
+      <c r="V179">
         <v>1.825</v>
       </c>
-      <c r="V179">
-        <v>2.025</v>
-      </c>
       <c r="W179">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16562,7 +16562,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>5540441</v>
+        <v>5549224</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16574,76 +16574,76 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G181" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H181">
+        <v>3</v>
+      </c>
+      <c r="I181">
         <v>0</v>
       </c>
-      <c r="I181">
-        <v>2</v>
-      </c>
       <c r="J181" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K181">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="L181">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M181">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="N181">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="O181">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="P181">
-        <v>2.15</v>
+        <v>11</v>
       </c>
       <c r="Q181">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R181">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S181">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T181">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U181">
+        <v>1.825</v>
+      </c>
+      <c r="V181">
         <v>2.025</v>
       </c>
-      <c r="V181">
-        <v>1.825</v>
-      </c>
       <c r="W181">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA181">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC181">
-        <v>0.825</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -19499,7 +19499,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6875457</v>
+        <v>6876486</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19511,10 +19511,10 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F214" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G214" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -19526,40 +19526,40 @@
         <v>50</v>
       </c>
       <c r="K214">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L214">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M214">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N214">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="O214">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P214">
+        <v>2.8</v>
+      </c>
+      <c r="Q214">
+        <v>0</v>
+      </c>
+      <c r="R214">
+        <v>1.82</v>
+      </c>
+      <c r="S214">
+        <v>2.08</v>
+      </c>
+      <c r="T214">
         <v>2.25</v>
       </c>
-      <c r="Q214">
-        <v>0.25</v>
-      </c>
-      <c r="R214">
-        <v>1.875</v>
-      </c>
-      <c r="S214">
-        <v>1.975</v>
-      </c>
-      <c r="T214">
-        <v>2.5</v>
-      </c>
       <c r="U214">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -19568,16 +19568,16 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.9750000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AB214">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19588,7 +19588,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6876486</v>
+        <v>6875457</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19600,10 +19600,10 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F215" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G215" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -19615,40 +19615,40 @@
         <v>50</v>
       </c>
       <c r="K215">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L215">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M215">
+        <v>3.1</v>
+      </c>
+      <c r="N215">
         <v>2.9</v>
       </c>
-      <c r="N215">
+      <c r="O215">
+        <v>3.5</v>
+      </c>
+      <c r="P215">
+        <v>2.25</v>
+      </c>
+      <c r="Q215">
+        <v>0.25</v>
+      </c>
+      <c r="R215">
+        <v>1.875</v>
+      </c>
+      <c r="S215">
+        <v>1.975</v>
+      </c>
+      <c r="T215">
         <v>2.5</v>
       </c>
-      <c r="O215">
-        <v>3.25</v>
-      </c>
-      <c r="P215">
-        <v>2.8</v>
-      </c>
-      <c r="Q215">
-        <v>0</v>
-      </c>
-      <c r="R215">
-        <v>1.82</v>
-      </c>
-      <c r="S215">
-        <v>2.08</v>
-      </c>
-      <c r="T215">
-        <v>2.25</v>
-      </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19657,16 +19657,16 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>1.08</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB215">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -23326,7 +23326,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6876523</v>
+        <v>6876528</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23338,76 +23338,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F257" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G257" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K257">
-        <v>1.166</v>
+        <v>1.75</v>
       </c>
       <c r="L257">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M257">
-        <v>15</v>
+        <v>4.75</v>
       </c>
       <c r="N257">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="O257">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P257">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q257">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R257">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S257">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T257">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U257">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V257">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W257">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X257">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA257">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC257">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23415,7 +23415,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6876528</v>
+        <v>6876523</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23427,76 +23427,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F258" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G258" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H258">
+        <v>1</v>
+      </c>
+      <c r="I258">
+        <v>1</v>
+      </c>
+      <c r="J258" t="s">
+        <v>52</v>
+      </c>
+      <c r="K258">
+        <v>1.166</v>
+      </c>
+      <c r="L258">
+        <v>7</v>
+      </c>
+      <c r="M258">
+        <v>15</v>
+      </c>
+      <c r="N258">
+        <v>1.222</v>
+      </c>
+      <c r="O258">
+        <v>6</v>
+      </c>
+      <c r="P258">
+        <v>11</v>
+      </c>
+      <c r="Q258">
+        <v>-1.75</v>
+      </c>
+      <c r="R258">
+        <v>1.875</v>
+      </c>
+      <c r="S258">
+        <v>1.975</v>
+      </c>
+      <c r="T258">
+        <v>3</v>
+      </c>
+      <c r="U258">
+        <v>1.95</v>
+      </c>
+      <c r="V258">
+        <v>1.9</v>
+      </c>
+      <c r="W258">
+        <v>-1</v>
+      </c>
+      <c r="X258">
         <v>5</v>
       </c>
-      <c r="I258">
-        <v>0</v>
-      </c>
-      <c r="J258" t="s">
-        <v>51</v>
-      </c>
-      <c r="K258">
-        <v>1.75</v>
-      </c>
-      <c r="L258">
-        <v>3.6</v>
-      </c>
-      <c r="M258">
-        <v>4.75</v>
-      </c>
-      <c r="N258">
-        <v>1.666</v>
-      </c>
-      <c r="O258">
-        <v>3.75</v>
-      </c>
-      <c r="P258">
-        <v>5</v>
-      </c>
-      <c r="Q258">
-        <v>-0.75</v>
-      </c>
-      <c r="R258">
-        <v>1.9</v>
-      </c>
-      <c r="S258">
-        <v>2</v>
-      </c>
-      <c r="T258">
-        <v>2.5</v>
-      </c>
-      <c r="U258">
-        <v>1.925</v>
-      </c>
-      <c r="V258">
-        <v>1.925</v>
-      </c>
-      <c r="W258">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X258">
-        <v>-1</v>
-      </c>
       <c r="Y258">
         <v>-1</v>
       </c>
       <c r="Z258">
+        <v>-1</v>
+      </c>
+      <c r="AA258">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB258">
+        <v>-1</v>
+      </c>
+      <c r="AC258">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA258">
-        <v>-1</v>
-      </c>
-      <c r="AB258">
-        <v>0.925</v>
-      </c>
-      <c r="AC258">
-        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -27954,7 +27954,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6875468</v>
+        <v>6876571</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27966,67 +27966,67 @@
         <v>45283.52083333334</v>
       </c>
       <c r="F309" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G309" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I309">
         <v>0</v>
       </c>
       <c r="J309" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K309">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L309">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M309">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N309">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="O309">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P309">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q309">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R309">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S309">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T309">
         <v>2.25</v>
       </c>
       <c r="U309">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V309">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W309">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X309">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y309">
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>0.4</v>
+        <v>0.4875</v>
       </c>
       <c r="AA309">
         <v>-0.5</v>
@@ -28035,7 +28035,7 @@
         <v>-1</v>
       </c>
       <c r="AC309">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28043,7 +28043,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6876571</v>
+        <v>6875468</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28055,67 +28055,67 @@
         <v>45283.52083333334</v>
       </c>
       <c r="F310" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G310" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310">
         <v>0</v>
       </c>
       <c r="J310" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K310">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L310">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M310">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N310">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="O310">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P310">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q310">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R310">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S310">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T310">
         <v>2.25</v>
       </c>
       <c r="U310">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V310">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W310">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X310">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0.4875</v>
+        <v>0.4</v>
       </c>
       <c r="AA310">
         <v>-0.5</v>
@@ -28124,7 +28124,7 @@
         <v>-1</v>
       </c>
       <c r="AC310">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28399,7 +28399,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7515550</v>
+        <v>7513577</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28411,13 +28411,13 @@
         <v>45290.52083333334</v>
       </c>
       <c r="F314" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G314" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I314">
         <v>0</v>
@@ -28426,43 +28426,43 @@
         <v>51</v>
       </c>
       <c r="K314">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L314">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M314">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N314">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O314">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P314">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q314">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R314">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S314">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T314">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U314">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V314">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W314">
-        <v>1.3</v>
+        <v>0.833</v>
       </c>
       <c r="X314">
         <v>-1</v>
@@ -28471,16 +28471,16 @@
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA314">
         <v>-1</v>
       </c>
       <c r="AB314">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC314">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28488,7 +28488,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7513577</v>
+        <v>7515550</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28500,13 +28500,13 @@
         <v>45290.52083333334</v>
       </c>
       <c r="F315" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G315" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H315">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I315">
         <v>0</v>
@@ -28515,43 +28515,43 @@
         <v>51</v>
       </c>
       <c r="K315">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L315">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M315">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N315">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O315">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P315">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q315">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R315">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S315">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T315">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U315">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V315">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W315">
-        <v>0.833</v>
+        <v>1.3</v>
       </c>
       <c r="X315">
         <v>-1</v>
@@ -28560,16 +28560,16 @@
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA315">
         <v>-1</v>
       </c>
       <c r="AB315">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC315">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28933,7 +28933,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6876582</v>
+        <v>6876581</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28945,76 +28945,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F320" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G320" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H320">
         <v>1</v>
       </c>
       <c r="I320">
+        <v>1</v>
+      </c>
+      <c r="J320" t="s">
+        <v>52</v>
+      </c>
+      <c r="K320">
+        <v>2</v>
+      </c>
+      <c r="L320">
+        <v>3.4</v>
+      </c>
+      <c r="M320">
+        <v>3.6</v>
+      </c>
+      <c r="N320">
+        <v>2.8</v>
+      </c>
+      <c r="O320">
+        <v>3.3</v>
+      </c>
+      <c r="P320">
+        <v>2.55</v>
+      </c>
+      <c r="Q320">
         <v>0</v>
       </c>
-      <c r="J320" t="s">
-        <v>51</v>
-      </c>
-      <c r="K320">
-        <v>1.8</v>
-      </c>
-      <c r="L320">
-        <v>3.6</v>
-      </c>
-      <c r="M320">
-        <v>4.2</v>
-      </c>
-      <c r="N320">
-        <v>2.2</v>
-      </c>
-      <c r="O320">
-        <v>3.25</v>
-      </c>
-      <c r="P320">
-        <v>3.25</v>
-      </c>
-      <c r="Q320">
-        <v>-0.25</v>
-      </c>
       <c r="R320">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S320">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T320">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U320">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V320">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W320">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X320">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y320">
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA320">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB320">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC320">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29022,7 +29022,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6876581</v>
+        <v>6876582</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29034,76 +29034,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F321" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G321" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H321">
         <v>1</v>
       </c>
       <c r="I321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J321" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K321">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L321">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M321">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N321">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O321">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P321">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q321">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R321">
+        <v>1.95</v>
+      </c>
+      <c r="S321">
+        <v>1.9</v>
+      </c>
+      <c r="T321">
+        <v>2.5</v>
+      </c>
+      <c r="U321">
         <v>2.025</v>
       </c>
-      <c r="S321">
+      <c r="V321">
         <v>1.825</v>
       </c>
-      <c r="T321">
-        <v>2.25</v>
-      </c>
-      <c r="U321">
-        <v>1.975</v>
-      </c>
-      <c r="V321">
-        <v>1.875</v>
-      </c>
       <c r="W321">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X321">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y321">
         <v>-1</v>
       </c>
       <c r="Z321">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA321">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB321">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC321">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -32315,7 +32315,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>7758961</v>
+        <v>7758962</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32327,13 +32327,13 @@
         <v>45326.625</v>
       </c>
       <c r="F358" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G358" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H358">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I358">
         <v>0</v>
@@ -32342,43 +32342,43 @@
         <v>51</v>
       </c>
       <c r="K358">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="L358">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M358">
-        <v>14</v>
+        <v>3.2</v>
       </c>
       <c r="N358">
-        <v>1.142</v>
+        <v>2.05</v>
       </c>
       <c r="O358">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="P358">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="Q358">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R358">
-        <v>1.825</v>
+        <v>2.06</v>
       </c>
       <c r="S358">
-        <v>2.025</v>
+        <v>1.84</v>
       </c>
       <c r="T358">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U358">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V358">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W358">
-        <v>0.1419999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X358">
         <v>-1</v>
@@ -32387,16 +32387,16 @@
         <v>-1</v>
       </c>
       <c r="Z358">
-        <v>0.825</v>
+        <v>1.06</v>
       </c>
       <c r="AA358">
         <v>-1</v>
       </c>
       <c r="AB358">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC358">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="359" spans="1:29">
@@ -32404,7 +32404,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>7758962</v>
+        <v>7758961</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32416,13 +32416,13 @@
         <v>45326.625</v>
       </c>
       <c r="F359" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G359" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I359">
         <v>0</v>
@@ -32431,61 +32431,61 @@
         <v>51</v>
       </c>
       <c r="K359">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="L359">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M359">
-        <v>3.2</v>
+        <v>14</v>
       </c>
       <c r="N359">
-        <v>2.05</v>
+        <v>1.142</v>
       </c>
       <c r="O359">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="P359">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="Q359">
+        <v>-2</v>
+      </c>
+      <c r="R359">
+        <v>1.825</v>
+      </c>
+      <c r="S359">
+        <v>2.025</v>
+      </c>
+      <c r="T359">
+        <v>3.25</v>
+      </c>
+      <c r="U359">
+        <v>1.825</v>
+      </c>
+      <c r="V359">
+        <v>2.025</v>
+      </c>
+      <c r="W359">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="X359">
+        <v>-1</v>
+      </c>
+      <c r="Y359">
+        <v>-1</v>
+      </c>
+      <c r="Z359">
+        <v>0.825</v>
+      </c>
+      <c r="AA359">
+        <v>-1</v>
+      </c>
+      <c r="AB359">
         <v>-0.5</v>
       </c>
-      <c r="R359">
-        <v>2.06</v>
-      </c>
-      <c r="S359">
-        <v>1.84</v>
-      </c>
-      <c r="T359">
-        <v>2.5</v>
-      </c>
-      <c r="U359">
-        <v>1.975</v>
-      </c>
-      <c r="V359">
-        <v>1.875</v>
-      </c>
-      <c r="W359">
-        <v>1.05</v>
-      </c>
-      <c r="X359">
-        <v>-1</v>
-      </c>
-      <c r="Y359">
-        <v>-1</v>
-      </c>
-      <c r="Z359">
-        <v>1.06</v>
-      </c>
-      <c r="AA359">
-        <v>-1</v>
-      </c>
-      <c r="AB359">
-        <v>-1</v>
-      </c>
       <c r="AC359">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="360" spans="1:29">
@@ -33472,7 +33472,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>6876628</v>
+        <v>6876626</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33481,49 +33481,49 @@
         <v>28</v>
       </c>
       <c r="E371" s="2">
-        <v>45339.52083333334</v>
+        <v>45340.52083333334</v>
       </c>
       <c r="F371" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G371" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K371">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="L371">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M371">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="N371">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="O371">
         <v>3.1</v>
       </c>
       <c r="P371">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q371">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R371">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="S371">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="T371">
         <v>2.25</v>
       </c>
       <c r="U371">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V371">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W371">
         <v>0</v>
@@ -33546,7 +33546,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6876627</v>
+        <v>6876633</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33555,49 +33555,49 @@
         <v>28</v>
       </c>
       <c r="E372" s="2">
-        <v>45339.625</v>
+        <v>45340.625</v>
       </c>
       <c r="F372" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G372" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K372">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="L372">
+        <v>3.4</v>
+      </c>
+      <c r="M372">
+        <v>3.2</v>
+      </c>
+      <c r="N372">
+        <v>2.1</v>
+      </c>
+      <c r="O372">
         <v>3.5</v>
       </c>
-      <c r="M372">
-        <v>1.833</v>
-      </c>
-      <c r="N372">
-        <v>4.5</v>
-      </c>
-      <c r="O372">
-        <v>3.6</v>
-      </c>
       <c r="P372">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q372">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R372">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="S372">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="T372">
         <v>2.5</v>
       </c>
       <c r="U372">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V372">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W372">
         <v>0</v>
@@ -33620,7 +33620,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6876629</v>
+        <v>6876630</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33629,43 +33629,43 @@
         <v>28</v>
       </c>
       <c r="E373" s="2">
-        <v>45339.72916666666</v>
+        <v>45340.625</v>
       </c>
       <c r="F373" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G373" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K373">
-        <v>1.222</v>
+        <v>1.111</v>
       </c>
       <c r="L373">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="M373">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N373">
-        <v>1.2</v>
+        <v>1.111</v>
       </c>
       <c r="O373">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P373">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Q373">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R373">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S373">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T373">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U373">
         <v>1.85</v>
@@ -33694,7 +33694,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6876626</v>
+        <v>6876631</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33703,49 +33703,49 @@
         <v>28</v>
       </c>
       <c r="E374" s="2">
-        <v>45340.52083333334</v>
+        <v>45340.72916666666</v>
       </c>
       <c r="F374" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G374" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="K374">
-        <v>2.7</v>
+        <v>1.363</v>
       </c>
       <c r="L374">
+        <v>5</v>
+      </c>
+      <c r="M374">
+        <v>7.5</v>
+      </c>
+      <c r="N374">
+        <v>1.3</v>
+      </c>
+      <c r="O374">
+        <v>5.5</v>
+      </c>
+      <c r="P374">
+        <v>9.5</v>
+      </c>
+      <c r="Q374">
+        <v>-1.5</v>
+      </c>
+      <c r="R374">
+        <v>2.01</v>
+      </c>
+      <c r="S374">
+        <v>1.89</v>
+      </c>
+      <c r="T374">
         <v>3</v>
       </c>
-      <c r="M374">
-        <v>2.8</v>
-      </c>
-      <c r="N374">
-        <v>3.5</v>
-      </c>
-      <c r="O374">
-        <v>3.1</v>
-      </c>
-      <c r="P374">
-        <v>2.25</v>
-      </c>
-      <c r="Q374">
-        <v>0.25</v>
-      </c>
-      <c r="R374">
-        <v>1.92</v>
-      </c>
-      <c r="S374">
-        <v>1.98</v>
-      </c>
-      <c r="T374">
-        <v>2.25</v>
-      </c>
       <c r="U374">
+        <v>1.875</v>
+      </c>
+      <c r="V374">
         <v>1.975</v>
-      </c>
-      <c r="V374">
-        <v>1.875</v>
       </c>
       <c r="W374">
         <v>0</v>
@@ -33768,7 +33768,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6876633</v>
+        <v>6875475</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33777,49 +33777,49 @@
         <v>28</v>
       </c>
       <c r="E375" s="2">
-        <v>45340.625</v>
+        <v>45341.71875</v>
       </c>
       <c r="F375" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G375" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K375">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="L375">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M375">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="N375">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="O375">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P375">
-        <v>3.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q375">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R375">
+        <v>2.04</v>
+      </c>
+      <c r="S375">
+        <v>1.86</v>
+      </c>
+      <c r="T375">
+        <v>2.75</v>
+      </c>
+      <c r="U375">
+        <v>2</v>
+      </c>
+      <c r="V375">
         <v>1.85</v>
-      </c>
-      <c r="S375">
-        <v>2.05</v>
-      </c>
-      <c r="T375">
-        <v>2.5</v>
-      </c>
-      <c r="U375">
-        <v>1.925</v>
-      </c>
-      <c r="V375">
-        <v>1.925</v>
       </c>
       <c r="W375">
         <v>0</v>
@@ -33834,228 +33834,6 @@
         <v>0</v>
       </c>
       <c r="AA375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:29">
-      <c r="A376" s="1">
-        <v>374</v>
-      </c>
-      <c r="B376">
-        <v>6876630</v>
-      </c>
-      <c r="C376" t="s">
-        <v>28</v>
-      </c>
-      <c r="D376" t="s">
-        <v>28</v>
-      </c>
-      <c r="E376" s="2">
-        <v>45340.625</v>
-      </c>
-      <c r="F376" t="s">
-        <v>30</v>
-      </c>
-      <c r="G376" t="s">
-        <v>39</v>
-      </c>
-      <c r="K376">
-        <v>1.111</v>
-      </c>
-      <c r="L376">
-        <v>8.5</v>
-      </c>
-      <c r="M376">
-        <v>21</v>
-      </c>
-      <c r="N376">
-        <v>1.125</v>
-      </c>
-      <c r="O376">
-        <v>8.5</v>
-      </c>
-      <c r="P376">
-        <v>21</v>
-      </c>
-      <c r="Q376">
-        <v>-2.25</v>
-      </c>
-      <c r="R376">
-        <v>1.93</v>
-      </c>
-      <c r="S376">
-        <v>1.97</v>
-      </c>
-      <c r="T376">
-        <v>3.25</v>
-      </c>
-      <c r="U376">
-        <v>1.85</v>
-      </c>
-      <c r="V376">
-        <v>2</v>
-      </c>
-      <c r="W376">
-        <v>0</v>
-      </c>
-      <c r="X376">
-        <v>0</v>
-      </c>
-      <c r="Y376">
-        <v>0</v>
-      </c>
-      <c r="Z376">
-        <v>0</v>
-      </c>
-      <c r="AA376">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:29">
-      <c r="A377" s="1">
-        <v>375</v>
-      </c>
-      <c r="B377">
-        <v>6876631</v>
-      </c>
-      <c r="C377" t="s">
-        <v>28</v>
-      </c>
-      <c r="D377" t="s">
-        <v>28</v>
-      </c>
-      <c r="E377" s="2">
-        <v>45340.72916666666</v>
-      </c>
-      <c r="F377" t="s">
-        <v>41</v>
-      </c>
-      <c r="G377" t="s">
-        <v>47</v>
-      </c>
-      <c r="K377">
-        <v>1.363</v>
-      </c>
-      <c r="L377">
-        <v>5</v>
-      </c>
-      <c r="M377">
-        <v>7.5</v>
-      </c>
-      <c r="N377">
-        <v>1.3</v>
-      </c>
-      <c r="O377">
-        <v>5.5</v>
-      </c>
-      <c r="P377">
-        <v>9.5</v>
-      </c>
-      <c r="Q377">
-        <v>-1.5</v>
-      </c>
-      <c r="R377">
-        <v>2.03</v>
-      </c>
-      <c r="S377">
-        <v>1.87</v>
-      </c>
-      <c r="T377">
-        <v>3</v>
-      </c>
-      <c r="U377">
-        <v>1.9</v>
-      </c>
-      <c r="V377">
-        <v>1.95</v>
-      </c>
-      <c r="W377">
-        <v>0</v>
-      </c>
-      <c r="X377">
-        <v>0</v>
-      </c>
-      <c r="Y377">
-        <v>0</v>
-      </c>
-      <c r="Z377">
-        <v>0</v>
-      </c>
-      <c r="AA377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:29">
-      <c r="A378" s="1">
-        <v>376</v>
-      </c>
-      <c r="B378">
-        <v>6875475</v>
-      </c>
-      <c r="C378" t="s">
-        <v>28</v>
-      </c>
-      <c r="D378" t="s">
-        <v>28</v>
-      </c>
-      <c r="E378" s="2">
-        <v>45341.71875</v>
-      </c>
-      <c r="F378" t="s">
-        <v>49</v>
-      </c>
-      <c r="G378" t="s">
-        <v>46</v>
-      </c>
-      <c r="K378">
-        <v>6</v>
-      </c>
-      <c r="L378">
-        <v>4.333</v>
-      </c>
-      <c r="M378">
-        <v>1.45</v>
-      </c>
-      <c r="N378">
-        <v>7.5</v>
-      </c>
-      <c r="O378">
-        <v>5</v>
-      </c>
-      <c r="P378">
-        <v>1.363</v>
-      </c>
-      <c r="Q378">
-        <v>1.25</v>
-      </c>
-      <c r="R378">
-        <v>1.97</v>
-      </c>
-      <c r="S378">
-        <v>1.93</v>
-      </c>
-      <c r="T378">
-        <v>2.75</v>
-      </c>
-      <c r="U378">
-        <v>2</v>
-      </c>
-      <c r="V378">
-        <v>1.85</v>
-      </c>
-      <c r="W378">
-        <v>0</v>
-      </c>
-      <c r="X378">
-        <v>0</v>
-      </c>
-      <c r="Y378">
-        <v>0</v>
-      </c>
-      <c r="Z378">
-        <v>0</v>
-      </c>
-      <c r="AA378">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC375"/>
+  <dimension ref="A1:AC379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8018,7 +8018,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5265747</v>
+        <v>5265642</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8030,13 +8030,13 @@
         <v>44996.52083333334</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -8045,43 +8045,43 @@
         <v>51</v>
       </c>
       <c r="K85">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L85">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M85">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O85">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
+        <v>2.05</v>
+      </c>
+      <c r="S85">
+        <v>1.8</v>
+      </c>
+      <c r="T85">
         <v>2</v>
       </c>
-      <c r="S85">
-        <v>1.85</v>
-      </c>
-      <c r="T85">
-        <v>2.25</v>
-      </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W85">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8090,16 +8090,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8107,7 +8107,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5265642</v>
+        <v>5265747</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8119,13 +8119,13 @@
         <v>44996.52083333334</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -8134,61 +8134,61 @@
         <v>51</v>
       </c>
       <c r="K86">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L86">
+        <v>3.3</v>
+      </c>
+      <c r="M86">
         <v>3.25</v>
       </c>
-      <c r="M86">
+      <c r="N86">
+        <v>2.3</v>
+      </c>
+      <c r="O86">
+        <v>3.3</v>
+      </c>
+      <c r="P86">
         <v>3</v>
       </c>
-      <c r="N86">
+      <c r="Q86">
+        <v>-0.25</v>
+      </c>
+      <c r="R86">
         <v>2</v>
       </c>
-      <c r="O86">
-        <v>3.4</v>
-      </c>
-      <c r="P86">
-        <v>3.6</v>
-      </c>
-      <c r="Q86">
+      <c r="S86">
+        <v>1.85</v>
+      </c>
+      <c r="T86">
+        <v>2.25</v>
+      </c>
+      <c r="U86">
+        <v>1.85</v>
+      </c>
+      <c r="V86">
+        <v>2</v>
+      </c>
+      <c r="W86">
+        <v>1.3</v>
+      </c>
+      <c r="X86">
+        <v>-1</v>
+      </c>
+      <c r="Y86">
+        <v>-1</v>
+      </c>
+      <c r="Z86">
+        <v>1</v>
+      </c>
+      <c r="AA86">
+        <v>-1</v>
+      </c>
+      <c r="AB86">
         <v>-0.5</v>
       </c>
-      <c r="R86">
-        <v>2.05</v>
-      </c>
-      <c r="S86">
-        <v>1.8</v>
-      </c>
-      <c r="T86">
-        <v>2</v>
-      </c>
-      <c r="U86">
-        <v>1.75</v>
-      </c>
-      <c r="V86">
-        <v>2.05</v>
-      </c>
-      <c r="W86">
-        <v>1</v>
-      </c>
-      <c r="X86">
-        <v>-1</v>
-      </c>
-      <c r="Y86">
-        <v>-1</v>
-      </c>
-      <c r="Z86">
-        <v>1.05</v>
-      </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
-      <c r="AB86">
-        <v>-1</v>
-      </c>
       <c r="AC86">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5265751</v>
+        <v>5265654</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,73 +9810,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K105">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M105">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N105">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P105">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="Q105">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9887,7 +9887,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5265654</v>
+        <v>5265751</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9899,73 +9899,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K106">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L106">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N106">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O106">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P106">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R106">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="S106">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T106">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W106">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z106">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -11222,7 +11222,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5265670</v>
+        <v>5265669</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11234,76 +11234,76 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K121">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L121">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M121">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N121">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O121">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P121">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q121">
         <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="S121">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="T121">
         <v>2.25</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V121">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W121">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z121">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11311,7 +11311,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5265669</v>
+        <v>5265670</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11323,76 +11323,76 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K122">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L122">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M122">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N122">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P122">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q122">
         <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="S122">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="T122">
         <v>2.25</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -12824,7 +12824,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5265760</v>
+        <v>5265759</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12836,73 +12836,73 @@
         <v>45045.47916666666</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K139">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="L139">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M139">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="N139">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="O139">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P139">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q139">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="S139">
-        <v>2.01</v>
+        <v>1.775</v>
       </c>
       <c r="T139">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U139">
+        <v>1.9</v>
+      </c>
+      <c r="V139">
+        <v>1.95</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
         <v>2</v>
       </c>
-      <c r="V139">
-        <v>1.85</v>
-      </c>
-      <c r="W139">
-        <v>0.25</v>
-      </c>
-      <c r="X139">
-        <v>-1</v>
-      </c>
-      <c r="Y139">
-        <v>-1</v>
-      </c>
       <c r="Z139">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB139">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12913,7 +12913,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5265759</v>
+        <v>5265760</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12925,73 +12925,73 @@
         <v>45045.47916666666</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H140">
+        <v>4</v>
+      </c>
+      <c r="I140">
         <v>1</v>
       </c>
-      <c r="I140">
+      <c r="J140" t="s">
+        <v>51</v>
+      </c>
+      <c r="K140">
+        <v>1.25</v>
+      </c>
+      <c r="L140">
+        <v>6</v>
+      </c>
+      <c r="M140">
+        <v>11</v>
+      </c>
+      <c r="N140">
+        <v>1.25</v>
+      </c>
+      <c r="O140">
+        <v>6</v>
+      </c>
+      <c r="P140">
+        <v>10</v>
+      </c>
+      <c r="Q140">
+        <v>-1.75</v>
+      </c>
+      <c r="R140">
+        <v>1.89</v>
+      </c>
+      <c r="S140">
+        <v>2.01</v>
+      </c>
+      <c r="T140">
+        <v>3.25</v>
+      </c>
+      <c r="U140">
         <v>2</v>
       </c>
-      <c r="J140" t="s">
-        <v>50</v>
-      </c>
-      <c r="K140">
-        <v>2.45</v>
-      </c>
-      <c r="L140">
-        <v>3.2</v>
-      </c>
-      <c r="M140">
-        <v>2.9</v>
-      </c>
-      <c r="N140">
-        <v>2.4</v>
-      </c>
-      <c r="O140">
-        <v>3.25</v>
-      </c>
-      <c r="P140">
-        <v>3</v>
-      </c>
-      <c r="Q140">
-        <v>-0.25</v>
-      </c>
-      <c r="R140">
-        <v>2.1</v>
-      </c>
-      <c r="S140">
-        <v>1.775</v>
-      </c>
-      <c r="T140">
-        <v>2.25</v>
-      </c>
-      <c r="U140">
-        <v>1.9</v>
-      </c>
       <c r="V140">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA140">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5265761</v>
+        <v>5265682</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,76 +13014,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K141">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L141">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="N141">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O141">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.92</v>
       </c>
       <c r="S141">
-        <v>1.925</v>
+        <v>1.98</v>
       </c>
       <c r="T141">
         <v>2.25</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W141">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC141">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5265682</v>
+        <v>5265761</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,76 +13103,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K142">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="N142">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P142">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="S142">
-        <v>1.98</v>
+        <v>1.925</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V142">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA142">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5498499</v>
+        <v>5498498</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,10 +15239,10 @@
         <v>45066.47916666666</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15254,43 +15254,43 @@
         <v>51</v>
       </c>
       <c r="K166">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L166">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M166">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="N166">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O166">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q166">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S166">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
+        <v>1.85</v>
+      </c>
+      <c r="V166">
         <v>2</v>
       </c>
-      <c r="V166">
-        <v>1.85</v>
-      </c>
       <c r="W166">
-        <v>0.909</v>
+        <v>0.7</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15299,16 +15299,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5498498</v>
+        <v>5498499</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,10 +15328,10 @@
         <v>45066.47916666666</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15343,43 +15343,43 @@
         <v>51</v>
       </c>
       <c r="K167">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L167">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M167">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="N167">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O167">
+        <v>3.4</v>
+      </c>
+      <c r="P167">
         <v>3.6</v>
       </c>
-      <c r="P167">
-        <v>4.333</v>
-      </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S167">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
+        <v>2</v>
+      </c>
+      <c r="V167">
         <v>1.85</v>
       </c>
-      <c r="V167">
-        <v>2</v>
-      </c>
       <c r="W167">
-        <v>0.7</v>
+        <v>0.909</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15388,16 +15388,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -16384,7 +16384,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5540441</v>
+        <v>5549224</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16396,76 +16396,76 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H179">
+        <v>3</v>
+      </c>
+      <c r="I179">
         <v>0</v>
       </c>
-      <c r="I179">
-        <v>2</v>
-      </c>
       <c r="J179" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K179">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="L179">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M179">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="N179">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="O179">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="P179">
-        <v>2.15</v>
+        <v>11</v>
       </c>
       <c r="Q179">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R179">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S179">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T179">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U179">
+        <v>1.825</v>
+      </c>
+      <c r="V179">
         <v>2.025</v>
       </c>
-      <c r="V179">
-        <v>1.825</v>
-      </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA179">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC179">
-        <v>0.825</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16562,7 +16562,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>5549224</v>
+        <v>5540441</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16574,76 +16574,76 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G181" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K181">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="L181">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M181">
-        <v>13</v>
+        <v>2.375</v>
       </c>
       <c r="N181">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="O181">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="P181">
-        <v>11</v>
+        <v>2.15</v>
       </c>
       <c r="Q181">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S181">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T181">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U181">
+        <v>2.025</v>
+      </c>
+      <c r="V181">
         <v>1.825</v>
       </c>
-      <c r="V181">
-        <v>2.025</v>
-      </c>
       <c r="W181">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z181">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -20834,7 +20834,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6876499</v>
+        <v>6875459</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20846,76 +20846,76 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F229" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G229" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K229">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L229">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M229">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N229">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O229">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P229">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R229">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S229">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T229">
         <v>2.5</v>
       </c>
       <c r="U229">
+        <v>1.95</v>
+      </c>
+      <c r="V229">
         <v>1.9</v>
       </c>
-      <c r="V229">
-        <v>1.95</v>
-      </c>
       <c r="W229">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X229">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA229">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
+        <v>-1</v>
+      </c>
+      <c r="AC229">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC229">
-        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20923,7 +20923,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6875459</v>
+        <v>6876499</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20935,76 +20935,76 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F230" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G230" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230">
+        <v>2</v>
+      </c>
+      <c r="J230" t="s">
+        <v>52</v>
+      </c>
+      <c r="K230">
+        <v>2.4</v>
+      </c>
+      <c r="L230">
+        <v>3.2</v>
+      </c>
+      <c r="M230">
+        <v>3</v>
+      </c>
+      <c r="N230">
+        <v>2.55</v>
+      </c>
+      <c r="O230">
+        <v>3.2</v>
+      </c>
+      <c r="P230">
+        <v>2.75</v>
+      </c>
+      <c r="Q230">
         <v>0</v>
       </c>
-      <c r="J230" t="s">
-        <v>51</v>
-      </c>
-      <c r="K230">
-        <v>2.1</v>
-      </c>
-      <c r="L230">
-        <v>3.25</v>
-      </c>
-      <c r="M230">
-        <v>3.5</v>
-      </c>
-      <c r="N230">
-        <v>2.1</v>
-      </c>
-      <c r="O230">
-        <v>3.3</v>
-      </c>
-      <c r="P230">
-        <v>3.5</v>
-      </c>
-      <c r="Q230">
-        <v>-0.25</v>
-      </c>
       <c r="R230">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S230">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T230">
         <v>2.5</v>
       </c>
       <c r="U230">
+        <v>1.9</v>
+      </c>
+      <c r="V230">
         <v>1.95</v>
       </c>
-      <c r="V230">
-        <v>1.9</v>
-      </c>
       <c r="W230">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC230">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -22436,7 +22436,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6876518</v>
+        <v>6876515</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22448,49 +22448,49 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F247" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G247" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J247" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K247">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L247">
         <v>3.2</v>
       </c>
       <c r="M247">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N247">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O247">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P247">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q247">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R247">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S247">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T247">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U247">
         <v>1.95</v>
@@ -22499,25 +22499,25 @@
         <v>1.9</v>
       </c>
       <c r="W247">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X247">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA247">
-        <v>0.445</v>
+        <v>-1</v>
       </c>
       <c r="AB247">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC247">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22525,7 +22525,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6876515</v>
+        <v>6876518</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22537,49 +22537,49 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F248" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G248" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H248">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J248" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K248">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L248">
         <v>3.2</v>
       </c>
       <c r="M248">
+        <v>2.875</v>
+      </c>
+      <c r="N248">
+        <v>2.2</v>
+      </c>
+      <c r="O248">
+        <v>3.2</v>
+      </c>
+      <c r="P248">
+        <v>3.1</v>
+      </c>
+      <c r="Q248">
+        <v>-0.25</v>
+      </c>
+      <c r="R248">
+        <v>2.01</v>
+      </c>
+      <c r="S248">
+        <v>1.89</v>
+      </c>
+      <c r="T248">
         <v>2.5</v>
-      </c>
-      <c r="N248">
-        <v>2.5</v>
-      </c>
-      <c r="O248">
-        <v>3.4</v>
-      </c>
-      <c r="P248">
-        <v>2.45</v>
-      </c>
-      <c r="Q248">
-        <v>0</v>
-      </c>
-      <c r="R248">
-        <v>2</v>
-      </c>
-      <c r="S248">
-        <v>1.9</v>
-      </c>
-      <c r="T248">
-        <v>2.75</v>
       </c>
       <c r="U248">
         <v>1.95</v>
@@ -22588,25 +22588,25 @@
         <v>1.9</v>
       </c>
       <c r="W248">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X248">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA248">
-        <v>-1</v>
+        <v>0.445</v>
       </c>
       <c r="AB248">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -24928,7 +24928,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6875464</v>
+        <v>6876543</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24940,49 +24940,49 @@
         <v>45241.625</v>
       </c>
       <c r="F275" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G275" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H275">
         <v>0</v>
       </c>
       <c r="I275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J275" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K275">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L275">
         <v>3.2</v>
       </c>
       <c r="M275">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N275">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O275">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P275">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q275">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R275">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S275">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T275">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U275">
         <v>2</v>
@@ -24994,16 +24994,16 @@
         <v>-1</v>
       </c>
       <c r="X275">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y275">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z275">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA275">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AB275">
         <v>-1</v>
@@ -25017,7 +25017,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6876543</v>
+        <v>6875464</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25029,49 +25029,49 @@
         <v>45241.625</v>
       </c>
       <c r="F276" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G276" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H276">
         <v>0</v>
       </c>
       <c r="I276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J276" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K276">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L276">
         <v>3.2</v>
       </c>
       <c r="M276">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N276">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O276">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P276">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q276">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R276">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S276">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T276">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U276">
         <v>2</v>
@@ -25083,16 +25083,16 @@
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z276">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA276">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AB276">
         <v>-1</v>
@@ -25640,7 +25640,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6876552</v>
+        <v>6876549</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25652,76 +25652,76 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F283" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G283" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H283">
         <v>1</v>
       </c>
       <c r="I283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J283" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K283">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="L283">
         <v>3.4</v>
       </c>
       <c r="M283">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N283">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O283">
         <v>3.6</v>
       </c>
       <c r="P283">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q283">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R283">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S283">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T283">
         <v>2.5</v>
       </c>
       <c r="U283">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V283">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W283">
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y283">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z283">
         <v>-1</v>
       </c>
       <c r="AA283">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB283">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC283">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25729,7 +25729,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6876549</v>
+        <v>6876552</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25741,76 +25741,76 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F284" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G284" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H284">
         <v>1</v>
       </c>
       <c r="I284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J284" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K284">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L284">
         <v>3.4</v>
       </c>
       <c r="M284">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N284">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O284">
         <v>3.6</v>
       </c>
       <c r="P284">
+        <v>3.3</v>
+      </c>
+      <c r="Q284">
+        <v>-0.5</v>
+      </c>
+      <c r="R284">
         <v>2.05</v>
       </c>
-      <c r="Q284">
-        <v>0.25</v>
-      </c>
-      <c r="R284">
-        <v>2.025</v>
-      </c>
       <c r="S284">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T284">
         <v>2.5</v>
       </c>
       <c r="U284">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V284">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W284">
         <v>-1</v>
       </c>
       <c r="X284">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y284">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z284">
         <v>-1</v>
       </c>
       <c r="AA284">
+        <v>0.8</v>
+      </c>
+      <c r="AB284">
+        <v>-1</v>
+      </c>
+      <c r="AC284">
         <v>0.825</v>
-      </c>
-      <c r="AB284">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC284">
-        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -27509,7 +27509,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6876563</v>
+        <v>6875467</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27521,40 +27521,40 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F304" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G304" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I304">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J304" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K304">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="L304">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M304">
-        <v>2.55</v>
+        <v>3.9</v>
       </c>
       <c r="N304">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O304">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P304">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q304">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R304">
         <v>1.875</v>
@@ -27563,31 +27563,31 @@
         <v>1.975</v>
       </c>
       <c r="T304">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U304">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V304">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W304">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X304">
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z304">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA304">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB304">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC304">
         <v>-1</v>
@@ -27598,7 +27598,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6875467</v>
+        <v>6876563</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27610,40 +27610,40 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F305" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G305" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H305">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I305">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J305" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K305">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="L305">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M305">
-        <v>3.9</v>
+        <v>2.55</v>
       </c>
       <c r="N305">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O305">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P305">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q305">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R305">
         <v>1.875</v>
@@ -27652,31 +27652,31 @@
         <v>1.975</v>
       </c>
       <c r="T305">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U305">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V305">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W305">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X305">
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z305">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA305">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB305">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC305">
         <v>-1</v>
@@ -27954,7 +27954,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6876571</v>
+        <v>6875468</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27966,67 +27966,67 @@
         <v>45283.52083333334</v>
       </c>
       <c r="F309" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G309" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309">
         <v>0</v>
       </c>
       <c r="J309" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K309">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L309">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M309">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N309">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="O309">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P309">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q309">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R309">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S309">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T309">
         <v>2.25</v>
       </c>
       <c r="U309">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V309">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W309">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X309">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y309">
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>0.4875</v>
+        <v>0.4</v>
       </c>
       <c r="AA309">
         <v>-0.5</v>
@@ -28035,7 +28035,7 @@
         <v>-1</v>
       </c>
       <c r="AC309">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28043,7 +28043,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6875468</v>
+        <v>6876571</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28055,67 +28055,67 @@
         <v>45283.52083333334</v>
       </c>
       <c r="F310" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G310" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I310">
         <v>0</v>
       </c>
       <c r="J310" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K310">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L310">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M310">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N310">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="O310">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P310">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q310">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R310">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S310">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T310">
         <v>2.25</v>
       </c>
       <c r="U310">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V310">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W310">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X310">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0.4</v>
+        <v>0.4875</v>
       </c>
       <c r="AA310">
         <v>-0.5</v>
@@ -28124,7 +28124,7 @@
         <v>-1</v>
       </c>
       <c r="AC310">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28933,7 +28933,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6876581</v>
+        <v>6876582</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28945,76 +28945,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F320" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G320" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H320">
         <v>1</v>
       </c>
       <c r="I320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J320" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K320">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L320">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M320">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N320">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O320">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P320">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q320">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R320">
+        <v>1.95</v>
+      </c>
+      <c r="S320">
+        <v>1.9</v>
+      </c>
+      <c r="T320">
+        <v>2.5</v>
+      </c>
+      <c r="U320">
         <v>2.025</v>
       </c>
-      <c r="S320">
+      <c r="V320">
         <v>1.825</v>
       </c>
-      <c r="T320">
-        <v>2.25</v>
-      </c>
-      <c r="U320">
-        <v>1.975</v>
-      </c>
-      <c r="V320">
-        <v>1.875</v>
-      </c>
       <c r="W320">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X320">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y320">
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA320">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB320">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC320">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29022,7 +29022,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6876582</v>
+        <v>6876581</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29034,76 +29034,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F321" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G321" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H321">
         <v>1</v>
       </c>
       <c r="I321">
+        <v>1</v>
+      </c>
+      <c r="J321" t="s">
+        <v>52</v>
+      </c>
+      <c r="K321">
+        <v>2</v>
+      </c>
+      <c r="L321">
+        <v>3.4</v>
+      </c>
+      <c r="M321">
+        <v>3.6</v>
+      </c>
+      <c r="N321">
+        <v>2.8</v>
+      </c>
+      <c r="O321">
+        <v>3.3</v>
+      </c>
+      <c r="P321">
+        <v>2.55</v>
+      </c>
+      <c r="Q321">
         <v>0</v>
       </c>
-      <c r="J321" t="s">
-        <v>51</v>
-      </c>
-      <c r="K321">
-        <v>1.8</v>
-      </c>
-      <c r="L321">
-        <v>3.6</v>
-      </c>
-      <c r="M321">
-        <v>4.2</v>
-      </c>
-      <c r="N321">
-        <v>2.2</v>
-      </c>
-      <c r="O321">
-        <v>3.25</v>
-      </c>
-      <c r="P321">
-        <v>3.25</v>
-      </c>
-      <c r="Q321">
-        <v>-0.25</v>
-      </c>
       <c r="R321">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S321">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T321">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U321">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V321">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W321">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X321">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y321">
         <v>-1</v>
       </c>
       <c r="Z321">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA321">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB321">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC321">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -33472,7 +33472,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>6876626</v>
+        <v>6876632</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33481,64 +33481,79 @@
         <v>28</v>
       </c>
       <c r="E371" s="2">
-        <v>45340.52083333334</v>
+        <v>45338.71875</v>
       </c>
       <c r="F371" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G371" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="H371">
+        <v>2</v>
+      </c>
+      <c r="I371">
+        <v>1</v>
+      </c>
+      <c r="J371" t="s">
+        <v>51</v>
       </c>
       <c r="K371">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L371">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M371">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N371">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="O371">
         <v>3.1</v>
       </c>
       <c r="P371">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q371">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R371">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S371">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T371">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U371">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V371">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W371">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X371">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y371">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z371">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA371">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB371">
+        <v>0.825</v>
+      </c>
+      <c r="AC371">
+        <v>-1</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33546,7 +33561,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6876633</v>
+        <v>6876628</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33555,64 +33570,79 @@
         <v>28</v>
       </c>
       <c r="E372" s="2">
-        <v>45340.625</v>
+        <v>45339.52083333334</v>
       </c>
       <c r="F372" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G372" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="H372">
+        <v>2</v>
+      </c>
+      <c r="I372">
+        <v>1</v>
+      </c>
+      <c r="J372" t="s">
+        <v>51</v>
       </c>
       <c r="K372">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L372">
         <v>3.4</v>
       </c>
       <c r="M372">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N372">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="O372">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P372">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q372">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R372">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S372">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="T372">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U372">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V372">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W372">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X372">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y372">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z372">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA372">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB372">
+        <v>1.05</v>
+      </c>
+      <c r="AC372">
+        <v>-1</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33620,7 +33650,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6876630</v>
+        <v>6876627</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33629,64 +33659,79 @@
         <v>28</v>
       </c>
       <c r="E373" s="2">
-        <v>45340.625</v>
+        <v>45339.625</v>
       </c>
       <c r="F373" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G373" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="H373">
+        <v>1</v>
+      </c>
+      <c r="I373">
+        <v>1</v>
+      </c>
+      <c r="J373" t="s">
+        <v>52</v>
       </c>
       <c r="K373">
-        <v>1.111</v>
+        <v>4.333</v>
       </c>
       <c r="L373">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="M373">
-        <v>21</v>
+        <v>1.833</v>
       </c>
       <c r="N373">
-        <v>1.111</v>
+        <v>4</v>
       </c>
       <c r="O373">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="P373">
-        <v>26</v>
+        <v>1.909</v>
       </c>
       <c r="Q373">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R373">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S373">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T373">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U373">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V373">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W373">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X373">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y373">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z373">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA373">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB373">
+        <v>-1</v>
+      </c>
+      <c r="AC373">
+        <v>0.825</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33694,7 +33739,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6876631</v>
+        <v>6876629</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33703,64 +33748,79 @@
         <v>28</v>
       </c>
       <c r="E374" s="2">
-        <v>45340.72916666666</v>
+        <v>45339.72916666666</v>
       </c>
       <c r="F374" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G374" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="H374">
+        <v>2</v>
+      </c>
+      <c r="I374">
+        <v>0</v>
+      </c>
+      <c r="J374" t="s">
+        <v>51</v>
       </c>
       <c r="K374">
-        <v>1.363</v>
+        <v>1.222</v>
       </c>
       <c r="L374">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M374">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="N374">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="O374">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P374">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Q374">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R374">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="S374">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="T374">
         <v>3</v>
       </c>
       <c r="U374">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V374">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W374">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X374">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y374">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z374">
         <v>0</v>
       </c>
       <c r="AA374">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB374">
+        <v>-1</v>
+      </c>
+      <c r="AC374">
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -33768,72 +33828,428 @@
         <v>373</v>
       </c>
       <c r="B375">
+        <v>6876626</v>
+      </c>
+      <c r="C375" t="s">
+        <v>28</v>
+      </c>
+      <c r="D375" t="s">
+        <v>28</v>
+      </c>
+      <c r="E375" s="2">
+        <v>45340.52083333334</v>
+      </c>
+      <c r="F375" t="s">
+        <v>34</v>
+      </c>
+      <c r="G375" t="s">
+        <v>32</v>
+      </c>
+      <c r="H375">
+        <v>1</v>
+      </c>
+      <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="J375" t="s">
+        <v>51</v>
+      </c>
+      <c r="K375">
+        <v>2.7</v>
+      </c>
+      <c r="L375">
+        <v>3</v>
+      </c>
+      <c r="M375">
+        <v>2.8</v>
+      </c>
+      <c r="N375">
+        <v>2.9</v>
+      </c>
+      <c r="O375">
+        <v>3.1</v>
+      </c>
+      <c r="P375">
+        <v>2.6</v>
+      </c>
+      <c r="Q375">
+        <v>0</v>
+      </c>
+      <c r="R375">
+        <v>2.05</v>
+      </c>
+      <c r="S375">
+        <v>1.8</v>
+      </c>
+      <c r="T375">
+        <v>2.25</v>
+      </c>
+      <c r="U375">
+        <v>2.1</v>
+      </c>
+      <c r="V375">
+        <v>1.775</v>
+      </c>
+      <c r="W375">
+        <v>1.9</v>
+      </c>
+      <c r="X375">
+        <v>-1</v>
+      </c>
+      <c r="Y375">
+        <v>-1</v>
+      </c>
+      <c r="Z375">
+        <v>1.05</v>
+      </c>
+      <c r="AA375">
+        <v>-1</v>
+      </c>
+      <c r="AB375">
+        <v>-1</v>
+      </c>
+      <c r="AC375">
+        <v>0.7749999999999999</v>
+      </c>
+    </row>
+    <row r="376" spans="1:29">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>6876630</v>
+      </c>
+      <c r="C376" t="s">
+        <v>28</v>
+      </c>
+      <c r="D376" t="s">
+        <v>28</v>
+      </c>
+      <c r="E376" s="2">
+        <v>45340.625</v>
+      </c>
+      <c r="F376" t="s">
+        <v>30</v>
+      </c>
+      <c r="G376" t="s">
+        <v>39</v>
+      </c>
+      <c r="H376">
+        <v>6</v>
+      </c>
+      <c r="I376">
+        <v>1</v>
+      </c>
+      <c r="J376" t="s">
+        <v>51</v>
+      </c>
+      <c r="K376">
+        <v>1.111</v>
+      </c>
+      <c r="L376">
+        <v>8.5</v>
+      </c>
+      <c r="M376">
+        <v>21</v>
+      </c>
+      <c r="N376">
+        <v>1.1</v>
+      </c>
+      <c r="O376">
+        <v>9.5</v>
+      </c>
+      <c r="P376">
+        <v>23</v>
+      </c>
+      <c r="Q376">
+        <v>-2</v>
+      </c>
+      <c r="R376">
+        <v>1.89</v>
+      </c>
+      <c r="S376">
+        <v>2.01</v>
+      </c>
+      <c r="T376">
+        <v>3.25</v>
+      </c>
+      <c r="U376">
+        <v>1.825</v>
+      </c>
+      <c r="V376">
+        <v>2.025</v>
+      </c>
+      <c r="W376">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="X376">
+        <v>-1</v>
+      </c>
+      <c r="Y376">
+        <v>-1</v>
+      </c>
+      <c r="Z376">
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="AA376">
+        <v>-1</v>
+      </c>
+      <c r="AB376">
+        <v>0.825</v>
+      </c>
+      <c r="AC376">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:29">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>6876633</v>
+      </c>
+      <c r="C377" t="s">
+        <v>28</v>
+      </c>
+      <c r="D377" t="s">
+        <v>28</v>
+      </c>
+      <c r="E377" s="2">
+        <v>45340.625</v>
+      </c>
+      <c r="F377" t="s">
+        <v>44</v>
+      </c>
+      <c r="G377" t="s">
+        <v>45</v>
+      </c>
+      <c r="H377">
+        <v>1</v>
+      </c>
+      <c r="I377">
+        <v>3</v>
+      </c>
+      <c r="J377" t="s">
+        <v>50</v>
+      </c>
+      <c r="K377">
+        <v>2.2</v>
+      </c>
+      <c r="L377">
+        <v>3.4</v>
+      </c>
+      <c r="M377">
+        <v>3.2</v>
+      </c>
+      <c r="N377">
+        <v>2.1</v>
+      </c>
+      <c r="O377">
+        <v>3.5</v>
+      </c>
+      <c r="P377">
+        <v>3.5</v>
+      </c>
+      <c r="Q377">
+        <v>-0.25</v>
+      </c>
+      <c r="R377">
+        <v>1.95</v>
+      </c>
+      <c r="S377">
+        <v>1.95</v>
+      </c>
+      <c r="T377">
+        <v>2.5</v>
+      </c>
+      <c r="U377">
+        <v>1.925</v>
+      </c>
+      <c r="V377">
+        <v>1.925</v>
+      </c>
+      <c r="W377">
+        <v>-1</v>
+      </c>
+      <c r="X377">
+        <v>-1</v>
+      </c>
+      <c r="Y377">
+        <v>2.5</v>
+      </c>
+      <c r="Z377">
+        <v>-1</v>
+      </c>
+      <c r="AA377">
+        <v>0.95</v>
+      </c>
+      <c r="AB377">
+        <v>0.925</v>
+      </c>
+      <c r="AC377">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:29">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>6876631</v>
+      </c>
+      <c r="C378" t="s">
+        <v>28</v>
+      </c>
+      <c r="D378" t="s">
+        <v>28</v>
+      </c>
+      <c r="E378" s="2">
+        <v>45340.72916666666</v>
+      </c>
+      <c r="F378" t="s">
+        <v>41</v>
+      </c>
+      <c r="G378" t="s">
+        <v>47</v>
+      </c>
+      <c r="H378">
+        <v>2</v>
+      </c>
+      <c r="I378">
+        <v>1</v>
+      </c>
+      <c r="J378" t="s">
+        <v>51</v>
+      </c>
+      <c r="K378">
+        <v>1.363</v>
+      </c>
+      <c r="L378">
+        <v>5</v>
+      </c>
+      <c r="M378">
+        <v>7.5</v>
+      </c>
+      <c r="N378">
+        <v>1.5</v>
+      </c>
+      <c r="O378">
+        <v>5.25</v>
+      </c>
+      <c r="P378">
+        <v>5.5</v>
+      </c>
+      <c r="Q378">
+        <v>-1.25</v>
+      </c>
+      <c r="R378">
+        <v>2.025</v>
+      </c>
+      <c r="S378">
+        <v>1.825</v>
+      </c>
+      <c r="T378">
+        <v>3</v>
+      </c>
+      <c r="U378">
+        <v>1.8</v>
+      </c>
+      <c r="V378">
+        <v>2.05</v>
+      </c>
+      <c r="W378">
+        <v>0.5</v>
+      </c>
+      <c r="X378">
+        <v>-1</v>
+      </c>
+      <c r="Y378">
+        <v>-1</v>
+      </c>
+      <c r="Z378">
+        <v>-0.5</v>
+      </c>
+      <c r="AA378">
+        <v>0.4125</v>
+      </c>
+      <c r="AB378">
+        <v>0</v>
+      </c>
+      <c r="AC378">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:29">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379">
         <v>6875475</v>
       </c>
-      <c r="C375" t="s">
-        <v>28</v>
-      </c>
-      <c r="D375" t="s">
-        <v>28</v>
-      </c>
-      <c r="E375" s="2">
+      <c r="C379" t="s">
+        <v>28</v>
+      </c>
+      <c r="D379" t="s">
+        <v>28</v>
+      </c>
+      <c r="E379" s="2">
         <v>45341.71875</v>
       </c>
-      <c r="F375" t="s">
+      <c r="F379" t="s">
         <v>49</v>
       </c>
-      <c r="G375" t="s">
+      <c r="G379" t="s">
         <v>46</v>
       </c>
-      <c r="K375">
+      <c r="K379">
         <v>6</v>
       </c>
-      <c r="L375">
+      <c r="L379">
         <v>4.333</v>
       </c>
-      <c r="M375">
+      <c r="M379">
         <v>1.45</v>
       </c>
-      <c r="N375">
+      <c r="N379">
         <v>7.5</v>
       </c>
-      <c r="O375">
-        <v>5</v>
-      </c>
-      <c r="P375">
+      <c r="O379">
+        <v>5.25</v>
+      </c>
+      <c r="P379">
         <v>1.363</v>
       </c>
-      <c r="Q375">
-        <v>1.25</v>
-      </c>
-      <c r="R375">
-        <v>2.04</v>
-      </c>
-      <c r="S375">
-        <v>1.86</v>
-      </c>
-      <c r="T375">
+      <c r="Q379">
+        <v>1.5</v>
+      </c>
+      <c r="R379">
+        <v>1.85</v>
+      </c>
+      <c r="S379">
+        <v>2.05</v>
+      </c>
+      <c r="T379">
         <v>2.75</v>
       </c>
-      <c r="U375">
-        <v>2</v>
-      </c>
-      <c r="V375">
-        <v>1.85</v>
-      </c>
-      <c r="W375">
+      <c r="U379">
+        <v>1.875</v>
+      </c>
+      <c r="V379">
+        <v>1.975</v>
+      </c>
+      <c r="W379">
         <v>0</v>
       </c>
-      <c r="X375">
+      <c r="X379">
         <v>0</v>
       </c>
-      <c r="Y375">
+      <c r="Y379">
         <v>0</v>
       </c>
-      <c r="Z375">
+      <c r="Z379">
         <v>0</v>
       </c>
-      <c r="AA375">
+      <c r="AA379">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC379"/>
+  <dimension ref="A1:AC387"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4191,7 +4191,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5265729</v>
+        <v>5265728</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4203,13 +4203,13 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -4218,43 +4218,43 @@
         <v>51</v>
       </c>
       <c r="K42">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="L42">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M42">
-        <v>4.333</v>
+        <v>9.5</v>
       </c>
       <c r="N42">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="O42">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P42">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
-        <v>1.2</v>
+        <v>0.55</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4263,13 +4263,13 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.8999999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4280,7 +4280,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5265728</v>
+        <v>5265729</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4292,13 +4292,13 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -4307,43 +4307,43 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="L43">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M43">
-        <v>9.5</v>
+        <v>4.333</v>
       </c>
       <c r="N43">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P43">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="S43">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
-        <v>0.55</v>
+        <v>1.2</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4352,13 +4352,13 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>1.01</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -8908,7 +8908,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5265649</v>
+        <v>5263123</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8920,76 +8920,76 @@
         <v>45003.625</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K95">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L95">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M95">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="N95">
-        <v>2.15</v>
+        <v>1.166</v>
       </c>
       <c r="O95">
+        <v>8</v>
+      </c>
+      <c r="P95">
+        <v>15</v>
+      </c>
+      <c r="Q95">
+        <v>-2.25</v>
+      </c>
+      <c r="R95">
+        <v>2.025</v>
+      </c>
+      <c r="S95">
+        <v>1.825</v>
+      </c>
+      <c r="T95">
         <v>3.25</v>
       </c>
-      <c r="P95">
-        <v>3.4</v>
-      </c>
-      <c r="Q95">
-        <v>-0.25</v>
-      </c>
-      <c r="R95">
+      <c r="U95">
         <v>1.875</v>
       </c>
-      <c r="S95">
+      <c r="V95">
         <v>1.975</v>
       </c>
-      <c r="T95">
-        <v>2.25</v>
-      </c>
-      <c r="U95">
-        <v>1.925</v>
-      </c>
-      <c r="V95">
-        <v>1.925</v>
-      </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X95">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA95">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC95">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8997,7 +8997,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5263123</v>
+        <v>5265649</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9009,76 +9009,76 @@
         <v>45003.625</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H96">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K96">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L96">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M96">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="N96">
-        <v>1.166</v>
+        <v>2.15</v>
       </c>
       <c r="O96">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="P96">
-        <v>15</v>
+        <v>3.4</v>
       </c>
       <c r="Q96">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB96">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -12824,7 +12824,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5265759</v>
+        <v>5265760</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12836,73 +12836,73 @@
         <v>45045.47916666666</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H139">
+        <v>4</v>
+      </c>
+      <c r="I139">
         <v>1</v>
       </c>
-      <c r="I139">
+      <c r="J139" t="s">
+        <v>51</v>
+      </c>
+      <c r="K139">
+        <v>1.25</v>
+      </c>
+      <c r="L139">
+        <v>6</v>
+      </c>
+      <c r="M139">
+        <v>11</v>
+      </c>
+      <c r="N139">
+        <v>1.25</v>
+      </c>
+      <c r="O139">
+        <v>6</v>
+      </c>
+      <c r="P139">
+        <v>10</v>
+      </c>
+      <c r="Q139">
+        <v>-1.75</v>
+      </c>
+      <c r="R139">
+        <v>1.89</v>
+      </c>
+      <c r="S139">
+        <v>2.01</v>
+      </c>
+      <c r="T139">
+        <v>3.25</v>
+      </c>
+      <c r="U139">
         <v>2</v>
       </c>
-      <c r="J139" t="s">
-        <v>50</v>
-      </c>
-      <c r="K139">
-        <v>2.45</v>
-      </c>
-      <c r="L139">
-        <v>3.2</v>
-      </c>
-      <c r="M139">
-        <v>2.9</v>
-      </c>
-      <c r="N139">
-        <v>2.4</v>
-      </c>
-      <c r="O139">
-        <v>3.25</v>
-      </c>
-      <c r="P139">
-        <v>3</v>
-      </c>
-      <c r="Q139">
-        <v>-0.25</v>
-      </c>
-      <c r="R139">
-        <v>2.1</v>
-      </c>
-      <c r="S139">
-        <v>1.775</v>
-      </c>
-      <c r="T139">
-        <v>2.25</v>
-      </c>
-      <c r="U139">
-        <v>1.9</v>
-      </c>
       <c r="V139">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA139">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12913,7 +12913,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5265760</v>
+        <v>5265759</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12925,73 +12925,73 @@
         <v>45045.47916666666</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K140">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="L140">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M140">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="N140">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="O140">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P140">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q140">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="S140">
-        <v>2.01</v>
+        <v>1.775</v>
       </c>
       <c r="T140">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
+        <v>1.9</v>
+      </c>
+      <c r="V140">
+        <v>1.95</v>
+      </c>
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
         <v>2</v>
       </c>
-      <c r="V140">
-        <v>1.85</v>
-      </c>
-      <c r="W140">
-        <v>0.25</v>
-      </c>
-      <c r="X140">
-        <v>-1</v>
-      </c>
-      <c r="Y140">
-        <v>-1</v>
-      </c>
       <c r="Z140">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5265682</v>
+        <v>5265761</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,76 +13014,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K141">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M141">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="N141">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O141">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P141">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="S141">
-        <v>1.98</v>
+        <v>1.925</v>
       </c>
       <c r="T141">
         <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA141">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5265761</v>
+        <v>5265682</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,76 +13103,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K142">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="N142">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O142">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.925</v>
+        <v>1.92</v>
       </c>
       <c r="S142">
-        <v>1.925</v>
+        <v>1.98</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W142">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z142">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC142">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -14426,7 +14426,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5462477</v>
+        <v>5473931</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14438,76 +14438,76 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F157" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K157">
+        <v>2.05</v>
+      </c>
+      <c r="L157">
+        <v>3.3</v>
+      </c>
+      <c r="M157">
+        <v>3.4</v>
+      </c>
+      <c r="N157">
+        <v>2.1</v>
+      </c>
+      <c r="O157">
+        <v>3.4</v>
+      </c>
+      <c r="P157">
+        <v>3.1</v>
+      </c>
+      <c r="Q157">
+        <v>-0.25</v>
+      </c>
+      <c r="R157">
+        <v>1.875</v>
+      </c>
+      <c r="S157">
+        <v>1.975</v>
+      </c>
+      <c r="T157">
         <v>2.5</v>
       </c>
-      <c r="L157">
-        <v>3.2</v>
-      </c>
-      <c r="M157">
-        <v>2.6</v>
-      </c>
-      <c r="N157">
-        <v>2.55</v>
-      </c>
-      <c r="O157">
-        <v>3.2</v>
-      </c>
-      <c r="P157">
-        <v>2.55</v>
-      </c>
-      <c r="Q157">
-        <v>0</v>
-      </c>
-      <c r="R157">
+      <c r="U157">
         <v>1.9</v>
       </c>
-      <c r="S157">
+      <c r="V157">
         <v>1.95</v>
       </c>
-      <c r="T157">
-        <v>2.25</v>
-      </c>
-      <c r="U157">
-        <v>1.875</v>
-      </c>
-      <c r="V157">
-        <v>1.975</v>
-      </c>
       <c r="W157">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X157">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA157">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14515,7 +14515,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>5473931</v>
+        <v>5462477</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14527,76 +14527,76 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K158">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L158">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M158">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N158">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O158">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P158">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q158">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R158">
+        <v>1.9</v>
+      </c>
+      <c r="S158">
+        <v>1.95</v>
+      </c>
+      <c r="T158">
+        <v>2.25</v>
+      </c>
+      <c r="U158">
         <v>1.875</v>
       </c>
-      <c r="S158">
+      <c r="V158">
         <v>1.975</v>
       </c>
-      <c r="T158">
-        <v>2.5</v>
-      </c>
-      <c r="U158">
-        <v>1.9</v>
-      </c>
-      <c r="V158">
-        <v>1.95</v>
-      </c>
       <c r="W158">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB158">
         <v>-1</v>
       </c>
       <c r="AC158">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -16384,7 +16384,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5549224</v>
+        <v>5545146</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16396,10 +16396,10 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H179">
         <v>3</v>
@@ -16411,43 +16411,43 @@
         <v>51</v>
       </c>
       <c r="K179">
-        <v>1.2</v>
+        <v>1.083</v>
       </c>
       <c r="L179">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="M179">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="N179">
-        <v>1.2</v>
+        <v>1.062</v>
       </c>
       <c r="O179">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P179">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="Q179">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="R179">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S179">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T179">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U179">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V179">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W179">
-        <v>0.2</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16456,16 +16456,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16473,7 +16473,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5545146</v>
+        <v>5540441</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16485,76 +16485,76 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K180">
-        <v>1.083</v>
+        <v>2.8</v>
       </c>
       <c r="L180">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M180">
-        <v>34</v>
+        <v>2.375</v>
       </c>
       <c r="N180">
-        <v>1.062</v>
+        <v>3.1</v>
       </c>
       <c r="O180">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="P180">
-        <v>26</v>
+        <v>2.15</v>
       </c>
       <c r="Q180">
-        <v>-3</v>
+        <v>0.25</v>
       </c>
       <c r="R180">
+        <v>1.975</v>
+      </c>
+      <c r="S180">
+        <v>1.875</v>
+      </c>
+      <c r="T180">
+        <v>2.75</v>
+      </c>
+      <c r="U180">
         <v>2.025</v>
       </c>
-      <c r="S180">
+      <c r="V180">
         <v>1.825</v>
       </c>
-      <c r="T180">
-        <v>4</v>
-      </c>
-      <c r="U180">
-        <v>1.925</v>
-      </c>
-      <c r="V180">
-        <v>1.925</v>
-      </c>
       <c r="W180">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB180">
         <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16562,7 +16562,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>5540441</v>
+        <v>5549224</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16574,76 +16574,76 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G181" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K181">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="L181">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M181">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="N181">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="O181">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="P181">
-        <v>2.15</v>
+        <v>11</v>
       </c>
       <c r="Q181">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R181">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S181">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T181">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U181">
+        <v>1.825</v>
+      </c>
+      <c r="V181">
         <v>2.025</v>
       </c>
-      <c r="V181">
-        <v>1.825</v>
-      </c>
       <c r="W181">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA181">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC181">
-        <v>0.825</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -17808,7 +17808,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6876465</v>
+        <v>6876471</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17820,76 +17820,76 @@
         <v>45157.6875</v>
       </c>
       <c r="F195" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G195" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>4</v>
+      </c>
+      <c r="J195" t="s">
+        <v>50</v>
+      </c>
+      <c r="K195">
+        <v>2.45</v>
+      </c>
+      <c r="L195">
+        <v>3.25</v>
+      </c>
+      <c r="M195">
+        <v>2.875</v>
+      </c>
+      <c r="N195">
+        <v>3</v>
+      </c>
+      <c r="O195">
+        <v>3.3</v>
+      </c>
+      <c r="P195">
+        <v>2.3</v>
+      </c>
+      <c r="Q195">
+        <v>0.25</v>
+      </c>
+      <c r="R195">
+        <v>1.85</v>
+      </c>
+      <c r="S195">
         <v>2</v>
       </c>
-      <c r="I195">
-        <v>0</v>
-      </c>
-      <c r="J195" t="s">
-        <v>51</v>
-      </c>
-      <c r="K195">
-        <v>1.125</v>
-      </c>
-      <c r="L195">
-        <v>8</v>
-      </c>
-      <c r="M195">
-        <v>19</v>
-      </c>
-      <c r="N195">
-        <v>1.142</v>
-      </c>
-      <c r="O195">
-        <v>7.5</v>
-      </c>
-      <c r="P195">
-        <v>17</v>
-      </c>
-      <c r="Q195">
-        <v>-2.25</v>
-      </c>
-      <c r="R195">
+      <c r="T195">
+        <v>2.25</v>
+      </c>
+      <c r="U195">
         <v>1.925</v>
       </c>
-      <c r="S195">
+      <c r="V195">
         <v>1.925</v>
       </c>
-      <c r="T195">
-        <v>3.5</v>
-      </c>
-      <c r="U195">
-        <v>1.875</v>
-      </c>
-      <c r="V195">
-        <v>1.975</v>
-      </c>
       <c r="W195">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z195">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC195">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17897,7 +17897,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6876471</v>
+        <v>6876465</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17909,76 +17909,76 @@
         <v>45157.6875</v>
       </c>
       <c r="F196" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K196">
-        <v>2.45</v>
+        <v>1.125</v>
       </c>
       <c r="L196">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M196">
-        <v>2.875</v>
+        <v>19</v>
       </c>
       <c r="N196">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="O196">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P196">
-        <v>2.3</v>
+        <v>17</v>
       </c>
       <c r="Q196">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R196">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S196">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T196">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U196">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V196">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA196">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB196">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -19499,7 +19499,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6876486</v>
+        <v>6875457</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19511,10 +19511,10 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G214" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -19526,40 +19526,40 @@
         <v>50</v>
       </c>
       <c r="K214">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L214">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M214">
+        <v>3.1</v>
+      </c>
+      <c r="N214">
         <v>2.9</v>
       </c>
-      <c r="N214">
+      <c r="O214">
+        <v>3.5</v>
+      </c>
+      <c r="P214">
+        <v>2.25</v>
+      </c>
+      <c r="Q214">
+        <v>0.25</v>
+      </c>
+      <c r="R214">
+        <v>1.875</v>
+      </c>
+      <c r="S214">
+        <v>1.975</v>
+      </c>
+      <c r="T214">
         <v>2.5</v>
       </c>
-      <c r="O214">
-        <v>3.25</v>
-      </c>
-      <c r="P214">
-        <v>2.8</v>
-      </c>
-      <c r="Q214">
-        <v>0</v>
-      </c>
-      <c r="R214">
-        <v>1.82</v>
-      </c>
-      <c r="S214">
-        <v>2.08</v>
-      </c>
-      <c r="T214">
-        <v>2.25</v>
-      </c>
       <c r="U214">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V214">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -19568,16 +19568,16 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>1.08</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB214">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19588,7 +19588,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6875457</v>
+        <v>6876486</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19600,10 +19600,10 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F215" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -19615,40 +19615,40 @@
         <v>50</v>
       </c>
       <c r="K215">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L215">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M215">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N215">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="O215">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P215">
+        <v>2.8</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215">
+        <v>1.82</v>
+      </c>
+      <c r="S215">
+        <v>2.08</v>
+      </c>
+      <c r="T215">
         <v>2.25</v>
       </c>
-      <c r="Q215">
-        <v>0.25</v>
-      </c>
-      <c r="R215">
-        <v>1.875</v>
-      </c>
-      <c r="S215">
-        <v>1.975</v>
-      </c>
-      <c r="T215">
-        <v>2.5</v>
-      </c>
       <c r="U215">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19657,16 +19657,16 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.9750000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AB215">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -22436,7 +22436,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6876515</v>
+        <v>6876518</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22448,49 +22448,49 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F247" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G247" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H247">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I247">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J247" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K247">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L247">
         <v>3.2</v>
       </c>
       <c r="M247">
+        <v>2.875</v>
+      </c>
+      <c r="N247">
+        <v>2.2</v>
+      </c>
+      <c r="O247">
+        <v>3.2</v>
+      </c>
+      <c r="P247">
+        <v>3.1</v>
+      </c>
+      <c r="Q247">
+        <v>-0.25</v>
+      </c>
+      <c r="R247">
+        <v>2.01</v>
+      </c>
+      <c r="S247">
+        <v>1.89</v>
+      </c>
+      <c r="T247">
         <v>2.5</v>
-      </c>
-      <c r="N247">
-        <v>2.5</v>
-      </c>
-      <c r="O247">
-        <v>3.4</v>
-      </c>
-      <c r="P247">
-        <v>2.45</v>
-      </c>
-      <c r="Q247">
-        <v>0</v>
-      </c>
-      <c r="R247">
-        <v>2</v>
-      </c>
-      <c r="S247">
-        <v>1.9</v>
-      </c>
-      <c r="T247">
-        <v>2.75</v>
       </c>
       <c r="U247">
         <v>1.95</v>
@@ -22499,25 +22499,25 @@
         <v>1.9</v>
       </c>
       <c r="W247">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X247">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y247">
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA247">
-        <v>-1</v>
+        <v>0.445</v>
       </c>
       <c r="AB247">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22525,7 +22525,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6876518</v>
+        <v>6876515</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22537,49 +22537,49 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F248" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G248" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J248" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K248">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L248">
         <v>3.2</v>
       </c>
       <c r="M248">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N248">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O248">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P248">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q248">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R248">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S248">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T248">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U248">
         <v>1.95</v>
@@ -22588,25 +22588,25 @@
         <v>1.9</v>
       </c>
       <c r="W248">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X248">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA248">
-        <v>0.445</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC248">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22792,7 +22792,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6876517</v>
+        <v>6876516</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22804,55 +22804,55 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F251" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G251" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J251" t="s">
         <v>50</v>
       </c>
       <c r="K251">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L251">
         <v>3.1</v>
       </c>
       <c r="M251">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N251">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O251">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P251">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q251">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R251">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S251">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T251">
         <v>2.25</v>
       </c>
       <c r="U251">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V251">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W251">
         <v>-1</v>
@@ -22861,19 +22861,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC251">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22881,7 +22881,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6876516</v>
+        <v>6876517</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22893,55 +22893,55 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F252" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G252" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252">
         <v>1</v>
-      </c>
-      <c r="I252">
-        <v>3</v>
       </c>
       <c r="J252" t="s">
         <v>50</v>
       </c>
       <c r="K252">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L252">
         <v>3.1</v>
       </c>
       <c r="M252">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N252">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O252">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P252">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R252">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S252">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T252">
         <v>2.25</v>
       </c>
       <c r="U252">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V252">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W252">
         <v>-1</v>
@@ -22950,19 +22950,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB252">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC252">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -24305,7 +24305,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6876531</v>
+        <v>6875463</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24317,76 +24317,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F268" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G268" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K268">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L268">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M268">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N268">
+        <v>2.875</v>
+      </c>
+      <c r="O268">
+        <v>3.3</v>
+      </c>
+      <c r="P268">
+        <v>2.4</v>
+      </c>
+      <c r="Q268">
+        <v>0</v>
+      </c>
+      <c r="R268">
         <v>2.1</v>
       </c>
-      <c r="O268">
-        <v>3.4</v>
-      </c>
-      <c r="P268">
-        <v>3.4</v>
-      </c>
-      <c r="Q268">
-        <v>-0.25</v>
-      </c>
-      <c r="R268">
-        <v>1.875</v>
-      </c>
       <c r="S268">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T268">
         <v>2.25</v>
       </c>
       <c r="U268">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V268">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W268">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X268">
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z268">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA268">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB268">
         <v>-1</v>
       </c>
       <c r="AC268">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24394,7 +24394,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6875463</v>
+        <v>6876531</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24406,76 +24406,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F269" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G269" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
         <v>1</v>
       </c>
-      <c r="I269">
-        <v>0</v>
-      </c>
       <c r="J269" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K269">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="L269">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M269">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N269">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="O269">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P269">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q269">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R269">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S269">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T269">
         <v>2.25</v>
       </c>
       <c r="U269">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V269">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W269">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X269">
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z269">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA269">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB269">
         <v>-1</v>
       </c>
       <c r="AC269">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -25195,7 +25195,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6876540</v>
+        <v>6876541</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25207,19 +25207,19 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F278" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G278" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H278">
         <v>1</v>
       </c>
       <c r="I278">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J278" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K278">
         <v>2</v>
@@ -25231,16 +25231,16 @@
         <v>3.6</v>
       </c>
       <c r="N278">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O278">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P278">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q278">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R278">
         <v>1.95</v>
@@ -25249,34 +25249,34 @@
         <v>1.9</v>
       </c>
       <c r="T278">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U278">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V278">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W278">
         <v>-1</v>
       </c>
       <c r="X278">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y278">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z278">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA278">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB278">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC278">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25284,7 +25284,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6876541</v>
+        <v>6876540</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25296,19 +25296,19 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F279" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G279" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H279">
         <v>1</v>
       </c>
       <c r="I279">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J279" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K279">
         <v>2</v>
@@ -25320,16 +25320,16 @@
         <v>3.6</v>
       </c>
       <c r="N279">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O279">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P279">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q279">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R279">
         <v>1.95</v>
@@ -25338,34 +25338,34 @@
         <v>1.9</v>
       </c>
       <c r="T279">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U279">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V279">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W279">
         <v>-1</v>
       </c>
       <c r="X279">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y279">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z279">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA279">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB279">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC279">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25640,7 +25640,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6876549</v>
+        <v>6876552</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25652,76 +25652,76 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F283" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G283" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H283">
         <v>1</v>
       </c>
       <c r="I283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K283">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L283">
         <v>3.4</v>
       </c>
       <c r="M283">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N283">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O283">
         <v>3.6</v>
       </c>
       <c r="P283">
+        <v>3.3</v>
+      </c>
+      <c r="Q283">
+        <v>-0.5</v>
+      </c>
+      <c r="R283">
         <v>2.05</v>
       </c>
-      <c r="Q283">
-        <v>0.25</v>
-      </c>
-      <c r="R283">
-        <v>2.025</v>
-      </c>
       <c r="S283">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T283">
         <v>2.5</v>
       </c>
       <c r="U283">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V283">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W283">
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y283">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z283">
         <v>-1</v>
       </c>
       <c r="AA283">
+        <v>0.8</v>
+      </c>
+      <c r="AB283">
+        <v>-1</v>
+      </c>
+      <c r="AC283">
         <v>0.825</v>
-      </c>
-      <c r="AB283">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC283">
-        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25729,7 +25729,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6876552</v>
+        <v>6876549</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25741,76 +25741,76 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F284" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G284" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H284">
         <v>1</v>
       </c>
       <c r="I284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J284" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K284">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="L284">
         <v>3.4</v>
       </c>
       <c r="M284">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N284">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O284">
         <v>3.6</v>
       </c>
       <c r="P284">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q284">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R284">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S284">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T284">
         <v>2.5</v>
       </c>
       <c r="U284">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V284">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W284">
         <v>-1</v>
       </c>
       <c r="X284">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y284">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z284">
         <v>-1</v>
       </c>
       <c r="AA284">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB284">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC284">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -28399,7 +28399,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7513577</v>
+        <v>7515550</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28411,13 +28411,13 @@
         <v>45290.52083333334</v>
       </c>
       <c r="F314" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G314" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H314">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I314">
         <v>0</v>
@@ -28426,43 +28426,43 @@
         <v>51</v>
       </c>
       <c r="K314">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L314">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M314">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N314">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O314">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P314">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q314">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R314">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S314">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T314">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U314">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V314">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W314">
-        <v>0.833</v>
+        <v>1.3</v>
       </c>
       <c r="X314">
         <v>-1</v>
@@ -28471,16 +28471,16 @@
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA314">
         <v>-1</v>
       </c>
       <c r="AB314">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC314">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28488,7 +28488,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7515550</v>
+        <v>7513577</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28500,13 +28500,13 @@
         <v>45290.52083333334</v>
       </c>
       <c r="F315" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G315" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I315">
         <v>0</v>
@@ -28515,43 +28515,43 @@
         <v>51</v>
       </c>
       <c r="K315">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L315">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M315">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N315">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O315">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P315">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q315">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R315">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S315">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T315">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U315">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V315">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W315">
-        <v>1.3</v>
+        <v>0.833</v>
       </c>
       <c r="X315">
         <v>-1</v>
@@ -28560,16 +28560,16 @@
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA315">
         <v>-1</v>
       </c>
       <c r="AB315">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC315">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -31425,7 +31425,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6876603</v>
+        <v>6876607</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31437,13 +31437,13 @@
         <v>45319.72916666666</v>
       </c>
       <c r="F348" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G348" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I348">
         <v>0</v>
@@ -31452,43 +31452,43 @@
         <v>51</v>
       </c>
       <c r="K348">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L348">
         <v>3.4</v>
       </c>
       <c r="M348">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N348">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="O348">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P348">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q348">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R348">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S348">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T348">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U348">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V348">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W348">
-        <v>2.25</v>
+        <v>0.8</v>
       </c>
       <c r="X348">
         <v>-1</v>
@@ -31497,16 +31497,16 @@
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA348">
         <v>-1</v>
       </c>
       <c r="AB348">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC348">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31514,7 +31514,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6876607</v>
+        <v>6876603</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31526,13 +31526,13 @@
         <v>45319.72916666666</v>
       </c>
       <c r="F349" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G349" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H349">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I349">
         <v>0</v>
@@ -31541,43 +31541,43 @@
         <v>51</v>
       </c>
       <c r="K349">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L349">
         <v>3.4</v>
       </c>
       <c r="M349">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N349">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="O349">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P349">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q349">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R349">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S349">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T349">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U349">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V349">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W349">
-        <v>0.8</v>
+        <v>2.25</v>
       </c>
       <c r="X349">
         <v>-1</v>
@@ -31586,16 +31586,16 @@
         <v>-1</v>
       </c>
       <c r="Z349">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA349">
         <v>-1</v>
       </c>
       <c r="AB349">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC349">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -32137,7 +32137,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>6876616</v>
+        <v>6876611</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32149,76 +32149,76 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F356" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G356" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356">
         <v>1</v>
       </c>
       <c r="J356" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K356">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L356">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M356">
+        <v>2.3</v>
+      </c>
+      <c r="N356">
+        <v>4.2</v>
+      </c>
+      <c r="O356">
+        <v>3.6</v>
+      </c>
+      <c r="P356">
+        <v>1.85</v>
+      </c>
+      <c r="Q356">
+        <v>0.5</v>
+      </c>
+      <c r="R356">
+        <v>2.025</v>
+      </c>
+      <c r="S356">
+        <v>1.825</v>
+      </c>
+      <c r="T356">
         <v>2.5</v>
       </c>
-      <c r="N356">
-        <v>2.3</v>
-      </c>
-      <c r="O356">
-        <v>3.4</v>
-      </c>
-      <c r="P356">
-        <v>3.2</v>
-      </c>
-      <c r="Q356">
-        <v>-0.25</v>
-      </c>
-      <c r="R356">
-        <v>1.975</v>
-      </c>
-      <c r="S356">
-        <v>1.875</v>
-      </c>
-      <c r="T356">
-        <v>2.25</v>
-      </c>
       <c r="U356">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V356">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W356">
         <v>-1</v>
       </c>
       <c r="X356">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y356">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z356">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA356">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AB356">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC356">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -32226,7 +32226,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>6876611</v>
+        <v>6876616</v>
       </c>
       <c r="C357" t="s">
         <v>28</v>
@@ -32238,76 +32238,76 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F357" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G357" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I357">
         <v>1</v>
       </c>
       <c r="J357" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K357">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L357">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M357">
+        <v>2.5</v>
+      </c>
+      <c r="N357">
         <v>2.3</v>
       </c>
-      <c r="N357">
-        <v>4.2</v>
-      </c>
       <c r="O357">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P357">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="Q357">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R357">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S357">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T357">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U357">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V357">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W357">
         <v>-1</v>
       </c>
       <c r="X357">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y357">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z357">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA357">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AB357">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC357">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="358" spans="1:29">
@@ -33917,7 +33917,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6876630</v>
+        <v>6876633</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33929,73 +33929,73 @@
         <v>45340.625</v>
       </c>
       <c r="F376" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G376" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H376">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I376">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J376" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K376">
-        <v>1.111</v>
+        <v>2.2</v>
       </c>
       <c r="L376">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="M376">
-        <v>21</v>
+        <v>3.2</v>
       </c>
       <c r="N376">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="O376">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="P376">
-        <v>23</v>
+        <v>3.5</v>
       </c>
       <c r="Q376">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R376">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S376">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T376">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U376">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V376">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W376">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X376">
         <v>-1</v>
       </c>
       <c r="Y376">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z376">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA376">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB376">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC376">
         <v>-1</v>
@@ -34006,7 +34006,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>6876633</v>
+        <v>6876630</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34018,73 +34018,73 @@
         <v>45340.625</v>
       </c>
       <c r="F377" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G377" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H377">
+        <v>6</v>
+      </c>
+      <c r="I377">
         <v>1</v>
       </c>
-      <c r="I377">
-        <v>3</v>
-      </c>
       <c r="J377" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K377">
-        <v>2.2</v>
+        <v>1.111</v>
       </c>
       <c r="L377">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="M377">
-        <v>3.2</v>
+        <v>21</v>
       </c>
       <c r="N377">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="O377">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="P377">
-        <v>3.5</v>
+        <v>23</v>
       </c>
       <c r="Q377">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R377">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S377">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="T377">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U377">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V377">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W377">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X377">
         <v>-1</v>
       </c>
       <c r="Y377">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z377">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA377">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB377">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC377">
         <v>-1</v>
@@ -34184,7 +34184,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>6875475</v>
+        <v>6876638</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34193,63 +34193,655 @@
         <v>28</v>
       </c>
       <c r="E379" s="2">
-        <v>45341.71875</v>
+        <v>45345.71875</v>
       </c>
       <c r="F379" t="s">
+        <v>32</v>
+      </c>
+      <c r="G379" t="s">
+        <v>31</v>
+      </c>
+      <c r="K379">
+        <v>2.15</v>
+      </c>
+      <c r="L379">
+        <v>3.3</v>
+      </c>
+      <c r="M379">
+        <v>3.4</v>
+      </c>
+      <c r="N379">
+        <v>2.15</v>
+      </c>
+      <c r="O379">
+        <v>3.25</v>
+      </c>
+      <c r="P379">
+        <v>3.4</v>
+      </c>
+      <c r="Q379">
+        <v>-0.25</v>
+      </c>
+      <c r="R379">
+        <v>1.89</v>
+      </c>
+      <c r="S379">
+        <v>2.01</v>
+      </c>
+      <c r="T379">
+        <v>2.25</v>
+      </c>
+      <c r="U379">
+        <v>1.85</v>
+      </c>
+      <c r="V379">
+        <v>2</v>
+      </c>
+      <c r="W379">
+        <v>0</v>
+      </c>
+      <c r="X379">
+        <v>0</v>
+      </c>
+      <c r="Y379">
+        <v>0</v>
+      </c>
+      <c r="Z379">
+        <v>0</v>
+      </c>
+      <c r="AA379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:29">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>6875476</v>
+      </c>
+      <c r="C380" t="s">
+        <v>28</v>
+      </c>
+      <c r="D380" t="s">
+        <v>28</v>
+      </c>
+      <c r="E380" s="2">
+        <v>45346.52083333334</v>
+      </c>
+      <c r="F380" t="s">
+        <v>47</v>
+      </c>
+      <c r="G380" t="s">
         <v>49</v>
       </c>
-      <c r="G379" t="s">
+      <c r="K380">
+        <v>2.625</v>
+      </c>
+      <c r="L380">
+        <v>3.3</v>
+      </c>
+      <c r="M380">
+        <v>2.625</v>
+      </c>
+      <c r="N380">
+        <v>2.625</v>
+      </c>
+      <c r="O380">
+        <v>3.3</v>
+      </c>
+      <c r="P380">
+        <v>2.625</v>
+      </c>
+      <c r="Q380">
+        <v>0</v>
+      </c>
+      <c r="R380">
+        <v>1.95</v>
+      </c>
+      <c r="S380">
+        <v>1.95</v>
+      </c>
+      <c r="T380">
+        <v>2.25</v>
+      </c>
+      <c r="U380">
+        <v>1.925</v>
+      </c>
+      <c r="V380">
+        <v>1.925</v>
+      </c>
+      <c r="W380">
+        <v>0</v>
+      </c>
+      <c r="X380">
+        <v>0</v>
+      </c>
+      <c r="Y380">
+        <v>0</v>
+      </c>
+      <c r="Z380">
+        <v>0</v>
+      </c>
+      <c r="AA380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:29">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>6876634</v>
+      </c>
+      <c r="C381" t="s">
+        <v>28</v>
+      </c>
+      <c r="D381" t="s">
+        <v>28</v>
+      </c>
+      <c r="E381" s="2">
+        <v>45346.625</v>
+      </c>
+      <c r="F381" t="s">
+        <v>48</v>
+      </c>
+      <c r="G381" t="s">
+        <v>42</v>
+      </c>
+      <c r="K381">
+        <v>2</v>
+      </c>
+      <c r="L381">
+        <v>3.4</v>
+      </c>
+      <c r="M381">
+        <v>3.6</v>
+      </c>
+      <c r="N381">
+        <v>2.05</v>
+      </c>
+      <c r="O381">
+        <v>3.4</v>
+      </c>
+      <c r="P381">
+        <v>3.5</v>
+      </c>
+      <c r="Q381">
+        <v>-0.25</v>
+      </c>
+      <c r="R381">
+        <v>1.82</v>
+      </c>
+      <c r="S381">
+        <v>2.08</v>
+      </c>
+      <c r="T381">
+        <v>2.25</v>
+      </c>
+      <c r="U381">
+        <v>1.825</v>
+      </c>
+      <c r="V381">
+        <v>2.025</v>
+      </c>
+      <c r="W381">
+        <v>0</v>
+      </c>
+      <c r="X381">
+        <v>0</v>
+      </c>
+      <c r="Y381">
+        <v>0</v>
+      </c>
+      <c r="Z381">
+        <v>0</v>
+      </c>
+      <c r="AA381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:29">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>6876635</v>
+      </c>
+      <c r="C382" t="s">
+        <v>28</v>
+      </c>
+      <c r="D382" t="s">
+        <v>28</v>
+      </c>
+      <c r="E382" s="2">
+        <v>45346.72916666666</v>
+      </c>
+      <c r="F382" t="s">
+        <v>33</v>
+      </c>
+      <c r="G382" t="s">
+        <v>34</v>
+      </c>
+      <c r="K382">
+        <v>1.65</v>
+      </c>
+      <c r="L382">
+        <v>3.75</v>
+      </c>
+      <c r="M382">
+        <v>5.25</v>
+      </c>
+      <c r="N382">
+        <v>1.6</v>
+      </c>
+      <c r="O382">
+        <v>3.8</v>
+      </c>
+      <c r="P382">
+        <v>5.5</v>
+      </c>
+      <c r="Q382">
+        <v>-0.75</v>
+      </c>
+      <c r="R382">
+        <v>1.81</v>
+      </c>
+      <c r="S382">
+        <v>2.09</v>
+      </c>
+      <c r="T382">
+        <v>2.25</v>
+      </c>
+      <c r="U382">
+        <v>1.85</v>
+      </c>
+      <c r="V382">
+        <v>2</v>
+      </c>
+      <c r="W382">
+        <v>0</v>
+      </c>
+      <c r="X382">
+        <v>0</v>
+      </c>
+      <c r="Y382">
+        <v>0</v>
+      </c>
+      <c r="Z382">
+        <v>0</v>
+      </c>
+      <c r="AA382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:29">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>6876636</v>
+      </c>
+      <c r="C383" t="s">
+        <v>28</v>
+      </c>
+      <c r="D383" t="s">
+        <v>28</v>
+      </c>
+      <c r="E383" s="2">
+        <v>45347.52083333334</v>
+      </c>
+      <c r="F383" t="s">
+        <v>39</v>
+      </c>
+      <c r="G383" t="s">
+        <v>44</v>
+      </c>
+      <c r="K383">
+        <v>2.45</v>
+      </c>
+      <c r="L383">
+        <v>3.25</v>
+      </c>
+      <c r="M383">
+        <v>2.875</v>
+      </c>
+      <c r="N383">
+        <v>2.45</v>
+      </c>
+      <c r="O383">
+        <v>3.25</v>
+      </c>
+      <c r="P383">
+        <v>2.875</v>
+      </c>
+      <c r="Q383">
+        <v>0</v>
+      </c>
+      <c r="R383">
+        <v>1.8</v>
+      </c>
+      <c r="S383">
+        <v>2.1</v>
+      </c>
+      <c r="T383">
+        <v>2.5</v>
+      </c>
+      <c r="U383">
+        <v>1.975</v>
+      </c>
+      <c r="V383">
+        <v>1.875</v>
+      </c>
+      <c r="W383">
+        <v>0</v>
+      </c>
+      <c r="X383">
+        <v>0</v>
+      </c>
+      <c r="Y383">
+        <v>0</v>
+      </c>
+      <c r="Z383">
+        <v>0</v>
+      </c>
+      <c r="AA383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:29">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>6876637</v>
+      </c>
+      <c r="C384" t="s">
+        <v>28</v>
+      </c>
+      <c r="D384" t="s">
+        <v>28</v>
+      </c>
+      <c r="E384" s="2">
+        <v>45347.625</v>
+      </c>
+      <c r="F384" t="s">
+        <v>30</v>
+      </c>
+      <c r="G384" t="s">
+        <v>38</v>
+      </c>
+      <c r="K384">
+        <v>1.125</v>
+      </c>
+      <c r="L384">
+        <v>8</v>
+      </c>
+      <c r="M384">
+        <v>21</v>
+      </c>
+      <c r="N384">
+        <v>1.125</v>
+      </c>
+      <c r="O384">
+        <v>8</v>
+      </c>
+      <c r="P384">
+        <v>21</v>
+      </c>
+      <c r="Q384">
+        <v>-2.5</v>
+      </c>
+      <c r="R384">
+        <v>2.02</v>
+      </c>
+      <c r="S384">
+        <v>1.88</v>
+      </c>
+      <c r="T384">
+        <v>3.5</v>
+      </c>
+      <c r="U384">
+        <v>1.875</v>
+      </c>
+      <c r="V384">
+        <v>1.975</v>
+      </c>
+      <c r="W384">
+        <v>0</v>
+      </c>
+      <c r="X384">
+        <v>0</v>
+      </c>
+      <c r="Y384">
+        <v>0</v>
+      </c>
+      <c r="Z384">
+        <v>0</v>
+      </c>
+      <c r="AA384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:27">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>6876641</v>
+      </c>
+      <c r="C385" t="s">
+        <v>28</v>
+      </c>
+      <c r="D385" t="s">
+        <v>28</v>
+      </c>
+      <c r="E385" s="2">
+        <v>45347.625</v>
+      </c>
+      <c r="F385" t="s">
+        <v>45</v>
+      </c>
+      <c r="G385" t="s">
+        <v>43</v>
+      </c>
+      <c r="K385">
+        <v>7</v>
+      </c>
+      <c r="L385">
+        <v>5.5</v>
+      </c>
+      <c r="M385">
+        <v>1.363</v>
+      </c>
+      <c r="N385">
+        <v>6.5</v>
+      </c>
+      <c r="O385">
+        <v>5.5</v>
+      </c>
+      <c r="P385">
+        <v>1.4</v>
+      </c>
+      <c r="Q385">
+        <v>1.25</v>
+      </c>
+      <c r="R385">
+        <v>1.99</v>
+      </c>
+      <c r="S385">
+        <v>1.91</v>
+      </c>
+      <c r="T385">
+        <v>2.75</v>
+      </c>
+      <c r="U385">
+        <v>1.85</v>
+      </c>
+      <c r="V385">
+        <v>2</v>
+      </c>
+      <c r="W385">
+        <v>0</v>
+      </c>
+      <c r="X385">
+        <v>0</v>
+      </c>
+      <c r="Y385">
+        <v>0</v>
+      </c>
+      <c r="Z385">
+        <v>0</v>
+      </c>
+      <c r="AA385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:27">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>6876640</v>
+      </c>
+      <c r="C386" t="s">
+        <v>28</v>
+      </c>
+      <c r="D386" t="s">
+        <v>28</v>
+      </c>
+      <c r="E386" s="2">
+        <v>45347.72916666666</v>
+      </c>
+      <c r="F386" t="s">
+        <v>40</v>
+      </c>
+      <c r="G386" t="s">
         <v>46</v>
       </c>
-      <c r="K379">
-        <v>6</v>
-      </c>
-      <c r="L379">
-        <v>4.333</v>
-      </c>
-      <c r="M379">
-        <v>1.45</v>
-      </c>
-      <c r="N379">
-        <v>7.5</v>
-      </c>
-      <c r="O379">
-        <v>5.25</v>
-      </c>
-      <c r="P379">
+      <c r="K386">
+        <v>8</v>
+      </c>
+      <c r="L386">
+        <v>5</v>
+      </c>
+      <c r="M386">
         <v>1.363</v>
       </c>
-      <c r="Q379">
-        <v>1.5</v>
-      </c>
-      <c r="R379">
+      <c r="N386">
+        <v>7</v>
+      </c>
+      <c r="O386">
+        <v>4.75</v>
+      </c>
+      <c r="P386">
+        <v>1.4</v>
+      </c>
+      <c r="Q386">
+        <v>1.25</v>
+      </c>
+      <c r="R386">
+        <v>1.97</v>
+      </c>
+      <c r="S386">
+        <v>1.93</v>
+      </c>
+      <c r="T386">
+        <v>2.75</v>
+      </c>
+      <c r="U386">
+        <v>1.925</v>
+      </c>
+      <c r="V386">
+        <v>1.925</v>
+      </c>
+      <c r="W386">
+        <v>0</v>
+      </c>
+      <c r="X386">
+        <v>0</v>
+      </c>
+      <c r="Y386">
+        <v>0</v>
+      </c>
+      <c r="Z386">
+        <v>0</v>
+      </c>
+      <c r="AA386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:27">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>6876639</v>
+      </c>
+      <c r="C387" t="s">
+        <v>28</v>
+      </c>
+      <c r="D387" t="s">
+        <v>28</v>
+      </c>
+      <c r="E387" s="2">
+        <v>45348.71875</v>
+      </c>
+      <c r="F387" t="s">
+        <v>37</v>
+      </c>
+      <c r="G387" t="s">
+        <v>41</v>
+      </c>
+      <c r="K387">
+        <v>4.75</v>
+      </c>
+      <c r="L387">
+        <v>3.6</v>
+      </c>
+      <c r="M387">
+        <v>1.727</v>
+      </c>
+      <c r="N387">
+        <v>5</v>
+      </c>
+      <c r="O387">
+        <v>3.6</v>
+      </c>
+      <c r="P387">
+        <v>1.666</v>
+      </c>
+      <c r="Q387">
+        <v>0.75</v>
+      </c>
+      <c r="R387">
+        <v>1.95</v>
+      </c>
+      <c r="S387">
+        <v>1.95</v>
+      </c>
+      <c r="T387">
+        <v>2.75</v>
+      </c>
+      <c r="U387">
+        <v>2</v>
+      </c>
+      <c r="V387">
         <v>1.85</v>
       </c>
-      <c r="S379">
-        <v>2.05</v>
-      </c>
-      <c r="T379">
-        <v>2.75</v>
-      </c>
-      <c r="U379">
-        <v>1.875</v>
-      </c>
-      <c r="V379">
-        <v>1.975</v>
-      </c>
-      <c r="W379">
-        <v>0</v>
-      </c>
-      <c r="X379">
-        <v>0</v>
-      </c>
-      <c r="Y379">
-        <v>0</v>
-      </c>
-      <c r="Z379">
-        <v>0</v>
-      </c>
-      <c r="AA379">
+      <c r="W387">
+        <v>0</v>
+      </c>
+      <c r="X387">
+        <v>0</v>
+      </c>
+      <c r="Y387">
+        <v>0</v>
+      </c>
+      <c r="Z387">
+        <v>0</v>
+      </c>
+      <c r="AA387">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC387"/>
+  <dimension ref="A1:AC388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8018,7 +8018,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5265642</v>
+        <v>5265747</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8030,13 +8030,13 @@
         <v>44996.52083333334</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -8045,61 +8045,61 @@
         <v>51</v>
       </c>
       <c r="K85">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L85">
+        <v>3.3</v>
+      </c>
+      <c r="M85">
         <v>3.25</v>
       </c>
-      <c r="M85">
+      <c r="N85">
+        <v>2.3</v>
+      </c>
+      <c r="O85">
+        <v>3.3</v>
+      </c>
+      <c r="P85">
         <v>3</v>
       </c>
-      <c r="N85">
+      <c r="Q85">
+        <v>-0.25</v>
+      </c>
+      <c r="R85">
         <v>2</v>
       </c>
-      <c r="O85">
-        <v>3.4</v>
-      </c>
-      <c r="P85">
-        <v>3.6</v>
-      </c>
-      <c r="Q85">
+      <c r="S85">
+        <v>1.85</v>
+      </c>
+      <c r="T85">
+        <v>2.25</v>
+      </c>
+      <c r="U85">
+        <v>1.85</v>
+      </c>
+      <c r="V85">
+        <v>2</v>
+      </c>
+      <c r="W85">
+        <v>1.3</v>
+      </c>
+      <c r="X85">
+        <v>-1</v>
+      </c>
+      <c r="Y85">
+        <v>-1</v>
+      </c>
+      <c r="Z85">
+        <v>1</v>
+      </c>
+      <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
         <v>-0.5</v>
       </c>
-      <c r="R85">
-        <v>2.05</v>
-      </c>
-      <c r="S85">
-        <v>1.8</v>
-      </c>
-      <c r="T85">
-        <v>2</v>
-      </c>
-      <c r="U85">
-        <v>1.75</v>
-      </c>
-      <c r="V85">
-        <v>2.05</v>
-      </c>
-      <c r="W85">
-        <v>1</v>
-      </c>
-      <c r="X85">
-        <v>-1</v>
-      </c>
-      <c r="Y85">
-        <v>-1</v>
-      </c>
-      <c r="Z85">
-        <v>1.05</v>
-      </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
-      <c r="AB85">
-        <v>-1</v>
-      </c>
       <c r="AC85">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8107,7 +8107,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5265747</v>
+        <v>5265642</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8119,13 +8119,13 @@
         <v>44996.52083333334</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -8134,43 +8134,43 @@
         <v>51</v>
       </c>
       <c r="K86">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L86">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M86">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N86">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O86">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
+        <v>2.05</v>
+      </c>
+      <c r="S86">
+        <v>1.8</v>
+      </c>
+      <c r="T86">
         <v>2</v>
       </c>
-      <c r="S86">
-        <v>1.85</v>
-      </c>
-      <c r="T86">
-        <v>2.25</v>
-      </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V86">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W86">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8179,16 +8179,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8908,7 +8908,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5263123</v>
+        <v>5265649</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8920,76 +8920,76 @@
         <v>45003.625</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K95">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L95">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M95">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="N95">
-        <v>1.166</v>
+        <v>2.15</v>
       </c>
       <c r="O95">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="P95">
-        <v>15</v>
+        <v>3.4</v>
       </c>
       <c r="Q95">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S95">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W95">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB95">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8997,7 +8997,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5265649</v>
+        <v>5263123</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9009,76 +9009,76 @@
         <v>45003.625</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K96">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L96">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M96">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="N96">
-        <v>2.15</v>
+        <v>1.166</v>
       </c>
       <c r="O96">
+        <v>8</v>
+      </c>
+      <c r="P96">
+        <v>15</v>
+      </c>
+      <c r="Q96">
+        <v>-2.25</v>
+      </c>
+      <c r="R96">
+        <v>2.025</v>
+      </c>
+      <c r="S96">
+        <v>1.825</v>
+      </c>
+      <c r="T96">
         <v>3.25</v>
       </c>
-      <c r="P96">
-        <v>3.4</v>
-      </c>
-      <c r="Q96">
-        <v>-0.25</v>
-      </c>
-      <c r="R96">
+      <c r="U96">
         <v>1.875</v>
       </c>
-      <c r="S96">
+      <c r="V96">
         <v>1.975</v>
       </c>
-      <c r="T96">
-        <v>2.25</v>
-      </c>
-      <c r="U96">
-        <v>1.925</v>
-      </c>
-      <c r="V96">
-        <v>1.925</v>
-      </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X96">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA96">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC96">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5265654</v>
+        <v>5265751</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,73 +9810,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K105">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L105">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N105">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O105">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R105">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z105">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9887,7 +9887,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5265751</v>
+        <v>5265654</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9899,73 +9899,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K106">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M106">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N106">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="O106">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P106">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="Q106">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V106">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AA106">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5265754</v>
+        <v>5265660</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,73 +10700,73 @@
         <v>45024.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J115" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K115">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L115">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M115">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N115">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O115">
         <v>3</v>
       </c>
       <c r="P115">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q115">
         <v>0</v>
       </c>
       <c r="R115">
-        <v>1.775</v>
+        <v>2.01</v>
       </c>
       <c r="S115">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="T115">
         <v>2</v>
       </c>
       <c r="U115">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V115">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB115">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10777,7 +10777,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5265660</v>
+        <v>5265754</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10789,73 +10789,73 @@
         <v>45024.58333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116" t="s">
+        <v>52</v>
+      </c>
+      <c r="K116">
+        <v>2.6</v>
+      </c>
+      <c r="L116">
         <v>3</v>
       </c>
-      <c r="J116" t="s">
-        <v>50</v>
-      </c>
-      <c r="K116">
-        <v>2.7</v>
-      </c>
-      <c r="L116">
-        <v>3.1</v>
-      </c>
       <c r="M116">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N116">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="O116">
         <v>3</v>
       </c>
       <c r="P116">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q116">
         <v>0</v>
       </c>
       <c r="R116">
-        <v>2.01</v>
+        <v>1.775</v>
       </c>
       <c r="S116">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="T116">
         <v>2</v>
       </c>
       <c r="U116">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V116">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y116">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>0.8899999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB116">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5265761</v>
+        <v>5265682</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,76 +13014,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K141">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L141">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="N141">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O141">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.92</v>
       </c>
       <c r="S141">
-        <v>1.925</v>
+        <v>1.98</v>
       </c>
       <c r="T141">
         <v>2.25</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W141">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC141">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5265682</v>
+        <v>5265761</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,76 +13103,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K142">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="N142">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P142">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="S142">
-        <v>1.98</v>
+        <v>1.925</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V142">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA142">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -14426,7 +14426,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5473931</v>
+        <v>5462477</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14438,76 +14438,76 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K157">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L157">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M157">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N157">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O157">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P157">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R157">
+        <v>1.9</v>
+      </c>
+      <c r="S157">
+        <v>1.95</v>
+      </c>
+      <c r="T157">
+        <v>2.25</v>
+      </c>
+      <c r="U157">
         <v>1.875</v>
       </c>
-      <c r="S157">
+      <c r="V157">
         <v>1.975</v>
       </c>
-      <c r="T157">
-        <v>2.5</v>
-      </c>
-      <c r="U157">
-        <v>1.9</v>
-      </c>
-      <c r="V157">
-        <v>1.95</v>
-      </c>
       <c r="W157">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14515,7 +14515,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>5462477</v>
+        <v>5473931</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14527,76 +14527,76 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K158">
+        <v>2.05</v>
+      </c>
+      <c r="L158">
+        <v>3.3</v>
+      </c>
+      <c r="M158">
+        <v>3.4</v>
+      </c>
+      <c r="N158">
+        <v>2.1</v>
+      </c>
+      <c r="O158">
+        <v>3.4</v>
+      </c>
+      <c r="P158">
+        <v>3.1</v>
+      </c>
+      <c r="Q158">
+        <v>-0.25</v>
+      </c>
+      <c r="R158">
+        <v>1.875</v>
+      </c>
+      <c r="S158">
+        <v>1.975</v>
+      </c>
+      <c r="T158">
         <v>2.5</v>
       </c>
-      <c r="L158">
-        <v>3.2</v>
-      </c>
-      <c r="M158">
-        <v>2.6</v>
-      </c>
-      <c r="N158">
-        <v>2.55</v>
-      </c>
-      <c r="O158">
-        <v>3.2</v>
-      </c>
-      <c r="P158">
-        <v>2.55</v>
-      </c>
-      <c r="Q158">
-        <v>0</v>
-      </c>
-      <c r="R158">
+      <c r="U158">
         <v>1.9</v>
       </c>
-      <c r="S158">
+      <c r="V158">
         <v>1.95</v>
       </c>
-      <c r="T158">
-        <v>2.25</v>
-      </c>
-      <c r="U158">
-        <v>1.875</v>
-      </c>
-      <c r="V158">
-        <v>1.975</v>
-      </c>
       <c r="W158">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X158">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA158">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
         <v>-1</v>
       </c>
       <c r="AC158">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5498498</v>
+        <v>5498499</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,10 +15239,10 @@
         <v>45066.47916666666</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15254,43 +15254,43 @@
         <v>51</v>
       </c>
       <c r="K166">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L166">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M166">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="N166">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O166">
+        <v>3.4</v>
+      </c>
+      <c r="P166">
         <v>3.6</v>
       </c>
-      <c r="P166">
-        <v>4.333</v>
-      </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
+        <v>2</v>
+      </c>
+      <c r="V166">
         <v>1.85</v>
       </c>
-      <c r="V166">
-        <v>2</v>
-      </c>
       <c r="W166">
-        <v>0.7</v>
+        <v>0.909</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15299,16 +15299,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5498499</v>
+        <v>5498498</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,10 +15328,10 @@
         <v>45066.47916666666</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15343,43 +15343,43 @@
         <v>51</v>
       </c>
       <c r="K167">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L167">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M167">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="N167">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O167">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P167">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S167">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
+        <v>1.85</v>
+      </c>
+      <c r="V167">
         <v>2</v>
       </c>
-      <c r="V167">
-        <v>1.85</v>
-      </c>
       <c r="W167">
-        <v>0.909</v>
+        <v>0.7</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15388,16 +15388,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15672,7 +15672,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>5495113</v>
+        <v>5495114</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15684,73 +15684,73 @@
         <v>45067.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G171" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K171">
         <v>2.25</v>
       </c>
       <c r="L171">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M171">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N171">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O171">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P171">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q171">
         <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="S171">
-        <v>1.93</v>
+        <v>1.775</v>
       </c>
       <c r="T171">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V171">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X171">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AA171">
-        <v>0.465</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC171">
         <v>-1</v>
@@ -15761,7 +15761,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5495114</v>
+        <v>5495113</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15773,73 +15773,73 @@
         <v>45067.58333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K172">
         <v>2.25</v>
       </c>
       <c r="L172">
+        <v>3.2</v>
+      </c>
+      <c r="M172">
+        <v>3</v>
+      </c>
+      <c r="N172">
+        <v>2.1</v>
+      </c>
+      <c r="O172">
+        <v>3.2</v>
+      </c>
+      <c r="P172">
         <v>3.25</v>
-      </c>
-      <c r="M172">
-        <v>2.875</v>
-      </c>
-      <c r="N172">
-        <v>2.3</v>
-      </c>
-      <c r="O172">
-        <v>3.25</v>
-      </c>
-      <c r="P172">
-        <v>2.8</v>
       </c>
       <c r="Q172">
         <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="S172">
-        <v>1.775</v>
+        <v>1.93</v>
       </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U172">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V172">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W172">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.465</v>
       </c>
       <c r="AB172">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5540309</v>
+        <v>5534723</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,73 +16218,73 @@
         <v>45073.47916666666</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H177">
+        <v>3</v>
+      </c>
+      <c r="I177">
         <v>1</v>
       </c>
-      <c r="I177">
-        <v>4</v>
-      </c>
       <c r="J177" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K177">
         <v>2</v>
       </c>
       <c r="L177">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M177">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N177">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O177">
         <v>3.5</v>
       </c>
       <c r="P177">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q177">
         <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5534723</v>
+        <v>5540309</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,73 +16307,73 @@
         <v>45073.47916666666</v>
       </c>
       <c r="F178" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G178" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J178" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K178">
         <v>2</v>
       </c>
       <c r="L178">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M178">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N178">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O178">
         <v>3.5</v>
       </c>
       <c r="P178">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q178">
         <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S178">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T178">
         <v>2.75</v>
       </c>
       <c r="U178">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V178">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z178">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB178">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16384,7 +16384,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5545146</v>
+        <v>5540441</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16396,76 +16396,76 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G179" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K179">
-        <v>1.083</v>
+        <v>2.8</v>
       </c>
       <c r="L179">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M179">
-        <v>34</v>
+        <v>2.375</v>
       </c>
       <c r="N179">
-        <v>1.062</v>
+        <v>3.1</v>
       </c>
       <c r="O179">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="P179">
-        <v>26</v>
+        <v>2.15</v>
       </c>
       <c r="Q179">
-        <v>-3</v>
+        <v>0.25</v>
       </c>
       <c r="R179">
+        <v>1.975</v>
+      </c>
+      <c r="S179">
+        <v>1.875</v>
+      </c>
+      <c r="T179">
+        <v>2.75</v>
+      </c>
+      <c r="U179">
         <v>2.025</v>
       </c>
-      <c r="S179">
+      <c r="V179">
         <v>1.825</v>
       </c>
-      <c r="T179">
-        <v>4</v>
-      </c>
-      <c r="U179">
-        <v>1.925</v>
-      </c>
-      <c r="V179">
-        <v>1.925</v>
-      </c>
       <c r="W179">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB179">
         <v>-1</v>
       </c>
       <c r="AC179">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16473,7 +16473,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5540441</v>
+        <v>5545146</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16485,76 +16485,76 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K180">
-        <v>2.8</v>
+        <v>1.083</v>
       </c>
       <c r="L180">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M180">
-        <v>2.375</v>
+        <v>34</v>
       </c>
       <c r="N180">
-        <v>3.1</v>
+        <v>1.062</v>
       </c>
       <c r="O180">
-        <v>3.75</v>
+        <v>11</v>
       </c>
       <c r="P180">
-        <v>2.15</v>
+        <v>26</v>
       </c>
       <c r="Q180">
-        <v>0.25</v>
+        <v>-3</v>
       </c>
       <c r="R180">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S180">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T180">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U180">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V180">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA180">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB180">
         <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -19499,7 +19499,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6875457</v>
+        <v>6876486</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19511,10 +19511,10 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F214" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G214" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -19526,40 +19526,40 @@
         <v>50</v>
       </c>
       <c r="K214">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L214">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M214">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N214">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="O214">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P214">
+        <v>2.8</v>
+      </c>
+      <c r="Q214">
+        <v>0</v>
+      </c>
+      <c r="R214">
+        <v>1.82</v>
+      </c>
+      <c r="S214">
+        <v>2.08</v>
+      </c>
+      <c r="T214">
         <v>2.25</v>
       </c>
-      <c r="Q214">
-        <v>0.25</v>
-      </c>
-      <c r="R214">
-        <v>1.875</v>
-      </c>
-      <c r="S214">
-        <v>1.975</v>
-      </c>
-      <c r="T214">
-        <v>2.5</v>
-      </c>
       <c r="U214">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -19568,16 +19568,16 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.9750000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AB214">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19588,7 +19588,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6876486</v>
+        <v>6875457</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19600,10 +19600,10 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F215" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G215" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -19615,40 +19615,40 @@
         <v>50</v>
       </c>
       <c r="K215">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L215">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M215">
+        <v>3.1</v>
+      </c>
+      <c r="N215">
         <v>2.9</v>
       </c>
-      <c r="N215">
+      <c r="O215">
+        <v>3.5</v>
+      </c>
+      <c r="P215">
+        <v>2.25</v>
+      </c>
+      <c r="Q215">
+        <v>0.25</v>
+      </c>
+      <c r="R215">
+        <v>1.875</v>
+      </c>
+      <c r="S215">
+        <v>1.975</v>
+      </c>
+      <c r="T215">
         <v>2.5</v>
       </c>
-      <c r="O215">
-        <v>3.25</v>
-      </c>
-      <c r="P215">
-        <v>2.8</v>
-      </c>
-      <c r="Q215">
-        <v>0</v>
-      </c>
-      <c r="R215">
-        <v>1.82</v>
-      </c>
-      <c r="S215">
-        <v>2.08</v>
-      </c>
-      <c r="T215">
-        <v>2.25</v>
-      </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19657,16 +19657,16 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>1.08</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB215">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -20834,7 +20834,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6875459</v>
+        <v>6876499</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20846,76 +20846,76 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F229" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G229" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K229">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L229">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M229">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N229">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O229">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P229">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q229">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S229">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T229">
         <v>2.5</v>
       </c>
       <c r="U229">
+        <v>1.9</v>
+      </c>
+      <c r="V229">
         <v>1.95</v>
       </c>
-      <c r="V229">
-        <v>1.9</v>
-      </c>
       <c r="W229">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC229">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20923,7 +20923,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6876499</v>
+        <v>6875459</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20935,76 +20935,76 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F230" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G230" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K230">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L230">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M230">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N230">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O230">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P230">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R230">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S230">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T230">
         <v>2.5</v>
       </c>
       <c r="U230">
+        <v>1.95</v>
+      </c>
+      <c r="V230">
         <v>1.9</v>
       </c>
-      <c r="V230">
-        <v>1.95</v>
-      </c>
       <c r="W230">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X230">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA230">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
+        <v>-1</v>
+      </c>
+      <c r="AC230">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC230">
-        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -22792,7 +22792,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6876516</v>
+        <v>6876517</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22804,55 +22804,55 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F251" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G251" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
         <v>1</v>
-      </c>
-      <c r="I251">
-        <v>3</v>
       </c>
       <c r="J251" t="s">
         <v>50</v>
       </c>
       <c r="K251">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L251">
         <v>3.1</v>
       </c>
       <c r="M251">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N251">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O251">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P251">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R251">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S251">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T251">
         <v>2.25</v>
       </c>
       <c r="U251">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V251">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W251">
         <v>-1</v>
@@ -22861,19 +22861,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB251">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC251">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22881,7 +22881,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6876517</v>
+        <v>6876516</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22893,55 +22893,55 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F252" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G252" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J252" t="s">
         <v>50</v>
       </c>
       <c r="K252">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L252">
         <v>3.1</v>
       </c>
       <c r="M252">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N252">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O252">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P252">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q252">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S252">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T252">
         <v>2.25</v>
       </c>
       <c r="U252">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V252">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W252">
         <v>-1</v>
@@ -22950,19 +22950,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC252">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -24305,7 +24305,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6875463</v>
+        <v>6876531</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24317,76 +24317,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F268" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G268" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
         <v>1</v>
       </c>
-      <c r="I268">
-        <v>0</v>
-      </c>
       <c r="J268" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K268">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="L268">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M268">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N268">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="O268">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P268">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q268">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R268">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S268">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T268">
         <v>2.25</v>
       </c>
       <c r="U268">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V268">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W268">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X268">
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z268">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA268">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB268">
         <v>-1</v>
       </c>
       <c r="AC268">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24394,7 +24394,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6876531</v>
+        <v>6875463</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24406,76 +24406,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F269" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G269" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K269">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L269">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M269">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N269">
+        <v>2.875</v>
+      </c>
+      <c r="O269">
+        <v>3.3</v>
+      </c>
+      <c r="P269">
+        <v>2.4</v>
+      </c>
+      <c r="Q269">
+        <v>0</v>
+      </c>
+      <c r="R269">
         <v>2.1</v>
       </c>
-      <c r="O269">
-        <v>3.4</v>
-      </c>
-      <c r="P269">
-        <v>3.4</v>
-      </c>
-      <c r="Q269">
-        <v>-0.25</v>
-      </c>
-      <c r="R269">
-        <v>1.875</v>
-      </c>
       <c r="S269">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T269">
         <v>2.25</v>
       </c>
       <c r="U269">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V269">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W269">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X269">
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z269">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA269">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB269">
         <v>-1</v>
       </c>
       <c r="AC269">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -25195,7 +25195,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6876541</v>
+        <v>6876540</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25207,19 +25207,19 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F278" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G278" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H278">
         <v>1</v>
       </c>
       <c r="I278">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J278" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K278">
         <v>2</v>
@@ -25231,16 +25231,16 @@
         <v>3.6</v>
       </c>
       <c r="N278">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O278">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P278">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q278">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R278">
         <v>1.95</v>
@@ -25249,34 +25249,34 @@
         <v>1.9</v>
       </c>
       <c r="T278">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U278">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V278">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W278">
         <v>-1</v>
       </c>
       <c r="X278">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y278">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z278">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB278">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC278">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25284,7 +25284,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6876540</v>
+        <v>6876541</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25296,19 +25296,19 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F279" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G279" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H279">
         <v>1</v>
       </c>
       <c r="I279">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K279">
         <v>2</v>
@@ -25320,16 +25320,16 @@
         <v>3.6</v>
       </c>
       <c r="N279">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O279">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P279">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q279">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R279">
         <v>1.95</v>
@@ -25338,34 +25338,34 @@
         <v>1.9</v>
       </c>
       <c r="T279">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U279">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V279">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W279">
         <v>-1</v>
       </c>
       <c r="X279">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y279">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA279">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB279">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC279">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -27509,7 +27509,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6875467</v>
+        <v>6876563</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27521,40 +27521,40 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F304" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G304" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H304">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I304">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J304" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K304">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="L304">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M304">
-        <v>3.9</v>
+        <v>2.55</v>
       </c>
       <c r="N304">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O304">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P304">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q304">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R304">
         <v>1.875</v>
@@ -27563,31 +27563,31 @@
         <v>1.975</v>
       </c>
       <c r="T304">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U304">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V304">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W304">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X304">
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z304">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA304">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB304">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC304">
         <v>-1</v>
@@ -27598,7 +27598,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6876563</v>
+        <v>6875467</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27610,40 +27610,40 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F305" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G305" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I305">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J305" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K305">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="L305">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M305">
-        <v>2.55</v>
+        <v>3.9</v>
       </c>
       <c r="N305">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O305">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P305">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q305">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R305">
         <v>1.875</v>
@@ -27652,31 +27652,31 @@
         <v>1.975</v>
       </c>
       <c r="T305">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U305">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V305">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W305">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X305">
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z305">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA305">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB305">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC305">
         <v>-1</v>
@@ -28933,7 +28933,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6876582</v>
+        <v>6876581</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28945,76 +28945,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F320" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G320" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H320">
         <v>1</v>
       </c>
       <c r="I320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J320" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K320">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L320">
+        <v>3.4</v>
+      </c>
+      <c r="M320">
         <v>3.6</v>
       </c>
-      <c r="M320">
-        <v>4.2</v>
-      </c>
       <c r="N320">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O320">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P320">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q320">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R320">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S320">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T320">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U320">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V320">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W320">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X320">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y320">
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA320">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB320">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC320">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29022,7 +29022,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6876581</v>
+        <v>6876582</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29034,76 +29034,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F321" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G321" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H321">
         <v>1</v>
       </c>
       <c r="I321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J321" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K321">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L321">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M321">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N321">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O321">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P321">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q321">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R321">
+        <v>1.95</v>
+      </c>
+      <c r="S321">
+        <v>1.9</v>
+      </c>
+      <c r="T321">
+        <v>2.5</v>
+      </c>
+      <c r="U321">
         <v>2.025</v>
       </c>
-      <c r="S321">
+      <c r="V321">
         <v>1.825</v>
       </c>
-      <c r="T321">
-        <v>2.25</v>
-      </c>
-      <c r="U321">
-        <v>1.975</v>
-      </c>
-      <c r="V321">
-        <v>1.875</v>
-      </c>
       <c r="W321">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X321">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y321">
         <v>-1</v>
       </c>
       <c r="Z321">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA321">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB321">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC321">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -31425,7 +31425,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6876607</v>
+        <v>6876603</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31437,13 +31437,13 @@
         <v>45319.72916666666</v>
       </c>
       <c r="F348" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G348" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H348">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I348">
         <v>0</v>
@@ -31452,43 +31452,43 @@
         <v>51</v>
       </c>
       <c r="K348">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L348">
         <v>3.4</v>
       </c>
       <c r="M348">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N348">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="O348">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P348">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q348">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R348">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S348">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T348">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U348">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V348">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W348">
-        <v>0.8</v>
+        <v>2.25</v>
       </c>
       <c r="X348">
         <v>-1</v>
@@ -31497,16 +31497,16 @@
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA348">
         <v>-1</v>
       </c>
       <c r="AB348">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC348">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31514,7 +31514,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6876603</v>
+        <v>6876607</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31526,13 +31526,13 @@
         <v>45319.72916666666</v>
       </c>
       <c r="F349" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G349" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I349">
         <v>0</v>
@@ -31541,43 +31541,43 @@
         <v>51</v>
       </c>
       <c r="K349">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L349">
         <v>3.4</v>
       </c>
       <c r="M349">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N349">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="O349">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P349">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q349">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R349">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S349">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T349">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U349">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V349">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W349">
-        <v>2.25</v>
+        <v>0.8</v>
       </c>
       <c r="X349">
         <v>-1</v>
@@ -31586,16 +31586,16 @@
         <v>-1</v>
       </c>
       <c r="Z349">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA349">
         <v>-1</v>
       </c>
       <c r="AB349">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC349">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -33917,7 +33917,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6876633</v>
+        <v>6876630</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33929,73 +33929,73 @@
         <v>45340.625</v>
       </c>
       <c r="F376" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G376" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H376">
+        <v>6</v>
+      </c>
+      <c r="I376">
         <v>1</v>
       </c>
-      <c r="I376">
-        <v>3</v>
-      </c>
       <c r="J376" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K376">
-        <v>2.2</v>
+        <v>1.111</v>
       </c>
       <c r="L376">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="M376">
-        <v>3.2</v>
+        <v>21</v>
       </c>
       <c r="N376">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="O376">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="P376">
-        <v>3.5</v>
+        <v>23</v>
       </c>
       <c r="Q376">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R376">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S376">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="T376">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U376">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V376">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W376">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X376">
         <v>-1</v>
       </c>
       <c r="Y376">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z376">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA376">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB376">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC376">
         <v>-1</v>
@@ -34006,7 +34006,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>6876630</v>
+        <v>6876633</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34018,73 +34018,73 @@
         <v>45340.625</v>
       </c>
       <c r="F377" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G377" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H377">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I377">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J377" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K377">
-        <v>1.111</v>
+        <v>2.2</v>
       </c>
       <c r="L377">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="M377">
-        <v>21</v>
+        <v>3.2</v>
       </c>
       <c r="N377">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="O377">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="P377">
-        <v>23</v>
+        <v>3.5</v>
       </c>
       <c r="Q377">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R377">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S377">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T377">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U377">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V377">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W377">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X377">
         <v>-1</v>
       </c>
       <c r="Y377">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z377">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA377">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB377">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC377">
         <v>-1</v>
@@ -34184,7 +34184,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>6876638</v>
+        <v>6875475</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34193,43 +34193,52 @@
         <v>28</v>
       </c>
       <c r="E379" s="2">
-        <v>45345.71875</v>
+        <v>45341.71875</v>
       </c>
       <c r="F379" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G379" t="s">
-        <v>31</v>
+        <v>46</v>
+      </c>
+      <c r="H379">
+        <v>0</v>
+      </c>
+      <c r="I379">
+        <v>2</v>
+      </c>
+      <c r="J379" t="s">
+        <v>50</v>
       </c>
       <c r="K379">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="L379">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M379">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="N379">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="O379">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P379">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="Q379">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R379">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="S379">
-        <v>2.01</v>
+        <v>2.06</v>
       </c>
       <c r="T379">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U379">
         <v>1.85</v>
@@ -34238,19 +34247,25 @@
         <v>2</v>
       </c>
       <c r="W379">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X379">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y379">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="Z379">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA379">
-        <v>0</v>
+        <v>1.06</v>
+      </c>
+      <c r="AB379">
+        <v>-1</v>
+      </c>
+      <c r="AC379">
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:29">
@@ -34258,7 +34273,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>6875476</v>
+        <v>6876638</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34267,49 +34282,49 @@
         <v>28</v>
       </c>
       <c r="E380" s="2">
-        <v>45346.52083333334</v>
+        <v>45345.71875</v>
       </c>
       <c r="F380" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G380" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="K380">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L380">
         <v>3.3</v>
       </c>
       <c r="M380">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="N380">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="O380">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P380">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="Q380">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R380">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S380">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T380">
         <v>2.25</v>
       </c>
       <c r="U380">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V380">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W380">
         <v>0</v>
@@ -34332,7 +34347,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>6876634</v>
+        <v>6875476</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34341,49 +34356,49 @@
         <v>28</v>
       </c>
       <c r="E381" s="2">
-        <v>45346.625</v>
+        <v>45346.52083333334</v>
       </c>
       <c r="F381" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G381" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K381">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L381">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M381">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N381">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="O381">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P381">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q381">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R381">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="S381">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="T381">
         <v>2.25</v>
       </c>
       <c r="U381">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V381">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W381">
         <v>0</v>
@@ -34406,7 +34421,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>6876635</v>
+        <v>6876634</v>
       </c>
       <c r="C382" t="s">
         <v>28</v>
@@ -34415,34 +34430,34 @@
         <v>28</v>
       </c>
       <c r="E382" s="2">
-        <v>45346.72916666666</v>
+        <v>45346.625</v>
       </c>
       <c r="F382" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G382" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K382">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="L382">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M382">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="N382">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="O382">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P382">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q382">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R382">
         <v>1.81</v>
@@ -34480,7 +34495,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>6876636</v>
+        <v>6876635</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34489,49 +34504,49 @@
         <v>28</v>
       </c>
       <c r="E383" s="2">
-        <v>45347.52083333334</v>
+        <v>45346.72916666666</v>
       </c>
       <c r="F383" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G383" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K383">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="L383">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M383">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="N383">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="O383">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P383">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="Q383">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R383">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="S383">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="T383">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U383">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V383">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W383">
         <v>0</v>
@@ -34554,7 +34569,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>6876637</v>
+        <v>6876636</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34563,49 +34578,49 @@
         <v>28</v>
       </c>
       <c r="E384" s="2">
-        <v>45347.625</v>
+        <v>45347.52083333334</v>
       </c>
       <c r="F384" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G384" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K384">
-        <v>1.125</v>
+        <v>2.45</v>
       </c>
       <c r="L384">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M384">
-        <v>21</v>
+        <v>2.875</v>
       </c>
       <c r="N384">
-        <v>1.125</v>
+        <v>2.45</v>
       </c>
       <c r="O384">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="P384">
-        <v>21</v>
+        <v>2.875</v>
       </c>
       <c r="Q384">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R384">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="S384">
-        <v>1.88</v>
+        <v>2.09</v>
       </c>
       <c r="T384">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U384">
+        <v>1.975</v>
+      </c>
+      <c r="V384">
         <v>1.875</v>
-      </c>
-      <c r="V384">
-        <v>1.975</v>
       </c>
       <c r="W384">
         <v>0</v>
@@ -34628,7 +34643,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>6876641</v>
+        <v>6876637</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34640,46 +34655,46 @@
         <v>45347.625</v>
       </c>
       <c r="F385" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G385" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K385">
-        <v>7</v>
+        <v>1.125</v>
       </c>
       <c r="L385">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="M385">
-        <v>1.363</v>
+        <v>21</v>
       </c>
       <c r="N385">
-        <v>6.5</v>
+        <v>1.111</v>
       </c>
       <c r="O385">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="P385">
-        <v>1.4</v>
+        <v>21</v>
       </c>
       <c r="Q385">
-        <v>1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R385">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="S385">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="T385">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U385">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V385">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W385">
         <v>0</v>
@@ -34702,7 +34717,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>6876640</v>
+        <v>6876641</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34711,28 +34726,28 @@
         <v>28</v>
       </c>
       <c r="E386" s="2">
-        <v>45347.72916666666</v>
+        <v>45347.625</v>
       </c>
       <c r="F386" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G386" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K386">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L386">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M386">
         <v>1.363</v>
       </c>
       <c r="N386">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O386">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="P386">
         <v>1.4</v>
@@ -34741,19 +34756,19 @@
         <v>1.25</v>
       </c>
       <c r="R386">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="S386">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T386">
         <v>2.75</v>
       </c>
       <c r="U386">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V386">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W386">
         <v>0</v>
@@ -34776,7 +34791,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>6876639</v>
+        <v>6876640</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -34785,63 +34800,137 @@
         <v>28</v>
       </c>
       <c r="E387" s="2">
-        <v>45348.71875</v>
+        <v>45347.72916666666</v>
       </c>
       <c r="F387" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G387" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K387">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="L387">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M387">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="N387">
+        <v>8</v>
+      </c>
+      <c r="O387">
         <v>5</v>
       </c>
-      <c r="O387">
-        <v>3.6</v>
-      </c>
       <c r="P387">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="Q387">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R387">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S387">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T387">
         <v>2.75</v>
       </c>
       <c r="U387">
+        <v>1.925</v>
+      </c>
+      <c r="V387">
+        <v>1.925</v>
+      </c>
+      <c r="W387">
+        <v>0</v>
+      </c>
+      <c r="X387">
+        <v>0</v>
+      </c>
+      <c r="Y387">
+        <v>0</v>
+      </c>
+      <c r="Z387">
+        <v>0</v>
+      </c>
+      <c r="AA387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:27">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>6876639</v>
+      </c>
+      <c r="C388" t="s">
+        <v>28</v>
+      </c>
+      <c r="D388" t="s">
+        <v>28</v>
+      </c>
+      <c r="E388" s="2">
+        <v>45348.71875</v>
+      </c>
+      <c r="F388" t="s">
+        <v>37</v>
+      </c>
+      <c r="G388" t="s">
+        <v>41</v>
+      </c>
+      <c r="K388">
+        <v>4.75</v>
+      </c>
+      <c r="L388">
+        <v>3.6</v>
+      </c>
+      <c r="M388">
+        <v>1.727</v>
+      </c>
+      <c r="N388">
+        <v>5</v>
+      </c>
+      <c r="O388">
+        <v>3.6</v>
+      </c>
+      <c r="P388">
+        <v>1.666</v>
+      </c>
+      <c r="Q388">
+        <v>0.75</v>
+      </c>
+      <c r="R388">
+        <v>1.98</v>
+      </c>
+      <c r="S388">
+        <v>1.92</v>
+      </c>
+      <c r="T388">
+        <v>2.75</v>
+      </c>
+      <c r="U388">
         <v>2</v>
       </c>
-      <c r="V387">
+      <c r="V388">
         <v>1.85</v>
       </c>
-      <c r="W387">
-        <v>0</v>
-      </c>
-      <c r="X387">
-        <v>0</v>
-      </c>
-      <c r="Y387">
-        <v>0</v>
-      </c>
-      <c r="Z387">
-        <v>0</v>
-      </c>
-      <c r="AA387">
+      <c r="W388">
+        <v>0</v>
+      </c>
+      <c r="X388">
+        <v>0</v>
+      </c>
+      <c r="Y388">
+        <v>0</v>
+      </c>
+      <c r="Z388">
+        <v>0</v>
+      </c>
+      <c r="AA388">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -4191,7 +4191,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5265728</v>
+        <v>5265729</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4203,13 +4203,13 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -4218,43 +4218,43 @@
         <v>51</v>
       </c>
       <c r="K42">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="L42">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M42">
-        <v>9.5</v>
+        <v>4.333</v>
       </c>
       <c r="N42">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P42">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="T42">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
-        <v>0.55</v>
+        <v>1.2</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4263,13 +4263,13 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>1.01</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4280,7 +4280,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5265729</v>
+        <v>5265728</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4292,13 +4292,13 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -4307,43 +4307,43 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="L43">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M43">
-        <v>4.333</v>
+        <v>9.5</v>
       </c>
       <c r="N43">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="O43">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P43">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="S43">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T43">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W43">
-        <v>1.2</v>
+        <v>0.55</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4352,13 +4352,13 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.8999999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -5615,7 +5615,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5265630</v>
+        <v>5265735</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5627,73 +5627,73 @@
         <v>44975.625</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
         <v>1</v>
       </c>
-      <c r="I58">
+      <c r="J58" t="s">
+        <v>51</v>
+      </c>
+      <c r="K58">
+        <v>2.05</v>
+      </c>
+      <c r="L58">
+        <v>3.25</v>
+      </c>
+      <c r="M58">
+        <v>3.75</v>
+      </c>
+      <c r="N58">
+        <v>2.45</v>
+      </c>
+      <c r="O58">
+        <v>3.1</v>
+      </c>
+      <c r="P58">
         <v>3</v>
       </c>
-      <c r="J58" t="s">
-        <v>50</v>
-      </c>
-      <c r="K58">
-        <v>1.95</v>
-      </c>
-      <c r="L58">
-        <v>3.3</v>
-      </c>
-      <c r="M58">
-        <v>4</v>
-      </c>
-      <c r="N58">
-        <v>2</v>
-      </c>
-      <c r="O58">
-        <v>3.2</v>
-      </c>
-      <c r="P58">
-        <v>3.8</v>
-      </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S58">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V58">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA58">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5704,7 +5704,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5265735</v>
+        <v>5265630</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5716,73 +5716,73 @@
         <v>44975.625</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+      <c r="J59" t="s">
+        <v>50</v>
+      </c>
+      <c r="K59">
+        <v>1.95</v>
+      </c>
+      <c r="L59">
+        <v>3.3</v>
+      </c>
+      <c r="M59">
+        <v>4</v>
+      </c>
+      <c r="N59">
         <v>2</v>
       </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>51</v>
-      </c>
-      <c r="K59">
-        <v>2.05</v>
-      </c>
-      <c r="L59">
-        <v>3.25</v>
-      </c>
-      <c r="M59">
-        <v>3.75</v>
-      </c>
-      <c r="N59">
-        <v>2.45</v>
-      </c>
       <c r="O59">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P59">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z59">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -8018,7 +8018,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5265747</v>
+        <v>5265642</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8030,13 +8030,13 @@
         <v>44996.52083333334</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -8045,43 +8045,43 @@
         <v>51</v>
       </c>
       <c r="K85">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L85">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M85">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O85">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
+        <v>2.05</v>
+      </c>
+      <c r="S85">
+        <v>1.8</v>
+      </c>
+      <c r="T85">
         <v>2</v>
       </c>
-      <c r="S85">
-        <v>1.85</v>
-      </c>
-      <c r="T85">
-        <v>2.25</v>
-      </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W85">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8090,16 +8090,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8107,7 +8107,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5265642</v>
+        <v>5265747</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8119,13 +8119,13 @@
         <v>44996.52083333334</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -8134,61 +8134,61 @@
         <v>51</v>
       </c>
       <c r="K86">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L86">
+        <v>3.3</v>
+      </c>
+      <c r="M86">
         <v>3.25</v>
       </c>
-      <c r="M86">
+      <c r="N86">
+        <v>2.3</v>
+      </c>
+      <c r="O86">
+        <v>3.3</v>
+      </c>
+      <c r="P86">
         <v>3</v>
       </c>
-      <c r="N86">
+      <c r="Q86">
+        <v>-0.25</v>
+      </c>
+      <c r="R86">
         <v>2</v>
       </c>
-      <c r="O86">
-        <v>3.4</v>
-      </c>
-      <c r="P86">
-        <v>3.6</v>
-      </c>
-      <c r="Q86">
+      <c r="S86">
+        <v>1.85</v>
+      </c>
+      <c r="T86">
+        <v>2.25</v>
+      </c>
+      <c r="U86">
+        <v>1.85</v>
+      </c>
+      <c r="V86">
+        <v>2</v>
+      </c>
+      <c r="W86">
+        <v>1.3</v>
+      </c>
+      <c r="X86">
+        <v>-1</v>
+      </c>
+      <c r="Y86">
+        <v>-1</v>
+      </c>
+      <c r="Z86">
+        <v>1</v>
+      </c>
+      <c r="AA86">
+        <v>-1</v>
+      </c>
+      <c r="AB86">
         <v>-0.5</v>
       </c>
-      <c r="R86">
-        <v>2.05</v>
-      </c>
-      <c r="S86">
-        <v>1.8</v>
-      </c>
-      <c r="T86">
-        <v>2</v>
-      </c>
-      <c r="U86">
-        <v>1.75</v>
-      </c>
-      <c r="V86">
-        <v>2.05</v>
-      </c>
-      <c r="W86">
-        <v>1</v>
-      </c>
-      <c r="X86">
-        <v>-1</v>
-      </c>
-      <c r="Y86">
-        <v>-1</v>
-      </c>
-      <c r="Z86">
-        <v>1.05</v>
-      </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
-      <c r="AB86">
-        <v>-1</v>
-      </c>
       <c r="AC86">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8908,7 +8908,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5265649</v>
+        <v>5263123</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8920,76 +8920,76 @@
         <v>45003.625</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K95">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L95">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M95">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="N95">
-        <v>2.15</v>
+        <v>1.166</v>
       </c>
       <c r="O95">
+        <v>8</v>
+      </c>
+      <c r="P95">
+        <v>15</v>
+      </c>
+      <c r="Q95">
+        <v>-2.25</v>
+      </c>
+      <c r="R95">
+        <v>2.025</v>
+      </c>
+      <c r="S95">
+        <v>1.825</v>
+      </c>
+      <c r="T95">
         <v>3.25</v>
       </c>
-      <c r="P95">
-        <v>3.4</v>
-      </c>
-      <c r="Q95">
-        <v>-0.25</v>
-      </c>
-      <c r="R95">
+      <c r="U95">
         <v>1.875</v>
       </c>
-      <c r="S95">
+      <c r="V95">
         <v>1.975</v>
       </c>
-      <c r="T95">
-        <v>2.25</v>
-      </c>
-      <c r="U95">
-        <v>1.925</v>
-      </c>
-      <c r="V95">
-        <v>1.925</v>
-      </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X95">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA95">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC95">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8997,7 +8997,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5263123</v>
+        <v>5265649</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9009,76 +9009,76 @@
         <v>45003.625</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H96">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K96">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L96">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M96">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="N96">
-        <v>1.166</v>
+        <v>2.15</v>
       </c>
       <c r="O96">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="P96">
-        <v>15</v>
+        <v>3.4</v>
       </c>
       <c r="Q96">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB96">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5265751</v>
+        <v>5265654</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,73 +9810,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K105">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M105">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N105">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P105">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="Q105">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9887,7 +9887,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5265654</v>
+        <v>5265751</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9899,73 +9899,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K106">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L106">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N106">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O106">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P106">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R106">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="S106">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T106">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W106">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z106">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5265660</v>
+        <v>5265754</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,73 +10700,73 @@
         <v>45024.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115">
+        <v>2</v>
+      </c>
+      <c r="J115" t="s">
+        <v>52</v>
+      </c>
+      <c r="K115">
+        <v>2.6</v>
+      </c>
+      <c r="L115">
         <v>3</v>
       </c>
-      <c r="J115" t="s">
-        <v>50</v>
-      </c>
-      <c r="K115">
-        <v>2.7</v>
-      </c>
-      <c r="L115">
-        <v>3.1</v>
-      </c>
       <c r="M115">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N115">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="O115">
         <v>3</v>
       </c>
       <c r="P115">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q115">
         <v>0</v>
       </c>
       <c r="R115">
-        <v>2.01</v>
+        <v>1.775</v>
       </c>
       <c r="S115">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="T115">
         <v>2</v>
       </c>
       <c r="U115">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V115">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y115">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>0.8899999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB115">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10777,7 +10777,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5265754</v>
+        <v>5265660</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10789,73 +10789,73 @@
         <v>45024.58333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K116">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L116">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M116">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N116">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O116">
         <v>3</v>
       </c>
       <c r="P116">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q116">
         <v>0</v>
       </c>
       <c r="R116">
-        <v>1.775</v>
+        <v>2.01</v>
       </c>
       <c r="S116">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="T116">
         <v>2</v>
       </c>
       <c r="U116">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V116">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB116">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -11222,7 +11222,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5265669</v>
+        <v>5265670</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11234,76 +11234,76 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K121">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L121">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M121">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N121">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O121">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P121">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q121">
         <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="S121">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="T121">
         <v>2.25</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA121">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11311,7 +11311,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5265670</v>
+        <v>5265669</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11323,76 +11323,76 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K122">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L122">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M122">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N122">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O122">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P122">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q122">
         <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="S122">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
         <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W122">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z122">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -12824,7 +12824,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5265760</v>
+        <v>5265759</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12836,73 +12836,73 @@
         <v>45045.47916666666</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K139">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="L139">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M139">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="N139">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="O139">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P139">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q139">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="S139">
-        <v>2.01</v>
+        <v>1.775</v>
       </c>
       <c r="T139">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U139">
+        <v>1.9</v>
+      </c>
+      <c r="V139">
+        <v>1.95</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
         <v>2</v>
       </c>
-      <c r="V139">
-        <v>1.85</v>
-      </c>
-      <c r="W139">
-        <v>0.25</v>
-      </c>
-      <c r="X139">
-        <v>-1</v>
-      </c>
-      <c r="Y139">
-        <v>-1</v>
-      </c>
       <c r="Z139">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB139">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12913,7 +12913,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5265759</v>
+        <v>5265760</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12925,73 +12925,73 @@
         <v>45045.47916666666</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H140">
+        <v>4</v>
+      </c>
+      <c r="I140">
         <v>1</v>
       </c>
-      <c r="I140">
+      <c r="J140" t="s">
+        <v>51</v>
+      </c>
+      <c r="K140">
+        <v>1.25</v>
+      </c>
+      <c r="L140">
+        <v>6</v>
+      </c>
+      <c r="M140">
+        <v>11</v>
+      </c>
+      <c r="N140">
+        <v>1.25</v>
+      </c>
+      <c r="O140">
+        <v>6</v>
+      </c>
+      <c r="P140">
+        <v>10</v>
+      </c>
+      <c r="Q140">
+        <v>-1.75</v>
+      </c>
+      <c r="R140">
+        <v>1.89</v>
+      </c>
+      <c r="S140">
+        <v>2.01</v>
+      </c>
+      <c r="T140">
+        <v>3.25</v>
+      </c>
+      <c r="U140">
         <v>2</v>
       </c>
-      <c r="J140" t="s">
-        <v>50</v>
-      </c>
-      <c r="K140">
-        <v>2.45</v>
-      </c>
-      <c r="L140">
-        <v>3.2</v>
-      </c>
-      <c r="M140">
-        <v>2.9</v>
-      </c>
-      <c r="N140">
-        <v>2.4</v>
-      </c>
-      <c r="O140">
-        <v>3.25</v>
-      </c>
-      <c r="P140">
-        <v>3</v>
-      </c>
-      <c r="Q140">
-        <v>-0.25</v>
-      </c>
-      <c r="R140">
-        <v>2.1</v>
-      </c>
-      <c r="S140">
-        <v>1.775</v>
-      </c>
-      <c r="T140">
-        <v>2.25</v>
-      </c>
-      <c r="U140">
-        <v>1.9</v>
-      </c>
       <c r="V140">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA140">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5265682</v>
+        <v>5265761</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,76 +13014,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K141">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M141">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="N141">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O141">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P141">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="S141">
-        <v>1.98</v>
+        <v>1.925</v>
       </c>
       <c r="T141">
         <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA141">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5265761</v>
+        <v>5265682</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,76 +13103,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K142">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="N142">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O142">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.925</v>
+        <v>1.92</v>
       </c>
       <c r="S142">
-        <v>1.925</v>
+        <v>1.98</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W142">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z142">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC142">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5498499</v>
+        <v>5498498</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,10 +15239,10 @@
         <v>45066.47916666666</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15254,43 +15254,43 @@
         <v>51</v>
       </c>
       <c r="K166">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L166">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M166">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="N166">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O166">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q166">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S166">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
+        <v>1.85</v>
+      </c>
+      <c r="V166">
         <v>2</v>
       </c>
-      <c r="V166">
-        <v>1.85</v>
-      </c>
       <c r="W166">
-        <v>0.909</v>
+        <v>0.7</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15299,16 +15299,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5498498</v>
+        <v>5498499</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,10 +15328,10 @@
         <v>45066.47916666666</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15343,43 +15343,43 @@
         <v>51</v>
       </c>
       <c r="K167">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L167">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M167">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="N167">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O167">
+        <v>3.4</v>
+      </c>
+      <c r="P167">
         <v>3.6</v>
       </c>
-      <c r="P167">
-        <v>4.333</v>
-      </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S167">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
+        <v>2</v>
+      </c>
+      <c r="V167">
         <v>1.85</v>
       </c>
-      <c r="V167">
-        <v>2</v>
-      </c>
       <c r="W167">
-        <v>0.7</v>
+        <v>0.909</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15388,16 +15388,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15672,7 +15672,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>5495114</v>
+        <v>5495113</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15684,73 +15684,73 @@
         <v>45067.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K171">
         <v>2.25</v>
       </c>
       <c r="L171">
+        <v>3.2</v>
+      </c>
+      <c r="M171">
+        <v>3</v>
+      </c>
+      <c r="N171">
+        <v>2.1</v>
+      </c>
+      <c r="O171">
+        <v>3.2</v>
+      </c>
+      <c r="P171">
         <v>3.25</v>
-      </c>
-      <c r="M171">
-        <v>2.875</v>
-      </c>
-      <c r="N171">
-        <v>2.3</v>
-      </c>
-      <c r="O171">
-        <v>3.25</v>
-      </c>
-      <c r="P171">
-        <v>2.8</v>
       </c>
       <c r="Q171">
         <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="S171">
-        <v>1.775</v>
+        <v>1.93</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U171">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V171">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W171">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.465</v>
       </c>
       <c r="AB171">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC171">
         <v>-1</v>
@@ -15761,7 +15761,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5495113</v>
+        <v>5495114</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15773,73 +15773,73 @@
         <v>45067.58333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K172">
         <v>2.25</v>
       </c>
       <c r="L172">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M172">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N172">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O172">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P172">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q172">
         <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="S172">
-        <v>1.93</v>
+        <v>1.775</v>
       </c>
       <c r="T172">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V172">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X172">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AA172">
-        <v>0.465</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5534723</v>
+        <v>5540309</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,73 +16218,73 @@
         <v>45073.47916666666</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J177" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K177">
         <v>2</v>
       </c>
       <c r="L177">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M177">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N177">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O177">
         <v>3.5</v>
       </c>
       <c r="P177">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q177">
         <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z177">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB177">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5540309</v>
+        <v>5534723</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,73 +16307,73 @@
         <v>45073.47916666666</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G178" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H178">
+        <v>3</v>
+      </c>
+      <c r="I178">
         <v>1</v>
       </c>
-      <c r="I178">
-        <v>4</v>
-      </c>
       <c r="J178" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K178">
         <v>2</v>
       </c>
       <c r="L178">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M178">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N178">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O178">
         <v>3.5</v>
       </c>
       <c r="P178">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q178">
         <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S178">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T178">
         <v>2.75</v>
       </c>
       <c r="U178">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V178">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA178">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16384,7 +16384,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5540441</v>
+        <v>5549224</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16396,76 +16396,76 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K179">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="L179">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M179">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="N179">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="O179">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="P179">
-        <v>2.15</v>
+        <v>11</v>
       </c>
       <c r="Q179">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R179">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S179">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T179">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U179">
+        <v>1.825</v>
+      </c>
+      <c r="V179">
         <v>2.025</v>
       </c>
-      <c r="V179">
-        <v>1.825</v>
-      </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA179">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC179">
-        <v>0.825</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16473,7 +16473,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5545146</v>
+        <v>5540441</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16485,76 +16485,76 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K180">
-        <v>1.083</v>
+        <v>2.8</v>
       </c>
       <c r="L180">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M180">
-        <v>34</v>
+        <v>2.375</v>
       </c>
       <c r="N180">
-        <v>1.062</v>
+        <v>3.1</v>
       </c>
       <c r="O180">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="P180">
-        <v>26</v>
+        <v>2.15</v>
       </c>
       <c r="Q180">
-        <v>-3</v>
+        <v>0.25</v>
       </c>
       <c r="R180">
+        <v>1.975</v>
+      </c>
+      <c r="S180">
+        <v>1.875</v>
+      </c>
+      <c r="T180">
+        <v>2.75</v>
+      </c>
+      <c r="U180">
         <v>2.025</v>
       </c>
-      <c r="S180">
+      <c r="V180">
         <v>1.825</v>
       </c>
-      <c r="T180">
-        <v>4</v>
-      </c>
-      <c r="U180">
-        <v>1.925</v>
-      </c>
-      <c r="V180">
-        <v>1.925</v>
-      </c>
       <c r="W180">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB180">
         <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16562,7 +16562,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>5549224</v>
+        <v>5545146</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16574,10 +16574,10 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H181">
         <v>3</v>
@@ -16589,43 +16589,43 @@
         <v>51</v>
       </c>
       <c r="K181">
-        <v>1.2</v>
+        <v>1.083</v>
       </c>
       <c r="L181">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="M181">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="N181">
-        <v>1.2</v>
+        <v>1.062</v>
       </c>
       <c r="O181">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P181">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="Q181">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S181">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T181">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U181">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V181">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W181">
-        <v>0.2</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16634,16 +16634,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -19232,7 +19232,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6876483</v>
+        <v>6876488</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19244,76 +19244,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G211" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K211">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L211">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M211">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N211">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O211">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P211">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q211">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R211">
+        <v>1.825</v>
+      </c>
+      <c r="S211">
         <v>2.025</v>
-      </c>
-      <c r="S211">
-        <v>1.825</v>
       </c>
       <c r="T211">
         <v>2.25</v>
       </c>
       <c r="U211">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V211">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W211">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC211">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19321,7 +19321,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6876488</v>
+        <v>6876483</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19333,76 +19333,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G212" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H212">
         <v>1</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K212">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L212">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M212">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N212">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O212">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P212">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q212">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R212">
+        <v>2.025</v>
+      </c>
+      <c r="S212">
         <v>1.825</v>
-      </c>
-      <c r="S212">
-        <v>2.025</v>
       </c>
       <c r="T212">
         <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V212">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X212">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA212">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19499,7 +19499,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6876486</v>
+        <v>6875457</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19511,10 +19511,10 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G214" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -19526,40 +19526,40 @@
         <v>50</v>
       </c>
       <c r="K214">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L214">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M214">
+        <v>3.1</v>
+      </c>
+      <c r="N214">
         <v>2.9</v>
       </c>
-      <c r="N214">
+      <c r="O214">
+        <v>3.5</v>
+      </c>
+      <c r="P214">
+        <v>2.25</v>
+      </c>
+      <c r="Q214">
+        <v>0.25</v>
+      </c>
+      <c r="R214">
+        <v>1.875</v>
+      </c>
+      <c r="S214">
+        <v>1.975</v>
+      </c>
+      <c r="T214">
         <v>2.5</v>
       </c>
-      <c r="O214">
-        <v>3.25</v>
-      </c>
-      <c r="P214">
-        <v>2.8</v>
-      </c>
-      <c r="Q214">
-        <v>0</v>
-      </c>
-      <c r="R214">
-        <v>1.82</v>
-      </c>
-      <c r="S214">
-        <v>2.08</v>
-      </c>
-      <c r="T214">
-        <v>2.25</v>
-      </c>
       <c r="U214">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V214">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -19568,16 +19568,16 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>1.08</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB214">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19588,7 +19588,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6875457</v>
+        <v>6876486</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19600,10 +19600,10 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F215" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -19615,40 +19615,40 @@
         <v>50</v>
       </c>
       <c r="K215">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L215">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M215">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N215">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="O215">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P215">
+        <v>2.8</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215">
+        <v>1.82</v>
+      </c>
+      <c r="S215">
+        <v>2.08</v>
+      </c>
+      <c r="T215">
         <v>2.25</v>
       </c>
-      <c r="Q215">
-        <v>0.25</v>
-      </c>
-      <c r="R215">
-        <v>1.875</v>
-      </c>
-      <c r="S215">
-        <v>1.975</v>
-      </c>
-      <c r="T215">
-        <v>2.5</v>
-      </c>
       <c r="U215">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19657,16 +19657,16 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.9750000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AB215">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -20300,7 +20300,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7165059</v>
+        <v>7165060</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20312,40 +20312,40 @@
         <v>45186.47916666666</v>
       </c>
       <c r="F223" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G223" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H223">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I223">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K223">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L223">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M223">
         <v>3.2</v>
       </c>
       <c r="N223">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="O223">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P223">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q223">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R223">
         <v>2</v>
@@ -20354,34 +20354,34 @@
         <v>1.85</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V223">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W223">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z223">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB223">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20389,7 +20389,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7165060</v>
+        <v>7165059</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20401,40 +20401,40 @@
         <v>45186.47916666666</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G224" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J224" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K224">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L224">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M224">
         <v>3.2</v>
       </c>
       <c r="N224">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="O224">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P224">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q224">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R224">
         <v>2</v>
@@ -20443,34 +20443,34 @@
         <v>1.85</v>
       </c>
       <c r="T224">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U224">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V224">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA224">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC224">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -23326,7 +23326,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6876528</v>
+        <v>6876523</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23338,76 +23338,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F257" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G257" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H257">
+        <v>1</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257" t="s">
+        <v>52</v>
+      </c>
+      <c r="K257">
+        <v>1.166</v>
+      </c>
+      <c r="L257">
+        <v>7</v>
+      </c>
+      <c r="M257">
+        <v>15</v>
+      </c>
+      <c r="N257">
+        <v>1.222</v>
+      </c>
+      <c r="O257">
+        <v>6</v>
+      </c>
+      <c r="P257">
+        <v>11</v>
+      </c>
+      <c r="Q257">
+        <v>-1.75</v>
+      </c>
+      <c r="R257">
+        <v>1.875</v>
+      </c>
+      <c r="S257">
+        <v>1.975</v>
+      </c>
+      <c r="T257">
+        <v>3</v>
+      </c>
+      <c r="U257">
+        <v>1.95</v>
+      </c>
+      <c r="V257">
+        <v>1.9</v>
+      </c>
+      <c r="W257">
+        <v>-1</v>
+      </c>
+      <c r="X257">
         <v>5</v>
       </c>
-      <c r="I257">
-        <v>0</v>
-      </c>
-      <c r="J257" t="s">
-        <v>51</v>
-      </c>
-      <c r="K257">
-        <v>1.75</v>
-      </c>
-      <c r="L257">
-        <v>3.6</v>
-      </c>
-      <c r="M257">
-        <v>4.75</v>
-      </c>
-      <c r="N257">
-        <v>1.666</v>
-      </c>
-      <c r="O257">
-        <v>3.75</v>
-      </c>
-      <c r="P257">
-        <v>5</v>
-      </c>
-      <c r="Q257">
-        <v>-0.75</v>
-      </c>
-      <c r="R257">
-        <v>1.9</v>
-      </c>
-      <c r="S257">
-        <v>2</v>
-      </c>
-      <c r="T257">
-        <v>2.5</v>
-      </c>
-      <c r="U257">
-        <v>1.925</v>
-      </c>
-      <c r="V257">
-        <v>1.925</v>
-      </c>
-      <c r="W257">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X257">
-        <v>-1</v>
-      </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
+        <v>-1</v>
+      </c>
+      <c r="AA257">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB257">
+        <v>-1</v>
+      </c>
+      <c r="AC257">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA257">
-        <v>-1</v>
-      </c>
-      <c r="AB257">
-        <v>0.925</v>
-      </c>
-      <c r="AC257">
-        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23415,7 +23415,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6876523</v>
+        <v>6876528</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23427,76 +23427,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F258" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G258" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J258" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K258">
-        <v>1.166</v>
+        <v>1.75</v>
       </c>
       <c r="L258">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M258">
-        <v>15</v>
+        <v>4.75</v>
       </c>
       <c r="N258">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="O258">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P258">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q258">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R258">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S258">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T258">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U258">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V258">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W258">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X258">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y258">
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA258">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC258">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -25640,7 +25640,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6876552</v>
+        <v>6876549</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25652,76 +25652,76 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F283" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G283" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H283">
         <v>1</v>
       </c>
       <c r="I283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J283" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K283">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="L283">
         <v>3.4</v>
       </c>
       <c r="M283">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N283">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O283">
         <v>3.6</v>
       </c>
       <c r="P283">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q283">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R283">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S283">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T283">
         <v>2.5</v>
       </c>
       <c r="U283">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V283">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W283">
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y283">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z283">
         <v>-1</v>
       </c>
       <c r="AA283">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB283">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC283">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25729,7 +25729,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6876549</v>
+        <v>6876552</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25741,76 +25741,76 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F284" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G284" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H284">
         <v>1</v>
       </c>
       <c r="I284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J284" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K284">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L284">
         <v>3.4</v>
       </c>
       <c r="M284">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N284">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O284">
         <v>3.6</v>
       </c>
       <c r="P284">
+        <v>3.3</v>
+      </c>
+      <c r="Q284">
+        <v>-0.5</v>
+      </c>
+      <c r="R284">
         <v>2.05</v>
       </c>
-      <c r="Q284">
-        <v>0.25</v>
-      </c>
-      <c r="R284">
-        <v>2.025</v>
-      </c>
       <c r="S284">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T284">
         <v>2.5</v>
       </c>
       <c r="U284">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V284">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W284">
         <v>-1</v>
       </c>
       <c r="X284">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y284">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z284">
         <v>-1</v>
       </c>
       <c r="AA284">
+        <v>0.8</v>
+      </c>
+      <c r="AB284">
+        <v>-1</v>
+      </c>
+      <c r="AC284">
         <v>0.825</v>
-      </c>
-      <c r="AB284">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC284">
-        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -27509,7 +27509,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6876563</v>
+        <v>6875467</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27521,40 +27521,40 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F304" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G304" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I304">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J304" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K304">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="L304">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M304">
-        <v>2.55</v>
+        <v>3.9</v>
       </c>
       <c r="N304">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O304">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P304">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q304">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R304">
         <v>1.875</v>
@@ -27563,31 +27563,31 @@
         <v>1.975</v>
       </c>
       <c r="T304">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U304">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V304">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W304">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X304">
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z304">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA304">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB304">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC304">
         <v>-1</v>
@@ -27598,7 +27598,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6875467</v>
+        <v>6876563</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27610,40 +27610,40 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F305" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G305" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H305">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I305">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J305" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K305">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="L305">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M305">
-        <v>3.9</v>
+        <v>2.55</v>
       </c>
       <c r="N305">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O305">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P305">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q305">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R305">
         <v>1.875</v>
@@ -27652,31 +27652,31 @@
         <v>1.975</v>
       </c>
       <c r="T305">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U305">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V305">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W305">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X305">
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z305">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA305">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB305">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC305">
         <v>-1</v>
@@ -27954,7 +27954,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6875468</v>
+        <v>6876571</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27966,67 +27966,67 @@
         <v>45283.52083333334</v>
       </c>
       <c r="F309" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G309" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I309">
         <v>0</v>
       </c>
       <c r="J309" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K309">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L309">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M309">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N309">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="O309">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P309">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q309">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R309">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S309">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T309">
         <v>2.25</v>
       </c>
       <c r="U309">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V309">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W309">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X309">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y309">
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>0.4</v>
+        <v>0.4875</v>
       </c>
       <c r="AA309">
         <v>-0.5</v>
@@ -28035,7 +28035,7 @@
         <v>-1</v>
       </c>
       <c r="AC309">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28043,7 +28043,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6876571</v>
+        <v>6875468</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28055,67 +28055,67 @@
         <v>45283.52083333334</v>
       </c>
       <c r="F310" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G310" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310">
         <v>0</v>
       </c>
       <c r="J310" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K310">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L310">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M310">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N310">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="O310">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P310">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q310">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R310">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S310">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T310">
         <v>2.25</v>
       </c>
       <c r="U310">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V310">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W310">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X310">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0.4875</v>
+        <v>0.4</v>
       </c>
       <c r="AA310">
         <v>-0.5</v>
@@ -28124,7 +28124,7 @@
         <v>-1</v>
       </c>
       <c r="AC310">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28399,7 +28399,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7515550</v>
+        <v>7513577</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28411,13 +28411,13 @@
         <v>45290.52083333334</v>
       </c>
       <c r="F314" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G314" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I314">
         <v>0</v>
@@ -28426,43 +28426,43 @@
         <v>51</v>
       </c>
       <c r="K314">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L314">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M314">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N314">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O314">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P314">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q314">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R314">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S314">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T314">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U314">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V314">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W314">
-        <v>1.3</v>
+        <v>0.833</v>
       </c>
       <c r="X314">
         <v>-1</v>
@@ -28471,16 +28471,16 @@
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA314">
         <v>-1</v>
       </c>
       <c r="AB314">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC314">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28488,7 +28488,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7513577</v>
+        <v>7515550</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28500,13 +28500,13 @@
         <v>45290.52083333334</v>
       </c>
       <c r="F315" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G315" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H315">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I315">
         <v>0</v>
@@ -28515,43 +28515,43 @@
         <v>51</v>
       </c>
       <c r="K315">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L315">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M315">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N315">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O315">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P315">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q315">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R315">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S315">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T315">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U315">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V315">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W315">
-        <v>0.833</v>
+        <v>1.3</v>
       </c>
       <c r="X315">
         <v>-1</v>
@@ -28560,16 +28560,16 @@
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA315">
         <v>-1</v>
       </c>
       <c r="AB315">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC315">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -30001,7 +30001,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6876586</v>
+        <v>6876591</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30013,40 +30013,40 @@
         <v>45305.625</v>
       </c>
       <c r="F332" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G332" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H332">
+        <v>1</v>
+      </c>
+      <c r="I332">
         <v>4</v>
       </c>
-      <c r="I332">
-        <v>1</v>
-      </c>
       <c r="J332" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K332">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="L332">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="M332">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="N332">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="O332">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="P332">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q332">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R332">
         <v>2.025</v>
@@ -30055,31 +30055,31 @@
         <v>1.825</v>
       </c>
       <c r="T332">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U332">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V332">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W332">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X332">
         <v>-1</v>
       </c>
       <c r="Y332">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z332">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA332">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB332">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC332">
         <v>-1</v>
@@ -30090,7 +30090,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6876591</v>
+        <v>6876586</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30102,40 +30102,40 @@
         <v>45305.625</v>
       </c>
       <c r="F333" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G333" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H333">
+        <v>4</v>
+      </c>
+      <c r="I333">
         <v>1</v>
       </c>
-      <c r="I333">
-        <v>4</v>
-      </c>
       <c r="J333" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K333">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="L333">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="M333">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="N333">
-        <v>1.95</v>
+        <v>1.2</v>
       </c>
       <c r="O333">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="P333">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q333">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R333">
         <v>2.025</v>
@@ -30144,31 +30144,31 @@
         <v>1.825</v>
       </c>
       <c r="T333">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U333">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V333">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W333">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X333">
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z333">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA333">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB333">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC333">
         <v>-1</v>
@@ -32137,7 +32137,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>6876611</v>
+        <v>6876616</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32149,76 +32149,76 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F356" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G356" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I356">
         <v>1</v>
       </c>
       <c r="J356" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K356">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L356">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M356">
+        <v>2.5</v>
+      </c>
+      <c r="N356">
         <v>2.3</v>
       </c>
-      <c r="N356">
-        <v>4.2</v>
-      </c>
       <c r="O356">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P356">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="Q356">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R356">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S356">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T356">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U356">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V356">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W356">
         <v>-1</v>
       </c>
       <c r="X356">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y356">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z356">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA356">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AB356">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC356">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -32226,7 +32226,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>6876616</v>
+        <v>6876611</v>
       </c>
       <c r="C357" t="s">
         <v>28</v>
@@ -32238,76 +32238,76 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F357" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G357" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357">
         <v>1</v>
       </c>
       <c r="J357" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K357">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L357">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M357">
+        <v>2.3</v>
+      </c>
+      <c r="N357">
+        <v>4.2</v>
+      </c>
+      <c r="O357">
+        <v>3.6</v>
+      </c>
+      <c r="P357">
+        <v>1.85</v>
+      </c>
+      <c r="Q357">
+        <v>0.5</v>
+      </c>
+      <c r="R357">
+        <v>2.025</v>
+      </c>
+      <c r="S357">
+        <v>1.825</v>
+      </c>
+      <c r="T357">
         <v>2.5</v>
       </c>
-      <c r="N357">
-        <v>2.3</v>
-      </c>
-      <c r="O357">
-        <v>3.4</v>
-      </c>
-      <c r="P357">
-        <v>3.2</v>
-      </c>
-      <c r="Q357">
-        <v>-0.25</v>
-      </c>
-      <c r="R357">
-        <v>1.975</v>
-      </c>
-      <c r="S357">
-        <v>1.875</v>
-      </c>
-      <c r="T357">
-        <v>2.25</v>
-      </c>
       <c r="U357">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V357">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W357">
         <v>-1</v>
       </c>
       <c r="X357">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y357">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z357">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA357">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AB357">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC357">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="358" spans="1:29">
@@ -32315,7 +32315,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>7758962</v>
+        <v>7758961</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32327,13 +32327,13 @@
         <v>45326.625</v>
       </c>
       <c r="F358" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G358" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I358">
         <v>0</v>
@@ -32342,61 +32342,61 @@
         <v>51</v>
       </c>
       <c r="K358">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="L358">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M358">
-        <v>3.2</v>
+        <v>14</v>
       </c>
       <c r="N358">
-        <v>2.05</v>
+        <v>1.142</v>
       </c>
       <c r="O358">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="P358">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="Q358">
+        <v>-2</v>
+      </c>
+      <c r="R358">
+        <v>1.825</v>
+      </c>
+      <c r="S358">
+        <v>2.025</v>
+      </c>
+      <c r="T358">
+        <v>3.25</v>
+      </c>
+      <c r="U358">
+        <v>1.825</v>
+      </c>
+      <c r="V358">
+        <v>2.025</v>
+      </c>
+      <c r="W358">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="X358">
+        <v>-1</v>
+      </c>
+      <c r="Y358">
+        <v>-1</v>
+      </c>
+      <c r="Z358">
+        <v>0.825</v>
+      </c>
+      <c r="AA358">
+        <v>-1</v>
+      </c>
+      <c r="AB358">
         <v>-0.5</v>
       </c>
-      <c r="R358">
-        <v>2.06</v>
-      </c>
-      <c r="S358">
-        <v>1.84</v>
-      </c>
-      <c r="T358">
-        <v>2.5</v>
-      </c>
-      <c r="U358">
-        <v>1.975</v>
-      </c>
-      <c r="V358">
-        <v>1.875</v>
-      </c>
-      <c r="W358">
-        <v>1.05</v>
-      </c>
-      <c r="X358">
-        <v>-1</v>
-      </c>
-      <c r="Y358">
-        <v>-1</v>
-      </c>
-      <c r="Z358">
-        <v>1.06</v>
-      </c>
-      <c r="AA358">
-        <v>-1</v>
-      </c>
-      <c r="AB358">
-        <v>-1</v>
-      </c>
       <c r="AC358">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="359" spans="1:29">
@@ -32404,7 +32404,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>7758961</v>
+        <v>7758962</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32416,13 +32416,13 @@
         <v>45326.625</v>
       </c>
       <c r="F359" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G359" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H359">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I359">
         <v>0</v>
@@ -32431,43 +32431,43 @@
         <v>51</v>
       </c>
       <c r="K359">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="L359">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M359">
-        <v>14</v>
+        <v>3.2</v>
       </c>
       <c r="N359">
-        <v>1.142</v>
+        <v>2.05</v>
       </c>
       <c r="O359">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="P359">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="Q359">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R359">
-        <v>1.825</v>
+        <v>2.06</v>
       </c>
       <c r="S359">
-        <v>2.025</v>
+        <v>1.84</v>
       </c>
       <c r="T359">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U359">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V359">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W359">
-        <v>0.1419999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X359">
         <v>-1</v>
@@ -32476,16 +32476,16 @@
         <v>-1</v>
       </c>
       <c r="Z359">
-        <v>0.825</v>
+        <v>1.06</v>
       </c>
       <c r="AA359">
         <v>-1</v>
       </c>
       <c r="AB359">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC359">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="360" spans="1:29">
@@ -33917,7 +33917,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6876630</v>
+        <v>6876633</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33929,73 +33929,73 @@
         <v>45340.625</v>
       </c>
       <c r="F376" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G376" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H376">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I376">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J376" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K376">
-        <v>1.111</v>
+        <v>2.2</v>
       </c>
       <c r="L376">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="M376">
-        <v>21</v>
+        <v>3.2</v>
       </c>
       <c r="N376">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="O376">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="P376">
-        <v>23</v>
+        <v>3.5</v>
       </c>
       <c r="Q376">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R376">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S376">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T376">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U376">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V376">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W376">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X376">
         <v>-1</v>
       </c>
       <c r="Y376">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z376">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA376">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB376">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC376">
         <v>-1</v>
@@ -34006,7 +34006,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>6876633</v>
+        <v>6876630</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34018,73 +34018,73 @@
         <v>45340.625</v>
       </c>
       <c r="F377" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G377" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H377">
+        <v>6</v>
+      </c>
+      <c r="I377">
         <v>1</v>
       </c>
-      <c r="I377">
-        <v>3</v>
-      </c>
       <c r="J377" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K377">
-        <v>2.2</v>
+        <v>1.111</v>
       </c>
       <c r="L377">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="M377">
-        <v>3.2</v>
+        <v>21</v>
       </c>
       <c r="N377">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="O377">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="P377">
-        <v>3.5</v>
+        <v>23</v>
       </c>
       <c r="Q377">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R377">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S377">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="T377">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U377">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V377">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W377">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X377">
         <v>-1</v>
       </c>
       <c r="Y377">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z377">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA377">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB377">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC377">
         <v>-1</v>
@@ -34312,10 +34312,10 @@
         <v>-0.25</v>
       </c>
       <c r="R380">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="S380">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="T380">
         <v>2.25</v>
@@ -34395,10 +34395,10 @@
         <v>2.25</v>
       </c>
       <c r="U381">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V381">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W381">
         <v>0</v>
@@ -34451,19 +34451,19 @@
         <v>2.05</v>
       </c>
       <c r="O382">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P382">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q382">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R382">
+        <v>2.09</v>
+      </c>
+      <c r="S382">
         <v>1.81</v>
-      </c>
-      <c r="S382">
-        <v>2.09</v>
       </c>
       <c r="T382">
         <v>2.25</v>
@@ -34608,10 +34608,10 @@
         <v>0</v>
       </c>
       <c r="R384">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="S384">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="T384">
         <v>2.5</v>
@@ -34643,7 +34643,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>6876637</v>
+        <v>6876641</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34655,46 +34655,46 @@
         <v>45347.625</v>
       </c>
       <c r="F385" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G385" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K385">
-        <v>1.125</v>
+        <v>7</v>
       </c>
       <c r="L385">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="M385">
-        <v>21</v>
+        <v>1.363</v>
       </c>
       <c r="N385">
-        <v>1.111</v>
+        <v>6.5</v>
       </c>
       <c r="O385">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="P385">
-        <v>21</v>
+        <v>1.4</v>
       </c>
       <c r="Q385">
-        <v>-2.5</v>
+        <v>1.25</v>
       </c>
       <c r="R385">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S385">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T385">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U385">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V385">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W385">
         <v>0</v>
@@ -34717,7 +34717,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>6876641</v>
+        <v>6876637</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34729,46 +34729,46 @@
         <v>45347.625</v>
       </c>
       <c r="F386" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G386" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K386">
-        <v>7</v>
+        <v>1.125</v>
       </c>
       <c r="L386">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="M386">
-        <v>1.363</v>
+        <v>21</v>
       </c>
       <c r="N386">
-        <v>6.5</v>
+        <v>1.111</v>
       </c>
       <c r="O386">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="P386">
-        <v>1.4</v>
+        <v>21</v>
       </c>
       <c r="Q386">
-        <v>1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R386">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="S386">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="T386">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U386">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V386">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W386">
         <v>0</v>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -3123,7 +3123,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5265726</v>
+        <v>5265613</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3135,13 +3135,13 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -3150,43 +3150,43 @@
         <v>51</v>
       </c>
       <c r="K30">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L30">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M30">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O30">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P30">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q30">
         <v>-0.5</v>
       </c>
       <c r="R30">
+        <v>1.975</v>
+      </c>
+      <c r="S30">
+        <v>1.875</v>
+      </c>
+      <c r="T30">
         <v>2</v>
       </c>
-      <c r="S30">
-        <v>1.85</v>
-      </c>
-      <c r="T30">
-        <v>2.25</v>
-      </c>
       <c r="U30">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V30">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3195,13 +3195,13 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3212,7 +3212,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5265613</v>
+        <v>5265726</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3224,13 +3224,13 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -3239,43 +3239,43 @@
         <v>51</v>
       </c>
       <c r="K31">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L31">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M31">
+        <v>3.5</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31">
+        <v>3.3</v>
+      </c>
+      <c r="P31">
         <v>3.8</v>
-      </c>
-      <c r="N31">
-        <v>1.95</v>
-      </c>
-      <c r="O31">
-        <v>3</v>
-      </c>
-      <c r="P31">
-        <v>4.5</v>
       </c>
       <c r="Q31">
         <v>-0.5</v>
       </c>
       <c r="R31">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U31">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V31">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W31">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3284,13 +3284,13 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -5615,7 +5615,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5265735</v>
+        <v>5265630</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5627,73 +5627,73 @@
         <v>44975.625</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
+      <c r="J58" t="s">
+        <v>50</v>
+      </c>
+      <c r="K58">
+        <v>1.95</v>
+      </c>
+      <c r="L58">
+        <v>3.3</v>
+      </c>
+      <c r="M58">
+        <v>4</v>
+      </c>
+      <c r="N58">
         <v>2</v>
       </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58" t="s">
-        <v>51</v>
-      </c>
-      <c r="K58">
-        <v>2.05</v>
-      </c>
-      <c r="L58">
-        <v>3.25</v>
-      </c>
-      <c r="M58">
-        <v>3.75</v>
-      </c>
-      <c r="N58">
-        <v>2.45</v>
-      </c>
       <c r="O58">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P58">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S58">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V58">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z58">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB58">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5704,7 +5704,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5265630</v>
+        <v>5265735</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5716,73 +5716,73 @@
         <v>44975.625</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
         <v>1</v>
       </c>
-      <c r="I59">
+      <c r="J59" t="s">
+        <v>51</v>
+      </c>
+      <c r="K59">
+        <v>2.05</v>
+      </c>
+      <c r="L59">
+        <v>3.25</v>
+      </c>
+      <c r="M59">
+        <v>3.75</v>
+      </c>
+      <c r="N59">
+        <v>2.45</v>
+      </c>
+      <c r="O59">
+        <v>3.1</v>
+      </c>
+      <c r="P59">
         <v>3</v>
       </c>
-      <c r="J59" t="s">
-        <v>50</v>
-      </c>
-      <c r="K59">
-        <v>1.95</v>
-      </c>
-      <c r="L59">
-        <v>3.3</v>
-      </c>
-      <c r="M59">
-        <v>4</v>
-      </c>
-      <c r="N59">
-        <v>2</v>
-      </c>
-      <c r="O59">
-        <v>3.2</v>
-      </c>
-      <c r="P59">
-        <v>3.8</v>
-      </c>
       <c r="Q59">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S59">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V59">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA59">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -8018,7 +8018,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5265642</v>
+        <v>5265747</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8030,13 +8030,13 @@
         <v>44996.52083333334</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -8045,61 +8045,61 @@
         <v>51</v>
       </c>
       <c r="K85">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L85">
+        <v>3.3</v>
+      </c>
+      <c r="M85">
         <v>3.25</v>
       </c>
-      <c r="M85">
+      <c r="N85">
+        <v>2.3</v>
+      </c>
+      <c r="O85">
+        <v>3.3</v>
+      </c>
+      <c r="P85">
         <v>3</v>
       </c>
-      <c r="N85">
+      <c r="Q85">
+        <v>-0.25</v>
+      </c>
+      <c r="R85">
         <v>2</v>
       </c>
-      <c r="O85">
-        <v>3.4</v>
-      </c>
-      <c r="P85">
-        <v>3.6</v>
-      </c>
-      <c r="Q85">
+      <c r="S85">
+        <v>1.85</v>
+      </c>
+      <c r="T85">
+        <v>2.25</v>
+      </c>
+      <c r="U85">
+        <v>1.85</v>
+      </c>
+      <c r="V85">
+        <v>2</v>
+      </c>
+      <c r="W85">
+        <v>1.3</v>
+      </c>
+      <c r="X85">
+        <v>-1</v>
+      </c>
+      <c r="Y85">
+        <v>-1</v>
+      </c>
+      <c r="Z85">
+        <v>1</v>
+      </c>
+      <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
         <v>-0.5</v>
       </c>
-      <c r="R85">
-        <v>2.05</v>
-      </c>
-      <c r="S85">
-        <v>1.8</v>
-      </c>
-      <c r="T85">
-        <v>2</v>
-      </c>
-      <c r="U85">
-        <v>1.75</v>
-      </c>
-      <c r="V85">
-        <v>2.05</v>
-      </c>
-      <c r="W85">
-        <v>1</v>
-      </c>
-      <c r="X85">
-        <v>-1</v>
-      </c>
-      <c r="Y85">
-        <v>-1</v>
-      </c>
-      <c r="Z85">
-        <v>1.05</v>
-      </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
-      <c r="AB85">
-        <v>-1</v>
-      </c>
       <c r="AC85">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8107,7 +8107,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5265747</v>
+        <v>5265642</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8119,13 +8119,13 @@
         <v>44996.52083333334</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -8134,43 +8134,43 @@
         <v>51</v>
       </c>
       <c r="K86">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L86">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M86">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N86">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O86">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
+        <v>2.05</v>
+      </c>
+      <c r="S86">
+        <v>1.8</v>
+      </c>
+      <c r="T86">
         <v>2</v>
       </c>
-      <c r="S86">
-        <v>1.85</v>
-      </c>
-      <c r="T86">
-        <v>2.25</v>
-      </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V86">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W86">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8179,16 +8179,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5265654</v>
+        <v>5265751</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,73 +9810,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K105">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L105">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N105">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O105">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R105">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z105">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9887,7 +9887,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5265751</v>
+        <v>5265654</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9899,73 +9899,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K106">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M106">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N106">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="O106">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P106">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="Q106">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V106">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AA106">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -11222,7 +11222,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5265670</v>
+        <v>5265669</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11234,76 +11234,76 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K121">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L121">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M121">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N121">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O121">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P121">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q121">
         <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="S121">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="T121">
         <v>2.25</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V121">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W121">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z121">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11311,7 +11311,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5265669</v>
+        <v>5265670</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11323,76 +11323,76 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K122">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L122">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M122">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N122">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P122">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q122">
         <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="S122">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="T122">
         <v>2.25</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -12379,7 +12379,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>5265671</v>
+        <v>5265675</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12391,76 +12391,76 @@
         <v>45039.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H134">
         <v>1</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K134">
-        <v>2.7</v>
+        <v>1.111</v>
       </c>
       <c r="L134">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="M134">
-        <v>2.7</v>
+        <v>17</v>
       </c>
       <c r="N134">
-        <v>2.6</v>
+        <v>1.142</v>
       </c>
       <c r="O134">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="P134">
-        <v>2.7</v>
+        <v>15</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R134">
+        <v>2</v>
+      </c>
+      <c r="S134">
+        <v>1.85</v>
+      </c>
+      <c r="T134">
+        <v>3.25</v>
+      </c>
+      <c r="U134">
         <v>1.9</v>
       </c>
-      <c r="S134">
+      <c r="V134">
         <v>1.95</v>
       </c>
-      <c r="T134">
-        <v>2.25</v>
-      </c>
-      <c r="U134">
-        <v>1.95</v>
-      </c>
-      <c r="V134">
-        <v>1.9</v>
-      </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X134">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12468,7 +12468,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5265675</v>
+        <v>5265671</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12480,76 +12480,76 @@
         <v>45039.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K135">
-        <v>1.111</v>
+        <v>2.7</v>
       </c>
       <c r="L135">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="M135">
-        <v>17</v>
+        <v>2.7</v>
       </c>
       <c r="N135">
-        <v>1.142</v>
+        <v>2.6</v>
       </c>
       <c r="O135">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="P135">
-        <v>15</v>
+        <v>2.7</v>
       </c>
       <c r="Q135">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T135">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
+        <v>1.95</v>
+      </c>
+      <c r="V135">
         <v>1.9</v>
       </c>
-      <c r="V135">
-        <v>1.95</v>
-      </c>
       <c r="W135">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA135">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC135">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -14426,7 +14426,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5462477</v>
+        <v>5473931</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14438,76 +14438,76 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F157" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K157">
+        <v>2.05</v>
+      </c>
+      <c r="L157">
+        <v>3.3</v>
+      </c>
+      <c r="M157">
+        <v>3.4</v>
+      </c>
+      <c r="N157">
+        <v>2.1</v>
+      </c>
+      <c r="O157">
+        <v>3.4</v>
+      </c>
+      <c r="P157">
+        <v>3.1</v>
+      </c>
+      <c r="Q157">
+        <v>-0.25</v>
+      </c>
+      <c r="R157">
+        <v>1.875</v>
+      </c>
+      <c r="S157">
+        <v>1.975</v>
+      </c>
+      <c r="T157">
         <v>2.5</v>
       </c>
-      <c r="L157">
-        <v>3.2</v>
-      </c>
-      <c r="M157">
-        <v>2.6</v>
-      </c>
-      <c r="N157">
-        <v>2.55</v>
-      </c>
-      <c r="O157">
-        <v>3.2</v>
-      </c>
-      <c r="P157">
-        <v>2.55</v>
-      </c>
-      <c r="Q157">
-        <v>0</v>
-      </c>
-      <c r="R157">
+      <c r="U157">
         <v>1.9</v>
       </c>
-      <c r="S157">
+      <c r="V157">
         <v>1.95</v>
       </c>
-      <c r="T157">
-        <v>2.25</v>
-      </c>
-      <c r="U157">
-        <v>1.875</v>
-      </c>
-      <c r="V157">
-        <v>1.975</v>
-      </c>
       <c r="W157">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X157">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA157">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14515,7 +14515,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>5473931</v>
+        <v>5462477</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14527,76 +14527,76 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K158">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L158">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M158">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N158">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O158">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P158">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q158">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R158">
+        <v>1.9</v>
+      </c>
+      <c r="S158">
+        <v>1.95</v>
+      </c>
+      <c r="T158">
+        <v>2.25</v>
+      </c>
+      <c r="U158">
         <v>1.875</v>
       </c>
-      <c r="S158">
+      <c r="V158">
         <v>1.975</v>
       </c>
-      <c r="T158">
-        <v>2.5</v>
-      </c>
-      <c r="U158">
-        <v>1.9</v>
-      </c>
-      <c r="V158">
-        <v>1.95</v>
-      </c>
       <c r="W158">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB158">
         <v>-1</v>
       </c>
       <c r="AC158">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5498498</v>
+        <v>5498499</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,10 +15239,10 @@
         <v>45066.47916666666</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15254,43 +15254,43 @@
         <v>51</v>
       </c>
       <c r="K166">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L166">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M166">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="N166">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O166">
+        <v>3.4</v>
+      </c>
+      <c r="P166">
         <v>3.6</v>
       </c>
-      <c r="P166">
-        <v>4.333</v>
-      </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
+        <v>2</v>
+      </c>
+      <c r="V166">
         <v>1.85</v>
       </c>
-      <c r="V166">
-        <v>2</v>
-      </c>
       <c r="W166">
-        <v>0.7</v>
+        <v>0.909</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15299,16 +15299,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5498499</v>
+        <v>5498498</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,10 +15328,10 @@
         <v>45066.47916666666</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15343,43 +15343,43 @@
         <v>51</v>
       </c>
       <c r="K167">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L167">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M167">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="N167">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O167">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P167">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S167">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
+        <v>1.85</v>
+      </c>
+      <c r="V167">
         <v>2</v>
       </c>
-      <c r="V167">
-        <v>1.85</v>
-      </c>
       <c r="W167">
-        <v>0.909</v>
+        <v>0.7</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15388,16 +15388,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15672,7 +15672,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>5495113</v>
+        <v>5495114</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15684,73 +15684,73 @@
         <v>45067.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G171" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K171">
         <v>2.25</v>
       </c>
       <c r="L171">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M171">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N171">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O171">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P171">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q171">
         <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="S171">
-        <v>1.93</v>
+        <v>1.775</v>
       </c>
       <c r="T171">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V171">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X171">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AA171">
-        <v>0.465</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC171">
         <v>-1</v>
@@ -15761,7 +15761,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5495114</v>
+        <v>5495113</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15773,73 +15773,73 @@
         <v>45067.58333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K172">
         <v>2.25</v>
       </c>
       <c r="L172">
+        <v>3.2</v>
+      </c>
+      <c r="M172">
+        <v>3</v>
+      </c>
+      <c r="N172">
+        <v>2.1</v>
+      </c>
+      <c r="O172">
+        <v>3.2</v>
+      </c>
+      <c r="P172">
         <v>3.25</v>
-      </c>
-      <c r="M172">
-        <v>2.875</v>
-      </c>
-      <c r="N172">
-        <v>2.3</v>
-      </c>
-      <c r="O172">
-        <v>3.25</v>
-      </c>
-      <c r="P172">
-        <v>2.8</v>
       </c>
       <c r="Q172">
         <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="S172">
-        <v>1.775</v>
+        <v>1.93</v>
       </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U172">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V172">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W172">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.465</v>
       </c>
       <c r="AB172">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5540309</v>
+        <v>5534723</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,73 +16218,73 @@
         <v>45073.47916666666</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H177">
+        <v>3</v>
+      </c>
+      <c r="I177">
         <v>1</v>
       </c>
-      <c r="I177">
-        <v>4</v>
-      </c>
       <c r="J177" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K177">
         <v>2</v>
       </c>
       <c r="L177">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M177">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N177">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O177">
         <v>3.5</v>
       </c>
       <c r="P177">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q177">
         <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5534723</v>
+        <v>5540309</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,73 +16307,73 @@
         <v>45073.47916666666</v>
       </c>
       <c r="F178" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G178" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J178" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K178">
         <v>2</v>
       </c>
       <c r="L178">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M178">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N178">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O178">
         <v>3.5</v>
       </c>
       <c r="P178">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q178">
         <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S178">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T178">
         <v>2.75</v>
       </c>
       <c r="U178">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V178">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z178">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB178">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16384,7 +16384,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5549224</v>
+        <v>5540441</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16396,76 +16396,76 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K179">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="L179">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M179">
-        <v>13</v>
+        <v>2.375</v>
       </c>
       <c r="N179">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="O179">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="P179">
-        <v>11</v>
+        <v>2.15</v>
       </c>
       <c r="Q179">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R179">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S179">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T179">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U179">
+        <v>2.025</v>
+      </c>
+      <c r="V179">
         <v>1.825</v>
       </c>
-      <c r="V179">
-        <v>2.025</v>
-      </c>
       <c r="W179">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16473,7 +16473,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5540441</v>
+        <v>5549224</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16485,76 +16485,76 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K180">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="L180">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M180">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="N180">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="O180">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="P180">
-        <v>2.15</v>
+        <v>11</v>
       </c>
       <c r="Q180">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R180">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T180">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U180">
+        <v>1.825</v>
+      </c>
+      <c r="V180">
         <v>2.025</v>
       </c>
-      <c r="V180">
-        <v>1.825</v>
-      </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA180">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC180">
-        <v>0.825</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -22436,7 +22436,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6876518</v>
+        <v>6876515</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22448,49 +22448,49 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F247" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G247" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J247" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K247">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L247">
         <v>3.2</v>
       </c>
       <c r="M247">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N247">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O247">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P247">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q247">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R247">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S247">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T247">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U247">
         <v>1.95</v>
@@ -22499,25 +22499,25 @@
         <v>1.9</v>
       </c>
       <c r="W247">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X247">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA247">
-        <v>0.445</v>
+        <v>-1</v>
       </c>
       <c r="AB247">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC247">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22525,7 +22525,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6876515</v>
+        <v>6876518</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22537,49 +22537,49 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F248" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G248" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H248">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J248" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K248">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L248">
         <v>3.2</v>
       </c>
       <c r="M248">
+        <v>2.875</v>
+      </c>
+      <c r="N248">
+        <v>2.2</v>
+      </c>
+      <c r="O248">
+        <v>3.2</v>
+      </c>
+      <c r="P248">
+        <v>3.1</v>
+      </c>
+      <c r="Q248">
+        <v>-0.25</v>
+      </c>
+      <c r="R248">
+        <v>2.01</v>
+      </c>
+      <c r="S248">
+        <v>1.89</v>
+      </c>
+      <c r="T248">
         <v>2.5</v>
-      </c>
-      <c r="N248">
-        <v>2.5</v>
-      </c>
-      <c r="O248">
-        <v>3.4</v>
-      </c>
-      <c r="P248">
-        <v>2.45</v>
-      </c>
-      <c r="Q248">
-        <v>0</v>
-      </c>
-      <c r="R248">
-        <v>2</v>
-      </c>
-      <c r="S248">
-        <v>1.9</v>
-      </c>
-      <c r="T248">
-        <v>2.75</v>
       </c>
       <c r="U248">
         <v>1.95</v>
@@ -22588,25 +22588,25 @@
         <v>1.9</v>
       </c>
       <c r="W248">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X248">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA248">
-        <v>-1</v>
+        <v>0.445</v>
       </c>
       <c r="AB248">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22792,7 +22792,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6876517</v>
+        <v>6876516</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22804,55 +22804,55 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F251" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G251" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J251" t="s">
         <v>50</v>
       </c>
       <c r="K251">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L251">
         <v>3.1</v>
       </c>
       <c r="M251">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N251">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O251">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P251">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q251">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R251">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S251">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T251">
         <v>2.25</v>
       </c>
       <c r="U251">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V251">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W251">
         <v>-1</v>
@@ -22861,19 +22861,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC251">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22881,7 +22881,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6876516</v>
+        <v>6876517</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22893,55 +22893,55 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F252" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G252" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252">
         <v>1</v>
-      </c>
-      <c r="I252">
-        <v>3</v>
       </c>
       <c r="J252" t="s">
         <v>50</v>
       </c>
       <c r="K252">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L252">
         <v>3.1</v>
       </c>
       <c r="M252">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N252">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O252">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P252">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R252">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S252">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T252">
         <v>2.25</v>
       </c>
       <c r="U252">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V252">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W252">
         <v>-1</v>
@@ -22950,19 +22950,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB252">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC252">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -24305,7 +24305,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6876531</v>
+        <v>6875463</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24317,76 +24317,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F268" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G268" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K268">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L268">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M268">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N268">
+        <v>2.875</v>
+      </c>
+      <c r="O268">
+        <v>3.3</v>
+      </c>
+      <c r="P268">
+        <v>2.4</v>
+      </c>
+      <c r="Q268">
+        <v>0</v>
+      </c>
+      <c r="R268">
         <v>2.1</v>
       </c>
-      <c r="O268">
-        <v>3.4</v>
-      </c>
-      <c r="P268">
-        <v>3.4</v>
-      </c>
-      <c r="Q268">
-        <v>-0.25</v>
-      </c>
-      <c r="R268">
-        <v>1.875</v>
-      </c>
       <c r="S268">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T268">
         <v>2.25</v>
       </c>
       <c r="U268">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V268">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W268">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X268">
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z268">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA268">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB268">
         <v>-1</v>
       </c>
       <c r="AC268">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24394,7 +24394,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6875463</v>
+        <v>6876531</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24406,76 +24406,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F269" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G269" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
         <v>1</v>
       </c>
-      <c r="I269">
-        <v>0</v>
-      </c>
       <c r="J269" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K269">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="L269">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M269">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N269">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="O269">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P269">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q269">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R269">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S269">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T269">
         <v>2.25</v>
       </c>
       <c r="U269">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V269">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W269">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X269">
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z269">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA269">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB269">
         <v>-1</v>
       </c>
       <c r="AC269">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -27509,7 +27509,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6875467</v>
+        <v>6876563</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27521,40 +27521,40 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F304" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G304" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H304">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I304">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J304" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K304">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="L304">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M304">
-        <v>3.9</v>
+        <v>2.55</v>
       </c>
       <c r="N304">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O304">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P304">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q304">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R304">
         <v>1.875</v>
@@ -27563,31 +27563,31 @@
         <v>1.975</v>
       </c>
       <c r="T304">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U304">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V304">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W304">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X304">
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z304">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA304">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB304">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC304">
         <v>-1</v>
@@ -27598,7 +27598,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6876563</v>
+        <v>6875467</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27610,40 +27610,40 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F305" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G305" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I305">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J305" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K305">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="L305">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M305">
-        <v>2.55</v>
+        <v>3.9</v>
       </c>
       <c r="N305">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O305">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P305">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q305">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R305">
         <v>1.875</v>
@@ -27652,31 +27652,31 @@
         <v>1.975</v>
       </c>
       <c r="T305">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U305">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V305">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W305">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X305">
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z305">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA305">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB305">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC305">
         <v>-1</v>
@@ -27954,7 +27954,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6876571</v>
+        <v>6875468</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27966,67 +27966,67 @@
         <v>45283.52083333334</v>
       </c>
       <c r="F309" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G309" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309">
         <v>0</v>
       </c>
       <c r="J309" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K309">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L309">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M309">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N309">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="O309">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P309">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q309">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R309">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S309">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T309">
         <v>2.25</v>
       </c>
       <c r="U309">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V309">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W309">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X309">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y309">
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>0.4875</v>
+        <v>0.4</v>
       </c>
       <c r="AA309">
         <v>-0.5</v>
@@ -28035,7 +28035,7 @@
         <v>-1</v>
       </c>
       <c r="AC309">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28043,7 +28043,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6875468</v>
+        <v>6876571</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28055,67 +28055,67 @@
         <v>45283.52083333334</v>
       </c>
       <c r="F310" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G310" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I310">
         <v>0</v>
       </c>
       <c r="J310" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K310">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L310">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M310">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N310">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="O310">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P310">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q310">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R310">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S310">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T310">
         <v>2.25</v>
       </c>
       <c r="U310">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V310">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W310">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X310">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0.4</v>
+        <v>0.4875</v>
       </c>
       <c r="AA310">
         <v>-0.5</v>
@@ -28124,7 +28124,7 @@
         <v>-1</v>
       </c>
       <c r="AC310">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -30001,7 +30001,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6876591</v>
+        <v>6876586</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30013,40 +30013,40 @@
         <v>45305.625</v>
       </c>
       <c r="F332" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G332" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H332">
+        <v>4</v>
+      </c>
+      <c r="I332">
         <v>1</v>
       </c>
-      <c r="I332">
-        <v>4</v>
-      </c>
       <c r="J332" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K332">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="L332">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="M332">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="N332">
-        <v>1.95</v>
+        <v>1.2</v>
       </c>
       <c r="O332">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="P332">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q332">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R332">
         <v>2.025</v>
@@ -30055,31 +30055,31 @@
         <v>1.825</v>
       </c>
       <c r="T332">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U332">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V332">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W332">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X332">
         <v>-1</v>
       </c>
       <c r="Y332">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z332">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA332">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB332">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC332">
         <v>-1</v>
@@ -30090,7 +30090,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6876586</v>
+        <v>6876591</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30102,40 +30102,40 @@
         <v>45305.625</v>
       </c>
       <c r="F333" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G333" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H333">
+        <v>1</v>
+      </c>
+      <c r="I333">
         <v>4</v>
       </c>
-      <c r="I333">
-        <v>1</v>
-      </c>
       <c r="J333" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K333">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="L333">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="M333">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="N333">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="O333">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="P333">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q333">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R333">
         <v>2.025</v>
@@ -30144,31 +30144,31 @@
         <v>1.825</v>
       </c>
       <c r="T333">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U333">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V333">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W333">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X333">
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z333">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA333">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB333">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC333">
         <v>-1</v>
@@ -31158,7 +31158,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6876608</v>
+        <v>6875472</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31170,49 +31170,49 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F345" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G345" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H345">
         <v>1</v>
       </c>
       <c r="I345">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J345" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K345">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L345">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M345">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N345">
+        <v>2.375</v>
+      </c>
+      <c r="O345">
+        <v>3.2</v>
+      </c>
+      <c r="P345">
+        <v>3.2</v>
+      </c>
+      <c r="Q345">
+        <v>-0.25</v>
+      </c>
+      <c r="R345">
+        <v>2.1</v>
+      </c>
+      <c r="S345">
+        <v>1.775</v>
+      </c>
+      <c r="T345">
         <v>2</v>
-      </c>
-      <c r="O345">
-        <v>3.3</v>
-      </c>
-      <c r="P345">
-        <v>4</v>
-      </c>
-      <c r="Q345">
-        <v>-0.5</v>
-      </c>
-      <c r="R345">
-        <v>2.025</v>
-      </c>
-      <c r="S345">
-        <v>1.825</v>
-      </c>
-      <c r="T345">
-        <v>2.25</v>
       </c>
       <c r="U345">
         <v>1.825</v>
@@ -31221,25 +31221,25 @@
         <v>2.025</v>
       </c>
       <c r="W345">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X345">
         <v>-1</v>
       </c>
       <c r="Y345">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z345">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA345">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB345">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC345">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31247,7 +31247,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6875472</v>
+        <v>6876608</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31259,49 +31259,49 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F346" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G346" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H346">
         <v>1</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J346" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K346">
+        <v>1.727</v>
+      </c>
+      <c r="L346">
+        <v>3.6</v>
+      </c>
+      <c r="M346">
+        <v>4.75</v>
+      </c>
+      <c r="N346">
+        <v>2</v>
+      </c>
+      <c r="O346">
+        <v>3.3</v>
+      </c>
+      <c r="P346">
+        <v>4</v>
+      </c>
+      <c r="Q346">
+        <v>-0.5</v>
+      </c>
+      <c r="R346">
+        <v>2.025</v>
+      </c>
+      <c r="S346">
+        <v>1.825</v>
+      </c>
+      <c r="T346">
         <v>2.25</v>
-      </c>
-      <c r="L346">
-        <v>3.3</v>
-      </c>
-      <c r="M346">
-        <v>3.2</v>
-      </c>
-      <c r="N346">
-        <v>2.375</v>
-      </c>
-      <c r="O346">
-        <v>3.2</v>
-      </c>
-      <c r="P346">
-        <v>3.2</v>
-      </c>
-      <c r="Q346">
-        <v>-0.25</v>
-      </c>
-      <c r="R346">
-        <v>2.1</v>
-      </c>
-      <c r="S346">
-        <v>1.775</v>
-      </c>
-      <c r="T346">
-        <v>2</v>
       </c>
       <c r="U346">
         <v>1.825</v>
@@ -31310,25 +31310,25 @@
         <v>2.025</v>
       </c>
       <c r="W346">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X346">
         <v>-1</v>
       </c>
       <c r="Y346">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z346">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA346">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB346">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC346">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -33917,7 +33917,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6876633</v>
+        <v>6876630</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33929,73 +33929,73 @@
         <v>45340.625</v>
       </c>
       <c r="F376" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G376" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H376">
+        <v>6</v>
+      </c>
+      <c r="I376">
         <v>1</v>
       </c>
-      <c r="I376">
-        <v>3</v>
-      </c>
       <c r="J376" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K376">
-        <v>2.2</v>
+        <v>1.111</v>
       </c>
       <c r="L376">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="M376">
-        <v>3.2</v>
+        <v>21</v>
       </c>
       <c r="N376">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="O376">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="P376">
-        <v>3.5</v>
+        <v>23</v>
       </c>
       <c r="Q376">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R376">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S376">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="T376">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U376">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V376">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W376">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X376">
         <v>-1</v>
       </c>
       <c r="Y376">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z376">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA376">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB376">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC376">
         <v>-1</v>
@@ -34006,7 +34006,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>6876630</v>
+        <v>6876633</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34018,73 +34018,73 @@
         <v>45340.625</v>
       </c>
       <c r="F377" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G377" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H377">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I377">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J377" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K377">
-        <v>1.111</v>
+        <v>2.2</v>
       </c>
       <c r="L377">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="M377">
-        <v>21</v>
+        <v>3.2</v>
       </c>
       <c r="N377">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="O377">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="P377">
-        <v>23</v>
+        <v>3.5</v>
       </c>
       <c r="Q377">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R377">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S377">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T377">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U377">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V377">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W377">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X377">
         <v>-1</v>
       </c>
       <c r="Y377">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z377">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA377">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB377">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC377">
         <v>-1</v>
@@ -34300,31 +34300,31 @@
         <v>3.4</v>
       </c>
       <c r="N380">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O380">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P380">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q380">
         <v>-0.25</v>
       </c>
       <c r="R380">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="S380">
-        <v>2.01</v>
+        <v>1.97</v>
       </c>
       <c r="T380">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U380">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V380">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W380">
         <v>0</v>
@@ -34374,31 +34374,31 @@
         <v>2.625</v>
       </c>
       <c r="N381">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="O381">
         <v>3.3</v>
       </c>
       <c r="P381">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q381">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R381">
-        <v>1.89</v>
+        <v>2.125</v>
       </c>
       <c r="S381">
-        <v>2.01</v>
+        <v>1.78</v>
       </c>
       <c r="T381">
         <v>2.25</v>
       </c>
       <c r="U381">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V381">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W381">
         <v>0</v>
@@ -34454,25 +34454,25 @@
         <v>3.3</v>
       </c>
       <c r="P382">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q382">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R382">
+        <v>1.81</v>
+      </c>
+      <c r="S382">
         <v>2.09</v>
-      </c>
-      <c r="S382">
-        <v>1.81</v>
       </c>
       <c r="T382">
         <v>2.25</v>
       </c>
       <c r="U382">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V382">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W382">
         <v>0</v>
@@ -34522,10 +34522,10 @@
         <v>5.25</v>
       </c>
       <c r="N383">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O383">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P383">
         <v>6</v>
@@ -34534,19 +34534,19 @@
         <v>-1</v>
       </c>
       <c r="R383">
-        <v>2.02</v>
+        <v>2.09</v>
       </c>
       <c r="S383">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="T383">
         <v>2.25</v>
       </c>
       <c r="U383">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V383">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W383">
         <v>0</v>
@@ -34596,7 +34596,7 @@
         <v>2.875</v>
       </c>
       <c r="N384">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O384">
         <v>3.25</v>
@@ -34608,19 +34608,19 @@
         <v>0</v>
       </c>
       <c r="R384">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S384">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="T384">
         <v>2.5</v>
       </c>
       <c r="U384">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V384">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W384">
         <v>0</v>
@@ -34670,10 +34670,10 @@
         <v>1.363</v>
       </c>
       <c r="N385">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="O385">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P385">
         <v>1.4</v>
@@ -34682,19 +34682,19 @@
         <v>1.25</v>
       </c>
       <c r="R385">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="S385">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T385">
         <v>2.75</v>
       </c>
       <c r="U385">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V385">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W385">
         <v>0</v>
@@ -34744,31 +34744,31 @@
         <v>21</v>
       </c>
       <c r="N386">
-        <v>1.111</v>
+        <v>1.125</v>
       </c>
       <c r="O386">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="P386">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q386">
         <v>-2.5</v>
       </c>
       <c r="R386">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="S386">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="T386">
         <v>3.5</v>
       </c>
       <c r="U386">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V386">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W386">
         <v>0</v>
@@ -34830,10 +34830,10 @@
         <v>1.25</v>
       </c>
       <c r="R387">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="S387">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="T387">
         <v>2.75</v>
@@ -34892,31 +34892,31 @@
         <v>1.727</v>
       </c>
       <c r="N388">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O388">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P388">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="Q388">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R388">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="S388">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="T388">
         <v>2.75</v>
       </c>
       <c r="U388">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V388">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W388">
         <v>0</v>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -3123,7 +3123,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5265613</v>
+        <v>5265726</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3135,13 +3135,13 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -3150,43 +3150,43 @@
         <v>51</v>
       </c>
       <c r="K30">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M30">
+        <v>3.5</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <v>3.3</v>
+      </c>
+      <c r="P30">
         <v>3.8</v>
-      </c>
-      <c r="N30">
-        <v>1.95</v>
-      </c>
-      <c r="O30">
-        <v>3</v>
-      </c>
-      <c r="P30">
-        <v>4.5</v>
       </c>
       <c r="Q30">
         <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V30">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W30">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3195,13 +3195,13 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3212,7 +3212,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5265726</v>
+        <v>5265613</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3224,13 +3224,13 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -3239,43 +3239,43 @@
         <v>51</v>
       </c>
       <c r="K31">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L31">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M31">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O31">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P31">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q31">
         <v>-0.5</v>
       </c>
       <c r="R31">
+        <v>1.975</v>
+      </c>
+      <c r="S31">
+        <v>1.875</v>
+      </c>
+      <c r="T31">
         <v>2</v>
       </c>
-      <c r="S31">
-        <v>1.85</v>
-      </c>
-      <c r="T31">
-        <v>2.25</v>
-      </c>
       <c r="U31">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V31">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3284,13 +3284,13 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -8018,7 +8018,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5265747</v>
+        <v>5265642</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8030,13 +8030,13 @@
         <v>44996.52083333334</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -8045,43 +8045,43 @@
         <v>51</v>
       </c>
       <c r="K85">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L85">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M85">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O85">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
+        <v>2.05</v>
+      </c>
+      <c r="S85">
+        <v>1.8</v>
+      </c>
+      <c r="T85">
         <v>2</v>
       </c>
-      <c r="S85">
-        <v>1.85</v>
-      </c>
-      <c r="T85">
-        <v>2.25</v>
-      </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W85">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8090,16 +8090,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8107,7 +8107,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5265642</v>
+        <v>5265747</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8119,13 +8119,13 @@
         <v>44996.52083333334</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -8134,61 +8134,61 @@
         <v>51</v>
       </c>
       <c r="K86">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L86">
+        <v>3.3</v>
+      </c>
+      <c r="M86">
         <v>3.25</v>
       </c>
-      <c r="M86">
+      <c r="N86">
+        <v>2.3</v>
+      </c>
+      <c r="O86">
+        <v>3.3</v>
+      </c>
+      <c r="P86">
         <v>3</v>
       </c>
-      <c r="N86">
+      <c r="Q86">
+        <v>-0.25</v>
+      </c>
+      <c r="R86">
         <v>2</v>
       </c>
-      <c r="O86">
-        <v>3.4</v>
-      </c>
-      <c r="P86">
-        <v>3.6</v>
-      </c>
-      <c r="Q86">
+      <c r="S86">
+        <v>1.85</v>
+      </c>
+      <c r="T86">
+        <v>2.25</v>
+      </c>
+      <c r="U86">
+        <v>1.85</v>
+      </c>
+      <c r="V86">
+        <v>2</v>
+      </c>
+      <c r="W86">
+        <v>1.3</v>
+      </c>
+      <c r="X86">
+        <v>-1</v>
+      </c>
+      <c r="Y86">
+        <v>-1</v>
+      </c>
+      <c r="Z86">
+        <v>1</v>
+      </c>
+      <c r="AA86">
+        <v>-1</v>
+      </c>
+      <c r="AB86">
         <v>-0.5</v>
       </c>
-      <c r="R86">
-        <v>2.05</v>
-      </c>
-      <c r="S86">
-        <v>1.8</v>
-      </c>
-      <c r="T86">
-        <v>2</v>
-      </c>
-      <c r="U86">
-        <v>1.75</v>
-      </c>
-      <c r="V86">
-        <v>2.05</v>
-      </c>
-      <c r="W86">
-        <v>1</v>
-      </c>
-      <c r="X86">
-        <v>-1</v>
-      </c>
-      <c r="Y86">
-        <v>-1</v>
-      </c>
-      <c r="Z86">
-        <v>1.05</v>
-      </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
-      <c r="AB86">
-        <v>-1</v>
-      </c>
       <c r="AC86">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5265751</v>
+        <v>5265654</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,73 +9810,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K105">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M105">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N105">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P105">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="Q105">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9887,7 +9887,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5265654</v>
+        <v>5265751</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9899,73 +9899,73 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K106">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L106">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N106">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O106">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P106">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R106">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="S106">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T106">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W106">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z106">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5265754</v>
+        <v>5265660</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,73 +10700,73 @@
         <v>45024.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J115" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K115">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L115">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M115">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N115">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O115">
         <v>3</v>
       </c>
       <c r="P115">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q115">
         <v>0</v>
       </c>
       <c r="R115">
-        <v>1.775</v>
+        <v>2.01</v>
       </c>
       <c r="S115">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="T115">
         <v>2</v>
       </c>
       <c r="U115">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V115">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB115">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10777,7 +10777,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5265660</v>
+        <v>5265754</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10789,73 +10789,73 @@
         <v>45024.58333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116" t="s">
+        <v>52</v>
+      </c>
+      <c r="K116">
+        <v>2.6</v>
+      </c>
+      <c r="L116">
         <v>3</v>
       </c>
-      <c r="J116" t="s">
-        <v>50</v>
-      </c>
-      <c r="K116">
-        <v>2.7</v>
-      </c>
-      <c r="L116">
-        <v>3.1</v>
-      </c>
       <c r="M116">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N116">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="O116">
         <v>3</v>
       </c>
       <c r="P116">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q116">
         <v>0</v>
       </c>
       <c r="R116">
-        <v>2.01</v>
+        <v>1.775</v>
       </c>
       <c r="S116">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="T116">
         <v>2</v>
       </c>
       <c r="U116">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V116">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y116">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>0.8899999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB116">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -12379,7 +12379,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>5265675</v>
+        <v>5265671</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12391,76 +12391,76 @@
         <v>45039.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H134">
         <v>1</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K134">
-        <v>1.111</v>
+        <v>2.7</v>
       </c>
       <c r="L134">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="M134">
-        <v>17</v>
+        <v>2.7</v>
       </c>
       <c r="N134">
-        <v>1.142</v>
+        <v>2.6</v>
       </c>
       <c r="O134">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="P134">
-        <v>15</v>
+        <v>2.7</v>
       </c>
       <c r="Q134">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T134">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
+        <v>1.95</v>
+      </c>
+      <c r="V134">
         <v>1.9</v>
       </c>
-      <c r="V134">
-        <v>1.95</v>
-      </c>
       <c r="W134">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA134">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC134">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12468,7 +12468,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5265671</v>
+        <v>5265675</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12480,76 +12480,76 @@
         <v>45039.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G135" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K135">
-        <v>2.7</v>
+        <v>1.111</v>
       </c>
       <c r="L135">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="M135">
-        <v>2.7</v>
+        <v>17</v>
       </c>
       <c r="N135">
-        <v>2.6</v>
+        <v>1.142</v>
       </c>
       <c r="O135">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="P135">
-        <v>2.7</v>
+        <v>15</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R135">
+        <v>2</v>
+      </c>
+      <c r="S135">
+        <v>1.85</v>
+      </c>
+      <c r="T135">
+        <v>3.25</v>
+      </c>
+      <c r="U135">
         <v>1.9</v>
       </c>
-      <c r="S135">
+      <c r="V135">
         <v>1.95</v>
       </c>
-      <c r="T135">
-        <v>2.25</v>
-      </c>
-      <c r="U135">
-        <v>1.95</v>
-      </c>
-      <c r="V135">
-        <v>1.9</v>
-      </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X135">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5498499</v>
+        <v>5498498</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,10 +15239,10 @@
         <v>45066.47916666666</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15254,43 +15254,43 @@
         <v>51</v>
       </c>
       <c r="K166">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L166">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M166">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="N166">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O166">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q166">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S166">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
+        <v>1.85</v>
+      </c>
+      <c r="V166">
         <v>2</v>
       </c>
-      <c r="V166">
-        <v>1.85</v>
-      </c>
       <c r="W166">
-        <v>0.909</v>
+        <v>0.7</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15299,16 +15299,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5498498</v>
+        <v>5498499</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,10 +15328,10 @@
         <v>45066.47916666666</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15343,43 +15343,43 @@
         <v>51</v>
       </c>
       <c r="K167">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L167">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M167">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="N167">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O167">
+        <v>3.4</v>
+      </c>
+      <c r="P167">
         <v>3.6</v>
       </c>
-      <c r="P167">
-        <v>4.333</v>
-      </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S167">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
+        <v>2</v>
+      </c>
+      <c r="V167">
         <v>1.85</v>
       </c>
-      <c r="V167">
-        <v>2</v>
-      </c>
       <c r="W167">
-        <v>0.7</v>
+        <v>0.909</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15388,16 +15388,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -16384,7 +16384,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5540441</v>
+        <v>5549224</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16396,76 +16396,76 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K179">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="L179">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M179">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="N179">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="O179">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="P179">
-        <v>2.15</v>
+        <v>11</v>
       </c>
       <c r="Q179">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R179">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S179">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T179">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U179">
+        <v>1.825</v>
+      </c>
+      <c r="V179">
         <v>2.025</v>
       </c>
-      <c r="V179">
-        <v>1.825</v>
-      </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA179">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC179">
-        <v>0.825</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16473,7 +16473,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5549224</v>
+        <v>5545146</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16485,10 +16485,10 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -16500,43 +16500,43 @@
         <v>51</v>
       </c>
       <c r="K180">
-        <v>1.2</v>
+        <v>1.083</v>
       </c>
       <c r="L180">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="M180">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="N180">
-        <v>1.2</v>
+        <v>1.062</v>
       </c>
       <c r="O180">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P180">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="Q180">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S180">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T180">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U180">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V180">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W180">
-        <v>0.2</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16545,16 +16545,16 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16562,7 +16562,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>5545146</v>
+        <v>5540441</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16574,76 +16574,76 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K181">
-        <v>1.083</v>
+        <v>2.8</v>
       </c>
       <c r="L181">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M181">
-        <v>34</v>
+        <v>2.375</v>
       </c>
       <c r="N181">
-        <v>1.062</v>
+        <v>3.1</v>
       </c>
       <c r="O181">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="P181">
-        <v>26</v>
+        <v>2.15</v>
       </c>
       <c r="Q181">
-        <v>-3</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
+        <v>1.975</v>
+      </c>
+      <c r="S181">
+        <v>1.875</v>
+      </c>
+      <c r="T181">
+        <v>2.75</v>
+      </c>
+      <c r="U181">
         <v>2.025</v>
       </c>
-      <c r="S181">
+      <c r="V181">
         <v>1.825</v>
       </c>
-      <c r="T181">
-        <v>4</v>
-      </c>
-      <c r="U181">
-        <v>1.925</v>
-      </c>
-      <c r="V181">
-        <v>1.925</v>
-      </c>
       <c r="W181">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -17808,7 +17808,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6876471</v>
+        <v>6876465</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17820,76 +17820,76 @@
         <v>45157.6875</v>
       </c>
       <c r="F195" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G195" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K195">
-        <v>2.45</v>
+        <v>1.125</v>
       </c>
       <c r="L195">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M195">
-        <v>2.875</v>
+        <v>19</v>
       </c>
       <c r="N195">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="O195">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P195">
-        <v>2.3</v>
+        <v>17</v>
       </c>
       <c r="Q195">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R195">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S195">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T195">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U195">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V195">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA195">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB195">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17897,7 +17897,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6876465</v>
+        <v>6876471</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17909,76 +17909,76 @@
         <v>45157.6875</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G196" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196">
+        <v>4</v>
+      </c>
+      <c r="J196" t="s">
+        <v>50</v>
+      </c>
+      <c r="K196">
+        <v>2.45</v>
+      </c>
+      <c r="L196">
+        <v>3.25</v>
+      </c>
+      <c r="M196">
+        <v>2.875</v>
+      </c>
+      <c r="N196">
+        <v>3</v>
+      </c>
+      <c r="O196">
+        <v>3.3</v>
+      </c>
+      <c r="P196">
+        <v>2.3</v>
+      </c>
+      <c r="Q196">
+        <v>0.25</v>
+      </c>
+      <c r="R196">
+        <v>1.85</v>
+      </c>
+      <c r="S196">
         <v>2</v>
       </c>
-      <c r="I196">
-        <v>0</v>
-      </c>
-      <c r="J196" t="s">
-        <v>51</v>
-      </c>
-      <c r="K196">
-        <v>1.125</v>
-      </c>
-      <c r="L196">
-        <v>8</v>
-      </c>
-      <c r="M196">
-        <v>19</v>
-      </c>
-      <c r="N196">
-        <v>1.142</v>
-      </c>
-      <c r="O196">
-        <v>7.5</v>
-      </c>
-      <c r="P196">
-        <v>17</v>
-      </c>
-      <c r="Q196">
-        <v>-2.25</v>
-      </c>
-      <c r="R196">
+      <c r="T196">
+        <v>2.25</v>
+      </c>
+      <c r="U196">
         <v>1.925</v>
       </c>
-      <c r="S196">
+      <c r="V196">
         <v>1.925</v>
       </c>
-      <c r="T196">
-        <v>3.5</v>
-      </c>
-      <c r="U196">
-        <v>1.875</v>
-      </c>
-      <c r="V196">
-        <v>1.975</v>
-      </c>
       <c r="W196">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z196">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC196">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -19232,7 +19232,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6876488</v>
+        <v>6876483</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19244,76 +19244,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G211" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K211">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L211">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M211">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N211">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O211">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P211">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q211">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R211">
+        <v>2.025</v>
+      </c>
+      <c r="S211">
         <v>1.825</v>
-      </c>
-      <c r="S211">
-        <v>2.025</v>
       </c>
       <c r="T211">
         <v>2.25</v>
       </c>
       <c r="U211">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V211">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X211">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA211">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19321,7 +19321,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6876483</v>
+        <v>6876488</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19333,76 +19333,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H212">
         <v>1</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K212">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L212">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M212">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N212">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O212">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P212">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q212">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R212">
+        <v>1.825</v>
+      </c>
+      <c r="S212">
         <v>2.025</v>
-      </c>
-      <c r="S212">
-        <v>1.825</v>
       </c>
       <c r="T212">
         <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V212">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W212">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC212">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -20300,7 +20300,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7165060</v>
+        <v>7165059</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20312,40 +20312,40 @@
         <v>45186.47916666666</v>
       </c>
       <c r="F223" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G223" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J223" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K223">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L223">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M223">
         <v>3.2</v>
       </c>
       <c r="N223">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="O223">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P223">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q223">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R223">
         <v>2</v>
@@ -20354,34 +20354,34 @@
         <v>1.85</v>
       </c>
       <c r="T223">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U223">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V223">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA223">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC223">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20389,7 +20389,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7165059</v>
+        <v>7165060</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20401,40 +20401,40 @@
         <v>45186.47916666666</v>
       </c>
       <c r="F224" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G224" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H224">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I224">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K224">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L224">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M224">
         <v>3.2</v>
       </c>
       <c r="N224">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="O224">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P224">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q224">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R224">
         <v>2</v>
@@ -20443,34 +20443,34 @@
         <v>1.85</v>
       </c>
       <c r="T224">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U224">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V224">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W224">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z224">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB224">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20834,7 +20834,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6876499</v>
+        <v>6875459</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20846,76 +20846,76 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F229" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G229" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K229">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L229">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M229">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N229">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O229">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P229">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R229">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S229">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T229">
         <v>2.5</v>
       </c>
       <c r="U229">
+        <v>1.95</v>
+      </c>
+      <c r="V229">
         <v>1.9</v>
       </c>
-      <c r="V229">
-        <v>1.95</v>
-      </c>
       <c r="W229">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X229">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA229">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
+        <v>-1</v>
+      </c>
+      <c r="AC229">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC229">
-        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20923,7 +20923,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6875459</v>
+        <v>6876499</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20935,76 +20935,76 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F230" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G230" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K230">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L230">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M230">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N230">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O230">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P230">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q230">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S230">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T230">
         <v>2.5</v>
       </c>
       <c r="U230">
+        <v>1.9</v>
+      </c>
+      <c r="V230">
         <v>1.95</v>
       </c>
-      <c r="V230">
-        <v>1.9</v>
-      </c>
       <c r="W230">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC230">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -22436,7 +22436,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6876515</v>
+        <v>6876518</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22448,49 +22448,49 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F247" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G247" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H247">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I247">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J247" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K247">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L247">
         <v>3.2</v>
       </c>
       <c r="M247">
+        <v>2.875</v>
+      </c>
+      <c r="N247">
+        <v>2.2</v>
+      </c>
+      <c r="O247">
+        <v>3.2</v>
+      </c>
+      <c r="P247">
+        <v>3.1</v>
+      </c>
+      <c r="Q247">
+        <v>-0.25</v>
+      </c>
+      <c r="R247">
+        <v>2.01</v>
+      </c>
+      <c r="S247">
+        <v>1.89</v>
+      </c>
+      <c r="T247">
         <v>2.5</v>
-      </c>
-      <c r="N247">
-        <v>2.5</v>
-      </c>
-      <c r="O247">
-        <v>3.4</v>
-      </c>
-      <c r="P247">
-        <v>2.45</v>
-      </c>
-      <c r="Q247">
-        <v>0</v>
-      </c>
-      <c r="R247">
-        <v>2</v>
-      </c>
-      <c r="S247">
-        <v>1.9</v>
-      </c>
-      <c r="T247">
-        <v>2.75</v>
       </c>
       <c r="U247">
         <v>1.95</v>
@@ -22499,25 +22499,25 @@
         <v>1.9</v>
       </c>
       <c r="W247">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X247">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y247">
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA247">
-        <v>-1</v>
+        <v>0.445</v>
       </c>
       <c r="AB247">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22525,7 +22525,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6876518</v>
+        <v>6876515</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22537,49 +22537,49 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F248" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G248" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J248" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K248">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L248">
         <v>3.2</v>
       </c>
       <c r="M248">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N248">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O248">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P248">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q248">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R248">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S248">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T248">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U248">
         <v>1.95</v>
@@ -22588,25 +22588,25 @@
         <v>1.9</v>
       </c>
       <c r="W248">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X248">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA248">
-        <v>0.445</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC248">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22792,7 +22792,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6876516</v>
+        <v>6876517</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22804,55 +22804,55 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F251" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G251" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
         <v>1</v>
-      </c>
-      <c r="I251">
-        <v>3</v>
       </c>
       <c r="J251" t="s">
         <v>50</v>
       </c>
       <c r="K251">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L251">
         <v>3.1</v>
       </c>
       <c r="M251">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N251">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O251">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P251">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R251">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S251">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T251">
         <v>2.25</v>
       </c>
       <c r="U251">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V251">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W251">
         <v>-1</v>
@@ -22861,19 +22861,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB251">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC251">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22881,7 +22881,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6876517</v>
+        <v>6876516</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22893,55 +22893,55 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F252" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G252" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J252" t="s">
         <v>50</v>
       </c>
       <c r="K252">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L252">
         <v>3.1</v>
       </c>
       <c r="M252">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N252">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O252">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P252">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q252">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S252">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T252">
         <v>2.25</v>
       </c>
       <c r="U252">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V252">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W252">
         <v>-1</v>
@@ -22950,19 +22950,19 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC252">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23326,7 +23326,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6876523</v>
+        <v>6876528</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23338,76 +23338,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F257" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G257" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K257">
-        <v>1.166</v>
+        <v>1.75</v>
       </c>
       <c r="L257">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M257">
-        <v>15</v>
+        <v>4.75</v>
       </c>
       <c r="N257">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="O257">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P257">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q257">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R257">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S257">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T257">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U257">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V257">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W257">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X257">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA257">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC257">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23415,7 +23415,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6876528</v>
+        <v>6876523</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23427,76 +23427,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F258" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G258" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H258">
+        <v>1</v>
+      </c>
+      <c r="I258">
+        <v>1</v>
+      </c>
+      <c r="J258" t="s">
+        <v>52</v>
+      </c>
+      <c r="K258">
+        <v>1.166</v>
+      </c>
+      <c r="L258">
+        <v>7</v>
+      </c>
+      <c r="M258">
+        <v>15</v>
+      </c>
+      <c r="N258">
+        <v>1.222</v>
+      </c>
+      <c r="O258">
+        <v>6</v>
+      </c>
+      <c r="P258">
+        <v>11</v>
+      </c>
+      <c r="Q258">
+        <v>-1.75</v>
+      </c>
+      <c r="R258">
+        <v>1.875</v>
+      </c>
+      <c r="S258">
+        <v>1.975</v>
+      </c>
+      <c r="T258">
+        <v>3</v>
+      </c>
+      <c r="U258">
+        <v>1.95</v>
+      </c>
+      <c r="V258">
+        <v>1.9</v>
+      </c>
+      <c r="W258">
+        <v>-1</v>
+      </c>
+      <c r="X258">
         <v>5</v>
       </c>
-      <c r="I258">
-        <v>0</v>
-      </c>
-      <c r="J258" t="s">
-        <v>51</v>
-      </c>
-      <c r="K258">
-        <v>1.75</v>
-      </c>
-      <c r="L258">
-        <v>3.6</v>
-      </c>
-      <c r="M258">
-        <v>4.75</v>
-      </c>
-      <c r="N258">
-        <v>1.666</v>
-      </c>
-      <c r="O258">
-        <v>3.75</v>
-      </c>
-      <c r="P258">
-        <v>5</v>
-      </c>
-      <c r="Q258">
-        <v>-0.75</v>
-      </c>
-      <c r="R258">
-        <v>1.9</v>
-      </c>
-      <c r="S258">
-        <v>2</v>
-      </c>
-      <c r="T258">
-        <v>2.5</v>
-      </c>
-      <c r="U258">
-        <v>1.925</v>
-      </c>
-      <c r="V258">
-        <v>1.925</v>
-      </c>
-      <c r="W258">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X258">
-        <v>-1</v>
-      </c>
       <c r="Y258">
         <v>-1</v>
       </c>
       <c r="Z258">
+        <v>-1</v>
+      </c>
+      <c r="AA258">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB258">
+        <v>-1</v>
+      </c>
+      <c r="AC258">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA258">
-        <v>-1</v>
-      </c>
-      <c r="AB258">
-        <v>0.925</v>
-      </c>
-      <c r="AC258">
-        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -24928,7 +24928,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6876543</v>
+        <v>6875464</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24940,49 +24940,49 @@
         <v>45241.625</v>
       </c>
       <c r="F275" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G275" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H275">
         <v>0</v>
       </c>
       <c r="I275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K275">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L275">
         <v>3.2</v>
       </c>
       <c r="M275">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N275">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O275">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P275">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q275">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R275">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S275">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T275">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U275">
         <v>2</v>
@@ -24994,16 +24994,16 @@
         <v>-1</v>
       </c>
       <c r="X275">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y275">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z275">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA275">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AB275">
         <v>-1</v>
@@ -25017,7 +25017,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6875464</v>
+        <v>6876543</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25029,49 +25029,49 @@
         <v>45241.625</v>
       </c>
       <c r="F276" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G276" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H276">
         <v>0</v>
       </c>
       <c r="I276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J276" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K276">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L276">
         <v>3.2</v>
       </c>
       <c r="M276">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N276">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O276">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P276">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q276">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R276">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S276">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T276">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U276">
         <v>2</v>
@@ -25083,16 +25083,16 @@
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y276">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA276">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AB276">
         <v>-1</v>
@@ -27954,7 +27954,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6875468</v>
+        <v>6876571</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27966,67 +27966,67 @@
         <v>45283.52083333334</v>
       </c>
       <c r="F309" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G309" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I309">
         <v>0</v>
       </c>
       <c r="J309" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K309">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L309">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M309">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N309">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="O309">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P309">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q309">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R309">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S309">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T309">
         <v>2.25</v>
       </c>
       <c r="U309">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V309">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W309">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X309">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y309">
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>0.4</v>
+        <v>0.4875</v>
       </c>
       <c r="AA309">
         <v>-0.5</v>
@@ -28035,7 +28035,7 @@
         <v>-1</v>
       </c>
       <c r="AC309">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28043,7 +28043,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6876571</v>
+        <v>6875468</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28055,67 +28055,67 @@
         <v>45283.52083333334</v>
       </c>
       <c r="F310" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G310" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310">
         <v>0</v>
       </c>
       <c r="J310" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K310">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L310">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M310">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N310">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="O310">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P310">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q310">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R310">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S310">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T310">
         <v>2.25</v>
       </c>
       <c r="U310">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V310">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W310">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X310">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0.4875</v>
+        <v>0.4</v>
       </c>
       <c r="AA310">
         <v>-0.5</v>
@@ -28124,7 +28124,7 @@
         <v>-1</v>
       </c>
       <c r="AC310">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -30001,7 +30001,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6876586</v>
+        <v>6876591</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30013,40 +30013,40 @@
         <v>45305.625</v>
       </c>
       <c r="F332" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G332" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H332">
+        <v>1</v>
+      </c>
+      <c r="I332">
         <v>4</v>
       </c>
-      <c r="I332">
-        <v>1</v>
-      </c>
       <c r="J332" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K332">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="L332">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="M332">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="N332">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="O332">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="P332">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q332">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R332">
         <v>2.025</v>
@@ -30055,31 +30055,31 @@
         <v>1.825</v>
       </c>
       <c r="T332">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U332">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V332">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W332">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X332">
         <v>-1</v>
       </c>
       <c r="Y332">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z332">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA332">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB332">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC332">
         <v>-1</v>
@@ -30090,7 +30090,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6876591</v>
+        <v>6876586</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30102,40 +30102,40 @@
         <v>45305.625</v>
       </c>
       <c r="F333" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G333" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H333">
+        <v>4</v>
+      </c>
+      <c r="I333">
         <v>1</v>
       </c>
-      <c r="I333">
-        <v>4</v>
-      </c>
       <c r="J333" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K333">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="L333">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="M333">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="N333">
-        <v>1.95</v>
+        <v>1.2</v>
       </c>
       <c r="O333">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="P333">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q333">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R333">
         <v>2.025</v>
@@ -30144,31 +30144,31 @@
         <v>1.825</v>
       </c>
       <c r="T333">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U333">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V333">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W333">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X333">
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z333">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA333">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB333">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC333">
         <v>-1</v>
@@ -31158,7 +31158,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6875472</v>
+        <v>6876608</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31170,49 +31170,49 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F345" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G345" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H345">
         <v>1</v>
       </c>
       <c r="I345">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J345" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K345">
+        <v>1.727</v>
+      </c>
+      <c r="L345">
+        <v>3.6</v>
+      </c>
+      <c r="M345">
+        <v>4.75</v>
+      </c>
+      <c r="N345">
+        <v>2</v>
+      </c>
+      <c r="O345">
+        <v>3.3</v>
+      </c>
+      <c r="P345">
+        <v>4</v>
+      </c>
+      <c r="Q345">
+        <v>-0.5</v>
+      </c>
+      <c r="R345">
+        <v>2.025</v>
+      </c>
+      <c r="S345">
+        <v>1.825</v>
+      </c>
+      <c r="T345">
         <v>2.25</v>
-      </c>
-      <c r="L345">
-        <v>3.3</v>
-      </c>
-      <c r="M345">
-        <v>3.2</v>
-      </c>
-      <c r="N345">
-        <v>2.375</v>
-      </c>
-      <c r="O345">
-        <v>3.2</v>
-      </c>
-      <c r="P345">
-        <v>3.2</v>
-      </c>
-      <c r="Q345">
-        <v>-0.25</v>
-      </c>
-      <c r="R345">
-        <v>2.1</v>
-      </c>
-      <c r="S345">
-        <v>1.775</v>
-      </c>
-      <c r="T345">
-        <v>2</v>
       </c>
       <c r="U345">
         <v>1.825</v>
@@ -31221,25 +31221,25 @@
         <v>2.025</v>
       </c>
       <c r="W345">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X345">
         <v>-1</v>
       </c>
       <c r="Y345">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z345">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA345">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB345">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC345">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31247,7 +31247,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6876608</v>
+        <v>6875472</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31259,49 +31259,49 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F346" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G346" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H346">
         <v>1</v>
       </c>
       <c r="I346">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J346" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K346">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L346">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M346">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N346">
+        <v>2.375</v>
+      </c>
+      <c r="O346">
+        <v>3.2</v>
+      </c>
+      <c r="P346">
+        <v>3.2</v>
+      </c>
+      <c r="Q346">
+        <v>-0.25</v>
+      </c>
+      <c r="R346">
+        <v>2.1</v>
+      </c>
+      <c r="S346">
+        <v>1.775</v>
+      </c>
+      <c r="T346">
         <v>2</v>
-      </c>
-      <c r="O346">
-        <v>3.3</v>
-      </c>
-      <c r="P346">
-        <v>4</v>
-      </c>
-      <c r="Q346">
-        <v>-0.5</v>
-      </c>
-      <c r="R346">
-        <v>2.025</v>
-      </c>
-      <c r="S346">
-        <v>1.825</v>
-      </c>
-      <c r="T346">
-        <v>2.25</v>
       </c>
       <c r="U346">
         <v>1.825</v>
@@ -31310,25 +31310,25 @@
         <v>2.025</v>
       </c>
       <c r="W346">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X346">
         <v>-1</v>
       </c>
       <c r="Y346">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z346">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA346">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB346">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC346">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -32137,7 +32137,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>6876616</v>
+        <v>6876611</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32149,76 +32149,76 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F356" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G356" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356">
         <v>1</v>
       </c>
       <c r="J356" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K356">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L356">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M356">
+        <v>2.3</v>
+      </c>
+      <c r="N356">
+        <v>4.2</v>
+      </c>
+      <c r="O356">
+        <v>3.6</v>
+      </c>
+      <c r="P356">
+        <v>1.85</v>
+      </c>
+      <c r="Q356">
+        <v>0.5</v>
+      </c>
+      <c r="R356">
+        <v>2.025</v>
+      </c>
+      <c r="S356">
+        <v>1.825</v>
+      </c>
+      <c r="T356">
         <v>2.5</v>
       </c>
-      <c r="N356">
-        <v>2.3</v>
-      </c>
-      <c r="O356">
-        <v>3.4</v>
-      </c>
-      <c r="P356">
-        <v>3.2</v>
-      </c>
-      <c r="Q356">
-        <v>-0.25</v>
-      </c>
-      <c r="R356">
-        <v>1.975</v>
-      </c>
-      <c r="S356">
-        <v>1.875</v>
-      </c>
-      <c r="T356">
-        <v>2.25</v>
-      </c>
       <c r="U356">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V356">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W356">
         <v>-1</v>
       </c>
       <c r="X356">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y356">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z356">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA356">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AB356">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC356">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -32226,7 +32226,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>6876611</v>
+        <v>6876616</v>
       </c>
       <c r="C357" t="s">
         <v>28</v>
@@ -32238,76 +32238,76 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F357" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G357" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I357">
         <v>1</v>
       </c>
       <c r="J357" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K357">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L357">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M357">
+        <v>2.5</v>
+      </c>
+      <c r="N357">
         <v>2.3</v>
       </c>
-      <c r="N357">
-        <v>4.2</v>
-      </c>
       <c r="O357">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P357">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="Q357">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R357">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S357">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T357">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U357">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V357">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W357">
         <v>-1</v>
       </c>
       <c r="X357">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y357">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z357">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA357">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AB357">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC357">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="358" spans="1:29">
@@ -32315,7 +32315,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>7758961</v>
+        <v>7758962</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32327,13 +32327,13 @@
         <v>45326.625</v>
       </c>
       <c r="F358" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G358" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H358">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I358">
         <v>0</v>
@@ -32342,43 +32342,43 @@
         <v>51</v>
       </c>
       <c r="K358">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="L358">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M358">
-        <v>14</v>
+        <v>3.2</v>
       </c>
       <c r="N358">
-        <v>1.142</v>
+        <v>2.05</v>
       </c>
       <c r="O358">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="P358">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="Q358">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R358">
-        <v>1.825</v>
+        <v>2.06</v>
       </c>
       <c r="S358">
-        <v>2.025</v>
+        <v>1.84</v>
       </c>
       <c r="T358">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U358">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V358">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W358">
-        <v>0.1419999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X358">
         <v>-1</v>
@@ -32387,16 +32387,16 @@
         <v>-1</v>
       </c>
       <c r="Z358">
-        <v>0.825</v>
+        <v>1.06</v>
       </c>
       <c r="AA358">
         <v>-1</v>
       </c>
       <c r="AB358">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC358">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="359" spans="1:29">
@@ -32404,7 +32404,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>7758962</v>
+        <v>7758961</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32416,13 +32416,13 @@
         <v>45326.625</v>
       </c>
       <c r="F359" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G359" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I359">
         <v>0</v>
@@ -32431,61 +32431,61 @@
         <v>51</v>
       </c>
       <c r="K359">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="L359">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M359">
-        <v>3.2</v>
+        <v>14</v>
       </c>
       <c r="N359">
-        <v>2.05</v>
+        <v>1.142</v>
       </c>
       <c r="O359">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="P359">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="Q359">
+        <v>-2</v>
+      </c>
+      <c r="R359">
+        <v>1.825</v>
+      </c>
+      <c r="S359">
+        <v>2.025</v>
+      </c>
+      <c r="T359">
+        <v>3.25</v>
+      </c>
+      <c r="U359">
+        <v>1.825</v>
+      </c>
+      <c r="V359">
+        <v>2.025</v>
+      </c>
+      <c r="W359">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="X359">
+        <v>-1</v>
+      </c>
+      <c r="Y359">
+        <v>-1</v>
+      </c>
+      <c r="Z359">
+        <v>0.825</v>
+      </c>
+      <c r="AA359">
+        <v>-1</v>
+      </c>
+      <c r="AB359">
         <v>-0.5</v>
       </c>
-      <c r="R359">
-        <v>2.06</v>
-      </c>
-      <c r="S359">
-        <v>1.84</v>
-      </c>
-      <c r="T359">
-        <v>2.5</v>
-      </c>
-      <c r="U359">
-        <v>1.975</v>
-      </c>
-      <c r="V359">
-        <v>1.875</v>
-      </c>
-      <c r="W359">
-        <v>1.05</v>
-      </c>
-      <c r="X359">
-        <v>-1</v>
-      </c>
-      <c r="Y359">
-        <v>-1</v>
-      </c>
-      <c r="Z359">
-        <v>1.06</v>
-      </c>
-      <c r="AA359">
-        <v>-1</v>
-      </c>
-      <c r="AB359">
-        <v>-1</v>
-      </c>
       <c r="AC359">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="360" spans="1:29">
@@ -33917,7 +33917,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6876630</v>
+        <v>6876633</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33929,73 +33929,73 @@
         <v>45340.625</v>
       </c>
       <c r="F376" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G376" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H376">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I376">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J376" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K376">
-        <v>1.111</v>
+        <v>2.2</v>
       </c>
       <c r="L376">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="M376">
-        <v>21</v>
+        <v>3.2</v>
       </c>
       <c r="N376">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="O376">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="P376">
-        <v>23</v>
+        <v>3.5</v>
       </c>
       <c r="Q376">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R376">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S376">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T376">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U376">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V376">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W376">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X376">
         <v>-1</v>
       </c>
       <c r="Y376">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z376">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA376">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB376">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC376">
         <v>-1</v>
@@ -34006,7 +34006,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>6876633</v>
+        <v>6876630</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34018,73 +34018,73 @@
         <v>45340.625</v>
       </c>
       <c r="F377" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G377" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H377">
+        <v>6</v>
+      </c>
+      <c r="I377">
         <v>1</v>
       </c>
-      <c r="I377">
-        <v>3</v>
-      </c>
       <c r="J377" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K377">
-        <v>2.2</v>
+        <v>1.111</v>
       </c>
       <c r="L377">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="M377">
-        <v>3.2</v>
+        <v>21</v>
       </c>
       <c r="N377">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="O377">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="P377">
-        <v>3.5</v>
+        <v>23</v>
       </c>
       <c r="Q377">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R377">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S377">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="T377">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U377">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V377">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W377">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X377">
         <v>-1</v>
       </c>
       <c r="Y377">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z377">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA377">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB377">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC377">
         <v>-1</v>
@@ -34290,6 +34290,15 @@
       <c r="G380" t="s">
         <v>31</v>
       </c>
+      <c r="H380">
+        <v>3</v>
+      </c>
+      <c r="I380">
+        <v>2</v>
+      </c>
+      <c r="J380" t="s">
+        <v>51</v>
+      </c>
       <c r="K380">
         <v>2.15</v>
       </c>
@@ -34303,7 +34312,7 @@
         <v>2.2</v>
       </c>
       <c r="O380">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P380">
         <v>3.2</v>
@@ -34312,34 +34321,40 @@
         <v>-0.25</v>
       </c>
       <c r="R380">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S380">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="T380">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U380">
+        <v>1.825</v>
+      </c>
+      <c r="V380">
         <v>2.025</v>
       </c>
-      <c r="V380">
-        <v>1.825</v>
-      </c>
       <c r="W380">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X380">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y380">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA380">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB380">
+        <v>0.825</v>
+      </c>
+      <c r="AC380">
+        <v>-1</v>
       </c>
     </row>
     <row r="381" spans="1:29">
@@ -34383,13 +34398,13 @@
         <v>2.9</v>
       </c>
       <c r="Q381">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R381">
-        <v>2.125</v>
+        <v>1.82</v>
       </c>
       <c r="S381">
-        <v>1.78</v>
+        <v>2.08</v>
       </c>
       <c r="T381">
         <v>2.25</v>
@@ -34460,10 +34475,10 @@
         <v>-0.25</v>
       </c>
       <c r="R382">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="S382">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="T382">
         <v>2.25</v>
@@ -34531,22 +34546,22 @@
         <v>6</v>
       </c>
       <c r="Q383">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R383">
-        <v>2.09</v>
+        <v>1.8</v>
       </c>
       <c r="S383">
-        <v>1.81</v>
+        <v>2.1</v>
       </c>
       <c r="T383">
         <v>2.25</v>
       </c>
       <c r="U383">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V383">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W383">
         <v>0</v>
@@ -34608,10 +34623,10 @@
         <v>0</v>
       </c>
       <c r="R384">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S384">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="T384">
         <v>2.5</v>
@@ -34682,10 +34697,10 @@
         <v>1.25</v>
       </c>
       <c r="R385">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="S385">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="T385">
         <v>2.75</v>
@@ -34744,31 +34759,31 @@
         <v>21</v>
       </c>
       <c r="N386">
-        <v>1.125</v>
+        <v>1.1</v>
       </c>
       <c r="O386">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="P386">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q386">
         <v>-2.5</v>
       </c>
       <c r="R386">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="S386">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="T386">
         <v>3.5</v>
       </c>
       <c r="U386">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V386">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W386">
         <v>0</v>
@@ -34827,22 +34842,22 @@
         <v>1.363</v>
       </c>
       <c r="Q387">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R387">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="S387">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="T387">
         <v>2.75</v>
       </c>
       <c r="U387">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V387">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W387">
         <v>0</v>
@@ -34898,16 +34913,16 @@
         <v>3.5</v>
       </c>
       <c r="P388">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="Q388">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R388">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="S388">
-        <v>1.84</v>
+        <v>2.07</v>
       </c>
       <c r="T388">
         <v>2.75</v>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC388"/>
+  <dimension ref="A1:AC389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5615,7 +5615,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5265630</v>
+        <v>5265735</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5627,73 +5627,73 @@
         <v>44975.625</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
         <v>1</v>
       </c>
-      <c r="I58">
+      <c r="J58" t="s">
+        <v>51</v>
+      </c>
+      <c r="K58">
+        <v>2.05</v>
+      </c>
+      <c r="L58">
+        <v>3.25</v>
+      </c>
+      <c r="M58">
+        <v>3.75</v>
+      </c>
+      <c r="N58">
+        <v>2.45</v>
+      </c>
+      <c r="O58">
+        <v>3.1</v>
+      </c>
+      <c r="P58">
         <v>3</v>
       </c>
-      <c r="J58" t="s">
-        <v>50</v>
-      </c>
-      <c r="K58">
-        <v>1.95</v>
-      </c>
-      <c r="L58">
-        <v>3.3</v>
-      </c>
-      <c r="M58">
-        <v>4</v>
-      </c>
-      <c r="N58">
-        <v>2</v>
-      </c>
-      <c r="O58">
-        <v>3.2</v>
-      </c>
-      <c r="P58">
-        <v>3.8</v>
-      </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S58">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V58">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA58">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5704,7 +5704,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5265735</v>
+        <v>5265630</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5716,73 +5716,73 @@
         <v>44975.625</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+      <c r="J59" t="s">
+        <v>50</v>
+      </c>
+      <c r="K59">
+        <v>1.95</v>
+      </c>
+      <c r="L59">
+        <v>3.3</v>
+      </c>
+      <c r="M59">
+        <v>4</v>
+      </c>
+      <c r="N59">
         <v>2</v>
       </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>51</v>
-      </c>
-      <c r="K59">
-        <v>2.05</v>
-      </c>
-      <c r="L59">
-        <v>3.25</v>
-      </c>
-      <c r="M59">
-        <v>3.75</v>
-      </c>
-      <c r="N59">
-        <v>2.45</v>
-      </c>
       <c r="O59">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P59">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z59">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -12824,7 +12824,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5265759</v>
+        <v>5265760</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12836,73 +12836,73 @@
         <v>45045.47916666666</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H139">
+        <v>4</v>
+      </c>
+      <c r="I139">
         <v>1</v>
       </c>
-      <c r="I139">
+      <c r="J139" t="s">
+        <v>51</v>
+      </c>
+      <c r="K139">
+        <v>1.25</v>
+      </c>
+      <c r="L139">
+        <v>6</v>
+      </c>
+      <c r="M139">
+        <v>11</v>
+      </c>
+      <c r="N139">
+        <v>1.25</v>
+      </c>
+      <c r="O139">
+        <v>6</v>
+      </c>
+      <c r="P139">
+        <v>10</v>
+      </c>
+      <c r="Q139">
+        <v>-1.75</v>
+      </c>
+      <c r="R139">
+        <v>1.89</v>
+      </c>
+      <c r="S139">
+        <v>2.01</v>
+      </c>
+      <c r="T139">
+        <v>3.25</v>
+      </c>
+      <c r="U139">
         <v>2</v>
       </c>
-      <c r="J139" t="s">
-        <v>50</v>
-      </c>
-      <c r="K139">
-        <v>2.45</v>
-      </c>
-      <c r="L139">
-        <v>3.2</v>
-      </c>
-      <c r="M139">
-        <v>2.9</v>
-      </c>
-      <c r="N139">
-        <v>2.4</v>
-      </c>
-      <c r="O139">
-        <v>3.25</v>
-      </c>
-      <c r="P139">
-        <v>3</v>
-      </c>
-      <c r="Q139">
-        <v>-0.25</v>
-      </c>
-      <c r="R139">
-        <v>2.1</v>
-      </c>
-      <c r="S139">
-        <v>1.775</v>
-      </c>
-      <c r="T139">
-        <v>2.25</v>
-      </c>
-      <c r="U139">
-        <v>1.9</v>
-      </c>
       <c r="V139">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA139">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12913,7 +12913,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5265760</v>
+        <v>5265759</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12925,73 +12925,73 @@
         <v>45045.47916666666</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K140">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="L140">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M140">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="N140">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="O140">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P140">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q140">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="S140">
-        <v>2.01</v>
+        <v>1.775</v>
       </c>
       <c r="T140">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
+        <v>1.9</v>
+      </c>
+      <c r="V140">
+        <v>1.95</v>
+      </c>
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
         <v>2</v>
       </c>
-      <c r="V140">
-        <v>1.85</v>
-      </c>
-      <c r="W140">
-        <v>0.25</v>
-      </c>
-      <c r="X140">
-        <v>-1</v>
-      </c>
-      <c r="Y140">
-        <v>-1</v>
-      </c>
       <c r="Z140">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5498498</v>
+        <v>5498499</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,10 +15239,10 @@
         <v>45066.47916666666</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15254,43 +15254,43 @@
         <v>51</v>
       </c>
       <c r="K166">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L166">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M166">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="N166">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O166">
+        <v>3.4</v>
+      </c>
+      <c r="P166">
         <v>3.6</v>
       </c>
-      <c r="P166">
-        <v>4.333</v>
-      </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
+        <v>2</v>
+      </c>
+      <c r="V166">
         <v>1.85</v>
       </c>
-      <c r="V166">
-        <v>2</v>
-      </c>
       <c r="W166">
-        <v>0.7</v>
+        <v>0.909</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15299,16 +15299,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5498499</v>
+        <v>5498498</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,10 +15328,10 @@
         <v>45066.47916666666</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15343,43 +15343,43 @@
         <v>51</v>
       </c>
       <c r="K167">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L167">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M167">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="N167">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O167">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P167">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S167">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
+        <v>1.85</v>
+      </c>
+      <c r="V167">
         <v>2</v>
       </c>
-      <c r="V167">
-        <v>1.85</v>
-      </c>
       <c r="W167">
-        <v>0.909</v>
+        <v>0.7</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15388,16 +15388,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -22436,7 +22436,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6876518</v>
+        <v>6876515</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22448,49 +22448,49 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F247" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G247" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J247" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K247">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L247">
         <v>3.2</v>
       </c>
       <c r="M247">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N247">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O247">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P247">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q247">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R247">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S247">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T247">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U247">
         <v>1.95</v>
@@ -22499,25 +22499,25 @@
         <v>1.9</v>
       </c>
       <c r="W247">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X247">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA247">
-        <v>0.445</v>
+        <v>-1</v>
       </c>
       <c r="AB247">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC247">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22525,7 +22525,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6876515</v>
+        <v>6876518</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22537,49 +22537,49 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F248" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G248" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H248">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J248" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K248">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L248">
         <v>3.2</v>
       </c>
       <c r="M248">
+        <v>2.875</v>
+      </c>
+      <c r="N248">
+        <v>2.2</v>
+      </c>
+      <c r="O248">
+        <v>3.2</v>
+      </c>
+      <c r="P248">
+        <v>3.1</v>
+      </c>
+      <c r="Q248">
+        <v>-0.25</v>
+      </c>
+      <c r="R248">
+        <v>2.01</v>
+      </c>
+      <c r="S248">
+        <v>1.89</v>
+      </c>
+      <c r="T248">
         <v>2.5</v>
-      </c>
-      <c r="N248">
-        <v>2.5</v>
-      </c>
-      <c r="O248">
-        <v>3.4</v>
-      </c>
-      <c r="P248">
-        <v>2.45</v>
-      </c>
-      <c r="Q248">
-        <v>0</v>
-      </c>
-      <c r="R248">
-        <v>2</v>
-      </c>
-      <c r="S248">
-        <v>1.9</v>
-      </c>
-      <c r="T248">
-        <v>2.75</v>
       </c>
       <c r="U248">
         <v>1.95</v>
@@ -22588,25 +22588,25 @@
         <v>1.9</v>
       </c>
       <c r="W248">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X248">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA248">
-        <v>-1</v>
+        <v>0.445</v>
       </c>
       <c r="AB248">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -23326,7 +23326,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6876528</v>
+        <v>6876523</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23338,76 +23338,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F257" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G257" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H257">
+        <v>1</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257" t="s">
+        <v>52</v>
+      </c>
+      <c r="K257">
+        <v>1.166</v>
+      </c>
+      <c r="L257">
+        <v>7</v>
+      </c>
+      <c r="M257">
+        <v>15</v>
+      </c>
+      <c r="N257">
+        <v>1.222</v>
+      </c>
+      <c r="O257">
+        <v>6</v>
+      </c>
+      <c r="P257">
+        <v>11</v>
+      </c>
+      <c r="Q257">
+        <v>-1.75</v>
+      </c>
+      <c r="R257">
+        <v>1.875</v>
+      </c>
+      <c r="S257">
+        <v>1.975</v>
+      </c>
+      <c r="T257">
+        <v>3</v>
+      </c>
+      <c r="U257">
+        <v>1.95</v>
+      </c>
+      <c r="V257">
+        <v>1.9</v>
+      </c>
+      <c r="W257">
+        <v>-1</v>
+      </c>
+      <c r="X257">
         <v>5</v>
       </c>
-      <c r="I257">
-        <v>0</v>
-      </c>
-      <c r="J257" t="s">
-        <v>51</v>
-      </c>
-      <c r="K257">
-        <v>1.75</v>
-      </c>
-      <c r="L257">
-        <v>3.6</v>
-      </c>
-      <c r="M257">
-        <v>4.75</v>
-      </c>
-      <c r="N257">
-        <v>1.666</v>
-      </c>
-      <c r="O257">
-        <v>3.75</v>
-      </c>
-      <c r="P257">
-        <v>5</v>
-      </c>
-      <c r="Q257">
-        <v>-0.75</v>
-      </c>
-      <c r="R257">
-        <v>1.9</v>
-      </c>
-      <c r="S257">
-        <v>2</v>
-      </c>
-      <c r="T257">
-        <v>2.5</v>
-      </c>
-      <c r="U257">
-        <v>1.925</v>
-      </c>
-      <c r="V257">
-        <v>1.925</v>
-      </c>
-      <c r="W257">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X257">
-        <v>-1</v>
-      </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
+        <v>-1</v>
+      </c>
+      <c r="AA257">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB257">
+        <v>-1</v>
+      </c>
+      <c r="AC257">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA257">
-        <v>-1</v>
-      </c>
-      <c r="AB257">
-        <v>0.925</v>
-      </c>
-      <c r="AC257">
-        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23415,7 +23415,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6876523</v>
+        <v>6876528</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23427,76 +23427,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F258" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G258" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J258" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K258">
-        <v>1.166</v>
+        <v>1.75</v>
       </c>
       <c r="L258">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M258">
-        <v>15</v>
+        <v>4.75</v>
       </c>
       <c r="N258">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="O258">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P258">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q258">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R258">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S258">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T258">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U258">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V258">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W258">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X258">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y258">
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA258">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC258">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -24928,7 +24928,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6875464</v>
+        <v>6876543</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24940,49 +24940,49 @@
         <v>45241.625</v>
       </c>
       <c r="F275" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G275" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H275">
         <v>0</v>
       </c>
       <c r="I275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J275" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K275">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L275">
         <v>3.2</v>
       </c>
       <c r="M275">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N275">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O275">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P275">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q275">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R275">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S275">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T275">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U275">
         <v>2</v>
@@ -24994,16 +24994,16 @@
         <v>-1</v>
       </c>
       <c r="X275">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y275">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z275">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA275">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AB275">
         <v>-1</v>
@@ -25017,7 +25017,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6876543</v>
+        <v>6875464</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25029,49 +25029,49 @@
         <v>45241.625</v>
       </c>
       <c r="F276" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G276" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H276">
         <v>0</v>
       </c>
       <c r="I276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J276" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K276">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L276">
         <v>3.2</v>
       </c>
       <c r="M276">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N276">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O276">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P276">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q276">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R276">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S276">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T276">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U276">
         <v>2</v>
@@ -25083,16 +25083,16 @@
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z276">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA276">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AB276">
         <v>-1</v>
@@ -30001,7 +30001,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6876591</v>
+        <v>6876586</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30013,40 +30013,40 @@
         <v>45305.625</v>
       </c>
       <c r="F332" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G332" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H332">
+        <v>4</v>
+      </c>
+      <c r="I332">
         <v>1</v>
       </c>
-      <c r="I332">
-        <v>4</v>
-      </c>
       <c r="J332" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K332">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="L332">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="M332">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="N332">
-        <v>1.95</v>
+        <v>1.2</v>
       </c>
       <c r="O332">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="P332">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q332">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R332">
         <v>2.025</v>
@@ -30055,31 +30055,31 @@
         <v>1.825</v>
       </c>
       <c r="T332">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U332">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V332">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W332">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X332">
         <v>-1</v>
       </c>
       <c r="Y332">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z332">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA332">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB332">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC332">
         <v>-1</v>
@@ -30090,7 +30090,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6876586</v>
+        <v>6876591</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30102,40 +30102,40 @@
         <v>45305.625</v>
       </c>
       <c r="F333" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G333" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H333">
+        <v>1</v>
+      </c>
+      <c r="I333">
         <v>4</v>
       </c>
-      <c r="I333">
-        <v>1</v>
-      </c>
       <c r="J333" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K333">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="L333">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="M333">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="N333">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="O333">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="P333">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q333">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R333">
         <v>2.025</v>
@@ -30144,31 +30144,31 @@
         <v>1.825</v>
       </c>
       <c r="T333">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U333">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V333">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W333">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X333">
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z333">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA333">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB333">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC333">
         <v>-1</v>
@@ -32315,7 +32315,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>7758962</v>
+        <v>7758961</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32327,13 +32327,13 @@
         <v>45326.625</v>
       </c>
       <c r="F358" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G358" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I358">
         <v>0</v>
@@ -32342,61 +32342,61 @@
         <v>51</v>
       </c>
       <c r="K358">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="L358">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M358">
-        <v>3.2</v>
+        <v>14</v>
       </c>
       <c r="N358">
-        <v>2.05</v>
+        <v>1.142</v>
       </c>
       <c r="O358">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="P358">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="Q358">
+        <v>-2</v>
+      </c>
+      <c r="R358">
+        <v>1.825</v>
+      </c>
+      <c r="S358">
+        <v>2.025</v>
+      </c>
+      <c r="T358">
+        <v>3.25</v>
+      </c>
+      <c r="U358">
+        <v>1.825</v>
+      </c>
+      <c r="V358">
+        <v>2.025</v>
+      </c>
+      <c r="W358">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="X358">
+        <v>-1</v>
+      </c>
+      <c r="Y358">
+        <v>-1</v>
+      </c>
+      <c r="Z358">
+        <v>0.825</v>
+      </c>
+      <c r="AA358">
+        <v>-1</v>
+      </c>
+      <c r="AB358">
         <v>-0.5</v>
       </c>
-      <c r="R358">
-        <v>2.06</v>
-      </c>
-      <c r="S358">
-        <v>1.84</v>
-      </c>
-      <c r="T358">
-        <v>2.5</v>
-      </c>
-      <c r="U358">
-        <v>1.975</v>
-      </c>
-      <c r="V358">
-        <v>1.875</v>
-      </c>
-      <c r="W358">
-        <v>1.05</v>
-      </c>
-      <c r="X358">
-        <v>-1</v>
-      </c>
-      <c r="Y358">
-        <v>-1</v>
-      </c>
-      <c r="Z358">
-        <v>1.06</v>
-      </c>
-      <c r="AA358">
-        <v>-1</v>
-      </c>
-      <c r="AB358">
-        <v>-1</v>
-      </c>
       <c r="AC358">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="359" spans="1:29">
@@ -32404,7 +32404,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>7758961</v>
+        <v>7758962</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32416,13 +32416,13 @@
         <v>45326.625</v>
       </c>
       <c r="F359" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G359" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H359">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I359">
         <v>0</v>
@@ -32431,43 +32431,43 @@
         <v>51</v>
       </c>
       <c r="K359">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="L359">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M359">
-        <v>14</v>
+        <v>3.2</v>
       </c>
       <c r="N359">
-        <v>1.142</v>
+        <v>2.05</v>
       </c>
       <c r="O359">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="P359">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="Q359">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R359">
-        <v>1.825</v>
+        <v>2.06</v>
       </c>
       <c r="S359">
-        <v>2.025</v>
+        <v>1.84</v>
       </c>
       <c r="T359">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U359">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V359">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W359">
-        <v>0.1419999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X359">
         <v>-1</v>
@@ -32476,16 +32476,16 @@
         <v>-1</v>
       </c>
       <c r="Z359">
-        <v>0.825</v>
+        <v>1.06</v>
       </c>
       <c r="AA359">
         <v>-1</v>
       </c>
       <c r="AB359">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC359">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="360" spans="1:29">
@@ -34389,22 +34389,22 @@
         <v>2.625</v>
       </c>
       <c r="N381">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="O381">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P381">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q381">
         <v>0</v>
       </c>
       <c r="R381">
-        <v>1.82</v>
+        <v>1.97</v>
       </c>
       <c r="S381">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="T381">
         <v>2.25</v>
@@ -34463,31 +34463,31 @@
         <v>3.6</v>
       </c>
       <c r="N382">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O382">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P382">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q382">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R382">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="S382">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="T382">
         <v>2.25</v>
       </c>
       <c r="U382">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V382">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W382">
         <v>0</v>
@@ -34510,7 +34510,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>6876635</v>
+        <v>6876634</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34519,49 +34519,49 @@
         <v>28</v>
       </c>
       <c r="E383" s="2">
-        <v>45346.72916666666</v>
+        <v>45346.625</v>
       </c>
       <c r="F383" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G383" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K383">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="L383">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M383">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="N383">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="O383">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P383">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q383">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R383">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="S383">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="T383">
         <v>2.25</v>
       </c>
       <c r="U383">
+        <v>1.95</v>
+      </c>
+      <c r="V383">
         <v>1.9</v>
-      </c>
-      <c r="V383">
-        <v>1.95</v>
       </c>
       <c r="W383">
         <v>0</v>
@@ -34584,7 +34584,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>6876636</v>
+        <v>6876635</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34593,49 +34593,49 @@
         <v>28</v>
       </c>
       <c r="E384" s="2">
-        <v>45347.52083333334</v>
+        <v>45346.72916666666</v>
       </c>
       <c r="F384" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G384" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K384">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="L384">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M384">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="N384">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="O384">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P384">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="Q384">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R384">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S384">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="T384">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U384">
+        <v>1.9</v>
+      </c>
+      <c r="V384">
         <v>1.95</v>
-      </c>
-      <c r="V384">
-        <v>1.9</v>
       </c>
       <c r="W384">
         <v>0</v>
@@ -34658,7 +34658,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>6876641</v>
+        <v>6876636</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34667,49 +34667,49 @@
         <v>28</v>
       </c>
       <c r="E385" s="2">
-        <v>45347.625</v>
+        <v>45347.52083333334</v>
       </c>
       <c r="F385" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G385" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K385">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="L385">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M385">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="N385">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="O385">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P385">
-        <v>1.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q385">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R385">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="S385">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="T385">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U385">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V385">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W385">
         <v>0</v>
@@ -34732,7 +34732,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>6876637</v>
+        <v>6876641</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34744,46 +34744,46 @@
         <v>45347.625</v>
       </c>
       <c r="F386" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G386" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K386">
-        <v>1.125</v>
+        <v>7</v>
       </c>
       <c r="L386">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="M386">
-        <v>21</v>
+        <v>1.363</v>
       </c>
       <c r="N386">
-        <v>1.1</v>
+        <v>7.5</v>
       </c>
       <c r="O386">
-        <v>9.5</v>
+        <v>4.75</v>
       </c>
       <c r="P386">
-        <v>23</v>
+        <v>1.4</v>
       </c>
       <c r="Q386">
-        <v>-2.5</v>
+        <v>1.25</v>
       </c>
       <c r="R386">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="S386">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="T386">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U386">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V386">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W386">
         <v>0</v>
@@ -34806,7 +34806,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>6876640</v>
+        <v>6876637</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -34815,49 +34815,49 @@
         <v>28</v>
       </c>
       <c r="E387" s="2">
-        <v>45347.72916666666</v>
+        <v>45347.625</v>
       </c>
       <c r="F387" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G387" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K387">
+        <v>1.125</v>
+      </c>
+      <c r="L387">
         <v>8</v>
       </c>
-      <c r="L387">
-        <v>5</v>
-      </c>
       <c r="M387">
-        <v>1.363</v>
+        <v>21</v>
       </c>
       <c r="N387">
-        <v>8</v>
+        <v>1.1</v>
       </c>
       <c r="O387">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="P387">
-        <v>1.363</v>
+        <v>23</v>
       </c>
       <c r="Q387">
-        <v>1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R387">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="S387">
-        <v>2.03</v>
+        <v>1.89</v>
       </c>
       <c r="T387">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U387">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V387">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W387">
         <v>0</v>
@@ -34880,7 +34880,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>6876639</v>
+        <v>6876640</v>
       </c>
       <c r="C388" t="s">
         <v>28</v>
@@ -34889,63 +34889,137 @@
         <v>28</v>
       </c>
       <c r="E388" s="2">
-        <v>45348.71875</v>
+        <v>45347.72916666666</v>
       </c>
       <c r="F388" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G388" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K388">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="L388">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M388">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="N388">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="O388">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P388">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="Q388">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R388">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S388">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="T388">
         <v>2.75</v>
       </c>
       <c r="U388">
+        <v>1.925</v>
+      </c>
+      <c r="V388">
+        <v>1.925</v>
+      </c>
+      <c r="W388">
+        <v>0</v>
+      </c>
+      <c r="X388">
+        <v>0</v>
+      </c>
+      <c r="Y388">
+        <v>0</v>
+      </c>
+      <c r="Z388">
+        <v>0</v>
+      </c>
+      <c r="AA388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:27">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>6876639</v>
+      </c>
+      <c r="C389" t="s">
+        <v>28</v>
+      </c>
+      <c r="D389" t="s">
+        <v>28</v>
+      </c>
+      <c r="E389" s="2">
+        <v>45348.71875</v>
+      </c>
+      <c r="F389" t="s">
+        <v>37</v>
+      </c>
+      <c r="G389" t="s">
+        <v>41</v>
+      </c>
+      <c r="K389">
+        <v>4.75</v>
+      </c>
+      <c r="L389">
+        <v>3.6</v>
+      </c>
+      <c r="M389">
+        <v>1.727</v>
+      </c>
+      <c r="N389">
+        <v>4.5</v>
+      </c>
+      <c r="O389">
+        <v>3.5</v>
+      </c>
+      <c r="P389">
+        <v>1.8</v>
+      </c>
+      <c r="Q389">
+        <v>0.75</v>
+      </c>
+      <c r="R389">
+        <v>1.83</v>
+      </c>
+      <c r="S389">
+        <v>2.07</v>
+      </c>
+      <c r="T389">
+        <v>2.75</v>
+      </c>
+      <c r="U389">
         <v>1.95</v>
       </c>
-      <c r="V388">
+      <c r="V389">
         <v>1.9</v>
       </c>
-      <c r="W388">
-        <v>0</v>
-      </c>
-      <c r="X388">
-        <v>0</v>
-      </c>
-      <c r="Y388">
-        <v>0</v>
-      </c>
-      <c r="Z388">
-        <v>0</v>
-      </c>
-      <c r="AA388">
+      <c r="W389">
+        <v>0</v>
+      </c>
+      <c r="X389">
+        <v>0</v>
+      </c>
+      <c r="Y389">
+        <v>0</v>
+      </c>
+      <c r="Z389">
+        <v>0</v>
+      </c>
+      <c r="AA389">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC389"/>
+  <dimension ref="A1:AC388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4191,7 +4191,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5265729</v>
+        <v>5265728</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4203,13 +4203,13 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -4218,43 +4218,43 @@
         <v>51</v>
       </c>
       <c r="K42">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="L42">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M42">
-        <v>4.333</v>
+        <v>9.5</v>
       </c>
       <c r="N42">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="O42">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P42">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
-        <v>1.2</v>
+        <v>0.55</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4263,13 +4263,13 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.8999999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4280,7 +4280,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5265728</v>
+        <v>5265729</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4292,13 +4292,13 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -4307,43 +4307,43 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="L43">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M43">
-        <v>9.5</v>
+        <v>4.333</v>
       </c>
       <c r="N43">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P43">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="S43">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
-        <v>0.55</v>
+        <v>1.2</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4352,13 +4352,13 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>1.01</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -8018,7 +8018,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5265642</v>
+        <v>5265747</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8030,13 +8030,13 @@
         <v>44996.52083333334</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -8045,61 +8045,61 @@
         <v>51</v>
       </c>
       <c r="K85">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L85">
+        <v>3.3</v>
+      </c>
+      <c r="M85">
         <v>3.25</v>
       </c>
-      <c r="M85">
+      <c r="N85">
+        <v>2.3</v>
+      </c>
+      <c r="O85">
+        <v>3.3</v>
+      </c>
+      <c r="P85">
         <v>3</v>
       </c>
-      <c r="N85">
+      <c r="Q85">
+        <v>-0.25</v>
+      </c>
+      <c r="R85">
         <v>2</v>
       </c>
-      <c r="O85">
-        <v>3.4</v>
-      </c>
-      <c r="P85">
-        <v>3.6</v>
-      </c>
-      <c r="Q85">
+      <c r="S85">
+        <v>1.85</v>
+      </c>
+      <c r="T85">
+        <v>2.25</v>
+      </c>
+      <c r="U85">
+        <v>1.85</v>
+      </c>
+      <c r="V85">
+        <v>2</v>
+      </c>
+      <c r="W85">
+        <v>1.3</v>
+      </c>
+      <c r="X85">
+        <v>-1</v>
+      </c>
+      <c r="Y85">
+        <v>-1</v>
+      </c>
+      <c r="Z85">
+        <v>1</v>
+      </c>
+      <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
         <v>-0.5</v>
       </c>
-      <c r="R85">
-        <v>2.05</v>
-      </c>
-      <c r="S85">
-        <v>1.8</v>
-      </c>
-      <c r="T85">
-        <v>2</v>
-      </c>
-      <c r="U85">
-        <v>1.75</v>
-      </c>
-      <c r="V85">
-        <v>2.05</v>
-      </c>
-      <c r="W85">
-        <v>1</v>
-      </c>
-      <c r="X85">
-        <v>-1</v>
-      </c>
-      <c r="Y85">
-        <v>-1</v>
-      </c>
-      <c r="Z85">
-        <v>1.05</v>
-      </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
-      <c r="AB85">
-        <v>-1</v>
-      </c>
       <c r="AC85">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8107,7 +8107,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5265747</v>
+        <v>5265642</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8119,13 +8119,13 @@
         <v>44996.52083333334</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -8134,43 +8134,43 @@
         <v>51</v>
       </c>
       <c r="K86">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L86">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M86">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N86">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O86">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
+        <v>2.05</v>
+      </c>
+      <c r="S86">
+        <v>1.8</v>
+      </c>
+      <c r="T86">
         <v>2</v>
       </c>
-      <c r="S86">
-        <v>1.85</v>
-      </c>
-      <c r="T86">
-        <v>2.25</v>
-      </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V86">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W86">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8179,16 +8179,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5265660</v>
+        <v>5265754</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,73 +10700,73 @@
         <v>45024.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115">
+        <v>2</v>
+      </c>
+      <c r="J115" t="s">
+        <v>52</v>
+      </c>
+      <c r="K115">
+        <v>2.6</v>
+      </c>
+      <c r="L115">
         <v>3</v>
       </c>
-      <c r="J115" t="s">
-        <v>50</v>
-      </c>
-      <c r="K115">
-        <v>2.7</v>
-      </c>
-      <c r="L115">
-        <v>3.1</v>
-      </c>
       <c r="M115">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N115">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="O115">
         <v>3</v>
       </c>
       <c r="P115">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q115">
         <v>0</v>
       </c>
       <c r="R115">
-        <v>2.01</v>
+        <v>1.775</v>
       </c>
       <c r="S115">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="T115">
         <v>2</v>
       </c>
       <c r="U115">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V115">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y115">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>0.8899999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB115">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10777,7 +10777,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5265754</v>
+        <v>5265660</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10789,73 +10789,73 @@
         <v>45024.58333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K116">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L116">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M116">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N116">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O116">
         <v>3</v>
       </c>
       <c r="P116">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q116">
         <v>0</v>
       </c>
       <c r="R116">
-        <v>1.775</v>
+        <v>2.01</v>
       </c>
       <c r="S116">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="T116">
         <v>2</v>
       </c>
       <c r="U116">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V116">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB116">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -11222,7 +11222,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5265669</v>
+        <v>5265670</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11234,76 +11234,76 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K121">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L121">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M121">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N121">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O121">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P121">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q121">
         <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="S121">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="T121">
         <v>2.25</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA121">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11311,7 +11311,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5265670</v>
+        <v>5265669</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11323,76 +11323,76 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K122">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L122">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M122">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N122">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O122">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P122">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q122">
         <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="S122">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
         <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W122">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z122">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -12379,7 +12379,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>5265671</v>
+        <v>5265675</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12391,76 +12391,76 @@
         <v>45039.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H134">
         <v>1</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K134">
-        <v>2.7</v>
+        <v>1.111</v>
       </c>
       <c r="L134">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="M134">
-        <v>2.7</v>
+        <v>17</v>
       </c>
       <c r="N134">
-        <v>2.6</v>
+        <v>1.142</v>
       </c>
       <c r="O134">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="P134">
-        <v>2.7</v>
+        <v>15</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R134">
+        <v>2</v>
+      </c>
+      <c r="S134">
+        <v>1.85</v>
+      </c>
+      <c r="T134">
+        <v>3.25</v>
+      </c>
+      <c r="U134">
         <v>1.9</v>
       </c>
-      <c r="S134">
+      <c r="V134">
         <v>1.95</v>
       </c>
-      <c r="T134">
-        <v>2.25</v>
-      </c>
-      <c r="U134">
-        <v>1.95</v>
-      </c>
-      <c r="V134">
-        <v>1.9</v>
-      </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X134">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12468,7 +12468,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5265675</v>
+        <v>5265671</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12480,76 +12480,76 @@
         <v>45039.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135" t="s">
+        <v>52</v>
+      </c>
+      <c r="K135">
+        <v>2.7</v>
+      </c>
+      <c r="L135">
+        <v>3.1</v>
+      </c>
+      <c r="M135">
+        <v>2.7</v>
+      </c>
+      <c r="N135">
+        <v>2.6</v>
+      </c>
+      <c r="O135">
+        <v>3.2</v>
+      </c>
+      <c r="P135">
+        <v>2.7</v>
+      </c>
+      <c r="Q135">
         <v>0</v>
       </c>
-      <c r="J135" t="s">
-        <v>51</v>
-      </c>
-      <c r="K135">
-        <v>1.111</v>
-      </c>
-      <c r="L135">
-        <v>8</v>
-      </c>
-      <c r="M135">
-        <v>17</v>
-      </c>
-      <c r="N135">
-        <v>1.142</v>
-      </c>
-      <c r="O135">
-        <v>7.5</v>
-      </c>
-      <c r="P135">
-        <v>15</v>
-      </c>
-      <c r="Q135">
-        <v>-2.25</v>
-      </c>
       <c r="R135">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T135">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
+        <v>1.95</v>
+      </c>
+      <c r="V135">
         <v>1.9</v>
       </c>
-      <c r="V135">
-        <v>1.95</v>
-      </c>
       <c r="W135">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA135">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC135">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5265761</v>
+        <v>5265682</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,76 +13014,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K141">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L141">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="N141">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O141">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.92</v>
       </c>
       <c r="S141">
-        <v>1.925</v>
+        <v>1.98</v>
       </c>
       <c r="T141">
         <v>2.25</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W141">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC141">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5265682</v>
+        <v>5265761</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,76 +13103,76 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K142">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="N142">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P142">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="S142">
-        <v>1.98</v>
+        <v>1.925</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V142">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA142">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -16473,7 +16473,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5545146</v>
+        <v>5540441</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16485,76 +16485,76 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K180">
-        <v>1.083</v>
+        <v>2.8</v>
       </c>
       <c r="L180">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M180">
-        <v>34</v>
+        <v>2.375</v>
       </c>
       <c r="N180">
-        <v>1.062</v>
+        <v>3.1</v>
       </c>
       <c r="O180">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="P180">
-        <v>26</v>
+        <v>2.15</v>
       </c>
       <c r="Q180">
-        <v>-3</v>
+        <v>0.25</v>
       </c>
       <c r="R180">
+        <v>1.975</v>
+      </c>
+      <c r="S180">
+        <v>1.875</v>
+      </c>
+      <c r="T180">
+        <v>2.75</v>
+      </c>
+      <c r="U180">
         <v>2.025</v>
       </c>
-      <c r="S180">
+      <c r="V180">
         <v>1.825</v>
       </c>
-      <c r="T180">
-        <v>4</v>
-      </c>
-      <c r="U180">
-        <v>1.925</v>
-      </c>
-      <c r="V180">
-        <v>1.925</v>
-      </c>
       <c r="W180">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB180">
         <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16562,7 +16562,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>5540441</v>
+        <v>5545146</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16574,76 +16574,76 @@
         <v>45073.58333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H181">
+        <v>3</v>
+      </c>
+      <c r="I181">
         <v>0</v>
       </c>
-      <c r="I181">
-        <v>2</v>
-      </c>
       <c r="J181" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K181">
-        <v>2.8</v>
+        <v>1.083</v>
       </c>
       <c r="L181">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M181">
-        <v>2.375</v>
+        <v>34</v>
       </c>
       <c r="N181">
-        <v>3.1</v>
+        <v>1.062</v>
       </c>
       <c r="O181">
-        <v>3.75</v>
+        <v>11</v>
       </c>
       <c r="P181">
-        <v>2.15</v>
+        <v>26</v>
       </c>
       <c r="Q181">
-        <v>0.25</v>
+        <v>-3</v>
       </c>
       <c r="R181">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S181">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T181">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U181">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V181">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA181">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -17808,7 +17808,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6876465</v>
+        <v>6876471</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17820,76 +17820,76 @@
         <v>45157.6875</v>
       </c>
       <c r="F195" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G195" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>4</v>
+      </c>
+      <c r="J195" t="s">
+        <v>50</v>
+      </c>
+      <c r="K195">
+        <v>2.45</v>
+      </c>
+      <c r="L195">
+        <v>3.25</v>
+      </c>
+      <c r="M195">
+        <v>2.875</v>
+      </c>
+      <c r="N195">
+        <v>3</v>
+      </c>
+      <c r="O195">
+        <v>3.3</v>
+      </c>
+      <c r="P195">
+        <v>2.3</v>
+      </c>
+      <c r="Q195">
+        <v>0.25</v>
+      </c>
+      <c r="R195">
+        <v>1.85</v>
+      </c>
+      <c r="S195">
         <v>2</v>
       </c>
-      <c r="I195">
-        <v>0</v>
-      </c>
-      <c r="J195" t="s">
-        <v>51</v>
-      </c>
-      <c r="K195">
-        <v>1.125</v>
-      </c>
-      <c r="L195">
-        <v>8</v>
-      </c>
-      <c r="M195">
-        <v>19</v>
-      </c>
-      <c r="N195">
-        <v>1.142</v>
-      </c>
-      <c r="O195">
-        <v>7.5</v>
-      </c>
-      <c r="P195">
-        <v>17</v>
-      </c>
-      <c r="Q195">
-        <v>-2.25</v>
-      </c>
-      <c r="R195">
+      <c r="T195">
+        <v>2.25</v>
+      </c>
+      <c r="U195">
         <v>1.925</v>
       </c>
-      <c r="S195">
+      <c r="V195">
         <v>1.925</v>
       </c>
-      <c r="T195">
-        <v>3.5</v>
-      </c>
-      <c r="U195">
-        <v>1.875</v>
-      </c>
-      <c r="V195">
-        <v>1.975</v>
-      </c>
       <c r="W195">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z195">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC195">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17897,7 +17897,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6876471</v>
+        <v>6876465</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17909,76 +17909,76 @@
         <v>45157.6875</v>
       </c>
       <c r="F196" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K196">
-        <v>2.45</v>
+        <v>1.125</v>
       </c>
       <c r="L196">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M196">
-        <v>2.875</v>
+        <v>19</v>
       </c>
       <c r="N196">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="O196">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P196">
-        <v>2.3</v>
+        <v>17</v>
       </c>
       <c r="Q196">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R196">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S196">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T196">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U196">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V196">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA196">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB196">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -19232,7 +19232,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6876483</v>
+        <v>6876488</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19244,76 +19244,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G211" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211" t="s">
+        <v>52</v>
+      </c>
+      <c r="K211">
+        <v>2.75</v>
+      </c>
+      <c r="L211">
+        <v>3.2</v>
+      </c>
+      <c r="M211">
+        <v>2.6</v>
+      </c>
+      <c r="N211">
+        <v>2.55</v>
+      </c>
+      <c r="O211">
+        <v>3.25</v>
+      </c>
+      <c r="P211">
+        <v>2.8</v>
+      </c>
+      <c r="Q211">
         <v>0</v>
       </c>
-      <c r="J211" t="s">
-        <v>51</v>
-      </c>
-      <c r="K211">
-        <v>1.65</v>
-      </c>
-      <c r="L211">
-        <v>3.8</v>
-      </c>
-      <c r="M211">
-        <v>5</v>
-      </c>
-      <c r="N211">
-        <v>2.375</v>
-      </c>
-      <c r="O211">
-        <v>3.3</v>
-      </c>
-      <c r="P211">
-        <v>3</v>
-      </c>
-      <c r="Q211">
-        <v>-0.25</v>
-      </c>
       <c r="R211">
+        <v>1.825</v>
+      </c>
+      <c r="S211">
         <v>2.025</v>
-      </c>
-      <c r="S211">
-        <v>1.825</v>
       </c>
       <c r="T211">
         <v>2.25</v>
       </c>
       <c r="U211">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V211">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W211">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC211">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19321,7 +19321,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6876488</v>
+        <v>6876483</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19333,76 +19333,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G212" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H212">
         <v>1</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K212">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L212">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M212">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N212">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O212">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P212">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q212">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R212">
+        <v>2.025</v>
+      </c>
+      <c r="S212">
         <v>1.825</v>
-      </c>
-      <c r="S212">
-        <v>2.025</v>
       </c>
       <c r="T212">
         <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V212">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X212">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA212">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19499,7 +19499,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6875457</v>
+        <v>6876486</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19511,10 +19511,10 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F214" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G214" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -19526,40 +19526,40 @@
         <v>50</v>
       </c>
       <c r="K214">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L214">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M214">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N214">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="O214">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P214">
+        <v>2.8</v>
+      </c>
+      <c r="Q214">
+        <v>0</v>
+      </c>
+      <c r="R214">
+        <v>1.82</v>
+      </c>
+      <c r="S214">
+        <v>2.08</v>
+      </c>
+      <c r="T214">
         <v>2.25</v>
       </c>
-      <c r="Q214">
-        <v>0.25</v>
-      </c>
-      <c r="R214">
-        <v>1.875</v>
-      </c>
-      <c r="S214">
-        <v>1.975</v>
-      </c>
-      <c r="T214">
-        <v>2.5</v>
-      </c>
       <c r="U214">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -19568,16 +19568,16 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.9750000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AB214">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19588,7 +19588,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6876486</v>
+        <v>6875457</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19600,10 +19600,10 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F215" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G215" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -19615,40 +19615,40 @@
         <v>50</v>
       </c>
       <c r="K215">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L215">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M215">
+        <v>3.1</v>
+      </c>
+      <c r="N215">
         <v>2.9</v>
       </c>
-      <c r="N215">
+      <c r="O215">
+        <v>3.5</v>
+      </c>
+      <c r="P215">
+        <v>2.25</v>
+      </c>
+      <c r="Q215">
+        <v>0.25</v>
+      </c>
+      <c r="R215">
+        <v>1.875</v>
+      </c>
+      <c r="S215">
+        <v>1.975</v>
+      </c>
+      <c r="T215">
         <v>2.5</v>
       </c>
-      <c r="O215">
-        <v>3.25</v>
-      </c>
-      <c r="P215">
-        <v>2.8</v>
-      </c>
-      <c r="Q215">
-        <v>0</v>
-      </c>
-      <c r="R215">
-        <v>1.82</v>
-      </c>
-      <c r="S215">
-        <v>2.08</v>
-      </c>
-      <c r="T215">
-        <v>2.25</v>
-      </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19657,16 +19657,16 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>1.08</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB215">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -20300,7 +20300,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7165059</v>
+        <v>7165060</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20312,40 +20312,40 @@
         <v>45186.47916666666</v>
       </c>
       <c r="F223" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G223" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H223">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I223">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K223">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L223">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M223">
         <v>3.2</v>
       </c>
       <c r="N223">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="O223">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P223">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q223">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R223">
         <v>2</v>
@@ -20354,34 +20354,34 @@
         <v>1.85</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V223">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W223">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z223">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB223">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20389,7 +20389,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7165060</v>
+        <v>7165059</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20401,40 +20401,40 @@
         <v>45186.47916666666</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G224" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J224" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K224">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L224">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M224">
         <v>3.2</v>
       </c>
       <c r="N224">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="O224">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P224">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q224">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R224">
         <v>2</v>
@@ -20443,34 +20443,34 @@
         <v>1.85</v>
       </c>
       <c r="T224">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U224">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V224">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA224">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC224">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -23326,7 +23326,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6876523</v>
+        <v>6876528</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23338,76 +23338,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F257" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G257" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K257">
-        <v>1.166</v>
+        <v>1.75</v>
       </c>
       <c r="L257">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M257">
-        <v>15</v>
+        <v>4.75</v>
       </c>
       <c r="N257">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="O257">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P257">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q257">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R257">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S257">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T257">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U257">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V257">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W257">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X257">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA257">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC257">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23415,7 +23415,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6876528</v>
+        <v>6876523</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23427,76 +23427,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F258" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G258" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H258">
+        <v>1</v>
+      </c>
+      <c r="I258">
+        <v>1</v>
+      </c>
+      <c r="J258" t="s">
+        <v>52</v>
+      </c>
+      <c r="K258">
+        <v>1.166</v>
+      </c>
+      <c r="L258">
+        <v>7</v>
+      </c>
+      <c r="M258">
+        <v>15</v>
+      </c>
+      <c r="N258">
+        <v>1.222</v>
+      </c>
+      <c r="O258">
+        <v>6</v>
+      </c>
+      <c r="P258">
+        <v>11</v>
+      </c>
+      <c r="Q258">
+        <v>-1.75</v>
+      </c>
+      <c r="R258">
+        <v>1.875</v>
+      </c>
+      <c r="S258">
+        <v>1.975</v>
+      </c>
+      <c r="T258">
+        <v>3</v>
+      </c>
+      <c r="U258">
+        <v>1.95</v>
+      </c>
+      <c r="V258">
+        <v>1.9</v>
+      </c>
+      <c r="W258">
+        <v>-1</v>
+      </c>
+      <c r="X258">
         <v>5</v>
       </c>
-      <c r="I258">
-        <v>0</v>
-      </c>
-      <c r="J258" t="s">
-        <v>51</v>
-      </c>
-      <c r="K258">
-        <v>1.75</v>
-      </c>
-      <c r="L258">
-        <v>3.6</v>
-      </c>
-      <c r="M258">
-        <v>4.75</v>
-      </c>
-      <c r="N258">
-        <v>1.666</v>
-      </c>
-      <c r="O258">
-        <v>3.75</v>
-      </c>
-      <c r="P258">
-        <v>5</v>
-      </c>
-      <c r="Q258">
-        <v>-0.75</v>
-      </c>
-      <c r="R258">
-        <v>1.9</v>
-      </c>
-      <c r="S258">
-        <v>2</v>
-      </c>
-      <c r="T258">
-        <v>2.5</v>
-      </c>
-      <c r="U258">
-        <v>1.925</v>
-      </c>
-      <c r="V258">
-        <v>1.925</v>
-      </c>
-      <c r="W258">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X258">
-        <v>-1</v>
-      </c>
       <c r="Y258">
         <v>-1</v>
       </c>
       <c r="Z258">
+        <v>-1</v>
+      </c>
+      <c r="AA258">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB258">
+        <v>-1</v>
+      </c>
+      <c r="AC258">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA258">
-        <v>-1</v>
-      </c>
-      <c r="AB258">
-        <v>0.925</v>
-      </c>
-      <c r="AC258">
-        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -24305,7 +24305,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6875463</v>
+        <v>6876531</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24317,76 +24317,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F268" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G268" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
         <v>1</v>
       </c>
-      <c r="I268">
-        <v>0</v>
-      </c>
       <c r="J268" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K268">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="L268">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M268">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N268">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="O268">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P268">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q268">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R268">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S268">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T268">
         <v>2.25</v>
       </c>
       <c r="U268">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V268">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W268">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X268">
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z268">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA268">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB268">
         <v>-1</v>
       </c>
       <c r="AC268">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24394,7 +24394,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6876531</v>
+        <v>6875463</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24406,76 +24406,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F269" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G269" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H269">
+        <v>1</v>
+      </c>
+      <c r="I269">
         <v>0</v>
       </c>
-      <c r="I269">
-        <v>1</v>
-      </c>
       <c r="J269" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K269">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L269">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M269">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N269">
+        <v>2.875</v>
+      </c>
+      <c r="O269">
+        <v>3.3</v>
+      </c>
+      <c r="P269">
+        <v>2.4</v>
+      </c>
+      <c r="Q269">
+        <v>0</v>
+      </c>
+      <c r="R269">
         <v>2.1</v>
       </c>
-      <c r="O269">
-        <v>3.4</v>
-      </c>
-      <c r="P269">
-        <v>3.4</v>
-      </c>
-      <c r="Q269">
-        <v>-0.25</v>
-      </c>
-      <c r="R269">
-        <v>1.875</v>
-      </c>
       <c r="S269">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T269">
         <v>2.25</v>
       </c>
       <c r="U269">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V269">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W269">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X269">
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z269">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA269">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB269">
         <v>-1</v>
       </c>
       <c r="AC269">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24928,7 +24928,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6876543</v>
+        <v>6875464</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24940,49 +24940,49 @@
         <v>45241.625</v>
       </c>
       <c r="F275" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G275" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H275">
         <v>0</v>
       </c>
       <c r="I275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K275">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L275">
         <v>3.2</v>
       </c>
       <c r="M275">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N275">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O275">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P275">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q275">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R275">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S275">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T275">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U275">
         <v>2</v>
@@ -24994,16 +24994,16 @@
         <v>-1</v>
       </c>
       <c r="X275">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y275">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z275">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA275">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AB275">
         <v>-1</v>
@@ -25017,7 +25017,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6875464</v>
+        <v>6876543</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25029,49 +25029,49 @@
         <v>45241.625</v>
       </c>
       <c r="F276" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G276" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H276">
         <v>0</v>
       </c>
       <c r="I276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J276" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K276">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L276">
         <v>3.2</v>
       </c>
       <c r="M276">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N276">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O276">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P276">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q276">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R276">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S276">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T276">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U276">
         <v>2</v>
@@ -25083,16 +25083,16 @@
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y276">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA276">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AB276">
         <v>-1</v>
@@ -28399,7 +28399,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7513577</v>
+        <v>7515550</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28411,13 +28411,13 @@
         <v>45290.52083333334</v>
       </c>
       <c r="F314" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G314" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H314">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I314">
         <v>0</v>
@@ -28426,43 +28426,43 @@
         <v>51</v>
       </c>
       <c r="K314">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L314">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M314">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N314">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O314">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P314">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q314">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R314">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S314">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T314">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U314">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V314">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W314">
-        <v>0.833</v>
+        <v>1.3</v>
       </c>
       <c r="X314">
         <v>-1</v>
@@ -28471,16 +28471,16 @@
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA314">
         <v>-1</v>
       </c>
       <c r="AB314">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC314">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28488,7 +28488,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7515550</v>
+        <v>7513577</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28500,13 +28500,13 @@
         <v>45290.52083333334</v>
       </c>
       <c r="F315" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G315" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I315">
         <v>0</v>
@@ -28515,43 +28515,43 @@
         <v>51</v>
       </c>
       <c r="K315">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L315">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M315">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N315">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O315">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P315">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q315">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R315">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S315">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T315">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U315">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V315">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W315">
-        <v>1.3</v>
+        <v>0.833</v>
       </c>
       <c r="X315">
         <v>-1</v>
@@ -28560,16 +28560,16 @@
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA315">
         <v>-1</v>
       </c>
       <c r="AB315">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC315">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -30001,7 +30001,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6876586</v>
+        <v>6876591</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30013,40 +30013,40 @@
         <v>45305.625</v>
       </c>
       <c r="F332" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G332" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H332">
+        <v>1</v>
+      </c>
+      <c r="I332">
         <v>4</v>
       </c>
-      <c r="I332">
-        <v>1</v>
-      </c>
       <c r="J332" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K332">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="L332">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="M332">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="N332">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="O332">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="P332">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q332">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R332">
         <v>2.025</v>
@@ -30055,31 +30055,31 @@
         <v>1.825</v>
       </c>
       <c r="T332">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U332">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V332">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W332">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X332">
         <v>-1</v>
       </c>
       <c r="Y332">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z332">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA332">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB332">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC332">
         <v>-1</v>
@@ -30090,7 +30090,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6876591</v>
+        <v>6876586</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30102,40 +30102,40 @@
         <v>45305.625</v>
       </c>
       <c r="F333" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G333" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H333">
+        <v>4</v>
+      </c>
+      <c r="I333">
         <v>1</v>
       </c>
-      <c r="I333">
-        <v>4</v>
-      </c>
       <c r="J333" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K333">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="L333">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="M333">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="N333">
-        <v>1.95</v>
+        <v>1.2</v>
       </c>
       <c r="O333">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="P333">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q333">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R333">
         <v>2.025</v>
@@ -30144,31 +30144,31 @@
         <v>1.825</v>
       </c>
       <c r="T333">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U333">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V333">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W333">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X333">
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z333">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA333">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB333">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC333">
         <v>-1</v>
@@ -31158,7 +31158,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6876608</v>
+        <v>6875472</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31170,49 +31170,49 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F345" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G345" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H345">
         <v>1</v>
       </c>
       <c r="I345">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J345" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K345">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L345">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M345">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N345">
+        <v>2.375</v>
+      </c>
+      <c r="O345">
+        <v>3.2</v>
+      </c>
+      <c r="P345">
+        <v>3.2</v>
+      </c>
+      <c r="Q345">
+        <v>-0.25</v>
+      </c>
+      <c r="R345">
+        <v>2.1</v>
+      </c>
+      <c r="S345">
+        <v>1.775</v>
+      </c>
+      <c r="T345">
         <v>2</v>
-      </c>
-      <c r="O345">
-        <v>3.3</v>
-      </c>
-      <c r="P345">
-        <v>4</v>
-      </c>
-      <c r="Q345">
-        <v>-0.5</v>
-      </c>
-      <c r="R345">
-        <v>2.025</v>
-      </c>
-      <c r="S345">
-        <v>1.825</v>
-      </c>
-      <c r="T345">
-        <v>2.25</v>
       </c>
       <c r="U345">
         <v>1.825</v>
@@ -31221,25 +31221,25 @@
         <v>2.025</v>
       </c>
       <c r="W345">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X345">
         <v>-1</v>
       </c>
       <c r="Y345">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z345">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA345">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB345">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC345">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31247,7 +31247,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6875472</v>
+        <v>6876608</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31259,49 +31259,49 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F346" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G346" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H346">
         <v>1</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J346" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K346">
+        <v>1.727</v>
+      </c>
+      <c r="L346">
+        <v>3.6</v>
+      </c>
+      <c r="M346">
+        <v>4.75</v>
+      </c>
+      <c r="N346">
+        <v>2</v>
+      </c>
+      <c r="O346">
+        <v>3.3</v>
+      </c>
+      <c r="P346">
+        <v>4</v>
+      </c>
+      <c r="Q346">
+        <v>-0.5</v>
+      </c>
+      <c r="R346">
+        <v>2.025</v>
+      </c>
+      <c r="S346">
+        <v>1.825</v>
+      </c>
+      <c r="T346">
         <v>2.25</v>
-      </c>
-      <c r="L346">
-        <v>3.3</v>
-      </c>
-      <c r="M346">
-        <v>3.2</v>
-      </c>
-      <c r="N346">
-        <v>2.375</v>
-      </c>
-      <c r="O346">
-        <v>3.2</v>
-      </c>
-      <c r="P346">
-        <v>3.2</v>
-      </c>
-      <c r="Q346">
-        <v>-0.25</v>
-      </c>
-      <c r="R346">
-        <v>2.1</v>
-      </c>
-      <c r="S346">
-        <v>1.775</v>
-      </c>
-      <c r="T346">
-        <v>2</v>
       </c>
       <c r="U346">
         <v>1.825</v>
@@ -31310,25 +31310,25 @@
         <v>2.025</v>
       </c>
       <c r="W346">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X346">
         <v>-1</v>
       </c>
       <c r="Y346">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z346">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA346">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB346">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC346">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31425,7 +31425,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6876603</v>
+        <v>6876607</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31437,13 +31437,13 @@
         <v>45319.72916666666</v>
       </c>
       <c r="F348" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G348" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I348">
         <v>0</v>
@@ -31452,43 +31452,43 @@
         <v>51</v>
       </c>
       <c r="K348">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L348">
         <v>3.4</v>
       </c>
       <c r="M348">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N348">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="O348">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P348">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q348">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R348">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S348">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T348">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U348">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V348">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W348">
-        <v>2.25</v>
+        <v>0.8</v>
       </c>
       <c r="X348">
         <v>-1</v>
@@ -31497,16 +31497,16 @@
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA348">
         <v>-1</v>
       </c>
       <c r="AB348">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC348">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31514,7 +31514,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6876607</v>
+        <v>6876603</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31526,13 +31526,13 @@
         <v>45319.72916666666</v>
       </c>
       <c r="F349" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G349" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H349">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I349">
         <v>0</v>
@@ -31541,43 +31541,43 @@
         <v>51</v>
       </c>
       <c r="K349">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L349">
         <v>3.4</v>
       </c>
       <c r="M349">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N349">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="O349">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P349">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q349">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R349">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S349">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T349">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U349">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V349">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W349">
-        <v>0.8</v>
+        <v>2.25</v>
       </c>
       <c r="X349">
         <v>-1</v>
@@ -31586,16 +31586,16 @@
         <v>-1</v>
       </c>
       <c r="Z349">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA349">
         <v>-1</v>
       </c>
       <c r="AB349">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC349">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -32315,7 +32315,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>7758961</v>
+        <v>7758962</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32327,13 +32327,13 @@
         <v>45326.625</v>
       </c>
       <c r="F358" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G358" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H358">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I358">
         <v>0</v>
@@ -32342,43 +32342,43 @@
         <v>51</v>
       </c>
       <c r="K358">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="L358">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M358">
-        <v>14</v>
+        <v>3.2</v>
       </c>
       <c r="N358">
-        <v>1.142</v>
+        <v>2.05</v>
       </c>
       <c r="O358">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="P358">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="Q358">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R358">
-        <v>1.825</v>
+        <v>2.06</v>
       </c>
       <c r="S358">
-        <v>2.025</v>
+        <v>1.84</v>
       </c>
       <c r="T358">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U358">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V358">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W358">
-        <v>0.1419999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X358">
         <v>-1</v>
@@ -32387,16 +32387,16 @@
         <v>-1</v>
       </c>
       <c r="Z358">
-        <v>0.825</v>
+        <v>1.06</v>
       </c>
       <c r="AA358">
         <v>-1</v>
       </c>
       <c r="AB358">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC358">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="359" spans="1:29">
@@ -32404,7 +32404,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>7758962</v>
+        <v>7758961</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32416,13 +32416,13 @@
         <v>45326.625</v>
       </c>
       <c r="F359" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G359" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I359">
         <v>0</v>
@@ -32431,61 +32431,61 @@
         <v>51</v>
       </c>
       <c r="K359">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="L359">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M359">
-        <v>3.2</v>
+        <v>14</v>
       </c>
       <c r="N359">
-        <v>2.05</v>
+        <v>1.142</v>
       </c>
       <c r="O359">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="P359">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="Q359">
+        <v>-2</v>
+      </c>
+      <c r="R359">
+        <v>1.825</v>
+      </c>
+      <c r="S359">
+        <v>2.025</v>
+      </c>
+      <c r="T359">
+        <v>3.25</v>
+      </c>
+      <c r="U359">
+        <v>1.825</v>
+      </c>
+      <c r="V359">
+        <v>2.025</v>
+      </c>
+      <c r="W359">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="X359">
+        <v>-1</v>
+      </c>
+      <c r="Y359">
+        <v>-1</v>
+      </c>
+      <c r="Z359">
+        <v>0.825</v>
+      </c>
+      <c r="AA359">
+        <v>-1</v>
+      </c>
+      <c r="AB359">
         <v>-0.5</v>
       </c>
-      <c r="R359">
-        <v>2.06</v>
-      </c>
-      <c r="S359">
-        <v>1.84</v>
-      </c>
-      <c r="T359">
-        <v>2.5</v>
-      </c>
-      <c r="U359">
-        <v>1.975</v>
-      </c>
-      <c r="V359">
-        <v>1.875</v>
-      </c>
-      <c r="W359">
-        <v>1.05</v>
-      </c>
-      <c r="X359">
-        <v>-1</v>
-      </c>
-      <c r="Y359">
-        <v>-1</v>
-      </c>
-      <c r="Z359">
-        <v>1.06</v>
-      </c>
-      <c r="AA359">
-        <v>-1</v>
-      </c>
-      <c r="AB359">
-        <v>-1</v>
-      </c>
       <c r="AC359">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="360" spans="1:29">
@@ -34379,6 +34379,15 @@
       <c r="G381" t="s">
         <v>49</v>
       </c>
+      <c r="H381">
+        <v>0</v>
+      </c>
+      <c r="I381">
+        <v>1</v>
+      </c>
+      <c r="J381" t="s">
+        <v>50</v>
+      </c>
       <c r="K381">
         <v>2.625</v>
       </c>
@@ -34401,10 +34410,10 @@
         <v>0</v>
       </c>
       <c r="R381">
-        <v>1.97</v>
+        <v>1.875</v>
       </c>
       <c r="S381">
-        <v>1.93</v>
+        <v>1.975</v>
       </c>
       <c r="T381">
         <v>2.25</v>
@@ -34416,19 +34425,25 @@
         <v>1.85</v>
       </c>
       <c r="W381">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X381">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y381">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Z381">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA381">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB381">
+        <v>-1</v>
+      </c>
+      <c r="AC381">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="382" spans="1:29">
@@ -34453,6 +34468,15 @@
       <c r="G382" t="s">
         <v>42</v>
       </c>
+      <c r="H382">
+        <v>1</v>
+      </c>
+      <c r="I382">
+        <v>1</v>
+      </c>
+      <c r="J382" t="s">
+        <v>52</v>
+      </c>
       <c r="K382">
         <v>2</v>
       </c>
@@ -34463,46 +34487,52 @@
         <v>3.6</v>
       </c>
       <c r="N382">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O382">
         <v>3.4</v>
       </c>
       <c r="P382">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q382">
         <v>-0.5</v>
       </c>
       <c r="R382">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="S382">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="T382">
         <v>2.25</v>
       </c>
       <c r="U382">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V382">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W382">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X382">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y382">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z382">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA382">
-        <v>0</v>
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="AB382">
+        <v>-0.5</v>
+      </c>
+      <c r="AC382">
+        <v>0.4875</v>
       </c>
     </row>
     <row r="383" spans="1:29">
@@ -34510,7 +34540,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>6876634</v>
+        <v>6876635</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34519,64 +34549,79 @@
         <v>28</v>
       </c>
       <c r="E383" s="2">
-        <v>45346.625</v>
+        <v>45346.72916666666</v>
       </c>
       <c r="F383" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G383" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="H383">
+        <v>0</v>
+      </c>
+      <c r="I383">
+        <v>2</v>
+      </c>
+      <c r="J383" t="s">
+        <v>50</v>
       </c>
       <c r="K383">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="L383">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M383">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="N383">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="O383">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P383">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q383">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R383">
-        <v>1.92</v>
+        <v>1.825</v>
       </c>
       <c r="S383">
-        <v>1.98</v>
+        <v>2.025</v>
       </c>
       <c r="T383">
         <v>2.25</v>
       </c>
       <c r="U383">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V383">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W383">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X383">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y383">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="Z383">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA383">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB383">
+        <v>-0.5</v>
+      </c>
+      <c r="AC383">
+        <v>0.4875</v>
       </c>
     </row>
     <row r="384" spans="1:29">
@@ -34584,7 +34629,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>6876635</v>
+        <v>6876636</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34593,49 +34638,49 @@
         <v>28</v>
       </c>
       <c r="E384" s="2">
-        <v>45346.72916666666</v>
+        <v>45347.52083333334</v>
       </c>
       <c r="F384" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G384" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K384">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="L384">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M384">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="N384">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="O384">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P384">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="Q384">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R384">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="S384">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="T384">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U384">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V384">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W384">
         <v>0</v>
@@ -34658,7 +34703,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>6876636</v>
+        <v>6876641</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34667,49 +34712,49 @@
         <v>28</v>
       </c>
       <c r="E385" s="2">
-        <v>45347.52083333334</v>
+        <v>45347.625</v>
       </c>
       <c r="F385" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G385" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K385">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="L385">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M385">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="N385">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="O385">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="P385">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="Q385">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R385">
-        <v>1.82</v>
+        <v>1.99</v>
       </c>
       <c r="S385">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="T385">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U385">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V385">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W385">
         <v>0</v>
@@ -34732,7 +34777,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>6876641</v>
+        <v>6876637</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34744,40 +34789,40 @@
         <v>45347.625</v>
       </c>
       <c r="F386" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G386" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K386">
-        <v>7</v>
+        <v>1.125</v>
       </c>
       <c r="L386">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="M386">
-        <v>1.363</v>
+        <v>21</v>
       </c>
       <c r="N386">
-        <v>7.5</v>
+        <v>1.1</v>
       </c>
       <c r="O386">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="P386">
-        <v>1.4</v>
+        <v>23</v>
       </c>
       <c r="Q386">
-        <v>1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R386">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="S386">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="T386">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U386">
         <v>1.925</v>
@@ -34806,7 +34851,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>6876637</v>
+        <v>6876640</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -34815,49 +34860,49 @@
         <v>28</v>
       </c>
       <c r="E387" s="2">
-        <v>45347.625</v>
+        <v>45347.72916666666</v>
       </c>
       <c r="F387" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G387" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K387">
-        <v>1.125</v>
+        <v>8</v>
       </c>
       <c r="L387">
+        <v>5</v>
+      </c>
+      <c r="M387">
+        <v>1.363</v>
+      </c>
+      <c r="N387">
         <v>8</v>
       </c>
-      <c r="M387">
-        <v>21</v>
-      </c>
-      <c r="N387">
-        <v>1.1</v>
-      </c>
       <c r="O387">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="P387">
-        <v>23</v>
+        <v>1.363</v>
       </c>
       <c r="Q387">
-        <v>-2.5</v>
+        <v>1.5</v>
       </c>
       <c r="R387">
-        <v>2.01</v>
+        <v>1.87</v>
       </c>
       <c r="S387">
-        <v>1.89</v>
+        <v>2.03</v>
       </c>
       <c r="T387">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U387">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V387">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W387">
         <v>0</v>
@@ -34880,7 +34925,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>6876640</v>
+        <v>6876639</v>
       </c>
       <c r="C388" t="s">
         <v>28</v>
@@ -34889,49 +34934,49 @@
         <v>28</v>
       </c>
       <c r="E388" s="2">
-        <v>45347.72916666666</v>
+        <v>45348.71875</v>
       </c>
       <c r="F388" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G388" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K388">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="L388">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M388">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="N388">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="O388">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P388">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="Q388">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R388">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S388">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T388">
         <v>2.75</v>
       </c>
       <c r="U388">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V388">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W388">
         <v>0</v>
@@ -34946,80 +34991,6 @@
         <v>0</v>
       </c>
       <c r="AA388">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:27">
-      <c r="A389" s="1">
-        <v>387</v>
-      </c>
-      <c r="B389">
-        <v>6876639</v>
-      </c>
-      <c r="C389" t="s">
-        <v>28</v>
-      </c>
-      <c r="D389" t="s">
-        <v>28</v>
-      </c>
-      <c r="E389" s="2">
-        <v>45348.71875</v>
-      </c>
-      <c r="F389" t="s">
-        <v>37</v>
-      </c>
-      <c r="G389" t="s">
-        <v>41</v>
-      </c>
-      <c r="K389">
-        <v>4.75</v>
-      </c>
-      <c r="L389">
-        <v>3.6</v>
-      </c>
-      <c r="M389">
-        <v>1.727</v>
-      </c>
-      <c r="N389">
-        <v>4.5</v>
-      </c>
-      <c r="O389">
-        <v>3.5</v>
-      </c>
-      <c r="P389">
-        <v>1.8</v>
-      </c>
-      <c r="Q389">
-        <v>0.75</v>
-      </c>
-      <c r="R389">
-        <v>1.83</v>
-      </c>
-      <c r="S389">
-        <v>2.07</v>
-      </c>
-      <c r="T389">
-        <v>2.75</v>
-      </c>
-      <c r="U389">
-        <v>1.95</v>
-      </c>
-      <c r="V389">
-        <v>1.9</v>
-      </c>
-      <c r="W389">
-        <v>0</v>
-      </c>
-      <c r="X389">
-        <v>0</v>
-      </c>
-      <c r="Y389">
-        <v>0</v>
-      </c>
-      <c r="Z389">
-        <v>0</v>
-      </c>
-      <c r="AA389">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -27509,7 +27509,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6876563</v>
+        <v>6875467</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27521,40 +27521,40 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F304" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G304" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I304">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J304" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K304">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="L304">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M304">
-        <v>2.55</v>
+        <v>3.9</v>
       </c>
       <c r="N304">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O304">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P304">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q304">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R304">
         <v>1.875</v>
@@ -27563,31 +27563,31 @@
         <v>1.975</v>
       </c>
       <c r="T304">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U304">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V304">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W304">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X304">
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z304">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA304">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB304">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC304">
         <v>-1</v>
@@ -27598,7 +27598,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6875467</v>
+        <v>6876563</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27610,40 +27610,40 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F305" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G305" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H305">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I305">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J305" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K305">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="L305">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M305">
-        <v>3.9</v>
+        <v>2.55</v>
       </c>
       <c r="N305">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O305">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P305">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q305">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R305">
         <v>1.875</v>
@@ -27652,31 +27652,31 @@
         <v>1.975</v>
       </c>
       <c r="T305">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U305">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V305">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W305">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X305">
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z305">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA305">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB305">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC305">
         <v>-1</v>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -139,10 +139,10 @@
     <t>Chaves</t>
   </si>
   <si>
-    <t>Portimonense</t>
+    <t>Benfica</t>
   </si>
   <si>
-    <t>Benfica</t>
+    <t>Portimonense</t>
   </si>
   <si>
     <t>Estoril</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC207"/>
+  <dimension ref="A1:AC216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -1349,7 +1349,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6876471</v>
+        <v>6876465</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,73 +1705,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>2.45</v>
+        <v>1.125</v>
       </c>
       <c r="L14">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M14">
-        <v>2.875</v>
+        <v>19</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="O14">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P14">
-        <v>2.3</v>
+        <v>17</v>
       </c>
       <c r="Q14">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R14">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T14">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB14">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6876465</v>
+        <v>6876471</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,73 +1794,73 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15">
+        <v>2.45</v>
+      </c>
+      <c r="L15">
+        <v>3.25</v>
+      </c>
+      <c r="M15">
+        <v>2.875</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>3.3</v>
+      </c>
+      <c r="P15">
+        <v>2.3</v>
+      </c>
+      <c r="Q15">
+        <v>0.25</v>
+      </c>
+      <c r="R15">
+        <v>1.85</v>
+      </c>
+      <c r="S15">
         <v>2</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15">
-        <v>1.125</v>
-      </c>
-      <c r="L15">
-        <v>8</v>
-      </c>
-      <c r="M15">
-        <v>19</v>
-      </c>
-      <c r="N15">
-        <v>1.142</v>
-      </c>
-      <c r="O15">
-        <v>7.5</v>
-      </c>
-      <c r="P15">
-        <v>17</v>
-      </c>
-      <c r="Q15">
-        <v>-2.25</v>
-      </c>
-      <c r="R15">
+      <c r="T15">
+        <v>2.25</v>
+      </c>
+      <c r="U15">
         <v>1.925</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>1.925</v>
       </c>
-      <c r="T15">
-        <v>3.5</v>
-      </c>
-      <c r="U15">
-        <v>1.875</v>
-      </c>
-      <c r="V15">
-        <v>1.975</v>
-      </c>
       <c r="W15">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2328,7 +2328,7 @@
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2506,7 +2506,7 @@
         <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -3114,7 +3114,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6876488</v>
+        <v>6876483</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3126,76 +3126,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M30">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N30">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O30">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P30">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
+        <v>2.025</v>
+      </c>
+      <c r="S30">
         <v>1.825</v>
-      </c>
-      <c r="S30">
-        <v>2.025</v>
       </c>
       <c r="T30">
         <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X30">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA30">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6876483</v>
+        <v>6876488</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,76 +3215,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L31">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M31">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N31">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O31">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R31">
+        <v>1.825</v>
+      </c>
+      <c r="S31">
         <v>2.025</v>
-      </c>
-      <c r="S31">
-        <v>1.825</v>
       </c>
       <c r="T31">
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W31">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC31">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3304,7 +3304,7 @@
         <v>45171.6875</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
         <v>39</v>
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6876486</v>
+        <v>6875457</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,10 +3393,10 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3408,40 +3408,40 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L33">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M33">
+        <v>3.1</v>
+      </c>
+      <c r="N33">
         <v>2.9</v>
       </c>
-      <c r="N33">
+      <c r="O33">
+        <v>3.5</v>
+      </c>
+      <c r="P33">
+        <v>2.25</v>
+      </c>
+      <c r="Q33">
+        <v>0.25</v>
+      </c>
+      <c r="R33">
+        <v>1.875</v>
+      </c>
+      <c r="S33">
+        <v>1.975</v>
+      </c>
+      <c r="T33">
         <v>2.5</v>
       </c>
-      <c r="O33">
-        <v>3.25</v>
-      </c>
-      <c r="P33">
-        <v>2.8</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>1.82</v>
-      </c>
-      <c r="S33">
-        <v>2.08</v>
-      </c>
-      <c r="T33">
-        <v>2.25</v>
-      </c>
       <c r="U33">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
         <v>-1</v>
@@ -3450,16 +3450,16 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>1.08</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB33">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6875457</v>
+        <v>6876486</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3482,10 +3482,10 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3497,40 +3497,40 @@
         <v>47</v>
       </c>
       <c r="K34">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L34">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M34">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N34">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="O34">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P34">
+        <v>2.8</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>1.82</v>
+      </c>
+      <c r="S34">
+        <v>2.08</v>
+      </c>
+      <c r="T34">
         <v>2.25</v>
       </c>
-      <c r="Q34">
-        <v>0.25</v>
-      </c>
-      <c r="R34">
-        <v>1.875</v>
-      </c>
-      <c r="S34">
-        <v>1.975</v>
-      </c>
-      <c r="T34">
-        <v>2.5</v>
-      </c>
       <c r="U34">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V34">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W34">
         <v>-1</v>
@@ -3539,16 +3539,16 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.9750000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AB34">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -4108,7 +4108,7 @@
         <v>45</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4375,7 +4375,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6875459</v>
+        <v>6876499</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,76 +4728,76 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L48">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N48">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O48">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P48">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S48">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T48">
         <v>2.5</v>
       </c>
       <c r="U48">
+        <v>1.9</v>
+      </c>
+      <c r="V48">
         <v>1.95</v>
       </c>
-      <c r="V48">
-        <v>1.9</v>
-      </c>
       <c r="W48">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC48">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6876499</v>
+        <v>6875459</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,76 +4817,76 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K49">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L49">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M49">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N49">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O49">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S49">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T49">
         <v>2.5</v>
       </c>
       <c r="U49">
+        <v>1.95</v>
+      </c>
+      <c r="V49">
         <v>1.9</v>
       </c>
-      <c r="V49">
-        <v>1.95</v>
-      </c>
       <c r="W49">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X49">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA49">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
+        <v>-1</v>
+      </c>
+      <c r="AC49">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC49">
-        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5173,10 +5173,10 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F53" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" t="s">
         <v>41</v>
-      </c>
-      <c r="G53" t="s">
-        <v>42</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5529,7 +5529,7 @@
         <v>45198.67708333334</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
         <v>44</v>
@@ -5621,7 +5621,7 @@
         <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6876518</v>
+        <v>6876515</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,49 +6330,49 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K66">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L66">
         <v>3.2</v>
       </c>
       <c r="M66">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N66">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O66">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P66">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
         <v>1.95</v>
@@ -6381,25 +6381,25 @@
         <v>1.9</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X66">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA66">
-        <v>0.445</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC66">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6876515</v>
+        <v>6876518</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,49 +6419,49 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K67">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L67">
         <v>3.2</v>
       </c>
       <c r="M67">
+        <v>2.875</v>
+      </c>
+      <c r="N67">
+        <v>2.2</v>
+      </c>
+      <c r="O67">
+        <v>3.2</v>
+      </c>
+      <c r="P67">
+        <v>3.1</v>
+      </c>
+      <c r="Q67">
+        <v>-0.25</v>
+      </c>
+      <c r="R67">
+        <v>2.01</v>
+      </c>
+      <c r="S67">
+        <v>1.89</v>
+      </c>
+      <c r="T67">
         <v>2.5</v>
-      </c>
-      <c r="N67">
-        <v>2.5</v>
-      </c>
-      <c r="O67">
-        <v>3.4</v>
-      </c>
-      <c r="P67">
-        <v>2.45</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>2</v>
-      </c>
-      <c r="S67">
-        <v>1.9</v>
-      </c>
-      <c r="T67">
-        <v>2.75</v>
       </c>
       <c r="U67">
         <v>1.95</v>
@@ -6470,25 +6470,25 @@
         <v>1.9</v>
       </c>
       <c r="W67">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.445</v>
       </c>
       <c r="AB67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6600,7 +6600,7 @@
         <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>44</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7131,7 +7131,7 @@
         <v>45227.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G75" t="s">
         <v>43</v>
@@ -7309,7 +7309,7 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s">
         <v>38</v>
@@ -7935,7 +7935,7 @@
         <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -8113,7 +8113,7 @@
         <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H86">
         <v>6</v>
@@ -8187,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6875463</v>
+        <v>6876531</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8199,76 +8199,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
         <v>1</v>
       </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
       <c r="J87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K87">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="L87">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N87">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="O87">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P87">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T87">
         <v>2.25</v>
       </c>
       <c r="U87">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z87">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6876531</v>
+        <v>6875463</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,76 +8288,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K88">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M88">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N88">
+        <v>2.875</v>
+      </c>
+      <c r="O88">
+        <v>3.3</v>
+      </c>
+      <c r="P88">
+        <v>2.4</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
         <v>2.1</v>
       </c>
-      <c r="O88">
-        <v>3.4</v>
-      </c>
-      <c r="P88">
-        <v>3.4</v>
-      </c>
-      <c r="Q88">
-        <v>-0.25</v>
-      </c>
-      <c r="R88">
-        <v>1.875</v>
-      </c>
       <c r="S88">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T88">
         <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA88">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8733,7 +8733,7 @@
         <v>45241.52083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G93" t="s">
         <v>40</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6875464</v>
+        <v>6876543</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,49 +8822,49 @@
         <v>45241.625</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K94">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L94">
         <v>3.2</v>
       </c>
       <c r="M94">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N94">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O94">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P94">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S94">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T94">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U94">
         <v>2</v>
@@ -8876,16 +8876,16 @@
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y94">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AB94">
         <v>-1</v>
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6876543</v>
+        <v>6875464</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,49 +8911,49 @@
         <v>45241.625</v>
       </c>
       <c r="F95" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L95">
         <v>3.2</v>
       </c>
       <c r="M95">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N95">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O95">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P95">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
         <v>2</v>
@@ -8965,16 +8965,16 @@
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AB95">
         <v>-1</v>
@@ -9356,7 +9356,7 @@
         <v>45242.72916666666</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
         <v>32</v>
@@ -9804,7 +9804,7 @@
         <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9982,7 +9982,7 @@
         <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10335,7 +10335,7 @@
         <v>45268.625</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G111" t="s">
         <v>31</v>
@@ -10424,7 +10424,7 @@
         <v>45269.52083333334</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
         <v>46</v>
@@ -11406,7 +11406,7 @@
         <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H123">
         <v>5</v>
@@ -11673,7 +11673,7 @@
         <v>29</v>
       </c>
       <c r="G126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -12115,7 +12115,7 @@
         <v>45289.65625</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G131" t="s">
         <v>46</v>
@@ -12560,7 +12560,7 @@
         <v>45290.72916666666</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G136" t="s">
         <v>32</v>
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6876581</v>
+        <v>6876582</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L139">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M139">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N139">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O139">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P139">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
+        <v>1.95</v>
+      </c>
+      <c r="S139">
+        <v>1.9</v>
+      </c>
+      <c r="T139">
+        <v>2.5</v>
+      </c>
+      <c r="U139">
         <v>2.025</v>
       </c>
-      <c r="S139">
+      <c r="V139">
         <v>1.825</v>
       </c>
-      <c r="T139">
-        <v>2.25</v>
-      </c>
-      <c r="U139">
-        <v>1.975</v>
-      </c>
-      <c r="V139">
-        <v>1.875</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X139">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA139">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6876582</v>
+        <v>6876581</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G140" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L140">
+        <v>3.4</v>
+      </c>
+      <c r="M140">
         <v>3.6</v>
       </c>
-      <c r="M140">
-        <v>4.2</v>
-      </c>
       <c r="N140">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O140">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P140">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S140">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W140">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC140">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13008,7 +13008,7 @@
         <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13186,7 +13186,7 @@
         <v>33</v>
       </c>
       <c r="G143" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13450,7 +13450,7 @@
         <v>45303.71875</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G146" t="s">
         <v>31</v>
@@ -13895,7 +13895,7 @@
         <v>45305.625</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G151" t="s">
         <v>33</v>
@@ -14429,7 +14429,7 @@
         <v>45310.71875</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G157" t="s">
         <v>37</v>
@@ -14785,7 +14785,7 @@
         <v>45312.52083333334</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G161" t="s">
         <v>30</v>
@@ -15055,7 +15055,7 @@
         <v>37</v>
       </c>
       <c r="G164" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6876607</v>
+        <v>6876603</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,13 +15319,13 @@
         <v>45319.72916666666</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H167">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -15334,43 +15334,43 @@
         <v>48</v>
       </c>
       <c r="K167">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L167">
         <v>3.4</v>
       </c>
       <c r="M167">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N167">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="O167">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P167">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R167">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S167">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V167">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W167">
-        <v>0.8</v>
+        <v>2.25</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15379,16 +15379,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6876603</v>
+        <v>6876607</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,13 +15408,13 @@
         <v>45319.72916666666</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -15423,43 +15423,43 @@
         <v>48</v>
       </c>
       <c r="K168">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L168">
         <v>3.4</v>
       </c>
       <c r="M168">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N168">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="O168">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P168">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q168">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S168">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U168">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V168">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W168">
-        <v>2.25</v>
+        <v>0.8</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15468,16 +15468,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA168">
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC168">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15500,7 +15500,7 @@
         <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15853,7 +15853,7 @@
         <v>45325.52083333334</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G173" t="s">
         <v>35</v>
@@ -16197,7 +16197,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7758961</v>
+        <v>7758962</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16209,13 +16209,13 @@
         <v>45326.625</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -16224,43 +16224,43 @@
         <v>48</v>
       </c>
       <c r="K177">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="L177">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M177">
-        <v>14</v>
+        <v>3.2</v>
       </c>
       <c r="N177">
-        <v>1.142</v>
+        <v>2.05</v>
       </c>
       <c r="O177">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="Q177">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.825</v>
+        <v>2.06</v>
       </c>
       <c r="S177">
-        <v>2.025</v>
+        <v>1.84</v>
       </c>
       <c r="T177">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V177">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W177">
-        <v>0.1419999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16269,16 +16269,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.825</v>
+        <v>1.06</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16286,7 +16286,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7758962</v>
+        <v>7758961</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16298,13 +16298,13 @@
         <v>45326.625</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G178" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -16313,61 +16313,61 @@
         <v>48</v>
       </c>
       <c r="K178">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="L178">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M178">
-        <v>3.2</v>
+        <v>14</v>
       </c>
       <c r="N178">
-        <v>2.05</v>
+        <v>1.142</v>
       </c>
       <c r="O178">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="P178">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="Q178">
+        <v>-2</v>
+      </c>
+      <c r="R178">
+        <v>1.825</v>
+      </c>
+      <c r="S178">
+        <v>2.025</v>
+      </c>
+      <c r="T178">
+        <v>3.25</v>
+      </c>
+      <c r="U178">
+        <v>1.825</v>
+      </c>
+      <c r="V178">
+        <v>2.025</v>
+      </c>
+      <c r="W178">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="X178">
+        <v>-1</v>
+      </c>
+      <c r="Y178">
+        <v>-1</v>
+      </c>
+      <c r="Z178">
+        <v>0.825</v>
+      </c>
+      <c r="AA178">
+        <v>-1</v>
+      </c>
+      <c r="AB178">
         <v>-0.5</v>
       </c>
-      <c r="R178">
-        <v>2.06</v>
-      </c>
-      <c r="S178">
-        <v>1.84</v>
-      </c>
-      <c r="T178">
-        <v>2.5</v>
-      </c>
-      <c r="U178">
-        <v>1.975</v>
-      </c>
-      <c r="V178">
-        <v>1.875</v>
-      </c>
-      <c r="W178">
-        <v>1.05</v>
-      </c>
-      <c r="X178">
-        <v>-1</v>
-      </c>
-      <c r="Y178">
-        <v>-1</v>
-      </c>
-      <c r="Z178">
-        <v>1.06</v>
-      </c>
-      <c r="AA178">
-        <v>-1</v>
-      </c>
-      <c r="AB178">
-        <v>-1</v>
-      </c>
       <c r="AC178">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16568,7 +16568,7 @@
         <v>34</v>
       </c>
       <c r="G181" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H181">
         <v>3</v>
@@ -17102,7 +17102,7 @@
         <v>39</v>
       </c>
       <c r="G187" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H187">
         <v>2</v>
@@ -17544,7 +17544,7 @@
         <v>45339.625</v>
       </c>
       <c r="F192" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s">
         <v>39</v>
@@ -17900,7 +17900,7 @@
         <v>45340.625</v>
       </c>
       <c r="F196" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G196" t="s">
         <v>45</v>
@@ -18612,10 +18612,10 @@
         <v>45347.625</v>
       </c>
       <c r="F204" t="s">
+        <v>41</v>
+      </c>
+      <c r="G204" t="s">
         <v>42</v>
-      </c>
-      <c r="G204" t="s">
-        <v>41</v>
       </c>
       <c r="H204">
         <v>4</v>
@@ -18884,6 +18884,15 @@
       <c r="G207" t="s">
         <v>29</v>
       </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>4</v>
+      </c>
+      <c r="J207" t="s">
+        <v>47</v>
+      </c>
       <c r="K207">
         <v>4.75</v>
       </c>
@@ -18894,45 +18903,717 @@
         <v>1.727</v>
       </c>
       <c r="N207">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="O207">
         <v>3.8</v>
       </c>
       <c r="P207">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="Q207">
         <v>0.75</v>
       </c>
       <c r="R207">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S207">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T207">
         <v>2.75</v>
       </c>
       <c r="U207">
+        <v>1.975</v>
+      </c>
+      <c r="V207">
+        <v>1.875</v>
+      </c>
+      <c r="W207">
+        <v>-1</v>
+      </c>
+      <c r="X207">
+        <v>-1</v>
+      </c>
+      <c r="Y207">
+        <v>0.7</v>
+      </c>
+      <c r="Z207">
+        <v>-1</v>
+      </c>
+      <c r="AA207">
+        <v>0.925</v>
+      </c>
+      <c r="AB207">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC207">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>6876643</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45352.71875</v>
+      </c>
+      <c r="F208" t="s">
+        <v>40</v>
+      </c>
+      <c r="G208" t="s">
+        <v>35</v>
+      </c>
+      <c r="K208">
+        <v>3.6</v>
+      </c>
+      <c r="L208">
+        <v>3.4</v>
+      </c>
+      <c r="M208">
+        <v>2.05</v>
+      </c>
+      <c r="N208">
+        <v>3.6</v>
+      </c>
+      <c r="O208">
+        <v>3.4</v>
+      </c>
+      <c r="P208">
+        <v>2.05</v>
+      </c>
+      <c r="Q208">
+        <v>0.25</v>
+      </c>
+      <c r="R208">
+        <v>2.09</v>
+      </c>
+      <c r="S208">
+        <v>1.81</v>
+      </c>
+      <c r="T208">
+        <v>2.25</v>
+      </c>
+      <c r="U208">
+        <v>1.85</v>
+      </c>
+      <c r="V208">
         <v>2</v>
       </c>
-      <c r="V207">
+      <c r="W208">
+        <v>0</v>
+      </c>
+      <c r="X208">
+        <v>0</v>
+      </c>
+      <c r="Y208">
+        <v>0</v>
+      </c>
+      <c r="Z208">
+        <v>0</v>
+      </c>
+      <c r="AA208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>6875477</v>
+      </c>
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45353.52083333334</v>
+      </c>
+      <c r="F209" t="s">
+        <v>36</v>
+      </c>
+      <c r="G209" t="s">
+        <v>33</v>
+      </c>
+      <c r="K209">
+        <v>2.2</v>
+      </c>
+      <c r="L209">
+        <v>3.2</v>
+      </c>
+      <c r="M209">
+        <v>3.4</v>
+      </c>
+      <c r="N209">
+        <v>2.2</v>
+      </c>
+      <c r="O209">
+        <v>3.2</v>
+      </c>
+      <c r="P209">
+        <v>3.4</v>
+      </c>
+      <c r="Q209">
+        <v>-0.25</v>
+      </c>
+      <c r="R209">
+        <v>1.92</v>
+      </c>
+      <c r="S209">
+        <v>1.98</v>
+      </c>
+      <c r="T209">
+        <v>2.25</v>
+      </c>
+      <c r="U209">
+        <v>2.1</v>
+      </c>
+      <c r="V209">
+        <v>1.775</v>
+      </c>
+      <c r="W209">
+        <v>0</v>
+      </c>
+      <c r="X209">
+        <v>0</v>
+      </c>
+      <c r="Y209">
+        <v>0</v>
+      </c>
+      <c r="Z209">
+        <v>0</v>
+      </c>
+      <c r="AA209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>6876648</v>
+      </c>
+      <c r="C210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45353.625</v>
+      </c>
+      <c r="F210" t="s">
+        <v>43</v>
+      </c>
+      <c r="G210" t="s">
+        <v>39</v>
+      </c>
+      <c r="K210">
+        <v>3.5</v>
+      </c>
+      <c r="L210">
+        <v>3.4</v>
+      </c>
+      <c r="M210">
+        <v>2.05</v>
+      </c>
+      <c r="N210">
+        <v>3.5</v>
+      </c>
+      <c r="O210">
+        <v>3.4</v>
+      </c>
+      <c r="P210">
+        <v>2.05</v>
+      </c>
+      <c r="Q210">
+        <v>0.25</v>
+      </c>
+      <c r="R210">
+        <v>2.07</v>
+      </c>
+      <c r="S210">
+        <v>1.83</v>
+      </c>
+      <c r="T210">
+        <v>2.5</v>
+      </c>
+      <c r="U210">
+        <v>1.925</v>
+      </c>
+      <c r="V210">
+        <v>1.925</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>0</v>
+      </c>
+      <c r="AA210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>6876646</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45353.72916666666</v>
+      </c>
+      <c r="F211" t="s">
+        <v>29</v>
+      </c>
+      <c r="G211" t="s">
+        <v>34</v>
+      </c>
+      <c r="K211">
+        <v>1.363</v>
+      </c>
+      <c r="L211">
+        <v>4.75</v>
+      </c>
+      <c r="M211">
+        <v>8</v>
+      </c>
+      <c r="N211">
+        <v>1.363</v>
+      </c>
+      <c r="O211">
+        <v>4.75</v>
+      </c>
+      <c r="P211">
+        <v>8</v>
+      </c>
+      <c r="Q211">
+        <v>-1.5</v>
+      </c>
+      <c r="R211">
+        <v>2.07</v>
+      </c>
+      <c r="S211">
+        <v>1.83</v>
+      </c>
+      <c r="T211">
+        <v>3</v>
+      </c>
+      <c r="U211">
+        <v>1.925</v>
+      </c>
+      <c r="V211">
+        <v>1.925</v>
+      </c>
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AA211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:27">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>6876649</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45354.52083333334</v>
+      </c>
+      <c r="F212" t="s">
+        <v>42</v>
+      </c>
+      <c r="G212" t="s">
+        <v>45</v>
+      </c>
+      <c r="K212">
+        <v>2.625</v>
+      </c>
+      <c r="L212">
+        <v>3.1</v>
+      </c>
+      <c r="M212">
+        <v>2.75</v>
+      </c>
+      <c r="N212">
+        <v>2.625</v>
+      </c>
+      <c r="O212">
+        <v>3.1</v>
+      </c>
+      <c r="P212">
+        <v>2.75</v>
+      </c>
+      <c r="Q212">
+        <v>0</v>
+      </c>
+      <c r="R212">
+        <v>1.89</v>
+      </c>
+      <c r="S212">
+        <v>2.01</v>
+      </c>
+      <c r="T212">
+        <v>2.25</v>
+      </c>
+      <c r="U212">
+        <v>1.825</v>
+      </c>
+      <c r="V212">
+        <v>2.025</v>
+      </c>
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212">
+        <v>0</v>
+      </c>
+      <c r="Y212">
+        <v>0</v>
+      </c>
+      <c r="Z212">
+        <v>0</v>
+      </c>
+      <c r="AA212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:27">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>6876647</v>
+      </c>
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45354.52083333334</v>
+      </c>
+      <c r="F213" t="s">
+        <v>38</v>
+      </c>
+      <c r="G213" t="s">
+        <v>30</v>
+      </c>
+      <c r="K213">
+        <v>2.4</v>
+      </c>
+      <c r="L213">
+        <v>3.1</v>
+      </c>
+      <c r="M213">
+        <v>3.1</v>
+      </c>
+      <c r="N213">
+        <v>2.4</v>
+      </c>
+      <c r="O213">
+        <v>3.1</v>
+      </c>
+      <c r="P213">
+        <v>3.1</v>
+      </c>
+      <c r="Q213">
+        <v>-0.25</v>
+      </c>
+      <c r="R213">
+        <v>2.1</v>
+      </c>
+      <c r="S213">
+        <v>1.8</v>
+      </c>
+      <c r="T213">
+        <v>2</v>
+      </c>
+      <c r="U213">
+        <v>1.775</v>
+      </c>
+      <c r="V213">
+        <v>2.1</v>
+      </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AA213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:27">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>6876645</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45354.625</v>
+      </c>
+      <c r="F214" t="s">
+        <v>32</v>
+      </c>
+      <c r="G214" t="s">
+        <v>31</v>
+      </c>
+      <c r="K214">
+        <v>1.125</v>
+      </c>
+      <c r="L214">
+        <v>8</v>
+      </c>
+      <c r="M214">
+        <v>17</v>
+      </c>
+      <c r="N214">
+        <v>1.125</v>
+      </c>
+      <c r="O214">
+        <v>8</v>
+      </c>
+      <c r="P214">
+        <v>17</v>
+      </c>
+      <c r="Q214">
+        <v>-2.25</v>
+      </c>
+      <c r="R214">
+        <v>1.9</v>
+      </c>
+      <c r="S214">
+        <v>2</v>
+      </c>
+      <c r="T214">
+        <v>3.5</v>
+      </c>
+      <c r="U214">
+        <v>1.925</v>
+      </c>
+      <c r="V214">
+        <v>1.925</v>
+      </c>
+      <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="Y214">
+        <v>0</v>
+      </c>
+      <c r="Z214">
+        <v>0</v>
+      </c>
+      <c r="AA214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:27">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>6876642</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45354.72916666666</v>
+      </c>
+      <c r="F215" t="s">
+        <v>44</v>
+      </c>
+      <c r="G215" t="s">
+        <v>41</v>
+      </c>
+      <c r="K215">
+        <v>2.375</v>
+      </c>
+      <c r="L215">
+        <v>3.25</v>
+      </c>
+      <c r="M215">
+        <v>3</v>
+      </c>
+      <c r="N215">
+        <v>2.375</v>
+      </c>
+      <c r="O215">
+        <v>3.25</v>
+      </c>
+      <c r="P215">
+        <v>3</v>
+      </c>
+      <c r="Q215">
+        <v>-0.25</v>
+      </c>
+      <c r="R215">
+        <v>2.08</v>
+      </c>
+      <c r="S215">
+        <v>1.82</v>
+      </c>
+      <c r="T215">
+        <v>2.5</v>
+      </c>
+      <c r="U215">
         <v>1.85</v>
       </c>
-      <c r="W207">
-        <v>0</v>
-      </c>
-      <c r="X207">
-        <v>0</v>
-      </c>
-      <c r="Y207">
-        <v>0</v>
-      </c>
-      <c r="Z207">
-        <v>0</v>
-      </c>
-      <c r="AA207">
+      <c r="V215">
+        <v>2</v>
+      </c>
+      <c r="W215">
+        <v>0</v>
+      </c>
+      <c r="X215">
+        <v>0</v>
+      </c>
+      <c r="Y215">
+        <v>0</v>
+      </c>
+      <c r="Z215">
+        <v>0</v>
+      </c>
+      <c r="AA215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:27">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>6876644</v>
+      </c>
+      <c r="C216" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" t="s">
+        <v>28</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45355.71875</v>
+      </c>
+      <c r="F216" t="s">
+        <v>46</v>
+      </c>
+      <c r="G216" t="s">
+        <v>37</v>
+      </c>
+      <c r="K216">
+        <v>2.1</v>
+      </c>
+      <c r="L216">
+        <v>3.4</v>
+      </c>
+      <c r="M216">
+        <v>3.5</v>
+      </c>
+      <c r="N216">
+        <v>2.05</v>
+      </c>
+      <c r="O216">
+        <v>3.4</v>
+      </c>
+      <c r="P216">
+        <v>3.6</v>
+      </c>
+      <c r="Q216">
+        <v>-0.5</v>
+      </c>
+      <c r="R216">
+        <v>2.06</v>
+      </c>
+      <c r="S216">
+        <v>1.84</v>
+      </c>
+      <c r="T216">
+        <v>2.5</v>
+      </c>
+      <c r="U216">
+        <v>2.025</v>
+      </c>
+      <c r="V216">
+        <v>1.825</v>
+      </c>
+      <c r="W216">
+        <v>0</v>
+      </c>
+      <c r="X216">
+        <v>0</v>
+      </c>
+      <c r="Y216">
+        <v>0</v>
+      </c>
+      <c r="Z216">
+        <v>0</v>
+      </c>
+      <c r="AA216">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -139,10 +139,10 @@
     <t>Chaves</t>
   </si>
   <si>
-    <t>Benfica</t>
+    <t>Portimonense</t>
   </si>
   <si>
-    <t>Portimonense</t>
+    <t>Benfica</t>
   </si>
   <si>
     <t>Estoril</t>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -1349,7 +1349,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6876465</v>
+        <v>6876471</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,73 +1705,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14">
+        <v>2.45</v>
+      </c>
+      <c r="L14">
+        <v>3.25</v>
+      </c>
+      <c r="M14">
+        <v>2.875</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>3.3</v>
+      </c>
+      <c r="P14">
+        <v>2.3</v>
+      </c>
+      <c r="Q14">
+        <v>0.25</v>
+      </c>
+      <c r="R14">
+        <v>1.85</v>
+      </c>
+      <c r="S14">
         <v>2</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14">
-        <v>1.125</v>
-      </c>
-      <c r="L14">
-        <v>8</v>
-      </c>
-      <c r="M14">
-        <v>19</v>
-      </c>
-      <c r="N14">
-        <v>1.142</v>
-      </c>
-      <c r="O14">
-        <v>7.5</v>
-      </c>
-      <c r="P14">
-        <v>17</v>
-      </c>
-      <c r="Q14">
-        <v>-2.25</v>
-      </c>
-      <c r="R14">
+      <c r="T14">
+        <v>2.25</v>
+      </c>
+      <c r="U14">
         <v>1.925</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>1.925</v>
       </c>
-      <c r="T14">
-        <v>3.5</v>
-      </c>
-      <c r="U14">
-        <v>1.875</v>
-      </c>
-      <c r="V14">
-        <v>1.975</v>
-      </c>
       <c r="W14">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6876471</v>
+        <v>6876465</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,73 +1794,73 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>2.45</v>
+        <v>1.125</v>
       </c>
       <c r="L15">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M15">
-        <v>2.875</v>
+        <v>19</v>
       </c>
       <c r="N15">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="O15">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P15">
-        <v>2.3</v>
+        <v>17</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R15">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U15">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V15">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB15">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2328,7 +2328,7 @@
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2506,7 +2506,7 @@
         <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -3114,7 +3114,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6876483</v>
+        <v>6876488</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3126,76 +3126,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L30">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M30">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N30">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O30">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R30">
+        <v>1.825</v>
+      </c>
+      <c r="S30">
         <v>2.025</v>
-      </c>
-      <c r="S30">
-        <v>1.825</v>
       </c>
       <c r="T30">
         <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W30">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC30">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6876488</v>
+        <v>6876483</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,76 +3215,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L31">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M31">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N31">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O31">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
+        <v>2.025</v>
+      </c>
+      <c r="S31">
         <v>1.825</v>
-      </c>
-      <c r="S31">
-        <v>2.025</v>
       </c>
       <c r="T31">
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X31">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA31">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3304,7 +3304,7 @@
         <v>45171.6875</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
         <v>39</v>
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6875457</v>
+        <v>6876486</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,10 +3393,10 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3408,40 +3408,40 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L33">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M33">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N33">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="O33">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P33">
+        <v>2.8</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>1.82</v>
+      </c>
+      <c r="S33">
+        <v>2.08</v>
+      </c>
+      <c r="T33">
         <v>2.25</v>
       </c>
-      <c r="Q33">
-        <v>0.25</v>
-      </c>
-      <c r="R33">
-        <v>1.875</v>
-      </c>
-      <c r="S33">
-        <v>1.975</v>
-      </c>
-      <c r="T33">
-        <v>2.5</v>
-      </c>
       <c r="U33">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W33">
         <v>-1</v>
@@ -3450,16 +3450,16 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.9750000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AB33">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6876486</v>
+        <v>6875457</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3482,10 +3482,10 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3497,40 +3497,40 @@
         <v>47</v>
       </c>
       <c r="K34">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L34">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M34">
+        <v>3.1</v>
+      </c>
+      <c r="N34">
         <v>2.9</v>
       </c>
-      <c r="N34">
+      <c r="O34">
+        <v>3.5</v>
+      </c>
+      <c r="P34">
+        <v>2.25</v>
+      </c>
+      <c r="Q34">
+        <v>0.25</v>
+      </c>
+      <c r="R34">
+        <v>1.875</v>
+      </c>
+      <c r="S34">
+        <v>1.975</v>
+      </c>
+      <c r="T34">
         <v>2.5</v>
       </c>
-      <c r="O34">
-        <v>3.25</v>
-      </c>
-      <c r="P34">
-        <v>2.8</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>1.82</v>
-      </c>
-      <c r="S34">
-        <v>2.08</v>
-      </c>
-      <c r="T34">
-        <v>2.25</v>
-      </c>
       <c r="U34">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
         <v>-1</v>
@@ -3539,16 +3539,16 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>1.08</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB34">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -4108,7 +4108,7 @@
         <v>45</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4375,7 +4375,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6876499</v>
+        <v>6875459</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,76 +4728,76 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K48">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N48">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O48">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P48">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S48">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T48">
         <v>2.5</v>
       </c>
       <c r="U48">
+        <v>1.95</v>
+      </c>
+      <c r="V48">
         <v>1.9</v>
       </c>
-      <c r="V48">
-        <v>1.95</v>
-      </c>
       <c r="W48">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X48">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA48">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
+        <v>-1</v>
+      </c>
+      <c r="AC48">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC48">
-        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6875459</v>
+        <v>6876499</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,76 +4817,76 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K49">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L49">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M49">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N49">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P49">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S49">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T49">
         <v>2.5</v>
       </c>
       <c r="U49">
+        <v>1.9</v>
+      </c>
+      <c r="V49">
         <v>1.95</v>
       </c>
-      <c r="V49">
-        <v>1.9</v>
-      </c>
       <c r="W49">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC49">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5173,10 +5173,10 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F53" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" t="s">
         <v>42</v>
-      </c>
-      <c r="G53" t="s">
-        <v>41</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5529,7 +5529,7 @@
         <v>45198.67708333334</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s">
         <v>44</v>
@@ -5621,7 +5621,7 @@
         <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6876515</v>
+        <v>6876518</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,49 +6330,49 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K66">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L66">
         <v>3.2</v>
       </c>
       <c r="M66">
+        <v>2.875</v>
+      </c>
+      <c r="N66">
+        <v>2.2</v>
+      </c>
+      <c r="O66">
+        <v>3.2</v>
+      </c>
+      <c r="P66">
+        <v>3.1</v>
+      </c>
+      <c r="Q66">
+        <v>-0.25</v>
+      </c>
+      <c r="R66">
+        <v>2.01</v>
+      </c>
+      <c r="S66">
+        <v>1.89</v>
+      </c>
+      <c r="T66">
         <v>2.5</v>
-      </c>
-      <c r="N66">
-        <v>2.5</v>
-      </c>
-      <c r="O66">
-        <v>3.4</v>
-      </c>
-      <c r="P66">
-        <v>2.45</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>2</v>
-      </c>
-      <c r="S66">
-        <v>1.9</v>
-      </c>
-      <c r="T66">
-        <v>2.75</v>
       </c>
       <c r="U66">
         <v>1.95</v>
@@ -6381,25 +6381,25 @@
         <v>1.9</v>
       </c>
       <c r="W66">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.445</v>
       </c>
       <c r="AB66">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6876518</v>
+        <v>6876515</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,49 +6419,49 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K67">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L67">
         <v>3.2</v>
       </c>
       <c r="M67">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N67">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O67">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P67">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
         <v>1.95</v>
@@ -6470,25 +6470,25 @@
         <v>1.9</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X67">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA67">
-        <v>0.445</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6600,7 +6600,7 @@
         <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>44</v>
       </c>
       <c r="G72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7131,7 +7131,7 @@
         <v>45227.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
         <v>43</v>
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6876528</v>
+        <v>6876523</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,76 +7220,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76" t="s">
+        <v>49</v>
+      </c>
+      <c r="K76">
+        <v>1.166</v>
+      </c>
+      <c r="L76">
+        <v>7</v>
+      </c>
+      <c r="M76">
+        <v>15</v>
+      </c>
+      <c r="N76">
+        <v>1.222</v>
+      </c>
+      <c r="O76">
+        <v>6</v>
+      </c>
+      <c r="P76">
+        <v>11</v>
+      </c>
+      <c r="Q76">
+        <v>-1.75</v>
+      </c>
+      <c r="R76">
+        <v>1.875</v>
+      </c>
+      <c r="S76">
+        <v>1.975</v>
+      </c>
+      <c r="T76">
+        <v>3</v>
+      </c>
+      <c r="U76">
+        <v>1.95</v>
+      </c>
+      <c r="V76">
+        <v>1.9</v>
+      </c>
+      <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
         <v>5</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76" t="s">
-        <v>48</v>
-      </c>
-      <c r="K76">
-        <v>1.75</v>
-      </c>
-      <c r="L76">
-        <v>3.6</v>
-      </c>
-      <c r="M76">
-        <v>4.75</v>
-      </c>
-      <c r="N76">
-        <v>1.666</v>
-      </c>
-      <c r="O76">
-        <v>3.75</v>
-      </c>
-      <c r="P76">
-        <v>5</v>
-      </c>
-      <c r="Q76">
-        <v>-0.75</v>
-      </c>
-      <c r="R76">
-        <v>1.9</v>
-      </c>
-      <c r="S76">
-        <v>2</v>
-      </c>
-      <c r="T76">
-        <v>2.5</v>
-      </c>
-      <c r="U76">
-        <v>1.925</v>
-      </c>
-      <c r="V76">
-        <v>1.925</v>
-      </c>
-      <c r="W76">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X76">
-        <v>-1</v>
-      </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
+        <v>-1</v>
+      </c>
+      <c r="AA76">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB76">
+        <v>-1</v>
+      </c>
+      <c r="AC76">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA76">
-        <v>-1</v>
-      </c>
-      <c r="AB76">
-        <v>0.925</v>
-      </c>
-      <c r="AC76">
-        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6876523</v>
+        <v>6876528</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,76 +7309,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K77">
-        <v>1.166</v>
+        <v>1.75</v>
       </c>
       <c r="L77">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>15</v>
+        <v>4.75</v>
       </c>
       <c r="N77">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="O77">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P77">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q77">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X77">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA77">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC77">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7935,7 +7935,7 @@
         <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -8113,7 +8113,7 @@
         <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H86">
         <v>6</v>
@@ -8187,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6876531</v>
+        <v>6875463</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8199,76 +8199,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K87">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M87">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N87">
+        <v>2.875</v>
+      </c>
+      <c r="O87">
+        <v>3.3</v>
+      </c>
+      <c r="P87">
+        <v>2.4</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
         <v>2.1</v>
       </c>
-      <c r="O87">
-        <v>3.4</v>
-      </c>
-      <c r="P87">
-        <v>3.4</v>
-      </c>
-      <c r="Q87">
-        <v>-0.25</v>
-      </c>
-      <c r="R87">
-        <v>1.875</v>
-      </c>
       <c r="S87">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T87">
         <v>2.25</v>
       </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6875463</v>
+        <v>6876531</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,76 +8288,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
         <v>1</v>
       </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K88">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="L88">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N88">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="O88">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P88">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S88">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T88">
         <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z88">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8733,7 +8733,7 @@
         <v>45241.52083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
         <v>40</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6876543</v>
+        <v>6875464</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,49 +8822,49 @@
         <v>45241.625</v>
       </c>
       <c r="F94" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L94">
         <v>3.2</v>
       </c>
       <c r="M94">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N94">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O94">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P94">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R94">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S94">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T94">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U94">
         <v>2</v>
@@ -8876,16 +8876,16 @@
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AB94">
         <v>-1</v>
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6875464</v>
+        <v>6876543</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,49 +8911,49 @@
         <v>45241.625</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K95">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L95">
         <v>3.2</v>
       </c>
       <c r="M95">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N95">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O95">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P95">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S95">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U95">
         <v>2</v>
@@ -8965,16 +8965,16 @@
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y95">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AB95">
         <v>-1</v>
@@ -9356,7 +9356,7 @@
         <v>45242.72916666666</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G100" t="s">
         <v>32</v>
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6876552</v>
+        <v>6876549</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K102">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="L102">
         <v>3.4</v>
       </c>
       <c r="M102">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O102">
         <v>3.6</v>
       </c>
       <c r="P102">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q102">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S102">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC102">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6876549</v>
+        <v>6876552</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,76 +9623,76 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K103">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L103">
         <v>3.4</v>
       </c>
       <c r="M103">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O103">
         <v>3.6</v>
       </c>
       <c r="P103">
+        <v>3.3</v>
+      </c>
+      <c r="Q103">
+        <v>-0.5</v>
+      </c>
+      <c r="R103">
         <v>2.05</v>
       </c>
-      <c r="Q103">
-        <v>0.25</v>
-      </c>
-      <c r="R103">
-        <v>2.025</v>
-      </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T103">
         <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y103">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
+        <v>0.8</v>
+      </c>
+      <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
         <v>0.825</v>
-      </c>
-      <c r="AB103">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC103">
-        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9804,7 +9804,7 @@
         <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9982,7 +9982,7 @@
         <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10335,7 +10335,7 @@
         <v>45268.625</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
         <v>31</v>
@@ -10424,7 +10424,7 @@
         <v>45269.52083333334</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G112" t="s">
         <v>46</v>
@@ -11406,7 +11406,7 @@
         <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H123">
         <v>5</v>
@@ -11673,7 +11673,7 @@
         <v>29</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -12115,7 +12115,7 @@
         <v>45289.65625</v>
       </c>
       <c r="F131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G131" t="s">
         <v>46</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7513577</v>
+        <v>7515550</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,13 +12293,13 @@
         <v>45290.52083333334</v>
       </c>
       <c r="F133" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -12308,43 +12308,43 @@
         <v>48</v>
       </c>
       <c r="K133">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M133">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N133">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O133">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P133">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V133">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
-        <v>0.833</v>
+        <v>1.3</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12353,16 +12353,16 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA133">
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7515550</v>
+        <v>7513577</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,13 +12382,13 @@
         <v>45290.52083333334</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -12397,43 +12397,43 @@
         <v>48</v>
       </c>
       <c r="K134">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L134">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N134">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O134">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P134">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S134">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V134">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W134">
-        <v>1.3</v>
+        <v>0.833</v>
       </c>
       <c r="X134">
         <v>-1</v>
@@ -12442,16 +12442,16 @@
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA134">
         <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC134">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>45290.72916666666</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G136" t="s">
         <v>32</v>
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6876582</v>
+        <v>6876581</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K139">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L139">
+        <v>3.4</v>
+      </c>
+      <c r="M139">
         <v>3.6</v>
       </c>
-      <c r="M139">
-        <v>4.2</v>
-      </c>
       <c r="N139">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O139">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P139">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S139">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U139">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V139">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W139">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC139">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6876581</v>
+        <v>6876582</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L140">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M140">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N140">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O140">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P140">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
+        <v>1.95</v>
+      </c>
+      <c r="S140">
+        <v>1.9</v>
+      </c>
+      <c r="T140">
+        <v>2.5</v>
+      </c>
+      <c r="U140">
         <v>2.025</v>
       </c>
-      <c r="S140">
+      <c r="V140">
         <v>1.825</v>
       </c>
-      <c r="T140">
-        <v>2.25</v>
-      </c>
-      <c r="U140">
-        <v>1.975</v>
-      </c>
-      <c r="V140">
-        <v>1.875</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X140">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13008,7 +13008,7 @@
         <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13186,7 +13186,7 @@
         <v>33</v>
       </c>
       <c r="G143" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13450,7 +13450,7 @@
         <v>45303.71875</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G146" t="s">
         <v>31</v>
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6876586</v>
+        <v>6876591</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,40 +13895,40 @@
         <v>45305.625</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G151" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
         <v>4</v>
       </c>
-      <c r="I151">
-        <v>1</v>
-      </c>
       <c r="J151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K151">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="L151">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="M151">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="N151">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="O151">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="P151">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q151">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R151">
         <v>2.025</v>
@@ -13937,31 +13937,31 @@
         <v>1.825</v>
       </c>
       <c r="T151">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V151">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W151">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z151">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB151">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6876591</v>
+        <v>6876586</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,40 +13984,40 @@
         <v>45305.625</v>
       </c>
       <c r="F152" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H152">
+        <v>4</v>
+      </c>
+      <c r="I152">
         <v>1</v>
       </c>
-      <c r="I152">
-        <v>4</v>
-      </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K152">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="L152">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="M152">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="N152">
-        <v>1.95</v>
+        <v>1.2</v>
       </c>
       <c r="O152">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="P152">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q152">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R152">
         <v>2.025</v>
@@ -14026,31 +14026,31 @@
         <v>1.825</v>
       </c>
       <c r="T152">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U152">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA152">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14429,7 +14429,7 @@
         <v>45310.71875</v>
       </c>
       <c r="F157" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
         <v>37</v>
@@ -14785,7 +14785,7 @@
         <v>45312.52083333334</v>
       </c>
       <c r="F161" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G161" t="s">
         <v>30</v>
@@ -15055,7 +15055,7 @@
         <v>37</v>
       </c>
       <c r="G164" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6876603</v>
+        <v>6876607</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,13 +15319,13 @@
         <v>45319.72916666666</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -15334,43 +15334,43 @@
         <v>48</v>
       </c>
       <c r="K167">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L167">
         <v>3.4</v>
       </c>
       <c r="M167">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N167">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="O167">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P167">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q167">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S167">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V167">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W167">
-        <v>2.25</v>
+        <v>0.8</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15379,16 +15379,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC167">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6876607</v>
+        <v>6876603</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,13 +15408,13 @@
         <v>45319.72916666666</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H168">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -15423,43 +15423,43 @@
         <v>48</v>
       </c>
       <c r="K168">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L168">
         <v>3.4</v>
       </c>
       <c r="M168">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N168">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="O168">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P168">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q168">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R168">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S168">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T168">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V168">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W168">
-        <v>0.8</v>
+        <v>2.25</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15468,16 +15468,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA168">
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15500,7 +15500,7 @@
         <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15853,7 +15853,7 @@
         <v>45325.52083333334</v>
       </c>
       <c r="F173" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G173" t="s">
         <v>35</v>
@@ -16197,7 +16197,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7758962</v>
+        <v>7758961</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16209,13 +16209,13 @@
         <v>45326.625</v>
       </c>
       <c r="F177" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -16224,61 +16224,61 @@
         <v>48</v>
       </c>
       <c r="K177">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="L177">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M177">
-        <v>3.2</v>
+        <v>14</v>
       </c>
       <c r="N177">
-        <v>2.05</v>
+        <v>1.142</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="P177">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="Q177">
+        <v>-2</v>
+      </c>
+      <c r="R177">
+        <v>1.825</v>
+      </c>
+      <c r="S177">
+        <v>2.025</v>
+      </c>
+      <c r="T177">
+        <v>3.25</v>
+      </c>
+      <c r="U177">
+        <v>1.825</v>
+      </c>
+      <c r="V177">
+        <v>2.025</v>
+      </c>
+      <c r="W177">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="X177">
+        <v>-1</v>
+      </c>
+      <c r="Y177">
+        <v>-1</v>
+      </c>
+      <c r="Z177">
+        <v>0.825</v>
+      </c>
+      <c r="AA177">
+        <v>-1</v>
+      </c>
+      <c r="AB177">
         <v>-0.5</v>
       </c>
-      <c r="R177">
-        <v>2.06</v>
-      </c>
-      <c r="S177">
-        <v>1.84</v>
-      </c>
-      <c r="T177">
-        <v>2.5</v>
-      </c>
-      <c r="U177">
-        <v>1.975</v>
-      </c>
-      <c r="V177">
-        <v>1.875</v>
-      </c>
-      <c r="W177">
-        <v>1.05</v>
-      </c>
-      <c r="X177">
-        <v>-1</v>
-      </c>
-      <c r="Y177">
-        <v>-1</v>
-      </c>
-      <c r="Z177">
-        <v>1.06</v>
-      </c>
-      <c r="AA177">
-        <v>-1</v>
-      </c>
-      <c r="AB177">
-        <v>-1</v>
-      </c>
       <c r="AC177">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16286,7 +16286,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7758961</v>
+        <v>7758962</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16298,13 +16298,13 @@
         <v>45326.625</v>
       </c>
       <c r="F178" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G178" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -16313,43 +16313,43 @@
         <v>48</v>
       </c>
       <c r="K178">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="L178">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M178">
-        <v>14</v>
+        <v>3.2</v>
       </c>
       <c r="N178">
-        <v>1.142</v>
+        <v>2.05</v>
       </c>
       <c r="O178">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="P178">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="Q178">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R178">
-        <v>1.825</v>
+        <v>2.06</v>
       </c>
       <c r="S178">
-        <v>2.025</v>
+        <v>1.84</v>
       </c>
       <c r="T178">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U178">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V178">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W178">
-        <v>0.1419999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16358,16 +16358,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.825</v>
+        <v>1.06</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16568,7 +16568,7 @@
         <v>34</v>
       </c>
       <c r="G181" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H181">
         <v>3</v>
@@ -17102,7 +17102,7 @@
         <v>39</v>
       </c>
       <c r="G187" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H187">
         <v>2</v>
@@ -17544,7 +17544,7 @@
         <v>45339.625</v>
       </c>
       <c r="F192" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G192" t="s">
         <v>39</v>
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6876633</v>
+        <v>6876630</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,73 +17811,73 @@
         <v>45340.625</v>
       </c>
       <c r="F195" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G195" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H195">
+        <v>6</v>
+      </c>
+      <c r="I195">
         <v>1</v>
       </c>
-      <c r="I195">
-        <v>3</v>
-      </c>
       <c r="J195" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K195">
-        <v>2.2</v>
+        <v>1.111</v>
       </c>
       <c r="L195">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="M195">
-        <v>3.2</v>
+        <v>21</v>
       </c>
       <c r="N195">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="O195">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="P195">
-        <v>3.5</v>
+        <v>23</v>
       </c>
       <c r="Q195">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R195">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S195">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="T195">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U195">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V195">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA195">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6876630</v>
+        <v>6876633</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,73 +17900,73 @@
         <v>45340.625</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G196" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H196">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J196" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K196">
-        <v>1.111</v>
+        <v>2.2</v>
       </c>
       <c r="L196">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="M196">
-        <v>21</v>
+        <v>3.2</v>
       </c>
       <c r="N196">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="O196">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="P196">
-        <v>23</v>
+        <v>3.5</v>
       </c>
       <c r="Q196">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R196">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S196">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T196">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U196">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V196">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W196">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z196">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB196">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -18612,10 +18612,10 @@
         <v>45347.625</v>
       </c>
       <c r="F204" t="s">
+        <v>42</v>
+      </c>
+      <c r="G204" t="s">
         <v>41</v>
-      </c>
-      <c r="G204" t="s">
-        <v>42</v>
       </c>
       <c r="H204">
         <v>4</v>
@@ -18983,22 +18983,22 @@
         <v>2.05</v>
       </c>
       <c r="N208">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O208">
         <v>3.4</v>
       </c>
       <c r="P208">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="Q208">
         <v>0.25</v>
       </c>
       <c r="R208">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="S208">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="T208">
         <v>2.25</v>
@@ -19063,25 +19063,25 @@
         <v>3.2</v>
       </c>
       <c r="P209">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q209">
         <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S209">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="T209">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U209">
+        <v>1.775</v>
+      </c>
+      <c r="V209">
         <v>2.1</v>
-      </c>
-      <c r="V209">
-        <v>1.775</v>
       </c>
       <c r="W209">
         <v>0</v>
@@ -19134,28 +19134,28 @@
         <v>3.5</v>
       </c>
       <c r="O210">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P210">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Q210">
         <v>0.25</v>
       </c>
       <c r="R210">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="S210">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="T210">
         <v>2.5</v>
       </c>
       <c r="U210">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V210">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W210">
         <v>0</v>
@@ -19208,28 +19208,28 @@
         <v>1.363</v>
       </c>
       <c r="O211">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P211">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q211">
         <v>-1.5</v>
       </c>
       <c r="R211">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="S211">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="T211">
         <v>3</v>
       </c>
       <c r="U211">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V211">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W211">
         <v>0</v>
@@ -19264,7 +19264,7 @@
         <v>45354.52083333334</v>
       </c>
       <c r="F212" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G212" t="s">
         <v>45</v>
@@ -19282,7 +19282,7 @@
         <v>2.625</v>
       </c>
       <c r="O212">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P212">
         <v>2.75</v>
@@ -19291,10 +19291,10 @@
         <v>0</v>
       </c>
       <c r="R212">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="S212">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="T212">
         <v>2.25</v>
@@ -19353,7 +19353,7 @@
         <v>3.1</v>
       </c>
       <c r="N213">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O213">
         <v>3.1</v>
@@ -19365,10 +19365,10 @@
         <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="S213">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="T213">
         <v>2</v>
@@ -19427,22 +19427,22 @@
         <v>17</v>
       </c>
       <c r="N214">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O214">
         <v>8</v>
       </c>
       <c r="P214">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q214">
         <v>-2.25</v>
       </c>
       <c r="R214">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S214">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="T214">
         <v>3.5</v>
@@ -19489,7 +19489,7 @@
         <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K215">
         <v>2.375</v>
@@ -19501,31 +19501,31 @@
         <v>3</v>
       </c>
       <c r="N215">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O215">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P215">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q215">
         <v>-0.25</v>
       </c>
       <c r="R215">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="S215">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W215">
         <v>0</v>
@@ -19575,31 +19575,31 @@
         <v>3.5</v>
       </c>
       <c r="N216">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O216">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P216">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q216">
         <v>-0.5</v>
       </c>
       <c r="R216">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="S216">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U216">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V216">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W216">
         <v>0</v>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -3114,7 +3114,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6876488</v>
+        <v>6876483</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3126,76 +3126,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M30">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N30">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O30">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P30">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
+        <v>2.025</v>
+      </c>
+      <c r="S30">
         <v>1.825</v>
-      </c>
-      <c r="S30">
-        <v>2.025</v>
       </c>
       <c r="T30">
         <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X30">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA30">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6876483</v>
+        <v>6876488</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,76 +3215,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L31">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M31">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N31">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O31">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R31">
+        <v>1.825</v>
+      </c>
+      <c r="S31">
         <v>2.025</v>
-      </c>
-      <c r="S31">
-        <v>1.825</v>
       </c>
       <c r="T31">
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W31">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC31">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7165060</v>
+        <v>7165059</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,40 +4194,40 @@
         <v>45186.47916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K42">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L42">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
         <v>3.2</v>
       </c>
       <c r="N42">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="O42">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P42">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R42">
         <v>2</v>
@@ -4236,34 +4236,34 @@
         <v>1.85</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7165059</v>
+        <v>7165060</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,40 +4283,40 @@
         <v>45186.47916666666</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K43">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L43">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M43">
         <v>3.2</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="O43">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P43">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R43">
         <v>2</v>
@@ -4325,34 +4325,34 @@
         <v>1.85</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U43">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB43">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6876517</v>
+        <v>6876516</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,55 +6686,55 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
         <v>47</v>
       </c>
       <c r="K70">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L70">
         <v>3.1</v>
       </c>
       <c r="M70">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N70">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O70">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P70">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S70">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T70">
         <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6743,19 +6743,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC70">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6876516</v>
+        <v>6876517</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,55 +6775,55 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
         <v>1</v>
-      </c>
-      <c r="I71">
-        <v>3</v>
       </c>
       <c r="J71" t="s">
         <v>47</v>
       </c>
       <c r="K71">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L71">
         <v>3.1</v>
       </c>
       <c r="M71">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N71">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O71">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P71">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T71">
         <v>2.25</v>
       </c>
       <c r="U71">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W71">
         <v>-1</v>
@@ -6832,19 +6832,19 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB71">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -8187,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6875463</v>
+        <v>6876531</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8199,76 +8199,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
         <v>1</v>
       </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
       <c r="J87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K87">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="L87">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N87">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="O87">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P87">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T87">
         <v>2.25</v>
       </c>
       <c r="U87">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z87">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6876531</v>
+        <v>6875463</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,76 +8288,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K88">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M88">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N88">
+        <v>2.875</v>
+      </c>
+      <c r="O88">
+        <v>3.3</v>
+      </c>
+      <c r="P88">
+        <v>2.4</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
         <v>2.1</v>
       </c>
-      <c r="O88">
-        <v>3.4</v>
-      </c>
-      <c r="P88">
-        <v>3.4</v>
-      </c>
-      <c r="Q88">
-        <v>-0.25</v>
-      </c>
-      <c r="R88">
-        <v>1.875</v>
-      </c>
       <c r="S88">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T88">
         <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA88">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6876541</v>
+        <v>6876540</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,19 +9089,19 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K97">
         <v>2</v>
@@ -9113,16 +9113,16 @@
         <v>3.6</v>
       </c>
       <c r="N97">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P97">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
         <v>1.95</v>
@@ -9131,34 +9131,34 @@
         <v>1.9</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V97">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6876540</v>
+        <v>6876541</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,19 +9178,19 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K98">
         <v>2</v>
@@ -9202,16 +9202,16 @@
         <v>3.6</v>
       </c>
       <c r="N98">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
         <v>1.95</v>
@@ -9220,34 +9220,34 @@
         <v>1.9</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y98">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA98">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB98">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6875467</v>
+        <v>6876563</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,40 +11403,40 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H123">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M123">
-        <v>3.9</v>
+        <v>2.55</v>
       </c>
       <c r="N123">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O123">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P123">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R123">
         <v>1.875</v>
@@ -11445,31 +11445,31 @@
         <v>1.975</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U123">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V123">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W123">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z123">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB123">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6876563</v>
+        <v>6875467</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,40 +11492,40 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K124">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="L124">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
-        <v>2.55</v>
+        <v>3.9</v>
       </c>
       <c r="N124">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O124">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P124">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R124">
         <v>1.875</v>
@@ -11534,31 +11534,31 @@
         <v>1.975</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA124">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7515550</v>
+        <v>7513577</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,13 +12293,13 @@
         <v>45290.52083333334</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -12308,43 +12308,43 @@
         <v>48</v>
       </c>
       <c r="K133">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L133">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N133">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O133">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P133">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S133">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V133">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W133">
-        <v>1.3</v>
+        <v>0.833</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12353,16 +12353,16 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA133">
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC133">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7513577</v>
+        <v>7515550</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,13 +12382,13 @@
         <v>45290.52083333334</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -12397,43 +12397,43 @@
         <v>48</v>
       </c>
       <c r="K134">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M134">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N134">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O134">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P134">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q134">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S134">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V134">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W134">
-        <v>0.833</v>
+        <v>1.3</v>
       </c>
       <c r="X134">
         <v>-1</v>
@@ -12442,16 +12442,16 @@
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA134">
         <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6876591</v>
+        <v>6876586</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,40 +13895,40 @@
         <v>45305.625</v>
       </c>
       <c r="F151" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H151">
+        <v>4</v>
+      </c>
+      <c r="I151">
         <v>1</v>
       </c>
-      <c r="I151">
-        <v>4</v>
-      </c>
       <c r="J151" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K151">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="L151">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="M151">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="N151">
-        <v>1.95</v>
+        <v>1.2</v>
       </c>
       <c r="O151">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="P151">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q151">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R151">
         <v>2.025</v>
@@ -13937,31 +13937,31 @@
         <v>1.825</v>
       </c>
       <c r="T151">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U151">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V151">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA151">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6876586</v>
+        <v>6876591</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,40 +13984,40 @@
         <v>45305.625</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
         <v>4</v>
       </c>
-      <c r="I152">
-        <v>1</v>
-      </c>
       <c r="J152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K152">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="L152">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="M152">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="N152">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="O152">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="P152">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q152">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
         <v>2.025</v>
@@ -14026,31 +14026,31 @@
         <v>1.825</v>
       </c>
       <c r="T152">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V152">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W152">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z152">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB152">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -16197,7 +16197,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7758961</v>
+        <v>7758962</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16209,13 +16209,13 @@
         <v>45326.625</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -16224,43 +16224,43 @@
         <v>48</v>
       </c>
       <c r="K177">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="L177">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M177">
-        <v>14</v>
+        <v>3.2</v>
       </c>
       <c r="N177">
-        <v>1.142</v>
+        <v>2.05</v>
       </c>
       <c r="O177">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="Q177">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.825</v>
+        <v>2.06</v>
       </c>
       <c r="S177">
-        <v>2.025</v>
+        <v>1.84</v>
       </c>
       <c r="T177">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V177">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W177">
-        <v>0.1419999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16269,16 +16269,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.825</v>
+        <v>1.06</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16286,7 +16286,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7758962</v>
+        <v>7758961</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16298,13 +16298,13 @@
         <v>45326.625</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G178" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -16313,61 +16313,61 @@
         <v>48</v>
       </c>
       <c r="K178">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="L178">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M178">
-        <v>3.2</v>
+        <v>14</v>
       </c>
       <c r="N178">
-        <v>2.05</v>
+        <v>1.142</v>
       </c>
       <c r="O178">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="P178">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="Q178">
+        <v>-2</v>
+      </c>
+      <c r="R178">
+        <v>1.825</v>
+      </c>
+      <c r="S178">
+        <v>2.025</v>
+      </c>
+      <c r="T178">
+        <v>3.25</v>
+      </c>
+      <c r="U178">
+        <v>1.825</v>
+      </c>
+      <c r="V178">
+        <v>2.025</v>
+      </c>
+      <c r="W178">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="X178">
+        <v>-1</v>
+      </c>
+      <c r="Y178">
+        <v>-1</v>
+      </c>
+      <c r="Z178">
+        <v>0.825</v>
+      </c>
+      <c r="AA178">
+        <v>-1</v>
+      </c>
+      <c r="AB178">
         <v>-0.5</v>
       </c>
-      <c r="R178">
-        <v>2.06</v>
-      </c>
-      <c r="S178">
-        <v>1.84</v>
-      </c>
-      <c r="T178">
-        <v>2.5</v>
-      </c>
-      <c r="U178">
-        <v>1.975</v>
-      </c>
-      <c r="V178">
-        <v>1.875</v>
-      </c>
-      <c r="W178">
-        <v>1.05</v>
-      </c>
-      <c r="X178">
-        <v>-1</v>
-      </c>
-      <c r="Y178">
-        <v>-1</v>
-      </c>
-      <c r="Z178">
-        <v>1.06</v>
-      </c>
-      <c r="AA178">
-        <v>-1</v>
-      </c>
-      <c r="AB178">
-        <v>-1</v>
-      </c>
       <c r="AC178">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -18600,7 +18600,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6876637</v>
+        <v>6876641</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18612,76 +18612,76 @@
         <v>45347.625</v>
       </c>
       <c r="F204" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G204" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H204">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K204">
-        <v>1.125</v>
+        <v>7</v>
       </c>
       <c r="L204">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="M204">
-        <v>21</v>
+        <v>1.363</v>
       </c>
       <c r="N204">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="O204">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="P204">
-        <v>21</v>
+        <v>1.5</v>
       </c>
       <c r="Q204">
-        <v>-2.5</v>
+        <v>1</v>
       </c>
       <c r="R204">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S204">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T204">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V204">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W204">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X204">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y204">
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA204">
         <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18689,7 +18689,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6876641</v>
+        <v>6876637</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,76 +18701,76 @@
         <v>45347.625</v>
       </c>
       <c r="F205" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G205" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K205">
-        <v>7</v>
+        <v>1.125</v>
       </c>
       <c r="L205">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="M205">
-        <v>1.363</v>
+        <v>21</v>
       </c>
       <c r="N205">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="O205">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="P205">
-        <v>1.5</v>
+        <v>21</v>
       </c>
       <c r="Q205">
-        <v>1</v>
+        <v>-2.5</v>
       </c>
       <c r="R205">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S205">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T205">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U205">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V205">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X205">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA205">
         <v>-1</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC205">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18973,6 +18973,15 @@
       <c r="G208" t="s">
         <v>35</v>
       </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208">
+        <v>5</v>
+      </c>
+      <c r="J208" t="s">
+        <v>47</v>
+      </c>
       <c r="K208">
         <v>3.6</v>
       </c>
@@ -18983,10 +18992,10 @@
         <v>2.05</v>
       </c>
       <c r="N208">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O208">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P208">
         <v>2.15</v>
@@ -18995,34 +19004,40 @@
         <v>0.25</v>
       </c>
       <c r="R208">
+        <v>1.975</v>
+      </c>
+      <c r="S208">
+        <v>1.875</v>
+      </c>
+      <c r="T208">
+        <v>2.5</v>
+      </c>
+      <c r="U208">
         <v>2</v>
       </c>
-      <c r="S208">
-        <v>1.9</v>
-      </c>
-      <c r="T208">
-        <v>2.25</v>
-      </c>
-      <c r="U208">
+      <c r="V208">
         <v>1.85</v>
       </c>
-      <c r="V208">
-        <v>2</v>
-      </c>
       <c r="W208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="Z208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB208">
+        <v>1</v>
+      </c>
+      <c r="AC208">
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:27">
@@ -19057,10 +19072,10 @@
         <v>3.4</v>
       </c>
       <c r="N209">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O209">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P209">
         <v>3.5</v>
@@ -19069,19 +19084,19 @@
         <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S209">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="T209">
         <v>2</v>
       </c>
       <c r="U209">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V209">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="W209">
         <v>0</v>
@@ -19131,31 +19146,31 @@
         <v>2.05</v>
       </c>
       <c r="N210">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O210">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P210">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q210">
         <v>0.25</v>
       </c>
       <c r="R210">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="S210">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="T210">
         <v>2.5</v>
       </c>
       <c r="U210">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V210">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W210">
         <v>0</v>
@@ -19217,10 +19232,10 @@
         <v>-1.5</v>
       </c>
       <c r="R211">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="S211">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="T211">
         <v>3</v>
@@ -19252,7 +19267,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6876649</v>
+        <v>6876647</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19264,46 +19279,46 @@
         <v>45354.52083333334</v>
       </c>
       <c r="F212" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G212" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K212">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="L212">
         <v>3.1</v>
       </c>
       <c r="M212">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N212">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="O212">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P212">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q212">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R212">
-        <v>1.91</v>
+        <v>2.11</v>
       </c>
       <c r="S212">
-        <v>1.99</v>
+        <v>1.79</v>
       </c>
       <c r="T212">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U212">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V212">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W212">
         <v>0</v>
@@ -19326,7 +19341,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6876647</v>
+        <v>6876649</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19338,46 +19353,46 @@
         <v>45354.52083333334</v>
       </c>
       <c r="F213" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G213" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K213">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="L213">
         <v>3.1</v>
       </c>
       <c r="M213">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N213">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O213">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P213">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q213">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R213">
-        <v>2.11</v>
+        <v>1.91</v>
       </c>
       <c r="S213">
-        <v>1.79</v>
+        <v>1.99</v>
       </c>
       <c r="T213">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V213">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W213">
         <v>0</v>
@@ -19427,22 +19442,22 @@
         <v>17</v>
       </c>
       <c r="N214">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O214">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="P214">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q214">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R214">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S214">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="T214">
         <v>3.5</v>
@@ -19513,10 +19528,10 @@
         <v>-0.25</v>
       </c>
       <c r="R215">
-        <v>2.09</v>
+        <v>2.11</v>
       </c>
       <c r="S215">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="T215">
         <v>2.5</v>
@@ -19587,19 +19602,19 @@
         <v>-0.5</v>
       </c>
       <c r="R216">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S216">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T216">
         <v>2.25</v>
       </c>
       <c r="U216">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V216">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W216">
         <v>0</v>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6876486</v>
+        <v>6875457</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,10 +3393,10 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3408,40 +3408,40 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L33">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M33">
+        <v>3.1</v>
+      </c>
+      <c r="N33">
         <v>2.9</v>
       </c>
-      <c r="N33">
+      <c r="O33">
+        <v>3.5</v>
+      </c>
+      <c r="P33">
+        <v>2.25</v>
+      </c>
+      <c r="Q33">
+        <v>0.25</v>
+      </c>
+      <c r="R33">
+        <v>1.875</v>
+      </c>
+      <c r="S33">
+        <v>1.975</v>
+      </c>
+      <c r="T33">
         <v>2.5</v>
       </c>
-      <c r="O33">
-        <v>3.25</v>
-      </c>
-      <c r="P33">
-        <v>2.8</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>1.82</v>
-      </c>
-      <c r="S33">
-        <v>2.08</v>
-      </c>
-      <c r="T33">
-        <v>2.25</v>
-      </c>
       <c r="U33">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
         <v>-1</v>
@@ -3450,16 +3450,16 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>1.08</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB33">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6875457</v>
+        <v>6876486</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3482,10 +3482,10 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3497,40 +3497,40 @@
         <v>47</v>
       </c>
       <c r="K34">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L34">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M34">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N34">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="O34">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P34">
+        <v>2.8</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>1.82</v>
+      </c>
+      <c r="S34">
+        <v>2.08</v>
+      </c>
+      <c r="T34">
         <v>2.25</v>
       </c>
-      <c r="Q34">
-        <v>0.25</v>
-      </c>
-      <c r="R34">
-        <v>1.875</v>
-      </c>
-      <c r="S34">
-        <v>1.975</v>
-      </c>
-      <c r="T34">
-        <v>2.5</v>
-      </c>
       <c r="U34">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V34">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W34">
         <v>-1</v>
@@ -3539,16 +3539,16 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.9750000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AB34">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6876518</v>
+        <v>6876515</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,49 +6330,49 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K66">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L66">
         <v>3.2</v>
       </c>
       <c r="M66">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N66">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O66">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P66">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
         <v>1.95</v>
@@ -6381,25 +6381,25 @@
         <v>1.9</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X66">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA66">
-        <v>0.445</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC66">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6876515</v>
+        <v>6876518</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,49 +6419,49 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K67">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L67">
         <v>3.2</v>
       </c>
       <c r="M67">
+        <v>2.875</v>
+      </c>
+      <c r="N67">
+        <v>2.2</v>
+      </c>
+      <c r="O67">
+        <v>3.2</v>
+      </c>
+      <c r="P67">
+        <v>3.1</v>
+      </c>
+      <c r="Q67">
+        <v>-0.25</v>
+      </c>
+      <c r="R67">
+        <v>2.01</v>
+      </c>
+      <c r="S67">
+        <v>1.89</v>
+      </c>
+      <c r="T67">
         <v>2.5</v>
-      </c>
-      <c r="N67">
-        <v>2.5</v>
-      </c>
-      <c r="O67">
-        <v>3.4</v>
-      </c>
-      <c r="P67">
-        <v>2.45</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>2</v>
-      </c>
-      <c r="S67">
-        <v>1.9</v>
-      </c>
-      <c r="T67">
-        <v>2.75</v>
       </c>
       <c r="U67">
         <v>1.95</v>
@@ -6470,25 +6470,25 @@
         <v>1.9</v>
       </c>
       <c r="W67">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.445</v>
       </c>
       <c r="AB67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6876516</v>
+        <v>6876517</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,55 +6686,55 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F70" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
         <v>1</v>
-      </c>
-      <c r="I70">
-        <v>3</v>
       </c>
       <c r="J70" t="s">
         <v>47</v>
       </c>
       <c r="K70">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L70">
         <v>3.1</v>
       </c>
       <c r="M70">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N70">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O70">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P70">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T70">
         <v>2.25</v>
       </c>
       <c r="U70">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6743,19 +6743,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB70">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6876517</v>
+        <v>6876516</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,55 +6775,55 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J71" t="s">
         <v>47</v>
       </c>
       <c r="K71">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L71">
         <v>3.1</v>
       </c>
       <c r="M71">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N71">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O71">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P71">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S71">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T71">
         <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V71">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W71">
         <v>-1</v>
@@ -6832,19 +6832,19 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC71">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6876523</v>
+        <v>6876528</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,76 +7220,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K76">
-        <v>1.166</v>
+        <v>1.75</v>
       </c>
       <c r="L76">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M76">
-        <v>15</v>
+        <v>4.75</v>
       </c>
       <c r="N76">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="O76">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P76">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q76">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R76">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V76">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X76">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC76">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6876528</v>
+        <v>6876523</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,76 +7309,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77" t="s">
+        <v>49</v>
+      </c>
+      <c r="K77">
+        <v>1.166</v>
+      </c>
+      <c r="L77">
+        <v>7</v>
+      </c>
+      <c r="M77">
+        <v>15</v>
+      </c>
+      <c r="N77">
+        <v>1.222</v>
+      </c>
+      <c r="O77">
+        <v>6</v>
+      </c>
+      <c r="P77">
+        <v>11</v>
+      </c>
+      <c r="Q77">
+        <v>-1.75</v>
+      </c>
+      <c r="R77">
+        <v>1.875</v>
+      </c>
+      <c r="S77">
+        <v>1.975</v>
+      </c>
+      <c r="T77">
+        <v>3</v>
+      </c>
+      <c r="U77">
+        <v>1.95</v>
+      </c>
+      <c r="V77">
+        <v>1.9</v>
+      </c>
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
         <v>5</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77" t="s">
-        <v>48</v>
-      </c>
-      <c r="K77">
-        <v>1.75</v>
-      </c>
-      <c r="L77">
-        <v>3.6</v>
-      </c>
-      <c r="M77">
-        <v>4.75</v>
-      </c>
-      <c r="N77">
-        <v>1.666</v>
-      </c>
-      <c r="O77">
-        <v>3.75</v>
-      </c>
-      <c r="P77">
-        <v>5</v>
-      </c>
-      <c r="Q77">
-        <v>-0.75</v>
-      </c>
-      <c r="R77">
-        <v>1.9</v>
-      </c>
-      <c r="S77">
-        <v>2</v>
-      </c>
-      <c r="T77">
-        <v>2.5</v>
-      </c>
-      <c r="U77">
-        <v>1.925</v>
-      </c>
-      <c r="V77">
-        <v>1.925</v>
-      </c>
-      <c r="W77">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
+        <v>-1</v>
+      </c>
+      <c r="AA77">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB77">
+        <v>-1</v>
+      </c>
+      <c r="AC77">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA77">
-        <v>-1</v>
-      </c>
-      <c r="AB77">
-        <v>0.925</v>
-      </c>
-      <c r="AC77">
-        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -8187,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6876531</v>
+        <v>6875463</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8199,76 +8199,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
         <v>0</v>
       </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K87">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M87">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N87">
+        <v>2.875</v>
+      </c>
+      <c r="O87">
+        <v>3.3</v>
+      </c>
+      <c r="P87">
+        <v>2.4</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
         <v>2.1</v>
       </c>
-      <c r="O87">
-        <v>3.4</v>
-      </c>
-      <c r="P87">
-        <v>3.4</v>
-      </c>
-      <c r="Q87">
-        <v>-0.25</v>
-      </c>
-      <c r="R87">
-        <v>1.875</v>
-      </c>
       <c r="S87">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T87">
         <v>2.25</v>
       </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6875463</v>
+        <v>6876531</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,76 +8288,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
         <v>1</v>
       </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K88">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="L88">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N88">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="O88">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P88">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S88">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T88">
         <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z88">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6875464</v>
+        <v>6876543</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,49 +8822,49 @@
         <v>45241.625</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K94">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L94">
         <v>3.2</v>
       </c>
       <c r="M94">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N94">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O94">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P94">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S94">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T94">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U94">
         <v>2</v>
@@ -8876,16 +8876,16 @@
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y94">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AB94">
         <v>-1</v>
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6876543</v>
+        <v>6875464</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,49 +8911,49 @@
         <v>45241.625</v>
       </c>
       <c r="F95" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L95">
         <v>3.2</v>
       </c>
       <c r="M95">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N95">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O95">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P95">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
         <v>2</v>
@@ -8965,16 +8965,16 @@
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AB95">
         <v>-1</v>
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6876540</v>
+        <v>6876541</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,19 +9089,19 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K97">
         <v>2</v>
@@ -9113,16 +9113,16 @@
         <v>3.6</v>
       </c>
       <c r="N97">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O97">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P97">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
         <v>1.95</v>
@@ -9131,34 +9131,34 @@
         <v>1.9</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V97">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y97">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA97">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB97">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6876541</v>
+        <v>6876540</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,19 +9178,19 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K98">
         <v>2</v>
@@ -9202,16 +9202,16 @@
         <v>3.6</v>
       </c>
       <c r="N98">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O98">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
         <v>1.95</v>
@@ -9220,34 +9220,34 @@
         <v>1.9</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U98">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6876581</v>
+        <v>6876582</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L139">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M139">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N139">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O139">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P139">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
+        <v>1.95</v>
+      </c>
+      <c r="S139">
+        <v>1.9</v>
+      </c>
+      <c r="T139">
+        <v>2.5</v>
+      </c>
+      <c r="U139">
         <v>2.025</v>
       </c>
-      <c r="S139">
+      <c r="V139">
         <v>1.825</v>
       </c>
-      <c r="T139">
-        <v>2.25</v>
-      </c>
-      <c r="U139">
-        <v>1.975</v>
-      </c>
-      <c r="V139">
-        <v>1.875</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X139">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA139">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6876582</v>
+        <v>6876581</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G140" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140" t="s">
+        <v>49</v>
+      </c>
+      <c r="K140">
+        <v>2</v>
+      </c>
+      <c r="L140">
+        <v>3.4</v>
+      </c>
+      <c r="M140">
+        <v>3.6</v>
+      </c>
+      <c r="N140">
+        <v>2.8</v>
+      </c>
+      <c r="O140">
+        <v>3.3</v>
+      </c>
+      <c r="P140">
+        <v>2.55</v>
+      </c>
+      <c r="Q140">
         <v>0</v>
       </c>
-      <c r="J140" t="s">
-        <v>48</v>
-      </c>
-      <c r="K140">
-        <v>1.8</v>
-      </c>
-      <c r="L140">
-        <v>3.6</v>
-      </c>
-      <c r="M140">
-        <v>4.2</v>
-      </c>
-      <c r="N140">
-        <v>2.2</v>
-      </c>
-      <c r="O140">
-        <v>3.25</v>
-      </c>
-      <c r="P140">
-        <v>3.25</v>
-      </c>
-      <c r="Q140">
-        <v>-0.25</v>
-      </c>
       <c r="R140">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S140">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W140">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC140">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6876607</v>
+        <v>6876603</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,13 +15319,13 @@
         <v>45319.72916666666</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H167">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -15334,43 +15334,43 @@
         <v>48</v>
       </c>
       <c r="K167">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L167">
         <v>3.4</v>
       </c>
       <c r="M167">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N167">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="O167">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P167">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R167">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S167">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V167">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W167">
-        <v>0.8</v>
+        <v>2.25</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15379,16 +15379,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6876603</v>
+        <v>6876607</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,13 +15408,13 @@
         <v>45319.72916666666</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -15423,43 +15423,43 @@
         <v>48</v>
       </c>
       <c r="K168">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L168">
         <v>3.4</v>
       </c>
       <c r="M168">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N168">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="O168">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P168">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q168">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S168">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U168">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V168">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W168">
-        <v>2.25</v>
+        <v>0.8</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15468,16 +15468,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA168">
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC168">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6876630</v>
+        <v>6876633</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,73 +17811,73 @@
         <v>45340.625</v>
       </c>
       <c r="F195" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G195" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H195">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J195" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K195">
-        <v>1.111</v>
+        <v>2.2</v>
       </c>
       <c r="L195">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="M195">
-        <v>21</v>
+        <v>3.2</v>
       </c>
       <c r="N195">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="O195">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="P195">
-        <v>23</v>
+        <v>3.5</v>
       </c>
       <c r="Q195">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R195">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S195">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T195">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U195">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V195">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W195">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z195">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB195">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6876633</v>
+        <v>6876630</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,73 +17900,73 @@
         <v>45340.625</v>
       </c>
       <c r="F196" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H196">
+        <v>6</v>
+      </c>
+      <c r="I196">
         <v>1</v>
       </c>
-      <c r="I196">
-        <v>3</v>
-      </c>
       <c r="J196" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K196">
-        <v>2.2</v>
+        <v>1.111</v>
       </c>
       <c r="L196">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="M196">
-        <v>3.2</v>
+        <v>21</v>
       </c>
       <c r="N196">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="O196">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="P196">
-        <v>3.5</v>
+        <v>23</v>
       </c>
       <c r="Q196">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R196">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S196">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="T196">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U196">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V196">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA196">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -18600,7 +18600,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6876641</v>
+        <v>6876637</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18612,76 +18612,76 @@
         <v>45347.625</v>
       </c>
       <c r="F204" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G204" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K204">
-        <v>7</v>
+        <v>1.125</v>
       </c>
       <c r="L204">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="M204">
-        <v>1.363</v>
+        <v>21</v>
       </c>
       <c r="N204">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="O204">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="P204">
-        <v>1.5</v>
+        <v>21</v>
       </c>
       <c r="Q204">
-        <v>1</v>
+        <v>-2.5</v>
       </c>
       <c r="R204">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S204">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T204">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U204">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V204">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W204">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X204">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA204">
         <v>-1</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC204">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18689,7 +18689,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6876637</v>
+        <v>6876641</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,76 +18701,76 @@
         <v>45347.625</v>
       </c>
       <c r="F205" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G205" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H205">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K205">
-        <v>1.125</v>
+        <v>7</v>
       </c>
       <c r="L205">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="M205">
-        <v>21</v>
+        <v>1.363</v>
       </c>
       <c r="N205">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="O205">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="P205">
-        <v>21</v>
+        <v>1.5</v>
       </c>
       <c r="Q205">
-        <v>-2.5</v>
+        <v>1</v>
       </c>
       <c r="R205">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S205">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T205">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V205">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W205">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA205">
         <v>-1</v>
       </c>
       <c r="AB205">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -19040,7 +19040,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="209" spans="1:27">
+    <row r="209" spans="1:29">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -19062,6 +19062,15 @@
       <c r="G209" t="s">
         <v>33</v>
       </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209" t="s">
+        <v>49</v>
+      </c>
       <c r="K209">
         <v>2.2</v>
       </c>
@@ -19072,49 +19081,55 @@
         <v>3.4</v>
       </c>
       <c r="N209">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O209">
         <v>3.1</v>
       </c>
       <c r="P209">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q209">
         <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="S209">
-        <v>1.97</v>
+        <v>1.775</v>
       </c>
       <c r="T209">
         <v>2</v>
       </c>
       <c r="U209">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V209">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:27">
+        <v>0.3875</v>
+      </c>
+      <c r="AB209">
+        <v>-1</v>
+      </c>
+      <c r="AC209">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -19136,6 +19151,15 @@
       <c r="G210" t="s">
         <v>39</v>
       </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210">
+        <v>3</v>
+      </c>
+      <c r="J210" t="s">
+        <v>47</v>
+      </c>
       <c r="K210">
         <v>3.5</v>
       </c>
@@ -19146,49 +19170,55 @@
         <v>2.05</v>
       </c>
       <c r="N210">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="O210">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P210">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q210">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R210">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S210">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T210">
         <v>2.5</v>
       </c>
       <c r="U210">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V210">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Z210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:27">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB210">
+        <v>0.875</v>
+      </c>
+      <c r="AC210">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -19210,6 +19240,15 @@
       <c r="G211" t="s">
         <v>34</v>
       </c>
+      <c r="H211">
+        <v>3</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211" t="s">
+        <v>48</v>
+      </c>
       <c r="K211">
         <v>1.363</v>
       </c>
@@ -19226,43 +19265,49 @@
         <v>5</v>
       </c>
       <c r="P211">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Q211">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R211">
-        <v>2.02</v>
+        <v>1.825</v>
       </c>
       <c r="S211">
-        <v>1.88</v>
+        <v>2.025</v>
       </c>
       <c r="T211">
         <v>3</v>
       </c>
       <c r="U211">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V211">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W211">
+        <v>0.363</v>
+      </c>
+      <c r="X211">
+        <v>-1</v>
+      </c>
+      <c r="Y211">
+        <v>-1</v>
+      </c>
+      <c r="Z211">
+        <v>0.825</v>
+      </c>
+      <c r="AA211">
+        <v>-1</v>
+      </c>
+      <c r="AB211">
         <v>0</v>
       </c>
-      <c r="X211">
-        <v>0</v>
-      </c>
-      <c r="Y211">
-        <v>0</v>
-      </c>
-      <c r="Z211">
-        <v>0</v>
-      </c>
-      <c r="AA211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:27">
+      <c r="AC211">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -19315,10 +19360,10 @@
         <v>2</v>
       </c>
       <c r="U212">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V212">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W212">
         <v>0</v>
@@ -19336,7 +19381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:27">
+    <row r="213" spans="1:29">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -19368,22 +19413,22 @@
         <v>2.75</v>
       </c>
       <c r="N213">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="O213">
         <v>3.25</v>
       </c>
       <c r="P213">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q213">
         <v>0</v>
       </c>
       <c r="R213">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S213">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="T213">
         <v>2.25</v>
@@ -19410,7 +19455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:27">
+    <row r="214" spans="1:29">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -19442,22 +19487,22 @@
         <v>17</v>
       </c>
       <c r="N214">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O214">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="P214">
         <v>21</v>
       </c>
       <c r="Q214">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R214">
+        <v>1.85</v>
+      </c>
+      <c r="S214">
         <v>2.05</v>
-      </c>
-      <c r="S214">
-        <v>1.85</v>
       </c>
       <c r="T214">
         <v>3.5</v>
@@ -19484,7 +19529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:27">
+    <row r="215" spans="1:29">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -19528,19 +19573,19 @@
         <v>-0.25</v>
       </c>
       <c r="R215">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
       <c r="S215">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W215">
         <v>0</v>
@@ -19558,7 +19603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:27">
+    <row r="216" spans="1:29">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -19602,10 +19647,10 @@
         <v>-0.5</v>
       </c>
       <c r="R216">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="S216">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T216">
         <v>2.25</v>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -139,10 +139,10 @@
     <t>Chaves</t>
   </si>
   <si>
-    <t>Portimonense</t>
+    <t>Benfica</t>
   </si>
   <si>
-    <t>Benfica</t>
+    <t>Portimonense</t>
   </si>
   <si>
     <t>Estoril</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC216"/>
+  <dimension ref="A1:AC225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -1349,7 +1349,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6876471</v>
+        <v>6876465</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,73 +1705,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>2.45</v>
+        <v>1.125</v>
       </c>
       <c r="L14">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M14">
-        <v>2.875</v>
+        <v>19</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="O14">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P14">
-        <v>2.3</v>
+        <v>17</v>
       </c>
       <c r="Q14">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R14">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T14">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB14">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6876465</v>
+        <v>6876471</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,73 +1794,73 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15">
+        <v>2.45</v>
+      </c>
+      <c r="L15">
+        <v>3.25</v>
+      </c>
+      <c r="M15">
+        <v>2.875</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>3.3</v>
+      </c>
+      <c r="P15">
+        <v>2.3</v>
+      </c>
+      <c r="Q15">
+        <v>0.25</v>
+      </c>
+      <c r="R15">
+        <v>1.85</v>
+      </c>
+      <c r="S15">
         <v>2</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15">
-        <v>1.125</v>
-      </c>
-      <c r="L15">
-        <v>8</v>
-      </c>
-      <c r="M15">
-        <v>19</v>
-      </c>
-      <c r="N15">
-        <v>1.142</v>
-      </c>
-      <c r="O15">
-        <v>7.5</v>
-      </c>
-      <c r="P15">
-        <v>17</v>
-      </c>
-      <c r="Q15">
-        <v>-2.25</v>
-      </c>
-      <c r="R15">
+      <c r="T15">
+        <v>2.25</v>
+      </c>
+      <c r="U15">
         <v>1.925</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>1.925</v>
       </c>
-      <c r="T15">
-        <v>3.5</v>
-      </c>
-      <c r="U15">
-        <v>1.875</v>
-      </c>
-      <c r="V15">
-        <v>1.975</v>
-      </c>
       <c r="W15">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2328,7 +2328,7 @@
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2506,7 +2506,7 @@
         <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -3114,7 +3114,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6876483</v>
+        <v>6876488</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3126,76 +3126,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L30">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M30">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N30">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O30">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R30">
+        <v>1.825</v>
+      </c>
+      <c r="S30">
         <v>2.025</v>
-      </c>
-      <c r="S30">
-        <v>1.825</v>
       </c>
       <c r="T30">
         <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W30">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC30">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6876488</v>
+        <v>6876483</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,76 +3215,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L31">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M31">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N31">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O31">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
+        <v>2.025</v>
+      </c>
+      <c r="S31">
         <v>1.825</v>
-      </c>
-      <c r="S31">
-        <v>2.025</v>
       </c>
       <c r="T31">
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X31">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA31">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3304,7 +3304,7 @@
         <v>45171.6875</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
         <v>39</v>
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6875457</v>
+        <v>6876486</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,10 +3393,10 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3408,40 +3408,40 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L33">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M33">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N33">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="O33">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P33">
+        <v>2.8</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>1.82</v>
+      </c>
+      <c r="S33">
+        <v>2.08</v>
+      </c>
+      <c r="T33">
         <v>2.25</v>
       </c>
-      <c r="Q33">
-        <v>0.25</v>
-      </c>
-      <c r="R33">
-        <v>1.875</v>
-      </c>
-      <c r="S33">
-        <v>1.975</v>
-      </c>
-      <c r="T33">
-        <v>2.5</v>
-      </c>
       <c r="U33">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W33">
         <v>-1</v>
@@ -3450,16 +3450,16 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.9750000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AB33">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6876486</v>
+        <v>6875457</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3482,10 +3482,10 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3497,40 +3497,40 @@
         <v>47</v>
       </c>
       <c r="K34">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L34">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M34">
+        <v>3.1</v>
+      </c>
+      <c r="N34">
         <v>2.9</v>
       </c>
-      <c r="N34">
+      <c r="O34">
+        <v>3.5</v>
+      </c>
+      <c r="P34">
+        <v>2.25</v>
+      </c>
+      <c r="Q34">
+        <v>0.25</v>
+      </c>
+      <c r="R34">
+        <v>1.875</v>
+      </c>
+      <c r="S34">
+        <v>1.975</v>
+      </c>
+      <c r="T34">
         <v>2.5</v>
       </c>
-      <c r="O34">
-        <v>3.25</v>
-      </c>
-      <c r="P34">
-        <v>2.8</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>1.82</v>
-      </c>
-      <c r="S34">
-        <v>2.08</v>
-      </c>
-      <c r="T34">
-        <v>2.25</v>
-      </c>
       <c r="U34">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
         <v>-1</v>
@@ -3539,16 +3539,16 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>1.08</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB34">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -4108,7 +4108,7 @@
         <v>45</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7165059</v>
+        <v>7165060</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,40 +4194,40 @@
         <v>45186.47916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K42">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L42">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M42">
         <v>3.2</v>
       </c>
       <c r="N42">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="O42">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P42">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q42">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R42">
         <v>2</v>
@@ -4236,34 +4236,34 @@
         <v>1.85</v>
       </c>
       <c r="T42">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z42">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7165060</v>
+        <v>7165059</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,40 +4283,40 @@
         <v>45186.47916666666</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K43">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L43">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M43">
         <v>3.2</v>
       </c>
       <c r="N43">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="O43">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P43">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
         <v>2</v>
@@ -4325,34 +4325,34 @@
         <v>1.85</v>
       </c>
       <c r="T43">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC43">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4375,7 +4375,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -5173,10 +5173,10 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F53" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" t="s">
         <v>41</v>
-      </c>
-      <c r="G53" t="s">
-        <v>42</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5529,7 +5529,7 @@
         <v>45198.67708333334</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
         <v>44</v>
@@ -5621,7 +5621,7 @@
         <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6876515</v>
+        <v>6876518</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,49 +6330,49 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K66">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L66">
         <v>3.2</v>
       </c>
       <c r="M66">
+        <v>2.875</v>
+      </c>
+      <c r="N66">
+        <v>2.2</v>
+      </c>
+      <c r="O66">
+        <v>3.2</v>
+      </c>
+      <c r="P66">
+        <v>3.1</v>
+      </c>
+      <c r="Q66">
+        <v>-0.25</v>
+      </c>
+      <c r="R66">
+        <v>2.01</v>
+      </c>
+      <c r="S66">
+        <v>1.89</v>
+      </c>
+      <c r="T66">
         <v>2.5</v>
-      </c>
-      <c r="N66">
-        <v>2.5</v>
-      </c>
-      <c r="O66">
-        <v>3.4</v>
-      </c>
-      <c r="P66">
-        <v>2.45</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>2</v>
-      </c>
-      <c r="S66">
-        <v>1.9</v>
-      </c>
-      <c r="T66">
-        <v>2.75</v>
       </c>
       <c r="U66">
         <v>1.95</v>
@@ -6381,25 +6381,25 @@
         <v>1.9</v>
       </c>
       <c r="W66">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.445</v>
       </c>
       <c r="AB66">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6876518</v>
+        <v>6876515</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,49 +6419,49 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K67">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L67">
         <v>3.2</v>
       </c>
       <c r="M67">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N67">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O67">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P67">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
         <v>1.95</v>
@@ -6470,25 +6470,25 @@
         <v>1.9</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X67">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA67">
-        <v>0.445</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6600,7 +6600,7 @@
         <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>44</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7131,7 +7131,7 @@
         <v>45227.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G75" t="s">
         <v>43</v>
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6876528</v>
+        <v>6876523</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,76 +7220,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76" t="s">
+        <v>49</v>
+      </c>
+      <c r="K76">
+        <v>1.166</v>
+      </c>
+      <c r="L76">
+        <v>7</v>
+      </c>
+      <c r="M76">
+        <v>15</v>
+      </c>
+      <c r="N76">
+        <v>1.222</v>
+      </c>
+      <c r="O76">
+        <v>6</v>
+      </c>
+      <c r="P76">
+        <v>11</v>
+      </c>
+      <c r="Q76">
+        <v>-1.75</v>
+      </c>
+      <c r="R76">
+        <v>1.875</v>
+      </c>
+      <c r="S76">
+        <v>1.975</v>
+      </c>
+      <c r="T76">
+        <v>3</v>
+      </c>
+      <c r="U76">
+        <v>1.95</v>
+      </c>
+      <c r="V76">
+        <v>1.9</v>
+      </c>
+      <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
         <v>5</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76" t="s">
-        <v>48</v>
-      </c>
-      <c r="K76">
-        <v>1.75</v>
-      </c>
-      <c r="L76">
-        <v>3.6</v>
-      </c>
-      <c r="M76">
-        <v>4.75</v>
-      </c>
-      <c r="N76">
-        <v>1.666</v>
-      </c>
-      <c r="O76">
-        <v>3.75</v>
-      </c>
-      <c r="P76">
-        <v>5</v>
-      </c>
-      <c r="Q76">
-        <v>-0.75</v>
-      </c>
-      <c r="R76">
-        <v>1.9</v>
-      </c>
-      <c r="S76">
-        <v>2</v>
-      </c>
-      <c r="T76">
-        <v>2.5</v>
-      </c>
-      <c r="U76">
-        <v>1.925</v>
-      </c>
-      <c r="V76">
-        <v>1.925</v>
-      </c>
-      <c r="W76">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X76">
-        <v>-1</v>
-      </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
+        <v>-1</v>
+      </c>
+      <c r="AA76">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB76">
+        <v>-1</v>
+      </c>
+      <c r="AC76">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA76">
-        <v>-1</v>
-      </c>
-      <c r="AB76">
-        <v>0.925</v>
-      </c>
-      <c r="AC76">
-        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6876523</v>
+        <v>6876528</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,76 +7309,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K77">
-        <v>1.166</v>
+        <v>1.75</v>
       </c>
       <c r="L77">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>15</v>
+        <v>4.75</v>
       </c>
       <c r="N77">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="O77">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P77">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q77">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X77">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA77">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC77">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7935,7 +7935,7 @@
         <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -8113,7 +8113,7 @@
         <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H86">
         <v>6</v>
@@ -8187,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6875463</v>
+        <v>6876531</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8199,76 +8199,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
         <v>1</v>
       </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
       <c r="J87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K87">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="L87">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N87">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="O87">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P87">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T87">
         <v>2.25</v>
       </c>
       <c r="U87">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z87">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6876531</v>
+        <v>6875463</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,76 +8288,76 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K88">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M88">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N88">
+        <v>2.875</v>
+      </c>
+      <c r="O88">
+        <v>3.3</v>
+      </c>
+      <c r="P88">
+        <v>2.4</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
         <v>2.1</v>
       </c>
-      <c r="O88">
-        <v>3.4</v>
-      </c>
-      <c r="P88">
-        <v>3.4</v>
-      </c>
-      <c r="Q88">
-        <v>-0.25</v>
-      </c>
-      <c r="R88">
-        <v>1.875</v>
-      </c>
       <c r="S88">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T88">
         <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA88">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8733,7 +8733,7 @@
         <v>45241.52083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G93" t="s">
         <v>40</v>
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6876541</v>
+        <v>6876540</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,19 +9089,19 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K97">
         <v>2</v>
@@ -9113,16 +9113,16 @@
         <v>3.6</v>
       </c>
       <c r="N97">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P97">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
         <v>1.95</v>
@@ -9131,34 +9131,34 @@
         <v>1.9</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V97">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6876540</v>
+        <v>6876541</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,19 +9178,19 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K98">
         <v>2</v>
@@ -9202,16 +9202,16 @@
         <v>3.6</v>
       </c>
       <c r="N98">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
         <v>1.95</v>
@@ -9220,34 +9220,34 @@
         <v>1.9</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y98">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA98">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB98">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9356,7 +9356,7 @@
         <v>45242.72916666666</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
         <v>32</v>
@@ -9804,7 +9804,7 @@
         <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9982,7 +9982,7 @@
         <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10335,7 +10335,7 @@
         <v>45268.625</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G111" t="s">
         <v>31</v>
@@ -10424,7 +10424,7 @@
         <v>45269.52083333334</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
         <v>46</v>
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6876563</v>
+        <v>6875467</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,40 +11403,40 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K123">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="L123">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>2.55</v>
+        <v>3.9</v>
       </c>
       <c r="N123">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O123">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P123">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R123">
         <v>1.875</v>
@@ -11445,31 +11445,31 @@
         <v>1.975</v>
       </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V123">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6875467</v>
+        <v>6876563</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,40 +11492,40 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H124">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K124">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="L124">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M124">
-        <v>3.9</v>
+        <v>2.55</v>
       </c>
       <c r="N124">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O124">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P124">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R124">
         <v>1.875</v>
@@ -11534,31 +11534,31 @@
         <v>1.975</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V124">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z124">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB124">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11673,7 +11673,7 @@
         <v>29</v>
       </c>
       <c r="G126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6876571</v>
+        <v>6875468</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,67 +11848,67 @@
         <v>45283.52083333334</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K128">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M128">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N128">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="O128">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P128">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R128">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S128">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T128">
         <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V128">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W128">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.4875</v>
+        <v>0.4</v>
       </c>
       <c r="AA128">
         <v>-0.5</v>
@@ -11917,7 +11917,7 @@
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6875468</v>
+        <v>6876571</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,67 +11937,67 @@
         <v>45283.52083333334</v>
       </c>
       <c r="F129" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K129">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L129">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M129">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N129">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="O129">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P129">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T129">
         <v>2.25</v>
       </c>
       <c r="U129">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V129">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X129">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.4</v>
+        <v>0.4875</v>
       </c>
       <c r="AA129">
         <v>-0.5</v>
@@ -12006,7 +12006,7 @@
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12115,7 +12115,7 @@
         <v>45289.65625</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G131" t="s">
         <v>46</v>
@@ -12560,7 +12560,7 @@
         <v>45290.72916666666</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G136" t="s">
         <v>32</v>
@@ -13008,7 +13008,7 @@
         <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13186,7 +13186,7 @@
         <v>33</v>
       </c>
       <c r="G143" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13450,7 +13450,7 @@
         <v>45303.71875</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G146" t="s">
         <v>31</v>
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6876586</v>
+        <v>6876591</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,40 +13895,40 @@
         <v>45305.625</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G151" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
         <v>4</v>
       </c>
-      <c r="I151">
-        <v>1</v>
-      </c>
       <c r="J151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K151">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="L151">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="M151">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="N151">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="O151">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="P151">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q151">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R151">
         <v>2.025</v>
@@ -13937,31 +13937,31 @@
         <v>1.825</v>
       </c>
       <c r="T151">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V151">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W151">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z151">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB151">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6876591</v>
+        <v>6876586</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,40 +13984,40 @@
         <v>45305.625</v>
       </c>
       <c r="F152" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H152">
+        <v>4</v>
+      </c>
+      <c r="I152">
         <v>1</v>
       </c>
-      <c r="I152">
-        <v>4</v>
-      </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K152">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="L152">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="M152">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="N152">
-        <v>1.95</v>
+        <v>1.2</v>
       </c>
       <c r="O152">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="P152">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q152">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R152">
         <v>2.025</v>
@@ -14026,31 +14026,31 @@
         <v>1.825</v>
       </c>
       <c r="T152">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U152">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA152">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14429,7 +14429,7 @@
         <v>45310.71875</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G157" t="s">
         <v>37</v>
@@ -14785,7 +14785,7 @@
         <v>45312.52083333334</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G161" t="s">
         <v>30</v>
@@ -15055,7 +15055,7 @@
         <v>37</v>
       </c>
       <c r="G164" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6876603</v>
+        <v>6876607</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,13 +15319,13 @@
         <v>45319.72916666666</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -15334,43 +15334,43 @@
         <v>48</v>
       </c>
       <c r="K167">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L167">
         <v>3.4</v>
       </c>
       <c r="M167">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N167">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="O167">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P167">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q167">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S167">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V167">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W167">
-        <v>2.25</v>
+        <v>0.8</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15379,16 +15379,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC167">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6876607</v>
+        <v>6876603</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,13 +15408,13 @@
         <v>45319.72916666666</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H168">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -15423,43 +15423,43 @@
         <v>48</v>
       </c>
       <c r="K168">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L168">
         <v>3.4</v>
       </c>
       <c r="M168">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N168">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="O168">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P168">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q168">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R168">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S168">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T168">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V168">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W168">
-        <v>0.8</v>
+        <v>2.25</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15468,16 +15468,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA168">
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15500,7 +15500,7 @@
         <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15853,7 +15853,7 @@
         <v>45325.52083333334</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G173" t="s">
         <v>35</v>
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6876611</v>
+        <v>6876616</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,76 +16031,76 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F175" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G175" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175">
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K175">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L175">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M175">
+        <v>2.5</v>
+      </c>
+      <c r="N175">
         <v>2.3</v>
       </c>
-      <c r="N175">
-        <v>4.2</v>
-      </c>
       <c r="O175">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P175">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="Q175">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S175">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U175">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V175">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA175">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC175">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16108,7 +16108,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6876616</v>
+        <v>6876611</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16120,76 +16120,76 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K176">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L176">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M176">
+        <v>2.3</v>
+      </c>
+      <c r="N176">
+        <v>4.2</v>
+      </c>
+      <c r="O176">
+        <v>3.6</v>
+      </c>
+      <c r="P176">
+        <v>1.85</v>
+      </c>
+      <c r="Q176">
+        <v>0.5</v>
+      </c>
+      <c r="R176">
+        <v>2.025</v>
+      </c>
+      <c r="S176">
+        <v>1.825</v>
+      </c>
+      <c r="T176">
         <v>2.5</v>
       </c>
-      <c r="N176">
-        <v>2.3</v>
-      </c>
-      <c r="O176">
-        <v>3.4</v>
-      </c>
-      <c r="P176">
-        <v>3.2</v>
-      </c>
-      <c r="Q176">
-        <v>-0.25</v>
-      </c>
-      <c r="R176">
-        <v>1.975</v>
-      </c>
-      <c r="S176">
-        <v>1.875</v>
-      </c>
-      <c r="T176">
-        <v>2.25</v>
-      </c>
       <c r="U176">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V176">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AB176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16197,7 +16197,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7758962</v>
+        <v>7758961</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16209,13 +16209,13 @@
         <v>45326.625</v>
       </c>
       <c r="F177" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -16224,61 +16224,61 @@
         <v>48</v>
       </c>
       <c r="K177">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="L177">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M177">
-        <v>3.2</v>
+        <v>14</v>
       </c>
       <c r="N177">
-        <v>2.05</v>
+        <v>1.142</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="P177">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="Q177">
+        <v>-2</v>
+      </c>
+      <c r="R177">
+        <v>1.825</v>
+      </c>
+      <c r="S177">
+        <v>2.025</v>
+      </c>
+      <c r="T177">
+        <v>3.25</v>
+      </c>
+      <c r="U177">
+        <v>1.825</v>
+      </c>
+      <c r="V177">
+        <v>2.025</v>
+      </c>
+      <c r="W177">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="X177">
+        <v>-1</v>
+      </c>
+      <c r="Y177">
+        <v>-1</v>
+      </c>
+      <c r="Z177">
+        <v>0.825</v>
+      </c>
+      <c r="AA177">
+        <v>-1</v>
+      </c>
+      <c r="AB177">
         <v>-0.5</v>
       </c>
-      <c r="R177">
-        <v>2.06</v>
-      </c>
-      <c r="S177">
-        <v>1.84</v>
-      </c>
-      <c r="T177">
-        <v>2.5</v>
-      </c>
-      <c r="U177">
-        <v>1.975</v>
-      </c>
-      <c r="V177">
-        <v>1.875</v>
-      </c>
-      <c r="W177">
-        <v>1.05</v>
-      </c>
-      <c r="X177">
-        <v>-1</v>
-      </c>
-      <c r="Y177">
-        <v>-1</v>
-      </c>
-      <c r="Z177">
-        <v>1.06</v>
-      </c>
-      <c r="AA177">
-        <v>-1</v>
-      </c>
-      <c r="AB177">
-        <v>-1</v>
-      </c>
       <c r="AC177">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16286,7 +16286,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7758961</v>
+        <v>7758962</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16298,13 +16298,13 @@
         <v>45326.625</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G178" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -16313,43 +16313,43 @@
         <v>48</v>
       </c>
       <c r="K178">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="L178">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M178">
-        <v>14</v>
+        <v>3.2</v>
       </c>
       <c r="N178">
-        <v>1.142</v>
+        <v>2.05</v>
       </c>
       <c r="O178">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="P178">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="Q178">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R178">
-        <v>1.825</v>
+        <v>2.06</v>
       </c>
       <c r="S178">
-        <v>2.025</v>
+        <v>1.84</v>
       </c>
       <c r="T178">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U178">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V178">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W178">
-        <v>0.1419999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16358,16 +16358,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.825</v>
+        <v>1.06</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16568,7 +16568,7 @@
         <v>34</v>
       </c>
       <c r="G181" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H181">
         <v>3</v>
@@ -17102,7 +17102,7 @@
         <v>39</v>
       </c>
       <c r="G187" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H187">
         <v>2</v>
@@ -17544,7 +17544,7 @@
         <v>45339.625</v>
       </c>
       <c r="F192" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s">
         <v>39</v>
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6876633</v>
+        <v>6876630</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,73 +17811,73 @@
         <v>45340.625</v>
       </c>
       <c r="F195" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G195" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H195">
+        <v>6</v>
+      </c>
+      <c r="I195">
         <v>1</v>
       </c>
-      <c r="I195">
-        <v>3</v>
-      </c>
       <c r="J195" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K195">
-        <v>2.2</v>
+        <v>1.111</v>
       </c>
       <c r="L195">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="M195">
-        <v>3.2</v>
+        <v>21</v>
       </c>
       <c r="N195">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="O195">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="P195">
-        <v>3.5</v>
+        <v>23</v>
       </c>
       <c r="Q195">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R195">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S195">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="T195">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U195">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V195">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA195">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6876630</v>
+        <v>6876633</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,73 +17900,73 @@
         <v>45340.625</v>
       </c>
       <c r="F196" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G196" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H196">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J196" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K196">
-        <v>1.111</v>
+        <v>2.2</v>
       </c>
       <c r="L196">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="M196">
-        <v>21</v>
+        <v>3.2</v>
       </c>
       <c r="N196">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="O196">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="P196">
-        <v>23</v>
+        <v>3.5</v>
       </c>
       <c r="Q196">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R196">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S196">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T196">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U196">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V196">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W196">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z196">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB196">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -18600,7 +18600,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6876637</v>
+        <v>6876641</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18612,76 +18612,76 @@
         <v>45347.625</v>
       </c>
       <c r="F204" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G204" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H204">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K204">
-        <v>1.125</v>
+        <v>7</v>
       </c>
       <c r="L204">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="M204">
-        <v>21</v>
+        <v>1.363</v>
       </c>
       <c r="N204">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="O204">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="P204">
-        <v>21</v>
+        <v>1.5</v>
       </c>
       <c r="Q204">
-        <v>-2.5</v>
+        <v>1</v>
       </c>
       <c r="R204">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S204">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T204">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V204">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W204">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X204">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y204">
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA204">
         <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18689,7 +18689,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6876641</v>
+        <v>6876637</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,76 +18701,76 @@
         <v>45347.625</v>
       </c>
       <c r="F205" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G205" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K205">
-        <v>7</v>
+        <v>1.125</v>
       </c>
       <c r="L205">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="M205">
-        <v>1.363</v>
+        <v>21</v>
       </c>
       <c r="N205">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="O205">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="P205">
-        <v>1.5</v>
+        <v>21</v>
       </c>
       <c r="Q205">
-        <v>1</v>
+        <v>-2.5</v>
       </c>
       <c r="R205">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S205">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T205">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U205">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V205">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X205">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA205">
         <v>-1</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC205">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -19329,6 +19329,15 @@
       <c r="G212" t="s">
         <v>30</v>
       </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212" t="s">
+        <v>49</v>
+      </c>
       <c r="K212">
         <v>2.4</v>
       </c>
@@ -19339,46 +19348,52 @@
         <v>3.1</v>
       </c>
       <c r="N212">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O212">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P212">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q212">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R212">
-        <v>2.11</v>
+        <v>1.825</v>
       </c>
       <c r="S212">
-        <v>1.79</v>
+        <v>2.025</v>
       </c>
       <c r="T212">
         <v>2</v>
       </c>
       <c r="U212">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V212">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
         <v>0</v>
       </c>
       <c r="AA212">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB212">
+        <v>-1</v>
+      </c>
+      <c r="AC212">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19398,11 +19413,20 @@
         <v>45354.52083333334</v>
       </c>
       <c r="F213" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G213" t="s">
         <v>45</v>
       </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213" t="s">
+        <v>49</v>
+      </c>
       <c r="K213">
         <v>2.625</v>
       </c>
@@ -19413,46 +19437,52 @@
         <v>2.75</v>
       </c>
       <c r="N213">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O213">
         <v>3.25</v>
       </c>
       <c r="P213">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q213">
         <v>0</v>
       </c>
       <c r="R213">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S213">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="T213">
         <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V213">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X213">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
         <v>0</v>
       </c>
       <c r="AA213">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB213">
+        <v>-1</v>
+      </c>
+      <c r="AC213">
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19477,6 +19507,15 @@
       <c r="G214" t="s">
         <v>31</v>
       </c>
+      <c r="H214">
+        <v>3</v>
+      </c>
+      <c r="I214">
+        <v>2</v>
+      </c>
+      <c r="J214" t="s">
+        <v>48</v>
+      </c>
       <c r="K214">
         <v>1.125</v>
       </c>
@@ -19490,43 +19529,49 @@
         <v>1.142</v>
       </c>
       <c r="O214">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="P214">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q214">
         <v>-2.25</v>
       </c>
       <c r="R214">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S214">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T214">
         <v>3.5</v>
       </c>
       <c r="U214">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V214">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W214">
-        <v>0</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X214">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB214">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC214">
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19549,7 +19594,16 @@
         <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="H215">
+        <v>5</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215" t="s">
+        <v>48</v>
       </c>
       <c r="K215">
         <v>2.375</v>
@@ -19561,46 +19615,52 @@
         <v>3</v>
       </c>
       <c r="N215">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O215">
         <v>3.5</v>
       </c>
       <c r="P215">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q215">
         <v>-0.25</v>
       </c>
       <c r="R215">
-        <v>2.08</v>
+        <v>2.025</v>
       </c>
       <c r="S215">
-        <v>1.82</v>
+        <v>1.825</v>
       </c>
       <c r="T215">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W215">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA215">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB215">
+        <v>1.025</v>
+      </c>
+      <c r="AC215">
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19625,6 +19685,15 @@
       <c r="G216" t="s">
         <v>37</v>
       </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216" t="s">
+        <v>49</v>
+      </c>
       <c r="K216">
         <v>2.1</v>
       </c>
@@ -19635,45 +19704,717 @@
         <v>3.5</v>
       </c>
       <c r="N216">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O216">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P216">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q216">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="S216">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T216">
         <v>2.25</v>
       </c>
       <c r="U216">
+        <v>2.1</v>
+      </c>
+      <c r="V216">
+        <v>1.775</v>
+      </c>
+      <c r="W216">
+        <v>-1</v>
+      </c>
+      <c r="X216">
+        <v>2.1</v>
+      </c>
+      <c r="Y216">
+        <v>-1</v>
+      </c>
+      <c r="Z216">
+        <v>-0.5</v>
+      </c>
+      <c r="AA216">
+        <v>0.5</v>
+      </c>
+      <c r="AB216">
+        <v>-0.5</v>
+      </c>
+      <c r="AC216">
+        <v>0.3875</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>6876650</v>
+      </c>
+      <c r="C217" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45359.65625</v>
+      </c>
+      <c r="F217" t="s">
+        <v>42</v>
+      </c>
+      <c r="G217" t="s">
+        <v>44</v>
+      </c>
+      <c r="K217">
+        <v>8</v>
+      </c>
+      <c r="L217">
+        <v>5.5</v>
+      </c>
+      <c r="M217">
+        <v>1.333</v>
+      </c>
+      <c r="N217">
+        <v>11</v>
+      </c>
+      <c r="O217">
+        <v>6</v>
+      </c>
+      <c r="P217">
+        <v>1.25</v>
+      </c>
+      <c r="Q217">
+        <v>1.5</v>
+      </c>
+      <c r="R217">
+        <v>2.04</v>
+      </c>
+      <c r="S217">
+        <v>1.86</v>
+      </c>
+      <c r="T217">
+        <v>3</v>
+      </c>
+      <c r="U217">
+        <v>2.025</v>
+      </c>
+      <c r="V217">
         <v>1.825</v>
       </c>
-      <c r="V216">
+      <c r="W217">
+        <v>0</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
+      </c>
+      <c r="Y217">
+        <v>0</v>
+      </c>
+      <c r="Z217">
+        <v>0</v>
+      </c>
+      <c r="AA217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>6876654</v>
+      </c>
+      <c r="C218" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" t="s">
+        <v>28</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45359.73958333334</v>
+      </c>
+      <c r="F218" t="s">
+        <v>34</v>
+      </c>
+      <c r="G218" t="s">
+        <v>38</v>
+      </c>
+      <c r="K218">
+        <v>2.45</v>
+      </c>
+      <c r="L218">
+        <v>3.1</v>
+      </c>
+      <c r="M218">
+        <v>3</v>
+      </c>
+      <c r="N218">
+        <v>2.375</v>
+      </c>
+      <c r="O218">
+        <v>3</v>
+      </c>
+      <c r="P218">
+        <v>3.2</v>
+      </c>
+      <c r="Q218">
+        <v>-0.25</v>
+      </c>
+      <c r="R218">
+        <v>2.04</v>
+      </c>
+      <c r="S218">
+        <v>1.86</v>
+      </c>
+      <c r="T218">
+        <v>2</v>
+      </c>
+      <c r="U218">
+        <v>1.825</v>
+      </c>
+      <c r="V218">
         <v>2.025</v>
       </c>
-      <c r="W216">
-        <v>0</v>
-      </c>
-      <c r="X216">
-        <v>0</v>
-      </c>
-      <c r="Y216">
-        <v>0</v>
-      </c>
-      <c r="Z216">
-        <v>0</v>
-      </c>
-      <c r="AA216">
+      <c r="W218">
+        <v>0</v>
+      </c>
+      <c r="X218">
+        <v>0</v>
+      </c>
+      <c r="Y218">
+        <v>0</v>
+      </c>
+      <c r="Z218">
+        <v>0</v>
+      </c>
+      <c r="AA218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>6876655</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45360.52083333334</v>
+      </c>
+      <c r="F219" t="s">
+        <v>45</v>
+      </c>
+      <c r="G219" t="s">
+        <v>31</v>
+      </c>
+      <c r="K219">
+        <v>2.3</v>
+      </c>
+      <c r="L219">
+        <v>3.2</v>
+      </c>
+      <c r="M219">
+        <v>3.1</v>
+      </c>
+      <c r="N219">
+        <v>2.3</v>
+      </c>
+      <c r="O219">
+        <v>3.2</v>
+      </c>
+      <c r="P219">
+        <v>3.1</v>
+      </c>
+      <c r="Q219">
+        <v>-0.25</v>
+      </c>
+      <c r="R219">
+        <v>2.06</v>
+      </c>
+      <c r="S219">
+        <v>1.84</v>
+      </c>
+      <c r="T219">
+        <v>2.5</v>
+      </c>
+      <c r="U219">
+        <v>2.05</v>
+      </c>
+      <c r="V219">
+        <v>1.8</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219">
+        <v>0</v>
+      </c>
+      <c r="Z219">
+        <v>0</v>
+      </c>
+      <c r="AA219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>6875478</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45360.625</v>
+      </c>
+      <c r="F220" t="s">
+        <v>37</v>
+      </c>
+      <c r="G220" t="s">
+        <v>36</v>
+      </c>
+      <c r="K220">
+        <v>2.6</v>
+      </c>
+      <c r="L220">
+        <v>3.25</v>
+      </c>
+      <c r="M220">
+        <v>2.75</v>
+      </c>
+      <c r="N220">
+        <v>2.625</v>
+      </c>
+      <c r="O220">
+        <v>3.1</v>
+      </c>
+      <c r="P220">
+        <v>2.875</v>
+      </c>
+      <c r="Q220">
+        <v>0</v>
+      </c>
+      <c r="R220">
+        <v>1.86</v>
+      </c>
+      <c r="S220">
+        <v>2.04</v>
+      </c>
+      <c r="T220">
+        <v>2.25</v>
+      </c>
+      <c r="U220">
+        <v>2.05</v>
+      </c>
+      <c r="V220">
+        <v>1.8</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>6876651</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45360.625</v>
+      </c>
+      <c r="F221" t="s">
+        <v>33</v>
+      </c>
+      <c r="G221" t="s">
+        <v>29</v>
+      </c>
+      <c r="K221">
+        <v>4.333</v>
+      </c>
+      <c r="L221">
+        <v>4</v>
+      </c>
+      <c r="M221">
+        <v>1.727</v>
+      </c>
+      <c r="N221">
+        <v>4.2</v>
+      </c>
+      <c r="O221">
+        <v>4</v>
+      </c>
+      <c r="P221">
+        <v>1.8</v>
+      </c>
+      <c r="Q221">
+        <v>0.75</v>
+      </c>
+      <c r="R221">
+        <v>1.86</v>
+      </c>
+      <c r="S221">
+        <v>2.04</v>
+      </c>
+      <c r="T221">
+        <v>2.5</v>
+      </c>
+      <c r="U221">
+        <v>1.825</v>
+      </c>
+      <c r="V221">
+        <v>2.025</v>
+      </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221">
+        <v>0</v>
+      </c>
+      <c r="Y221">
+        <v>0</v>
+      </c>
+      <c r="Z221">
+        <v>0</v>
+      </c>
+      <c r="AA221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>6876653</v>
+      </c>
+      <c r="C222" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" t="s">
+        <v>28</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45360.72916666666</v>
+      </c>
+      <c r="F222" t="s">
+        <v>39</v>
+      </c>
+      <c r="G222" t="s">
+        <v>46</v>
+      </c>
+      <c r="K222">
+        <v>1.833</v>
+      </c>
+      <c r="L222">
+        <v>3.6</v>
+      </c>
+      <c r="M222">
+        <v>4</v>
+      </c>
+      <c r="N222">
+        <v>1.833</v>
+      </c>
+      <c r="O222">
+        <v>3.6</v>
+      </c>
+      <c r="P222">
+        <v>4.2</v>
+      </c>
+      <c r="Q222">
+        <v>-0.5</v>
+      </c>
+      <c r="R222">
+        <v>1.87</v>
+      </c>
+      <c r="S222">
+        <v>2.03</v>
+      </c>
+      <c r="T222">
+        <v>2.25</v>
+      </c>
+      <c r="U222">
+        <v>1.825</v>
+      </c>
+      <c r="V222">
+        <v>2.025</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>6876657</v>
+      </c>
+      <c r="C223" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45361.625</v>
+      </c>
+      <c r="F223" t="s">
+        <v>35</v>
+      </c>
+      <c r="G223" t="s">
+        <v>32</v>
+      </c>
+      <c r="K223">
+        <v>8.5</v>
+      </c>
+      <c r="L223">
+        <v>4.75</v>
+      </c>
+      <c r="M223">
+        <v>1.4</v>
+      </c>
+      <c r="N223">
+        <v>8</v>
+      </c>
+      <c r="O223">
+        <v>4.5</v>
+      </c>
+      <c r="P223">
+        <v>1.4</v>
+      </c>
+      <c r="Q223">
+        <v>1.25</v>
+      </c>
+      <c r="R223">
+        <v>2.03</v>
+      </c>
+      <c r="S223">
+        <v>1.87</v>
+      </c>
+      <c r="T223">
+        <v>3</v>
+      </c>
+      <c r="U223">
+        <v>2</v>
+      </c>
+      <c r="V223">
+        <v>1.85</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>6876656</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45361.72916666666</v>
+      </c>
+      <c r="F224" t="s">
+        <v>41</v>
+      </c>
+      <c r="G224" t="s">
+        <v>43</v>
+      </c>
+      <c r="K224">
+        <v>1.181</v>
+      </c>
+      <c r="L224">
+        <v>7</v>
+      </c>
+      <c r="M224">
+        <v>15</v>
+      </c>
+      <c r="N224">
+        <v>1.166</v>
+      </c>
+      <c r="O224">
+        <v>7</v>
+      </c>
+      <c r="P224">
+        <v>15</v>
+      </c>
+      <c r="Q224">
+        <v>-2.25</v>
+      </c>
+      <c r="R224">
+        <v>2.07</v>
+      </c>
+      <c r="S224">
+        <v>1.83</v>
+      </c>
+      <c r="T224">
+        <v>3.5</v>
+      </c>
+      <c r="U224">
+        <v>1.925</v>
+      </c>
+      <c r="V224">
+        <v>1.925</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>6876652</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45362.71875</v>
+      </c>
+      <c r="F225" t="s">
+        <v>30</v>
+      </c>
+      <c r="G225" t="s">
+        <v>40</v>
+      </c>
+      <c r="K225">
+        <v>1.85</v>
+      </c>
+      <c r="L225">
+        <v>3.6</v>
+      </c>
+      <c r="M225">
+        <v>4</v>
+      </c>
+      <c r="N225">
+        <v>1.833</v>
+      </c>
+      <c r="O225">
+        <v>3.6</v>
+      </c>
+      <c r="P225">
+        <v>4.2</v>
+      </c>
+      <c r="Q225">
+        <v>-0.5</v>
+      </c>
+      <c r="R225">
+        <v>1.86</v>
+      </c>
+      <c r="S225">
+        <v>2.04</v>
+      </c>
+      <c r="T225">
+        <v>2.5</v>
+      </c>
+      <c r="U225">
+        <v>2</v>
+      </c>
+      <c r="V225">
+        <v>1.85</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
+++ b/Portugal Primeira Liga/Portugal Primeira Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -139,10 +139,10 @@
     <t>Chaves</t>
   </si>
   <si>
-    <t>Benfica</t>
+    <t>Portimonense</t>
   </si>
   <si>
-    <t>Portimonense</t>
+    <t>Benfica</t>
   </si>
   <si>
     <t>Estoril</t>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -1349,7 +1349,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6876465</v>
+        <v>6876471</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,73 +1705,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14">
+        <v>2.45</v>
+      </c>
+      <c r="L14">
+        <v>3.25</v>
+      </c>
+      <c r="M14">
+        <v>2.875</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>3.3</v>
+      </c>
+      <c r="P14">
+        <v>2.3</v>
+      </c>
+      <c r="Q14">
+        <v>0.25</v>
+      </c>
+      <c r="R14">
+        <v>1.85</v>
+      </c>
+      <c r="S14">
         <v>2</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14">
-        <v>1.125</v>
-      </c>
-      <c r="L14">
-        <v>8</v>
-      </c>
-      <c r="M14">
-        <v>19</v>
-      </c>
-      <c r="N14">
-        <v>1.142</v>
-      </c>
-      <c r="O14">
-        <v>7.5</v>
-      </c>
-      <c r="P14">
-        <v>17</v>
-      </c>
-      <c r="Q14">
-        <v>-2.25</v>
-      </c>
-      <c r="R14">
+      <c r="T14">
+        <v>2.25</v>
+      </c>
+      <c r="U14">
         <v>1.925</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>1.925</v>
       </c>
-      <c r="T14">
-        <v>3.5</v>
-      </c>
-      <c r="U14">
-        <v>1.875</v>
-      </c>
-      <c r="V14">
-        <v>1.975</v>
-      </c>
       <c r="W14">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6876471</v>
+        <v>6876465</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,73 +1794,73 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>2.45</v>
+        <v>1.125</v>
       </c>
       <c r="L15">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M15">
-        <v>2.875</v>
+        <v>19</v>
       </c>
       <c r="N15">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="O15">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P15">
-        <v>2.3</v>
+        <v>17</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R15">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U15">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V15">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB15">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2328,7 +2328,7 @@
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2506,7 +2506,7 @@
         <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -3114,7 +3114,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6876488</v>
+        <v>6876483</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3126,76 +3126,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M30">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N30">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O30">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P30">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
+        <v>2.025</v>
+      </c>
+      <c r="S30">
         <v>1.825</v>
-      </c>
-      <c r="S30">
-        <v>2.025</v>
       </c>
       <c r="T30">
         <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X30">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA30">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6876483</v>
+        <v>6876488</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,76 +3215,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L31">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M31">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N31">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O31">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R31">
+        <v>1.825</v>
+      </c>
+      <c r="S31">
         <v>2.025</v>
-      </c>
-      <c r="S31">
-        <v>1.825</v>
       </c>
       <c r="T31">
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W31">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC31">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3304,7 +3304,7 @@
         <v>45171.6875</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
         <v>39</v>
@@ -4108,7 +4108,7 @@
         <v>45</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4375,7 +4375,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -5173,10 +5173,10 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F53" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" t="s">
         <v>42</v>
-      </c>
-      <c r="G53" t="s">
-        <v>41</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5529,7 +5529,7 @@
         <v>45198.67708333334</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s">
         <v>44</v>
@@ -5621,7 +5621,7 @@
         <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -6600,7 +6600,7 @@
         <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6876517</v>
+        <v>6876516</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,55 +6686,55 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
         <v>47</v>
       </c>
       <c r="K70">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L70">
         <v>3.1</v>
       </c>
       <c r="M70">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N70">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O70">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P70">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S70">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T70">
         <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6743,19 +6743,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC70">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6876516</v>
+        <v>6876517</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,55 +6775,55 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
         <v>1</v>
-      </c>
-      <c r="I71">
-        <v>3</v>
       </c>
       <c r="J71" t="s">
         <v>47</v>
       </c>
       <c r="K71">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L71">
         <v>3.1</v>
       </c>
       <c r="M71">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N71">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O71">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P71">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T71">
         <v>2.25</v>
       </c>
       <c r="U71">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W71">
         <v>-1</v>
@@ -6832,19 +6832,19 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB71">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6867,7 +6867,7 @@
         <v>44</v>
       </c>
       <c r="G72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7131,7 +7131,7 @@
         <v>45227.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
         <v>43</v>
@@ -7220,7 +7220,7 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s">
         <v>38</v>
@@ -7935,7 +7935,7 @@
         <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -8113,7 +8113,7 @@
         <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H86">
         <v>6</v>
@@ -8733,7 +8733,7 @@
         <v>45241.52083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
         <v>40</v>
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6876540</v>
+        <v>6876541</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,19 +9089,19 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+      